--- a/Output Data/Crpo/Common_folder/API_Performance_Chart_Report.xlsx
+++ b/Output Data/Crpo/Common_folder/API_Performance_Chart_Report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="159">
   <si>
     <t xml:space="preserve">get_tenant_details</t>
   </si>
@@ -206,6 +206,66 @@
     <t xml:space="preserve">11:57:AM</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-07-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:52:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:53:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:55:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:47:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:03:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:06:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:20:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:24:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:25:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:01:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:03:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:06:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:45:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:47:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:49:AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:41:PM</t>
   </si>
   <si>
@@ -257,9 +317,6 @@
     <t xml:space="preserve">10:30:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">10:47:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">11:40:AM</t>
   </si>
   <si>
@@ -269,6 +326,36 @@
     <t xml:space="preserve">12:04:PM</t>
   </si>
   <si>
+    <t xml:space="preserve">08:26:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:34:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:47:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:45:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:01:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:04:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:58:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:04:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:08:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:00:PM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:43:PM</t>
   </si>
   <si>
@@ -281,9 +368,6 @@
     <t xml:space="preserve">08:40:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">08:52:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">11:31:AM</t>
   </si>
   <si>
@@ -335,12 +419,33 @@
     <t xml:space="preserve">12:24:PM</t>
   </si>
   <si>
+    <t xml:space="preserve">08:33:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:46:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:48:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:16:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:05:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:26:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:04:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:46:AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:44:PM</t>
   </si>
   <si>
-    <t xml:space="preserve">08:53:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">11:32:AM</t>
   </si>
   <si>
@@ -365,18 +470,12 @@
     <t xml:space="preserve">04:48:PM</t>
   </si>
   <si>
-    <t xml:space="preserve">07:26:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">07:40:AM</t>
   </si>
   <si>
     <t xml:space="preserve">07:49:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">10:49:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">10:51:AM</t>
   </si>
   <si>
@@ -390,6 +489,18 @@
   </si>
   <si>
     <t xml:space="preserve">12:41:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:30:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:13:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:07:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:48:AM</t>
   </si>
 </sst>
 </file>
@@ -705,16 +816,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.00845777948718</c:v>
+                  <c:v>1.01766752962963</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.24809352820513</c:v>
+                  <c:v>2.39424422962963</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.911122487179487</c:v>
+                  <c:v>0.970565618518518</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.48431291282051</c:v>
+                  <c:v>3.67849944074074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -781,16 +892,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.781415005128205</c:v>
+                  <c:v>0.846236492592593</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.33365313333333</c:v>
+                  <c:v>2.25191389259259</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0361158</c:v>
+                  <c:v>1.06763198518519</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.33343932307692</c:v>
+                  <c:v>2.34241344814815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -857,16 +968,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.00796721538462</c:v>
+                  <c:v>1.06022282592593</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.94498638974359</c:v>
+                  <c:v>1.90331556666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.07728953333333</c:v>
+                  <c:v>1.11078835925926</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2321714</c:v>
+                  <c:v>2.22153361851852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -933,16 +1044,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.31045510769231</c:v>
+                  <c:v>1.40201885925926</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2817759025641</c:v>
+                  <c:v>2.34251788518518</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.50878093846154</c:v>
+                  <c:v>1.55659378148148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.82541278974359</c:v>
+                  <c:v>2.83779323703704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1009,16 +1120,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.794827984615385</c:v>
+                  <c:v>0.874631425925926</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.81694029230769</c:v>
+                  <c:v>1.90318064444444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.07613280512821</c:v>
+                  <c:v>1.10107591481482</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.99418278974359</c:v>
+                  <c:v>1.91808773333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1026,11 +1137,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="-10"/>
-        <c:axId val="61926313"/>
-        <c:axId val="83517225"/>
+        <c:axId val="82684470"/>
+        <c:axId val="33884029"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61926313"/>
+        <c:axId val="82684470"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1096,14 +1207,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83517225"/>
+        <c:crossAx val="33884029"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83517225"/>
+        <c:axId val="33884029"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1169,7 +1280,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61926313"/>
+        <c:crossAx val="82684470"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1232,7 +1343,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>304920</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1240,8 +1351,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="1143000"/>
-        <a:ext cx="12173400" cy="2742840"/>
+        <a:off x="0" y="1051560"/>
+        <a:ext cx="12173400" cy="2529720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1261,11 +1372,11 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.49"/>
@@ -1276,7 +1387,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1293,84 +1404,84 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.00845777948718</v>
+        <v>1.01766752962963</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.781415005128205</v>
+        <v>0.846236492592593</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>1.00796721538462</v>
+        <v>1.06022282592593</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1.31045510769231</v>
+        <v>1.40201885925926</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.794827984615385</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.874631425925926</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>2.24809352820513</v>
+        <v>2.39424422962963</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>2.33365313333333</v>
+        <v>2.25191389259259</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1.94498638974359</v>
+        <v>1.90331556666667</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>2.2817759025641</v>
+        <v>2.34251788518518</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1.81694029230769</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.90318064444444</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>0.911122487179487</v>
+        <v>0.970565618518518</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>1.0361158</v>
+        <v>1.06763198518519</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>1.07728953333333</v>
+        <v>1.11078835925926</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>1.50878093846154</v>
+        <v>1.55659378148148</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1.07613280512821</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.10107591481482</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>3.48431291282051</v>
+        <v>3.67849944074074</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>2.33343932307692</v>
+        <v>2.34241344814815</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>2.2321714</v>
+        <v>2.22153361851852</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>2.82541278974359</v>
+        <v>2.83779323703704</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1.99418278974359</v>
+        <v>1.91808773333333</v>
       </c>
     </row>
   </sheetData>
@@ -1393,7 +1504,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2326,6 +2437,351 @@
       </c>
       <c r="G40" s="3" t="n">
         <v>0.8301892</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>0.6970636</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>0.7560248</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>1.0677468</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>1.04298</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>1.7086616</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="3" t="n">
+        <v>1.1335438</v>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>1.3447588</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>1.3786784</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>1.1246994</v>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>0.603143</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>0.859495</v>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>0.5353868</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>1.0007868</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>1.932121</v>
+      </c>
+      <c r="G43" s="3" t="n">
+        <v>1.5519822</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="3" t="n">
+        <v>0.9799876</v>
+      </c>
+      <c r="D44" s="3" t="n">
+        <v>0.882955</v>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>1.243534</v>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>1.7065556</v>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>0.744271</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="3" t="n">
+        <v>0.7894934</v>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>1.5566398</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>1.6964016</v>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>1.6774242</v>
+      </c>
+      <c r="G45" s="3" t="n">
+        <v>1.6617968</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="3" t="n">
+        <v>0.723385</v>
+      </c>
+      <c r="D46" s="3" t="n">
+        <v>0.649583</v>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>1.0368912</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>1.548416</v>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>0.6376878</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="3" t="n">
+        <v>1.3154154</v>
+      </c>
+      <c r="D47" s="3" t="n">
+        <v>1.0691104</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>1.3835996</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>2.1018882</v>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>1.1256312</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="3" t="n">
+        <v>1.0656754</v>
+      </c>
+      <c r="D48" s="3" t="n">
+        <v>0.732949</v>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>0.979966</v>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>1.7450508</v>
+      </c>
+      <c r="G48" s="3" t="n">
+        <v>0.8892084</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="3" t="n">
+        <v>1.133399</v>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>1.2192206</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>1.0804794</v>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>1.6307256</v>
+      </c>
+      <c r="G49" s="3" t="n">
+        <v>1.0424772</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="3" t="n">
+        <v>1.4079638</v>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>1.3678576</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>1.5746124</v>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>1.9403692</v>
+      </c>
+      <c r="G50" s="3" t="n">
+        <v>1.3990678</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="3" t="n">
+        <v>1.438895</v>
+      </c>
+      <c r="D51" s="3" t="n">
+        <v>1.3485682</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>1.2471514</v>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>1.7966524</v>
+      </c>
+      <c r="G51" s="3" t="n">
+        <v>1.2158014</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="3" t="n">
+        <v>1.4429276</v>
+      </c>
+      <c r="D52" s="3" t="n">
+        <v>1.3262304</v>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>1.5125068</v>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>1.9190502</v>
+      </c>
+      <c r="G52" s="3" t="n">
+        <v>1.130747</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="3" t="n">
+        <v>1.0745438</v>
+      </c>
+      <c r="D53" s="3" t="n">
+        <v>0.846375</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>0.8096276</v>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>1.5468486</v>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>0.634675</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="3" t="n">
+        <v>0.8623898</v>
+      </c>
+      <c r="D54" s="3" t="n">
+        <v>0.9240942</v>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>1.2087328</v>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>1.4984644</v>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>0.7129542</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="3" t="n">
+        <v>0.700015</v>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>0.6618318</v>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>0.7205964</v>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>1.3900236</v>
+      </c>
+      <c r="G55" s="3" t="n">
+        <v>1.173701</v>
       </c>
     </row>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2354,7 +2810,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2397,7 +2853,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>2.0220664</v>
@@ -2420,7 +2876,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>2.4586498</v>
@@ -2466,7 +2922,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>2.1296676</v>
@@ -2489,7 +2945,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>2.0261682</v>
@@ -2535,7 +2991,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>2.1709282</v>
@@ -2558,7 +3014,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>2.1589454</v>
@@ -2581,7 +3037,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>2.0390428</v>
@@ -2627,7 +3083,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>1.9875636</v>
@@ -2696,7 +3152,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>2.1964826</v>
@@ -2742,7 +3198,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>2.0752022</v>
@@ -2903,7 +3359,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>2.6861386</v>
@@ -2949,7 +3405,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>2.330873</v>
@@ -2972,7 +3428,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>2.4523078</v>
@@ -2995,7 +3451,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>2.3690538</v>
@@ -3018,7 +3474,7 @@
         <v>46</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>2.031089</v>
@@ -3041,7 +3497,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>2.3269536</v>
@@ -3087,7 +3543,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C32" s="3" t="n">
         <v>1.9277496</v>
@@ -3133,7 +3589,7 @@
         <v>50</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" s="3" t="n">
         <v>2.1495374</v>
@@ -3179,7 +3635,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>2.1296676</v>
@@ -3202,7 +3658,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>2.0261682</v>
@@ -3225,7 +3681,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>2.138844</v>
@@ -3248,7 +3704,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>2.569399</v>
@@ -3271,7 +3727,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>2.2719068</v>
@@ -3287,6 +3743,351 @@
       </c>
       <c r="G40" s="3" t="n">
         <v>1.5332564</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>2.4505342</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>1.042875</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>1.5228736</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>1.637505</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>2.0395252</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="3" t="n">
+        <v>2.5803136</v>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>1.1525966</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>1.2568084</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>1.4718878</v>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>1.3662118</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>2.245899</v>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>1.3721928</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>2.0071962</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>2.6444904</v>
+      </c>
+      <c r="G43" s="3" t="n">
+        <v>2.925483</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="3" t="n">
+        <v>2.4560934</v>
+      </c>
+      <c r="D44" s="3" t="n">
+        <v>1.8522784</v>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>1.4691932</v>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>2.6753028</v>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>1.6150922</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="3" t="n">
+        <v>2.0923624</v>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>1.9639236</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>2.5498536</v>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>3.2592844</v>
+      </c>
+      <c r="G45" s="3" t="n">
+        <v>3.6203564</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="3" t="n">
+        <v>2.7843442</v>
+      </c>
+      <c r="D46" s="3" t="n">
+        <v>2.5435242</v>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>1.2745902</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>1.5364352</v>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>1.3409988</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="3" t="n">
+        <v>2.5149182</v>
+      </c>
+      <c r="D47" s="3" t="n">
+        <v>2.4649174</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>2.0088952</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>2.5897514</v>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>1.8753574</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="3" t="n">
+        <v>3.1230162</v>
+      </c>
+      <c r="D48" s="3" t="n">
+        <v>2.1433064</v>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>2.0445056</v>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>2.461969</v>
+      </c>
+      <c r="G48" s="3" t="n">
+        <v>1.60999</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="3" t="n">
+        <v>3.6995458</v>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>3.0789918</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>2.7491362</v>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>3.5113496</v>
+      </c>
+      <c r="G49" s="3" t="n">
+        <v>3.0269358</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="3" t="n">
+        <v>2.7353538</v>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>4.9824328</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>2.1457102</v>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>2.6571934</v>
+      </c>
+      <c r="G50" s="3" t="n">
+        <v>2.2269784</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="3" t="n">
+        <v>3.3092548</v>
+      </c>
+      <c r="D51" s="3" t="n">
+        <v>1.706787</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>1.7146822</v>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>2.3946932</v>
+      </c>
+      <c r="G51" s="3" t="n">
+        <v>1.8803928</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="3" t="n">
+        <v>2.6670216</v>
+      </c>
+      <c r="D52" s="3" t="n">
+        <v>1.6500214</v>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>1.9757692</v>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>2.2888126</v>
+      </c>
+      <c r="G52" s="3" t="n">
+        <v>1.9202404</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="3" t="n">
+        <v>2.9713202</v>
+      </c>
+      <c r="D53" s="3" t="n">
+        <v>1.7983304</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>1.2820992</v>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>2.1533724</v>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>1.6825578</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="3" t="n">
+        <v>3.0476272</v>
+      </c>
+      <c r="D54" s="3" t="n">
+        <v>1.5129136</v>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>1.5282142</v>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>2.3836784</v>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>2.381404</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="3" t="n">
+        <v>2.9359362</v>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>1.3257866</v>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>1.3950442</v>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>3.84098</v>
+      </c>
+      <c r="G55" s="3" t="n">
+        <v>2.3995594</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3312,7 +4113,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3355,7 +4156,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>0.7804054</v>
@@ -3378,7 +4179,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>0.7779802</v>
@@ -3401,7 +4202,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>0.7043458</v>
@@ -3424,7 +4225,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>0.7145706</v>
@@ -3447,7 +4248,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>0.7079038</v>
@@ -3493,7 +4294,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>0.6280168</v>
@@ -3539,7 +4340,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>0.7373706</v>
@@ -3585,7 +4386,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>0.7234852</v>
@@ -3677,7 +4478,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>0.3510038</v>
@@ -3700,7 +4501,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>0.5421752</v>
@@ -3723,7 +4524,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>0.5591408</v>
@@ -3746,7 +4547,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>0.5551518</v>
@@ -3838,7 +4639,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>0.9795414</v>
@@ -3861,7 +4662,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>3.7305486</v>
@@ -3884,7 +4685,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>2.3842444</v>
@@ -3907,7 +4708,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>2.139728</v>
@@ -3930,7 +4731,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>0.7112716</v>
@@ -3953,7 +4754,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>0.67812</v>
@@ -3976,7 +4777,7 @@
         <v>46</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>0.6440876</v>
@@ -3999,7 +4800,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>0.712753</v>
@@ -4022,7 +4823,7 @@
         <v>46</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>0.630812</v>
@@ -4068,7 +4869,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>0.7013216</v>
@@ -4137,7 +4938,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>0.7043458</v>
@@ -4160,7 +4961,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>0.7145706</v>
@@ -4178,12 +4979,12 @@
         <v>0.8505872</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>1.2584274</v>
@@ -4201,12 +5002,12 @@
         <v>1.5028426</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>1.3856258</v>
@@ -4224,12 +5025,12 @@
         <v>1.4899634</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>1.1413118</v>
@@ -4245,6 +5046,351 @@
       </c>
       <c r="G40" s="3" t="n">
         <v>1.3298936</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>2.0516946</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>0.6588846</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>1.0691976</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>1.6938252</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>0.7502852</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="3" t="n">
+        <v>0.7008908</v>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>1.2031492</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>0.909146</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>1.3324972</v>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>0.694964</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>0.616032</v>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>1.208539</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>1.4483286</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>1.0033406</v>
+      </c>
+      <c r="G43" s="3" t="n">
+        <v>1.7004658</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="3" t="n">
+        <v>0.7883284</v>
+      </c>
+      <c r="D44" s="3" t="n">
+        <v>0.8488018</v>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>0.9406866</v>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>1.81406</v>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>1.0965244</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="3" t="n">
+        <v>0.7723322</v>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>1.0240904</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>1.4109304</v>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>1.4156856</v>
+      </c>
+      <c r="G45" s="3" t="n">
+        <v>1.4840598</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="3" t="n">
+        <v>0.6814198</v>
+      </c>
+      <c r="D46" s="3" t="n">
+        <v>0.7304676</v>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>1.188399</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>1.2337578</v>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>0.7197916</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="3" t="n">
+        <v>1.5693422</v>
+      </c>
+      <c r="D47" s="3" t="n">
+        <v>1.4045678</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>1.7329052</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>2.0550814</v>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>1.5513804</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="3" t="n">
+        <v>0.8541094</v>
+      </c>
+      <c r="D48" s="3" t="n">
+        <v>1.7543964</v>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>1.180485</v>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>1.8072072</v>
+      </c>
+      <c r="G48" s="3" t="n">
+        <v>1.1996712</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="3" t="n">
+        <v>1.1405132</v>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>1.3899558</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>1.0793592</v>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>1.6971584</v>
+      </c>
+      <c r="G49" s="3" t="n">
+        <v>1.2584038</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="3" t="n">
+        <v>1.3281992</v>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>1.3057804</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>1.3971618</v>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>2.173212</v>
+      </c>
+      <c r="G50" s="3" t="n">
+        <v>1.2047634</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" s="3" t="n">
+        <v>1.4049502</v>
+      </c>
+      <c r="D51" s="3" t="n">
+        <v>1.467166</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>1.3060224</v>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>2.1109256</v>
+      </c>
+      <c r="G51" s="3" t="n">
+        <v>1.423003</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="3" t="n">
+        <v>1.7486656</v>
+      </c>
+      <c r="D52" s="3" t="n">
+        <v>1.2543238</v>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>1.3643512</v>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>1.9119414</v>
+      </c>
+      <c r="G52" s="3" t="n">
+        <v>1.2552182</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="3" t="n">
+        <v>0.9897652</v>
+      </c>
+      <c r="D53" s="3" t="n">
+        <v>1.0006046</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>1.1250342</v>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>1.5080312</v>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>1.2397706</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="3" t="n">
+        <v>1.3823074</v>
+      </c>
+      <c r="D54" s="3" t="n">
+        <v>1.2121392</v>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>0.9635322</v>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>1.5839516</v>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>0.80599</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="3" t="n">
+        <v>0.8482162</v>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>0.7807444</v>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>0.8527402</v>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>1.8729324</v>
+      </c>
+      <c r="G55" s="3" t="n">
+        <v>1.1046286</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4269,8 +5415,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4313,7 +5459,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>3.4656902</v>
@@ -4336,7 +5482,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>4.0852622</v>
@@ -4359,7 +5505,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>2.9817282</v>
@@ -4382,7 +5528,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>3.2355116</v>
@@ -4405,7 +5551,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>3.372143</v>
@@ -4451,7 +5597,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>3.7434734</v>
@@ -4474,7 +5620,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>3.5561424</v>
@@ -4497,7 +5643,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>3.2355472</v>
@@ -4520,7 +5666,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>3.8741284</v>
@@ -4543,7 +5689,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>3.5923944</v>
@@ -4612,7 +5758,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>3.0850886</v>
@@ -4635,7 +5781,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>4.2818632</v>
@@ -4658,7 +5804,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>3.5103138</v>
@@ -4681,7 +5827,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>3.5907182</v>
@@ -4704,7 +5850,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>2.8087598</v>
@@ -4727,7 +5873,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>3.0989676</v>
@@ -4750,7 +5896,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>2.9089418</v>
@@ -4819,7 +5965,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>3.6907394</v>
@@ -4865,7 +6011,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>3.822524</v>
@@ -4888,7 +6034,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>3.2866498</v>
@@ -4911,7 +6057,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>3.8178666</v>
@@ -4934,7 +6080,7 @@
         <v>46</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>3.567202</v>
@@ -4957,7 +6103,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>3.0702744</v>
@@ -4980,7 +6126,7 @@
         <v>46</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>3.1279612</v>
@@ -5003,7 +6149,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="C32" s="3" t="n">
         <v>3.2541312</v>
@@ -5026,7 +6172,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>3.6235082</v>
@@ -5049,7 +6195,7 @@
         <v>50</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="C34" s="3" t="n">
         <v>2.9263998</v>
@@ -5072,7 +6218,7 @@
         <v>53</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="C35" s="3" t="n">
         <v>2.9817282</v>
@@ -5095,7 +6241,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>3.2355116</v>
@@ -5118,7 +6264,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>3.362143</v>
@@ -5136,12 +6282,12 @@
         <v>1.6462792</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>4.4183598</v>
@@ -5159,12 +6305,12 @@
         <v>2.5824826</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>4.2271066</v>
@@ -5182,12 +6328,12 @@
         <v>2.794734</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>4.3486802</v>
@@ -5203,6 +6349,351 @@
       </c>
       <c r="G40" s="3" t="n">
         <v>2.0522316</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>4.4582382</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>2.5344732</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>1.9240982</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>3.0292468</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>1.4922734</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="3" t="n">
+        <v>3.6324914</v>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>1.8784468</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>1.7077038</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>2.230174</v>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>1.5030494</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>4.2748656</v>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>1.9875758</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>3.065287</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>3.0610684</v>
+      </c>
+      <c r="G43" s="3" t="n">
+        <v>1.8075572</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="3" t="n">
+        <v>3.8775138</v>
+      </c>
+      <c r="D44" s="3" t="n">
+        <v>2.1703518</v>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>1.5257254</v>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>2.5003062</v>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>1.3192684</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="3" t="n">
+        <v>4.2457576</v>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>2.99625</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>2.683612</v>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>3.6294886</v>
+      </c>
+      <c r="G45" s="3" t="n">
+        <v>1.1652728</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="3" t="n">
+        <v>3.8538836</v>
+      </c>
+      <c r="D46" s="3" t="n">
+        <v>1.4523142</v>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>1.8353244</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>2.4091576</v>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>1.4433536</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="3" t="n">
+        <v>4.134913</v>
+      </c>
+      <c r="D47" s="3" t="n">
+        <v>3.0570432</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>2.0829702</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>2.7429282</v>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>1.8446484</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="3" t="n">
+        <v>4.0352438</v>
+      </c>
+      <c r="D48" s="3" t="n">
+        <v>2.0000954</v>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>1.6569432</v>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>2.9944184</v>
+      </c>
+      <c r="G48" s="3" t="n">
+        <v>2.2772718</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="3" t="n">
+        <v>4.4015426</v>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>2.8833052</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>1.8347464</v>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>2.7400396</v>
+      </c>
+      <c r="G49" s="3" t="n">
+        <v>1.9019046</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="3" t="n">
+        <v>4.6767688</v>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>3.1910382</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>2.2192556</v>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>3.5660182</v>
+      </c>
+      <c r="G50" s="3" t="n">
+        <v>1.9421864</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" s="3" t="n">
+        <v>4.7661336</v>
+      </c>
+      <c r="D51" s="3" t="n">
+        <v>1.9789006</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>2.1269262</v>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>2.6525292</v>
+      </c>
+      <c r="G51" s="3" t="n">
+        <v>1.905948</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="3" t="n">
+        <v>4.1553188</v>
+      </c>
+      <c r="D52" s="3" t="n">
+        <v>2.2690102</v>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>2.5550744</v>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>3.1044548</v>
+      </c>
+      <c r="G52" s="3" t="n">
+        <v>2.0475476</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="3" t="n">
+        <v>4.4161086</v>
+      </c>
+      <c r="D53" s="3" t="n">
+        <v>3.1587048</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>2.9025804</v>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>3.0468496</v>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>1.8015668</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" s="3" t="n">
+        <v>3.9109934</v>
+      </c>
+      <c r="D54" s="3" t="n">
+        <v>1.9643416</v>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>2.3939418</v>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>2.6715282</v>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>1.6758802</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="3" t="n">
+        <v>3.9109934</v>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>1.9643416</v>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>2.3939418</v>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>2.6715282</v>
+      </c>
+      <c r="G55" s="3" t="n">
+        <v>1.6758802</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Output Data/Crpo/Common_folder/API_Performance_Chart_Report.xlsx
+++ b/Output Data/Crpo/Common_folder/API_Performance_Chart_Report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="195">
   <si>
     <t xml:space="preserve">get_tenant_details</t>
   </si>
@@ -266,6 +266,75 @@
     <t xml:space="preserve">10:49:AM</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-09-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:04:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:07:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:09:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:58:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:02:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:29:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:32:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:34:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:39:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:43:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:47:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:52:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:56:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:00:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:45:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:47:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:48:AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:41:PM</t>
   </si>
   <si>
@@ -332,9 +401,6 @@
     <t xml:space="preserve">08:34:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">08:47:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">01:45:PM</t>
   </si>
   <si>
@@ -347,13 +413,25 @@
     <t xml:space="preserve">09:58:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">10:04:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">10:08:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">01:00:PM</t>
+    <t xml:space="preserve">10:06:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:35:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:38:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:41:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:54:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:57:PM</t>
   </si>
   <si>
     <t xml:space="preserve">07:43:PM</t>
@@ -425,9 +503,6 @@
     <t xml:space="preserve">08:46:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">08:48:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">02:16:PM</t>
   </si>
   <si>
@@ -443,6 +518,33 @@
     <t xml:space="preserve">10:46:AM</t>
   </si>
   <si>
+    <t xml:space="preserve">10:05:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:10:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:59:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:03:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:36:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:42:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:38:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:21:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:58:PM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:44:PM</t>
   </si>
   <si>
@@ -501,6 +603,12 @@
   </si>
   <si>
     <t xml:space="preserve">10:48:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:11:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:05:PM</t>
   </si>
 </sst>
 </file>
@@ -645,31 +753,31 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -816,16 +924,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.01766752962963</c:v>
+                  <c:v>1.39834899722222</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.39424422962963</c:v>
+                  <c:v>2.58328278888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.970565618518518</c:v>
+                  <c:v>1.03799647777778</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.67849944074074</c:v>
+                  <c:v>3.72432051388889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -892,16 +1000,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.846236492592593</c:v>
+                  <c:v>1.03146143611111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.25191389259259</c:v>
+                  <c:v>2.21305013055556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.06763198518519</c:v>
+                  <c:v>1.227852825</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.34241344814815</c:v>
+                  <c:v>2.31468790833333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -968,16 +1076,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.06022282592593</c:v>
+                  <c:v>1.21817293611111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.90331556666667</c:v>
+                  <c:v>1.82860039722222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.11078835925926</c:v>
+                  <c:v>1.23244422222222</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.22153361851852</c:v>
+                  <c:v>2.164994475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1044,16 +1152,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.40201885925926</c:v>
+                  <c:v>1.59516627222222</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.34251788518518</c:v>
+                  <c:v>2.29003581388889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.55659378148148</c:v>
+                  <c:v>1.734604025</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.83779323703704</c:v>
+                  <c:v>2.82562039722222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1120,16 +1228,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.874631425925926</c:v>
+                  <c:v>1.03489927777778</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.90318064444444</c:v>
+                  <c:v>1.81733057777778</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.10107591481482</c:v>
+                  <c:v>1.19926223611111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.91808773333333</c:v>
+                  <c:v>1.94119654166667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1137,11 +1245,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="-10"/>
-        <c:axId val="82684470"/>
-        <c:axId val="33884029"/>
+        <c:axId val="71142520"/>
+        <c:axId val="85960140"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82684470"/>
+        <c:axId val="71142520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1207,14 +1315,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33884029"/>
+        <c:crossAx val="85960140"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="33884029"/>
+        <c:axId val="85960140"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1280,7 +1388,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82684470"/>
+        <c:crossAx val="71142520"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1341,9 +1449,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>304920</xdr:colOff>
+      <xdr:colOff>304560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1351,8 +1459,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="1051560"/>
-        <a:ext cx="12173400" cy="2529720"/>
+        <a:off x="0" y="1143000"/>
+        <a:ext cx="12094560" cy="2742840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1372,14 +1480,14 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="32.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.38"/>
@@ -1387,7 +1495,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1404,84 +1512,84 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.01766752962963</v>
+        <v>1.39834899722222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.846236492592593</v>
+        <v>1.03146143611111</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>1.06022282592593</v>
+        <v>1.21817293611111</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1.40201885925926</v>
+        <v>1.59516627222222</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.874631425925926</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.03489927777778</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>2.39424422962963</v>
+        <v>2.58328278888889</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>2.25191389259259</v>
+        <v>2.21305013055556</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1.90331556666667</v>
+        <v>1.82860039722222</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>2.34251788518518</v>
+        <v>2.29003581388889</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1.90318064444444</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.81733057777778</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>0.970565618518518</v>
+        <v>1.03799647777778</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>1.06763198518519</v>
+        <v>1.227852825</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>1.11078835925926</v>
+        <v>1.23244422222222</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>1.55659378148148</v>
+        <v>1.734604025</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1.10107591481482</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.19926223611111</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>3.67849944074074</v>
+        <v>3.72432051388889</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>2.34241344814815</v>
+        <v>2.31468790833333</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>2.22153361851852</v>
+        <v>2.164994475</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>2.83779323703704</v>
+        <v>2.82562039722222</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1.91808773333333</v>
+        <v>1.94119654166667</v>
       </c>
     </row>
   </sheetData>
@@ -1504,19 +1612,19 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B73" activeCellId="0" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="28.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="30.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="21.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="23.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="22.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="24.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="3" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2715,7 +2823,7 @@
         <v>1.130747</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
         <v>76</v>
       </c>
@@ -2738,7 +2846,7 @@
         <v>0.634675</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
         <v>76</v>
       </c>
@@ -2761,7 +2869,7 @@
         <v>0.7129542</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
         <v>76</v>
       </c>
@@ -2784,6 +2892,423 @@
         <v>1.173701</v>
       </c>
     </row>
+    <row r="56" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="3" t="n">
+        <v>1.6299634</v>
+      </c>
+      <c r="D56" s="3" t="n">
+        <v>1.6552036</v>
+      </c>
+      <c r="E56" s="3" t="n">
+        <v>1.2445768</v>
+      </c>
+      <c r="F56" s="3" t="n">
+        <v>1.9407426</v>
+      </c>
+      <c r="G56" s="3" t="n">
+        <v>1.567569</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="3" t="n">
+        <v>1.4681204</v>
+      </c>
+      <c r="D57" s="3" t="n">
+        <v>1.4292204</v>
+      </c>
+      <c r="E57" s="3" t="n">
+        <v>1.7156364</v>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>2.4044644</v>
+      </c>
+      <c r="G57" s="3" t="n">
+        <v>1.208709</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="3" t="n">
+        <v>1.5636632</v>
+      </c>
+      <c r="D58" s="3" t="n">
+        <v>1.5228512</v>
+      </c>
+      <c r="E58" s="3" t="n">
+        <v>1.4379836</v>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>2.3692932</v>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>1.332378</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="3" t="n">
+        <v>1.8406248</v>
+      </c>
+      <c r="D59" s="3" t="n">
+        <v>0.970539</v>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>1.0337644</v>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>1.5723166</v>
+      </c>
+      <c r="G59" s="3" t="n">
+        <v>1.0281138</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="3" t="n">
+        <v>1.9536388</v>
+      </c>
+      <c r="D60" s="3" t="n">
+        <v>1.161366</v>
+      </c>
+      <c r="E60" s="3" t="n">
+        <v>1.859367</v>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>1.6187842</v>
+      </c>
+      <c r="G60" s="3" t="n">
+        <v>1.4046572</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="3" t="n">
+        <v>1.0084918</v>
+      </c>
+      <c r="D61" s="3" t="n">
+        <v>0.8450848</v>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>0.7750072</v>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>1.2887214</v>
+      </c>
+      <c r="G61" s="3" t="n">
+        <v>1.0354424</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="3" t="n">
+        <v>1.3384828</v>
+      </c>
+      <c r="D62" s="3" t="n">
+        <v>0.667891</v>
+      </c>
+      <c r="E62" s="3" t="n">
+        <v>0.6660524</v>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>1.7808996</v>
+      </c>
+      <c r="G62" s="3" t="n">
+        <v>0.7939622</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="3" t="n">
+        <v>1.1073168</v>
+      </c>
+      <c r="D63" s="3" t="n">
+        <v>0.775476</v>
+      </c>
+      <c r="E63" s="3" t="n">
+        <v>0.7505</v>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>1.577202</v>
+      </c>
+      <c r="G63" s="3" t="n">
+        <v>0.7495516</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="3" t="n">
+        <v>0.8195546</v>
+      </c>
+      <c r="D64" s="3" t="n">
+        <v>0.5801504</v>
+      </c>
+      <c r="E64" s="3" t="n">
+        <v>0.637919</v>
+      </c>
+      <c r="F64" s="3" t="n">
+        <v>1.2631352</v>
+      </c>
+      <c r="G64" s="3" t="n">
+        <v>0.7855448</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="3" t="n">
+        <v>1.6702102</v>
+      </c>
+      <c r="D65" s="3" t="n">
+        <v>1.5353524</v>
+      </c>
+      <c r="E65" s="3" t="n">
+        <v>1.3818196</v>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>2.1847274</v>
+      </c>
+      <c r="G65" s="3" t="n">
+        <v>1.5775956</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" s="3" t="n">
+        <v>1.6342792</v>
+      </c>
+      <c r="D66" s="3" t="n">
+        <v>1.7198588</v>
+      </c>
+      <c r="E66" s="3" t="n">
+        <v>1.3643962</v>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>2.1526714</v>
+      </c>
+      <c r="G66" s="3" t="n">
+        <v>1.5021728</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" s="3" t="n">
+        <v>1.1206874</v>
+      </c>
+      <c r="D67" s="3" t="n">
+        <v>1.6145034</v>
+      </c>
+      <c r="E67" s="3" t="n">
+        <v>1.8166018</v>
+      </c>
+      <c r="F67" s="3" t="n">
+        <v>1.963469</v>
+      </c>
+      <c r="G67" s="3" t="n">
+        <v>1.9975774</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" s="3" t="n">
+        <v>7.9311408</v>
+      </c>
+      <c r="D68" s="3" t="n">
+        <v>4.1732388</v>
+      </c>
+      <c r="E68" s="3" t="n">
+        <v>4.5857502</v>
+      </c>
+      <c r="F68" s="3" t="n">
+        <v>4.4110126</v>
+      </c>
+      <c r="G68" s="3" t="n">
+        <v>3.5131028</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C69" s="3" t="n">
+        <v>10.9320088</v>
+      </c>
+      <c r="D69" s="3" t="n">
+        <v>3.9533532</v>
+      </c>
+      <c r="E69" s="3" t="n">
+        <v>4.5740498</v>
+      </c>
+      <c r="F69" s="3" t="n">
+        <v>4.3908544</v>
+      </c>
+      <c r="G69" s="3" t="n">
+        <v>3.4317076</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C70" s="3" t="n">
+        <v>7.6371168</v>
+      </c>
+      <c r="D70" s="3" t="n">
+        <v>4.0943918</v>
+      </c>
+      <c r="E70" s="3" t="n">
+        <v>4.7258998</v>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>4.288504</v>
+      </c>
+      <c r="G70" s="3" t="n">
+        <v>3.5372202</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C71" s="3" t="n">
+        <v>0.8237942</v>
+      </c>
+      <c r="D71" s="3" t="n">
+        <v>0.6448048</v>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>0.5816172</v>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>1.3457482</v>
+      </c>
+      <c r="G71" s="3" t="n">
+        <v>0.5829094</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" s="3" t="n">
+        <v>0.6151072</v>
+      </c>
+      <c r="D72" s="3" t="n">
+        <v>0.61754</v>
+      </c>
+      <c r="E72" s="3" t="n">
+        <v>0.755118</v>
+      </c>
+      <c r="F72" s="3" t="n">
+        <v>1.2193896</v>
+      </c>
+      <c r="G72" s="3" t="n">
+        <v>0.6537686</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" s="3" t="n">
+        <v>0.63288</v>
+      </c>
+      <c r="D73" s="3" t="n">
+        <v>0.6076272</v>
+      </c>
+      <c r="E73" s="3" t="n">
+        <v>0.5503594</v>
+      </c>
+      <c r="F73" s="3" t="n">
+        <v>1.3710174</v>
+      </c>
+      <c r="G73" s="3" t="n">
+        <v>0.5806686</v>
+      </c>
+    </row>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2809,20 +3334,20 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C71" activeCellId="0" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="28.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="30.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="21.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="23.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="22.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="24.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="3" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2853,7 +3378,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>2.0220664</v>
@@ -2876,7 +3401,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>2.4586498</v>
@@ -2922,7 +3447,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>2.1296676</v>
@@ -2945,7 +3470,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>2.0261682</v>
@@ -2991,7 +3516,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>2.1709282</v>
@@ -3014,7 +3539,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>2.1589454</v>
@@ -3037,7 +3562,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>2.0390428</v>
@@ -3083,7 +3608,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>1.9875636</v>
@@ -3152,7 +3677,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>2.1964826</v>
@@ -3198,7 +3723,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>2.0752022</v>
@@ -3359,7 +3884,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>2.6861386</v>
@@ -3405,7 +3930,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>2.330873</v>
@@ -3428,7 +3953,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>2.4523078</v>
@@ -3451,7 +3976,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>2.3690538</v>
@@ -3474,7 +3999,7 @@
         <v>46</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>2.031089</v>
@@ -3497,7 +4022,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>2.3269536</v>
@@ -3543,7 +4068,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="C32" s="3" t="n">
         <v>1.9277496</v>
@@ -3635,7 +4160,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>2.1296676</v>
@@ -3658,7 +4183,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>2.0261682</v>
@@ -3681,7 +4206,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>2.138844</v>
@@ -3704,7 +4229,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>2.569399</v>
@@ -3727,7 +4252,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>2.2719068</v>
@@ -3750,7 +4275,7 @@
         <v>60</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>2.4505342</v>
@@ -3773,7 +4298,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>2.5803136</v>
@@ -3796,7 +4321,7 @@
         <v>60</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C43" s="3" t="n">
         <v>2.245899</v>
@@ -3819,7 +4344,7 @@
         <v>64</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="C44" s="3" t="n">
         <v>2.4560934</v>
@@ -3842,7 +4367,7 @@
         <v>64</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="C45" s="3" t="n">
         <v>2.0923624</v>
@@ -3865,7 +4390,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="C46" s="3" t="n">
         <v>2.7843442</v>
@@ -3888,7 +4413,7 @@
         <v>68</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C47" s="3" t="n">
         <v>2.5149182</v>
@@ -3911,7 +4436,7 @@
         <v>68</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C48" s="3" t="n">
         <v>3.1230162</v>
@@ -3934,7 +4459,7 @@
         <v>68</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C49" s="3" t="n">
         <v>3.6995458</v>
@@ -3957,7 +4482,7 @@
         <v>72</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C50" s="3" t="n">
         <v>2.7353538</v>
@@ -4021,7 +4546,7 @@
         <v>1.9202404</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
         <v>76</v>
       </c>
@@ -4044,7 +4569,7 @@
         <v>1.6825578</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
         <v>76</v>
       </c>
@@ -4067,7 +4592,7 @@
         <v>2.381404</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
         <v>76</v>
       </c>
@@ -4090,6 +4615,424 @@
         <v>2.3995594</v>
       </c>
     </row>
+    <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="3" t="n">
+        <v>2.880869</v>
+      </c>
+      <c r="D56" s="3" t="n">
+        <v>1.4529646</v>
+      </c>
+      <c r="E56" s="3" t="n">
+        <v>1.4316194</v>
+      </c>
+      <c r="F56" s="3" t="n">
+        <v>1.4306064</v>
+      </c>
+      <c r="G56" s="3" t="n">
+        <v>1.9442586</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="3" t="n">
+        <v>2.9062288</v>
+      </c>
+      <c r="D57" s="3" t="n">
+        <v>1.5695766</v>
+      </c>
+      <c r="E57" s="3" t="n">
+        <v>1.4309868</v>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>1.7825338</v>
+      </c>
+      <c r="G57" s="3" t="n">
+        <v>1.4524666</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="3" t="n">
+        <v>3.2163508</v>
+      </c>
+      <c r="D58" s="3" t="n">
+        <v>1.3900278</v>
+      </c>
+      <c r="E58" s="3" t="n">
+        <v>1.4563076</v>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>1.5178548</v>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>1.6212138</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="3" t="n">
+        <v>3.3779322</v>
+      </c>
+      <c r="D59" s="3" t="n">
+        <v>3.6096876</v>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>2.3682902</v>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>3.239733</v>
+      </c>
+      <c r="G59" s="3" t="n">
+        <v>2.0184318</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="3" t="n">
+        <v>4.1695636</v>
+      </c>
+      <c r="D60" s="3" t="n">
+        <v>2.9093754</v>
+      </c>
+      <c r="E60" s="3" t="n">
+        <v>2.0829792</v>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>2.4609664</v>
+      </c>
+      <c r="G60" s="3" t="n">
+        <v>1.6426944</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="3" t="n">
+        <v>2.4829768</v>
+      </c>
+      <c r="D61" s="3" t="n">
+        <v>1.388016</v>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>1.4557862</v>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>2.23639</v>
+      </c>
+      <c r="G61" s="3" t="n">
+        <v>1.5138734</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="3" t="n">
+        <v>2.3930146</v>
+      </c>
+      <c r="D62" s="3" t="n">
+        <v>3.8454914</v>
+      </c>
+      <c r="E62" s="3" t="n">
+        <v>1.8231738</v>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>2.474917</v>
+      </c>
+      <c r="G62" s="3" t="n">
+        <v>1.7111556</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="3" t="n">
+        <v>2.439783</v>
+      </c>
+      <c r="D63" s="3" t="n">
+        <v>1.4642966</v>
+      </c>
+      <c r="E63" s="3" t="n">
+        <v>1.588661</v>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>2.2438674</v>
+      </c>
+      <c r="G63" s="3" t="n">
+        <v>1.326594</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="3" t="n">
+        <v>2.4509054</v>
+      </c>
+      <c r="D64" s="3" t="n">
+        <v>1.4036292</v>
+      </c>
+      <c r="E64" s="3" t="n">
+        <v>1.520895</v>
+      </c>
+      <c r="F64" s="3" t="n">
+        <v>1.9148736</v>
+      </c>
+      <c r="G64" s="3" t="n">
+        <v>1.6210836</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="3" t="n">
+        <v>2.0647184</v>
+      </c>
+      <c r="D65" s="3" t="n">
+        <v>1.229187</v>
+      </c>
+      <c r="E65" s="3" t="n">
+        <v>2.0388342</v>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>2.7820654</v>
+      </c>
+      <c r="G65" s="3" t="n">
+        <v>1.8176274</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="3" t="n">
+        <v>3.3981744</v>
+      </c>
+      <c r="D66" s="3" t="n">
+        <v>2.2880918</v>
+      </c>
+      <c r="E66" s="3" t="n">
+        <v>1.8988106</v>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>2.350463</v>
+      </c>
+      <c r="G66" s="3" t="n">
+        <v>1.4866896</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="3" t="n">
+        <v>2.0062282</v>
+      </c>
+      <c r="D67" s="3" t="n">
+        <v>2.5121432</v>
+      </c>
+      <c r="E67" s="3" t="n">
+        <v>1.821782</v>
+      </c>
+      <c r="F67" s="3" t="n">
+        <v>2.342391</v>
+      </c>
+      <c r="G67" s="3" t="n">
+        <v>2.4429932</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="3" t="n">
+        <v>5.4740242</v>
+      </c>
+      <c r="D68" s="3" t="n">
+        <v>1.103625</v>
+      </c>
+      <c r="E68" s="3" t="n">
+        <v>1.659026</v>
+      </c>
+      <c r="F68" s="3" t="n">
+        <v>1.8593006</v>
+      </c>
+      <c r="G68" s="3" t="n">
+        <v>1.5099662</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" s="3" t="n">
+        <v>5.0492016</v>
+      </c>
+      <c r="D69" s="3" t="n">
+        <v>1.237634</v>
+      </c>
+      <c r="E69" s="3" t="n">
+        <v>1.3977258</v>
+      </c>
+      <c r="F69" s="3" t="n">
+        <v>1.7893318</v>
+      </c>
+      <c r="G69" s="3" t="n">
+        <v>1.3526946</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C70" s="3" t="n">
+        <v>5.2855848</v>
+      </c>
+      <c r="D70" s="3" t="n">
+        <v>4.2819366</v>
+      </c>
+      <c r="E70" s="3" t="n">
+        <v>1.4860326</v>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>2.104812</v>
+      </c>
+      <c r="G70" s="3" t="n">
+        <v>1.1763888</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C71" s="3" t="n">
+        <v>2.417539</v>
+      </c>
+      <c r="D71" s="3" t="n">
+        <v>3.4842362</v>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>1.2380672</v>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>2.3848236</v>
+      </c>
+      <c r="G71" s="3" t="n">
+        <v>1.1717764</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" s="3" t="n">
+        <v>2.4461954</v>
+      </c>
+      <c r="D72" s="3" t="n">
+        <v>1.4077716</v>
+      </c>
+      <c r="E72" s="3" t="n">
+        <v>1.1583442</v>
+      </c>
+      <c r="F72" s="3" t="n">
+        <v>1.5121558</v>
+      </c>
+      <c r="G72" s="3" t="n">
+        <v>1.0914608</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C73" s="3" t="n">
+        <v>2.2478822</v>
+      </c>
+      <c r="D73" s="3" t="n">
+        <v>1.1585686</v>
+      </c>
+      <c r="E73" s="3" t="n">
+        <v>1.0228662</v>
+      </c>
+      <c r="F73" s="3" t="n">
+        <v>1.9595272</v>
+      </c>
+      <c r="G73" s="3" t="n">
+        <v>1.174678</v>
+      </c>
+    </row>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4112,20 +5055,20 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G71" activeCellId="0" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="28.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="30.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="21.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="23.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="22.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="24.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="3" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4156,7 +5099,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>0.7804054</v>
@@ -4179,7 +5122,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>0.7779802</v>
@@ -4202,7 +5145,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>0.7043458</v>
@@ -4225,7 +5168,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>0.7145706</v>
@@ -4294,7 +5237,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>0.6280168</v>
@@ -4340,7 +5283,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>0.7373706</v>
@@ -4386,7 +5329,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>0.7234852</v>
@@ -4478,7 +5421,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>0.3510038</v>
@@ -4501,7 +5444,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>0.5421752</v>
@@ -4524,7 +5467,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>0.5591408</v>
@@ -4547,7 +5490,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>0.5551518</v>
@@ -4639,7 +5582,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>0.9795414</v>
@@ -4662,7 +5605,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>3.7305486</v>
@@ -4685,7 +5628,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>2.3842444</v>
@@ -4708,7 +5651,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>2.139728</v>
@@ -4731,7 +5674,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>0.7112716</v>
@@ -4754,7 +5697,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>0.67812</v>
@@ -4777,7 +5720,7 @@
         <v>46</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>0.6440876</v>
@@ -4800,7 +5743,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>0.712753</v>
@@ -4823,7 +5766,7 @@
         <v>46</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>0.630812</v>
@@ -4869,7 +5812,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>0.7013216</v>
@@ -4938,7 +5881,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>0.7043458</v>
@@ -4961,7 +5904,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>0.7145706</v>
@@ -4984,7 +5927,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>1.2584274</v>
@@ -5007,7 +5950,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>1.3856258</v>
@@ -5030,7 +5973,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>1.1413118</v>
@@ -5053,7 +5996,7 @@
         <v>60</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>2.0516946</v>
@@ -5076,7 +6019,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>0.7008908</v>
@@ -5099,7 +6042,7 @@
         <v>60</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C43" s="3" t="n">
         <v>0.616032</v>
@@ -5122,7 +6065,7 @@
         <v>64</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="C44" s="3" t="n">
         <v>0.7883284</v>
@@ -5168,7 +6111,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="C46" s="3" t="n">
         <v>0.6814198</v>
@@ -5191,7 +6134,7 @@
         <v>68</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C47" s="3" t="n">
         <v>1.5693422</v>
@@ -5237,7 +6180,7 @@
         <v>68</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="C49" s="3" t="n">
         <v>1.1405132</v>
@@ -5283,7 +6226,7 @@
         <v>72</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="C51" s="3" t="n">
         <v>1.4049502</v>
@@ -5324,12 +6267,12 @@
         <v>1.2552182</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C53" s="3" t="n">
         <v>0.9897652</v>
@@ -5347,7 +6290,7 @@
         <v>1.2397706</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
         <v>76</v>
       </c>
@@ -5370,7 +6313,7 @@
         <v>0.80599</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
         <v>76</v>
       </c>
@@ -5391,6 +6334,420 @@
       </c>
       <c r="G55" s="3" t="n">
         <v>1.1046286</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" s="3" t="n">
+        <v>1.2353042</v>
+      </c>
+      <c r="D56" s="3" t="n">
+        <v>1.1065696</v>
+      </c>
+      <c r="E56" s="3" t="n">
+        <v>1.3283356</v>
+      </c>
+      <c r="F56" s="3" t="n">
+        <v>2.062186</v>
+      </c>
+      <c r="G56" s="3" t="n">
+        <v>1.6119956</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="3" t="n">
+        <v>1.1721124</v>
+      </c>
+      <c r="D57" s="3" t="n">
+        <v>1.1593268</v>
+      </c>
+      <c r="E57" s="3" t="n">
+        <v>1.5681804</v>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>2.3277434</v>
+      </c>
+      <c r="G57" s="3" t="n">
+        <v>1.5954578</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58" s="3" t="n">
+        <v>1.2364662</v>
+      </c>
+      <c r="D58" s="3" t="n">
+        <v>1.2175532</v>
+      </c>
+      <c r="E58" s="3" t="n">
+        <v>1.4634264</v>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>2.1780878</v>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>1.9009406</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="3" t="n">
+        <v>0.8871426</v>
+      </c>
+      <c r="D59" s="3" t="n">
+        <v>1.2905158</v>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>2.2132756</v>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>2.0494918</v>
+      </c>
+      <c r="G59" s="3" t="n">
+        <v>1.2501216</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" s="3" t="n">
+        <v>1.1438926</v>
+      </c>
+      <c r="D60" s="3" t="n">
+        <v>1.0111584</v>
+      </c>
+      <c r="E60" s="3" t="n">
+        <v>1.1432078</v>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>1.720292</v>
+      </c>
+      <c r="G60" s="3" t="n">
+        <v>1.3923464</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" s="3" t="n">
+        <v>0.6579276</v>
+      </c>
+      <c r="D61" s="3" t="n">
+        <v>0.8863208</v>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>0.988521</v>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>1.6741524</v>
+      </c>
+      <c r="G61" s="3" t="n">
+        <v>0.859078</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="3" t="n">
+        <v>0.6880544</v>
+      </c>
+      <c r="D62" s="3" t="n">
+        <v>1.6458468</v>
+      </c>
+      <c r="E62" s="3" t="n">
+        <v>1.118562</v>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>1.7582426</v>
+      </c>
+      <c r="G62" s="3" t="n">
+        <v>1.0656968</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="3" t="n">
+        <v>0.9275146</v>
+      </c>
+      <c r="D63" s="3" t="n">
+        <v>0.9552486</v>
+      </c>
+      <c r="E63" s="3" t="n">
+        <v>0.8789802</v>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>1.6130306</v>
+      </c>
+      <c r="G63" s="3" t="n">
+        <v>0.808763</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="3" t="n">
+        <v>0.6633352</v>
+      </c>
+      <c r="D64" s="3" t="n">
+        <v>0.9917962</v>
+      </c>
+      <c r="E64" s="3" t="n">
+        <v>1.2213302</v>
+      </c>
+      <c r="F64" s="3" t="n">
+        <v>1.5765428</v>
+      </c>
+      <c r="G64" s="3" t="n">
+        <v>0.734426</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" s="3" t="n">
+        <v>1.8978822</v>
+      </c>
+      <c r="D65" s="3" t="n">
+        <v>2.1167164</v>
+      </c>
+      <c r="E65" s="3" t="n">
+        <v>1.7952622</v>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>2.246288</v>
+      </c>
+      <c r="G65" s="3" t="n">
+        <v>1.891177</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="3" t="n">
+        <v>1.1060998</v>
+      </c>
+      <c r="D66" s="3" t="n">
+        <v>2.0890514</v>
+      </c>
+      <c r="E66" s="3" t="n">
+        <v>0.2223438</v>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>2.102354</v>
+      </c>
+      <c r="G66" s="3" t="n">
+        <v>1.8089304</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C67" s="3" t="n">
+        <v>1.6069744</v>
+      </c>
+      <c r="D67" s="3" t="n">
+        <v>2.7468918</v>
+      </c>
+      <c r="E67" s="3" t="n">
+        <v>1.2190884</v>
+      </c>
+      <c r="F67" s="3" t="n">
+        <v>2.1891768</v>
+      </c>
+      <c r="G67" s="3" t="n">
+        <v>1.9299226</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C68" s="3" t="n">
+        <v>1.6301784</v>
+      </c>
+      <c r="D68" s="3" t="n">
+        <v>3.4154806</v>
+      </c>
+      <c r="E68" s="3" t="n">
+        <v>2.8612012</v>
+      </c>
+      <c r="F68" s="3" t="n">
+        <v>3.085108</v>
+      </c>
+      <c r="G68" s="3" t="n">
+        <v>1.7147016</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C69" s="3" t="n">
+        <v>1.5682082</v>
+      </c>
+      <c r="D69" s="3" t="n">
+        <v>2.1459374</v>
+      </c>
+      <c r="E69" s="3" t="n">
+        <v>2.2257628</v>
+      </c>
+      <c r="F69" s="3" t="n">
+        <v>3.329519</v>
+      </c>
+      <c r="G69" s="3" t="n">
+        <v>1.8620208</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70" s="3" t="n">
+        <v>1.4442308</v>
+      </c>
+      <c r="D70" s="3" t="n">
+        <v>2.0175098</v>
+      </c>
+      <c r="E70" s="3" t="n">
+        <v>2.0269426</v>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>2.6559304</v>
+      </c>
+      <c r="G70" s="3" t="n">
+        <v>1.5947984</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C71" s="3" t="n">
+        <v>1.5592828</v>
+      </c>
+      <c r="D71" s="3" t="n">
+        <v>1.905274</v>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>1.95902</v>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>2.5187482</v>
+      </c>
+      <c r="G71" s="3" t="n">
+        <v>1.34327</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C72" s="3" t="n">
+        <v>1.4769474</v>
+      </c>
+      <c r="D72" s="3" t="n">
+        <v>1.9274122</v>
+      </c>
+      <c r="E72" s="3" t="n">
+        <v>2.2740412</v>
+      </c>
+      <c r="F72" s="3" t="n">
+        <v>3.0350318</v>
+      </c>
+      <c r="G72" s="3" t="n">
+        <v>1.8394206</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C73" s="3" t="n">
+        <v>1.4236492</v>
+      </c>
+      <c r="D73" s="3" t="n">
+        <v>2.1246664</v>
+      </c>
+      <c r="E73" s="3" t="n">
+        <v>2.2459312</v>
+      </c>
+      <c r="F73" s="3" t="n">
+        <v>2.7135</v>
+      </c>
+      <c r="G73" s="3" t="n">
+        <v>1.6857144</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5415,20 +6772,20 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C70" activeCellId="0" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="28.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="30.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="21.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="23.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="22.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="24.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="3" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5459,7 +6816,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>3.4656902</v>
@@ -5482,7 +6839,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>4.0852622</v>
@@ -5505,7 +6862,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>2.9817282</v>
@@ -5528,7 +6885,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>3.2355116</v>
@@ -5597,7 +6954,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>3.7434734</v>
@@ -5620,7 +6977,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>3.5561424</v>
@@ -5643,7 +7000,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>3.2355472</v>
@@ -5666,7 +7023,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>3.8741284</v>
@@ -5689,7 +7046,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>3.5923944</v>
@@ -5758,7 +7115,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>3.0850886</v>
@@ -5781,7 +7138,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>4.2818632</v>
@@ -5804,7 +7161,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>3.5103138</v>
@@ -5827,7 +7184,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>3.5907182</v>
@@ -5850,7 +7207,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>2.8087598</v>
@@ -5873,7 +7230,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>3.0989676</v>
@@ -5896,7 +7253,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>2.9089418</v>
@@ -5965,7 +7322,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>3.6907394</v>
@@ -6011,7 +7368,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>3.822524</v>
@@ -6034,7 +7391,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>3.2866498</v>
@@ -6057,7 +7414,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>3.8178666</v>
@@ -6080,7 +7437,7 @@
         <v>46</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>3.567202</v>
@@ -6103,7 +7460,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>3.0702744</v>
@@ -6126,7 +7483,7 @@
         <v>46</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>3.1279612</v>
@@ -6172,7 +7529,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>3.6235082</v>
@@ -6195,7 +7552,7 @@
         <v>50</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="C34" s="3" t="n">
         <v>2.9263998</v>
@@ -6218,7 +7575,7 @@
         <v>53</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="C35" s="3" t="n">
         <v>2.9817282</v>
@@ -6241,7 +7598,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>3.2355116</v>
@@ -6287,7 +7644,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>4.4183598</v>
@@ -6310,7 +7667,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>4.2271066</v>
@@ -6333,7 +7690,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>4.3486802</v>
@@ -6356,7 +7713,7 @@
         <v>60</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>4.4582382</v>
@@ -6379,7 +7736,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>3.6324914</v>
@@ -6402,7 +7759,7 @@
         <v>60</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C43" s="3" t="n">
         <v>4.2748656</v>
@@ -6425,7 +7782,7 @@
         <v>64</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="C44" s="3" t="n">
         <v>3.8775138</v>
@@ -6471,7 +7828,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="C46" s="3" t="n">
         <v>3.8538836</v>
@@ -6494,7 +7851,7 @@
         <v>68</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C47" s="3" t="n">
         <v>4.134913</v>
@@ -6540,7 +7897,7 @@
         <v>68</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="C49" s="3" t="n">
         <v>4.4015426</v>
@@ -6586,7 +7943,7 @@
         <v>72</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="C51" s="3" t="n">
         <v>4.7661336</v>
@@ -6609,7 +7966,7 @@
         <v>72</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="C52" s="3" t="n">
         <v>4.1553188</v>
@@ -6627,12 +7984,12 @@
         <v>2.0475476</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C53" s="3" t="n">
         <v>4.4161086</v>
@@ -6650,12 +8007,12 @@
         <v>1.8015668</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="C54" s="3" t="n">
         <v>3.9109934</v>
@@ -6673,12 +8030,12 @@
         <v>1.6758802</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="C55" s="3" t="n">
         <v>3.9109934</v>
@@ -6694,6 +8051,420 @@
       </c>
       <c r="G55" s="3" t="n">
         <v>1.6758802</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" s="3" t="n">
+        <v>3.4861618</v>
+      </c>
+      <c r="D56" s="3" t="n">
+        <v>3.5806298</v>
+      </c>
+      <c r="E56" s="3" t="n">
+        <v>2.5354972</v>
+      </c>
+      <c r="F56" s="3" t="n">
+        <v>4.0465602</v>
+      </c>
+      <c r="G56" s="3" t="n">
+        <v>2.0543744</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="3" t="n">
+        <v>4.9950494</v>
+      </c>
+      <c r="D57" s="3" t="n">
+        <v>2.761369</v>
+      </c>
+      <c r="E57" s="3" t="n">
+        <v>2.7594356</v>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>3.147873</v>
+      </c>
+      <c r="G57" s="3" t="n">
+        <v>2.2371564</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C58" s="3" t="n">
+        <v>3.52287</v>
+      </c>
+      <c r="D58" s="3" t="n">
+        <v>3.0734816</v>
+      </c>
+      <c r="E58" s="3" t="n">
+        <v>2.0328344</v>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>3.6811436</v>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>2.412578</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="3" t="n">
+        <v>3.818883</v>
+      </c>
+      <c r="D59" s="3" t="n">
+        <v>2.1105994</v>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>2.1992034</v>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>2.8311952</v>
+      </c>
+      <c r="G59" s="3" t="n">
+        <v>2.2715116</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="3" t="n">
+        <v>3.5168838</v>
+      </c>
+      <c r="D60" s="3" t="n">
+        <v>2.2081008</v>
+      </c>
+      <c r="E60" s="3" t="n">
+        <v>2.0647974</v>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>2.3466966</v>
+      </c>
+      <c r="G60" s="3" t="n">
+        <v>1.634088</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="3" t="n">
+        <v>3.509506</v>
+      </c>
+      <c r="D61" s="3" t="n">
+        <v>1.850558</v>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>2.1306736</v>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>2.5442822</v>
+      </c>
+      <c r="G61" s="3" t="n">
+        <v>1.6629958</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="3" t="n">
+        <v>4.19722</v>
+      </c>
+      <c r="D62" s="3" t="n">
+        <v>2.4749538</v>
+      </c>
+      <c r="E62" s="3" t="n">
+        <v>1.8126712</v>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>3.2062298</v>
+      </c>
+      <c r="G62" s="3" t="n">
+        <v>2.6141602</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="3" t="n">
+        <v>3.450998</v>
+      </c>
+      <c r="D63" s="3" t="n">
+        <v>1.8885702</v>
+      </c>
+      <c r="E63" s="3" t="n">
+        <v>2.371785</v>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>2.976174</v>
+      </c>
+      <c r="G63" s="3" t="n">
+        <v>1.5550078</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="3" t="n">
+        <v>3.235356</v>
+      </c>
+      <c r="D64" s="3" t="n">
+        <v>1.9365746</v>
+      </c>
+      <c r="E64" s="3" t="n">
+        <v>1.966837</v>
+      </c>
+      <c r="F64" s="3" t="n">
+        <v>2.6724496</v>
+      </c>
+      <c r="G64" s="3" t="n">
+        <v>2.5710762</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="3" t="n">
+        <v>3.2117386</v>
+      </c>
+      <c r="D65" s="3" t="n">
+        <v>2.2108586</v>
+      </c>
+      <c r="E65" s="3" t="n">
+        <v>1.4982698</v>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>2.5260348</v>
+      </c>
+      <c r="G65" s="3" t="n">
+        <v>2.8067876</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="3" t="n">
+        <v>4.0686228</v>
+      </c>
+      <c r="D66" s="3" t="n">
+        <v>1.4032838</v>
+      </c>
+      <c r="E66" s="3" t="n">
+        <v>1.425826</v>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>2.194376</v>
+      </c>
+      <c r="G66" s="3" t="n">
+        <v>1.6341742</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C67" s="3" t="n">
+        <v>3.0381616</v>
+      </c>
+      <c r="D67" s="3" t="n">
+        <v>1.3692656</v>
+      </c>
+      <c r="E67" s="3" t="n">
+        <v>2.377678</v>
+      </c>
+      <c r="F67" s="3" t="n">
+        <v>1.981508</v>
+      </c>
+      <c r="G67" s="3" t="n">
+        <v>1.7570586</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C68" s="3" t="n">
+        <v>3.9888114</v>
+      </c>
+      <c r="D68" s="3" t="n">
+        <v>2.2993216</v>
+      </c>
+      <c r="E68" s="3" t="n">
+        <v>1.993485</v>
+      </c>
+      <c r="F68" s="3" t="n">
+        <v>2.6442486</v>
+      </c>
+      <c r="G68" s="3" t="n">
+        <v>2.067944</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C69" s="3" t="n">
+        <v>4.1137066</v>
+      </c>
+      <c r="D69" s="3" t="n">
+        <v>2.2122022</v>
+      </c>
+      <c r="E69" s="3" t="n">
+        <v>2.057847</v>
+      </c>
+      <c r="F69" s="3" t="n">
+        <v>2.7937374</v>
+      </c>
+      <c r="G69" s="3" t="n">
+        <v>2.8693366</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" s="3" t="n">
+        <v>4.983335</v>
+      </c>
+      <c r="D70" s="3" t="n">
+        <v>1.3080796</v>
+      </c>
+      <c r="E70" s="3" t="n">
+        <v>2.1692144</v>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>3.7646734</v>
+      </c>
+      <c r="G70" s="3" t="n">
+        <v>1.5575226</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C71" s="3" t="n">
+        <v>4.1330914</v>
+      </c>
+      <c r="D71" s="3" t="n">
+        <v>4.793122</v>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>1.4245304</v>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>2.494497</v>
+      </c>
+      <c r="G71" s="3" t="n">
+        <v>1.3472144</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C72" s="3" t="n">
+        <v>4.3396534</v>
+      </c>
+      <c r="D72" s="3" t="n">
+        <v>1.2579702</v>
+      </c>
+      <c r="E72" s="3" t="n">
+        <v>1.6332054</v>
+      </c>
+      <c r="F72" s="3" t="n">
+        <v>2.0775162</v>
+      </c>
+      <c r="G72" s="3" t="n">
+        <v>1.6042548</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C73" s="3" t="n">
+        <v>3.9020584</v>
+      </c>
+      <c r="D73" s="3" t="n">
+        <v>1.4282624</v>
+      </c>
+      <c r="E73" s="3" t="n">
+        <v>1.462996</v>
+      </c>
+      <c r="F73" s="3" t="n">
+        <v>2.2746382</v>
+      </c>
+      <c r="G73" s="3" t="n">
+        <v>1.5321722</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Output Data/Crpo/Common_folder/API_Performance_Chart_Report.xlsx
+++ b/Output Data/Crpo/Common_folder/API_Performance_Chart_Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="211">
   <si>
     <t xml:space="preserve">get_tenant_details</t>
   </si>
@@ -335,6 +335,51 @@
     <t xml:space="preserve">08:48:AM</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-10-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:26:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:27:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:29:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:27:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:29:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:30:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:02:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:08:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:42:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:44:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:46:AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:41:PM</t>
   </si>
   <si>
@@ -413,9 +458,6 @@
     <t xml:space="preserve">09:58:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">10:08:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">10:06:AM</t>
   </si>
   <si>
@@ -434,6 +476,15 @@
     <t xml:space="preserve">12:57:PM</t>
   </si>
   <si>
+    <t xml:space="preserve">07:41:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:31:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:41:AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:43:PM</t>
   </si>
   <si>
@@ -500,18 +551,12 @@
     <t xml:space="preserve">08:33:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">08:46:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">02:16:PM</t>
   </si>
   <si>
     <t xml:space="preserve">03:05:PM</t>
   </si>
   <si>
-    <t xml:space="preserve">07:26:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">01:04:PM</t>
   </si>
   <si>
@@ -545,6 +590,9 @@
     <t xml:space="preserve">12:58:PM</t>
   </si>
   <si>
+    <t xml:space="preserve">08:43:AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:44:PM</t>
   </si>
   <si>
@@ -593,9 +641,6 @@
     <t xml:space="preserve">12:41:PM</t>
   </si>
   <si>
-    <t xml:space="preserve">08:30:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">02:13:PM</t>
   </si>
   <si>
@@ -609,6 +654,9 @@
   </si>
   <si>
     <t xml:space="preserve">01:05:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:32:AM</t>
   </si>
 </sst>
 </file>
@@ -753,31 +801,31 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -924,16 +972,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.39834899722222</c:v>
+                  <c:v>1.36895337857143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.58328278888889</c:v>
+                  <c:v>2.57586490952381</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.03799647777778</c:v>
+                  <c:v>1.0956977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.72432051388889</c:v>
+                  <c:v>3.82453064047619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1000,16 +1048,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.03146143611111</c:v>
+                  <c:v>1.03514591428571</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.21305013055556</c:v>
+                  <c:v>2.21631086190476</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.227852825</c:v>
+                  <c:v>1.32008600952381</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.31468790833333</c:v>
+                  <c:v>2.23982057380953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1076,16 +1124,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.21817293611111</c:v>
+                  <c:v>1.1902734547619</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.82860039722222</c:v>
+                  <c:v>1.7964850452381</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.23244422222222</c:v>
+                  <c:v>1.33940665238095</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.164994475</c:v>
+                  <c:v>2.04828762857143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1152,16 +1200,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.59516627222222</c:v>
+                  <c:v>1.61449742857143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.29003581388889</c:v>
+                  <c:v>2.29822768809524</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.734604025</c:v>
+                  <c:v>1.86798188571429</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.82562039722222</c:v>
+                  <c:v>2.72799328095238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1228,16 +1276,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.03489927777778</c:v>
+                  <c:v>1.03351733095238</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.81733057777778</c:v>
+                  <c:v>1.78329617619048</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.19926223611111</c:v>
+                  <c:v>1.25216742380952</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.94119654166667</c:v>
+                  <c:v>1.86904433333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1245,11 +1293,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="-10"/>
-        <c:axId val="71142520"/>
-        <c:axId val="85960140"/>
+        <c:axId val="46578322"/>
+        <c:axId val="57048846"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71142520"/>
+        <c:axId val="46578322"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1315,14 +1363,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85960140"/>
+        <c:crossAx val="57048846"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85960140"/>
+        <c:axId val="57048846"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1388,7 +1436,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71142520"/>
+        <c:crossAx val="46578322"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1481,7 +1529,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1517,19 +1565,19 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.39834899722222</v>
+        <v>1.36895337857143</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>1.03146143611111</v>
+        <v>1.03514591428571</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>1.21817293611111</v>
+        <v>1.1902734547619</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1.59516627222222</v>
+        <v>1.61449742857143</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1.03489927777778</v>
+        <v>1.03351733095238</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1537,19 +1585,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>2.58328278888889</v>
+        <v>2.57586490952381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>2.21305013055556</v>
+        <v>2.21631086190476</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1.82860039722222</v>
+        <v>1.7964850452381</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>2.29003581388889</v>
+        <v>2.29822768809524</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1.81733057777778</v>
+        <v>1.78329617619048</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1557,19 +1605,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1.03799647777778</v>
+        <v>1.0956977</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>1.227852825</v>
+        <v>1.32008600952381</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>1.23244422222222</v>
+        <v>1.33940665238095</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>1.734604025</v>
+        <v>1.86798188571429</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1.19926223611111</v>
+        <v>1.25216742380952</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1577,19 +1625,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>3.72432051388889</v>
+        <v>3.82453064047619</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>2.31468790833333</v>
+        <v>2.23982057380953</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>2.164994475</v>
+        <v>2.04828762857143</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>2.82562039722222</v>
+        <v>2.72799328095238</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1.94119654166667</v>
+        <v>1.86904433333333</v>
       </c>
     </row>
   </sheetData>
@@ -1611,20 +1659,20 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B73" activeCellId="0" sqref="B73"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C85" activeCellId="0" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="22.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="24.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="17.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="3" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="28.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="30.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="21.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="23.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="3" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3237,7 +3285,7 @@
         <v>3.5372202</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
         <v>99</v>
       </c>
@@ -3260,7 +3308,7 @@
         <v>0.5829094</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
         <v>99</v>
       </c>
@@ -3283,7 +3331,7 @@
         <v>0.6537686</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
         <v>99</v>
       </c>
@@ -3304,6 +3352,282 @@
       </c>
       <c r="G73" s="3" t="n">
         <v>0.5806686</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" s="3" t="n">
+        <v>1.663033</v>
+      </c>
+      <c r="D74" s="3" t="n">
+        <v>1.5133224</v>
+      </c>
+      <c r="E74" s="3" t="n">
+        <v>1.3611712</v>
+      </c>
+      <c r="F74" s="3" t="n">
+        <v>2.2219876</v>
+      </c>
+      <c r="G74" s="3" t="n">
+        <v>1.4073966</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C75" s="3" t="n">
+        <v>1.6378114</v>
+      </c>
+      <c r="D75" s="3" t="n">
+        <v>1.5326964</v>
+      </c>
+      <c r="E75" s="3" t="n">
+        <v>1.5100798</v>
+      </c>
+      <c r="F75" s="3" t="n">
+        <v>2.2299924</v>
+      </c>
+      <c r="G75" s="3" t="n">
+        <v>1.5057492</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" s="3" t="n">
+        <v>1.3962722</v>
+      </c>
+      <c r="D76" s="3" t="n">
+        <v>1.5528064</v>
+      </c>
+      <c r="E76" s="3" t="n">
+        <v>1.1279582</v>
+      </c>
+      <c r="F76" s="3" t="n">
+        <v>2.0567694</v>
+      </c>
+      <c r="G76" s="3" t="n">
+        <v>1.6951936</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C77" s="3" t="n">
+        <v>1.2992894</v>
+      </c>
+      <c r="D77" s="3" t="n">
+        <v>1.1252988</v>
+      </c>
+      <c r="E77" s="3" t="n">
+        <v>1.3210614</v>
+      </c>
+      <c r="F77" s="3" t="n">
+        <v>1.8161882</v>
+      </c>
+      <c r="G77" s="3" t="n">
+        <v>1.1278676</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78" s="3" t="n">
+        <v>1.234027</v>
+      </c>
+      <c r="D78" s="3" t="n">
+        <v>1.1052284</v>
+      </c>
+      <c r="E78" s="3" t="n">
+        <v>1.1654402</v>
+      </c>
+      <c r="F78" s="3" t="n">
+        <v>1.8102078</v>
+      </c>
+      <c r="G78" s="3" t="n">
+        <v>0.9910306</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" s="3" t="n">
+        <v>1.2583188</v>
+      </c>
+      <c r="D79" s="3" t="n">
+        <v>1.1902456</v>
+      </c>
+      <c r="E79" s="3" t="n">
+        <v>1.0478674</v>
+      </c>
+      <c r="F79" s="3" t="n">
+        <v>1.8314352</v>
+      </c>
+      <c r="G79" s="3" t="n">
+        <v>1.1737786</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C80" s="3" t="n">
+        <v>1.3631308</v>
+      </c>
+      <c r="D80" s="3" t="n">
+        <v>1.2464102</v>
+      </c>
+      <c r="E80" s="3" t="n">
+        <v>1.1420494</v>
+      </c>
+      <c r="F80" s="3" t="n">
+        <v>1.836914</v>
+      </c>
+      <c r="G80" s="3" t="n">
+        <v>1.0707416</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C81" s="3" t="n">
+        <v>1.3333192</v>
+      </c>
+      <c r="D81" s="3" t="n">
+        <v>1.3254658</v>
+      </c>
+      <c r="E81" s="3" t="n">
+        <v>1.1451024</v>
+      </c>
+      <c r="F81" s="3" t="n">
+        <v>1.948164</v>
+      </c>
+      <c r="G81" s="3" t="n">
+        <v>1.01858</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="3" t="n">
+        <v>1.7940134</v>
+      </c>
+      <c r="D82" s="3" t="n">
+        <v>1.1987528</v>
+      </c>
+      <c r="E82" s="3" t="n">
+        <v>1.0109256</v>
+      </c>
+      <c r="F82" s="3" t="n">
+        <v>2.1359806</v>
+      </c>
+      <c r="G82" s="3" t="n">
+        <v>1.0374682</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C83" s="3" t="n">
+        <v>0.4102018</v>
+      </c>
+      <c r="D83" s="3" t="n">
+        <v>0.3220474</v>
+      </c>
+      <c r="E83" s="3" t="n">
+        <v>0.3873318</v>
+      </c>
+      <c r="F83" s="3" t="n">
+        <v>0.9108258</v>
+      </c>
+      <c r="G83" s="3" t="n">
+        <v>0.3897554</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" s="3" t="n">
+        <v>0.5874278</v>
+      </c>
+      <c r="D84" s="3" t="n">
+        <v>0.2953406</v>
+      </c>
+      <c r="E84" s="3" t="n">
+        <v>0.392158</v>
+      </c>
+      <c r="F84" s="3" t="n">
+        <v>0.9417866</v>
+      </c>
+      <c r="G84" s="3" t="n">
+        <v>0.3941732</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85" s="3" t="n">
+        <v>0.3341112</v>
+      </c>
+      <c r="D85" s="3" t="n">
+        <v>0.2794186</v>
+      </c>
+      <c r="E85" s="3" t="n">
+        <v>0.6633734</v>
+      </c>
+      <c r="F85" s="3" t="n">
+        <v>1.0255608</v>
+      </c>
+      <c r="G85" s="3" t="n">
+        <v>0.4909732</v>
       </c>
     </row>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3334,20 +3658,20 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C71" activeCellId="0" sqref="C71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D88" activeCellId="0" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="22.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="24.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="17.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="3" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="28.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="30.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="21.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="23.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="3" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3378,7 +3702,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>2.0220664</v>
@@ -3401,7 +3725,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>2.4586498</v>
@@ -3447,7 +3771,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>2.1296676</v>
@@ -3470,7 +3794,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>2.0261682</v>
@@ -3516,7 +3840,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>2.1709282</v>
@@ -3539,7 +3863,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>2.1589454</v>
@@ -3562,7 +3886,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>2.0390428</v>
@@ -3608,7 +3932,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>1.9875636</v>
@@ -3677,7 +4001,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>2.1964826</v>
@@ -3723,7 +4047,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>2.0752022</v>
@@ -3884,7 +4208,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>2.6861386</v>
@@ -3930,7 +4254,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>2.330873</v>
@@ -3953,7 +4277,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>2.4523078</v>
@@ -3976,7 +4300,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>2.3690538</v>
@@ -3999,7 +4323,7 @@
         <v>46</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>2.031089</v>
@@ -4022,7 +4346,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>2.3269536</v>
@@ -4068,7 +4392,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C32" s="3" t="n">
         <v>1.9277496</v>
@@ -4160,7 +4484,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>2.1296676</v>
@@ -4183,7 +4507,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>2.0261682</v>
@@ -4206,7 +4530,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>2.138844</v>
@@ -4229,7 +4553,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>2.569399</v>
@@ -4252,7 +4576,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>2.2719068</v>
@@ -4275,7 +4599,7 @@
         <v>60</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>2.4505342</v>
@@ -4298,7 +4622,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>2.5803136</v>
@@ -4344,7 +4668,7 @@
         <v>64</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="C44" s="3" t="n">
         <v>2.4560934</v>
@@ -4367,7 +4691,7 @@
         <v>64</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C45" s="3" t="n">
         <v>2.0923624</v>
@@ -4390,7 +4714,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C46" s="3" t="n">
         <v>2.7843442</v>
@@ -4413,7 +4737,7 @@
         <v>68</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C47" s="3" t="n">
         <v>2.5149182</v>
@@ -4459,7 +4783,7 @@
         <v>68</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C49" s="3" t="n">
         <v>3.6995458</v>
@@ -4643,7 +4967,7 @@
         <v>80</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C57" s="3" t="n">
         <v>2.9062288</v>
@@ -4827,7 +5151,7 @@
         <v>91</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C65" s="3" t="n">
         <v>2.0647184</v>
@@ -4850,7 +5174,7 @@
         <v>91</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C66" s="3" t="n">
         <v>3.3981744</v>
@@ -4873,7 +5197,7 @@
         <v>91</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3" t="n">
         <v>2.0062282</v>
@@ -4896,7 +5220,7 @@
         <v>95</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C68" s="3" t="n">
         <v>5.4740242</v>
@@ -4919,7 +5243,7 @@
         <v>95</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C69" s="3" t="n">
         <v>5.0492016</v>
@@ -4960,7 +5284,7 @@
         <v>1.1763888</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
         <v>99</v>
       </c>
@@ -4983,7 +5307,7 @@
         <v>1.1717764</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
         <v>99</v>
       </c>
@@ -5006,12 +5330,12 @@
         <v>1.0914608</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C73" s="3" t="n">
         <v>2.2478822</v>
@@ -5027,6 +5351,282 @@
       </c>
       <c r="G73" s="3" t="n">
         <v>1.174678</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" s="3" t="n">
+        <v>2.8062982</v>
+      </c>
+      <c r="D74" s="3" t="n">
+        <v>4.185806</v>
+      </c>
+      <c r="E74" s="3" t="n">
+        <v>1.8276736</v>
+      </c>
+      <c r="F74" s="3" t="n">
+        <v>2.7102904</v>
+      </c>
+      <c r="G74" s="3" t="n">
+        <v>1.615231</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" s="3" t="n">
+        <v>2.7314032</v>
+      </c>
+      <c r="D75" s="3" t="n">
+        <v>1.7828206</v>
+      </c>
+      <c r="E75" s="3" t="n">
+        <v>1.8165034</v>
+      </c>
+      <c r="F75" s="3" t="n">
+        <v>2.4262786</v>
+      </c>
+      <c r="G75" s="3" t="n">
+        <v>1.7993938</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" s="3" t="n">
+        <v>2.7375454</v>
+      </c>
+      <c r="D76" s="3" t="n">
+        <v>1.9205458</v>
+      </c>
+      <c r="E76" s="3" t="n">
+        <v>1.7348918</v>
+      </c>
+      <c r="F76" s="3" t="n">
+        <v>2.6145286</v>
+      </c>
+      <c r="G76" s="3" t="n">
+        <v>1.6532774</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C77" s="3" t="n">
+        <v>2.5745222</v>
+      </c>
+      <c r="D77" s="3" t="n">
+        <v>4.4549988</v>
+      </c>
+      <c r="E77" s="3" t="n">
+        <v>1.78424</v>
+      </c>
+      <c r="F77" s="3" t="n">
+        <v>2.7326984</v>
+      </c>
+      <c r="G77" s="3" t="n">
+        <v>1.7262564</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78" s="3" t="n">
+        <v>2.513751</v>
+      </c>
+      <c r="D78" s="3" t="n">
+        <v>1.5941924</v>
+      </c>
+      <c r="E78" s="3" t="n">
+        <v>1.5639942</v>
+      </c>
+      <c r="F78" s="3" t="n">
+        <v>2.1758768</v>
+      </c>
+      <c r="G78" s="3" t="n">
+        <v>1.5527918</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C79" s="3" t="n">
+        <v>2.5848074</v>
+      </c>
+      <c r="D79" s="3" t="n">
+        <v>1.8265466</v>
+      </c>
+      <c r="E79" s="3" t="n">
+        <v>1.6972628</v>
+      </c>
+      <c r="F79" s="3" t="n">
+        <v>2.2632088</v>
+      </c>
+      <c r="G79" s="3" t="n">
+        <v>1.5242868</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C80" s="3" t="n">
+        <v>2.5453522</v>
+      </c>
+      <c r="D80" s="3" t="n">
+        <v>4.3559256</v>
+      </c>
+      <c r="E80" s="3" t="n">
+        <v>1.813342</v>
+      </c>
+      <c r="F80" s="3" t="n">
+        <v>2.7590428</v>
+      </c>
+      <c r="G80" s="3" t="n">
+        <v>1.99309</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C81" s="3" t="n">
+        <v>2.6043712</v>
+      </c>
+      <c r="D81" s="3" t="n">
+        <v>1.9262594</v>
+      </c>
+      <c r="E81" s="3" t="n">
+        <v>1.7269844</v>
+      </c>
+      <c r="F81" s="3" t="n">
+        <v>2.412138</v>
+      </c>
+      <c r="G81" s="3" t="n">
+        <v>1.8864284</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="3" t="n">
+        <v>2.9279438</v>
+      </c>
+      <c r="D82" s="3" t="n">
+        <v>1.7262608</v>
+      </c>
+      <c r="E82" s="3" t="n">
+        <v>1.7917356</v>
+      </c>
+      <c r="F82" s="3" t="n">
+        <v>2.5118236</v>
+      </c>
+      <c r="G82" s="3" t="n">
+        <v>1.800036</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C83" s="3" t="n">
+        <v>2.0692152</v>
+      </c>
+      <c r="D83" s="3" t="n">
+        <v>1.088721</v>
+      </c>
+      <c r="E83" s="3" t="n">
+        <v>1.028547</v>
+      </c>
+      <c r="F83" s="3" t="n">
+        <v>2.2810818</v>
+      </c>
+      <c r="G83" s="3" t="n">
+        <v>1.2030752</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" s="3" t="n">
+        <v>2.1317158</v>
+      </c>
+      <c r="D84" s="3" t="n">
+        <v>0.9460032</v>
+      </c>
+      <c r="E84" s="3" t="n">
+        <v>1.2156052</v>
+      </c>
+      <c r="F84" s="3" t="n">
+        <v>1.7268288</v>
+      </c>
+      <c r="G84" s="3" t="n">
+        <v>0.9982632</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85" s="3" t="n">
+        <v>2.149366</v>
+      </c>
+      <c r="D85" s="3" t="n">
+        <v>1.0224228</v>
+      </c>
+      <c r="E85" s="3" t="n">
+        <v>1.2447352</v>
+      </c>
+      <c r="F85" s="3" t="n">
+        <v>1.5547506</v>
+      </c>
+      <c r="G85" s="3" t="n">
+        <v>1.1969472</v>
       </c>
     </row>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5055,20 +5655,20 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G71" activeCellId="0" sqref="G71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C80" activeCellId="0" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="22.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="24.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="17.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="3" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="28.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="30.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="21.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="23.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="3" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5099,7 +5699,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>0.7804054</v>
@@ -5122,7 +5722,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>0.7779802</v>
@@ -5145,7 +5745,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>0.7043458</v>
@@ -5168,7 +5768,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>0.7145706</v>
@@ -5237,7 +5837,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>0.6280168</v>
@@ -5283,7 +5883,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>0.7373706</v>
@@ -5329,7 +5929,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>0.7234852</v>
@@ -5421,7 +6021,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>0.3510038</v>
@@ -5444,7 +6044,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>0.5421752</v>
@@ -5467,7 +6067,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>0.5591408</v>
@@ -5490,7 +6090,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>0.5551518</v>
@@ -5582,7 +6182,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>0.9795414</v>
@@ -5605,7 +6205,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>3.7305486</v>
@@ -5628,7 +6228,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>2.3842444</v>
@@ -5651,7 +6251,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>2.139728</v>
@@ -5674,7 +6274,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>0.7112716</v>
@@ -5697,7 +6297,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>0.67812</v>
@@ -5720,7 +6320,7 @@
         <v>46</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>0.6440876</v>
@@ -5743,7 +6343,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>0.712753</v>
@@ -5766,7 +6366,7 @@
         <v>46</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>0.630812</v>
@@ -5812,7 +6412,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>0.7013216</v>
@@ -5881,7 +6481,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>0.7043458</v>
@@ -5904,7 +6504,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>0.7145706</v>
@@ -5927,7 +6527,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>1.2584274</v>
@@ -5950,7 +6550,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>1.3856258</v>
@@ -5973,7 +6573,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>1.1413118</v>
@@ -5996,7 +6596,7 @@
         <v>60</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>2.0516946</v>
@@ -6019,7 +6619,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>0.7008908</v>
@@ -6065,7 +6665,7 @@
         <v>64</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C44" s="3" t="n">
         <v>0.7883284</v>
@@ -6111,7 +6711,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="C46" s="3" t="n">
         <v>0.6814198</v>
@@ -6134,7 +6734,7 @@
         <v>68</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C47" s="3" t="n">
         <v>1.5693422</v>
@@ -6180,7 +6780,7 @@
         <v>68</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="C49" s="3" t="n">
         <v>1.1405132</v>
@@ -6226,7 +6826,7 @@
         <v>72</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C51" s="3" t="n">
         <v>1.4049502</v>
@@ -6272,7 +6872,7 @@
         <v>76</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C53" s="3" t="n">
         <v>0.9897652</v>
@@ -6341,7 +6941,7 @@
         <v>80</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C56" s="3" t="n">
         <v>1.2353042</v>
@@ -6387,7 +6987,7 @@
         <v>80</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C58" s="3" t="n">
         <v>1.2364662</v>
@@ -6433,7 +7033,7 @@
         <v>84</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C60" s="3" t="n">
         <v>1.1438926</v>
@@ -6456,7 +7056,7 @@
         <v>84</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C61" s="3" t="n">
         <v>0.6579276</v>
@@ -6548,7 +7148,7 @@
         <v>91</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="C65" s="3" t="n">
         <v>1.8978822</v>
@@ -6571,7 +7171,7 @@
         <v>91</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C66" s="3" t="n">
         <v>1.1060998</v>
@@ -6594,7 +7194,7 @@
         <v>91</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C67" s="3" t="n">
         <v>1.6069744</v>
@@ -6617,7 +7217,7 @@
         <v>95</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="C68" s="3" t="n">
         <v>1.6301784</v>
@@ -6640,7 +7240,7 @@
         <v>95</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C69" s="3" t="n">
         <v>1.5682082</v>
@@ -6663,7 +7263,7 @@
         <v>95</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="C70" s="3" t="n">
         <v>1.4442308</v>
@@ -6681,12 +7281,12 @@
         <v>1.5947984</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="C71" s="3" t="n">
         <v>1.5592828</v>
@@ -6704,7 +7304,7 @@
         <v>1.34327</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
         <v>99</v>
       </c>
@@ -6727,12 +7327,12 @@
         <v>1.8394206</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C73" s="3" t="n">
         <v>1.4236492</v>
@@ -6748,6 +7348,282 @@
       </c>
       <c r="G73" s="3" t="n">
         <v>1.6857144</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" s="3" t="n">
+        <v>1.9417064</v>
+      </c>
+      <c r="D74" s="3" t="n">
+        <v>2.5646772</v>
+      </c>
+      <c r="E74" s="3" t="n">
+        <v>2.5963838</v>
+      </c>
+      <c r="F74" s="3" t="n">
+        <v>3.101522</v>
+      </c>
+      <c r="G74" s="3" t="n">
+        <v>1.7896214</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75" s="3" t="n">
+        <v>2.1262338</v>
+      </c>
+      <c r="D75" s="3" t="n">
+        <v>2.1271618</v>
+      </c>
+      <c r="E75" s="3" t="n">
+        <v>2.5113924</v>
+      </c>
+      <c r="F75" s="3" t="n">
+        <v>2.9987728</v>
+      </c>
+      <c r="G75" s="3" t="n">
+        <v>1.2888552</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" s="3" t="n">
+        <v>1.1822766</v>
+      </c>
+      <c r="D76" s="3" t="n">
+        <v>2.3114208</v>
+      </c>
+      <c r="E76" s="3" t="n">
+        <v>2.3885328</v>
+      </c>
+      <c r="F76" s="3" t="n">
+        <v>3.1459444</v>
+      </c>
+      <c r="G76" s="3" t="n">
+        <v>1.7609846</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C77" s="3" t="n">
+        <v>1.4468618</v>
+      </c>
+      <c r="D77" s="3" t="n">
+        <v>1.8736958</v>
+      </c>
+      <c r="E77" s="3" t="n">
+        <v>2.0594434</v>
+      </c>
+      <c r="F77" s="3" t="n">
+        <v>2.8538076</v>
+      </c>
+      <c r="G77" s="3" t="n">
+        <v>2.4539452</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" s="3" t="n">
+        <v>1.4742292</v>
+      </c>
+      <c r="D78" s="3" t="n">
+        <v>1.8459844</v>
+      </c>
+      <c r="E78" s="3" t="n">
+        <v>2.0495152</v>
+      </c>
+      <c r="F78" s="3" t="n">
+        <v>2.7237102</v>
+      </c>
+      <c r="G78" s="3" t="n">
+        <v>1.7424158</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C79" s="3" t="n">
+        <v>1.573159</v>
+      </c>
+      <c r="D79" s="3" t="n">
+        <v>1.8521754</v>
+      </c>
+      <c r="E79" s="3" t="n">
+        <v>1.8562358</v>
+      </c>
+      <c r="F79" s="3" t="n">
+        <v>2.6979898</v>
+      </c>
+      <c r="G79" s="3" t="n">
+        <v>1.6211168</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C80" s="3" t="n">
+        <v>1.4620546</v>
+      </c>
+      <c r="D80" s="3" t="n">
+        <v>1.9257358</v>
+      </c>
+      <c r="E80" s="3" t="n">
+        <v>2.0472956</v>
+      </c>
+      <c r="F80" s="3" t="n">
+        <v>2.596535</v>
+      </c>
+      <c r="G80" s="3" t="n">
+        <v>1.4714824</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C81" s="3" t="n">
+        <v>1.7578504</v>
+      </c>
+      <c r="D81" s="3" t="n">
+        <v>2.1153586</v>
+      </c>
+      <c r="E81" s="3" t="n">
+        <v>2.2729104</v>
+      </c>
+      <c r="F81" s="3" t="n">
+        <v>2.7047048</v>
+      </c>
+      <c r="G81" s="3" t="n">
+        <v>1.7490696</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="3" t="n">
+        <v>1.317281</v>
+      </c>
+      <c r="D82" s="3" t="n">
+        <v>2.2135674</v>
+      </c>
+      <c r="E82" s="3" t="n">
+        <v>2.0620926</v>
+      </c>
+      <c r="F82" s="3" t="n">
+        <v>2.9584024</v>
+      </c>
+      <c r="G82" s="3" t="n">
+        <v>1.6958602</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C83" s="3" t="n">
+        <v>1.0064424</v>
+      </c>
+      <c r="D83" s="3" t="n">
+        <v>1.1824618</v>
+      </c>
+      <c r="E83" s="3" t="n">
+        <v>1.2309272</v>
+      </c>
+      <c r="F83" s="3" t="n">
+        <v>2.3698646</v>
+      </c>
+      <c r="G83" s="3" t="n">
+        <v>1.1290368</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84" s="3" t="n">
+        <v>1.0070324</v>
+      </c>
+      <c r="D84" s="3" t="n">
+        <v>1.504738</v>
+      </c>
+      <c r="E84" s="3" t="n">
+        <v>1.4717422</v>
+      </c>
+      <c r="F84" s="3" t="n">
+        <v>1.9655152</v>
+      </c>
+      <c r="G84" s="3" t="n">
+        <v>1.017412</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C85" s="3" t="n">
+        <v>1.0077328</v>
+      </c>
+      <c r="D85" s="3" t="n">
+        <v>0.9648444</v>
+      </c>
+      <c r="E85" s="3" t="n">
+        <v>1.2277034</v>
+      </c>
+      <c r="F85" s="3" t="n">
+        <v>1.9022198</v>
+      </c>
+      <c r="G85" s="3" t="n">
+        <v>1.1153826</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6772,20 +7648,20 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C70" activeCellId="0" sqref="C70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D80" activeCellId="0" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="22.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="24.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="17.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="3" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="28.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="30.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="21.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="23.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="3" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6816,7 +7692,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>3.4656902</v>
@@ -6839,7 +7715,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>4.0852622</v>
@@ -6862,7 +7738,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>2.9817282</v>
@@ -6885,7 +7761,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>3.2355116</v>
@@ -6954,7 +7830,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>3.7434734</v>
@@ -6977,7 +7853,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>3.5561424</v>
@@ -7000,7 +7876,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>3.2355472</v>
@@ -7023,7 +7899,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>3.8741284</v>
@@ -7046,7 +7922,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>3.5923944</v>
@@ -7115,7 +7991,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>3.0850886</v>
@@ -7138,7 +8014,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>4.2818632</v>
@@ -7161,7 +8037,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>3.5103138</v>
@@ -7184,7 +8060,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>3.5907182</v>
@@ -7207,7 +8083,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>2.8087598</v>
@@ -7230,7 +8106,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>3.0989676</v>
@@ -7253,7 +8129,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>2.9089418</v>
@@ -7322,7 +8198,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>3.6907394</v>
@@ -7368,7 +8244,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>3.822524</v>
@@ -7391,7 +8267,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>3.2866498</v>
@@ -7414,7 +8290,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>3.8178666</v>
@@ -7437,7 +8313,7 @@
         <v>46</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>3.567202</v>
@@ -7460,7 +8336,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>3.0702744</v>
@@ -7483,7 +8359,7 @@
         <v>46</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>3.1279612</v>
@@ -7529,7 +8405,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>3.6235082</v>
@@ -7552,7 +8428,7 @@
         <v>50</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="C34" s="3" t="n">
         <v>2.9263998</v>
@@ -7575,7 +8451,7 @@
         <v>53</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="C35" s="3" t="n">
         <v>2.9817282</v>
@@ -7598,7 +8474,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>3.2355116</v>
@@ -7644,7 +8520,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>4.4183598</v>
@@ -7667,7 +8543,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>4.2271066</v>
@@ -7690,7 +8566,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>4.3486802</v>
@@ -7713,7 +8589,7 @@
         <v>60</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>4.4582382</v>
@@ -7736,7 +8612,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>3.6324914</v>
@@ -7782,7 +8658,7 @@
         <v>64</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C44" s="3" t="n">
         <v>3.8775138</v>
@@ -7828,7 +8704,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="C46" s="3" t="n">
         <v>3.8538836</v>
@@ -7851,7 +8727,7 @@
         <v>68</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C47" s="3" t="n">
         <v>4.134913</v>
@@ -7897,7 +8773,7 @@
         <v>68</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="C49" s="3" t="n">
         <v>4.4015426</v>
@@ -7943,7 +8819,7 @@
         <v>72</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C51" s="3" t="n">
         <v>4.7661336</v>
@@ -7966,7 +8842,7 @@
         <v>72</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="C52" s="3" t="n">
         <v>4.1553188</v>
@@ -7989,7 +8865,7 @@
         <v>76</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C53" s="3" t="n">
         <v>4.4161086</v>
@@ -8012,7 +8888,7 @@
         <v>76</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="C54" s="3" t="n">
         <v>3.9109934</v>
@@ -8035,7 +8911,7 @@
         <v>76</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="C55" s="3" t="n">
         <v>3.9109934</v>
@@ -8058,7 +8934,7 @@
         <v>80</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C56" s="3" t="n">
         <v>3.4861618</v>
@@ -8104,7 +8980,7 @@
         <v>80</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="C58" s="3" t="n">
         <v>3.52287</v>
@@ -8265,7 +9141,7 @@
         <v>91</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C65" s="3" t="n">
         <v>3.2117386</v>
@@ -8288,7 +9164,7 @@
         <v>91</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C66" s="3" t="n">
         <v>4.0686228</v>
@@ -8311,7 +9187,7 @@
         <v>91</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C67" s="3" t="n">
         <v>3.0381616</v>
@@ -8334,7 +9210,7 @@
         <v>95</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="C68" s="3" t="n">
         <v>3.9888114</v>
@@ -8357,7 +9233,7 @@
         <v>95</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C69" s="3" t="n">
         <v>4.1137066</v>
@@ -8380,7 +9256,7 @@
         <v>95</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="C70" s="3" t="n">
         <v>4.983335</v>
@@ -8398,12 +9274,12 @@
         <v>1.5575226</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="C71" s="3" t="n">
         <v>4.1330914</v>
@@ -8421,7 +9297,7 @@
         <v>1.3472144</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
         <v>99</v>
       </c>
@@ -8444,12 +9320,12 @@
         <v>1.6042548</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C73" s="3" t="n">
         <v>3.9020584</v>
@@ -8465,6 +9341,282 @@
       </c>
       <c r="G73" s="3" t="n">
         <v>1.5321722</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" s="3" t="n">
+        <v>4.5924734</v>
+      </c>
+      <c r="D74" s="3" t="n">
+        <v>2.252885</v>
+      </c>
+      <c r="E74" s="3" t="n">
+        <v>1.442748</v>
+      </c>
+      <c r="F74" s="3" t="n">
+        <v>2.595995</v>
+      </c>
+      <c r="G74" s="3" t="n">
+        <v>1.600368</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75" s="3" t="n">
+        <v>4.7249976</v>
+      </c>
+      <c r="D75" s="3" t="n">
+        <v>1.433846</v>
+      </c>
+      <c r="E75" s="3" t="n">
+        <v>1.8969974</v>
+      </c>
+      <c r="F75" s="3" t="n">
+        <v>2.5455394</v>
+      </c>
+      <c r="G75" s="3" t="n">
+        <v>2.4580852</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C76" s="3" t="n">
+        <v>4.5492628</v>
+      </c>
+      <c r="D76" s="3" t="n">
+        <v>1.6989358</v>
+      </c>
+      <c r="E76" s="3" t="n">
+        <v>1.5226168</v>
+      </c>
+      <c r="F76" s="3" t="n">
+        <v>2.1048694</v>
+      </c>
+      <c r="G76" s="3" t="n">
+        <v>1.6580242</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C77" s="3" t="n">
+        <v>4.9078458</v>
+      </c>
+      <c r="D77" s="3" t="n">
+        <v>1.743501</v>
+      </c>
+      <c r="E77" s="3" t="n">
+        <v>1.1906358</v>
+      </c>
+      <c r="F77" s="3" t="n">
+        <v>2.9160158</v>
+      </c>
+      <c r="G77" s="3" t="n">
+        <v>1.4012986</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78" s="3" t="n">
+        <v>4.4770992</v>
+      </c>
+      <c r="D78" s="3" t="n">
+        <v>1.1323152</v>
+      </c>
+      <c r="E78" s="3" t="n">
+        <v>1.1403698</v>
+      </c>
+      <c r="F78" s="3" t="n">
+        <v>1.9036716</v>
+      </c>
+      <c r="G78" s="3" t="n">
+        <v>1.2772478</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C79" s="3" t="n">
+        <v>4.5622134</v>
+      </c>
+      <c r="D79" s="3" t="n">
+        <v>1.1494824</v>
+      </c>
+      <c r="E79" s="3" t="n">
+        <v>1.2822702</v>
+      </c>
+      <c r="F79" s="3" t="n">
+        <v>1.731435</v>
+      </c>
+      <c r="G79" s="3" t="n">
+        <v>1.2716848</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C80" s="3" t="n">
+        <v>4.836367</v>
+      </c>
+      <c r="D80" s="3" t="n">
+        <v>2.07015</v>
+      </c>
+      <c r="E80" s="3" t="n">
+        <v>1.3262026</v>
+      </c>
+      <c r="F80" s="3" t="n">
+        <v>2.6406004</v>
+      </c>
+      <c r="G80" s="3" t="n">
+        <v>1.514161</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C81" s="3" t="n">
+        <v>4.7587322</v>
+      </c>
+      <c r="D81" s="3" t="n">
+        <v>1.2660506</v>
+      </c>
+      <c r="E81" s="3" t="n">
+        <v>1.4778654</v>
+      </c>
+      <c r="F81" s="3" t="n">
+        <v>2.390717</v>
+      </c>
+      <c r="G81" s="3" t="n">
+        <v>1.551439</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="3" t="n">
+        <v>4.7621978</v>
+      </c>
+      <c r="D82" s="3" t="n">
+        <v>3.0916346</v>
+      </c>
+      <c r="E82" s="3" t="n">
+        <v>1.6331584</v>
+      </c>
+      <c r="F82" s="3" t="n">
+        <v>2.1120676</v>
+      </c>
+      <c r="G82" s="3" t="n">
+        <v>1.5110712</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C83" s="3" t="n">
+        <v>3.860828</v>
+      </c>
+      <c r="D83" s="3" t="n">
+        <v>3.7139918</v>
+      </c>
+      <c r="E83" s="3" t="n">
+        <v>1.1081922</v>
+      </c>
+      <c r="F83" s="3" t="n">
+        <v>1.9723624</v>
+      </c>
+      <c r="G83" s="3" t="n">
+        <v>1.0072452</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84" s="3" t="n">
+        <v>3.7302656</v>
+      </c>
+      <c r="D84" s="3" t="n">
+        <v>1.0921426</v>
+      </c>
+      <c r="E84" s="3" t="n">
+        <v>0.9160848</v>
+      </c>
+      <c r="F84" s="3" t="n">
+        <v>1.3498158</v>
+      </c>
+      <c r="G84" s="3" t="n">
+        <v>0.9810854</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85" s="3" t="n">
+        <v>3.347214</v>
+      </c>
+      <c r="D85" s="3" t="n">
+        <v>0.8424638</v>
+      </c>
+      <c r="E85" s="3" t="n">
+        <v>1.2394172</v>
+      </c>
+      <c r="F85" s="3" t="n">
+        <v>1.4436776</v>
+      </c>
+      <c r="G85" s="3" t="n">
+        <v>1.0018626</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Output Data/Crpo/Common_folder/API_Performance_Chart_Report.xlsx
+++ b/Output Data/Crpo/Common_folder/API_Performance_Chart_Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="215">
   <si>
     <t xml:space="preserve">get_tenant_details</t>
   </si>
@@ -378,6 +378,18 @@
   </si>
   <si>
     <t xml:space="preserve">08:46:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:08:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:16:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:22:AM</t>
   </si>
   <si>
     <t xml:space="preserve">07:41:PM</t>
@@ -972,16 +984,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.36895337857143</c:v>
+                  <c:v>1.33445174482759</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.57586490952381</c:v>
+                  <c:v>2.55234685517241</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0956977</c:v>
+                  <c:v>1.09850928735632</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.82453064047619</c:v>
+                  <c:v>3.84924327816092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1048,16 +1060,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.03514591428571</c:v>
+                  <c:v>1.01004417011494</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.21631086190476</c:v>
+                  <c:v>2.30666297011494</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.32008600952381</c:v>
+                  <c:v>1.32762595632184</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.23982057380953</c:v>
+                  <c:v>2.19834681149425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1124,16 +1136,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.1902734547619</c:v>
+                  <c:v>1.16059625977012</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7964850452381</c:v>
+                  <c:v>1.9219581816092</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.33940665238095</c:v>
+                  <c:v>1.34913371034483</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.04828762857143</c:v>
+                  <c:v>2.00881314942529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1200,16 +1212,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.61449742857143</c:v>
+                  <c:v>1.59107406436782</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.29822768809524</c:v>
+                  <c:v>2.37683532643678</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.86798188571429</c:v>
+                  <c:v>1.8801592137931</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.72799328095238</c:v>
+                  <c:v>2.68860249885057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1276,16 +1288,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.03351733095238</c:v>
+                  <c:v>1.00880564367816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.78329617619048</c:v>
+                  <c:v>1.84120322758621</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.25216742380952</c:v>
+                  <c:v>1.25141514712644</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.86904433333333</c:v>
+                  <c:v>1.84051496551724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1293,11 +1305,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="-10"/>
-        <c:axId val="46578322"/>
-        <c:axId val="57048846"/>
+        <c:axId val="81369070"/>
+        <c:axId val="96911174"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46578322"/>
+        <c:axId val="81369070"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1363,14 +1375,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57048846"/>
+        <c:crossAx val="96911174"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57048846"/>
+        <c:axId val="96911174"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,7 +1448,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46578322"/>
+        <c:crossAx val="81369070"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1529,7 +1541,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1565,19 +1577,19 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.36895337857143</v>
+        <v>1.33445174482759</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>1.03514591428571</v>
+        <v>1.01004417011494</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>1.1902734547619</v>
+        <v>1.16059625977012</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1.61449742857143</v>
+        <v>1.59107406436782</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1.03351733095238</v>
+        <v>1.00880564367816</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1585,19 +1597,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>2.57586490952381</v>
+        <v>2.55234685517241</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>2.21631086190476</v>
+        <v>2.30666297011494</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1.7964850452381</v>
+        <v>1.9219581816092</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>2.29822768809524</v>
+        <v>2.37683532643678</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1.78329617619048</v>
+        <v>1.84120322758621</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1605,19 +1617,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1.0956977</v>
+        <v>1.09850928735632</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>1.32008600952381</v>
+        <v>1.32762595632184</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>1.33940665238095</v>
+        <v>1.34913371034483</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>1.86798188571429</v>
+        <v>1.8801592137931</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1.25216742380952</v>
+        <v>1.25141514712644</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1625,19 +1637,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>3.82453064047619</v>
+        <v>3.84924327816092</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>2.23982057380953</v>
+        <v>2.19834681149425</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>2.04828762857143</v>
+        <v>2.00881314942529</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>2.72799328095238</v>
+        <v>2.68860249885057</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1.86904433333333</v>
+        <v>1.84051496551724</v>
       </c>
     </row>
   </sheetData>
@@ -1660,7 +1672,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C85" activeCellId="0" sqref="C85"/>
+      <selection pane="topLeft" activeCell="B79" activeCellId="0" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3561,7 +3573,7 @@
         <v>1.0374682</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
         <v>114</v>
       </c>
@@ -3584,7 +3596,7 @@
         <v>0.3897554</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
         <v>114</v>
       </c>
@@ -3607,7 +3619,7 @@
         <v>0.3941732</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
         <v>114</v>
       </c>
@@ -3630,6 +3642,76 @@
         <v>0.4909732</v>
       </c>
     </row>
+    <row r="86" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C86" s="3" t="n">
+        <v>0.3796308</v>
+      </c>
+      <c r="D86" s="3" t="n">
+        <v>0.3087778</v>
+      </c>
+      <c r="E86" s="3" t="n">
+        <v>0.3566184</v>
+      </c>
+      <c r="F86" s="3" t="n">
+        <v>0.9447432</v>
+      </c>
+      <c r="G86" s="3" t="n">
+        <v>0.3191322</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C87" s="3" t="n">
+        <v>0.352177</v>
+      </c>
+      <c r="D87" s="3" t="n">
+        <v>0.2920096</v>
+      </c>
+      <c r="E87" s="3" t="n">
+        <v>0.3292926</v>
+      </c>
+      <c r="F87" s="3" t="n">
+        <v>0.9486302</v>
+      </c>
+      <c r="G87" s="3" t="n">
+        <v>0.3229826</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C88" s="3" t="n">
+        <v>0.3734102</v>
+      </c>
+      <c r="D88" s="3" t="n">
+        <v>0.3207986</v>
+      </c>
+      <c r="E88" s="3" t="n">
+        <v>0.3029934</v>
+      </c>
+      <c r="F88" s="3" t="n">
+        <v>0.9122862</v>
+      </c>
+      <c r="G88" s="3" t="n">
+        <v>0.3085204</v>
+      </c>
+    </row>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3659,7 +3741,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D88" activeCellId="0" sqref="D88"/>
+      <selection pane="topLeft" activeCell="A89" activeCellId="0" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3702,7 +3784,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>2.0220664</v>
@@ -3725,7 +3807,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>2.4586498</v>
@@ -3771,7 +3853,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>2.1296676</v>
@@ -3794,7 +3876,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>2.0261682</v>
@@ -3840,7 +3922,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>2.1709282</v>
@@ -3863,7 +3945,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>2.1589454</v>
@@ -3886,7 +3968,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>2.0390428</v>
@@ -3932,7 +4014,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>1.9875636</v>
@@ -4001,7 +4083,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>2.1964826</v>
@@ -4047,7 +4129,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>2.0752022</v>
@@ -4208,7 +4290,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>2.6861386</v>
@@ -4254,7 +4336,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>2.330873</v>
@@ -4277,7 +4359,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>2.4523078</v>
@@ -4300,7 +4382,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>2.3690538</v>
@@ -4323,7 +4405,7 @@
         <v>46</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>2.031089</v>
@@ -4346,7 +4428,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>2.3269536</v>
@@ -4392,7 +4474,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C32" s="3" t="n">
         <v>1.9277496</v>
@@ -4484,7 +4566,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>2.1296676</v>
@@ -4507,7 +4589,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>2.0261682</v>
@@ -4530,7 +4612,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>2.138844</v>
@@ -4553,7 +4635,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>2.569399</v>
@@ -4576,7 +4658,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>2.2719068</v>
@@ -4599,7 +4681,7 @@
         <v>60</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>2.4505342</v>
@@ -4622,7 +4704,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>2.5803136</v>
@@ -4668,7 +4750,7 @@
         <v>64</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C44" s="3" t="n">
         <v>2.4560934</v>
@@ -4691,7 +4773,7 @@
         <v>64</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C45" s="3" t="n">
         <v>2.0923624</v>
@@ -4714,7 +4796,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C46" s="3" t="n">
         <v>2.7843442</v>
@@ -4737,7 +4819,7 @@
         <v>68</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C47" s="3" t="n">
         <v>2.5149182</v>
@@ -4967,7 +5049,7 @@
         <v>80</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C57" s="3" t="n">
         <v>2.9062288</v>
@@ -5151,7 +5233,7 @@
         <v>91</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C65" s="3" t="n">
         <v>2.0647184</v>
@@ -5174,7 +5256,7 @@
         <v>91</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C66" s="3" t="n">
         <v>3.3981744</v>
@@ -5197,7 +5279,7 @@
         <v>91</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C67" s="3" t="n">
         <v>2.0062282</v>
@@ -5220,7 +5302,7 @@
         <v>95</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C68" s="3" t="n">
         <v>5.4740242</v>
@@ -5243,7 +5325,7 @@
         <v>95</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C69" s="3" t="n">
         <v>5.0492016</v>
@@ -5335,7 +5417,7 @@
         <v>99</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C73" s="3" t="n">
         <v>2.2478822</v>
@@ -5381,7 +5463,7 @@
         <v>103</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C75" s="3" t="n">
         <v>2.7314032</v>
@@ -5404,7 +5486,7 @@
         <v>103</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C76" s="3" t="n">
         <v>2.7375454</v>
@@ -5473,7 +5555,7 @@
         <v>107</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C79" s="3" t="n">
         <v>2.5848074</v>
@@ -5560,12 +5642,12 @@
         <v>1.800036</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C83" s="3" t="n">
         <v>2.0692152</v>
@@ -5583,7 +5665,7 @@
         <v>1.2030752</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
         <v>114</v>
       </c>
@@ -5606,7 +5688,7 @@
         <v>0.9982632</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
         <v>114</v>
       </c>
@@ -5629,6 +5711,76 @@
         <v>1.1969472</v>
       </c>
     </row>
+    <row r="86" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C86" s="3" t="n">
+        <v>1.8947846</v>
+      </c>
+      <c r="D86" s="3" t="n">
+        <v>6.4301004</v>
+      </c>
+      <c r="E86" s="3" t="n">
+        <v>4.8651428</v>
+      </c>
+      <c r="F86" s="3" t="n">
+        <v>4.891026</v>
+      </c>
+      <c r="G86" s="3" t="n">
+        <v>3.3867444</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C87" s="3" t="n">
+        <v>1.8616348</v>
+      </c>
+      <c r="D87" s="3" t="n">
+        <v>4.1445452</v>
+      </c>
+      <c r="E87" s="3" t="n">
+        <v>4.7047672</v>
+      </c>
+      <c r="F87" s="3" t="n">
+        <v>4.3936958</v>
+      </c>
+      <c r="G87" s="3" t="n">
+        <v>3.3588782</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C88" s="3" t="n">
+        <v>1.9251046</v>
+      </c>
+      <c r="D88" s="3" t="n">
+        <v>3.9349204</v>
+      </c>
+      <c r="E88" s="3" t="n">
+        <v>6.735708</v>
+      </c>
+      <c r="F88" s="3" t="n">
+        <v>4.4488258</v>
+      </c>
+      <c r="G88" s="3" t="n">
+        <v>3.6421794</v>
+      </c>
+    </row>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5656,7 +5808,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C80" activeCellId="0" sqref="C80"/>
+      <selection pane="topLeft" activeCell="A89" activeCellId="0" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5699,7 +5851,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>0.7804054</v>
@@ -5722,7 +5874,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>0.7779802</v>
@@ -5745,7 +5897,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>0.7043458</v>
@@ -5768,7 +5920,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>0.7145706</v>
@@ -5837,7 +5989,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>0.6280168</v>
@@ -5883,7 +6035,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>0.7373706</v>
@@ -5929,7 +6081,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>0.7234852</v>
@@ -6021,7 +6173,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>0.3510038</v>
@@ -6044,7 +6196,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>0.5421752</v>
@@ -6067,7 +6219,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>0.5591408</v>
@@ -6090,7 +6242,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>0.5551518</v>
@@ -6182,7 +6334,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>0.9795414</v>
@@ -6205,7 +6357,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>3.7305486</v>
@@ -6228,7 +6380,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>2.3842444</v>
@@ -6251,7 +6403,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>2.139728</v>
@@ -6274,7 +6426,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>0.7112716</v>
@@ -6297,7 +6449,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>0.67812</v>
@@ -6320,7 +6472,7 @@
         <v>46</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>0.6440876</v>
@@ -6343,7 +6495,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>0.712753</v>
@@ -6366,7 +6518,7 @@
         <v>46</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>0.630812</v>
@@ -6412,7 +6564,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>0.7013216</v>
@@ -6481,7 +6633,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>0.7043458</v>
@@ -6504,7 +6656,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>0.7145706</v>
@@ -6527,7 +6679,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>1.2584274</v>
@@ -6550,7 +6702,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>1.3856258</v>
@@ -6573,7 +6725,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>1.1413118</v>
@@ -6596,7 +6748,7 @@
         <v>60</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>2.0516946</v>
@@ -6665,7 +6817,7 @@
         <v>64</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C44" s="3" t="n">
         <v>0.7883284</v>
@@ -6711,7 +6863,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C46" s="3" t="n">
         <v>0.6814198</v>
@@ -6734,7 +6886,7 @@
         <v>68</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C47" s="3" t="n">
         <v>1.5693422</v>
@@ -6826,7 +6978,7 @@
         <v>72</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C51" s="3" t="n">
         <v>1.4049502</v>
@@ -6872,7 +7024,7 @@
         <v>76</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C53" s="3" t="n">
         <v>0.9897652</v>
@@ -6941,7 +7093,7 @@
         <v>80</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C56" s="3" t="n">
         <v>1.2353042</v>
@@ -6987,7 +7139,7 @@
         <v>80</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C58" s="3" t="n">
         <v>1.2364662</v>
@@ -7033,7 +7185,7 @@
         <v>84</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C60" s="3" t="n">
         <v>1.1438926</v>
@@ -7056,7 +7208,7 @@
         <v>84</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C61" s="3" t="n">
         <v>0.6579276</v>
@@ -7148,7 +7300,7 @@
         <v>91</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C65" s="3" t="n">
         <v>1.8978822</v>
@@ -7171,7 +7323,7 @@
         <v>91</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C66" s="3" t="n">
         <v>1.1060998</v>
@@ -7194,7 +7346,7 @@
         <v>91</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C67" s="3" t="n">
         <v>1.6069744</v>
@@ -7217,7 +7369,7 @@
         <v>95</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C68" s="3" t="n">
         <v>1.6301784</v>
@@ -7240,7 +7392,7 @@
         <v>95</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C69" s="3" t="n">
         <v>1.5682082</v>
@@ -7263,7 +7415,7 @@
         <v>95</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C70" s="3" t="n">
         <v>1.4442308</v>
@@ -7332,7 +7484,7 @@
         <v>99</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C73" s="3" t="n">
         <v>1.4236492</v>
@@ -7401,7 +7553,7 @@
         <v>103</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C76" s="3" t="n">
         <v>1.1822766</v>
@@ -7470,7 +7622,7 @@
         <v>107</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C79" s="3" t="n">
         <v>1.573159</v>
@@ -7557,12 +7709,12 @@
         <v>1.6958602</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C83" s="3" t="n">
         <v>1.0064424</v>
@@ -7580,7 +7732,7 @@
         <v>1.1290368</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
         <v>114</v>
       </c>
@@ -7603,7 +7755,7 @@
         <v>1.017412</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
         <v>114</v>
       </c>
@@ -7626,6 +7778,76 @@
         <v>1.1153826</v>
       </c>
     </row>
+    <row r="86" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C86" s="3" t="n">
+        <v>1.2164698</v>
+      </c>
+      <c r="D86" s="3" t="n">
+        <v>1.4856796</v>
+      </c>
+      <c r="E86" s="3" t="n">
+        <v>1.5779796</v>
+      </c>
+      <c r="F86" s="3" t="n">
+        <v>2.1005958</v>
+      </c>
+      <c r="G86" s="3" t="n">
+        <v>1.1410646</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C87" s="3" t="n">
+        <v>1.1936726</v>
+      </c>
+      <c r="D87" s="3" t="n">
+        <v>1.5988684</v>
+      </c>
+      <c r="E87" s="3" t="n">
+        <v>1.8436184</v>
+      </c>
+      <c r="F87" s="3" t="n">
+        <v>2.3451834</v>
+      </c>
+      <c r="G87" s="3" t="n">
+        <v>1.1566356</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C88" s="3" t="n">
+        <v>1.1215588</v>
+      </c>
+      <c r="D88" s="3" t="n">
+        <v>1.5316854</v>
+      </c>
+      <c r="E88" s="3" t="n">
+        <v>1.442876</v>
+      </c>
+      <c r="F88" s="3" t="n">
+        <v>2.217594</v>
+      </c>
+      <c r="G88" s="3" t="n">
+        <v>1.393354</v>
+      </c>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7648,8 +7870,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D80" activeCellId="0" sqref="D80"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D89" activeCellId="0" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7692,7 +7914,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>3.4656902</v>
@@ -7715,7 +7937,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>4.0852622</v>
@@ -7738,7 +7960,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>2.9817282</v>
@@ -7761,7 +7983,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>3.2355116</v>
@@ -7830,7 +8052,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>3.7434734</v>
@@ -7853,7 +8075,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>3.5561424</v>
@@ -7876,7 +8098,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>3.2355472</v>
@@ -7899,7 +8121,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>3.8741284</v>
@@ -7922,7 +8144,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>3.5923944</v>
@@ -7991,7 +8213,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>3.0850886</v>
@@ -8014,7 +8236,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>4.2818632</v>
@@ -8037,7 +8259,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>3.5103138</v>
@@ -8060,7 +8282,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>3.5907182</v>
@@ -8083,7 +8305,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>2.8087598</v>
@@ -8106,7 +8328,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>3.0989676</v>
@@ -8129,7 +8351,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>2.9089418</v>
@@ -8198,7 +8420,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>3.6907394</v>
@@ -8244,7 +8466,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>3.822524</v>
@@ -8267,7 +8489,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>3.2866498</v>
@@ -8290,7 +8512,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>3.8178666</v>
@@ -8336,7 +8558,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>3.0702744</v>
@@ -8359,7 +8581,7 @@
         <v>46</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>3.1279612</v>
@@ -8405,7 +8627,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>3.6235082</v>
@@ -8428,7 +8650,7 @@
         <v>50</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C34" s="3" t="n">
         <v>2.9263998</v>
@@ -8451,7 +8673,7 @@
         <v>53</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C35" s="3" t="n">
         <v>2.9817282</v>
@@ -8474,7 +8696,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>3.2355116</v>
@@ -8520,7 +8742,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>4.4183598</v>
@@ -8543,7 +8765,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>4.2271066</v>
@@ -8566,7 +8788,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>4.3486802</v>
@@ -8612,7 +8834,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>3.6324914</v>
@@ -8658,7 +8880,7 @@
         <v>64</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C44" s="3" t="n">
         <v>3.8775138</v>
@@ -8704,7 +8926,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C46" s="3" t="n">
         <v>3.8538836</v>
@@ -8727,7 +8949,7 @@
         <v>68</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C47" s="3" t="n">
         <v>4.134913</v>
@@ -8819,7 +9041,7 @@
         <v>72</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C51" s="3" t="n">
         <v>4.7661336</v>
@@ -8842,7 +9064,7 @@
         <v>72</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C52" s="3" t="n">
         <v>4.1553188</v>
@@ -8865,7 +9087,7 @@
         <v>76</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C53" s="3" t="n">
         <v>4.4161086</v>
@@ -8888,7 +9110,7 @@
         <v>76</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C54" s="3" t="n">
         <v>3.9109934</v>
@@ -8911,7 +9133,7 @@
         <v>76</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C55" s="3" t="n">
         <v>3.9109934</v>
@@ -8934,7 +9156,7 @@
         <v>80</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C56" s="3" t="n">
         <v>3.4861618</v>
@@ -8980,7 +9202,7 @@
         <v>80</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C58" s="3" t="n">
         <v>3.52287</v>
@@ -9141,7 +9363,7 @@
         <v>91</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C65" s="3" t="n">
         <v>3.2117386</v>
@@ -9164,7 +9386,7 @@
         <v>91</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C66" s="3" t="n">
         <v>4.0686228</v>
@@ -9187,7 +9409,7 @@
         <v>91</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C67" s="3" t="n">
         <v>3.0381616</v>
@@ -9210,7 +9432,7 @@
         <v>95</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C68" s="3" t="n">
         <v>3.9888114</v>
@@ -9233,7 +9455,7 @@
         <v>95</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C69" s="3" t="n">
         <v>4.1137066</v>
@@ -9256,7 +9478,7 @@
         <v>95</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C70" s="3" t="n">
         <v>4.983335</v>
@@ -9325,7 +9547,7 @@
         <v>99</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C73" s="3" t="n">
         <v>3.9020584</v>
@@ -9394,7 +9616,7 @@
         <v>103</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C76" s="3" t="n">
         <v>4.5492628</v>
@@ -9463,7 +9685,7 @@
         <v>107</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C79" s="3" t="n">
         <v>4.5622134</v>
@@ -9550,12 +9772,12 @@
         <v>1.5110712</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C83" s="3" t="n">
         <v>3.860828</v>
@@ -9573,7 +9795,7 @@
         <v>1.0072452</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
         <v>114</v>
       </c>
@@ -9596,7 +9818,7 @@
         <v>0.9810854</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
         <v>114</v>
       </c>
@@ -9619,6 +9841,76 @@
         <v>1.0018626</v>
       </c>
     </row>
+    <row r="86" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C86" s="3" t="n">
+        <v>4.958017</v>
+      </c>
+      <c r="D86" s="3" t="n">
+        <v>1.5075092</v>
+      </c>
+      <c r="E86" s="3" t="n">
+        <v>0.9055122</v>
+      </c>
+      <c r="F86" s="3" t="n">
+        <v>1.9502298</v>
+      </c>
+      <c r="G86" s="3" t="n">
+        <v>1.17239</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C87" s="3" t="n">
+        <v>4.4462374</v>
+      </c>
+      <c r="D87" s="3" t="n">
+        <v>0.8155476</v>
+      </c>
+      <c r="E87" s="3" t="n">
+        <v>0.8887352</v>
+      </c>
+      <c r="F87" s="3" t="n">
+        <v>1.4640536</v>
+      </c>
+      <c r="G87" s="3" t="n">
+        <v>0.9791652</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C88" s="3" t="n">
+        <v>4.219337</v>
+      </c>
+      <c r="D88" s="3" t="n">
+        <v>0.7881876</v>
+      </c>
+      <c r="E88" s="3" t="n">
+        <v>0.9163358</v>
+      </c>
+      <c r="F88" s="3" t="n">
+        <v>1.3426984</v>
+      </c>
+      <c r="G88" s="3" t="n">
+        <v>0.9735228</v>
+      </c>
+    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Output Data/Crpo/Common_folder/API_Performance_Chart_Report.xlsx
+++ b/Output Data/Crpo/Common_folder/API_Performance_Chart_Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="238">
   <si>
     <t xml:space="preserve">get_tenant_details</t>
   </si>
@@ -392,6 +392,54 @@
     <t xml:space="preserve">11:22:AM</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-11-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:38:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:39:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:41:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:50:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:51:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:52:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:58:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:00:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:50:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:53:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:54:PM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:41:PM</t>
   </si>
   <si>
@@ -467,9 +515,6 @@
     <t xml:space="preserve">03:04:PM</t>
   </si>
   <si>
-    <t xml:space="preserve">09:58:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">10:06:AM</t>
   </si>
   <si>
@@ -494,7 +539,13 @@
     <t xml:space="preserve">08:31:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">08:41:AM</t>
+    <t xml:space="preserve">11:15:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:19:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:52:PM</t>
   </si>
   <si>
     <t xml:space="preserve">07:43:PM</t>
@@ -605,6 +656,24 @@
     <t xml:space="preserve">08:43:AM</t>
   </si>
   <si>
+    <t xml:space="preserve">12:12:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:14:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:18:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:49:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:53:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:51:PM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:44:PM</t>
   </si>
   <si>
@@ -635,9 +704,6 @@
     <t xml:space="preserve">07:40:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">07:49:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">10:51:AM</t>
   </si>
   <si>
@@ -669,6 +735,9 @@
   </si>
   <si>
     <t xml:space="preserve">07:32:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:55:PM</t>
   </si>
 </sst>
 </file>
@@ -813,31 +882,31 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -950,6 +1019,8 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -984,16 +1055,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.33445174482759</c:v>
+                  <c:v>1.30125461176471</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.55234685517241</c:v>
+                  <c:v>2.53694520196078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.09850928735632</c:v>
+                  <c:v>1.14572792156863</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.84924327816092</c:v>
+                  <c:v>3.90742163137255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1026,6 +1097,8 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1060,16 +1133,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.01004417011494</c:v>
+                  <c:v>1.04382631960784</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.30666297011494</c:v>
+                  <c:v>2.24011369411765</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.32762595632184</c:v>
+                  <c:v>1.41338337058824</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.19834681149425</c:v>
+                  <c:v>2.13465529607843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1102,6 +1175,8 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1136,16 +1211,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.16059625977012</c:v>
+                  <c:v>1.13290063921569</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9219581816092</c:v>
+                  <c:v>1.81460414901961</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.34913371034483</c:v>
+                  <c:v>1.4499760745098</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.00881314942529</c:v>
+                  <c:v>1.97853588039216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1178,6 +1253,8 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1212,16 +1289,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.59107406436782</c:v>
+                  <c:v>1.60464891764706</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.37683532643678</c:v>
+                  <c:v>2.3320102372549</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8801592137931</c:v>
+                  <c:v>1.97885524509804</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.68860249885057</c:v>
+                  <c:v>2.67052636470588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1254,6 +1331,8 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1288,16 +1367,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.00880564367816</c:v>
+                  <c:v>0.997249966666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.84120322758621</c:v>
+                  <c:v>1.79715456078431</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.25141514712644</c:v>
+                  <c:v>1.28770852941176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.84051496551724</c:v>
+                  <c:v>1.80809675294118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1305,11 +1384,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="-10"/>
-        <c:axId val="81369070"/>
-        <c:axId val="96911174"/>
+        <c:axId val="72021952"/>
+        <c:axId val="52571755"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81369070"/>
+        <c:axId val="72021952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,14 +1454,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96911174"/>
+        <c:crossAx val="52571755"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96911174"/>
+        <c:axId val="52571755"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1448,7 +1527,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81369070"/>
+        <c:crossAx val="72021952"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1509,9 +1588,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1519,8 +1598,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="1143000"/>
-        <a:ext cx="12094560" cy="2742840"/>
+        <a:off x="0" y="1123920"/>
+        <a:ext cx="12094200" cy="2529720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1541,21 +1620,21 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="32.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.19"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1572,84 +1651,84 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.33445174482759</v>
+        <v>1.30125461176471</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>1.01004417011494</v>
+        <v>1.04382631960784</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>1.16059625977012</v>
+        <v>1.13290063921569</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1.59107406436782</v>
+        <v>1.60464891764706</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1.00880564367816</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.997249966666666</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>2.55234685517241</v>
+        <v>2.53694520196078</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>2.30666297011494</v>
+        <v>2.24011369411765</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1.9219581816092</v>
+        <v>1.81460414901961</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>2.37683532643678</v>
+        <v>2.3320102372549</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1.84120322758621</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.79715456078431</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1.09850928735632</v>
+        <v>1.14572792156863</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>1.32762595632184</v>
+        <v>1.41338337058824</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>1.34913371034483</v>
+        <v>1.4499760745098</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>1.8801592137931</v>
+        <v>1.97885524509804</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1.25141514712644</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1.28770852941176</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>3.84924327816092</v>
+        <v>3.90742163137255</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>2.19834681149425</v>
+        <v>2.13465529607843</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>2.00881314942529</v>
+        <v>1.97853588039216</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>2.68860249885057</v>
+        <v>2.67052636470588</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1.84051496551724</v>
+        <v>1.80809675294118</v>
       </c>
     </row>
   </sheetData>
@@ -1671,20 +1750,20 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B79" activeCellId="0" sqref="B79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A104" activeCellId="0" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="28.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="30.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="21.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="23.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="28.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="30.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="23.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="3" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1917,7 +1996,7 @@
         <v>0.6793062</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -3642,7 +3721,7 @@
         <v>0.4909732</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
         <v>118</v>
       </c>
@@ -3665,7 +3744,7 @@
         <v>0.3191322</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
         <v>118</v>
       </c>
@@ -3688,7 +3767,7 @@
         <v>0.3229826</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
         <v>118</v>
       </c>
@@ -3711,7 +3790,351 @@
         <v>0.3085204</v>
       </c>
     </row>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C89" s="3" t="n">
+        <v>0.9343722</v>
+      </c>
+      <c r="D89" s="3" t="n">
+        <v>1.0831868</v>
+      </c>
+      <c r="E89" s="3" t="n">
+        <v>0.6930102</v>
+      </c>
+      <c r="F89" s="3" t="n">
+        <v>1.834414</v>
+      </c>
+      <c r="G89" s="3" t="n">
+        <v>1.044153</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C90" s="3" t="n">
+        <v>1.208302</v>
+      </c>
+      <c r="D90" s="3" t="n">
+        <v>0.9211322</v>
+      </c>
+      <c r="E90" s="3" t="n">
+        <v>1.3366414</v>
+      </c>
+      <c r="F90" s="3" t="n">
+        <v>1.736862</v>
+      </c>
+      <c r="G90" s="3" t="n">
+        <v>0.8776348</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C91" s="3" t="n">
+        <v>1.5643722</v>
+      </c>
+      <c r="D91" s="3" t="n">
+        <v>1.3245476</v>
+      </c>
+      <c r="E91" s="3" t="n">
+        <v>0.7124898</v>
+      </c>
+      <c r="F91" s="3" t="n">
+        <v>1.6235348</v>
+      </c>
+      <c r="G91" s="3" t="n">
+        <v>0.7312736</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C92" s="3" t="n">
+        <v>1.0216532</v>
+      </c>
+      <c r="D92" s="3" t="n">
+        <v>1.070666</v>
+      </c>
+      <c r="E92" s="3" t="n">
+        <v>0.9838072</v>
+      </c>
+      <c r="F92" s="3" t="n">
+        <v>1.6709314</v>
+      </c>
+      <c r="G92" s="3" t="n">
+        <v>0.9696074</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C93" s="3" t="n">
+        <v>1.143289</v>
+      </c>
+      <c r="D93" s="3" t="n">
+        <v>2.0703338</v>
+      </c>
+      <c r="E93" s="3" t="n">
+        <v>1.279048</v>
+      </c>
+      <c r="F93" s="3" t="n">
+        <v>1.7216242</v>
+      </c>
+      <c r="G93" s="3" t="n">
+        <v>1.0200338</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" s="3" t="n">
+        <v>1.143289</v>
+      </c>
+      <c r="D94" s="3" t="n">
+        <v>2.0703338</v>
+      </c>
+      <c r="E94" s="3" t="n">
+        <v>1.279048</v>
+      </c>
+      <c r="F94" s="3" t="n">
+        <v>1.7216242</v>
+      </c>
+      <c r="G94" s="3" t="n">
+        <v>1.0200338</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C95" s="3" t="n">
+        <v>0.6851584</v>
+      </c>
+      <c r="D95" s="3" t="n">
+        <v>0.5887402</v>
+      </c>
+      <c r="E95" s="3" t="n">
+        <v>0.6331454</v>
+      </c>
+      <c r="F95" s="3" t="n">
+        <v>1.3835516</v>
+      </c>
+      <c r="G95" s="3" t="n">
+        <v>0.7083898</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" s="3" t="n">
+        <v>0.665339</v>
+      </c>
+      <c r="D96" s="3" t="n">
+        <v>0.634264</v>
+      </c>
+      <c r="E96" s="3" t="n">
+        <v>0.5897</v>
+      </c>
+      <c r="F96" s="3" t="n">
+        <v>1.5660366</v>
+      </c>
+      <c r="G96" s="3" t="n">
+        <v>0.6205566</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C97" s="3" t="n">
+        <v>0.7141972</v>
+      </c>
+      <c r="D97" s="3" t="n">
+        <v>0.908308</v>
+      </c>
+      <c r="E97" s="3" t="n">
+        <v>0.6599122</v>
+      </c>
+      <c r="F97" s="3" t="n">
+        <v>1.4675862</v>
+      </c>
+      <c r="G97" s="3" t="n">
+        <v>0.5798864</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C98" s="3" t="n">
+        <v>0.7451076</v>
+      </c>
+      <c r="D98" s="3" t="n">
+        <v>1.6722738</v>
+      </c>
+      <c r="E98" s="3" t="n">
+        <v>0.714756</v>
+      </c>
+      <c r="F98" s="3" t="n">
+        <v>1.3460854</v>
+      </c>
+      <c r="G98" s="3" t="n">
+        <v>0.7568102</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C99" s="3" t="n">
+        <v>1.1788924</v>
+      </c>
+      <c r="D99" s="3" t="n">
+        <v>0.7967944</v>
+      </c>
+      <c r="E99" s="3" t="n">
+        <v>0.5710154</v>
+      </c>
+      <c r="F99" s="3" t="n">
+        <v>1.4047204</v>
+      </c>
+      <c r="G99" s="3" t="n">
+        <v>0.6314632</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C100" s="3" t="n">
+        <v>0.9220624</v>
+      </c>
+      <c r="D100" s="3" t="n">
+        <v>0.6206992</v>
+      </c>
+      <c r="E100" s="3" t="n">
+        <v>1.1717008</v>
+      </c>
+      <c r="F100" s="3" t="n">
+        <v>1.5401228</v>
+      </c>
+      <c r="G100" s="3" t="n">
+        <v>1.0240764</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C101" s="3" t="n">
+        <v>1.5814634</v>
+      </c>
+      <c r="D101" s="3" t="n">
+        <v>1.475677</v>
+      </c>
+      <c r="E101" s="3" t="n">
+        <v>1.226393</v>
+      </c>
+      <c r="F101" s="3" t="n">
+        <v>1.9785826</v>
+      </c>
+      <c r="G101" s="3" t="n">
+        <v>1.2584966</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C102" s="3" t="n">
+        <v>1.5000772</v>
+      </c>
+      <c r="D102" s="3" t="n">
+        <v>1.5014406</v>
+      </c>
+      <c r="E102" s="3" t="n">
+        <v>1.2607534</v>
+      </c>
+      <c r="F102" s="3" t="n">
+        <v>2.1347582</v>
+      </c>
+      <c r="G102" s="3" t="n">
+        <v>1.2937106</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C103" s="3" t="n">
+        <v>1.6230934</v>
+      </c>
+      <c r="D103" s="3" t="n">
+        <v>1.8580444</v>
+      </c>
+      <c r="E103" s="3" t="n">
+        <v>1.4725698</v>
+      </c>
+      <c r="F103" s="3" t="n">
+        <v>2.1203116</v>
+      </c>
+      <c r="G103" s="3" t="n">
+        <v>1.4172794</v>
+      </c>
+    </row>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3740,20 +4163,20 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A89" activeCellId="0" sqref="A89"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C104" activeCellId="0" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="28.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="30.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="21.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="23.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="28.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="30.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="23.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="3" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3784,7 +4207,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>2.0220664</v>
@@ -3807,7 +4230,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>2.4586498</v>
@@ -3853,7 +4276,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>2.1296676</v>
@@ -3876,7 +4299,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>2.0261682</v>
@@ -3922,7 +4345,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>2.1709282</v>
@@ -3945,7 +4368,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>2.1589454</v>
@@ -3968,7 +4391,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>2.0390428</v>
@@ -4014,7 +4437,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>1.9875636</v>
@@ -4083,7 +4506,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>2.1964826</v>
@@ -4129,7 +4552,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>2.0752022</v>
@@ -4290,7 +4713,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>2.6861386</v>
@@ -4336,7 +4759,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>2.330873</v>
@@ -4359,7 +4782,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>2.4523078</v>
@@ -4382,7 +4805,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>2.3690538</v>
@@ -4405,7 +4828,7 @@
         <v>46</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>2.031089</v>
@@ -4428,7 +4851,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>2.3269536</v>
@@ -4474,7 +4897,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="C32" s="3" t="n">
         <v>1.9277496</v>
@@ -4566,7 +4989,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>2.1296676</v>
@@ -4589,7 +5012,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>2.0261682</v>
@@ -4612,7 +5035,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>2.138844</v>
@@ -4635,7 +5058,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>2.569399</v>
@@ -4658,7 +5081,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>2.2719068</v>
@@ -4681,7 +5104,7 @@
         <v>60</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>2.4505342</v>
@@ -4704,7 +5127,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>2.5803136</v>
@@ -4750,7 +5173,7 @@
         <v>64</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="C44" s="3" t="n">
         <v>2.4560934</v>
@@ -4773,7 +5196,7 @@
         <v>64</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="C45" s="3" t="n">
         <v>2.0923624</v>
@@ -4796,7 +5219,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="C46" s="3" t="n">
         <v>2.7843442</v>
@@ -4819,7 +5242,7 @@
         <v>68</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C47" s="3" t="n">
         <v>2.5149182</v>
@@ -5049,7 +5472,7 @@
         <v>80</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C57" s="3" t="n">
         <v>2.9062288</v>
@@ -5233,7 +5656,7 @@
         <v>91</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="C65" s="3" t="n">
         <v>2.0647184</v>
@@ -5256,7 +5679,7 @@
         <v>91</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="C66" s="3" t="n">
         <v>3.3981744</v>
@@ -5279,7 +5702,7 @@
         <v>91</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="C67" s="3" t="n">
         <v>2.0062282</v>
@@ -5302,7 +5725,7 @@
         <v>95</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="C68" s="3" t="n">
         <v>5.4740242</v>
@@ -5325,7 +5748,7 @@
         <v>95</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C69" s="3" t="n">
         <v>5.0492016</v>
@@ -5417,7 +5840,7 @@
         <v>99</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C73" s="3" t="n">
         <v>2.2478822</v>
@@ -5463,7 +5886,7 @@
         <v>103</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C75" s="3" t="n">
         <v>2.7314032</v>
@@ -5486,7 +5909,7 @@
         <v>103</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C76" s="3" t="n">
         <v>2.7375454</v>
@@ -5555,7 +5978,7 @@
         <v>107</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C79" s="3" t="n">
         <v>2.5848074</v>
@@ -5647,7 +6070,7 @@
         <v>114</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="C83" s="3" t="n">
         <v>2.0692152</v>
@@ -5711,7 +6134,7 @@
         <v>1.1969472</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
         <v>118</v>
       </c>
@@ -5722,10 +6145,10 @@
         <v>1.8947846</v>
       </c>
       <c r="D86" s="3" t="n">
-        <v>6.4301004</v>
+        <v>1.4301004</v>
       </c>
       <c r="E86" s="3" t="n">
-        <v>4.8651428</v>
+        <v>2.8651428</v>
       </c>
       <c r="F86" s="3" t="n">
         <v>4.891026</v>
@@ -5734,7 +6157,7 @@
         <v>3.3867444</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
         <v>118</v>
       </c>
@@ -5745,10 +6168,10 @@
         <v>1.8616348</v>
       </c>
       <c r="D87" s="3" t="n">
-        <v>4.1445452</v>
+        <v>3.1445452</v>
       </c>
       <c r="E87" s="3" t="n">
-        <v>4.7047672</v>
+        <v>2.7047672</v>
       </c>
       <c r="F87" s="3" t="n">
         <v>4.3936958</v>
@@ -5757,12 +6180,12 @@
         <v>3.3588782</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C88" s="3" t="n">
         <v>1.9251046</v>
@@ -5771,13 +6194,358 @@
         <v>3.9349204</v>
       </c>
       <c r="E88" s="3" t="n">
-        <v>6.735708</v>
+        <v>3.735708</v>
       </c>
       <c r="F88" s="3" t="n">
         <v>4.4488258</v>
       </c>
       <c r="G88" s="3" t="n">
         <v>3.6421794</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C89" s="3" t="n">
+        <v>2.1296676</v>
+      </c>
+      <c r="D89" s="3" t="n">
+        <v>3.4161552</v>
+      </c>
+      <c r="E89" s="3" t="n">
+        <v>1.5748394</v>
+      </c>
+      <c r="F89" s="3" t="n">
+        <v>2.3276196</v>
+      </c>
+      <c r="G89" s="3" t="n">
+        <v>1.2685724</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90" s="3" t="n">
+        <v>2.0261682</v>
+      </c>
+      <c r="D90" s="3" t="n">
+        <v>1.257503</v>
+      </c>
+      <c r="E90" s="3" t="n">
+        <v>1.416459</v>
+      </c>
+      <c r="F90" s="3" t="n">
+        <v>1.7598318</v>
+      </c>
+      <c r="G90" s="3" t="n">
+        <v>1.2801928</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" s="3" t="n">
+        <v>2.2829206</v>
+      </c>
+      <c r="D91" s="3" t="n">
+        <v>1.2136094</v>
+      </c>
+      <c r="E91" s="3" t="n">
+        <v>2.9061118</v>
+      </c>
+      <c r="F91" s="3" t="n">
+        <v>1.9230688</v>
+      </c>
+      <c r="G91" s="3" t="n">
+        <v>1.5070028</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C92" s="3" t="n">
+        <v>2.543308</v>
+      </c>
+      <c r="D92" s="3" t="n">
+        <v>3.9282554</v>
+      </c>
+      <c r="E92" s="3" t="n">
+        <v>1.6840238</v>
+      </c>
+      <c r="F92" s="3" t="n">
+        <v>2.8116942</v>
+      </c>
+      <c r="G92" s="3" t="n">
+        <v>1.7256274</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C93" s="3" t="n">
+        <v>2.6339666</v>
+      </c>
+      <c r="D93" s="3" t="n">
+        <v>1.5023726</v>
+      </c>
+      <c r="E93" s="3" t="n">
+        <v>1.5810652</v>
+      </c>
+      <c r="F93" s="3" t="n">
+        <v>2.387066</v>
+      </c>
+      <c r="G93" s="3" t="n">
+        <v>1.616935</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C94" s="3" t="n">
+        <v>2.4568346</v>
+      </c>
+      <c r="D94" s="3" t="n">
+        <v>2.6201044</v>
+      </c>
+      <c r="E94" s="3" t="n">
+        <v>1.7735156</v>
+      </c>
+      <c r="F94" s="3" t="n">
+        <v>2.3552292</v>
+      </c>
+      <c r="G94" s="3" t="n">
+        <v>1.6955706</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C95" s="3" t="n">
+        <v>2.043357</v>
+      </c>
+      <c r="D95" s="3" t="n">
+        <v>3.6986392</v>
+      </c>
+      <c r="E95" s="3" t="n">
+        <v>1.4788258</v>
+      </c>
+      <c r="F95" s="3" t="n">
+        <v>2.182226</v>
+      </c>
+      <c r="G95" s="3" t="n">
+        <v>1.2524256</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" s="3" t="n">
+        <v>2.3279774</v>
+      </c>
+      <c r="D96" s="3" t="n">
+        <v>1.2791438</v>
+      </c>
+      <c r="E96" s="3" t="n">
+        <v>1.2884676</v>
+      </c>
+      <c r="F96" s="3" t="n">
+        <v>1.7909146</v>
+      </c>
+      <c r="G96" s="3" t="n">
+        <v>1.1625004</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C97" s="3" t="n">
+        <v>2.378946</v>
+      </c>
+      <c r="D97" s="3" t="n">
+        <v>1.3408734</v>
+      </c>
+      <c r="E97" s="3" t="n">
+        <v>1.2445916</v>
+      </c>
+      <c r="F97" s="3" t="n">
+        <v>1.935253</v>
+      </c>
+      <c r="G97" s="3" t="n">
+        <v>1.3043626</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C98" s="3" t="n">
+        <v>2.3399916</v>
+      </c>
+      <c r="D98" s="3" t="n">
+        <v>3.7884718</v>
+      </c>
+      <c r="E98" s="3" t="n">
+        <v>1.4684488</v>
+      </c>
+      <c r="F98" s="3" t="n">
+        <v>2.2074988</v>
+      </c>
+      <c r="G98" s="3" t="n">
+        <v>1.3947774</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C99" s="3" t="n">
+        <v>2.3624496</v>
+      </c>
+      <c r="D99" s="3" t="n">
+        <v>1.0508278</v>
+      </c>
+      <c r="E99" s="3" t="n">
+        <v>1.1303308</v>
+      </c>
+      <c r="F99" s="3" t="n">
+        <v>1.810007</v>
+      </c>
+      <c r="G99" s="3" t="n">
+        <v>1.2255674</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C100" s="3" t="n">
+        <v>2.403287</v>
+      </c>
+      <c r="D100" s="3" t="n">
+        <v>1.3380962</v>
+      </c>
+      <c r="E100" s="3" t="n">
+        <v>1.5036574</v>
+      </c>
+      <c r="F100" s="3" t="n">
+        <v>1.91718</v>
+      </c>
+      <c r="G100" s="3" t="n">
+        <v>1.3287806</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C101" s="3" t="n">
+        <v>2.7751528</v>
+      </c>
+      <c r="D101" s="3" t="n">
+        <v>3.6867742</v>
+      </c>
+      <c r="E101" s="3" t="n">
+        <v>1.8883698</v>
+      </c>
+      <c r="F101" s="3" t="n">
+        <v>1.972018</v>
+      </c>
+      <c r="G101" s="3" t="n">
+        <v>2.084539</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C102" s="3" t="n">
+        <v>3.021798</v>
+      </c>
+      <c r="D102" s="3" t="n">
+        <v>1.8616978</v>
+      </c>
+      <c r="E102" s="3" t="n">
+        <v>1.835533</v>
+      </c>
+      <c r="F102" s="3" t="n">
+        <v>1.7169426</v>
+      </c>
+      <c r="G102" s="3" t="n">
+        <v>2.0275666</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C103" s="3" t="n">
+        <v>2.9884092</v>
+      </c>
+      <c r="D103" s="3" t="n">
+        <v>1.8293942</v>
+      </c>
+      <c r="E103" s="3" t="n">
+        <v>2.1050218</v>
+      </c>
+      <c r="F103" s="3" t="n">
+        <v>1.9838212</v>
+      </c>
+      <c r="G103" s="3" t="n">
+        <v>2.2506638</v>
       </c>
     </row>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5807,20 +6575,20 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A89" activeCellId="0" sqref="A89"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C106" activeCellId="0" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="28.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="30.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="21.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="23.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="28.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="30.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="23.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="3" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5851,7 +6619,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>0.7804054</v>
@@ -5874,7 +6642,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>0.7779802</v>
@@ -5897,7 +6665,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>0.7043458</v>
@@ -5920,7 +6688,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>0.7145706</v>
@@ -5989,7 +6757,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>0.6280168</v>
@@ -6035,7 +6803,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>0.7373706</v>
@@ -6081,7 +6849,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>0.7234852</v>
@@ -6173,7 +6941,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>0.3510038</v>
@@ -6196,7 +6964,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>0.5421752</v>
@@ -6219,7 +6987,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>0.5591408</v>
@@ -6242,7 +7010,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>0.5551518</v>
@@ -6334,7 +7102,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>0.9795414</v>
@@ -6357,7 +7125,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>3.7305486</v>
@@ -6380,7 +7148,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>2.3842444</v>
@@ -6403,7 +7171,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>2.139728</v>
@@ -6426,7 +7194,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>0.7112716</v>
@@ -6449,7 +7217,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>0.67812</v>
@@ -6472,7 +7240,7 @@
         <v>46</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>0.6440876</v>
@@ -6495,7 +7263,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>0.712753</v>
@@ -6518,7 +7286,7 @@
         <v>46</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>0.630812</v>
@@ -6564,7 +7332,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>0.7013216</v>
@@ -6633,7 +7401,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>0.7043458</v>
@@ -6656,7 +7424,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>0.7145706</v>
@@ -6679,7 +7447,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>1.2584274</v>
@@ -6702,7 +7470,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>1.3856258</v>
@@ -6725,7 +7493,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>1.1413118</v>
@@ -6748,7 +7516,7 @@
         <v>60</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>2.0516946</v>
@@ -6817,7 +7585,7 @@
         <v>64</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="C44" s="3" t="n">
         <v>0.7883284</v>
@@ -6863,7 +7631,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C46" s="3" t="n">
         <v>0.6814198</v>
@@ -6886,7 +7654,7 @@
         <v>68</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C47" s="3" t="n">
         <v>1.5693422</v>
@@ -6978,7 +7746,7 @@
         <v>72</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="C51" s="3" t="n">
         <v>1.4049502</v>
@@ -7024,7 +7792,7 @@
         <v>76</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="C53" s="3" t="n">
         <v>0.9897652</v>
@@ -7093,7 +7861,7 @@
         <v>80</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="C56" s="3" t="n">
         <v>1.2353042</v>
@@ -7139,7 +7907,7 @@
         <v>80</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="C58" s="3" t="n">
         <v>1.2364662</v>
@@ -7185,7 +7953,7 @@
         <v>84</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C60" s="3" t="n">
         <v>1.1438926</v>
@@ -7208,7 +7976,7 @@
         <v>84</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="C61" s="3" t="n">
         <v>0.6579276</v>
@@ -7300,7 +8068,7 @@
         <v>91</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="C65" s="3" t="n">
         <v>1.8978822</v>
@@ -7323,7 +8091,7 @@
         <v>91</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="C66" s="3" t="n">
         <v>1.1060998</v>
@@ -7346,7 +8114,7 @@
         <v>91</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C67" s="3" t="n">
         <v>1.6069744</v>
@@ -7369,7 +8137,7 @@
         <v>95</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="C68" s="3" t="n">
         <v>1.6301784</v>
@@ -7392,7 +8160,7 @@
         <v>95</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="C69" s="3" t="n">
         <v>1.5682082</v>
@@ -7415,7 +8183,7 @@
         <v>95</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="C70" s="3" t="n">
         <v>1.4442308</v>
@@ -7484,7 +8252,7 @@
         <v>99</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C73" s="3" t="n">
         <v>1.4236492</v>
@@ -7553,7 +8321,7 @@
         <v>103</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C76" s="3" t="n">
         <v>1.1822766</v>
@@ -7622,7 +8390,7 @@
         <v>107</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C79" s="3" t="n">
         <v>1.573159</v>
@@ -7714,7 +8482,7 @@
         <v>114</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="C83" s="3" t="n">
         <v>1.0064424</v>
@@ -7778,7 +8546,7 @@
         <v>1.1153826</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
         <v>118</v>
       </c>
@@ -7801,7 +8569,7 @@
         <v>1.1410646</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
         <v>118</v>
       </c>
@@ -7824,7 +8592,7 @@
         <v>1.1566356</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
         <v>118</v>
       </c>
@@ -7845,6 +8613,351 @@
       </c>
       <c r="G88" s="3" t="n">
         <v>1.393354</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C89" s="3" t="n">
+        <v>1.7537162</v>
+      </c>
+      <c r="D89" s="3" t="n">
+        <v>2.7129138</v>
+      </c>
+      <c r="E89" s="3" t="n">
+        <v>2.973988</v>
+      </c>
+      <c r="F89" s="3" t="n">
+        <v>3.996109</v>
+      </c>
+      <c r="G89" s="3" t="n">
+        <v>2.3631814</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C90" s="3" t="n">
+        <v>1.5294494</v>
+      </c>
+      <c r="D90" s="3" t="n">
+        <v>2.2698514</v>
+      </c>
+      <c r="E90" s="3" t="n">
+        <v>2.4539134</v>
+      </c>
+      <c r="F90" s="3" t="n">
+        <v>2.9401702</v>
+      </c>
+      <c r="G90" s="3" t="n">
+        <v>1.8087666</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C91" s="3" t="n">
+        <v>1.9397144</v>
+      </c>
+      <c r="D91" s="3" t="n">
+        <v>2.5320926</v>
+      </c>
+      <c r="E91" s="3" t="n">
+        <v>2.4552716</v>
+      </c>
+      <c r="F91" s="3" t="n">
+        <v>3.0794988</v>
+      </c>
+      <c r="G91" s="3" t="n">
+        <v>1.7625456</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C92" s="3" t="n">
+        <v>1.5482428</v>
+      </c>
+      <c r="D92" s="3" t="n">
+        <v>2.2695734</v>
+      </c>
+      <c r="E92" s="3" t="n">
+        <v>2.5338722</v>
+      </c>
+      <c r="F92" s="3" t="n">
+        <v>2.8195028</v>
+      </c>
+      <c r="G92" s="3" t="n">
+        <v>1.4328404</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C93" s="3" t="n">
+        <v>1.8137892</v>
+      </c>
+      <c r="D93" s="3" t="n">
+        <v>2.2707676</v>
+      </c>
+      <c r="E93" s="3" t="n">
+        <v>2.354055</v>
+      </c>
+      <c r="F93" s="3" t="n">
+        <v>2.9591248</v>
+      </c>
+      <c r="G93" s="3" t="n">
+        <v>1.6975768</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C94" s="3" t="n">
+        <v>1.6058992</v>
+      </c>
+      <c r="D94" s="3" t="n">
+        <v>2.1457906</v>
+      </c>
+      <c r="E94" s="3" t="n">
+        <v>2.3493338</v>
+      </c>
+      <c r="F94" s="3" t="n">
+        <v>3.1221118</v>
+      </c>
+      <c r="G94" s="3" t="n">
+        <v>1.662398</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C95" s="3" t="n">
+        <v>1.305882</v>
+      </c>
+      <c r="D95" s="3" t="n">
+        <v>1.870262</v>
+      </c>
+      <c r="E95" s="3" t="n">
+        <v>1.9717092</v>
+      </c>
+      <c r="F95" s="3" t="n">
+        <v>2.532299</v>
+      </c>
+      <c r="G95" s="3" t="n">
+        <v>1.316333</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" s="3" t="n">
+        <v>1.2677898</v>
+      </c>
+      <c r="D96" s="3" t="n">
+        <v>2.2410336</v>
+      </c>
+      <c r="E96" s="3" t="n">
+        <v>2.0531528</v>
+      </c>
+      <c r="F96" s="3" t="n">
+        <v>2.4575532</v>
+      </c>
+      <c r="G96" s="3" t="n">
+        <v>1.5041218</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C97" s="3" t="n">
+        <v>1.4182292</v>
+      </c>
+      <c r="D97" s="3" t="n">
+        <v>1.7623732</v>
+      </c>
+      <c r="E97" s="3" t="n">
+        <v>2.2660204</v>
+      </c>
+      <c r="F97" s="3" t="n">
+        <v>2.879794</v>
+      </c>
+      <c r="G97" s="3" t="n">
+        <v>1.5030326</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C98" s="3" t="n">
+        <v>1.5855004</v>
+      </c>
+      <c r="D98" s="3" t="n">
+        <v>1.6938196</v>
+      </c>
+      <c r="E98" s="3" t="n">
+        <v>1.774983</v>
+      </c>
+      <c r="F98" s="3" t="n">
+        <v>1.992483</v>
+      </c>
+      <c r="G98" s="3" t="n">
+        <v>1.2213794</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C99" s="3" t="n">
+        <v>1.2465946</v>
+      </c>
+      <c r="D99" s="3" t="n">
+        <v>1.4255588</v>
+      </c>
+      <c r="E99" s="3" t="n">
+        <v>1.4843514</v>
+      </c>
+      <c r="F99" s="3" t="n">
+        <v>1.9705418</v>
+      </c>
+      <c r="G99" s="3" t="n">
+        <v>1.3880114</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C100" s="3" t="n">
+        <v>0.687835</v>
+      </c>
+      <c r="D100" s="3" t="n">
+        <v>0.897094</v>
+      </c>
+      <c r="E100" s="3" t="n">
+        <v>1.3256584</v>
+      </c>
+      <c r="F100" s="3" t="n">
+        <v>1.3970614</v>
+      </c>
+      <c r="G100" s="3" t="n">
+        <v>0.8041916</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C101" s="3" t="n">
+        <v>1.2684794</v>
+      </c>
+      <c r="D101" s="3" t="n">
+        <v>1.5426564</v>
+      </c>
+      <c r="E101" s="3" t="n">
+        <v>1.447739</v>
+      </c>
+      <c r="F101" s="3" t="n">
+        <v>1.9978872</v>
+      </c>
+      <c r="G101" s="3" t="n">
+        <v>1.377103</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C102" s="3" t="n">
+        <v>1.1808662</v>
+      </c>
+      <c r="D102" s="3" t="n">
+        <v>1.499728</v>
+      </c>
+      <c r="E102" s="3" t="n">
+        <v>1.4294628</v>
+      </c>
+      <c r="F102" s="3" t="n">
+        <v>2.0979034</v>
+      </c>
+      <c r="G102" s="3" t="n">
+        <v>1.389143</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C103" s="3" t="n">
+        <v>1.1419522</v>
+      </c>
+      <c r="D103" s="3" t="n">
+        <v>1.5281306</v>
+      </c>
+      <c r="E103" s="3" t="n">
+        <v>1.6494158</v>
+      </c>
+      <c r="F103" s="3" t="n">
+        <v>2.027343</v>
+      </c>
+      <c r="G103" s="3" t="n">
+        <v>1.2425276</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7870,20 +8983,20 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D89" activeCellId="0" sqref="D89"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B106" activeCellId="0" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="28.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="30.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="21.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="23.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="28.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="30.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="23.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="3" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7914,7 +9027,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>3.4656902</v>
@@ -7937,7 +9050,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>4.0852622</v>
@@ -7960,7 +9073,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>2.9817282</v>
@@ -7983,7 +9096,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>3.2355116</v>
@@ -8052,7 +9165,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>3.7434734</v>
@@ -8075,7 +9188,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>3.5561424</v>
@@ -8098,7 +9211,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>3.2355472</v>
@@ -8121,7 +9234,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>3.8741284</v>
@@ -8144,7 +9257,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>3.5923944</v>
@@ -8213,7 +9326,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>3.0850886</v>
@@ -8236,7 +9349,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>4.2818632</v>
@@ -8259,7 +9372,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>3.5103138</v>
@@ -8282,7 +9395,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>3.5907182</v>
@@ -8305,7 +9418,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>2.8087598</v>
@@ -8328,7 +9441,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>3.0989676</v>
@@ -8351,7 +9464,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>2.9089418</v>
@@ -8420,7 +9533,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>3.6907394</v>
@@ -8466,7 +9579,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>3.822524</v>
@@ -8489,7 +9602,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>3.2866498</v>
@@ -8512,7 +9625,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>3.8178666</v>
@@ -8558,7 +9671,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>3.0702744</v>
@@ -8581,7 +9694,7 @@
         <v>46</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>3.1279612</v>
@@ -8627,7 +9740,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>3.6235082</v>
@@ -8650,7 +9763,7 @@
         <v>50</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="C34" s="3" t="n">
         <v>2.9263998</v>
@@ -8673,7 +9786,7 @@
         <v>53</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C35" s="3" t="n">
         <v>2.9817282</v>
@@ -8696,7 +9809,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>3.2355116</v>
@@ -8742,7 +9855,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>4.4183598</v>
@@ -8765,7 +9878,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>4.2271066</v>
@@ -8788,7 +9901,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>4.3486802</v>
@@ -8834,7 +9947,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>3.6324914</v>
@@ -8880,7 +9993,7 @@
         <v>64</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="C44" s="3" t="n">
         <v>3.8775138</v>
@@ -8926,7 +10039,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C46" s="3" t="n">
         <v>3.8538836</v>
@@ -8949,7 +10062,7 @@
         <v>68</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C47" s="3" t="n">
         <v>4.134913</v>
@@ -9041,7 +10154,7 @@
         <v>72</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="C51" s="3" t="n">
         <v>4.7661336</v>
@@ -9064,7 +10177,7 @@
         <v>72</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="C52" s="3" t="n">
         <v>4.1553188</v>
@@ -9087,7 +10200,7 @@
         <v>76</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="C53" s="3" t="n">
         <v>4.4161086</v>
@@ -9110,7 +10223,7 @@
         <v>76</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="C54" s="3" t="n">
         <v>3.9109934</v>
@@ -9133,7 +10246,7 @@
         <v>76</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="C55" s="3" t="n">
         <v>3.9109934</v>
@@ -9156,7 +10269,7 @@
         <v>80</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="C56" s="3" t="n">
         <v>3.4861618</v>
@@ -9202,7 +10315,7 @@
         <v>80</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="C58" s="3" t="n">
         <v>3.52287</v>
@@ -9363,7 +10476,7 @@
         <v>91</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="C65" s="3" t="n">
         <v>3.2117386</v>
@@ -9386,7 +10499,7 @@
         <v>91</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="C66" s="3" t="n">
         <v>4.0686228</v>
@@ -9409,7 +10522,7 @@
         <v>91</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C67" s="3" t="n">
         <v>3.0381616</v>
@@ -9432,7 +10545,7 @@
         <v>95</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="C68" s="3" t="n">
         <v>3.9888114</v>
@@ -9455,7 +10568,7 @@
         <v>95</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="C69" s="3" t="n">
         <v>4.1137066</v>
@@ -9478,7 +10591,7 @@
         <v>95</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="C70" s="3" t="n">
         <v>4.983335</v>
@@ -9547,7 +10660,7 @@
         <v>99</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C73" s="3" t="n">
         <v>3.9020584</v>
@@ -9616,7 +10729,7 @@
         <v>103</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="C76" s="3" t="n">
         <v>4.5492628</v>
@@ -9685,7 +10798,7 @@
         <v>107</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C79" s="3" t="n">
         <v>4.5622134</v>
@@ -9777,7 +10890,7 @@
         <v>114</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="C83" s="3" t="n">
         <v>3.860828</v>
@@ -9841,7 +10954,7 @@
         <v>1.0018626</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
         <v>118</v>
       </c>
@@ -9864,7 +10977,7 @@
         <v>1.17239</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
         <v>118</v>
       </c>
@@ -9887,7 +11000,7 @@
         <v>0.9791652</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
         <v>118</v>
       </c>
@@ -9908,6 +11021,351 @@
       </c>
       <c r="G88" s="3" t="n">
         <v>0.9735228</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C89" s="3" t="n">
+        <v>3.2993996</v>
+      </c>
+      <c r="D89" s="3" t="n">
+        <v>2.5158476</v>
+      </c>
+      <c r="E89" s="3" t="n">
+        <v>2.3306552</v>
+      </c>
+      <c r="F89" s="3" t="n">
+        <v>2.798519</v>
+      </c>
+      <c r="G89" s="3" t="n">
+        <v>1.5295996</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C90" s="3" t="n">
+        <v>4.6230936</v>
+      </c>
+      <c r="D90" s="3" t="n">
+        <v>1.2256546</v>
+      </c>
+      <c r="E90" s="3" t="n">
+        <v>1.4072068</v>
+      </c>
+      <c r="F90" s="3" t="n">
+        <v>2.1838612</v>
+      </c>
+      <c r="G90" s="3" t="n">
+        <v>1.390529</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C91" s="3" t="n">
+        <v>3.8848404</v>
+      </c>
+      <c r="D91" s="3" t="n">
+        <v>1.1541416</v>
+      </c>
+      <c r="E91" s="3" t="n">
+        <v>1.3540038</v>
+      </c>
+      <c r="F91" s="3" t="n">
+        <v>2.1834882</v>
+      </c>
+      <c r="G91" s="3" t="n">
+        <v>1.4719186</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C92" s="3" t="n">
+        <v>5.1609082</v>
+      </c>
+      <c r="D92" s="3" t="n">
+        <v>2.2785938</v>
+      </c>
+      <c r="E92" s="3" t="n">
+        <v>2.0541372</v>
+      </c>
+      <c r="F92" s="3" t="n">
+        <v>2.4354684</v>
+      </c>
+      <c r="G92" s="3" t="n">
+        <v>1.3904966</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C93" s="3" t="n">
+        <v>4.559301</v>
+      </c>
+      <c r="D93" s="3" t="n">
+        <v>1.297587</v>
+      </c>
+      <c r="E93" s="3" t="n">
+        <v>1.355358</v>
+      </c>
+      <c r="F93" s="3" t="n">
+        <v>2.1464028</v>
+      </c>
+      <c r="G93" s="3" t="n">
+        <v>1.4655166</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C94" s="3" t="n">
+        <v>5.2226694</v>
+      </c>
+      <c r="D94" s="3" t="n">
+        <v>1.3609706</v>
+      </c>
+      <c r="E94" s="3" t="n">
+        <v>1.502924</v>
+      </c>
+      <c r="F94" s="3" t="n">
+        <v>2.427064</v>
+      </c>
+      <c r="G94" s="3" t="n">
+        <v>1.4515996</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C95" s="3" t="n">
+        <v>3.720101</v>
+      </c>
+      <c r="D95" s="3" t="n">
+        <v>2.0660212</v>
+      </c>
+      <c r="E95" s="3" t="n">
+        <v>1.367909</v>
+      </c>
+      <c r="F95" s="3" t="n">
+        <v>2.3072382</v>
+      </c>
+      <c r="G95" s="3" t="n">
+        <v>1.4373266</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" s="3" t="n">
+        <v>4.024163</v>
+      </c>
+      <c r="D96" s="3" t="n">
+        <v>1.1096376</v>
+      </c>
+      <c r="E96" s="3" t="n">
+        <v>1.1943466</v>
+      </c>
+      <c r="F96" s="3" t="n">
+        <v>2.062649</v>
+      </c>
+      <c r="G96" s="3" t="n">
+        <v>1.370222</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C97" s="3" t="n">
+        <v>3.7013772</v>
+      </c>
+      <c r="D97" s="3" t="n">
+        <v>1.358787</v>
+      </c>
+      <c r="E97" s="3" t="n">
+        <v>1.42593</v>
+      </c>
+      <c r="F97" s="3" t="n">
+        <v>2.2081176</v>
+      </c>
+      <c r="G97" s="3" t="n">
+        <v>1.4772468</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C98" s="3" t="n">
+        <v>4.8119186</v>
+      </c>
+      <c r="D98" s="3" t="n">
+        <v>2.720509</v>
+      </c>
+      <c r="E98" s="3" t="n">
+        <v>2.234405</v>
+      </c>
+      <c r="F98" s="3" t="n">
+        <v>3.8439752</v>
+      </c>
+      <c r="G98" s="3" t="n">
+        <v>1.9256634</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C99" s="3" t="n">
+        <v>3.4836352</v>
+      </c>
+      <c r="D99" s="3" t="n">
+        <v>1.5703256</v>
+      </c>
+      <c r="E99" s="3" t="n">
+        <v>2.1900572</v>
+      </c>
+      <c r="F99" s="3" t="n">
+        <v>2.3129284</v>
+      </c>
+      <c r="G99" s="3" t="n">
+        <v>1.4325662</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" s="3" t="n">
+        <v>4.1470936</v>
+      </c>
+      <c r="D100" s="3" t="n">
+        <v>1.4825542</v>
+      </c>
+      <c r="E100" s="3" t="n">
+        <v>1.9461496</v>
+      </c>
+      <c r="F100" s="3" t="n">
+        <v>2.3146416</v>
+      </c>
+      <c r="G100" s="3" t="n">
+        <v>1.612463</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C101" s="3" t="n">
+        <v>4.5941812</v>
+      </c>
+      <c r="D101" s="3" t="n">
+        <v>2.0442</v>
+      </c>
+      <c r="E101" s="3" t="n">
+        <v>2.204611</v>
+      </c>
+      <c r="F101" s="3" t="n">
+        <v>2.941686</v>
+      </c>
+      <c r="G101" s="3" t="n">
+        <v>2.0338282</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C102" s="3" t="n">
+        <v>4.2045726</v>
+      </c>
+      <c r="D102" s="3" t="n">
+        <v>2.2734898</v>
+      </c>
+      <c r="E102" s="3" t="n">
+        <v>2.330321</v>
+      </c>
+      <c r="F102" s="3" t="n">
+        <v>3.026919</v>
+      </c>
+      <c r="G102" s="3" t="n">
+        <v>2.04262</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C103" s="3" t="n">
+        <v>4.2355866</v>
+      </c>
+      <c r="D103" s="3" t="n">
+        <v>2.020348</v>
+      </c>
+      <c r="E103" s="3" t="n">
+        <v>2.1459014</v>
+      </c>
+      <c r="F103" s="3" t="n">
+        <v>3.2923132</v>
+      </c>
+      <c r="G103" s="3" t="n">
+        <v>2.2694706</v>
       </c>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Output Data/Crpo/Common_folder/API_Performance_Chart_Report.xlsx
+++ b/Output Data/Crpo/Common_folder/API_Performance_Chart_Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="269">
   <si>
     <t xml:space="preserve">get_tenant_details</t>
   </si>
@@ -470,6 +470,54 @@
     <t xml:space="preserve">07:23:AM</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-02-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:13:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:16:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:18:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:20:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:22:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:23:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:13:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:14:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:16:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:44:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:46:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:49:AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:41:PM</t>
   </si>
   <si>
@@ -494,9 +542,6 @@
     <t xml:space="preserve">10:43:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">07:46:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">12:38:PM</t>
   </si>
   <si>
@@ -578,6 +623,18 @@
     <t xml:space="preserve">07:22:AM</t>
   </si>
   <si>
+    <t xml:space="preserve">09:20:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:19:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:24:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:12:PM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:43:PM</t>
   </si>
   <si>
@@ -689,9 +746,6 @@
     <t xml:space="preserve">12:18:PM</t>
   </si>
   <si>
-    <t xml:space="preserve">07:49:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">07:53:AM</t>
   </si>
   <si>
@@ -710,6 +764,9 @@
     <t xml:space="preserve">08:51:AM</t>
   </si>
   <si>
+    <t xml:space="preserve">09:19:AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:44:PM</t>
   </si>
   <si>
@@ -768,6 +825,12 @@
   </si>
   <si>
     <t xml:space="preserve">03:55:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:25:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:19:PM</t>
   </si>
 </sst>
 </file>
@@ -1082,16 +1145,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.27404217719298</c:v>
+                  <c:v>1.21832058095238</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.52145515087719</c:v>
+                  <c:v>2.49718197936508</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1216627754386</c:v>
+                  <c:v>1.08644205714286</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.87388957017544</c:v>
+                  <c:v>3.87266203968254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1158,16 +1221,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.02943107017544</c:v>
+                  <c:v>0.993530960317461</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2646073122807</c:v>
+                  <c:v>2.27542769047619</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.38293194035088</c:v>
+                  <c:v>1.36862568888889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.13744510701754</c:v>
+                  <c:v>2.12881935555556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1234,16 +1297,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.09081016140351</c:v>
+                  <c:v>1.04682626507937</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.77455146666667</c:v>
+                  <c:v>1.73024546825397</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.42781557894737</c:v>
+                  <c:v>1.38679178730159</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.97516476491228</c:v>
+                  <c:v>1.99613370952381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1310,16 +1373,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.60540893859649</c:v>
+                  <c:v>1.61760234761905</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.32461395964912</c:v>
+                  <c:v>2.32237114444444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.95244419298246</c:v>
+                  <c:v>1.9224809031746</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.71245426842105</c:v>
+                  <c:v>2.76587227619047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1386,16 +1449,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.975609938596491</c:v>
+                  <c:v>0.943390128571429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.75686972982456</c:v>
+                  <c:v>1.7193199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.26164995964912</c:v>
+                  <c:v>1.23248074444445</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.79980044736842</c:v>
+                  <c:v>1.78135369206349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1403,11 +1466,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="-10"/>
-        <c:axId val="73880431"/>
-        <c:axId val="6340822"/>
+        <c:axId val="74856503"/>
+        <c:axId val="65347776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73880431"/>
+        <c:axId val="74856503"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1473,14 +1536,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6340822"/>
+        <c:crossAx val="65347776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6340822"/>
+        <c:axId val="65347776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1546,7 +1609,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73880431"/>
+        <c:crossAx val="74856503"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1639,7 +1702,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1675,19 +1738,19 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.27404217719298</v>
+        <v>1.21832058095238</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>1.02943107017544</v>
+        <v>0.993530960317461</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>1.09081016140351</v>
+        <v>1.04682626507937</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1.60540893859649</v>
+        <v>1.61760234761905</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.975609938596491</v>
+        <v>0.943390128571429</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1695,19 +1758,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>2.52145515087719</v>
+        <v>2.49718197936508</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>2.2646073122807</v>
+        <v>2.27542769047619</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1.77455146666667</v>
+        <v>1.73024546825397</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>2.32461395964912</v>
+        <v>2.32237114444444</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1.75686972982456</v>
+        <v>1.7193199</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1715,19 +1778,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1.1216627754386</v>
+        <v>1.08644205714286</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>1.38293194035088</v>
+        <v>1.36862568888889</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>1.42781557894737</v>
+        <v>1.38679178730159</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>1.95244419298246</v>
+        <v>1.9224809031746</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1.26164995964912</v>
+        <v>1.23248074444445</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1735,19 +1798,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>3.87388957017544</v>
+        <v>3.87266203968254</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>2.13744510701754</v>
+        <v>2.12881935555556</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>1.97516476491228</v>
+        <v>1.99613370952381</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>2.71245426842105</v>
+        <v>2.76587227619047</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1.79980044736842</v>
+        <v>1.78135369206349</v>
       </c>
     </row>
   </sheetData>
@@ -1769,7 +1832,7 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -4292,7 +4355,7 @@
         <v>0.5523088</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
         <v>142</v>
       </c>
@@ -4315,7 +4378,7 @@
         <v>1.4874608</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
         <v>142</v>
       </c>
@@ -4338,7 +4401,7 @@
         <v>1.3791604</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
         <v>142</v>
       </c>
@@ -4361,7 +4424,7 @@
         <v>1.2814424</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
         <v>144</v>
       </c>
@@ -4384,7 +4447,7 @@
         <v>0.54674</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
         <v>144</v>
       </c>
@@ -4407,7 +4470,7 @@
         <v>0.6116528</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
         <v>144</v>
       </c>
@@ -4428,6 +4491,282 @@
       </c>
       <c r="G115" s="6" t="n">
         <v>0.5043394</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C116" s="6" t="n">
+        <v>0.809183</v>
+      </c>
+      <c r="D116" s="6" t="n">
+        <v>0.9333968</v>
+      </c>
+      <c r="E116" s="6" t="n">
+        <v>0.5753842</v>
+      </c>
+      <c r="F116" s="6" t="n">
+        <v>1.3000796</v>
+      </c>
+      <c r="G116" s="6" t="n">
+        <v>0.5495302</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C117" s="6" t="n">
+        <v>0.6960294</v>
+      </c>
+      <c r="D117" s="6" t="n">
+        <v>0.583398</v>
+      </c>
+      <c r="E117" s="6" t="n">
+        <v>0.4964454</v>
+      </c>
+      <c r="F117" s="6" t="n">
+        <v>3.677224</v>
+      </c>
+      <c r="G117" s="6" t="n">
+        <v>0.6296426</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C118" s="6" t="n">
+        <v>0.7090524</v>
+      </c>
+      <c r="D118" s="6" t="n">
+        <v>0.5657738</v>
+      </c>
+      <c r="E118" s="6" t="n">
+        <v>0.6534514</v>
+      </c>
+      <c r="F118" s="6" t="n">
+        <v>1.4058256</v>
+      </c>
+      <c r="G118" s="6" t="n">
+        <v>0.685226</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C119" s="6" t="n">
+        <v>0.535599</v>
+      </c>
+      <c r="D119" s="6" t="n">
+        <v>0.5101196</v>
+      </c>
+      <c r="E119" s="6" t="n">
+        <v>0.5541256</v>
+      </c>
+      <c r="F119" s="6" t="n">
+        <v>1.4218732</v>
+      </c>
+      <c r="G119" s="6" t="n">
+        <v>0.5053244</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C120" s="6" t="n">
+        <v>0.6985058</v>
+      </c>
+      <c r="D120" s="6" t="n">
+        <v>0.6638636</v>
+      </c>
+      <c r="E120" s="6" t="n">
+        <v>0.5358948</v>
+      </c>
+      <c r="F120" s="6" t="n">
+        <v>1.3696804</v>
+      </c>
+      <c r="G120" s="6" t="n">
+        <v>0.5162764</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C121" s="6" t="n">
+        <v>0.7176242</v>
+      </c>
+      <c r="D121" s="6" t="n">
+        <v>0.6925446</v>
+      </c>
+      <c r="E121" s="6" t="n">
+        <v>0.559884</v>
+      </c>
+      <c r="F121" s="6" t="n">
+        <v>1.3930956</v>
+      </c>
+      <c r="G121" s="6" t="n">
+        <v>0.565576</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C122" s="6" t="n">
+        <v>0.7684588</v>
+      </c>
+      <c r="D122" s="6" t="n">
+        <v>0.650311</v>
+      </c>
+      <c r="E122" s="6" t="n">
+        <v>0.6599258</v>
+      </c>
+      <c r="F122" s="6" t="n">
+        <v>1.4837902</v>
+      </c>
+      <c r="G122" s="6" t="n">
+        <v>0.6990002</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C123" s="6" t="n">
+        <v>0.6443748</v>
+      </c>
+      <c r="D123" s="6" t="n">
+        <v>0.7027854</v>
+      </c>
+      <c r="E123" s="6" t="n">
+        <v>1.0580366</v>
+      </c>
+      <c r="F123" s="6" t="n">
+        <v>2.6178524</v>
+      </c>
+      <c r="G123" s="6" t="n">
+        <v>0.812823</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C124" s="6" t="n">
+        <v>0.7871676</v>
+      </c>
+      <c r="D124" s="6" t="n">
+        <v>0.643827</v>
+      </c>
+      <c r="E124" s="6" t="n">
+        <v>0.7988852</v>
+      </c>
+      <c r="F124" s="6" t="n">
+        <v>1.563497</v>
+      </c>
+      <c r="G124" s="6" t="n">
+        <v>0.672591</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C125" s="6" t="n">
+        <v>0.6922436</v>
+      </c>
+      <c r="D125" s="6" t="n">
+        <v>0.7150514</v>
+      </c>
+      <c r="E125" s="6" t="n">
+        <v>0.5568226</v>
+      </c>
+      <c r="F125" s="6" t="n">
+        <v>1.4143334</v>
+      </c>
+      <c r="G125" s="6" t="n">
+        <v>0.722484</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C126" s="6" t="n">
+        <v>0.6227758</v>
+      </c>
+      <c r="D126" s="6" t="n">
+        <v>0.597914</v>
+      </c>
+      <c r="E126" s="6" t="n">
+        <v>0.5631542</v>
+      </c>
+      <c r="F126" s="6" t="n">
+        <v>1.5104212</v>
+      </c>
+      <c r="G126" s="6" t="n">
+        <v>0.643026</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C127" s="6" t="n">
+        <v>0.5865706</v>
+      </c>
+      <c r="D127" s="6" t="n">
+        <v>0.5707738</v>
+      </c>
+      <c r="E127" s="6" t="n">
+        <v>0.5357412</v>
+      </c>
+      <c r="F127" s="6" t="n">
+        <v>1.6436042</v>
+      </c>
+      <c r="G127" s="6" t="n">
+        <v>0.6461234</v>
       </c>
     </row>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4458,8 +4797,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A86" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G113" activeCellId="0" sqref="G113"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F120" activeCellId="0" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4502,7 +4841,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>2.0220664</v>
@@ -4525,7 +4864,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>2.4586498</v>
@@ -4571,7 +4910,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>2.1296676</v>
@@ -4640,7 +4979,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>2.1709282</v>
@@ -4663,7 +5002,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>2.1589454</v>
@@ -4686,7 +5025,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>2.0390428</v>
@@ -4732,7 +5071,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>1.9875636</v>
@@ -4801,7 +5140,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>2.1964826</v>
@@ -4847,7 +5186,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>2.0752022</v>
@@ -5008,7 +5347,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C24" s="6" t="n">
         <v>2.6861386</v>
@@ -5054,7 +5393,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="C26" s="6" t="n">
         <v>2.330873</v>
@@ -5077,7 +5416,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C27" s="6" t="n">
         <v>2.4523078</v>
@@ -5100,7 +5439,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="C28" s="6" t="n">
         <v>2.3690538</v>
@@ -5146,7 +5485,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C30" s="6" t="n">
         <v>2.3269536</v>
@@ -5192,7 +5531,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C32" s="6" t="n">
         <v>1.9277496</v>
@@ -5284,7 +5623,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C36" s="6" t="n">
         <v>2.1296676</v>
@@ -5330,7 +5669,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C38" s="6" t="n">
         <v>2.138844</v>
@@ -5353,7 +5692,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C39" s="6" t="n">
         <v>2.569399</v>
@@ -5376,7 +5715,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C40" s="6" t="n">
         <v>2.2719068</v>
@@ -5399,7 +5738,7 @@
         <v>60</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C41" s="6" t="n">
         <v>2.4505342</v>
@@ -5422,7 +5761,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C42" s="6" t="n">
         <v>2.5803136</v>
@@ -5468,7 +5807,7 @@
         <v>64</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="C44" s="6" t="n">
         <v>2.4560934</v>
@@ -5491,7 +5830,7 @@
         <v>64</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C45" s="6" t="n">
         <v>2.0923624</v>
@@ -5514,7 +5853,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="C46" s="6" t="n">
         <v>2.7843442</v>
@@ -5767,7 +6106,7 @@
         <v>80</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C57" s="6" t="n">
         <v>2.9062288</v>
@@ -5951,7 +6290,7 @@
         <v>91</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="C65" s="6" t="n">
         <v>2.0647184</v>
@@ -5974,7 +6313,7 @@
         <v>91</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C66" s="6" t="n">
         <v>3.3981744</v>
@@ -5997,7 +6336,7 @@
         <v>91</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="C67" s="6" t="n">
         <v>2.0062282</v>
@@ -6020,7 +6359,7 @@
         <v>95</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="C68" s="6" t="n">
         <v>5.4740242</v>
@@ -6043,7 +6382,7 @@
         <v>95</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C69" s="6" t="n">
         <v>5.0492016</v>
@@ -6181,7 +6520,7 @@
         <v>103</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C75" s="6" t="n">
         <v>2.7314032</v>
@@ -6204,7 +6543,7 @@
         <v>103</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="C76" s="6" t="n">
         <v>2.7375454</v>
@@ -6273,7 +6612,7 @@
         <v>107</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="C79" s="6" t="n">
         <v>2.5848074</v>
@@ -6480,7 +6819,7 @@
         <v>118</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="C88" s="6" t="n">
         <v>1.9251046</v>
@@ -6503,7 +6842,7 @@
         <v>122</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C89" s="6" t="n">
         <v>2.1296676</v>
@@ -6572,7 +6911,7 @@
         <v>126</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C92" s="6" t="n">
         <v>2.543308</v>
@@ -6595,7 +6934,7 @@
         <v>126</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="C93" s="6" t="n">
         <v>2.6339666</v>
@@ -6618,7 +6957,7 @@
         <v>126</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="C94" s="6" t="n">
         <v>2.4568346</v>
@@ -6756,7 +7095,7 @@
         <v>131</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C100" s="6" t="n">
         <v>2.403287</v>
@@ -6802,7 +7141,7 @@
         <v>134</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C102" s="6" t="n">
         <v>3.021798</v>
@@ -6871,7 +7210,7 @@
         <v>138</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C105" s="6" t="n">
         <v>2.1870164</v>
@@ -6917,7 +7256,7 @@
         <v>139</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C107" s="6" t="n">
         <v>2.208845</v>
@@ -6981,7 +7320,7 @@
         <v>0.979227</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
         <v>142</v>
       </c>
@@ -7004,7 +7343,7 @@
         <v>2.451662</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
         <v>142</v>
       </c>
@@ -7027,7 +7366,7 @@
         <v>2.2264532</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
         <v>142</v>
       </c>
@@ -7050,7 +7389,7 @@
         <v>2.308374</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
         <v>144</v>
       </c>
@@ -7073,7 +7412,7 @@
         <v>1.1261774</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
         <v>144</v>
       </c>
@@ -7096,12 +7435,12 @@
         <v>1.0972762</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="C115" s="6" t="n">
         <v>2.1219888</v>
@@ -7117,6 +7456,282 @@
       </c>
       <c r="G115" s="6" t="n">
         <v>1.0068614</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C116" s="6" t="n">
+        <v>2.3290526</v>
+      </c>
+      <c r="D116" s="6" t="n">
+        <v>3.8963448</v>
+      </c>
+      <c r="E116" s="6" t="n">
+        <v>1.406634</v>
+      </c>
+      <c r="F116" s="6" t="n">
+        <v>2.3490116</v>
+      </c>
+      <c r="G116" s="6" t="n">
+        <v>1.2004406</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C117" s="6" t="n">
+        <v>2.2562324</v>
+      </c>
+      <c r="D117" s="6" t="n">
+        <v>1.1256858</v>
+      </c>
+      <c r="E117" s="6" t="n">
+        <v>1.2405908</v>
+      </c>
+      <c r="F117" s="6" t="n">
+        <v>2.130574</v>
+      </c>
+      <c r="G117" s="6" t="n">
+        <v>1.0800272</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C118" s="6" t="n">
+        <v>2.4562324</v>
+      </c>
+      <c r="D118" s="6" t="n">
+        <v>1.156858</v>
+      </c>
+      <c r="E118" s="6" t="n">
+        <v>1.205968</v>
+      </c>
+      <c r="F118" s="6" t="n">
+        <v>2.120564</v>
+      </c>
+      <c r="G118" s="6" t="n">
+        <v>1.200252</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C119" s="6" t="n">
+        <v>2.5949094</v>
+      </c>
+      <c r="D119" s="6" t="n">
+        <v>3.742439</v>
+      </c>
+      <c r="E119" s="6" t="n">
+        <v>1.3506474</v>
+      </c>
+      <c r="F119" s="6" t="n">
+        <v>2.3362566</v>
+      </c>
+      <c r="G119" s="6" t="n">
+        <v>1.151784</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C120" s="6" t="n">
+        <v>2.0148352</v>
+      </c>
+      <c r="D120" s="6" t="n">
+        <v>1.0925312</v>
+      </c>
+      <c r="E120" s="6" t="n">
+        <v>1.1598882</v>
+      </c>
+      <c r="F120" s="6" t="n">
+        <v>2.0468968</v>
+      </c>
+      <c r="G120" s="6" t="n">
+        <v>1.1705808</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C121" s="6" t="n">
+        <v>1.9941926</v>
+      </c>
+      <c r="D121" s="6" t="n">
+        <v>1.1790746</v>
+      </c>
+      <c r="E121" s="6" t="n">
+        <v>1.1689302</v>
+      </c>
+      <c r="F121" s="6" t="n">
+        <v>2.3232624</v>
+      </c>
+      <c r="G121" s="6" t="n">
+        <v>3.2686154</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C122" s="6" t="n">
+        <v>2.4594108</v>
+      </c>
+      <c r="D122" s="6" t="n">
+        <v>3.9116662</v>
+      </c>
+      <c r="E122" s="6" t="n">
+        <v>1.4917474</v>
+      </c>
+      <c r="F122" s="6" t="n">
+        <v>2.5057182</v>
+      </c>
+      <c r="G122" s="6" t="n">
+        <v>1.2630424</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C123" s="6" t="n">
+        <v>2.3001484</v>
+      </c>
+      <c r="D123" s="6" t="n">
+        <v>1.2931846</v>
+      </c>
+      <c r="E123" s="6" t="n">
+        <v>1.3434434</v>
+      </c>
+      <c r="F123" s="6" t="n">
+        <v>2.3658658</v>
+      </c>
+      <c r="G123" s="6" t="n">
+        <v>1.2383004</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C124" s="6" t="n">
+        <v>2.426281</v>
+      </c>
+      <c r="D124" s="6" t="n">
+        <v>4.7213112</v>
+      </c>
+      <c r="E124" s="6" t="n">
+        <v>1.3969412</v>
+      </c>
+      <c r="F124" s="6" t="n">
+        <v>2.5182908</v>
+      </c>
+      <c r="G124" s="6" t="n">
+        <v>1.3497206</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C125" s="6" t="n">
+        <v>2.0343828</v>
+      </c>
+      <c r="D125" s="6" t="n">
+        <v>3.7897796</v>
+      </c>
+      <c r="E125" s="6" t="n">
+        <v>1.4402118</v>
+      </c>
+      <c r="F125" s="6" t="n">
+        <v>2.444522</v>
+      </c>
+      <c r="G125" s="6" t="n">
+        <v>1.1209586</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C126" s="6" t="n">
+        <v>2.103657</v>
+      </c>
+      <c r="D126" s="6" t="n">
+        <v>1.4591422</v>
+      </c>
+      <c r="E126" s="6" t="n">
+        <v>1.2765984</v>
+      </c>
+      <c r="F126" s="6" t="n">
+        <v>2.1483914</v>
+      </c>
+      <c r="G126" s="6" t="n">
+        <v>1.172806</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C127" s="6" t="n">
+        <v>2.2297076</v>
+      </c>
+      <c r="D127" s="6" t="n">
+        <v>1.1706382</v>
+      </c>
+      <c r="E127" s="6" t="n">
+        <v>1.230461</v>
+      </c>
+      <c r="F127" s="6" t="n">
+        <v>2.3234192</v>
+      </c>
+      <c r="G127" s="6" t="n">
+        <v>1.1346302</v>
       </c>
     </row>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7146,7 +7761,7 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A104" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D109" activeCellId="0" sqref="D109"/>
     </sheetView>
   </sheetViews>
@@ -7190,7 +7805,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>0.7804054</v>
@@ -7213,7 +7828,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>0.7779802</v>
@@ -7236,7 +7851,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>0.7043458</v>
@@ -7259,7 +7874,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>0.7145706</v>
@@ -7328,7 +7943,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>0.6280168</v>
@@ -7374,7 +7989,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>0.7373706</v>
@@ -7420,7 +8035,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>0.7234852</v>
@@ -7512,7 +8127,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>0.3510038</v>
@@ -7535,7 +8150,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>0.5421752</v>
@@ -7558,7 +8173,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>0.5591408</v>
@@ -7581,7 +8196,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>0.5551518</v>
@@ -7673,7 +8288,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="C23" s="6" t="n">
         <v>0.9795414</v>
@@ -7696,7 +8311,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="C24" s="6" t="n">
         <v>3.7305486</v>
@@ -7719,7 +8334,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="C25" s="6" t="n">
         <v>2.3842444</v>
@@ -7742,7 +8357,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="C26" s="6" t="n">
         <v>2.139728</v>
@@ -7765,7 +8380,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="C27" s="6" t="n">
         <v>0.7112716</v>
@@ -7788,7 +8403,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="C28" s="6" t="n">
         <v>0.67812</v>
@@ -7834,7 +8449,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="C30" s="6" t="n">
         <v>0.712753</v>
@@ -7857,7 +8472,7 @@
         <v>46</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="C31" s="6" t="n">
         <v>0.630812</v>
@@ -7903,7 +8518,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="C33" s="6" t="n">
         <v>0.7013216</v>
@@ -7972,7 +8587,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="C36" s="6" t="n">
         <v>0.7043458</v>
@@ -7995,7 +8610,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="C37" s="6" t="n">
         <v>0.7145706</v>
@@ -8018,7 +8633,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="C38" s="6" t="n">
         <v>1.2584274</v>
@@ -8041,7 +8656,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="C39" s="6" t="n">
         <v>1.3856258</v>
@@ -8064,7 +8679,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="C40" s="6" t="n">
         <v>1.1413118</v>
@@ -8087,7 +8702,7 @@
         <v>60</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="C41" s="6" t="n">
         <v>2.0516946</v>
@@ -8156,7 +8771,7 @@
         <v>64</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="C44" s="6" t="n">
         <v>0.7883284</v>
@@ -8202,7 +8817,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="C46" s="6" t="n">
         <v>0.6814198</v>
@@ -8317,7 +8932,7 @@
         <v>72</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="C51" s="6" t="n">
         <v>1.4049502</v>
@@ -8363,7 +8978,7 @@
         <v>76</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="C53" s="6" t="n">
         <v>0.9897652</v>
@@ -8432,7 +9047,7 @@
         <v>80</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="C56" s="6" t="n">
         <v>1.2353042</v>
@@ -8478,7 +9093,7 @@
         <v>80</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="C58" s="6" t="n">
         <v>1.2364662</v>
@@ -8524,7 +9139,7 @@
         <v>84</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="C60" s="6" t="n">
         <v>1.1438926</v>
@@ -8547,7 +9162,7 @@
         <v>84</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="C61" s="6" t="n">
         <v>0.6579276</v>
@@ -8639,7 +9254,7 @@
         <v>91</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="C65" s="6" t="n">
         <v>1.8978822</v>
@@ -8662,7 +9277,7 @@
         <v>91</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C66" s="6" t="n">
         <v>1.1060998</v>
@@ -8685,7 +9300,7 @@
         <v>91</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="C67" s="6" t="n">
         <v>1.6069744</v>
@@ -8708,7 +9323,7 @@
         <v>95</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="C68" s="6" t="n">
         <v>1.6301784</v>
@@ -8731,7 +9346,7 @@
         <v>95</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="C69" s="6" t="n">
         <v>1.5682082</v>
@@ -8754,7 +9369,7 @@
         <v>95</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="C70" s="6" t="n">
         <v>1.4442308</v>
@@ -8892,7 +9507,7 @@
         <v>103</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C76" s="6" t="n">
         <v>1.1822766</v>
@@ -8961,7 +9576,7 @@
         <v>107</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C79" s="6" t="n">
         <v>1.573159</v>
@@ -9053,7 +9668,7 @@
         <v>114</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C83" s="6" t="n">
         <v>1.0064424</v>
@@ -9260,7 +9875,7 @@
         <v>126</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="C92" s="6" t="n">
         <v>1.5482428</v>
@@ -9283,7 +9898,7 @@
         <v>126</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="C93" s="6" t="n">
         <v>1.8137892</v>
@@ -9306,7 +9921,7 @@
         <v>126</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="C94" s="6" t="n">
         <v>1.6058992</v>
@@ -9329,7 +9944,7 @@
         <v>127</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c r="C95" s="6" t="n">
         <v>1.305882</v>
@@ -9375,7 +9990,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="C97" s="6" t="n">
         <v>1.4182292</v>
@@ -9467,7 +10082,7 @@
         <v>134</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="C101" s="6" t="n">
         <v>1.2684794</v>
@@ -9559,7 +10174,7 @@
         <v>138</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C105" s="6" t="n">
         <v>0.606726</v>
@@ -9605,7 +10220,7 @@
         <v>139</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="C107" s="6" t="n">
         <v>1.295247</v>
@@ -9628,7 +10243,7 @@
         <v>139</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="C108" s="6" t="n">
         <v>1.22489</v>
@@ -9651,7 +10266,7 @@
         <v>139</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="C109" s="6" t="n">
         <v>1.1823422</v>
@@ -9669,12 +10284,12 @@
         <v>1.294694</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
         <v>142</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="C110" s="6" t="n">
         <v>1.1176918</v>
@@ -9692,7 +10307,7 @@
         <v>1.223688</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
         <v>142</v>
       </c>
@@ -9715,7 +10330,7 @@
         <v>1.4283492</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
         <v>142</v>
       </c>
@@ -9738,7 +10353,7 @@
         <v>1.3205608</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
         <v>144</v>
       </c>
@@ -9761,12 +10376,12 @@
         <v>0.8266632</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="C114" s="6" t="n">
         <v>0.5937896</v>
@@ -9784,7 +10399,7 @@
         <v>0.6733412</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
         <v>144</v>
       </c>
@@ -9805,6 +10420,282 @@
       </c>
       <c r="G115" s="6" t="n">
         <v>0.6327592</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C116" s="6" t="n">
+        <v>0.6257974</v>
+      </c>
+      <c r="D116" s="6" t="n">
+        <v>0.8024842</v>
+      </c>
+      <c r="E116" s="6" t="n">
+        <v>1.351921</v>
+      </c>
+      <c r="F116" s="6" t="n">
+        <v>1.6086032</v>
+      </c>
+      <c r="G116" s="6" t="n">
+        <v>0.661852</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C117" s="6" t="n">
+        <v>0.5636324</v>
+      </c>
+      <c r="D117" s="6" t="n">
+        <v>2.946463</v>
+      </c>
+      <c r="E117" s="6" t="n">
+        <v>0.7096274</v>
+      </c>
+      <c r="F117" s="6" t="n">
+        <v>1.4021492</v>
+      </c>
+      <c r="G117" s="6" t="n">
+        <v>0.683747</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C118" s="6" t="n">
+        <v>0.6148816</v>
+      </c>
+      <c r="D118" s="6" t="n">
+        <v>0.7301186</v>
+      </c>
+      <c r="E118" s="6" t="n">
+        <v>0.6993684</v>
+      </c>
+      <c r="F118" s="6" t="n">
+        <v>1.3787188</v>
+      </c>
+      <c r="G118" s="6" t="n">
+        <v>0.8201428</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C119" s="6" t="n">
+        <v>0.8084102</v>
+      </c>
+      <c r="D119" s="6" t="n">
+        <v>0.781978</v>
+      </c>
+      <c r="E119" s="6" t="n">
+        <v>0.7749378</v>
+      </c>
+      <c r="F119" s="6" t="n">
+        <v>1.2962526</v>
+      </c>
+      <c r="G119" s="6" t="n">
+        <v>0.6460216</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C120" s="6" t="n">
+        <v>0.6780972</v>
+      </c>
+      <c r="D120" s="6" t="n">
+        <v>0.8027514</v>
+      </c>
+      <c r="E120" s="6" t="n">
+        <v>0.7368156</v>
+      </c>
+      <c r="F120" s="6" t="n">
+        <v>1.3863972</v>
+      </c>
+      <c r="G120" s="6" t="n">
+        <v>0.748697</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C121" s="6" t="n">
+        <v>0.5689302</v>
+      </c>
+      <c r="D121" s="6" t="n">
+        <v>0.7644222</v>
+      </c>
+      <c r="E121" s="6" t="n">
+        <v>0.7696366</v>
+      </c>
+      <c r="F121" s="6" t="n">
+        <v>1.4721788</v>
+      </c>
+      <c r="G121" s="6" t="n">
+        <v>0.9162552</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C122" s="6" t="n">
+        <v>1.0674126</v>
+      </c>
+      <c r="D122" s="6" t="n">
+        <v>1.3308</v>
+      </c>
+      <c r="E122" s="6" t="n">
+        <v>1.3737196</v>
+      </c>
+      <c r="F122" s="6" t="n">
+        <v>2.0970562</v>
+      </c>
+      <c r="G122" s="6" t="n">
+        <v>1.261324</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C123" s="6" t="n">
+        <v>1.0486638</v>
+      </c>
+      <c r="D123" s="6" t="n">
+        <v>2.8252044</v>
+      </c>
+      <c r="E123" s="6" t="n">
+        <v>1.5230716</v>
+      </c>
+      <c r="F123" s="6" t="n">
+        <v>2.0135886</v>
+      </c>
+      <c r="G123" s="6" t="n">
+        <v>1.6916426</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C124" s="6" t="n">
+        <v>1.086944</v>
+      </c>
+      <c r="D124" s="6" t="n">
+        <v>1.295828</v>
+      </c>
+      <c r="E124" s="6" t="n">
+        <v>1.4946798</v>
+      </c>
+      <c r="F124" s="6" t="n">
+        <v>2.1279958</v>
+      </c>
+      <c r="G124" s="6" t="n">
+        <v>1.3292072</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C125" s="6" t="n">
+        <v>0.7197022</v>
+      </c>
+      <c r="D125" s="6" t="n">
+        <v>0.9799596</v>
+      </c>
+      <c r="E125" s="6" t="n">
+        <v>0.82926</v>
+      </c>
+      <c r="F125" s="6" t="n">
+        <v>1.5863342</v>
+      </c>
+      <c r="G125" s="6" t="n">
+        <v>0.9186484</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C126" s="6" t="n">
+        <v>0.6197108</v>
+      </c>
+      <c r="D126" s="6" t="n">
+        <v>0.7760292</v>
+      </c>
+      <c r="E126" s="6" t="n">
+        <v>0.804785</v>
+      </c>
+      <c r="F126" s="6" t="n">
+        <v>1.5094612</v>
+      </c>
+      <c r="G126" s="6" t="n">
+        <v>0.8360762</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C127" s="6" t="n">
+        <v>0.6199604</v>
+      </c>
+      <c r="D127" s="6" t="n">
+        <v>0.756557</v>
+      </c>
+      <c r="E127" s="6" t="n">
+        <v>0.8969664</v>
+      </c>
+      <c r="F127" s="6" t="n">
+        <v>1.77522</v>
+      </c>
+      <c r="G127" s="6" t="n">
+        <v>0.9508644</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -9830,8 +10721,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A102" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C117" activeCellId="0" sqref="C117"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A127" activeCellId="0" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9874,7 +10765,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>3.4656902</v>
@@ -9897,7 +10788,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>4.0852622</v>
@@ -9920,7 +10811,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>2.9817282</v>
@@ -9943,7 +10834,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>3.2355116</v>
@@ -10012,7 +10903,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>3.7434734</v>
@@ -10035,7 +10926,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>3.5561424</v>
@@ -10058,7 +10949,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>3.2355472</v>
@@ -10081,7 +10972,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>3.8741284</v>
@@ -10104,7 +10995,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>3.5923944</v>
@@ -10173,7 +11064,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>3.0850886</v>
@@ -10196,7 +11087,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>4.2818632</v>
@@ -10219,7 +11110,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>3.5103138</v>
@@ -10242,7 +11133,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>3.5907182</v>
@@ -10265,7 +11156,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>2.8087598</v>
@@ -10288,7 +11179,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>3.0989676</v>
@@ -10311,7 +11202,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="C21" s="6" t="n">
         <v>2.9089418</v>
@@ -10380,7 +11271,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="C24" s="6" t="n">
         <v>3.6907394</v>
@@ -10426,7 +11317,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="C26" s="6" t="n">
         <v>3.822524</v>
@@ -10449,7 +11340,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="C27" s="6" t="n">
         <v>3.2866498</v>
@@ -10472,7 +11363,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="C28" s="6" t="n">
         <v>3.8178666</v>
@@ -10518,7 +11409,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="C30" s="6" t="n">
         <v>3.0702744</v>
@@ -10541,7 +11432,7 @@
         <v>46</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c r="C31" s="6" t="n">
         <v>3.1279612</v>
@@ -10587,7 +11478,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="C33" s="6" t="n">
         <v>3.6235082</v>
@@ -10610,7 +11501,7 @@
         <v>50</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="C34" s="6" t="n">
         <v>2.9263998</v>
@@ -10633,7 +11524,7 @@
         <v>53</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c r="C35" s="6" t="n">
         <v>2.9817282</v>
@@ -10656,7 +11547,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="C36" s="6" t="n">
         <v>3.2355116</v>
@@ -10702,7 +11593,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="C38" s="6" t="n">
         <v>4.4183598</v>
@@ -10725,7 +11616,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="C39" s="6" t="n">
         <v>4.2271066</v>
@@ -10748,7 +11639,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="C40" s="6" t="n">
         <v>4.3486802</v>
@@ -10794,7 +11685,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C42" s="6" t="n">
         <v>3.6324914</v>
@@ -10840,7 +11731,7 @@
         <v>64</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="C44" s="6" t="n">
         <v>3.8775138</v>
@@ -10886,7 +11777,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="C46" s="6" t="n">
         <v>3.8538836</v>
@@ -11001,7 +11892,7 @@
         <v>72</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="C51" s="6" t="n">
         <v>4.7661336</v>
@@ -11024,7 +11915,7 @@
         <v>72</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="C52" s="6" t="n">
         <v>4.1553188</v>
@@ -11047,7 +11938,7 @@
         <v>76</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="C53" s="6" t="n">
         <v>4.4161086</v>
@@ -11070,7 +11961,7 @@
         <v>76</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="C54" s="6" t="n">
         <v>3.9109934</v>
@@ -11093,7 +11984,7 @@
         <v>76</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="C55" s="6" t="n">
         <v>3.9109934</v>
@@ -11116,7 +12007,7 @@
         <v>80</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="C56" s="6" t="n">
         <v>3.4861618</v>
@@ -11162,7 +12053,7 @@
         <v>80</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="C58" s="6" t="n">
         <v>3.52287</v>
@@ -11323,7 +12214,7 @@
         <v>91</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="C65" s="6" t="n">
         <v>3.2117386</v>
@@ -11346,7 +12237,7 @@
         <v>91</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C66" s="6" t="n">
         <v>4.0686228</v>
@@ -11369,7 +12260,7 @@
         <v>91</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="C67" s="6" t="n">
         <v>3.0381616</v>
@@ -11392,7 +12283,7 @@
         <v>95</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="C68" s="6" t="n">
         <v>3.9888114</v>
@@ -11415,7 +12306,7 @@
         <v>95</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="C69" s="6" t="n">
         <v>4.1137066</v>
@@ -11438,7 +12329,7 @@
         <v>95</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="C70" s="6" t="n">
         <v>4.983335</v>
@@ -11576,7 +12467,7 @@
         <v>103</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="C76" s="6" t="n">
         <v>4.5492628</v>
@@ -11645,7 +12536,7 @@
         <v>107</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="C79" s="6" t="n">
         <v>4.5622134</v>
@@ -11737,7 +12628,7 @@
         <v>114</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C83" s="6" t="n">
         <v>3.860828</v>
@@ -11921,7 +12812,7 @@
         <v>122</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C91" s="6" t="n">
         <v>3.8848404</v>
@@ -11967,7 +12858,7 @@
         <v>126</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="C93" s="6" t="n">
         <v>4.559301</v>
@@ -12013,7 +12904,7 @@
         <v>127</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c r="C95" s="6" t="n">
         <v>3.720101</v>
@@ -12059,7 +12950,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="C97" s="6" t="n">
         <v>3.7013772</v>
@@ -12128,7 +13019,7 @@
         <v>131</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="C100" s="6" t="n">
         <v>4.1470936</v>
@@ -12151,7 +13042,7 @@
         <v>134</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="C101" s="6" t="n">
         <v>4.5941812</v>
@@ -12197,7 +13088,7 @@
         <v>134</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="C103" s="6" t="n">
         <v>4.2355866</v>
@@ -12243,7 +13134,7 @@
         <v>138</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C105" s="6" t="n">
         <v>3.7619086</v>
@@ -12289,7 +13180,7 @@
         <v>139</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="C107" s="6" t="n">
         <v>3.9397008</v>
@@ -12312,7 +13203,7 @@
         <v>139</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="C108" s="6" t="n">
         <v>3.8446282</v>
@@ -12335,7 +13226,7 @@
         <v>139</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="C109" s="6" t="n">
         <v>3.6811188</v>
@@ -12353,12 +13244,12 @@
         <v>1.8786048</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
         <v>142</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="C110" s="6" t="n">
         <v>4.0021732</v>
@@ -12376,7 +13267,7 @@
         <v>2.044639</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
         <v>142</v>
       </c>
@@ -12399,7 +13290,7 @@
         <v>2.0026626</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
         <v>142</v>
       </c>
@@ -12422,7 +13313,7 @@
         <v>2.2362378</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
         <v>144</v>
       </c>
@@ -12445,7 +13336,7 @@
         <v>1.0965118</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
         <v>144</v>
       </c>
@@ -12489,6 +13380,282 @@
       </c>
       <c r="G115" s="6" t="n">
         <v>2.6566656</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C116" s="6" t="n">
+        <v>3.6724544</v>
+      </c>
+      <c r="D116" s="6" t="n">
+        <v>2.4014178</v>
+      </c>
+      <c r="E116" s="6" t="n">
+        <v>1.6610472</v>
+      </c>
+      <c r="F116" s="6" t="n">
+        <v>2.4856604</v>
+      </c>
+      <c r="G116" s="6" t="n">
+        <v>1.390813</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C117" s="6" t="n">
+        <v>3.9349018</v>
+      </c>
+      <c r="D117" s="6" t="n">
+        <v>1.6071996</v>
+      </c>
+      <c r="E117" s="6" t="n">
+        <v>1.7491442</v>
+      </c>
+      <c r="F117" s="6" t="n">
+        <v>2.7623446</v>
+      </c>
+      <c r="G117" s="6" t="n">
+        <v>1.4508176</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C118" s="6" t="n">
+        <v>3.7854794</v>
+      </c>
+      <c r="D118" s="6" t="n">
+        <v>1.8815332</v>
+      </c>
+      <c r="E118" s="6" t="n">
+        <v>1.7512158</v>
+      </c>
+      <c r="F118" s="6" t="n">
+        <v>2.9255958</v>
+      </c>
+      <c r="G118" s="6" t="n">
+        <v>1.0352886</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C119" s="6" t="n">
+        <v>4.0520074</v>
+      </c>
+      <c r="D119" s="6" t="n">
+        <v>2.5138624</v>
+      </c>
+      <c r="E119" s="6" t="n">
+        <v>5.7244108</v>
+      </c>
+      <c r="F119" s="6" t="n">
+        <v>7.0855886</v>
+      </c>
+      <c r="G119" s="6" t="n">
+        <v>1.187051</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C120" s="6" t="n">
+        <v>4.0731762</v>
+      </c>
+      <c r="D120" s="6" t="n">
+        <v>1.6316388</v>
+      </c>
+      <c r="E120" s="6" t="n">
+        <v>1.8969006</v>
+      </c>
+      <c r="F120" s="6" t="n">
+        <v>2.3379128</v>
+      </c>
+      <c r="G120" s="6" t="n">
+        <v>1.160484</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C121" s="6" t="n">
+        <v>3.7466574</v>
+      </c>
+      <c r="D121" s="6" t="n">
+        <v>1.3694122</v>
+      </c>
+      <c r="E121" s="6" t="n">
+        <v>1.5519594</v>
+      </c>
+      <c r="F121" s="6" t="n">
+        <v>2.5452296</v>
+      </c>
+      <c r="G121" s="6" t="n">
+        <v>1.3065656</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C122" s="6" t="n">
+        <v>4.3859274</v>
+      </c>
+      <c r="D122" s="6" t="n">
+        <v>2.7055608</v>
+      </c>
+      <c r="E122" s="6" t="n">
+        <v>2.2043442</v>
+      </c>
+      <c r="F122" s="6" t="n">
+        <v>3.6149228</v>
+      </c>
+      <c r="G122" s="6" t="n">
+        <v>3.2013158</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C123" s="6" t="n">
+        <v>4.1373178</v>
+      </c>
+      <c r="D123" s="6" t="n">
+        <v>2.2097034</v>
+      </c>
+      <c r="E123" s="6" t="n">
+        <v>2.0135616</v>
+      </c>
+      <c r="F123" s="6" t="n">
+        <v>3.3800898</v>
+      </c>
+      <c r="G123" s="6" t="n">
+        <v>1.711659</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C124" s="6" t="n">
+        <v>3.986907</v>
+      </c>
+      <c r="D124" s="6" t="n">
+        <v>2.4328986</v>
+      </c>
+      <c r="E124" s="6" t="n">
+        <v>2.6158812</v>
+      </c>
+      <c r="F124" s="6" t="n">
+        <v>3.3358576</v>
+      </c>
+      <c r="G124" s="6" t="n">
+        <v>1.9736106</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C125" s="6" t="n">
+        <v>3.64082</v>
+      </c>
+      <c r="D125" s="6" t="n">
+        <v>2.3146822</v>
+      </c>
+      <c r="E125" s="6" t="n">
+        <v>1.688344</v>
+      </c>
+      <c r="F125" s="6" t="n">
+        <v>3.0171088</v>
+      </c>
+      <c r="G125" s="6" t="n">
+        <v>1.6750746</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C126" s="6" t="n">
+        <v>3.6994948</v>
+      </c>
+      <c r="D126" s="6" t="n">
+        <v>1.757806</v>
+      </c>
+      <c r="E126" s="6" t="n">
+        <v>1.773838</v>
+      </c>
+      <c r="F126" s="6" t="n">
+        <v>2.9424002</v>
+      </c>
+      <c r="G126" s="6" t="n">
+        <v>1.6971936</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C127" s="6" t="n">
+        <v>3.2168624</v>
+      </c>
+      <c r="D127" s="6" t="n">
+        <v>1.7367816</v>
+      </c>
+      <c r="E127" s="6" t="n">
+        <v>1.7134172</v>
+      </c>
+      <c r="F127" s="6" t="n">
+        <v>2.8474092</v>
+      </c>
+      <c r="G127" s="6" t="n">
+        <v>1.4834408</v>
       </c>
     </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Output Data/Crpo/Common_folder/API_Performance_Chart_Report.xlsx
+++ b/Output Data/Crpo/Common_folder/API_Performance_Chart_Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="290">
   <si>
     <t xml:space="preserve">get_tenant_details</t>
   </si>
@@ -41,6 +41,12 @@
     <t xml:space="preserve">getTestUsersForTest</t>
   </si>
   <si>
+    <t xml:space="preserve">interview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interview_new</t>
+  </si>
+  <si>
     <t xml:space="preserve">AMSIN_NON_EU</t>
   </si>
   <si>
@@ -59,6 +65,9 @@
     <t xml:space="preserve">Run Time</t>
   </si>
   <si>
+    <t xml:space="preserve">interviews</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020-05-11</t>
   </si>
   <si>
@@ -518,6 +527,48 @@
     <t xml:space="preserve">07:49:AM</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-02-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:01:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:03:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:38:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:07:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:10:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:11:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:14:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:20:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:35:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:53:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:55:AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:41:PM</t>
   </si>
   <si>
@@ -587,9 +638,6 @@
     <t xml:space="preserve">10:06:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">09:35:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">09:38:AM</t>
   </si>
   <si>
@@ -623,9 +671,6 @@
     <t xml:space="preserve">07:22:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">09:20:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">02:19:PM</t>
   </si>
   <si>
@@ -635,6 +680,12 @@
     <t xml:space="preserve">04:12:PM</t>
   </si>
   <si>
+    <t xml:space="preserve">09:04:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:09:AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:43:PM</t>
   </si>
   <si>
@@ -719,9 +770,6 @@
     <t xml:space="preserve">08:59:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">09:03:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">09:36:AM</t>
   </si>
   <si>
@@ -767,6 +815,12 @@
     <t xml:space="preserve">09:19:AM</t>
   </si>
   <si>
+    <t xml:space="preserve">09:08:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:48:AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:44:PM</t>
   </si>
   <si>
@@ -831,6 +885,15 @@
   </si>
   <si>
     <t xml:space="preserve">04:19:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:05:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:42:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:12:AM</t>
   </si>
 </sst>
 </file>
@@ -974,31 +1037,31 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1029,7 +1092,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF8B8B8B"/>
-      <rgbColor rgb="FF5B9BD5"/>
+      <rgbColor rgb="FF90A2D3"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -1053,16 +1116,16 @@
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF4472C4"/>
+      <rgbColor rgb="FF518ABD"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFED7D31"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFE3AB00"/>
+      <rgbColor rgb="FFD36F2B"/>
+      <rgbColor rgb="FF3C65AE"/>
+      <rgbColor rgb="FF929292"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF639A3F"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -1100,7 +1163,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4472c4"/>
+              <a:srgbClr val="3c65ae"/>
             </a:solidFill>
             <a:ln w="9360">
               <a:solidFill>
@@ -1111,6 +1174,8 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1145,16 +1210,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.21832058095238</c:v>
+                  <c:v>1.16182758129496</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.49718197936508</c:v>
+                  <c:v>2.44882146906475</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.08644205714286</c:v>
+                  <c:v>1.02137673956835</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.87266203968254</c:v>
+                  <c:v>3.83921343741007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1176,7 +1241,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
+              <a:srgbClr val="d36f2b"/>
             </a:solidFill>
             <a:ln w="9360">
               <a:solidFill>
@@ -1187,6 +1252,8 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1221,16 +1288,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.993530960317461</c:v>
+                  <c:v>0.93526112086331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.27542769047619</c:v>
+                  <c:v>2.20246955395683</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.36862568888889</c:v>
+                  <c:v>1.28491177841727</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.12881935555556</c:v>
+                  <c:v>2.05633135971223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1252,7 +1319,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
+              <a:srgbClr val="929292"/>
             </a:solidFill>
             <a:ln w="9360">
               <a:solidFill>
@@ -1263,6 +1330,8 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1297,16 +1366,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.04682626507937</c:v>
+                  <c:v>0.984325598561151</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.73024546825397</c:v>
+                  <c:v>1.66109261582734</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.38679178730159</c:v>
+                  <c:v>1.32307328345324</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.99613370952381</c:v>
+                  <c:v>1.9392468705036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1328,7 +1397,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ffc000"/>
+              <a:srgbClr val="e3ab00"/>
             </a:solidFill>
             <a:ln w="9360">
               <a:solidFill>
@@ -1339,6 +1408,8 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1373,16 +1444,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.61760234761905</c:v>
+                  <c:v>1.57429501294964</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.32237114444444</c:v>
+                  <c:v>2.28289765035971</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9224809031746</c:v>
+                  <c:v>1.85948012086331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.76587227619047</c:v>
+                  <c:v>2.71634118705036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1404,7 +1475,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
+              <a:srgbClr val="518abd"/>
             </a:solidFill>
             <a:ln w="9360">
               <a:solidFill>
@@ -1415,6 +1486,8 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1449,16 +1522,172 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.943390128571429</c:v>
+                  <c:v>0.892263867625899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7193199</c:v>
+                  <c:v>1.64759233381295</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.23248074444445</c:v>
+                  <c:v>1.16891839280576</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.78135369206349</c:v>
+                  <c:v>1.7105640057554</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>interview</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="639a3f"/>
+            </a:solidFill>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="ffff00"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>AMSIN_NON_EU</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AMSIN_EU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LIVE_NON_EU</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LIVE_EU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.115904674820144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0654064517985612</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0780112215827338</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0779522086330935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dashboard!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>interview_new</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="90a2d3"/>
+            </a:solidFill>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="ffff00"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>AMSIN_NON_EU</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AMSIN_EU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LIVE_NON_EU</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LIVE_EU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$H$2:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0502579136690648</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0474187395683453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0356781424460432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0621353712230216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1466,11 +1695,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="-10"/>
-        <c:axId val="74856503"/>
-        <c:axId val="65347776"/>
+        <c:axId val="98853524"/>
+        <c:axId val="6880338"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74856503"/>
+        <c:axId val="98853524"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1536,14 +1765,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65347776"/>
+        <c:crossAx val="6880338"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65347776"/>
+        <c:axId val="6880338"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1609,7 +1838,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74856503"/>
+        <c:crossAx val="98853524"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1664,15 +1893,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>29520</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>257760</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1680,8 +1909,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="1143000"/>
-        <a:ext cx="12094560" cy="2742840"/>
+        <a:off x="29520" y="1162080"/>
+        <a:ext cx="13009320" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1699,21 +1928,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="32.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.19"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="24.49"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,85 +1962,115 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.21832058095238</v>
+        <v>1.16182758129496</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.993530960317461</v>
+        <v>0.93526112086331</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>1.04682626507937</v>
+        <v>0.984325598561151</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1.61760234761905</v>
+        <v>1.57429501294964</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.943390128571429</v>
+        <v>0.892263867625899</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.115904674820144</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0.0502579136690648</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>2.49718197936508</v>
+        <v>2.44882146906475</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>2.27542769047619</v>
+        <v>2.20246955395683</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1.73024546825397</v>
+        <v>1.66109261582734</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>2.32237114444444</v>
+        <v>2.28289765035971</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1.7193199</v>
+        <v>1.64759233381295</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.0654064517985612</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0.0474187395683453</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1.08644205714286</v>
+        <v>1.02137673956835</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>1.36862568888889</v>
+        <v>1.28491177841727</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>1.38679178730159</v>
+        <v>1.32307328345324</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>1.9224809031746</v>
+        <v>1.85948012086331</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1.23248074444445</v>
+        <v>1.16891839280576</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.0780112215827338</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0.0356781424460432</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>3.87266203968254</v>
+        <v>3.83921343741007</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>2.12881935555556</v>
+        <v>2.05633135971223</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>1.99613370952381</v>
+        <v>1.9392468705036</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>2.76587227619047</v>
+        <v>2.71634118705036</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1.78135369206349</v>
+        <v>1.7105640057554</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.0779522086330935</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0.0621353712230216</v>
       </c>
     </row>
   </sheetData>
@@ -1830,30 +2090,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H131" activeCellId="0" sqref="H131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="28.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="30.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="23.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="3" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="28.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="30.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="21.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="23.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="17.27"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="3" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -1870,13 +2132,19 @@
       <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="H1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>0.7387894</v>
@@ -1896,10 +2164,10 @@
     </row>
     <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>1.2406554</v>
@@ -1919,10 +2187,10 @@
     </row>
     <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>0.6651192</v>
@@ -1942,10 +2210,10 @@
     </row>
     <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>0.7286112</v>
@@ -1965,10 +2233,10 @@
     </row>
     <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>0.7587778</v>
@@ -1988,10 +2256,10 @@
     </row>
     <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>0.8884018</v>
@@ -2011,10 +2279,10 @@
     </row>
     <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>0.9575628</v>
@@ -2034,10 +2302,10 @@
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>0.7532228</v>
@@ -2057,10 +2325,10 @@
     </row>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>0.7225882</v>
@@ -2080,10 +2348,10 @@
     </row>
     <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>0.6828446</v>
@@ -2103,10 +2371,10 @@
     </row>
     <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>0.7597984</v>
@@ -2126,10 +2394,10 @@
     </row>
     <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>0.7175262</v>
@@ -2149,10 +2417,10 @@
     </row>
     <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>3.8210498</v>
@@ -2172,10 +2440,10 @@
     </row>
     <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>0.85135</v>
@@ -2195,10 +2463,10 @@
     </row>
     <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>0.95546</v>
@@ -2218,10 +2486,10 @@
     </row>
     <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>0.7209352</v>
@@ -2241,10 +2509,10 @@
     </row>
     <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>0.6903276</v>
@@ -2264,10 +2532,10 @@
     </row>
     <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>0.6003386</v>
@@ -2287,10 +2555,10 @@
     </row>
     <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>0.8568564</v>
@@ -2310,10 +2578,10 @@
     </row>
     <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C21" s="6" t="n">
         <v>0.745155</v>
@@ -2333,10 +2601,10 @@
     </row>
     <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C22" s="6" t="n">
         <v>0.7140588</v>
@@ -2356,10 +2624,10 @@
     </row>
     <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C23" s="6" t="n">
         <v>0.8333604</v>
@@ -2379,10 +2647,10 @@
     </row>
     <row r="24" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C24" s="6" t="n">
         <v>1.427272</v>
@@ -2402,10 +2670,10 @@
     </row>
     <row r="25" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C25" s="6" t="n">
         <v>3.4222124</v>
@@ -2425,10 +2693,10 @@
     </row>
     <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C26" s="6" t="n">
         <v>0.7826978</v>
@@ -2448,10 +2716,10 @@
     </row>
     <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C27" s="6" t="n">
         <v>0.7565148</v>
@@ -2471,10 +2739,10 @@
     </row>
     <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C28" s="6" t="n">
         <v>0.6942684</v>
@@ -2494,10 +2762,10 @@
     </row>
     <row r="29" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C29" s="6" t="n">
         <v>0.5951898</v>
@@ -2517,10 +2785,10 @@
     </row>
     <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C30" s="6" t="n">
         <v>0.846371</v>
@@ -2540,10 +2808,10 @@
     </row>
     <row r="31" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C31" s="6" t="n">
         <v>0.6718048</v>
@@ -2563,10 +2831,10 @@
     </row>
     <row r="32" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C32" s="6" t="n">
         <v>0.9811956</v>
@@ -2586,10 +2854,10 @@
     </row>
     <row r="33" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C33" s="6" t="n">
         <v>1.0872086</v>
@@ -2609,10 +2877,10 @@
     </row>
     <row r="34" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C34" s="6" t="n">
         <v>0.770327</v>
@@ -2632,10 +2900,10 @@
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C35" s="6" t="n">
         <v>1.3142544</v>
@@ -2655,10 +2923,10 @@
     </row>
     <row r="36" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C36" s="6" t="n">
         <v>0.6718048</v>
@@ -2678,10 +2946,10 @@
     </row>
     <row r="37" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C37" s="6" t="n">
         <v>0.7565148</v>
@@ -2701,10 +2969,10 @@
     </row>
     <row r="38" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C38" s="6" t="n">
         <v>1.0161222</v>
@@ -2724,10 +2992,10 @@
     </row>
     <row r="39" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C39" s="6" t="n">
         <v>1.9652068</v>
@@ -2747,10 +3015,10 @@
     </row>
     <row r="40" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C40" s="6" t="n">
         <v>1.1680986</v>
@@ -2770,10 +3038,10 @@
     </row>
     <row r="41" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C41" s="6" t="n">
         <v>0.6970636</v>
@@ -2793,10 +3061,10 @@
     </row>
     <row r="42" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C42" s="6" t="n">
         <v>1.1335438</v>
@@ -2816,10 +3084,10 @@
     </row>
     <row r="43" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C43" s="6" t="n">
         <v>0.859495</v>
@@ -2839,10 +3107,10 @@
     </row>
     <row r="44" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C44" s="6" t="n">
         <v>0.9799876</v>
@@ -2862,10 +3130,10 @@
     </row>
     <row r="45" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C45" s="6" t="n">
         <v>0.7894934</v>
@@ -2885,10 +3153,10 @@
     </row>
     <row r="46" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C46" s="6" t="n">
         <v>0.723385</v>
@@ -2908,10 +3176,10 @@
     </row>
     <row r="47" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C47" s="6" t="n">
         <v>1.3154154</v>
@@ -2931,10 +3199,10 @@
     </row>
     <row r="48" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C48" s="6" t="n">
         <v>1.0656754</v>
@@ -2954,10 +3222,10 @@
     </row>
     <row r="49" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C49" s="6" t="n">
         <v>1.133399</v>
@@ -2977,10 +3245,10 @@
     </row>
     <row r="50" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C50" s="6" t="n">
         <v>1.4079638</v>
@@ -3000,10 +3268,10 @@
     </row>
     <row r="51" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C51" s="6" t="n">
         <v>1.438895</v>
@@ -3023,10 +3291,10 @@
     </row>
     <row r="52" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C52" s="6" t="n">
         <v>1.4429276</v>
@@ -3046,10 +3314,10 @@
     </row>
     <row r="53" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C53" s="6" t="n">
         <v>1.0745438</v>
@@ -3069,10 +3337,10 @@
     </row>
     <row r="54" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C54" s="6" t="n">
         <v>0.8623898</v>
@@ -3092,10 +3360,10 @@
     </row>
     <row r="55" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C55" s="6" t="n">
         <v>0.700015</v>
@@ -3115,10 +3383,10 @@
     </row>
     <row r="56" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C56" s="6" t="n">
         <v>1.6299634</v>
@@ -3138,10 +3406,10 @@
     </row>
     <row r="57" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C57" s="6" t="n">
         <v>1.4681204</v>
@@ -3161,10 +3429,10 @@
     </row>
     <row r="58" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C58" s="6" t="n">
         <v>1.5636632</v>
@@ -3184,10 +3452,10 @@
     </row>
     <row r="59" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C59" s="6" t="n">
         <v>1.8406248</v>
@@ -3207,10 +3475,10 @@
     </row>
     <row r="60" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C60" s="6" t="n">
         <v>1.9536388</v>
@@ -3230,10 +3498,10 @@
     </row>
     <row r="61" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C61" s="6" t="n">
         <v>1.0084918</v>
@@ -3253,10 +3521,10 @@
     </row>
     <row r="62" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C62" s="6" t="n">
         <v>1.3384828</v>
@@ -3276,10 +3544,10 @@
     </row>
     <row r="63" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C63" s="6" t="n">
         <v>1.1073168</v>
@@ -3299,10 +3567,10 @@
     </row>
     <row r="64" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C64" s="6" t="n">
         <v>0.8195546</v>
@@ -3322,10 +3590,10 @@
     </row>
     <row r="65" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C65" s="6" t="n">
         <v>1.6702102</v>
@@ -3345,10 +3613,10 @@
     </row>
     <row r="66" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C66" s="6" t="n">
         <v>1.6342792</v>
@@ -3368,10 +3636,10 @@
     </row>
     <row r="67" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C67" s="6" t="n">
         <v>1.1206874</v>
@@ -3391,10 +3659,10 @@
     </row>
     <row r="68" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C68" s="6" t="n">
         <v>7.9311408</v>
@@ -3414,10 +3682,10 @@
     </row>
     <row r="69" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C69" s="6" t="n">
         <v>10.9320088</v>
@@ -3437,10 +3705,10 @@
     </row>
     <row r="70" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C70" s="6" t="n">
         <v>7.6371168</v>
@@ -3460,10 +3728,10 @@
     </row>
     <row r="71" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C71" s="6" t="n">
         <v>0.8237942</v>
@@ -3483,10 +3751,10 @@
     </row>
     <row r="72" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C72" s="6" t="n">
         <v>0.6151072</v>
@@ -3506,10 +3774,10 @@
     </row>
     <row r="73" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C73" s="6" t="n">
         <v>0.63288</v>
@@ -3529,10 +3797,10 @@
     </row>
     <row r="74" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C74" s="6" t="n">
         <v>1.663033</v>
@@ -3552,10 +3820,10 @@
     </row>
     <row r="75" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C75" s="6" t="n">
         <v>1.6378114</v>
@@ -3575,10 +3843,10 @@
     </row>
     <row r="76" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C76" s="6" t="n">
         <v>1.3962722</v>
@@ -3598,10 +3866,10 @@
     </row>
     <row r="77" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C77" s="6" t="n">
         <v>1.2992894</v>
@@ -3621,10 +3889,10 @@
     </row>
     <row r="78" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C78" s="6" t="n">
         <v>1.234027</v>
@@ -3644,10 +3912,10 @@
     </row>
     <row r="79" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C79" s="6" t="n">
         <v>1.2583188</v>
@@ -3667,10 +3935,10 @@
     </row>
     <row r="80" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C80" s="6" t="n">
         <v>1.3631308</v>
@@ -3690,10 +3958,10 @@
     </row>
     <row r="81" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C81" s="6" t="n">
         <v>1.3333192</v>
@@ -3713,10 +3981,10 @@
     </row>
     <row r="82" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C82" s="6" t="n">
         <v>1.7940134</v>
@@ -3736,10 +4004,10 @@
     </row>
     <row r="83" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C83" s="6" t="n">
         <v>0.4102018</v>
@@ -3759,10 +4027,10 @@
     </row>
     <row r="84" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C84" s="6" t="n">
         <v>0.5874278</v>
@@ -3782,10 +4050,10 @@
     </row>
     <row r="85" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C85" s="6" t="n">
         <v>0.3341112</v>
@@ -3805,10 +4073,10 @@
     </row>
     <row r="86" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C86" s="6" t="n">
         <v>0.3796308</v>
@@ -3828,10 +4096,10 @@
     </row>
     <row r="87" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C87" s="6" t="n">
         <v>0.352177</v>
@@ -3851,10 +4119,10 @@
     </row>
     <row r="88" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C88" s="6" t="n">
         <v>0.3734102</v>
@@ -3874,10 +4142,10 @@
     </row>
     <row r="89" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C89" s="6" t="n">
         <v>0.9343722</v>
@@ -3897,10 +4165,10 @@
     </row>
     <row r="90" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C90" s="6" t="n">
         <v>1.208302</v>
@@ -3920,10 +4188,10 @@
     </row>
     <row r="91" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C91" s="6" t="n">
         <v>1.5643722</v>
@@ -3943,10 +4211,10 @@
     </row>
     <row r="92" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C92" s="6" t="n">
         <v>1.0216532</v>
@@ -3966,10 +4234,10 @@
     </row>
     <row r="93" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C93" s="6" t="n">
         <v>1.143289</v>
@@ -3989,10 +4257,10 @@
     </row>
     <row r="94" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C94" s="6" t="n">
         <v>1.143289</v>
@@ -4012,10 +4280,10 @@
     </row>
     <row r="95" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C95" s="6" t="n">
         <v>0.6851584</v>
@@ -4035,10 +4303,10 @@
     </row>
     <row r="96" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C96" s="6" t="n">
         <v>0.665339</v>
@@ -4058,10 +4326,10 @@
     </row>
     <row r="97" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C97" s="6" t="n">
         <v>0.7141972</v>
@@ -4081,10 +4349,10 @@
     </row>
     <row r="98" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C98" s="6" t="n">
         <v>0.7451076</v>
@@ -4104,10 +4372,10 @@
     </row>
     <row r="99" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C99" s="6" t="n">
         <v>1.1788924</v>
@@ -4127,10 +4395,10 @@
     </row>
     <row r="100" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C100" s="6" t="n">
         <v>0.9220624</v>
@@ -4150,10 +4418,10 @@
     </row>
     <row r="101" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C101" s="6" t="n">
         <v>1.5814634</v>
@@ -4173,10 +4441,10 @@
     </row>
     <row r="102" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C102" s="6" t="n">
         <v>1.5000772</v>
@@ -4196,10 +4464,10 @@
     </row>
     <row r="103" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C103" s="6" t="n">
         <v>1.6230934</v>
@@ -4219,10 +4487,10 @@
     </row>
     <row r="104" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C104" s="6" t="n">
         <v>0.56612</v>
@@ -4242,10 +4510,10 @@
     </row>
     <row r="105" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C105" s="6" t="n">
         <v>0.6203896</v>
@@ -4265,10 +4533,10 @@
     </row>
     <row r="106" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C106" s="6" t="n">
         <v>0.6112798</v>
@@ -4288,10 +4556,10 @@
     </row>
     <row r="107" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C107" s="6" t="n">
         <v>0.5817766</v>
@@ -4311,10 +4579,10 @@
     </row>
     <row r="108" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C108" s="6" t="n">
         <v>0.6735444</v>
@@ -4334,10 +4602,10 @@
     </row>
     <row r="109" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C109" s="6" t="n">
         <v>0.6949966</v>
@@ -4357,10 +4625,10 @@
     </row>
     <row r="110" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C110" s="6" t="n">
         <v>1.608163</v>
@@ -4380,10 +4648,10 @@
     </row>
     <row r="111" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C111" s="6" t="n">
         <v>1.603019</v>
@@ -4403,10 +4671,10 @@
     </row>
     <row r="112" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C112" s="6" t="n">
         <v>1.8030874</v>
@@ -4426,10 +4694,10 @@
     </row>
     <row r="113" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C113" s="6" t="n">
         <v>2.5384322</v>
@@ -4449,10 +4717,10 @@
     </row>
     <row r="114" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C114" s="6" t="n">
         <v>0.6581774</v>
@@ -4472,10 +4740,10 @@
     </row>
     <row r="115" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C115" s="6" t="n">
         <v>0.5538518</v>
@@ -4495,10 +4763,10 @@
     </row>
     <row r="116" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C116" s="6" t="n">
         <v>0.809183</v>
@@ -4518,10 +4786,10 @@
     </row>
     <row r="117" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C117" s="6" t="n">
         <v>0.6960294</v>
@@ -4541,10 +4809,10 @@
     </row>
     <row r="118" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C118" s="6" t="n">
         <v>0.7090524</v>
@@ -4564,10 +4832,10 @@
     </row>
     <row r="119" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C119" s="6" t="n">
         <v>0.535599</v>
@@ -4587,10 +4855,10 @@
     </row>
     <row r="120" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C120" s="6" t="n">
         <v>0.6985058</v>
@@ -4610,10 +4878,10 @@
     </row>
     <row r="121" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C121" s="6" t="n">
         <v>0.7176242</v>
@@ -4633,10 +4901,10 @@
     </row>
     <row r="122" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C122" s="6" t="n">
         <v>0.7684588</v>
@@ -4656,10 +4924,10 @@
     </row>
     <row r="123" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C123" s="6" t="n">
         <v>0.6443748</v>
@@ -4679,10 +4947,10 @@
     </row>
     <row r="124" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C124" s="6" t="n">
         <v>0.7871676</v>
@@ -4700,12 +4968,12 @@
         <v>0.672591</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C125" s="6" t="n">
         <v>0.6922436</v>
@@ -4723,12 +4991,12 @@
         <v>0.722484</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C126" s="6" t="n">
         <v>0.6227758</v>
@@ -4746,12 +5014,12 @@
         <v>0.643026</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C127" s="6" t="n">
         <v>0.5865706</v>
@@ -4769,6 +5037,367 @@
         <v>0.6461234</v>
       </c>
     </row>
+    <row r="128" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C128" s="6" t="n">
+        <v>0.7540986</v>
+      </c>
+      <c r="D128" s="6" t="n">
+        <v>0.5949286</v>
+      </c>
+      <c r="E128" s="6" t="n">
+        <v>0.5698202</v>
+      </c>
+      <c r="F128" s="6" t="n">
+        <v>1.3077732</v>
+      </c>
+      <c r="G128" s="6" t="n">
+        <v>0.4817562</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C129" s="6" t="n">
+        <v>1.2151568</v>
+      </c>
+      <c r="D129" s="6" t="n">
+        <v>0.4992378</v>
+      </c>
+      <c r="E129" s="6" t="n">
+        <v>0.5411512</v>
+      </c>
+      <c r="F129" s="6" t="n">
+        <v>1.5471966</v>
+      </c>
+      <c r="G129" s="6" t="n">
+        <v>0.5429606</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C130" s="6" t="n">
+        <v>0.6040666</v>
+      </c>
+      <c r="D130" s="6" t="n">
+        <v>0.4863712</v>
+      </c>
+      <c r="E130" s="6" t="n">
+        <v>0.5306262</v>
+      </c>
+      <c r="F130" s="6" t="n">
+        <v>1.2758974</v>
+      </c>
+      <c r="G130" s="6" t="n">
+        <v>0.7055942</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C131" s="6" t="n">
+        <v>0.3228684</v>
+      </c>
+      <c r="D131" s="6" t="n">
+        <v>0.408533</v>
+      </c>
+      <c r="E131" s="6" t="n">
+        <v>0.3084132</v>
+      </c>
+      <c r="F131" s="6" t="n">
+        <v>1.1305376</v>
+      </c>
+      <c r="G131" s="6" t="n">
+        <v>0.3205666</v>
+      </c>
+      <c r="H131" s="6" t="n">
+        <v>1.6187442</v>
+      </c>
+      <c r="I131" s="6" t="n">
+        <v>0.6486978</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C132" s="6" t="n">
+        <v>0.3450126</v>
+      </c>
+      <c r="D132" s="6" t="n">
+        <v>0.334893</v>
+      </c>
+      <c r="E132" s="6" t="n">
+        <v>0.3108144</v>
+      </c>
+      <c r="F132" s="6" t="n">
+        <v>1.1207686</v>
+      </c>
+      <c r="G132" s="6" t="n">
+        <v>0.3213364</v>
+      </c>
+      <c r="H132" s="6" t="n">
+        <v>1.6712834</v>
+      </c>
+      <c r="I132" s="6" t="n">
+        <v>0.6705758</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C133" s="6" t="n">
+        <v>0.3857904</v>
+      </c>
+      <c r="D133" s="6" t="n">
+        <v>0.2980498</v>
+      </c>
+      <c r="E133" s="6" t="n">
+        <v>0.3274986</v>
+      </c>
+      <c r="F133" s="6" t="n">
+        <v>1.1397222</v>
+      </c>
+      <c r="G133" s="6" t="n">
+        <v>0.3389942</v>
+      </c>
+      <c r="H133" s="6" t="n">
+        <v>1.645486</v>
+      </c>
+      <c r="I133" s="6" t="n">
+        <v>0.6579118</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C134" s="6" t="n">
+        <v>0.3247864</v>
+      </c>
+      <c r="D134" s="6" t="n">
+        <v>0.2875298</v>
+      </c>
+      <c r="E134" s="6" t="n">
+        <v>0.3522606</v>
+      </c>
+      <c r="F134" s="6" t="n">
+        <v>1.0420238</v>
+      </c>
+      <c r="G134" s="6" t="n">
+        <v>0.3793128</v>
+      </c>
+      <c r="H134" s="6" t="n">
+        <v>1.5782858</v>
+      </c>
+      <c r="I134" s="6" t="n">
+        <v>0.6907566</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C135" s="6" t="n">
+        <v>0.3609508</v>
+      </c>
+      <c r="D135" s="6" t="n">
+        <v>0.326058</v>
+      </c>
+      <c r="E135" s="6" t="n">
+        <v>0.3377594</v>
+      </c>
+      <c r="F135" s="6" t="n">
+        <v>1.1027438</v>
+      </c>
+      <c r="G135" s="6" t="n">
+        <v>0.3394614</v>
+      </c>
+      <c r="H135" s="6" t="n">
+        <v>1.7175066</v>
+      </c>
+      <c r="I135" s="6" t="n">
+        <v>0.8769838</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C136" s="6" t="n">
+        <v>0.3068066</v>
+      </c>
+      <c r="D136" s="6" t="n">
+        <v>0.3727386</v>
+      </c>
+      <c r="E136" s="6" t="n">
+        <v>0.3472876</v>
+      </c>
+      <c r="F136" s="6" t="n">
+        <v>1.1325938</v>
+      </c>
+      <c r="G136" s="6" t="n">
+        <v>0.3153916</v>
+      </c>
+      <c r="H136" s="6" t="n">
+        <v>1.6250262</v>
+      </c>
+      <c r="I136" s="6" t="n">
+        <v>0.6543594</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C137" s="6" t="n">
+        <v>0.3905778</v>
+      </c>
+      <c r="D137" s="6" t="n">
+        <v>0.2902092</v>
+      </c>
+      <c r="E137" s="6" t="n">
+        <v>0.34214</v>
+      </c>
+      <c r="F137" s="6" t="n">
+        <v>1.0742662</v>
+      </c>
+      <c r="G137" s="6" t="n">
+        <v>0.3498916</v>
+      </c>
+      <c r="H137" s="6" t="n">
+        <v>1.5210892</v>
+      </c>
+      <c r="I137" s="6" t="n">
+        <v>0.6613812</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C138" s="6" t="n">
+        <v>2.2668958</v>
+      </c>
+      <c r="D138" s="6" t="n">
+        <v>0.336502</v>
+      </c>
+      <c r="E138" s="6" t="n">
+        <v>0.3102912</v>
+      </c>
+      <c r="F138" s="6" t="n">
+        <v>1.0528804</v>
+      </c>
+      <c r="G138" s="6" t="n">
+        <v>0.314409</v>
+      </c>
+      <c r="H138" s="6" t="n">
+        <v>1.5797814</v>
+      </c>
+      <c r="I138" s="6" t="n">
+        <v>0.645187</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C139" s="6" t="n">
+        <v>0.3833322</v>
+      </c>
+      <c r="D139" s="6" t="n">
+        <v>0.2981894</v>
+      </c>
+      <c r="E139" s="6" t="n">
+        <v>0.3415646</v>
+      </c>
+      <c r="F139" s="6" t="n">
+        <v>1.0575472</v>
+      </c>
+      <c r="G139" s="6" t="n">
+        <v>0.3948416</v>
+      </c>
+      <c r="H139" s="6" t="n">
+        <v>1.639385</v>
+      </c>
+      <c r="I139" s="6" t="n">
+        <v>0.7899138</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C140" s="6" t="n">
+        <v>0.3252976</v>
+      </c>
+      <c r="D140" s="6" t="n">
+        <v>0.2831544</v>
+      </c>
+      <c r="E140" s="6" t="n">
+        <v>0.3015216</v>
+      </c>
+      <c r="F140" s="6" t="n">
+        <v>1.0251602</v>
+      </c>
+      <c r="G140" s="6" t="n">
+        <v>0.3530052</v>
+      </c>
+      <c r="H140" s="6" t="n">
+        <v>1.514162</v>
+      </c>
+      <c r="I140" s="6" t="n">
+        <v>0.6900828</v>
+      </c>
+    </row>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4795,30 +5424,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F120" activeCellId="0" sqref="F120"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E140" activeCellId="0" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="28.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="30.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="23.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="3" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="28.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="30.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="21.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="23.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="17.27"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="3" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -4835,13 +5466,19 @@
       <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="H1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>2.0220664</v>
@@ -4861,10 +5498,10 @@
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>2.4586498</v>
@@ -4884,10 +5521,10 @@
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>2.2529496</v>
@@ -4907,10 +5544,10 @@
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>2.1296676</v>
@@ -4930,10 +5567,10 @@
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>2.0261682</v>
@@ -4953,10 +5590,10 @@
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>2.2829206</v>
@@ -4976,10 +5613,10 @@
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>2.1709282</v>
@@ -4999,10 +5636,10 @@
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>2.1589454</v>
@@ -5022,10 +5659,10 @@
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>2.0390428</v>
@@ -5045,10 +5682,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>2.1974606</v>
@@ -5068,10 +5705,10 @@
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>1.9875636</v>
@@ -5091,10 +5728,10 @@
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>2.0600054</v>
@@ -5114,10 +5751,10 @@
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>2.2632534</v>
@@ -5137,10 +5774,10 @@
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>2.1964826</v>
@@ -5160,10 +5797,10 @@
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>2.9937556</v>
@@ -5183,10 +5820,10 @@
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>2.0752022</v>
@@ -5206,10 +5843,10 @@
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>1.9264546</v>
@@ -5229,10 +5866,10 @@
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>1.8991598</v>
@@ -5252,10 +5889,10 @@
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>2.1821296</v>
@@ -5275,10 +5912,10 @@
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C21" s="6" t="n">
         <v>2.0049728</v>
@@ -5298,10 +5935,10 @@
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C22" s="6" t="n">
         <v>2.3266506</v>
@@ -5321,10 +5958,10 @@
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C23" s="6" t="n">
         <v>2.3525956</v>
@@ -5344,10 +5981,10 @@
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="C24" s="6" t="n">
         <v>2.6861386</v>
@@ -5367,10 +6004,10 @@
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C25" s="6" t="n">
         <v>3.3313938</v>
@@ -5390,10 +6027,10 @@
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="C26" s="6" t="n">
         <v>2.330873</v>
@@ -5413,10 +6050,10 @@
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="C27" s="6" t="n">
         <v>2.4523078</v>
@@ -5436,10 +6073,10 @@
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="C28" s="6" t="n">
         <v>2.3690538</v>
@@ -5459,10 +6096,10 @@
     </row>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C29" s="6" t="n">
         <v>2.031089</v>
@@ -5482,10 +6119,10 @@
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="C30" s="6" t="n">
         <v>2.3269536</v>
@@ -5505,10 +6142,10 @@
     </row>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C31" s="6" t="n">
         <v>1.9530044</v>
@@ -5528,10 +6165,10 @@
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C32" s="6" t="n">
         <v>1.9277496</v>
@@ -5551,10 +6188,10 @@
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C33" s="6" t="n">
         <v>2.7215864</v>
@@ -5574,10 +6211,10 @@
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C34" s="6" t="n">
         <v>2.1495374</v>
@@ -5597,10 +6234,10 @@
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C35" s="6" t="n">
         <v>2.2529496</v>
@@ -5620,10 +6257,10 @@
     </row>
     <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C36" s="6" t="n">
         <v>2.1296676</v>
@@ -5643,10 +6280,10 @@
     </row>
     <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C37" s="6" t="n">
         <v>2.0261682</v>
@@ -5666,10 +6303,10 @@
     </row>
     <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="C38" s="6" t="n">
         <v>2.138844</v>
@@ -5689,10 +6326,10 @@
     </row>
     <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="C39" s="6" t="n">
         <v>2.569399</v>
@@ -5712,10 +6349,10 @@
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C40" s="6" t="n">
         <v>2.2719068</v>
@@ -5735,10 +6372,10 @@
     </row>
     <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="C41" s="6" t="n">
         <v>2.4505342</v>
@@ -5758,10 +6395,10 @@
     </row>
     <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="C42" s="6" t="n">
         <v>2.5803136</v>
@@ -5781,10 +6418,10 @@
     </row>
     <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C43" s="6" t="n">
         <v>2.245899</v>
@@ -5804,10 +6441,10 @@
     </row>
     <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="C44" s="6" t="n">
         <v>2.4560934</v>
@@ -5827,10 +6464,10 @@
     </row>
     <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="C45" s="6" t="n">
         <v>2.0923624</v>
@@ -5850,10 +6487,10 @@
     </row>
     <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C46" s="6" t="n">
         <v>2.7843442</v>
@@ -5873,10 +6510,10 @@
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C47" s="6" t="n">
         <v>2.5149182</v>
@@ -5896,10 +6533,10 @@
     </row>
     <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C48" s="6" t="n">
         <v>3.1230162</v>
@@ -5919,10 +6556,10 @@
     </row>
     <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C49" s="6" t="n">
         <v>3.6995458</v>
@@ -5942,10 +6579,10 @@
     </row>
     <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C50" s="6" t="n">
         <v>2.7353538</v>
@@ -5965,10 +6602,10 @@
     </row>
     <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C51" s="6" t="n">
         <v>3.3092548</v>
@@ -5988,10 +6625,10 @@
     </row>
     <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C52" s="6" t="n">
         <v>2.6670216</v>
@@ -6011,10 +6648,10 @@
     </row>
     <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C53" s="6" t="n">
         <v>2.9713202</v>
@@ -6034,10 +6671,10 @@
     </row>
     <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C54" s="6" t="n">
         <v>3.0476272</v>
@@ -6057,10 +6694,10 @@
     </row>
     <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C55" s="6" t="n">
         <v>2.9359362</v>
@@ -6080,10 +6717,10 @@
     </row>
     <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C56" s="6" t="n">
         <v>2.880869</v>
@@ -6103,10 +6740,10 @@
     </row>
     <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="C57" s="6" t="n">
         <v>2.9062288</v>
@@ -6126,10 +6763,10 @@
     </row>
     <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C58" s="6" t="n">
         <v>3.2163508</v>
@@ -6149,10 +6786,10 @@
     </row>
     <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C59" s="6" t="n">
         <v>3.3779322</v>
@@ -6172,10 +6809,10 @@
     </row>
     <row r="60" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C60" s="6" t="n">
         <v>4.1695636</v>
@@ -6195,10 +6832,10 @@
     </row>
     <row r="61" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C61" s="6" t="n">
         <v>2.4829768</v>
@@ -6218,10 +6855,10 @@
     </row>
     <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C62" s="6" t="n">
         <v>2.3930146</v>
@@ -6241,10 +6878,10 @@
     </row>
     <row r="63" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C63" s="6" t="n">
         <v>2.439783</v>
@@ -6264,10 +6901,10 @@
     </row>
     <row r="64" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C64" s="6" t="n">
         <v>2.4509054</v>
@@ -6287,10 +6924,10 @@
     </row>
     <row r="65" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C65" s="6" t="n">
         <v>2.0647184</v>
@@ -6310,10 +6947,10 @@
     </row>
     <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="C66" s="6" t="n">
         <v>3.3981744</v>
@@ -6333,10 +6970,10 @@
     </row>
     <row r="67" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C67" s="6" t="n">
         <v>2.0062282</v>
@@ -6356,10 +6993,10 @@
     </row>
     <row r="68" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="C68" s="6" t="n">
         <v>5.4740242</v>
@@ -6379,10 +7016,10 @@
     </row>
     <row r="69" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="C69" s="6" t="n">
         <v>5.0492016</v>
@@ -6402,10 +7039,10 @@
     </row>
     <row r="70" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C70" s="6" t="n">
         <v>5.2855848</v>
@@ -6425,10 +7062,10 @@
     </row>
     <row r="71" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C71" s="6" t="n">
         <v>2.417539</v>
@@ -6448,10 +7085,10 @@
     </row>
     <row r="72" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C72" s="6" t="n">
         <v>2.4461954</v>
@@ -6471,10 +7108,10 @@
     </row>
     <row r="73" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C73" s="6" t="n">
         <v>2.2478822</v>
@@ -6494,10 +7131,10 @@
     </row>
     <row r="74" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C74" s="6" t="n">
         <v>2.8062982</v>
@@ -6517,10 +7154,10 @@
     </row>
     <row r="75" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="C75" s="6" t="n">
         <v>2.7314032</v>
@@ -6540,10 +7177,10 @@
     </row>
     <row r="76" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C76" s="6" t="n">
         <v>2.7375454</v>
@@ -6563,10 +7200,10 @@
     </row>
     <row r="77" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C77" s="6" t="n">
         <v>2.5745222</v>
@@ -6586,10 +7223,10 @@
     </row>
     <row r="78" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C78" s="6" t="n">
         <v>2.513751</v>
@@ -6609,10 +7246,10 @@
     </row>
     <row r="79" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="C79" s="6" t="n">
         <v>2.5848074</v>
@@ -6632,10 +7269,10 @@
     </row>
     <row r="80" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C80" s="6" t="n">
         <v>2.5453522</v>
@@ -6655,10 +7292,10 @@
     </row>
     <row r="81" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C81" s="6" t="n">
         <v>2.6043712</v>
@@ -6678,10 +7315,10 @@
     </row>
     <row r="82" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C82" s="6" t="n">
         <v>2.9279438</v>
@@ -6701,10 +7338,10 @@
     </row>
     <row r="83" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C83" s="6" t="n">
         <v>2.0692152</v>
@@ -6724,10 +7361,10 @@
     </row>
     <row r="84" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C84" s="6" t="n">
         <v>2.1317158</v>
@@ -6747,10 +7384,10 @@
     </row>
     <row r="85" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C85" s="6" t="n">
         <v>2.149366</v>
@@ -6770,10 +7407,10 @@
     </row>
     <row r="86" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C86" s="6" t="n">
         <v>1.8947846</v>
@@ -6793,10 +7430,10 @@
     </row>
     <row r="87" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C87" s="6" t="n">
         <v>1.8616348</v>
@@ -6816,10 +7453,10 @@
     </row>
     <row r="88" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C88" s="6" t="n">
         <v>1.9251046</v>
@@ -6839,10 +7476,10 @@
     </row>
     <row r="89" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C89" s="6" t="n">
         <v>2.1296676</v>
@@ -6862,10 +7499,10 @@
     </row>
     <row r="90" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C90" s="6" t="n">
         <v>2.0261682</v>
@@ -6885,10 +7522,10 @@
     </row>
     <row r="91" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C91" s="6" t="n">
         <v>2.2829206</v>
@@ -6908,10 +7545,10 @@
     </row>
     <row r="92" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="C92" s="6" t="n">
         <v>2.543308</v>
@@ -6931,10 +7568,10 @@
     </row>
     <row r="93" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="C93" s="6" t="n">
         <v>2.6339666</v>
@@ -6954,10 +7591,10 @@
     </row>
     <row r="94" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C94" s="6" t="n">
         <v>2.4568346</v>
@@ -6977,10 +7614,10 @@
     </row>
     <row r="95" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C95" s="6" t="n">
         <v>2.043357</v>
@@ -7000,10 +7637,10 @@
     </row>
     <row r="96" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C96" s="6" t="n">
         <v>2.3279774</v>
@@ -7023,10 +7660,10 @@
     </row>
     <row r="97" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C97" s="6" t="n">
         <v>2.378946</v>
@@ -7046,10 +7683,10 @@
     </row>
     <row r="98" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C98" s="6" t="n">
         <v>2.3399916</v>
@@ -7069,10 +7706,10 @@
     </row>
     <row r="99" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C99" s="6" t="n">
         <v>2.3624496</v>
@@ -7092,10 +7729,10 @@
     </row>
     <row r="100" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="C100" s="6" t="n">
         <v>2.403287</v>
@@ -7115,10 +7752,10 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C101" s="6" t="n">
         <v>2.7751528</v>
@@ -7138,10 +7775,10 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="C102" s="6" t="n">
         <v>3.021798</v>
@@ -7161,10 +7798,10 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C103" s="6" t="n">
         <v>2.9884092</v>
@@ -7184,10 +7821,10 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C104" s="6" t="n">
         <v>2.0631788</v>
@@ -7207,10 +7844,10 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="C105" s="6" t="n">
         <v>2.1870164</v>
@@ -7230,10 +7867,10 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C106" s="6" t="n">
         <v>2.0608488</v>
@@ -7253,10 +7890,10 @@
     </row>
     <row r="107" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C107" s="6" t="n">
         <v>2.208845</v>
@@ -7276,10 +7913,10 @@
     </row>
     <row r="108" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C108" s="6" t="n">
         <v>2.2049458</v>
@@ -7299,10 +7936,10 @@
     </row>
     <row r="109" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C109" s="6" t="n">
         <v>2.3031762</v>
@@ -7322,10 +7959,10 @@
     </row>
     <row r="110" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C110" s="6" t="n">
         <v>2.8396736</v>
@@ -7345,10 +7982,10 @@
     </row>
     <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C111" s="6" t="n">
         <v>2.8589642</v>
@@ -7368,10 +8005,10 @@
     </row>
     <row r="112" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C112" s="6" t="n">
         <v>3.1252114</v>
@@ -7391,10 +8028,10 @@
     </row>
     <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C113" s="6" t="n">
         <v>2.6639372</v>
@@ -7414,10 +8051,10 @@
     </row>
     <row r="114" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C114" s="6" t="n">
         <v>2.0396904</v>
@@ -7437,10 +8074,10 @@
     </row>
     <row r="115" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C115" s="6" t="n">
         <v>2.1219888</v>
@@ -7460,10 +8097,10 @@
     </row>
     <row r="116" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C116" s="6" t="n">
         <v>2.3290526</v>
@@ -7483,10 +8120,10 @@
     </row>
     <row r="117" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C117" s="6" t="n">
         <v>2.2562324</v>
@@ -7506,10 +8143,10 @@
     </row>
     <row r="118" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="C118" s="6" t="n">
         <v>2.4562324</v>
@@ -7529,10 +8166,10 @@
     </row>
     <row r="119" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="C119" s="6" t="n">
         <v>2.5949094</v>
@@ -7552,10 +8189,10 @@
     </row>
     <row r="120" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C120" s="6" t="n">
         <v>2.0148352</v>
@@ -7575,10 +8212,10 @@
     </row>
     <row r="121" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="C121" s="6" t="n">
         <v>1.9941926</v>
@@ -7598,10 +8235,10 @@
     </row>
     <row r="122" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="C122" s="6" t="n">
         <v>2.4594108</v>
@@ -7621,10 +8258,10 @@
     </row>
     <row r="123" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C123" s="6" t="n">
         <v>2.3001484</v>
@@ -7644,10 +8281,10 @@
     </row>
     <row r="124" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C124" s="6" t="n">
         <v>2.426281</v>
@@ -7665,12 +8302,12 @@
         <v>1.3497206</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C125" s="6" t="n">
         <v>2.0343828</v>
@@ -7688,12 +8325,12 @@
         <v>1.1209586</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C126" s="6" t="n">
         <v>2.103657</v>
@@ -7711,12 +8348,12 @@
         <v>1.172806</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C127" s="6" t="n">
         <v>2.2297076</v>
@@ -7734,6 +8371,368 @@
         <v>1.1346302</v>
       </c>
     </row>
+    <row r="128" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C128" s="6" t="n">
+        <v>2.2549918</v>
+      </c>
+      <c r="D128" s="6" t="n">
+        <v>3.859569</v>
+      </c>
+      <c r="E128" s="6" t="n">
+        <v>1.383845</v>
+      </c>
+      <c r="F128" s="6" t="n">
+        <v>2.4454182</v>
+      </c>
+      <c r="G128" s="6" t="n">
+        <v>1.1292424</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C129" s="6" t="n">
+        <v>2.0182956</v>
+      </c>
+      <c r="D129" s="6" t="n">
+        <v>1.1494548</v>
+      </c>
+      <c r="E129" s="6" t="n">
+        <v>1.066213</v>
+      </c>
+      <c r="F129" s="6" t="n">
+        <v>1.9991436</v>
+      </c>
+      <c r="G129" s="6" t="n">
+        <v>1.258208</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C130" s="6" t="n">
+        <v>1.9619838</v>
+      </c>
+      <c r="D130" s="6" t="n">
+        <v>1.158596</v>
+      </c>
+      <c r="E130" s="6" t="n">
+        <v>1.1577724</v>
+      </c>
+      <c r="F130" s="6" t="n">
+        <v>2.3169642</v>
+      </c>
+      <c r="G130" s="6" t="n">
+        <v>1.345248</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C131" s="6" t="n">
+        <v>2.067788</v>
+      </c>
+      <c r="D131" s="6" t="n">
+        <v>3.0133834</v>
+      </c>
+      <c r="E131" s="6" t="n">
+        <v>1.0633186</v>
+      </c>
+      <c r="F131" s="6" t="n">
+        <v>1.9053654</v>
+      </c>
+      <c r="G131" s="6" t="n">
+        <v>0.9232482</v>
+      </c>
+      <c r="H131" s="6" t="n">
+        <v>0.9355292</v>
+      </c>
+      <c r="I131" s="6" t="n">
+        <v>0.6212</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C132" s="6" t="n">
+        <v>2.0601704</v>
+      </c>
+      <c r="D132" s="6" t="n">
+        <v>3.5574894</v>
+      </c>
+      <c r="E132" s="6" t="n">
+        <v>1.1172368</v>
+      </c>
+      <c r="F132" s="6" t="n">
+        <v>2.0716694</v>
+      </c>
+      <c r="G132" s="6" t="n">
+        <v>0.8445814</v>
+      </c>
+      <c r="H132" s="6" t="n">
+        <v>0.8525998</v>
+      </c>
+      <c r="I132" s="6" t="n">
+        <v>0.6980102</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C133" s="6" t="n">
+        <v>1.8671148</v>
+      </c>
+      <c r="D133" s="6" t="n">
+        <v>0.815954</v>
+      </c>
+      <c r="E133" s="6" t="n">
+        <v>0.9962004</v>
+      </c>
+      <c r="F133" s="6" t="n">
+        <v>1.8167778</v>
+      </c>
+      <c r="G133" s="6" t="n">
+        <v>0.8964024</v>
+      </c>
+      <c r="H133" s="6" t="n">
+        <v>0.7961186</v>
+      </c>
+      <c r="I133" s="6" t="n">
+        <v>0.633809</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C134" s="6" t="n">
+        <v>1.9242454</v>
+      </c>
+      <c r="D134" s="6" t="n">
+        <v>0.8146674</v>
+      </c>
+      <c r="E134" s="6" t="n">
+        <v>0.8806344</v>
+      </c>
+      <c r="F134" s="6" t="n">
+        <v>1.7634806</v>
+      </c>
+      <c r="G134" s="6" t="n">
+        <v>0.7960974</v>
+      </c>
+      <c r="H134" s="6" t="n">
+        <v>1.2283224</v>
+      </c>
+      <c r="I134" s="6" t="n">
+        <v>0.6734314</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C135" s="6" t="n">
+        <v>1.8668164</v>
+      </c>
+      <c r="D135" s="6" t="n">
+        <v>0.7324552</v>
+      </c>
+      <c r="E135" s="6" t="n">
+        <v>0.8986916</v>
+      </c>
+      <c r="F135" s="6" t="n">
+        <v>1.795027</v>
+      </c>
+      <c r="G135" s="6" t="n">
+        <v>0.8641656</v>
+      </c>
+      <c r="H135" s="6" t="n">
+        <v>0.8967206</v>
+      </c>
+      <c r="I135" s="6" t="n">
+        <v>0.6781652</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C136" s="6" t="n">
+        <v>1.8723224</v>
+      </c>
+      <c r="D136" s="6" t="n">
+        <v>0.8636454</v>
+      </c>
+      <c r="E136" s="6" t="n">
+        <v>0.7885114</v>
+      </c>
+      <c r="F136" s="6" t="n">
+        <v>1.5902236</v>
+      </c>
+      <c r="G136" s="6" t="n">
+        <v>0.815151</v>
+      </c>
+      <c r="H136" s="6" t="n">
+        <v>0.8200766</v>
+      </c>
+      <c r="I136" s="6" t="n">
+        <v>0.6826798</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C137" s="6" t="n">
+        <v>2.0855854</v>
+      </c>
+      <c r="D137" s="6" t="n">
+        <v>1.1081166</v>
+      </c>
+      <c r="E137" s="6" t="n">
+        <v>0.7894504</v>
+      </c>
+      <c r="F137" s="6" t="n">
+        <v>1.6728018</v>
+      </c>
+      <c r="G137" s="6" t="n">
+        <v>0.9003946</v>
+      </c>
+      <c r="H137" s="6" t="n">
+        <v>0.8557672</v>
+      </c>
+      <c r="I137" s="6" t="n">
+        <v>0.7005206</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C138" s="6" t="n">
+        <v>1.8605924</v>
+      </c>
+      <c r="D138" s="6" t="n">
+        <v>0.7913432</v>
+      </c>
+      <c r="E138" s="6" t="n">
+        <v>0.9488054</v>
+      </c>
+      <c r="F138" s="6" t="n">
+        <v>1.8132816</v>
+      </c>
+      <c r="G138" s="6" t="n">
+        <v>0.851095</v>
+      </c>
+      <c r="H138" s="6" t="n">
+        <v>0.9333004</v>
+      </c>
+      <c r="I138" s="6" t="n">
+        <v>0.5986152</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C139" s="6" t="n">
+        <v>2.0298192</v>
+      </c>
+      <c r="D139" s="6" t="n">
+        <v>0.7620444</v>
+      </c>
+      <c r="E139" s="6" t="n">
+        <v>0.822041</v>
+      </c>
+      <c r="F139" s="6" t="n">
+        <v>1.7244126</v>
+      </c>
+      <c r="G139" s="6" t="n">
+        <v>0.8673864</v>
+      </c>
+      <c r="H139" s="6" t="n">
+        <v>0.9168794</v>
+      </c>
+      <c r="I139" s="6" t="n">
+        <v>0.6515966</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C140" s="6" t="n">
+        <v>1.8715292</v>
+      </c>
+      <c r="D140" s="6" t="n">
+        <v>0.8126602</v>
+      </c>
+      <c r="E140" s="6" t="n">
+        <v>0.9682242</v>
+      </c>
+      <c r="F140" s="6" t="n">
+        <v>1.7894434</v>
+      </c>
+      <c r="G140" s="6" t="n">
+        <v>0.8898066</v>
+      </c>
+      <c r="H140" s="6" t="n">
+        <v>0.8561826</v>
+      </c>
+      <c r="I140" s="6" t="n">
+        <v>0.6531768</v>
+      </c>
+    </row>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7759,30 +8758,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D109" activeCellId="0" sqref="D109"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F127" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I143" activeCellId="0" sqref="I143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="28.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="30.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="23.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="3" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="28.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="30.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="21.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="23.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="17.27"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="3" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -7799,13 +8800,19 @@
       <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="H1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>0.7804054</v>
@@ -7825,10 +8832,10 @@
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>0.7779802</v>
@@ -7848,10 +8855,10 @@
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>0.7043458</v>
@@ -7871,10 +8878,10 @@
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>0.7145706</v>
@@ -7894,10 +8901,10 @@
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>0.7079038</v>
@@ -7917,10 +8924,10 @@
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>0.649763</v>
@@ -7940,10 +8947,10 @@
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>0.6280168</v>
@@ -7963,10 +8970,10 @@
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>0.6548006</v>
@@ -7986,10 +8993,10 @@
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>0.7373706</v>
@@ -8009,10 +9016,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>0.6173612</v>
@@ -8032,10 +9039,10 @@
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>0.7234852</v>
@@ -8055,10 +9062,10 @@
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>1.0065856</v>
@@ -8078,10 +9085,10 @@
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>0.9827806</v>
@@ -8101,10 +9108,10 @@
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>0.9418642</v>
@@ -8124,10 +9131,10 @@
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>0.3510038</v>
@@ -8147,10 +9154,10 @@
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>0.5421752</v>
@@ -8170,10 +9177,10 @@
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>0.5591408</v>
@@ -8193,10 +9200,10 @@
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>0.5551518</v>
@@ -8216,10 +9223,10 @@
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>0.6955578</v>
@@ -8239,10 +9246,10 @@
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C21" s="6" t="n">
         <v>0.7626896</v>
@@ -8262,10 +9269,10 @@
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C22" s="6" t="n">
         <v>0.6191008</v>
@@ -8285,10 +9292,10 @@
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="C23" s="6" t="n">
         <v>0.9795414</v>
@@ -8308,10 +9315,10 @@
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="C24" s="6" t="n">
         <v>3.7305486</v>
@@ -8331,10 +9338,10 @@
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="C25" s="6" t="n">
         <v>2.3842444</v>
@@ -8354,10 +9361,10 @@
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="C26" s="6" t="n">
         <v>2.139728</v>
@@ -8377,10 +9384,10 @@
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="C27" s="6" t="n">
         <v>0.7112716</v>
@@ -8400,10 +9407,10 @@
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C28" s="6" t="n">
         <v>0.67812</v>
@@ -8423,10 +9430,10 @@
     </row>
     <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C29" s="6" t="n">
         <v>0.6440876</v>
@@ -8446,10 +9453,10 @@
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="C30" s="6" t="n">
         <v>0.712753</v>
@@ -8469,10 +9476,10 @@
     </row>
     <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C31" s="6" t="n">
         <v>0.630812</v>
@@ -8492,10 +9499,10 @@
     </row>
     <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C32" s="6" t="n">
         <v>0.7632588</v>
@@ -8515,10 +9522,10 @@
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="C33" s="6" t="n">
         <v>0.7013216</v>
@@ -8538,10 +9545,10 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C34" s="6" t="n">
         <v>0.7241244</v>
@@ -8561,10 +9568,10 @@
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C35" s="6" t="n">
         <v>0.8176308</v>
@@ -8584,10 +9591,10 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="C36" s="6" t="n">
         <v>0.7043458</v>
@@ -8607,10 +9614,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="C37" s="6" t="n">
         <v>0.7145706</v>
@@ -8630,10 +9637,10 @@
     </row>
     <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="C38" s="6" t="n">
         <v>1.2584274</v>
@@ -8653,10 +9660,10 @@
     </row>
     <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="C39" s="6" t="n">
         <v>1.3856258</v>
@@ -8676,10 +9683,10 @@
     </row>
     <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C40" s="6" t="n">
         <v>1.1413118</v>
@@ -8699,10 +9706,10 @@
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="C41" s="6" t="n">
         <v>2.0516946</v>
@@ -8722,10 +9729,10 @@
     </row>
     <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C42" s="6" t="n">
         <v>0.7008908</v>
@@ -8745,10 +9752,10 @@
     </row>
     <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C43" s="6" t="n">
         <v>0.616032</v>
@@ -8768,10 +9775,10 @@
     </row>
     <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="C44" s="6" t="n">
         <v>0.7883284</v>
@@ -8791,10 +9798,10 @@
     </row>
     <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C45" s="6" t="n">
         <v>0.7723322</v>
@@ -8814,10 +9821,10 @@
     </row>
     <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="C46" s="6" t="n">
         <v>0.6814198</v>
@@ -8837,10 +9844,10 @@
     </row>
     <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C47" s="6" t="n">
         <v>1.5693422</v>
@@ -8860,10 +9867,10 @@
     </row>
     <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C48" s="6" t="n">
         <v>0.8541094</v>
@@ -8883,10 +9890,10 @@
     </row>
     <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C49" s="6" t="n">
         <v>1.1405132</v>
@@ -8906,10 +9913,10 @@
     </row>
     <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C50" s="6" t="n">
         <v>1.3281992</v>
@@ -8929,10 +9936,10 @@
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="C51" s="6" t="n">
         <v>1.4049502</v>
@@ -8952,10 +9959,10 @@
     </row>
     <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C52" s="6" t="n">
         <v>1.7486656</v>
@@ -8975,10 +9982,10 @@
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="C53" s="6" t="n">
         <v>0.9897652</v>
@@ -8998,10 +10005,10 @@
     </row>
     <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C54" s="6" t="n">
         <v>1.3823074</v>
@@ -9021,10 +10028,10 @@
     </row>
     <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C55" s="6" t="n">
         <v>0.8482162</v>
@@ -9044,10 +10051,10 @@
     </row>
     <row r="56" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="C56" s="6" t="n">
         <v>1.2353042</v>
@@ -9067,10 +10074,10 @@
     </row>
     <row r="57" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C57" s="6" t="n">
         <v>1.1721124</v>
@@ -9090,10 +10097,10 @@
     </row>
     <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="C58" s="6" t="n">
         <v>1.2364662</v>
@@ -9113,10 +10120,10 @@
     </row>
     <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C59" s="6" t="n">
         <v>0.8871426</v>
@@ -9136,10 +10143,10 @@
     </row>
     <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="C60" s="6" t="n">
         <v>1.1438926</v>
@@ -9159,10 +10166,10 @@
     </row>
     <row r="61" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="C61" s="6" t="n">
         <v>0.6579276</v>
@@ -9182,10 +10189,10 @@
     </row>
     <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C62" s="6" t="n">
         <v>0.6880544</v>
@@ -9205,10 +10212,10 @@
     </row>
     <row r="63" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C63" s="6" t="n">
         <v>0.9275146</v>
@@ -9228,10 +10235,10 @@
     </row>
     <row r="64" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C64" s="6" t="n">
         <v>0.6633352</v>
@@ -9251,10 +10258,10 @@
     </row>
     <row r="65" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="C65" s="6" t="n">
         <v>1.8978822</v>
@@ -9274,10 +10281,10 @@
     </row>
     <row r="66" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="C66" s="6" t="n">
         <v>1.1060998</v>
@@ -9297,10 +10304,10 @@
     </row>
     <row r="67" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="C67" s="6" t="n">
         <v>1.6069744</v>
@@ -9320,10 +10327,10 @@
     </row>
     <row r="68" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="C68" s="6" t="n">
         <v>1.6301784</v>
@@ -9343,10 +10350,10 @@
     </row>
     <row r="69" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="C69" s="6" t="n">
         <v>1.5682082</v>
@@ -9366,10 +10373,10 @@
     </row>
     <row r="70" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C70" s="6" t="n">
         <v>1.4442308</v>
@@ -9389,10 +10396,10 @@
     </row>
     <row r="71" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C71" s="6" t="n">
         <v>1.5592828</v>
@@ -9412,10 +10419,10 @@
     </row>
     <row r="72" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C72" s="6" t="n">
         <v>1.4769474</v>
@@ -9435,10 +10442,10 @@
     </row>
     <row r="73" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C73" s="6" t="n">
         <v>1.4236492</v>
@@ -9458,10 +10465,10 @@
     </row>
     <row r="74" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C74" s="6" t="n">
         <v>1.9417064</v>
@@ -9481,10 +10488,10 @@
     </row>
     <row r="75" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C75" s="6" t="n">
         <v>2.1262338</v>
@@ -9504,10 +10511,10 @@
     </row>
     <row r="76" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="C76" s="6" t="n">
         <v>1.1822766</v>
@@ -9527,10 +10534,10 @@
     </row>
     <row r="77" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C77" s="6" t="n">
         <v>1.4468618</v>
@@ -9550,10 +10557,10 @@
     </row>
     <row r="78" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C78" s="6" t="n">
         <v>1.4742292</v>
@@ -9573,10 +10580,10 @@
     </row>
     <row r="79" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="C79" s="6" t="n">
         <v>1.573159</v>
@@ -9596,10 +10603,10 @@
     </row>
     <row r="80" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C80" s="6" t="n">
         <v>1.4620546</v>
@@ -9619,10 +10626,10 @@
     </row>
     <row r="81" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C81" s="6" t="n">
         <v>1.7578504</v>
@@ -9642,10 +10649,10 @@
     </row>
     <row r="82" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C82" s="6" t="n">
         <v>1.317281</v>
@@ -9665,10 +10672,10 @@
     </row>
     <row r="83" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="C83" s="6" t="n">
         <v>1.0064424</v>
@@ -9688,10 +10695,10 @@
     </row>
     <row r="84" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C84" s="6" t="n">
         <v>1.0070324</v>
@@ -9711,10 +10718,10 @@
     </row>
     <row r="85" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C85" s="6" t="n">
         <v>1.0077328</v>
@@ -9734,10 +10741,10 @@
     </row>
     <row r="86" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C86" s="6" t="n">
         <v>1.2164698</v>
@@ -9757,10 +10764,10 @@
     </row>
     <row r="87" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C87" s="6" t="n">
         <v>1.1936726</v>
@@ -9780,10 +10787,10 @@
     </row>
     <row r="88" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C88" s="6" t="n">
         <v>1.1215588</v>
@@ -9803,10 +10810,10 @@
     </row>
     <row r="89" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C89" s="6" t="n">
         <v>1.7537162</v>
@@ -9826,10 +10833,10 @@
     </row>
     <row r="90" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C90" s="6" t="n">
         <v>1.5294494</v>
@@ -9849,10 +10856,10 @@
     </row>
     <row r="91" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C91" s="6" t="n">
         <v>1.9397144</v>
@@ -9872,10 +10879,10 @@
     </row>
     <row r="92" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="C92" s="6" t="n">
         <v>1.5482428</v>
@@ -9895,10 +10902,10 @@
     </row>
     <row r="93" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="C93" s="6" t="n">
         <v>1.8137892</v>
@@ -9918,10 +10925,10 @@
     </row>
     <row r="94" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="C94" s="6" t="n">
         <v>1.6058992</v>
@@ -9941,10 +10948,10 @@
     </row>
     <row r="95" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C95" s="6" t="n">
         <v>1.305882</v>
@@ -9964,10 +10971,10 @@
     </row>
     <row r="96" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C96" s="6" t="n">
         <v>1.2677898</v>
@@ -9987,10 +10994,10 @@
     </row>
     <row r="97" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="C97" s="6" t="n">
         <v>1.4182292</v>
@@ -10010,10 +11017,10 @@
     </row>
     <row r="98" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C98" s="6" t="n">
         <v>1.5855004</v>
@@ -10033,10 +11040,10 @@
     </row>
     <row r="99" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C99" s="6" t="n">
         <v>1.2465946</v>
@@ -10056,10 +11063,10 @@
     </row>
     <row r="100" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C100" s="6" t="n">
         <v>0.687835</v>
@@ -10079,10 +11086,10 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="C101" s="6" t="n">
         <v>1.2684794</v>
@@ -10102,10 +11109,10 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C102" s="6" t="n">
         <v>1.1808662</v>
@@ -10125,10 +11132,10 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C103" s="6" t="n">
         <v>1.1419522</v>
@@ -10148,10 +11155,10 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C104" s="6" t="n">
         <v>0.539347</v>
@@ -10171,10 +11178,10 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="C105" s="6" t="n">
         <v>0.606726</v>
@@ -10194,10 +11201,10 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C106" s="6" t="n">
         <v>0.5507526</v>
@@ -10217,10 +11224,10 @@
     </row>
     <row r="107" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C107" s="6" t="n">
         <v>1.295247</v>
@@ -10240,10 +11247,10 @@
     </row>
     <row r="108" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="C108" s="6" t="n">
         <v>1.22489</v>
@@ -10263,10 +11270,10 @@
     </row>
     <row r="109" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C109" s="6" t="n">
         <v>1.1823422</v>
@@ -10286,10 +11293,10 @@
     </row>
     <row r="110" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="C110" s="6" t="n">
         <v>1.1176918</v>
@@ -10309,10 +11316,10 @@
     </row>
     <row r="111" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C111" s="6" t="n">
         <v>1.1465718</v>
@@ -10332,10 +11339,10 @@
     </row>
     <row r="112" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C112" s="6" t="n">
         <v>1.149234</v>
@@ -10355,10 +11362,10 @@
     </row>
     <row r="113" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C113" s="6" t="n">
         <v>1.044906</v>
@@ -10378,10 +11385,10 @@
     </row>
     <row r="114" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C114" s="6" t="n">
         <v>0.5937896</v>
@@ -10401,10 +11408,10 @@
     </row>
     <row r="115" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C115" s="6" t="n">
         <v>0.5538104</v>
@@ -10424,10 +11431,10 @@
     </row>
     <row r="116" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C116" s="6" t="n">
         <v>0.6257974</v>
@@ -10447,10 +11454,10 @@
     </row>
     <row r="117" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C117" s="6" t="n">
         <v>0.5636324</v>
@@ -10470,10 +11477,10 @@
     </row>
     <row r="118" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="C118" s="6" t="n">
         <v>0.6148816</v>
@@ -10493,10 +11500,10 @@
     </row>
     <row r="119" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C119" s="6" t="n">
         <v>0.8084102</v>
@@ -10516,10 +11523,10 @@
     </row>
     <row r="120" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C120" s="6" t="n">
         <v>0.6780972</v>
@@ -10539,10 +11546,10 @@
     </row>
     <row r="121" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="C121" s="6" t="n">
         <v>0.5689302</v>
@@ -10562,10 +11569,10 @@
     </row>
     <row r="122" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C122" s="6" t="n">
         <v>1.0674126</v>
@@ -10585,10 +11592,10 @@
     </row>
     <row r="123" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C123" s="6" t="n">
         <v>1.0486638</v>
@@ -10608,10 +11615,10 @@
     </row>
     <row r="124" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C124" s="6" t="n">
         <v>1.086944</v>
@@ -10629,12 +11636,12 @@
         <v>1.3292072</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C125" s="6" t="n">
         <v>0.7197022</v>
@@ -10652,12 +11659,12 @@
         <v>0.9186484</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C126" s="6" t="n">
         <v>0.6197108</v>
@@ -10675,12 +11682,12 @@
         <v>0.8360762</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C127" s="6" t="n">
         <v>0.6199604</v>
@@ -10698,6 +11705,366 @@
         <v>0.9508644</v>
       </c>
     </row>
+    <row r="128" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C128" s="6" t="n">
+        <v>0.7278698</v>
+      </c>
+      <c r="D128" s="6" t="n">
+        <v>0.8362292</v>
+      </c>
+      <c r="E128" s="6" t="n">
+        <v>0.814631</v>
+      </c>
+      <c r="F128" s="6" t="n">
+        <v>1.3511298</v>
+      </c>
+      <c r="G128" s="6" t="n">
+        <v>0.622544</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C129" s="6" t="n">
+        <v>0.6508974</v>
+      </c>
+      <c r="D129" s="6" t="n">
+        <v>0.7155088</v>
+      </c>
+      <c r="E129" s="6" t="n">
+        <v>0.7101738</v>
+      </c>
+      <c r="F129" s="6" t="n">
+        <v>1.9841484</v>
+      </c>
+      <c r="G129" s="6" t="n">
+        <v>0.831573</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C130" s="6" t="n">
+        <v>0.4821016</v>
+      </c>
+      <c r="D130" s="6" t="n">
+        <v>0.6285324</v>
+      </c>
+      <c r="E130" s="6" t="n">
+        <v>0.771863</v>
+      </c>
+      <c r="F130" s="6" t="n">
+        <v>1.536665</v>
+      </c>
+      <c r="G130" s="6" t="n">
+        <v>0.8313</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C131" s="6" t="n">
+        <v>0.2749624</v>
+      </c>
+      <c r="D131" s="6" t="n">
+        <v>0.3988252</v>
+      </c>
+      <c r="E131" s="6" t="n">
+        <v>0.4412426</v>
+      </c>
+      <c r="F131" s="6" t="n">
+        <v>1.1315788</v>
+      </c>
+      <c r="G131" s="6" t="n">
+        <v>0.4224804</v>
+      </c>
+      <c r="H131" s="6" t="n">
+        <v>0.9761204</v>
+      </c>
+      <c r="I131" s="6" t="n">
+        <v>0.4682284</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C132" s="6" t="n">
+        <v>0.3808622</v>
+      </c>
+      <c r="D132" s="6" t="n">
+        <v>0.457337</v>
+      </c>
+      <c r="E132" s="6" t="n">
+        <v>0.3958404</v>
+      </c>
+      <c r="F132" s="6" t="n">
+        <v>1.2084692</v>
+      </c>
+      <c r="G132" s="6" t="n">
+        <v>0.4126222</v>
+      </c>
+      <c r="H132" s="6" t="n">
+        <v>0.9540938</v>
+      </c>
+      <c r="I132" s="6" t="n">
+        <v>0.4366414</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C133" s="6" t="n">
+        <v>0.29055</v>
+      </c>
+      <c r="D133" s="6" t="n">
+        <v>0.457883</v>
+      </c>
+      <c r="E133" s="6" t="n">
+        <v>0.408809</v>
+      </c>
+      <c r="F133" s="6" t="n">
+        <v>1.085649</v>
+      </c>
+      <c r="G133" s="6" t="n">
+        <v>0.5203506</v>
+      </c>
+      <c r="H133" s="6" t="n">
+        <v>0.8789396</v>
+      </c>
+      <c r="I133" s="6" t="n">
+        <v>0.4607902</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C134" s="6" t="n">
+        <v>0.2773942</v>
+      </c>
+      <c r="D134" s="6" t="n">
+        <v>0.3629498</v>
+      </c>
+      <c r="E134" s="6" t="n">
+        <v>0.4819038</v>
+      </c>
+      <c r="F134" s="6" t="n">
+        <v>1.1053762</v>
+      </c>
+      <c r="G134" s="6" t="n">
+        <v>0.4486402</v>
+      </c>
+      <c r="H134" s="6" t="n">
+        <v>1.0844598</v>
+      </c>
+      <c r="I134" s="6" t="n">
+        <v>0.5055272</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C135" s="6" t="n">
+        <v>0.355051</v>
+      </c>
+      <c r="D135" s="6" t="n">
+        <v>0.3693336</v>
+      </c>
+      <c r="E135" s="6" t="n">
+        <v>0.3812458</v>
+      </c>
+      <c r="F135" s="6" t="n">
+        <v>1.1586634</v>
+      </c>
+      <c r="G135" s="6" t="n">
+        <v>0.4425488</v>
+      </c>
+      <c r="H135" s="6" t="n">
+        <v>1.0219822</v>
+      </c>
+      <c r="I135" s="6" t="n">
+        <v>0.5254864</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C136" s="6" t="n">
+        <v>0.2631086</v>
+      </c>
+      <c r="D136" s="6" t="n">
+        <v>0.4038332</v>
+      </c>
+      <c r="E136" s="6" t="n">
+        <v>0.497293</v>
+      </c>
+      <c r="F136" s="6" t="n">
+        <v>1.10362</v>
+      </c>
+      <c r="G136" s="6" t="n">
+        <v>0.4593522</v>
+      </c>
+      <c r="H136" s="6" t="n">
+        <v>1.1633262</v>
+      </c>
+      <c r="I136" s="6" t="n">
+        <v>0.4937622</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C137" s="6" t="n">
+        <v>0.3914072</v>
+      </c>
+      <c r="D137" s="6" t="n">
+        <v>0.390795</v>
+      </c>
+      <c r="E137" s="6" t="n">
+        <v>3.0746188</v>
+      </c>
+      <c r="F137" s="6" t="n">
+        <v>1.1122522</v>
+      </c>
+      <c r="G137" s="6" t="n">
+        <v>0.831307</v>
+      </c>
+      <c r="H137" s="6" t="n">
+        <v>1.6540598</v>
+      </c>
+      <c r="I137" s="6" t="n">
+        <v>0.5491608</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C138" s="6" t="n">
+        <v>0.3957292</v>
+      </c>
+      <c r="D138" s="6" t="n">
+        <v>0.362939</v>
+      </c>
+      <c r="E138" s="6" t="n">
+        <v>0.3992878</v>
+      </c>
+      <c r="F138" s="6" t="n">
+        <v>1.3071524</v>
+      </c>
+      <c r="G138" s="6" t="n">
+        <v>0.4435602</v>
+      </c>
+      <c r="H138" s="6" t="n">
+        <v>0.978563</v>
+      </c>
+      <c r="I138" s="6" t="n">
+        <v>0.5724304</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C139" s="6" t="n">
+        <v>0.2629372</v>
+      </c>
+      <c r="D139" s="6" t="n">
+        <v>0.3996382</v>
+      </c>
+      <c r="E139" s="6" t="n">
+        <v>0.386788</v>
+      </c>
+      <c r="F139" s="6" t="n">
+        <v>1.1174972</v>
+      </c>
+      <c r="G139" s="6" t="n">
+        <v>0.4993052</v>
+      </c>
+      <c r="H139" s="6" t="n">
+        <v>1.1417018</v>
+      </c>
+      <c r="I139" s="6" t="n">
+        <v>0.503266</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C140" s="6" t="n">
+        <v>0.3267968</v>
+      </c>
+      <c r="D140" s="6" t="n">
+        <v>0.372096</v>
+      </c>
+      <c r="E140" s="6" t="n">
+        <v>0.4077242</v>
+      </c>
+      <c r="F140" s="6" t="n">
+        <v>1.0329414</v>
+      </c>
+      <c r="G140" s="6" t="n">
+        <v>0.421499</v>
+      </c>
+      <c r="H140" s="6" t="n">
+        <v>0.9903132</v>
+      </c>
+      <c r="I140" s="6" t="n">
+        <v>0.4439688</v>
+      </c>
+    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -10719,30 +12086,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A127" activeCellId="0" sqref="A127"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C136" activeCellId="0" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="28.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="30.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="23.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="3" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="28.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="30.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="21.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="23.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="13.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="17.27"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="3" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
@@ -10759,13 +12128,19 @@
       <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="H1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>3.4656902</v>
@@ -10785,10 +12160,10 @@
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>4.0852622</v>
@@ -10808,10 +12183,10 @@
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>2.9817282</v>
@@ -10831,10 +12206,10 @@
     </row>
     <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>3.2355116</v>
@@ -10854,10 +12229,10 @@
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>3.372143</v>
@@ -10877,10 +12252,10 @@
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>3.4754352</v>
@@ -10900,10 +12275,10 @@
     </row>
     <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>3.7434734</v>
@@ -10923,10 +12298,10 @@
     </row>
     <row r="9" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>3.5561424</v>
@@ -10946,10 +12321,10 @@
     </row>
     <row r="10" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>3.2355472</v>
@@ -10969,10 +12344,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>3.8741284</v>
@@ -10992,10 +12367,10 @@
     </row>
     <row r="12" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>3.5923944</v>
@@ -11015,10 +12390,10 @@
     </row>
     <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>3.353514</v>
@@ -11038,10 +12413,10 @@
     </row>
     <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>3.3503744</v>
@@ -11061,10 +12436,10 @@
     </row>
     <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>3.0850886</v>
@@ -11084,10 +12459,10 @@
     </row>
     <row r="16" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="C16" s="6" t="n">
         <v>4.2818632</v>
@@ -11107,10 +12482,10 @@
     </row>
     <row r="17" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>3.5103138</v>
@@ -11130,10 +12505,10 @@
     </row>
     <row r="18" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>3.5907182</v>
@@ -11153,10 +12528,10 @@
     </row>
     <row r="19" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>2.8087598</v>
@@ -11176,10 +12551,10 @@
     </row>
     <row r="20" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>3.0989676</v>
@@ -11199,10 +12574,10 @@
     </row>
     <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="C21" s="6" t="n">
         <v>2.9089418</v>
@@ -11222,10 +12597,10 @@
     </row>
     <row r="22" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C22" s="6" t="n">
         <v>2.8069658</v>
@@ -11245,10 +12620,10 @@
     </row>
     <row r="23" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C23" s="6" t="n">
         <v>3.7473942</v>
@@ -11268,10 +12643,10 @@
     </row>
     <row r="24" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="C24" s="6" t="n">
         <v>3.6907394</v>
@@ -11291,10 +12666,10 @@
     </row>
     <row r="25" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C25" s="6" t="n">
         <v>3.96706</v>
@@ -11314,10 +12689,10 @@
     </row>
     <row r="26" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="C26" s="6" t="n">
         <v>3.822524</v>
@@ -11337,10 +12712,10 @@
     </row>
     <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="C27" s="6" t="n">
         <v>3.2866498</v>
@@ -11360,10 +12735,10 @@
     </row>
     <row r="28" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="C28" s="6" t="n">
         <v>3.8178666</v>
@@ -11383,10 +12758,10 @@
     </row>
     <row r="29" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C29" s="6" t="n">
         <v>3.567202</v>
@@ -11406,10 +12781,10 @@
     </row>
     <row r="30" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="C30" s="6" t="n">
         <v>3.0702744</v>
@@ -11429,10 +12804,10 @@
     </row>
     <row r="31" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C31" s="6" t="n">
         <v>3.1279612</v>
@@ -11452,10 +12827,10 @@
     </row>
     <row r="32" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C32" s="6" t="n">
         <v>3.2541312</v>
@@ -11475,10 +12850,10 @@
     </row>
     <row r="33" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="C33" s="6" t="n">
         <v>3.6235082</v>
@@ -11498,10 +12873,10 @@
     </row>
     <row r="34" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="C34" s="6" t="n">
         <v>2.9263998</v>
@@ -11521,10 +12896,10 @@
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C35" s="6" t="n">
         <v>2.9817282</v>
@@ -11544,10 +12919,10 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="C36" s="6" t="n">
         <v>3.2355116</v>
@@ -11567,10 +12942,10 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C37" s="6" t="n">
         <v>3.362143</v>
@@ -11590,10 +12965,10 @@
     </row>
     <row r="38" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="C38" s="6" t="n">
         <v>4.4183598</v>
@@ -11613,10 +12988,10 @@
     </row>
     <row r="39" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="C39" s="6" t="n">
         <v>4.2271066</v>
@@ -11636,10 +13011,10 @@
     </row>
     <row r="40" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="C40" s="6" t="n">
         <v>4.3486802</v>
@@ -11659,10 +13034,10 @@
     </row>
     <row r="41" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C41" s="6" t="n">
         <v>4.4582382</v>
@@ -11682,10 +13057,10 @@
     </row>
     <row r="42" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C42" s="6" t="n">
         <v>3.6324914</v>
@@ -11705,10 +13080,10 @@
     </row>
     <row r="43" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C43" s="6" t="n">
         <v>4.2748656</v>
@@ -11728,10 +13103,10 @@
     </row>
     <row r="44" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="C44" s="6" t="n">
         <v>3.8775138</v>
@@ -11751,10 +13126,10 @@
     </row>
     <row r="45" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C45" s="6" t="n">
         <v>4.2457576</v>
@@ -11774,10 +13149,10 @@
     </row>
     <row r="46" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="C46" s="6" t="n">
         <v>3.8538836</v>
@@ -11797,10 +13172,10 @@
     </row>
     <row r="47" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C47" s="6" t="n">
         <v>4.134913</v>
@@ -11820,10 +13195,10 @@
     </row>
     <row r="48" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C48" s="6" t="n">
         <v>4.0352438</v>
@@ -11843,10 +13218,10 @@
     </row>
     <row r="49" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C49" s="6" t="n">
         <v>4.4015426</v>
@@ -11866,10 +13241,10 @@
     </row>
     <row r="50" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C50" s="6" t="n">
         <v>4.6767688</v>
@@ -11889,10 +13264,10 @@
     </row>
     <row r="51" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="C51" s="6" t="n">
         <v>4.7661336</v>
@@ -11912,10 +13287,10 @@
     </row>
     <row r="52" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="C52" s="6" t="n">
         <v>4.1553188</v>
@@ -11935,10 +13310,10 @@
     </row>
     <row r="53" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="C53" s="6" t="n">
         <v>4.4161086</v>
@@ -11958,10 +13333,10 @@
     </row>
     <row r="54" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="C54" s="6" t="n">
         <v>3.9109934</v>
@@ -11981,10 +13356,10 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="C55" s="6" t="n">
         <v>3.9109934</v>
@@ -12004,10 +13379,10 @@
     </row>
     <row r="56" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="C56" s="6" t="n">
         <v>3.4861618</v>
@@ -12027,10 +13402,10 @@
     </row>
     <row r="57" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C57" s="6" t="n">
         <v>4.9950494</v>
@@ -12050,10 +13425,10 @@
     </row>
     <row r="58" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="C58" s="6" t="n">
         <v>3.52287</v>
@@ -12073,10 +13448,10 @@
     </row>
     <row r="59" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C59" s="6" t="n">
         <v>3.818883</v>
@@ -12096,10 +13471,10 @@
     </row>
     <row r="60" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C60" s="6" t="n">
         <v>3.5168838</v>
@@ -12119,10 +13494,10 @@
     </row>
     <row r="61" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C61" s="6" t="n">
         <v>3.509506</v>
@@ -12142,10 +13517,10 @@
     </row>
     <row r="62" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C62" s="6" t="n">
         <v>4.19722</v>
@@ -12165,10 +13540,10 @@
     </row>
     <row r="63" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C63" s="6" t="n">
         <v>3.450998</v>
@@ -12188,10 +13563,10 @@
     </row>
     <row r="64" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C64" s="6" t="n">
         <v>3.235356</v>
@@ -12211,10 +13586,10 @@
     </row>
     <row r="65" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C65" s="6" t="n">
         <v>3.2117386</v>
@@ -12234,10 +13609,10 @@
     </row>
     <row r="66" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="C66" s="6" t="n">
         <v>4.0686228</v>
@@ -12257,10 +13632,10 @@
     </row>
     <row r="67" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="C67" s="6" t="n">
         <v>3.0381616</v>
@@ -12280,10 +13655,10 @@
     </row>
     <row r="68" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="C68" s="6" t="n">
         <v>3.9888114</v>
@@ -12303,10 +13678,10 @@
     </row>
     <row r="69" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="C69" s="6" t="n">
         <v>4.1137066</v>
@@ -12326,10 +13701,10 @@
     </row>
     <row r="70" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="C70" s="6" t="n">
         <v>4.983335</v>
@@ -12349,10 +13724,10 @@
     </row>
     <row r="71" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C71" s="6" t="n">
         <v>4.1330914</v>
@@ -12372,10 +13747,10 @@
     </row>
     <row r="72" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C72" s="6" t="n">
         <v>4.3396534</v>
@@ -12395,10 +13770,10 @@
     </row>
     <row r="73" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C73" s="6" t="n">
         <v>3.9020584</v>
@@ -12418,10 +13793,10 @@
     </row>
     <row r="74" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C74" s="6" t="n">
         <v>4.5924734</v>
@@ -12441,10 +13816,10 @@
     </row>
     <row r="75" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C75" s="6" t="n">
         <v>4.7249976</v>
@@ -12464,10 +13839,10 @@
     </row>
     <row r="76" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="C76" s="6" t="n">
         <v>4.5492628</v>
@@ -12487,10 +13862,10 @@
     </row>
     <row r="77" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C77" s="6" t="n">
         <v>4.9078458</v>
@@ -12510,10 +13885,10 @@
     </row>
     <row r="78" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C78" s="6" t="n">
         <v>4.4770992</v>
@@ -12533,10 +13908,10 @@
     </row>
     <row r="79" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="C79" s="6" t="n">
         <v>4.5622134</v>
@@ -12556,10 +13931,10 @@
     </row>
     <row r="80" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C80" s="6" t="n">
         <v>4.836367</v>
@@ -12579,10 +13954,10 @@
     </row>
     <row r="81" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C81" s="6" t="n">
         <v>4.7587322</v>
@@ -12602,10 +13977,10 @@
     </row>
     <row r="82" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C82" s="6" t="n">
         <v>4.7621978</v>
@@ -12625,10 +14000,10 @@
     </row>
     <row r="83" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="C83" s="6" t="n">
         <v>3.860828</v>
@@ -12648,10 +14023,10 @@
     </row>
     <row r="84" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C84" s="6" t="n">
         <v>3.7302656</v>
@@ -12671,10 +14046,10 @@
     </row>
     <row r="85" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C85" s="6" t="n">
         <v>3.347214</v>
@@ -12694,10 +14069,10 @@
     </row>
     <row r="86" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C86" s="6" t="n">
         <v>4.958017</v>
@@ -12717,10 +14092,10 @@
     </row>
     <row r="87" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C87" s="6" t="n">
         <v>4.4462374</v>
@@ -12740,10 +14115,10 @@
     </row>
     <row r="88" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C88" s="6" t="n">
         <v>4.219337</v>
@@ -12763,10 +14138,10 @@
     </row>
     <row r="89" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C89" s="6" t="n">
         <v>3.2993996</v>
@@ -12786,10 +14161,10 @@
     </row>
     <row r="90" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C90" s="6" t="n">
         <v>4.6230936</v>
@@ -12809,10 +14184,10 @@
     </row>
     <row r="91" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="C91" s="6" t="n">
         <v>3.8848404</v>
@@ -12832,10 +14207,10 @@
     </row>
     <row r="92" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C92" s="6" t="n">
         <v>5.1609082</v>
@@ -12855,10 +14230,10 @@
     </row>
     <row r="93" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="C93" s="6" t="n">
         <v>4.559301</v>
@@ -12878,10 +14253,10 @@
     </row>
     <row r="94" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C94" s="6" t="n">
         <v>5.2226694</v>
@@ -12901,10 +14276,10 @@
     </row>
     <row r="95" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C95" s="6" t="n">
         <v>3.720101</v>
@@ -12924,10 +14299,10 @@
     </row>
     <row r="96" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C96" s="6" t="n">
         <v>4.024163</v>
@@ -12947,10 +14322,10 @@
     </row>
     <row r="97" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="C97" s="6" t="n">
         <v>3.7013772</v>
@@ -12970,10 +14345,10 @@
     </row>
     <row r="98" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C98" s="6" t="n">
         <v>4.8119186</v>
@@ -12993,10 +14368,10 @@
     </row>
     <row r="99" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C99" s="6" t="n">
         <v>3.4836352</v>
@@ -13016,10 +14391,10 @@
     </row>
     <row r="100" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="C100" s="6" t="n">
         <v>4.1470936</v>
@@ -13039,10 +14414,10 @@
     </row>
     <row r="101" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="C101" s="6" t="n">
         <v>4.5941812</v>
@@ -13062,10 +14437,10 @@
     </row>
     <row r="102" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C102" s="6" t="n">
         <v>4.2045726</v>
@@ -13085,10 +14460,10 @@
     </row>
     <row r="103" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="C103" s="6" t="n">
         <v>4.2355866</v>
@@ -13108,10 +14483,10 @@
     </row>
     <row r="104" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C104" s="6" t="n">
         <v>3.3280502</v>
@@ -13131,10 +14506,10 @@
     </row>
     <row r="105" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="C105" s="6" t="n">
         <v>3.7619086</v>
@@ -13154,10 +14529,10 @@
     </row>
     <row r="106" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C106" s="6" t="n">
         <v>3.067876</v>
@@ -13177,10 +14552,10 @@
     </row>
     <row r="107" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C107" s="6" t="n">
         <v>3.9397008</v>
@@ -13200,10 +14575,10 @@
     </row>
     <row r="108" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="C108" s="6" t="n">
         <v>3.8446282</v>
@@ -13223,10 +14598,10 @@
     </row>
     <row r="109" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C109" s="6" t="n">
         <v>3.6811188</v>
@@ -13246,10 +14621,10 @@
     </row>
     <row r="110" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="C110" s="6" t="n">
         <v>4.0021732</v>
@@ -13269,10 +14644,10 @@
     </row>
     <row r="111" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C111" s="6" t="n">
         <v>3.9658428</v>
@@ -13292,10 +14667,10 @@
     </row>
     <row r="112" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C112" s="6" t="n">
         <v>4.0866698</v>
@@ -13315,10 +14690,10 @@
     </row>
     <row r="113" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C113" s="6" t="n">
         <v>3.3495922</v>
@@ -13338,10 +14713,10 @@
     </row>
     <row r="114" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C114" s="6" t="n">
         <v>3.1700508</v>
@@ -13361,10 +14736,10 @@
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C115" s="6" t="n">
         <v>2.8687932</v>
@@ -13384,10 +14759,10 @@
     </row>
     <row r="116" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C116" s="6" t="n">
         <v>3.6724544</v>
@@ -13407,10 +14782,10 @@
     </row>
     <row r="117" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="C117" s="6" t="n">
         <v>3.9349018</v>
@@ -13430,10 +14805,10 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="C118" s="6" t="n">
         <v>3.7854794</v>
@@ -13453,10 +14828,10 @@
     </row>
     <row r="119" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C119" s="6" t="n">
         <v>4.0520074</v>
@@ -13476,10 +14851,10 @@
     </row>
     <row r="120" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C120" s="6" t="n">
         <v>4.0731762</v>
@@ -13499,10 +14874,10 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="C121" s="6" t="n">
         <v>3.7466574</v>
@@ -13522,10 +14897,10 @@
     </row>
     <row r="122" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C122" s="6" t="n">
         <v>4.3859274</v>
@@ -13545,10 +14920,10 @@
     </row>
     <row r="123" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C123" s="6" t="n">
         <v>4.1373178</v>
@@ -13568,10 +14943,10 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="C124" s="6" t="n">
         <v>3.986907</v>
@@ -13589,12 +14964,12 @@
         <v>1.9736106</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C125" s="6" t="n">
         <v>3.64082</v>
@@ -13612,12 +14987,12 @@
         <v>1.6750746</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C126" s="6" t="n">
         <v>3.6994948</v>
@@ -13635,12 +15010,12 @@
         <v>1.6971936</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C127" s="6" t="n">
         <v>3.2168624</v>
@@ -13658,6 +15033,367 @@
         <v>1.4834408</v>
       </c>
     </row>
+    <row r="128" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C128" s="6" t="n">
+        <v>4.244472</v>
+      </c>
+      <c r="D128" s="6" t="n">
+        <v>2.130527</v>
+      </c>
+      <c r="E128" s="6" t="n">
+        <v>1.6795276</v>
+      </c>
+      <c r="F128" s="6" t="n">
+        <v>2.796139</v>
+      </c>
+      <c r="G128" s="6" t="n">
+        <v>1.047612</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C129" s="6" t="n">
+        <v>3.5942052</v>
+      </c>
+      <c r="D129" s="6" t="n">
+        <v>1.6484214</v>
+      </c>
+      <c r="E129" s="6" t="n">
+        <v>1.6565674</v>
+      </c>
+      <c r="F129" s="6" t="n">
+        <v>2.5526836</v>
+      </c>
+      <c r="G129" s="6" t="n">
+        <v>1.4298142</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C130" s="6" t="n">
+        <v>4.1747286</v>
+      </c>
+      <c r="D130" s="6" t="n">
+        <v>1.4841778</v>
+      </c>
+      <c r="E130" s="6" t="n">
+        <v>1.453843</v>
+      </c>
+      <c r="F130" s="6" t="n">
+        <v>2.5272714</v>
+      </c>
+      <c r="G130" s="6" t="n">
+        <v>1.0215066</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C131" s="6" t="n">
+        <v>3.529065</v>
+      </c>
+      <c r="D131" s="6" t="n">
+        <v>0.9383764</v>
+      </c>
+      <c r="E131" s="6" t="n">
+        <v>1.4886484</v>
+      </c>
+      <c r="F131" s="6" t="n">
+        <v>2.0728768</v>
+      </c>
+      <c r="G131" s="6" t="n">
+        <v>1.0438882</v>
+      </c>
+      <c r="H131" s="3" t="n">
+        <v>1.0274346</v>
+      </c>
+      <c r="I131" s="3" t="n">
+        <v>0.8735528</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C132" s="6" t="n">
+        <v>3.5716072</v>
+      </c>
+      <c r="D132" s="6" t="n">
+        <v>2.0841408</v>
+      </c>
+      <c r="E132" s="6" t="n">
+        <v>1.4539648</v>
+      </c>
+      <c r="F132" s="6" t="n">
+        <v>2.7128328</v>
+      </c>
+      <c r="G132" s="6" t="n">
+        <v>0.7986796</v>
+      </c>
+      <c r="H132" s="6" t="n">
+        <v>0.9612276</v>
+      </c>
+      <c r="I132" s="6" t="n">
+        <v>0.8170344</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C133" s="6" t="n">
+        <v>3.3930796</v>
+      </c>
+      <c r="D133" s="6" t="n">
+        <v>1.0493842</v>
+      </c>
+      <c r="E133" s="6" t="n">
+        <v>1.323567</v>
+      </c>
+      <c r="F133" s="6" t="n">
+        <v>1.9506664</v>
+      </c>
+      <c r="G133" s="6" t="n">
+        <v>1.0727212</v>
+      </c>
+      <c r="H133" s="6" t="n">
+        <v>1.0223394</v>
+      </c>
+      <c r="I133" s="6" t="n">
+        <v>0.8993178</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C134" s="6" t="n">
+        <v>3.860798</v>
+      </c>
+      <c r="D134" s="6" t="n">
+        <v>1.1679788</v>
+      </c>
+      <c r="E134" s="6" t="n">
+        <v>1.353972</v>
+      </c>
+      <c r="F134" s="6" t="n">
+        <v>2.2270336</v>
+      </c>
+      <c r="G134" s="6" t="n">
+        <v>0.9162158</v>
+      </c>
+      <c r="H134" s="6" t="n">
+        <v>1.1648034</v>
+      </c>
+      <c r="I134" s="6" t="n">
+        <v>0.7746688</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C135" s="6" t="n">
+        <v>3.0644262</v>
+      </c>
+      <c r="D135" s="6" t="n">
+        <v>1.1263532</v>
+      </c>
+      <c r="E135" s="6" t="n">
+        <v>1.2179772</v>
+      </c>
+      <c r="F135" s="6" t="n">
+        <v>2.139416</v>
+      </c>
+      <c r="G135" s="6" t="n">
+        <v>0.8797136</v>
+      </c>
+      <c r="H135" s="6" t="n">
+        <v>1.0626676</v>
+      </c>
+      <c r="I135" s="6" t="n">
+        <v>1.0043478</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C136" s="6" t="n">
+        <v>3.6420468</v>
+      </c>
+      <c r="D136" s="6" t="n">
+        <v>1.1672104</v>
+      </c>
+      <c r="E136" s="6" t="n">
+        <v>1.1812148</v>
+      </c>
+      <c r="F136" s="6" t="n">
+        <v>1.9415798</v>
+      </c>
+      <c r="G136" s="6" t="n">
+        <v>1.012737</v>
+      </c>
+      <c r="H136" s="6" t="n">
+        <v>1.2464424</v>
+      </c>
+      <c r="I136" s="6" t="n">
+        <v>0.8986342</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C137" s="6" t="n">
+        <v>3.1387814</v>
+      </c>
+      <c r="D137" s="6" t="n">
+        <v>1.166421</v>
+      </c>
+      <c r="E137" s="6" t="n">
+        <v>1.2456332</v>
+      </c>
+      <c r="F137" s="6" t="n">
+        <v>2.0305014</v>
+      </c>
+      <c r="G137" s="6" t="n">
+        <v>1.0029156</v>
+      </c>
+      <c r="H137" s="6" t="n">
+        <v>0.9798268</v>
+      </c>
+      <c r="I137" s="6" t="n">
+        <v>0.8780922</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C138" s="6" t="n">
+        <v>2.844001</v>
+      </c>
+      <c r="D138" s="6" t="n">
+        <v>1.2753692</v>
+      </c>
+      <c r="E138" s="6" t="n">
+        <v>1.4032066</v>
+      </c>
+      <c r="F138" s="6" t="n">
+        <v>2.1367416</v>
+      </c>
+      <c r="G138" s="6" t="n">
+        <v>0.9988924</v>
+      </c>
+      <c r="H138" s="6" t="n">
+        <v>0.9705552</v>
+      </c>
+      <c r="I138" s="6" t="n">
+        <v>0.7957344</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C139" s="6" t="n">
+        <v>3.5612468</v>
+      </c>
+      <c r="D139" s="6" t="n">
+        <v>1.1570194</v>
+      </c>
+      <c r="E139" s="6" t="n">
+        <v>1.3720844</v>
+      </c>
+      <c r="F139" s="6" t="n">
+        <v>1.987933</v>
+      </c>
+      <c r="G139" s="6" t="n">
+        <v>1.0719532</v>
+      </c>
+      <c r="H139" s="6" t="n">
+        <v>1.2060672</v>
+      </c>
+      <c r="I139" s="6" t="n">
+        <v>0.9401982</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C140" s="6" t="n">
+        <v>3.076793</v>
+      </c>
+      <c r="D140" s="6" t="n">
+        <v>1.2034406</v>
+      </c>
+      <c r="E140" s="6" t="n">
+        <v>1.2122612</v>
+      </c>
+      <c r="F140" s="6" t="n">
+        <v>1.9958428</v>
+      </c>
+      <c r="G140" s="6" t="n">
+        <v>1.0211822</v>
+      </c>
+      <c r="H140" s="6" t="n">
+        <v>1.1939928</v>
+      </c>
+      <c r="I140" s="6" t="n">
+        <v>0.755236</v>
+      </c>
+    </row>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Output Data/Crpo/Common_folder/API_Performance_Chart_Report.xlsx
+++ b/Output Data/Crpo/Common_folder/API_Performance_Chart_Report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="331">
   <si>
     <t xml:space="preserve">get_tenant_details</t>
   </si>
@@ -593,6 +593,69 @@
     <t xml:space="preserve">11:18:AM</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-03-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:18:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:20:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:13:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:17:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:19:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:01:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:03:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:04:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:12:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:15:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:49:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:02:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:04:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:08:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:11:PM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:41:PM</t>
   </si>
   <si>
@@ -713,6 +776,12 @@
     <t xml:space="preserve">11:25:AM</t>
   </si>
   <si>
+    <t xml:space="preserve">05:48:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:09:PM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:43:PM</t>
   </si>
   <si>
@@ -851,6 +920,18 @@
     <t xml:space="preserve">11:09:AM</t>
   </si>
   <si>
+    <t xml:space="preserve">04:17:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:14:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:05:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:10:PM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:44:PM</t>
   </si>
   <si>
@@ -923,10 +1004,19 @@
     <t xml:space="preserve">10:42:PM</t>
   </si>
   <si>
-    <t xml:space="preserve">09:12:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">11:06:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:21:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:21:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:50:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:12:PM</t>
   </si>
 </sst>
 </file>
@@ -1241,16 +1331,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.15030323355704</c:v>
+                  <c:v>1.07428282891566</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.45488968590604</c:v>
+                  <c:v>2.41015870658683</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.02421277583893</c:v>
+                  <c:v>0.949352507784431</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.85561613557047</c:v>
+                  <c:v>3.81975222035928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1317,16 +1407,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.940315131543624</c:v>
+                  <c:v>0.884868979518072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.19472624563758</c:v>
+                  <c:v>2.1477044742515</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.28446922818792</c:v>
+                  <c:v>1.1881117497006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.08506154630872</c:v>
+                  <c:v>2.02643083473054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1393,16 +1483,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.976329812080537</c:v>
+                  <c:v>0.914744578313253</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.66001988724832</c:v>
+                  <c:v>1.57857243113773</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.31964459865772</c:v>
+                  <c:v>1.22129534850299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.96652246174497</c:v>
+                  <c:v>1.89275095329341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1469,16 +1559,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.59610028590604</c:v>
+                  <c:v>1.54995921445783</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.31078878389262</c:v>
+                  <c:v>2.28203454491018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.88489697718121</c:v>
+                  <c:v>1.80089136886228</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7675347261745</c:v>
+                  <c:v>2.74385565988024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1545,16 +1635,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.891763154362416</c:v>
+                  <c:v>0.841958362650603</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.64631362684564</c:v>
+                  <c:v>1.57990958083832</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.18932082013423</c:v>
+                  <c:v>1.10696194610779</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.71298360939597</c:v>
+                  <c:v>1.63361053652695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1562,11 +1652,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="-10"/>
-        <c:axId val="21296820"/>
-        <c:axId val="51897430"/>
+        <c:axId val="59723609"/>
+        <c:axId val="76039697"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="21296820"/>
+        <c:axId val="59723609"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1632,14 +1722,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51897430"/>
+        <c:crossAx val="76039697"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51897430"/>
+        <c:axId val="76039697"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1705,7 +1795,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21296820"/>
+        <c:crossAx val="59723609"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1766,7 +1856,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304920</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
@@ -1777,7 +1867,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="1143000"/>
-        <a:ext cx="12094560" cy="2742840"/>
+        <a:ext cx="12173400" cy="2742840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1797,14 +1887,14 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="32.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.38"/>
@@ -1834,19 +1924,19 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.15030323355704</v>
+        <v>1.07428282891566</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.940315131543624</v>
+        <v>0.884868979518072</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.976329812080537</v>
+        <v>0.914744578313253</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1.59610028590604</v>
+        <v>1.54995921445783</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.891763154362416</v>
+        <v>0.841958362650603</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,19 +1944,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>2.45488968590604</v>
+        <v>2.41015870658683</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>2.19472624563758</v>
+        <v>2.1477044742515</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1.66001988724832</v>
+        <v>1.57857243113773</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>2.31078878389262</v>
+        <v>2.28203454491018</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1.64631362684564</v>
+        <v>1.57990958083832</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1874,19 +1964,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1.02421277583893</v>
+        <v>0.949352507784431</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>1.28446922818792</v>
+        <v>1.1881117497006</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>1.31964459865772</v>
+        <v>1.22129534850299</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>1.88489697718121</v>
+        <v>1.80089136886228</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1.18932082013423</v>
+        <v>1.10696194610779</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1894,19 +1984,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>3.85561613557047</v>
+        <v>3.81975222035928</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>2.08506154630872</v>
+        <v>2.02643083473054</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>1.96652246174497</v>
+        <v>1.89275095329341</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>2.7675347261745</v>
+        <v>2.74385565988024</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1.71298360939597</v>
+        <v>1.63361053652695</v>
       </c>
     </row>
   </sheetData>
@@ -1928,8 +2018,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A140" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D146" activeCellId="0" sqref="D146"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A152" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C160" activeCellId="0" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5311,7 +5401,7 @@
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
     </row>
-    <row r="147" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
         <v>184</v>
       </c>
@@ -5336,7 +5426,7 @@
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
     </row>
-    <row r="148" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
         <v>184</v>
       </c>
@@ -5361,7 +5451,7 @@
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
     </row>
-    <row r="149" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
         <v>184</v>
       </c>
@@ -5386,7 +5476,7 @@
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
     </row>
-    <row r="150" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
         <v>184</v>
       </c>
@@ -5410,6 +5500,431 @@
       </c>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
+    </row>
+    <row r="151" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C151" s="4" t="n">
+        <v>0.5018978</v>
+      </c>
+      <c r="D151" s="4" t="n">
+        <v>0.397655</v>
+      </c>
+      <c r="E151" s="4" t="n">
+        <v>0.4341396</v>
+      </c>
+      <c r="F151" s="4" t="n">
+        <v>1.1723518</v>
+      </c>
+      <c r="G151" s="4" t="n">
+        <v>0.3823218</v>
+      </c>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+    </row>
+    <row r="152" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C152" s="4" t="n">
+        <v>0.3989612</v>
+      </c>
+      <c r="D152" s="4" t="n">
+        <v>0.3533592</v>
+      </c>
+      <c r="E152" s="4" t="n">
+        <v>0.3728342</v>
+      </c>
+      <c r="F152" s="4" t="n">
+        <v>1.1463806</v>
+      </c>
+      <c r="G152" s="4" t="n">
+        <v>0.3790758</v>
+      </c>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+    </row>
+    <row r="153" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C153" s="4" t="n">
+        <v>0.543626</v>
+      </c>
+      <c r="D153" s="4" t="n">
+        <v>0.366432</v>
+      </c>
+      <c r="E153" s="4" t="n">
+        <v>0.4170096</v>
+      </c>
+      <c r="F153" s="4" t="n">
+        <v>1.2047198</v>
+      </c>
+      <c r="G153" s="4" t="n">
+        <v>0.3608352</v>
+      </c>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+    </row>
+    <row r="154" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A154" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C154" s="4" t="n">
+        <v>0.3807416</v>
+      </c>
+      <c r="D154" s="4" t="n">
+        <v>0.4673346</v>
+      </c>
+      <c r="E154" s="4" t="n">
+        <v>0.3388978</v>
+      </c>
+      <c r="F154" s="4" t="n">
+        <v>1.1209106</v>
+      </c>
+      <c r="G154" s="4" t="n">
+        <v>0.4046948</v>
+      </c>
+      <c r="H154" s="4"/>
+      <c r="I154" s="4"/>
+    </row>
+    <row r="155" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C155" s="4" t="n">
+        <v>0.4411666</v>
+      </c>
+      <c r="D155" s="4" t="n">
+        <v>0.5341266</v>
+      </c>
+      <c r="E155" s="4" t="n">
+        <v>0.5710772</v>
+      </c>
+      <c r="F155" s="4" t="n">
+        <v>1.1790426</v>
+      </c>
+      <c r="G155" s="4" t="n">
+        <v>0.507961</v>
+      </c>
+      <c r="H155" s="4"/>
+      <c r="I155" s="4"/>
+    </row>
+    <row r="156" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C156" s="4" t="n">
+        <v>0.4291706</v>
+      </c>
+      <c r="D156" s="4" t="n">
+        <v>0.4228544</v>
+      </c>
+      <c r="E156" s="4" t="n">
+        <v>0.3962892</v>
+      </c>
+      <c r="F156" s="4" t="n">
+        <v>1.11755</v>
+      </c>
+      <c r="G156" s="4" t="n">
+        <v>0.4240474</v>
+      </c>
+      <c r="H156" s="4"/>
+      <c r="I156" s="4"/>
+    </row>
+    <row r="157" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C157" s="4" t="n">
+        <v>0.3787716</v>
+      </c>
+      <c r="D157" s="4" t="n">
+        <v>0.417396</v>
+      </c>
+      <c r="E157" s="4" t="n">
+        <v>0.3926526</v>
+      </c>
+      <c r="F157" s="4" t="n">
+        <v>1.1755928</v>
+      </c>
+      <c r="G157" s="4" t="n">
+        <v>0.4142614</v>
+      </c>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
+    </row>
+    <row r="158" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A158" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C158" s="4" t="n">
+        <v>0.2960152</v>
+      </c>
+      <c r="D158" s="4" t="n">
+        <v>0.3716848</v>
+      </c>
+      <c r="E158" s="4" t="n">
+        <v>0.3584548</v>
+      </c>
+      <c r="F158" s="4" t="n">
+        <v>1.1029808</v>
+      </c>
+      <c r="G158" s="4" t="n">
+        <v>0.4603404</v>
+      </c>
+      <c r="H158" s="4"/>
+      <c r="I158" s="4"/>
+    </row>
+    <row r="159" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A159" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C159" s="4" t="n">
+        <v>0.442219</v>
+      </c>
+      <c r="D159" s="4" t="n">
+        <v>0.3413488</v>
+      </c>
+      <c r="E159" s="4" t="n">
+        <v>0.2844212</v>
+      </c>
+      <c r="F159" s="4" t="n">
+        <v>1.1435872</v>
+      </c>
+      <c r="G159" s="4" t="n">
+        <v>0.3507414</v>
+      </c>
+      <c r="H159" s="4"/>
+      <c r="I159" s="4"/>
+    </row>
+    <row r="160" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A160" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C160" s="4" t="n">
+        <v>0.4119008</v>
+      </c>
+      <c r="D160" s="4" t="n">
+        <v>0.4235192</v>
+      </c>
+      <c r="E160" s="4" t="n">
+        <v>0.362104</v>
+      </c>
+      <c r="F160" s="4" t="n">
+        <v>1.2749824</v>
+      </c>
+      <c r="G160" s="4" t="n">
+        <v>0.4582344</v>
+      </c>
+      <c r="H160" s="4"/>
+      <c r="I160" s="4"/>
+    </row>
+    <row r="161" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A161" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C161" s="4" t="n">
+        <v>0.3886282</v>
+      </c>
+      <c r="D161" s="4" t="n">
+        <v>0.3961726</v>
+      </c>
+      <c r="E161" s="4" t="n">
+        <v>0.4175656</v>
+      </c>
+      <c r="F161" s="4" t="n">
+        <v>1.1483146</v>
+      </c>
+      <c r="G161" s="4" t="n">
+        <v>0.4280866</v>
+      </c>
+      <c r="H161" s="4"/>
+      <c r="I161" s="4"/>
+    </row>
+    <row r="162" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A162" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C162" s="4" t="n">
+        <v>0.4479258</v>
+      </c>
+      <c r="D162" s="4" t="n">
+        <v>0.4060742</v>
+      </c>
+      <c r="E162" s="4" t="n">
+        <v>0.3954476</v>
+      </c>
+      <c r="F162" s="4" t="n">
+        <v>1.1151344</v>
+      </c>
+      <c r="G162" s="4" t="n">
+        <v>0.4103928</v>
+      </c>
+      <c r="H162" s="4"/>
+      <c r="I162" s="4"/>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C163" s="4" t="n">
+        <v>0.364578</v>
+      </c>
+      <c r="D163" s="4" t="n">
+        <v>0.2961888</v>
+      </c>
+      <c r="E163" s="4" t="n">
+        <v>0.3224298</v>
+      </c>
+      <c r="F163" s="4" t="n">
+        <v>1.0978788</v>
+      </c>
+      <c r="G163" s="4" t="n">
+        <v>0.3345916</v>
+      </c>
+      <c r="H163" s="4"/>
+      <c r="I163" s="4"/>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C164" s="4" t="n">
+        <v>0.3759896</v>
+      </c>
+      <c r="D164" s="4" t="n">
+        <v>0.3403182</v>
+      </c>
+      <c r="E164" s="4" t="n">
+        <v>0.3564104</v>
+      </c>
+      <c r="F164" s="4" t="n">
+        <v>1.12478</v>
+      </c>
+      <c r="G164" s="4" t="n">
+        <v>0.4178532</v>
+      </c>
+      <c r="H164" s="4"/>
+      <c r="I164" s="4"/>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C165" s="4" t="n">
+        <v>0.3922046</v>
+      </c>
+      <c r="D165" s="4" t="n">
+        <v>0.4366396</v>
+      </c>
+      <c r="E165" s="4" t="n">
+        <v>0.353158</v>
+      </c>
+      <c r="F165" s="4" t="n">
+        <v>1.1131792</v>
+      </c>
+      <c r="G165" s="4" t="n">
+        <v>0.4179674</v>
+      </c>
+      <c r="H165" s="4"/>
+      <c r="I165" s="4"/>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C166" s="4" t="n">
+        <v>0.3988632</v>
+      </c>
+      <c r="D166" s="4" t="n">
+        <v>0.4306008</v>
+      </c>
+      <c r="E166" s="4" t="n">
+        <v>0.3134368</v>
+      </c>
+      <c r="F166" s="4" t="n">
+        <v>1.1060144</v>
+      </c>
+      <c r="G166" s="4" t="n">
+        <v>0.4065066</v>
+      </c>
+      <c r="H166" s="4"/>
+      <c r="I166" s="4"/>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C167" s="4" t="n">
+        <v>0.343108</v>
+      </c>
+      <c r="D167" s="4" t="n">
+        <v>0.3795912</v>
+      </c>
+      <c r="E167" s="4" t="n">
+        <v>0.2881296</v>
+      </c>
+      <c r="F167" s="4" t="n">
+        <v>1.130887</v>
+      </c>
+      <c r="G167" s="4" t="n">
+        <v>0.3344664</v>
+      </c>
+      <c r="H167" s="4"/>
+      <c r="I167" s="4"/>
     </row>
     <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5446,8 +5961,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A136" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A150" activeCellId="0" sqref="A150"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B164" activeCellId="0" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5491,7 +6006,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>2.0220664</v>
@@ -5514,7 +6029,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>2.4586498</v>
@@ -5560,7 +6075,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>2.1296676</v>
@@ -5629,7 +6144,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>2.1709282</v>
@@ -5652,7 +6167,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>2.1589454</v>
@@ -5675,7 +6190,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>2.0390428</v>
@@ -5721,7 +6236,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>1.9875636</v>
@@ -5790,7 +6305,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>2.1964826</v>
@@ -5997,7 +6512,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>2.6861386</v>
@@ -6043,7 +6558,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>2.330873</v>
@@ -6066,7 +6581,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>2.4523078</v>
@@ -6089,7 +6604,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>2.3690538</v>
@@ -6135,7 +6650,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>2.3269536</v>
@@ -6181,7 +6696,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>1.9277496</v>
@@ -6273,7 +6788,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>2.1296676</v>
@@ -6319,7 +6834,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>2.138844</v>
@@ -6342,7 +6857,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>2.569399</v>
@@ -6365,7 +6880,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>2.2719068</v>
@@ -6388,7 +6903,7 @@
         <v>60</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>2.4505342</v>
@@ -6411,7 +6926,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>2.5803136</v>
@@ -6457,7 +6972,7 @@
         <v>64</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>2.4560934</v>
@@ -6480,7 +6995,7 @@
         <v>64</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="C45" s="4" t="n">
         <v>2.0923624</v>
@@ -6503,7 +7018,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="C46" s="4" t="n">
         <v>2.7843442</v>
@@ -6756,7 +7271,7 @@
         <v>80</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="C57" s="4" t="n">
         <v>2.9062288</v>
@@ -6963,7 +7478,7 @@
         <v>91</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="C66" s="4" t="n">
         <v>3.3981744</v>
@@ -6986,7 +7501,7 @@
         <v>91</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="C67" s="4" t="n">
         <v>2.0062282</v>
@@ -7009,7 +7524,7 @@
         <v>95</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="C68" s="4" t="n">
         <v>5.4740242</v>
@@ -7032,7 +7547,7 @@
         <v>95</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="C69" s="4" t="n">
         <v>5.0492016</v>
@@ -7170,7 +7685,7 @@
         <v>103</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="C75" s="4" t="n">
         <v>2.7314032</v>
@@ -7193,7 +7708,7 @@
         <v>103</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="C76" s="4" t="n">
         <v>2.7375454</v>
@@ -7262,7 +7777,7 @@
         <v>107</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="C79" s="4" t="n">
         <v>2.5848074</v>
@@ -7469,7 +7984,7 @@
         <v>118</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="C88" s="4" t="n">
         <v>1.9251046</v>
@@ -7492,7 +8007,7 @@
         <v>122</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="C89" s="4" t="n">
         <v>2.1296676</v>
@@ -7561,7 +8076,7 @@
         <v>126</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="C92" s="4" t="n">
         <v>2.543308</v>
@@ -7584,7 +8099,7 @@
         <v>126</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="C93" s="4" t="n">
         <v>2.6339666</v>
@@ -7607,7 +8122,7 @@
         <v>126</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="C94" s="4" t="n">
         <v>2.4568346</v>
@@ -7745,7 +8260,7 @@
         <v>131</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="C100" s="4" t="n">
         <v>2.403287</v>
@@ -7791,7 +8306,7 @@
         <v>134</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="C102" s="4" t="n">
         <v>3.021798</v>
@@ -7906,7 +8421,7 @@
         <v>139</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="C107" s="4" t="n">
         <v>2.208845</v>
@@ -8090,7 +8605,7 @@
         <v>144</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="C115" s="4" t="n">
         <v>2.1219888</v>
@@ -8182,7 +8697,7 @@
         <v>152</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="C119" s="4" t="n">
         <v>2.5949094</v>
@@ -8228,7 +8743,7 @@
         <v>152</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="C121" s="4" t="n">
         <v>1.9941926</v>
@@ -8251,7 +8766,7 @@
         <v>156</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="C122" s="4" t="n">
         <v>2.4594108</v>
@@ -8435,7 +8950,7 @@
         <v>164</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="C130" s="4" t="n">
         <v>1.9619838</v>
@@ -8504,7 +9019,7 @@
         <v>169</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="C133" s="4" t="n">
         <v>1.8671148</v>
@@ -8829,12 +9344,12 @@
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
     </row>
-    <row r="147" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
         <v>184</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="C147" s="4" t="n">
         <v>3.166509</v>
@@ -8854,12 +9369,12 @@
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
     </row>
-    <row r="148" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
         <v>184</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="C148" s="4" t="n">
         <v>3.119118</v>
@@ -8879,12 +9394,12 @@
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
     </row>
-    <row r="149" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
         <v>184</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="C149" s="4" t="n">
         <v>2.901321</v>
@@ -8904,7 +9419,7 @@
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
     </row>
-    <row r="150" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
         <v>184</v>
       </c>
@@ -8928,6 +9443,456 @@
       </c>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
+    </row>
+    <row r="151" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C151" s="4" t="n">
+        <v>2.1470916</v>
+      </c>
+      <c r="D151" s="4" t="n">
+        <v>0.981599</v>
+      </c>
+      <c r="E151" s="4" t="n">
+        <v>0.9603492</v>
+      </c>
+      <c r="F151" s="4" t="n">
+        <v>1.812485</v>
+      </c>
+      <c r="G151" s="4" t="n">
+        <v>1.4145872</v>
+      </c>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+    </row>
+    <row r="152" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C152" s="4" t="n">
+        <v>2.4182906</v>
+      </c>
+      <c r="D152" s="4" t="n">
+        <v>1.0771462</v>
+      </c>
+      <c r="E152" s="4" t="n">
+        <v>0.9486112</v>
+      </c>
+      <c r="F152" s="4" t="n">
+        <v>1.9269958</v>
+      </c>
+      <c r="G152" s="4" t="n">
+        <v>0.9627344</v>
+      </c>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+    </row>
+    <row r="153" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C153" s="4" t="n">
+        <v>1.9058444</v>
+      </c>
+      <c r="D153" s="4" t="n">
+        <v>0.9736746</v>
+      </c>
+      <c r="E153" s="4" t="n">
+        <v>0.9860464</v>
+      </c>
+      <c r="F153" s="4" t="n">
+        <v>1.8836692</v>
+      </c>
+      <c r="G153" s="4" t="n">
+        <v>0.8925332</v>
+      </c>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+    </row>
+    <row r="154" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A154" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C154" s="4" t="n">
+        <v>2.1936474</v>
+      </c>
+      <c r="D154" s="4" t="n">
+        <v>3.811976</v>
+      </c>
+      <c r="E154" s="4" t="n">
+        <v>1.2365782</v>
+      </c>
+      <c r="F154" s="4" t="n">
+        <v>2.2489678</v>
+      </c>
+      <c r="G154" s="4" t="n">
+        <v>1.419019</v>
+      </c>
+      <c r="H154" s="4"/>
+      <c r="I154" s="4"/>
+    </row>
+    <row r="155" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C155" s="4" t="n">
+        <v>2.6669154</v>
+      </c>
+      <c r="D155" s="4" t="n">
+        <v>1.2698954</v>
+      </c>
+      <c r="E155" s="4" t="n">
+        <v>1.0376078</v>
+      </c>
+      <c r="F155" s="4" t="n">
+        <v>1.9594098</v>
+      </c>
+      <c r="G155" s="4" t="n">
+        <v>1.0260942</v>
+      </c>
+      <c r="H155" s="4"/>
+      <c r="I155" s="4"/>
+    </row>
+    <row r="156" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C156" s="4" t="n">
+        <v>2.0243984</v>
+      </c>
+      <c r="D156" s="4" t="n">
+        <v>0.9302646</v>
+      </c>
+      <c r="E156" s="4" t="n">
+        <v>0.9283052</v>
+      </c>
+      <c r="F156" s="4" t="n">
+        <v>1.9717404</v>
+      </c>
+      <c r="G156" s="4" t="n">
+        <v>1.0228874</v>
+      </c>
+      <c r="H156" s="4"/>
+      <c r="I156" s="4"/>
+    </row>
+    <row r="157" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C157" s="4" t="n">
+        <v>2.0150648</v>
+      </c>
+      <c r="D157" s="4" t="n">
+        <v>3.675397</v>
+      </c>
+      <c r="E157" s="4" t="n">
+        <v>0.9011374</v>
+      </c>
+      <c r="F157" s="4" t="n">
+        <v>2.209523</v>
+      </c>
+      <c r="G157" s="4" t="n">
+        <v>0.8721244</v>
+      </c>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
+    </row>
+    <row r="158" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A158" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C158" s="4" t="n">
+        <v>1.8255374</v>
+      </c>
+      <c r="D158" s="4" t="n">
+        <v>0.9395278</v>
+      </c>
+      <c r="E158" s="4" t="n">
+        <v>0.7283162</v>
+      </c>
+      <c r="F158" s="4" t="n">
+        <v>1.887284</v>
+      </c>
+      <c r="G158" s="4" t="n">
+        <v>0.890437</v>
+      </c>
+      <c r="H158" s="4"/>
+      <c r="I158" s="4"/>
+    </row>
+    <row r="159" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A159" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C159" s="4" t="n">
+        <v>1.867058</v>
+      </c>
+      <c r="D159" s="4" t="n">
+        <v>1.2175712</v>
+      </c>
+      <c r="E159" s="4" t="n">
+        <v>0.6868138</v>
+      </c>
+      <c r="F159" s="4" t="n">
+        <v>1.8602554</v>
+      </c>
+      <c r="G159" s="4" t="n">
+        <v>0.8112508</v>
+      </c>
+      <c r="H159" s="4"/>
+      <c r="I159" s="4"/>
+    </row>
+    <row r="160" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A160" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C160" s="4" t="n">
+        <v>1.903842</v>
+      </c>
+      <c r="D160" s="4" t="n">
+        <v>3.7476406</v>
+      </c>
+      <c r="E160" s="4" t="n">
+        <v>1.0293224</v>
+      </c>
+      <c r="F160" s="4" t="n">
+        <v>2.3014292</v>
+      </c>
+      <c r="G160" s="4" t="n">
+        <v>1.0148194</v>
+      </c>
+      <c r="H160" s="4"/>
+      <c r="I160" s="4"/>
+    </row>
+    <row r="161" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A161" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C161" s="4" t="n">
+        <v>1.9323792</v>
+      </c>
+      <c r="D161" s="4" t="n">
+        <v>0.8370864</v>
+      </c>
+      <c r="E161" s="4" t="n">
+        <v>0.8076148</v>
+      </c>
+      <c r="F161" s="4" t="n">
+        <v>2.0285332</v>
+      </c>
+      <c r="G161" s="4" t="n">
+        <v>0.929991</v>
+      </c>
+      <c r="H161" s="4"/>
+      <c r="I161" s="4"/>
+    </row>
+    <row r="162" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A162" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C162" s="4" t="n">
+        <v>2.088315</v>
+      </c>
+      <c r="D162" s="4" t="n">
+        <v>0.9870856</v>
+      </c>
+      <c r="E162" s="4" t="n">
+        <v>0.8451832</v>
+      </c>
+      <c r="F162" s="4" t="n">
+        <v>2.1875732</v>
+      </c>
+      <c r="G162" s="4" t="n">
+        <v>1.034857</v>
+      </c>
+      <c r="H162" s="4"/>
+      <c r="I162" s="4"/>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C163" s="4" t="n">
+        <v>2.0239208</v>
+      </c>
+      <c r="D163" s="4" t="n">
+        <v>3.747912</v>
+      </c>
+      <c r="E163" s="4" t="n">
+        <v>0.917468</v>
+      </c>
+      <c r="F163" s="4" t="n">
+        <v>2.3209064</v>
+      </c>
+      <c r="G163" s="4" t="n">
+        <v>0.9461036</v>
+      </c>
+      <c r="H163" s="4"/>
+      <c r="I163" s="4"/>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C164" s="4" t="n">
+        <v>2.169521</v>
+      </c>
+      <c r="D164" s="4" t="n">
+        <v>0.9721422</v>
+      </c>
+      <c r="E164" s="4" t="n">
+        <v>0.7708548</v>
+      </c>
+      <c r="F164" s="4" t="n">
+        <v>1.947857</v>
+      </c>
+      <c r="G164" s="4" t="n">
+        <v>0.9909148</v>
+      </c>
+      <c r="H164" s="4"/>
+      <c r="I164" s="4"/>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C165" s="4" t="n">
+        <v>1.8148818</v>
+      </c>
+      <c r="D165" s="4" t="n">
+        <v>1.0183276</v>
+      </c>
+      <c r="E165" s="4" t="n">
+        <v>0.9881268</v>
+      </c>
+      <c r="F165" s="4" t="n">
+        <v>2.0127772</v>
+      </c>
+      <c r="G165" s="4" t="n">
+        <v>1.3200366</v>
+      </c>
+      <c r="H165" s="4"/>
+      <c r="I165" s="4"/>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C166" s="4" t="n">
+        <v>2.0783556</v>
+      </c>
+      <c r="D166" s="4" t="n">
+        <v>3.741592</v>
+      </c>
+      <c r="E166" s="4" t="n">
+        <v>0.9758132</v>
+      </c>
+      <c r="F166" s="4" t="n">
+        <v>2.3328636</v>
+      </c>
+      <c r="G166" s="4" t="n">
+        <v>1.0307852</v>
+      </c>
+      <c r="H166" s="4"/>
+      <c r="I166" s="4"/>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C167" s="4" t="n">
+        <v>1.8280256</v>
+      </c>
+      <c r="D167" s="4" t="n">
+        <v>0.818792</v>
+      </c>
+      <c r="E167" s="4" t="n">
+        <v>0.778188</v>
+      </c>
+      <c r="F167" s="4" t="n">
+        <v>1.896252</v>
+      </c>
+      <c r="G167" s="4" t="n">
+        <v>0.9732234</v>
+      </c>
+      <c r="H167" s="4"/>
+      <c r="I167" s="4"/>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C168" s="4" t="n">
+        <v>1.8148518</v>
+      </c>
+      <c r="D168" s="4" t="n">
+        <v>0.9048064</v>
+      </c>
+      <c r="E168" s="4" t="n">
+        <v>0.7522962</v>
+      </c>
+      <c r="F168" s="4" t="n">
+        <v>2.003718</v>
+      </c>
+      <c r="G168" s="4" t="n">
+        <v>0.991771</v>
+      </c>
+      <c r="H168" s="4"/>
+      <c r="I168" s="4"/>
     </row>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8962,8 +9927,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A134" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C149" activeCellId="0" sqref="C149"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A162" activeCellId="0" sqref="A162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9007,7 +9972,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>0.7804054</v>
@@ -9030,7 +9995,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>0.7779802</v>
@@ -9053,7 +10018,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>0.7043458</v>
@@ -9076,7 +10041,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>0.7145706</v>
@@ -9145,7 +10110,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>0.6280168</v>
@@ -9191,7 +10156,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>0.7373706</v>
@@ -9237,7 +10202,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>0.7234852</v>
@@ -9329,7 +10294,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>0.3510038</v>
@@ -9375,7 +10340,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>0.5591408</v>
@@ -9398,7 +10363,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>0.5551518</v>
@@ -9490,7 +10455,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>0.9795414</v>
@@ -9513,7 +10478,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>3.7305486</v>
@@ -9536,7 +10501,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="C25" s="4" t="n">
         <v>2.3842444</v>
@@ -9559,7 +10524,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>2.139728</v>
@@ -9582,7 +10547,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>0.7112716</v>
@@ -9605,7 +10570,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>0.67812</v>
@@ -9651,7 +10616,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>0.712753</v>
@@ -9674,7 +10639,7 @@
         <v>46</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="C31" s="4" t="n">
         <v>0.630812</v>
@@ -9720,7 +10685,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>0.7013216</v>
@@ -9789,7 +10754,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>0.7043458</v>
@@ -9812,7 +10777,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>0.7145706</v>
@@ -9835,7 +10800,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>1.2584274</v>
@@ -9858,7 +10823,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>1.3856258</v>
@@ -9881,7 +10846,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>1.1413118</v>
@@ -9904,7 +10869,7 @@
         <v>60</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>2.0516946</v>
@@ -9973,7 +10938,7 @@
         <v>64</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>0.7883284</v>
@@ -10019,7 +10984,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="C46" s="4" t="n">
         <v>0.6814198</v>
@@ -10134,7 +11099,7 @@
         <v>72</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="C51" s="4" t="n">
         <v>1.4049502</v>
@@ -10180,7 +11145,7 @@
         <v>76</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="C53" s="4" t="n">
         <v>0.9897652</v>
@@ -10249,7 +11214,7 @@
         <v>80</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="C56" s="4" t="n">
         <v>1.2353042</v>
@@ -10295,7 +11260,7 @@
         <v>80</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="C58" s="4" t="n">
         <v>1.2364662</v>
@@ -10341,7 +11306,7 @@
         <v>84</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="C60" s="4" t="n">
         <v>1.1438926</v>
@@ -10456,7 +11421,7 @@
         <v>91</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="C65" s="4" t="n">
         <v>1.8978822</v>
@@ -10479,7 +11444,7 @@
         <v>91</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="C66" s="4" t="n">
         <v>1.1060998</v>
@@ -10502,7 +11467,7 @@
         <v>91</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="C67" s="4" t="n">
         <v>1.6069744</v>
@@ -10525,7 +11490,7 @@
         <v>95</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C68" s="4" t="n">
         <v>1.6301784</v>
@@ -10548,7 +11513,7 @@
         <v>95</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="C69" s="4" t="n">
         <v>1.5682082</v>
@@ -10571,7 +11536,7 @@
         <v>95</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="C70" s="4" t="n">
         <v>1.4442308</v>
@@ -10709,7 +11674,7 @@
         <v>103</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="C76" s="4" t="n">
         <v>1.1822766</v>
@@ -10778,7 +11743,7 @@
         <v>107</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="C79" s="4" t="n">
         <v>1.573159</v>
@@ -11077,7 +12042,7 @@
         <v>126</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="C92" s="4" t="n">
         <v>1.5482428</v>
@@ -11100,7 +12065,7 @@
         <v>126</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="C93" s="4" t="n">
         <v>1.8137892</v>
@@ -11123,7 +12088,7 @@
         <v>126</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="C94" s="4" t="n">
         <v>1.6058992</v>
@@ -11192,7 +12157,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="C97" s="4" t="n">
         <v>1.4182292</v>
@@ -11284,7 +12249,7 @@
         <v>134</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="C101" s="4" t="n">
         <v>1.2684794</v>
@@ -11422,7 +12387,7 @@
         <v>139</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="C107" s="4" t="n">
         <v>1.295247</v>
@@ -11445,7 +12410,7 @@
         <v>139</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="C108" s="4" t="n">
         <v>1.22489</v>
@@ -11468,7 +12433,7 @@
         <v>139</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="C109" s="4" t="n">
         <v>1.1823422</v>
@@ -11491,7 +12456,7 @@
         <v>142</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="C110" s="4" t="n">
         <v>1.1176918</v>
@@ -11583,7 +12548,7 @@
         <v>144</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="C114" s="4" t="n">
         <v>0.5937896</v>
@@ -11675,7 +12640,7 @@
         <v>148</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="C118" s="4" t="n">
         <v>0.6148816</v>
@@ -11744,7 +12709,7 @@
         <v>152</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="C121" s="4" t="n">
         <v>0.5689302</v>
@@ -11859,7 +12824,7 @@
         <v>160</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="C126" s="4" t="n">
         <v>0.6197108</v>
@@ -11997,7 +12962,7 @@
         <v>169</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="C132" s="4" t="n">
         <v>0.3808622</v>
@@ -12112,7 +13077,7 @@
         <v>169</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="C137" s="4" t="n">
         <v>0.3914072</v>
@@ -12135,7 +13100,7 @@
         <v>169</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="C138" s="4" t="n">
         <v>0.3957292</v>
@@ -12250,7 +13215,7 @@
         <v>182</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="C143" s="4" t="n">
         <v>1.1999426</v>
@@ -12345,7 +13310,7 @@
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
     </row>
-    <row r="147" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
         <v>184</v>
       </c>
@@ -12370,12 +13335,12 @@
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
     </row>
-    <row r="148" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
         <v>184</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="C148" s="4" t="n">
         <v>1.2852092</v>
@@ -12395,7 +13360,7 @@
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
     </row>
-    <row r="149" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
         <v>184</v>
       </c>
@@ -12420,7 +13385,7 @@
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
     </row>
-    <row r="150" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
         <v>184</v>
       </c>
@@ -12444,6 +13409,456 @@
       </c>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
+    </row>
+    <row r="151" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C151" s="4" t="n">
+        <v>0.341044</v>
+      </c>
+      <c r="D151" s="4" t="n">
+        <v>0.4335662</v>
+      </c>
+      <c r="E151" s="4" t="n">
+        <v>0.3932734</v>
+      </c>
+      <c r="F151" s="4" t="n">
+        <v>1.0805958</v>
+      </c>
+      <c r="G151" s="4" t="n">
+        <v>0.3827804</v>
+      </c>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+    </row>
+    <row r="152" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C152" s="4" t="n">
+        <v>0.2912722</v>
+      </c>
+      <c r="D152" s="4" t="n">
+        <v>0.436794</v>
+      </c>
+      <c r="E152" s="4" t="n">
+        <v>0.4111092</v>
+      </c>
+      <c r="F152" s="4" t="n">
+        <v>1.0843932</v>
+      </c>
+      <c r="G152" s="4" t="n">
+        <v>0.3806732</v>
+      </c>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+    </row>
+    <row r="153" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C153" s="4" t="n">
+        <v>0.3210446</v>
+      </c>
+      <c r="D153" s="4" t="n">
+        <v>0.389119</v>
+      </c>
+      <c r="E153" s="4" t="n">
+        <v>0.386568</v>
+      </c>
+      <c r="F153" s="4" t="n">
+        <v>1.2577992</v>
+      </c>
+      <c r="G153" s="4" t="n">
+        <v>0.3464332</v>
+      </c>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+    </row>
+    <row r="154" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A154" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C154" s="4" t="n">
+        <v>0.330861</v>
+      </c>
+      <c r="D154" s="4" t="n">
+        <v>0.374702</v>
+      </c>
+      <c r="E154" s="4" t="n">
+        <v>0.4544544</v>
+      </c>
+      <c r="F154" s="4" t="n">
+        <v>1.1471554</v>
+      </c>
+      <c r="G154" s="4" t="n">
+        <v>0.4425632</v>
+      </c>
+      <c r="H154" s="4"/>
+      <c r="I154" s="4"/>
+    </row>
+    <row r="155" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C155" s="4" t="n">
+        <v>0.32374</v>
+      </c>
+      <c r="D155" s="4" t="n">
+        <v>0.3564318</v>
+      </c>
+      <c r="E155" s="4" t="n">
+        <v>0.3797502</v>
+      </c>
+      <c r="F155" s="4" t="n">
+        <v>1.126035</v>
+      </c>
+      <c r="G155" s="4" t="n">
+        <v>0.4003744</v>
+      </c>
+      <c r="H155" s="4"/>
+      <c r="I155" s="4"/>
+    </row>
+    <row r="156" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C156" s="4" t="n">
+        <v>0.3121396</v>
+      </c>
+      <c r="D156" s="4" t="n">
+        <v>0.3731322</v>
+      </c>
+      <c r="E156" s="4" t="n">
+        <v>0.4546234</v>
+      </c>
+      <c r="F156" s="4" t="n">
+        <v>1.103685</v>
+      </c>
+      <c r="G156" s="4" t="n">
+        <v>0.4321736</v>
+      </c>
+      <c r="H156" s="4"/>
+      <c r="I156" s="4"/>
+    </row>
+    <row r="157" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C157" s="4" t="n">
+        <v>0.2628038</v>
+      </c>
+      <c r="D157" s="4" t="n">
+        <v>0.3864066</v>
+      </c>
+      <c r="E157" s="4" t="n">
+        <v>0.4123068</v>
+      </c>
+      <c r="F157" s="4" t="n">
+        <v>1.0364232</v>
+      </c>
+      <c r="G157" s="4" t="n">
+        <v>0.360305</v>
+      </c>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
+    </row>
+    <row r="158" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A158" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C158" s="4" t="n">
+        <v>0.2738202</v>
+      </c>
+      <c r="D158" s="4" t="n">
+        <v>0.3781798</v>
+      </c>
+      <c r="E158" s="4" t="n">
+        <v>0.3669002</v>
+      </c>
+      <c r="F158" s="4" t="n">
+        <v>1.2050612</v>
+      </c>
+      <c r="G158" s="4" t="n">
+        <v>0.454465</v>
+      </c>
+      <c r="H158" s="4"/>
+      <c r="I158" s="4"/>
+    </row>
+    <row r="159" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A159" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C159" s="4" t="n">
+        <v>0.295909</v>
+      </c>
+      <c r="D159" s="4" t="n">
+        <v>0.3464468</v>
+      </c>
+      <c r="E159" s="4" t="n">
+        <v>0.4616776</v>
+      </c>
+      <c r="F159" s="4" t="n">
+        <v>1.0842762</v>
+      </c>
+      <c r="G159" s="4" t="n">
+        <v>0.4186076</v>
+      </c>
+      <c r="H159" s="4"/>
+      <c r="I159" s="4"/>
+    </row>
+    <row r="160" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A160" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C160" s="4" t="n">
+        <v>0.4284924</v>
+      </c>
+      <c r="D160" s="4" t="n">
+        <v>0.3636088</v>
+      </c>
+      <c r="E160" s="4" t="n">
+        <v>0.408095</v>
+      </c>
+      <c r="F160" s="4" t="n">
+        <v>1.0761354</v>
+      </c>
+      <c r="G160" s="4" t="n">
+        <v>0.4143918</v>
+      </c>
+      <c r="H160" s="4"/>
+      <c r="I160" s="4"/>
+    </row>
+    <row r="161" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A161" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C161" s="4" t="n">
+        <v>0.4447422</v>
+      </c>
+      <c r="D161" s="4" t="n">
+        <v>0.3852628</v>
+      </c>
+      <c r="E161" s="4" t="n">
+        <v>0.4412148</v>
+      </c>
+      <c r="F161" s="4" t="n">
+        <v>1.086052</v>
+      </c>
+      <c r="G161" s="4" t="n">
+        <v>0.4151044</v>
+      </c>
+      <c r="H161" s="4"/>
+      <c r="I161" s="4"/>
+    </row>
+    <row r="162" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A162" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C162" s="4" t="n">
+        <v>0.3561156</v>
+      </c>
+      <c r="D162" s="4" t="n">
+        <v>0.427752</v>
+      </c>
+      <c r="E162" s="4" t="n">
+        <v>0.4149876</v>
+      </c>
+      <c r="F162" s="4" t="n">
+        <v>1.0829938</v>
+      </c>
+      <c r="G162" s="4" t="n">
+        <v>0.4773104</v>
+      </c>
+      <c r="H162" s="4"/>
+      <c r="I162" s="4"/>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C163" s="4" t="n">
+        <v>0.3167284</v>
+      </c>
+      <c r="D163" s="4" t="n">
+        <v>0.3627802</v>
+      </c>
+      <c r="E163" s="4" t="n">
+        <v>0.3224276</v>
+      </c>
+      <c r="F163" s="4" t="n">
+        <v>1.0582904</v>
+      </c>
+      <c r="G163" s="4" t="n">
+        <v>0.4067482</v>
+      </c>
+      <c r="H163" s="4"/>
+      <c r="I163" s="4"/>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C164" s="4" t="n">
+        <v>0.3191094</v>
+      </c>
+      <c r="D164" s="4" t="n">
+        <v>0.4084474</v>
+      </c>
+      <c r="E164" s="4" t="n">
+        <v>0.335432</v>
+      </c>
+      <c r="F164" s="4" t="n">
+        <v>1.1269936</v>
+      </c>
+      <c r="G164" s="4" t="n">
+        <v>0.5002226</v>
+      </c>
+      <c r="H164" s="4"/>
+      <c r="I164" s="4"/>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C165" s="4" t="n">
+        <v>0.270239</v>
+      </c>
+      <c r="D165" s="4" t="n">
+        <v>0.4049072</v>
+      </c>
+      <c r="E165" s="4" t="n">
+        <v>0.3309102</v>
+      </c>
+      <c r="F165" s="4" t="n">
+        <v>0.999069</v>
+      </c>
+      <c r="G165" s="4" t="n">
+        <v>0.3829778</v>
+      </c>
+      <c r="H165" s="4"/>
+      <c r="I165" s="4"/>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C166" s="4" t="n">
+        <v>0.322105</v>
+      </c>
+      <c r="D166" s="4" t="n">
+        <v>0.3801362</v>
+      </c>
+      <c r="E166" s="4" t="n">
+        <v>0.4459698</v>
+      </c>
+      <c r="F166" s="4" t="n">
+        <v>1.058823</v>
+      </c>
+      <c r="G166" s="4" t="n">
+        <v>0.5547592</v>
+      </c>
+      <c r="H166" s="4"/>
+      <c r="I166" s="4"/>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C167" s="4" t="n">
+        <v>0.4000132</v>
+      </c>
+      <c r="D167" s="4" t="n">
+        <v>0.435837</v>
+      </c>
+      <c r="E167" s="4" t="n">
+        <v>0.473991</v>
+      </c>
+      <c r="F167" s="4" t="n">
+        <v>1.1502394</v>
+      </c>
+      <c r="G167" s="4" t="n">
+        <v>0.451962</v>
+      </c>
+      <c r="H167" s="4"/>
+      <c r="I167" s="4"/>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C168" s="4" t="n">
+        <v>0.3239856</v>
+      </c>
+      <c r="D168" s="4" t="n">
+        <v>0.3852372</v>
+      </c>
+      <c r="E168" s="4" t="n">
+        <v>0.4355868</v>
+      </c>
+      <c r="F168" s="4" t="n">
+        <v>1.1351882</v>
+      </c>
+      <c r="G168" s="4" t="n">
+        <v>0.4319908</v>
+      </c>
+      <c r="H168" s="4"/>
+      <c r="I168" s="4"/>
     </row>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -12473,8 +13888,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A138" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C152" activeCellId="0" sqref="C152"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A162" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D165" activeCellId="0" sqref="D165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12520,7 +13935,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>3.4656902</v>
@@ -12543,7 +13958,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>4.0852622</v>
@@ -12566,7 +13981,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>2.9817282</v>
@@ -12589,7 +14004,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>3.2355116</v>
@@ -12658,7 +14073,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>3.7434734</v>
@@ -12681,7 +14096,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>3.5561424</v>
@@ -12704,7 +14119,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>3.2355472</v>
@@ -12727,7 +14142,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>3.8741284</v>
@@ -12750,7 +14165,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>3.5923944</v>
@@ -12819,7 +14234,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>3.0850886</v>
@@ -12842,7 +14257,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>4.2818632</v>
@@ -12888,7 +14303,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>3.5907182</v>
@@ -12911,7 +14326,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>2.8087598</v>
@@ -12934,7 +14349,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>3.0989676</v>
@@ -12957,7 +14372,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="C21" s="4" t="n">
         <v>2.9089418</v>
@@ -13026,7 +14441,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>3.6907394</v>
@@ -13072,7 +14487,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>3.822524</v>
@@ -13095,7 +14510,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>3.2866498</v>
@@ -13118,7 +14533,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>3.8178666</v>
@@ -13164,7 +14579,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>3.0702744</v>
@@ -13233,7 +14648,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>3.6235082</v>
@@ -13256,7 +14671,7 @@
         <v>50</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>2.9263998</v>
@@ -13302,7 +14717,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>3.2355116</v>
@@ -13348,7 +14763,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>4.4183598</v>
@@ -13371,7 +14786,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>4.2271066</v>
@@ -13394,7 +14809,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>4.3486802</v>
@@ -13440,7 +14855,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>3.6324914</v>
@@ -13486,7 +14901,7 @@
         <v>64</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>3.8775138</v>
@@ -13532,7 +14947,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="C46" s="4" t="n">
         <v>3.8538836</v>
@@ -13647,7 +15062,7 @@
         <v>72</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="C51" s="4" t="n">
         <v>4.7661336</v>
@@ -13670,7 +15085,7 @@
         <v>72</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="C52" s="4" t="n">
         <v>4.1553188</v>
@@ -13693,7 +15108,7 @@
         <v>76</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="C53" s="4" t="n">
         <v>4.4161086</v>
@@ -13716,7 +15131,7 @@
         <v>76</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="C54" s="4" t="n">
         <v>3.9109934</v>
@@ -13739,7 +15154,7 @@
         <v>76</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="C55" s="4" t="n">
         <v>3.9109934</v>
@@ -13762,7 +15177,7 @@
         <v>80</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="C56" s="4" t="n">
         <v>3.4861618</v>
@@ -13808,7 +15223,7 @@
         <v>80</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="C58" s="4" t="n">
         <v>3.52287</v>
@@ -13992,7 +15407,7 @@
         <v>91</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="C66" s="4" t="n">
         <v>4.0686228</v>
@@ -14015,7 +15430,7 @@
         <v>91</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="C67" s="4" t="n">
         <v>3.0381616</v>
@@ -14038,7 +15453,7 @@
         <v>95</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C68" s="4" t="n">
         <v>3.9888114</v>
@@ -14061,7 +15476,7 @@
         <v>95</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="C69" s="4" t="n">
         <v>4.1137066</v>
@@ -14084,7 +15499,7 @@
         <v>95</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="C70" s="4" t="n">
         <v>4.983335</v>
@@ -14222,7 +15637,7 @@
         <v>103</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="C76" s="4" t="n">
         <v>4.5492628</v>
@@ -14291,7 +15706,7 @@
         <v>107</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="C79" s="4" t="n">
         <v>4.5622134</v>
@@ -14613,7 +16028,7 @@
         <v>126</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="C93" s="4" t="n">
         <v>4.559301</v>
@@ -14705,7 +16120,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="C97" s="4" t="n">
         <v>3.7013772</v>
@@ -14774,7 +16189,7 @@
         <v>131</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="C100" s="4" t="n">
         <v>4.1470936</v>
@@ -14797,7 +16212,7 @@
         <v>134</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="C101" s="4" t="n">
         <v>4.5941812</v>
@@ -14843,7 +16258,7 @@
         <v>134</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="C103" s="4" t="n">
         <v>4.2355866</v>
@@ -14935,7 +16350,7 @@
         <v>139</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="C107" s="4" t="n">
         <v>3.9397008</v>
@@ -14958,7 +16373,7 @@
         <v>139</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="C108" s="4" t="n">
         <v>3.8446282</v>
@@ -14981,7 +16396,7 @@
         <v>139</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="C109" s="4" t="n">
         <v>3.6811188</v>
@@ -15004,7 +16419,7 @@
         <v>142</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="C110" s="4" t="n">
         <v>4.0021732</v>
@@ -15165,7 +16580,7 @@
         <v>148</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="C117" s="4" t="n">
         <v>3.9349018</v>
@@ -15257,7 +16672,7 @@
         <v>152</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="C121" s="4" t="n">
         <v>3.7466574</v>
@@ -15326,7 +16741,7 @@
         <v>156</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="C124" s="4" t="n">
         <v>3.986907</v>
@@ -15372,7 +16787,7 @@
         <v>160</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="C126" s="4" t="n">
         <v>3.6994948</v>
@@ -15464,7 +16879,7 @@
         <v>164</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="C130" s="4" t="n">
         <v>4.1747286</v>
@@ -15487,7 +16902,7 @@
         <v>167</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="C131" s="4" t="n">
         <v>3.529065</v>
@@ -15556,7 +16971,7 @@
         <v>169</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>299</v>
+        <v>201</v>
       </c>
       <c r="C134" s="4" t="n">
         <v>3.860798</v>
@@ -15625,7 +17040,7 @@
         <v>169</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="C137" s="4" t="n">
         <v>3.1387814</v>
@@ -15763,7 +17178,7 @@
         <v>182</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="C143" s="4" t="n">
         <v>3.6613182</v>
@@ -15858,12 +17273,12 @@
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
     </row>
-    <row r="147" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
         <v>184</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="C147" s="4" t="n">
         <v>4.9899384</v>
@@ -15883,12 +17298,12 @@
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
     </row>
-    <row r="148" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
         <v>184</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="C148" s="4" t="n">
         <v>4.6078064</v>
@@ -15908,7 +17323,7 @@
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
     </row>
-    <row r="149" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
         <v>184</v>
       </c>
@@ -15933,7 +17348,7 @@
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
     </row>
-    <row r="150" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
         <v>184</v>
       </c>
@@ -15957,6 +17372,456 @@
       </c>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
+    </row>
+    <row r="151" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C151" s="4" t="n">
+        <v>3.8514352</v>
+      </c>
+      <c r="D151" s="4" t="n">
+        <v>1.9877734</v>
+      </c>
+      <c r="E151" s="4" t="n">
+        <v>1.5929396</v>
+      </c>
+      <c r="F151" s="4" t="n">
+        <v>2.6716074</v>
+      </c>
+      <c r="G151" s="4" t="n">
+        <v>0.9821364</v>
+      </c>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+    </row>
+    <row r="152" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C152" s="4" t="n">
+        <v>3.3446904</v>
+      </c>
+      <c r="D152" s="4" t="n">
+        <v>1.1473262</v>
+      </c>
+      <c r="E152" s="4" t="n">
+        <v>1.1361776</v>
+      </c>
+      <c r="F152" s="4" t="n">
+        <v>1.9771668</v>
+      </c>
+      <c r="G152" s="4" t="n">
+        <v>1.0116422</v>
+      </c>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+    </row>
+    <row r="153" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C153" s="4" t="n">
+        <v>3.3410662</v>
+      </c>
+      <c r="D153" s="4" t="n">
+        <v>1.298536</v>
+      </c>
+      <c r="E153" s="4" t="n">
+        <v>1.6821132</v>
+      </c>
+      <c r="F153" s="4" t="n">
+        <v>2.2322534</v>
+      </c>
+      <c r="G153" s="4" t="n">
+        <v>1.0814708</v>
+      </c>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+    </row>
+    <row r="154" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A154" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C154" s="4" t="n">
+        <v>3.511942</v>
+      </c>
+      <c r="D154" s="4" t="n">
+        <v>2.0010236</v>
+      </c>
+      <c r="E154" s="4" t="n">
+        <v>1.9996018</v>
+      </c>
+      <c r="F154" s="4" t="n">
+        <v>3.2145544</v>
+      </c>
+      <c r="G154" s="4" t="n">
+        <v>0.990533</v>
+      </c>
+      <c r="H154" s="4"/>
+      <c r="I154" s="4"/>
+    </row>
+    <row r="155" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C155" s="4" t="n">
+        <v>3.1867668</v>
+      </c>
+      <c r="D155" s="4" t="n">
+        <v>1.2640376</v>
+      </c>
+      <c r="E155" s="4" t="n">
+        <v>1.374595</v>
+      </c>
+      <c r="F155" s="4" t="n">
+        <v>5.9821246</v>
+      </c>
+      <c r="G155" s="4" t="n">
+        <v>1.0624774</v>
+      </c>
+      <c r="H155" s="4"/>
+      <c r="I155" s="4"/>
+    </row>
+    <row r="156" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C156" s="4" t="n">
+        <v>3.6757588</v>
+      </c>
+      <c r="D156" s="4" t="n">
+        <v>1.4688764</v>
+      </c>
+      <c r="E156" s="4" t="n">
+        <v>1.4974906</v>
+      </c>
+      <c r="F156" s="4" t="n">
+        <v>2.322789</v>
+      </c>
+      <c r="G156" s="4" t="n">
+        <v>1.0782622</v>
+      </c>
+      <c r="H156" s="4"/>
+      <c r="I156" s="4"/>
+    </row>
+    <row r="157" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C157" s="4" t="n">
+        <v>3.5571204</v>
+      </c>
+      <c r="D157" s="4" t="n">
+        <v>1.7964268</v>
+      </c>
+      <c r="E157" s="4" t="n">
+        <v>1.569639</v>
+      </c>
+      <c r="F157" s="4" t="n">
+        <v>2.656161</v>
+      </c>
+      <c r="G157" s="4" t="n">
+        <v>0.9368772</v>
+      </c>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
+    </row>
+    <row r="158" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A158" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C158" s="4" t="n">
+        <v>2.8369988</v>
+      </c>
+      <c r="D158" s="4" t="n">
+        <v>1.0814754</v>
+      </c>
+      <c r="E158" s="4" t="n">
+        <v>1.7165952</v>
+      </c>
+      <c r="F158" s="4" t="n">
+        <v>2.110493</v>
+      </c>
+      <c r="G158" s="4" t="n">
+        <v>0.9911516</v>
+      </c>
+      <c r="H158" s="4"/>
+      <c r="I158" s="4"/>
+    </row>
+    <row r="159" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A159" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C159" s="4" t="n">
+        <v>3.1456856</v>
+      </c>
+      <c r="D159" s="4" t="n">
+        <v>1.2942016</v>
+      </c>
+      <c r="E159" s="4" t="n">
+        <v>1.5267466</v>
+      </c>
+      <c r="F159" s="4" t="n">
+        <v>1.982171</v>
+      </c>
+      <c r="G159" s="4" t="n">
+        <v>0.4725696</v>
+      </c>
+      <c r="H159" s="4"/>
+      <c r="I159" s="4"/>
+    </row>
+    <row r="160" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A160" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C160" s="4" t="n">
+        <v>3.922615</v>
+      </c>
+      <c r="D160" s="4" t="n">
+        <v>3.8379828</v>
+      </c>
+      <c r="E160" s="4" t="n">
+        <v>1.1859932</v>
+      </c>
+      <c r="F160" s="4" t="n">
+        <v>2.633501</v>
+      </c>
+      <c r="G160" s="4" t="n">
+        <v>1.0292812</v>
+      </c>
+      <c r="H160" s="4"/>
+      <c r="I160" s="4"/>
+    </row>
+    <row r="161" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A161" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C161" s="4" t="n">
+        <v>3.129026</v>
+      </c>
+      <c r="D161" s="4" t="n">
+        <v>1.13325</v>
+      </c>
+      <c r="E161" s="4" t="n">
+        <v>0.9733588</v>
+      </c>
+      <c r="F161" s="4" t="n">
+        <v>2.238971</v>
+      </c>
+      <c r="G161" s="4" t="n">
+        <v>1.0543006</v>
+      </c>
+      <c r="H161" s="4"/>
+      <c r="I161" s="4"/>
+    </row>
+    <row r="162" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A162" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C162" s="4" t="n">
+        <v>3.6621834</v>
+      </c>
+      <c r="D162" s="4" t="n">
+        <v>1.0485952</v>
+      </c>
+      <c r="E162" s="4" t="n">
+        <v>0.943817</v>
+      </c>
+      <c r="F162" s="4" t="n">
+        <v>2.1048728</v>
+      </c>
+      <c r="G162" s="4" t="n">
+        <v>0.9081464</v>
+      </c>
+      <c r="H162" s="4"/>
+      <c r="I162" s="4"/>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C163" s="4" t="n">
+        <v>3.365378</v>
+      </c>
+      <c r="D163" s="4" t="n">
+        <v>1.664238</v>
+      </c>
+      <c r="E163" s="4" t="n">
+        <v>0.9031932</v>
+      </c>
+      <c r="F163" s="4" t="n">
+        <v>2.387528</v>
+      </c>
+      <c r="G163" s="4" t="n">
+        <v>0.9995786</v>
+      </c>
+      <c r="H163" s="4"/>
+      <c r="I163" s="4"/>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C164" s="4" t="n">
+        <v>3.7027662</v>
+      </c>
+      <c r="D164" s="4" t="n">
+        <v>1.2967302</v>
+      </c>
+      <c r="E164" s="4" t="n">
+        <v>1.2427226</v>
+      </c>
+      <c r="F164" s="4" t="n">
+        <v>2.089775</v>
+      </c>
+      <c r="G164" s="4" t="n">
+        <v>1.0914378</v>
+      </c>
+      <c r="H164" s="4"/>
+      <c r="I164" s="4"/>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C165" s="4" t="n">
+        <v>3.9194842</v>
+      </c>
+      <c r="D165" s="4" t="n">
+        <v>1.2250956</v>
+      </c>
+      <c r="E165" s="4" t="n">
+        <v>0.7927864</v>
+      </c>
+      <c r="F165" s="4" t="n">
+        <v>2.1312198</v>
+      </c>
+      <c r="G165" s="4" t="n">
+        <v>1.112239</v>
+      </c>
+      <c r="H165" s="4"/>
+      <c r="I165" s="4"/>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C166" s="4" t="n">
+        <v>3.8453304</v>
+      </c>
+      <c r="D166" s="4" t="n">
+        <v>1.83886</v>
+      </c>
+      <c r="E166" s="4" t="n">
+        <v>0.9755282</v>
+      </c>
+      <c r="F166" s="4" t="n">
+        <v>2.305023</v>
+      </c>
+      <c r="G166" s="4" t="n">
+        <v>0.859177</v>
+      </c>
+      <c r="H166" s="4"/>
+      <c r="I166" s="4"/>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C167" s="4" t="n">
+        <v>3.7039678</v>
+      </c>
+      <c r="D167" s="4" t="n">
+        <v>1.0500408</v>
+      </c>
+      <c r="E167" s="4" t="n">
+        <v>0.815237</v>
+      </c>
+      <c r="F167" s="4" t="n">
+        <v>2.3088078</v>
+      </c>
+      <c r="G167" s="4" t="n">
+        <v>1.0122206</v>
+      </c>
+      <c r="H167" s="4"/>
+      <c r="I167" s="4"/>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C168" s="4" t="n">
+        <v>3.7096014</v>
+      </c>
+      <c r="D168" s="4" t="n">
+        <v>1.3053094</v>
+      </c>
+      <c r="E168" s="4" t="n">
+        <v>1.1490274</v>
+      </c>
+      <c r="F168" s="4" t="n">
+        <v>2.512202</v>
+      </c>
+      <c r="G168" s="4" t="n">
+        <v>0.9049002</v>
+      </c>
+      <c r="H168" s="4"/>
+      <c r="I168" s="4"/>
     </row>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Output Data/Crpo/Common_folder/API_Performance_Chart_Report.xlsx
+++ b/Output Data/Crpo/Common_folder/API_Performance_Chart_Report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="356">
   <si>
     <t xml:space="preserve">get_tenant_details</t>
   </si>
@@ -656,6 +656,54 @@
     <t xml:space="preserve">05:11:PM</t>
   </si>
   <si>
+    <t xml:space="preserve">05:13:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:59:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:17:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:18:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:10:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:12:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:13:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:15:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:17:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:19:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:55:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:56:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:58:AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:41:PM</t>
   </si>
   <si>
@@ -782,6 +830,24 @@
     <t xml:space="preserve">05:09:PM</t>
   </si>
   <si>
+    <t xml:space="preserve">08:18:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:18:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:22:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:25:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:30:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:00:PM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:43:PM</t>
   </si>
   <si>
@@ -800,9 +866,6 @@
     <t xml:space="preserve">11:24:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">08:10:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">08:21:AM</t>
   </si>
   <si>
@@ -932,6 +995,12 @@
     <t xml:space="preserve">05:10:PM</t>
   </si>
   <si>
+    <t xml:space="preserve">08:11:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:16:PM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:44:PM</t>
   </si>
   <si>
@@ -941,9 +1010,6 @@
     <t xml:space="preserve">08:16:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">08:18:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">04:29:PM</t>
   </si>
   <si>
@@ -1017,6 +1083,15 @@
   </si>
   <si>
     <t xml:space="preserve">05:12:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:02:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:24:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:59:AM</t>
   </si>
 </sst>
 </file>
@@ -1160,31 +1235,31 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1331,16 +1406,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.07428282891566</c:v>
+                  <c:v>1.02920023687151</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.41015870658683</c:v>
+                  <c:v>2.38901973259668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.949352507784431</c:v>
+                  <c:v>0.915364274860335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.81975222035928</c:v>
+                  <c:v>3.81263425111111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1407,16 +1482,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.884868979518072</c:v>
+                  <c:v>0.853480106145252</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1477044742515</c:v>
+                  <c:v>2.28727468066298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1881117497006</c:v>
+                  <c:v>1.14078570167598</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.02643083473054</c:v>
+                  <c:v>1.99645761222222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1483,16 +1558,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.914744578313253</c:v>
+                  <c:v>0.877927574301676</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.57857243113773</c:v>
+                  <c:v>1.75045849060774</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.22129534850299</c:v>
+                  <c:v>1.17334780782123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.89275095329341</c:v>
+                  <c:v>1.84160820777778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1559,16 +1634,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.54995921445783</c:v>
+                  <c:v>1.52986577988827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.28203454491018</c:v>
+                  <c:v>2.45745003756906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.80089136886228</c:v>
+                  <c:v>1.76383223463687</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.74385565988024</c:v>
+                  <c:v>2.71625712777778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1635,16 +1710,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.841958362650603</c:v>
+                  <c:v>0.817053955307263</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.57990958083832</c:v>
+                  <c:v>1.68919568839779</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.10696194610779</c:v>
+                  <c:v>1.06898891396648</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.63361053652695</c:v>
+                  <c:v>1.59409121444444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1652,11 +1727,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="-10"/>
-        <c:axId val="59723609"/>
-        <c:axId val="76039697"/>
+        <c:axId val="25917763"/>
+        <c:axId val="70168716"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59723609"/>
+        <c:axId val="25917763"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1722,14 +1797,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76039697"/>
+        <c:crossAx val="70168716"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76039697"/>
+        <c:axId val="70168716"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1795,7 +1870,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59723609"/>
+        <c:crossAx val="25917763"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1887,7 +1962,7 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -1924,19 +1999,19 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.07428282891566</v>
+        <v>1.02920023687151</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.884868979518072</v>
+        <v>0.853480106145252</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.914744578313253</v>
+        <v>0.877927574301676</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1.54995921445783</v>
+        <v>1.52986577988827</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.841958362650603</v>
+        <v>0.817053955307263</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1944,19 +2019,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>2.41015870658683</v>
+        <v>2.38901973259668</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>2.1477044742515</v>
+        <v>2.28727468066298</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1.57857243113773</v>
+        <v>1.75045849060774</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>2.28203454491018</v>
+        <v>2.45745003756906</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1.57990958083832</v>
+        <v>1.68919568839779</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1964,19 +2039,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>0.949352507784431</v>
+        <v>0.915364274860335</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>1.1881117497006</v>
+        <v>1.14078570167598</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>1.22129534850299</v>
+        <v>1.17334780782123</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>1.80089136886228</v>
+        <v>1.76383223463687</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1.10696194610779</v>
+        <v>1.06898891396648</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1984,19 +2059,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>3.81975222035928</v>
+        <v>3.81263425111111</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>2.02643083473054</v>
+        <v>1.99645761222222</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>1.89275095329341</v>
+        <v>1.84160820777778</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>2.74385565988024</v>
+        <v>2.71625712777778</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1.63361053652695</v>
+        <v>1.59409121444444</v>
       </c>
     </row>
   </sheetData>
@@ -2018,8 +2093,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A152" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C160" activeCellId="0" sqref="C160"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A170" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A180" activeCellId="0" sqref="A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5776,7 +5851,7 @@
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
     </row>
-    <row r="162" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
         <v>200</v>
       </c>
@@ -5801,7 +5876,7 @@
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
         <v>203</v>
       </c>
@@ -5826,7 +5901,7 @@
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
         <v>203</v>
       </c>
@@ -5851,7 +5926,7 @@
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
         <v>203</v>
       </c>
@@ -5876,7 +5951,7 @@
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
         <v>207</v>
       </c>
@@ -5901,7 +5976,7 @@
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
         <v>207</v>
       </c>
@@ -5925,6 +6000,331 @@
       </c>
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
+    </row>
+    <row r="168" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A168" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C168" s="4" t="n">
+        <v>0.343108</v>
+      </c>
+      <c r="D168" s="4" t="n">
+        <v>0.8795912</v>
+      </c>
+      <c r="E168" s="4" t="n">
+        <v>0.2981296</v>
+      </c>
+      <c r="F168" s="4" t="n">
+        <v>1.130887</v>
+      </c>
+      <c r="G168" s="4" t="n">
+        <v>0.3344664</v>
+      </c>
+      <c r="H168" s="4"/>
+      <c r="I168" s="4"/>
+    </row>
+    <row r="169" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A169" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C169" s="4" t="n">
+        <v>0.3818272</v>
+      </c>
+      <c r="D169" s="4" t="n">
+        <v>0.3426448</v>
+      </c>
+      <c r="E169" s="4" t="n">
+        <v>0.3409916</v>
+      </c>
+      <c r="F169" s="4" t="n">
+        <v>1.1209198</v>
+      </c>
+      <c r="G169" s="4" t="n">
+        <v>0.3829526</v>
+      </c>
+      <c r="H169" s="4"/>
+      <c r="I169" s="4"/>
+    </row>
+    <row r="170" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A170" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C170" s="4" t="n">
+        <v>0.7775882</v>
+      </c>
+      <c r="D170" s="4" t="n">
+        <v>0.6686706</v>
+      </c>
+      <c r="E170" s="4" t="n">
+        <v>0.6176222</v>
+      </c>
+      <c r="F170" s="4" t="n">
+        <v>1.8428388</v>
+      </c>
+      <c r="G170" s="4" t="n">
+        <v>0.90282</v>
+      </c>
+      <c r="H170" s="4"/>
+      <c r="I170" s="4"/>
+    </row>
+    <row r="171" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A171" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C171" s="4" t="n">
+        <v>0.815509</v>
+      </c>
+      <c r="D171" s="4" t="n">
+        <v>0.7471458</v>
+      </c>
+      <c r="E171" s="4" t="n">
+        <v>0.8018268</v>
+      </c>
+      <c r="F171" s="4" t="n">
+        <v>2.0695492</v>
+      </c>
+      <c r="G171" s="4" t="n">
+        <v>1.2676812</v>
+      </c>
+      <c r="H171" s="4"/>
+      <c r="I171" s="4"/>
+    </row>
+    <row r="172" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A172" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C172" s="4" t="n">
+        <v>0.4162216</v>
+      </c>
+      <c r="D172" s="4" t="n">
+        <v>0.383837</v>
+      </c>
+      <c r="E172" s="4" t="n">
+        <v>0.3766196</v>
+      </c>
+      <c r="F172" s="4" t="n">
+        <v>1.0861074</v>
+      </c>
+      <c r="G172" s="4" t="n">
+        <v>0.4103676</v>
+      </c>
+      <c r="H172" s="4"/>
+      <c r="I172" s="4"/>
+    </row>
+    <row r="173" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A173" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C173" s="4" t="n">
+        <v>0.3052626</v>
+      </c>
+      <c r="D173" s="4" t="n">
+        <v>0.3391674</v>
+      </c>
+      <c r="E173" s="4" t="n">
+        <v>0.29671</v>
+      </c>
+      <c r="F173" s="4" t="n">
+        <v>1.1355016</v>
+      </c>
+      <c r="G173" s="4" t="n">
+        <v>0.3405168</v>
+      </c>
+      <c r="H173" s="4"/>
+      <c r="I173" s="4"/>
+    </row>
+    <row r="174" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A174" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C174" s="4" t="n">
+        <v>0.3732976</v>
+      </c>
+      <c r="D174" s="4" t="n">
+        <v>0.3428344</v>
+      </c>
+      <c r="E174" s="4" t="n">
+        <v>0.3121602</v>
+      </c>
+      <c r="F174" s="4" t="n">
+        <v>1.1046554</v>
+      </c>
+      <c r="G174" s="4" t="n">
+        <v>0.3802564</v>
+      </c>
+      <c r="H174" s="4"/>
+      <c r="I174" s="4"/>
+    </row>
+    <row r="175" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A175" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C175" s="4" t="n">
+        <v>0.365924</v>
+      </c>
+      <c r="D175" s="4" t="n">
+        <v>0.3441764</v>
+      </c>
+      <c r="E175" s="4" t="n">
+        <v>0.3574002</v>
+      </c>
+      <c r="F175" s="4" t="n">
+        <v>1.0996522</v>
+      </c>
+      <c r="G175" s="4" t="n">
+        <v>0.4002544</v>
+      </c>
+      <c r="H175" s="4"/>
+      <c r="I175" s="4"/>
+    </row>
+    <row r="176" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A176" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C176" s="4" t="n">
+        <v>0.4314106</v>
+      </c>
+      <c r="D176" s="4" t="n">
+        <v>0.358788</v>
+      </c>
+      <c r="E176" s="4" t="n">
+        <v>0.3772826</v>
+      </c>
+      <c r="F176" s="4" t="n">
+        <v>1.144587</v>
+      </c>
+      <c r="G176" s="4" t="n">
+        <v>0.48563</v>
+      </c>
+      <c r="H176" s="4"/>
+      <c r="I176" s="4"/>
+    </row>
+    <row r="177" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A177" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C177" s="4" t="n">
+        <v>0.4433452</v>
+      </c>
+      <c r="D177" s="4" t="n">
+        <v>0.3827698</v>
+      </c>
+      <c r="E177" s="4" t="n">
+        <v>0.3570656</v>
+      </c>
+      <c r="F177" s="4" t="n">
+        <v>1.1826044</v>
+      </c>
+      <c r="G177" s="4" t="n">
+        <v>0.3923944</v>
+      </c>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+    </row>
+    <row r="178" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A178" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C178" s="4" t="n">
+        <v>0.4696164</v>
+      </c>
+      <c r="D178" s="4" t="n">
+        <v>0.3848094</v>
+      </c>
+      <c r="E178" s="4" t="n">
+        <v>0.4176626</v>
+      </c>
+      <c r="F178" s="4" t="n">
+        <v>1.1840152</v>
+      </c>
+      <c r="G178" s="4" t="n">
+        <v>0.441146</v>
+      </c>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+    </row>
+    <row r="179" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A179" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C179" s="4" t="n">
+        <v>0.410679</v>
+      </c>
+      <c r="D179" s="4" t="n">
+        <v>0.3448572</v>
+      </c>
+      <c r="E179" s="4" t="n">
+        <v>0.352888</v>
+      </c>
+      <c r="F179" s="4" t="n">
+        <v>1.1461254</v>
+      </c>
+      <c r="G179" s="4" t="n">
+        <v>0.3651974</v>
+      </c>
+      <c r="H179" s="4"/>
+      <c r="I179" s="4"/>
+    </row>
+    <row r="180" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A180" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C180" s="4" t="n">
+        <v>0.3621034</v>
+      </c>
+      <c r="D180" s="4" t="n">
+        <v>0.3653964</v>
+      </c>
+      <c r="E180" s="4" t="n">
+        <v>0.3950768</v>
+      </c>
+      <c r="F180" s="4" t="n">
+        <v>1.3053016</v>
+      </c>
+      <c r="G180" s="4" t="n">
+        <v>0.3838866</v>
+      </c>
+      <c r="H180" s="4"/>
+      <c r="I180" s="4"/>
     </row>
     <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5961,8 +6361,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B164" activeCellId="0" sqref="B164"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D184" activeCellId="0" sqref="D184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6006,7 +6406,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>2.0220664</v>
@@ -6029,7 +6429,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>2.4586498</v>
@@ -6075,7 +6475,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>2.1296676</v>
@@ -6144,7 +6544,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>2.1709282</v>
@@ -6167,7 +6567,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>2.1589454</v>
@@ -6190,7 +6590,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>2.0390428</v>
@@ -6236,7 +6636,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>1.9875636</v>
@@ -6305,7 +6705,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>2.1964826</v>
@@ -6512,7 +6912,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>2.6861386</v>
@@ -6558,7 +6958,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>2.330873</v>
@@ -6581,7 +6981,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>2.4523078</v>
@@ -6604,7 +7004,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>2.3690538</v>
@@ -6650,7 +7050,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>2.3269536</v>
@@ -6696,7 +7096,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>1.9277496</v>
@@ -6788,7 +7188,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>2.1296676</v>
@@ -6834,7 +7234,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>2.138844</v>
@@ -6857,7 +7257,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>2.569399</v>
@@ -6880,7 +7280,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>2.2719068</v>
@@ -6903,7 +7303,7 @@
         <v>60</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>2.4505342</v>
@@ -6926,7 +7326,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>2.5803136</v>
@@ -6972,7 +7372,7 @@
         <v>64</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>2.4560934</v>
@@ -6995,7 +7395,7 @@
         <v>64</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="C45" s="4" t="n">
         <v>2.0923624</v>
@@ -7018,7 +7418,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="C46" s="4" t="n">
         <v>2.7843442</v>
@@ -7271,7 +7671,7 @@
         <v>80</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="C57" s="4" t="n">
         <v>2.9062288</v>
@@ -7478,7 +7878,7 @@
         <v>91</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="C66" s="4" t="n">
         <v>3.3981744</v>
@@ -7501,7 +7901,7 @@
         <v>91</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="C67" s="4" t="n">
         <v>2.0062282</v>
@@ -7524,7 +7924,7 @@
         <v>95</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="C68" s="4" t="n">
         <v>5.4740242</v>
@@ -7547,7 +7947,7 @@
         <v>95</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C69" s="4" t="n">
         <v>5.0492016</v>
@@ -7685,7 +8085,7 @@
         <v>103</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="C75" s="4" t="n">
         <v>2.7314032</v>
@@ -7708,7 +8108,7 @@
         <v>103</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="C76" s="4" t="n">
         <v>2.7375454</v>
@@ -7777,7 +8177,7 @@
         <v>107</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="C79" s="4" t="n">
         <v>2.5848074</v>
@@ -7984,7 +8384,7 @@
         <v>118</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C88" s="4" t="n">
         <v>1.9251046</v>
@@ -8007,7 +8407,7 @@
         <v>122</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="C89" s="4" t="n">
         <v>2.1296676</v>
@@ -8076,7 +8476,7 @@
         <v>126</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="C92" s="4" t="n">
         <v>2.543308</v>
@@ -8099,7 +8499,7 @@
         <v>126</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="C93" s="4" t="n">
         <v>2.6339666</v>
@@ -8122,7 +8522,7 @@
         <v>126</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C94" s="4" t="n">
         <v>2.4568346</v>
@@ -8260,7 +8660,7 @@
         <v>131</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="C100" s="4" t="n">
         <v>2.403287</v>
@@ -8306,7 +8706,7 @@
         <v>134</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="C102" s="4" t="n">
         <v>3.021798</v>
@@ -8421,7 +8821,7 @@
         <v>139</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="C107" s="4" t="n">
         <v>2.208845</v>
@@ -8605,7 +9005,7 @@
         <v>144</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C115" s="4" t="n">
         <v>2.1219888</v>
@@ -8697,7 +9097,7 @@
         <v>152</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="C119" s="4" t="n">
         <v>2.5949094</v>
@@ -8743,7 +9143,7 @@
         <v>152</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C121" s="4" t="n">
         <v>1.9941926</v>
@@ -8766,7 +9166,7 @@
         <v>156</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="C122" s="4" t="n">
         <v>2.4594108</v>
@@ -8950,7 +9350,7 @@
         <v>164</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="C130" s="4" t="n">
         <v>1.9619838</v>
@@ -9019,7 +9419,7 @@
         <v>169</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="C133" s="4" t="n">
         <v>1.8671148</v>
@@ -9349,7 +9749,7 @@
         <v>184</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C147" s="4" t="n">
         <v>3.166509</v>
@@ -9374,7 +9774,7 @@
         <v>184</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C148" s="4" t="n">
         <v>3.119118</v>
@@ -9399,7 +9799,7 @@
         <v>184</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="C149" s="4" t="n">
         <v>2.901321</v>
@@ -9744,12 +10144,12 @@
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
         <v>203</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="C163" s="4" t="n">
         <v>2.0239208</v>
@@ -9769,7 +10169,7 @@
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
         <v>203</v>
       </c>
@@ -9794,7 +10194,7 @@
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
         <v>203</v>
       </c>
@@ -9819,7 +10219,7 @@
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
         <v>207</v>
       </c>
@@ -9844,12 +10244,12 @@
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
         <v>207</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="C167" s="4" t="n">
         <v>1.8280256</v>
@@ -9869,7 +10269,7 @@
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
         <v>207</v>
       </c>
@@ -9893,6 +10293,356 @@
       </c>
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
+    </row>
+    <row r="169" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A169" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C169" s="4" t="n">
+        <v>2.1684784</v>
+      </c>
+      <c r="D169" s="4" t="n">
+        <v>3.6719008</v>
+      </c>
+      <c r="E169" s="4" t="n">
+        <v>0.8740194</v>
+      </c>
+      <c r="F169" s="4" t="n">
+        <v>2.3532634</v>
+      </c>
+      <c r="G169" s="4" t="n">
+        <v>0.9487852</v>
+      </c>
+      <c r="H169" s="4"/>
+      <c r="I169" s="4"/>
+    </row>
+    <row r="170" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A170" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C170" s="4" t="n">
+        <v>2.6452654</v>
+      </c>
+      <c r="D170" s="4" t="n">
+        <v>3.6146782</v>
+      </c>
+      <c r="E170" s="4" t="n">
+        <v>1.6826424</v>
+      </c>
+      <c r="F170" s="4" t="n">
+        <v>2.2919798</v>
+      </c>
+      <c r="G170" s="4" t="n">
+        <v>1.1919476</v>
+      </c>
+      <c r="H170" s="4"/>
+      <c r="I170" s="4"/>
+    </row>
+    <row r="171" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A171" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C171" s="4" t="n">
+        <v>3.5371194</v>
+      </c>
+      <c r="D171" s="4" t="n">
+        <v>2.6826182</v>
+      </c>
+      <c r="E171" s="4" t="n">
+        <v>1.985354</v>
+      </c>
+      <c r="F171" s="4" t="n">
+        <v>2.852045</v>
+      </c>
+      <c r="G171" s="4" t="n">
+        <v>1.5791478</v>
+      </c>
+      <c r="H171" s="4"/>
+      <c r="I171" s="4"/>
+    </row>
+    <row r="172" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A172" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C172" s="4" t="n">
+        <v>1.8111492</v>
+      </c>
+      <c r="D172" s="4" t="n">
+        <v>3.5453204</v>
+      </c>
+      <c r="E172" s="4" t="n">
+        <v>4.565067</v>
+      </c>
+      <c r="F172" s="4" t="n">
+        <v>5.155638</v>
+      </c>
+      <c r="G172" s="4" t="n">
+        <v>3.3921948</v>
+      </c>
+      <c r="H172" s="4"/>
+      <c r="I172" s="4"/>
+    </row>
+    <row r="173" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A173" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C173" s="4" t="n">
+        <v>2.003195</v>
+      </c>
+      <c r="D173" s="4" t="n">
+        <v>3.988986</v>
+      </c>
+      <c r="E173" s="4" t="n">
+        <v>4.3174654</v>
+      </c>
+      <c r="F173" s="4" t="n">
+        <v>5.0137714</v>
+      </c>
+      <c r="G173" s="4" t="n">
+        <v>3.3907598</v>
+      </c>
+      <c r="H173" s="4"/>
+      <c r="I173" s="4"/>
+    </row>
+    <row r="174" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A174" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C174" s="4" t="n">
+        <v>1.8331202</v>
+      </c>
+      <c r="D174" s="4" t="n">
+        <v>3.9389388</v>
+      </c>
+      <c r="E174" s="4" t="n">
+        <v>4.3728444</v>
+      </c>
+      <c r="F174" s="4" t="n">
+        <v>4.9377702</v>
+      </c>
+      <c r="G174" s="4" t="n">
+        <v>3.3644016</v>
+      </c>
+      <c r="H174" s="4"/>
+      <c r="I174" s="4"/>
+    </row>
+    <row r="175" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A175" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C175" s="4" t="n">
+        <v>2.0748002</v>
+      </c>
+      <c r="D175" s="4" t="n">
+        <v>6.1653436</v>
+      </c>
+      <c r="E175" s="4" t="n">
+        <v>4.6023164</v>
+      </c>
+      <c r="F175" s="4" t="n">
+        <v>5.0471982</v>
+      </c>
+      <c r="G175" s="4" t="n">
+        <v>3.4146058</v>
+      </c>
+      <c r="H175" s="4"/>
+      <c r="I175" s="4"/>
+    </row>
+    <row r="176" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A176" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C176" s="4" t="n">
+        <v>1.8676058</v>
+      </c>
+      <c r="D176" s="4" t="n">
+        <v>3.9589414</v>
+      </c>
+      <c r="E176" s="4" t="n">
+        <v>4.3995558</v>
+      </c>
+      <c r="F176" s="4" t="n">
+        <v>5.1930024</v>
+      </c>
+      <c r="G176" s="4" t="n">
+        <v>3.4905538</v>
+      </c>
+      <c r="H176" s="4"/>
+      <c r="I176" s="4"/>
+    </row>
+    <row r="177" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A177" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C177" s="4" t="n">
+        <v>1.8565564</v>
+      </c>
+      <c r="D177" s="4" t="n">
+        <v>4.0912932</v>
+      </c>
+      <c r="E177" s="4" t="n">
+        <v>4.4175284</v>
+      </c>
+      <c r="F177" s="4" t="n">
+        <v>5.099716</v>
+      </c>
+      <c r="G177" s="4" t="n">
+        <v>3.5278338</v>
+      </c>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+    </row>
+    <row r="178" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A178" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C178" s="4" t="n">
+        <v>1.971548</v>
+      </c>
+      <c r="D178" s="4" t="n">
+        <v>3.9851468</v>
+      </c>
+      <c r="E178" s="4" t="n">
+        <v>4.3151926</v>
+      </c>
+      <c r="F178" s="4" t="n">
+        <v>5.217876</v>
+      </c>
+      <c r="G178" s="4" t="n">
+        <v>3.4074138</v>
+      </c>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+    </row>
+    <row r="179" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A179" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C179" s="4" t="n">
+        <v>1.8706844</v>
+      </c>
+      <c r="D179" s="4" t="n">
+        <v>3.9432928</v>
+      </c>
+      <c r="E179" s="4" t="n">
+        <v>4.358427</v>
+      </c>
+      <c r="F179" s="4" t="n">
+        <v>5.1559578</v>
+      </c>
+      <c r="G179" s="4" t="n">
+        <v>3.3936074</v>
+      </c>
+      <c r="H179" s="4"/>
+      <c r="I179" s="4"/>
+    </row>
+    <row r="180" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A180" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C180" s="4" t="n">
+        <v>2.0217014</v>
+      </c>
+      <c r="D180" s="4" t="n">
+        <v>3.767755</v>
+      </c>
+      <c r="E180" s="4" t="n">
+        <v>4.6003578</v>
+      </c>
+      <c r="F180" s="4" t="n">
+        <v>5.4023852</v>
+      </c>
+      <c r="G180" s="4" t="n">
+        <v>3.3677646</v>
+      </c>
+      <c r="H180" s="4"/>
+      <c r="I180" s="4"/>
+    </row>
+    <row r="181" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A181" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C181" s="4" t="n">
+        <v>2.240086</v>
+      </c>
+      <c r="D181" s="4" t="n">
+        <v>3.9737116</v>
+      </c>
+      <c r="E181" s="4" t="n">
+        <v>4.3489156</v>
+      </c>
+      <c r="F181" s="4" t="n">
+        <v>5.0343732</v>
+      </c>
+      <c r="G181" s="4" t="n">
+        <v>3.8793686</v>
+      </c>
+      <c r="H181" s="4"/>
+      <c r="I181" s="4"/>
+    </row>
+    <row r="182" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A182" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C182" s="4" t="n">
+        <v>2.0147578</v>
+      </c>
+      <c r="D182" s="4" t="n">
+        <v>4.0021432</v>
+      </c>
+      <c r="E182" s="4" t="n">
+        <v>4.3717046</v>
+      </c>
+      <c r="F182" s="4" t="n">
+        <v>4.9437112</v>
+      </c>
+      <c r="G182" s="4" t="n">
+        <v>3.551135</v>
+      </c>
+      <c r="H182" s="4"/>
+      <c r="I182" s="4"/>
     </row>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -9927,8 +10677,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A162" activeCellId="0" sqref="A162"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A166" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D177" activeCellId="0" sqref="D177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9972,7 +10722,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>0.7804054</v>
@@ -9995,7 +10745,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>0.7779802</v>
@@ -10018,7 +10768,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>0.7043458</v>
@@ -10041,7 +10791,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>0.7145706</v>
@@ -10110,7 +10860,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>0.6280168</v>
@@ -10156,7 +10906,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>0.7373706</v>
@@ -10202,7 +10952,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>0.7234852</v>
@@ -10294,7 +11044,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>0.3510038</v>
@@ -10340,7 +11090,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>0.5591408</v>
@@ -10363,7 +11113,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>0.5551518</v>
@@ -10455,7 +11205,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>0.9795414</v>
@@ -10478,7 +11228,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>3.7305486</v>
@@ -10501,7 +11251,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="C25" s="4" t="n">
         <v>2.3842444</v>
@@ -10524,7 +11274,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>2.139728</v>
@@ -10547,7 +11297,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>0.7112716</v>
@@ -10570,7 +11320,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>0.67812</v>
@@ -10616,7 +11366,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>0.712753</v>
@@ -10639,7 +11389,7 @@
         <v>46</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="C31" s="4" t="n">
         <v>0.630812</v>
@@ -10685,7 +11435,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>0.7013216</v>
@@ -10754,7 +11504,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>0.7043458</v>
@@ -10777,7 +11527,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>0.7145706</v>
@@ -10800,7 +11550,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>1.2584274</v>
@@ -10823,7 +11573,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>1.3856258</v>
@@ -10846,7 +11596,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>1.1413118</v>
@@ -10869,7 +11619,7 @@
         <v>60</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>2.0516946</v>
@@ -10938,7 +11688,7 @@
         <v>64</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>0.7883284</v>
@@ -10984,7 +11734,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="C46" s="4" t="n">
         <v>0.6814198</v>
@@ -11099,7 +11849,7 @@
         <v>72</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="C51" s="4" t="n">
         <v>1.4049502</v>
@@ -11145,7 +11895,7 @@
         <v>76</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="C53" s="4" t="n">
         <v>0.9897652</v>
@@ -11214,7 +11964,7 @@
         <v>80</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="C56" s="4" t="n">
         <v>1.2353042</v>
@@ -11260,7 +12010,7 @@
         <v>80</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="C58" s="4" t="n">
         <v>1.2364662</v>
@@ -11306,7 +12056,7 @@
         <v>84</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="C60" s="4" t="n">
         <v>1.1438926</v>
@@ -11421,7 +12171,7 @@
         <v>91</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="C65" s="4" t="n">
         <v>1.8978822</v>
@@ -11444,7 +12194,7 @@
         <v>91</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="C66" s="4" t="n">
         <v>1.1060998</v>
@@ -11467,7 +12217,7 @@
         <v>91</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="C67" s="4" t="n">
         <v>1.6069744</v>
@@ -11490,7 +12240,7 @@
         <v>95</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="C68" s="4" t="n">
         <v>1.6301784</v>
@@ -11513,7 +12263,7 @@
         <v>95</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="C69" s="4" t="n">
         <v>1.5682082</v>
@@ -11536,7 +12286,7 @@
         <v>95</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="C70" s="4" t="n">
         <v>1.4442308</v>
@@ -11674,7 +12424,7 @@
         <v>103</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="C76" s="4" t="n">
         <v>1.1822766</v>
@@ -11743,7 +12493,7 @@
         <v>107</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="C79" s="4" t="n">
         <v>1.573159</v>
@@ -12042,7 +12792,7 @@
         <v>126</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="C92" s="4" t="n">
         <v>1.5482428</v>
@@ -12065,7 +12815,7 @@
         <v>126</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="C93" s="4" t="n">
         <v>1.8137892</v>
@@ -12088,7 +12838,7 @@
         <v>126</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="C94" s="4" t="n">
         <v>1.6058992</v>
@@ -12157,7 +12907,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="C97" s="4" t="n">
         <v>1.4182292</v>
@@ -12249,7 +12999,7 @@
         <v>134</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="C101" s="4" t="n">
         <v>1.2684794</v>
@@ -12387,7 +13137,7 @@
         <v>139</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="C107" s="4" t="n">
         <v>1.295247</v>
@@ -12410,7 +13160,7 @@
         <v>139</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="C108" s="4" t="n">
         <v>1.22489</v>
@@ -12433,7 +13183,7 @@
         <v>139</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="C109" s="4" t="n">
         <v>1.1823422</v>
@@ -12456,7 +13206,7 @@
         <v>142</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="C110" s="4" t="n">
         <v>1.1176918</v>
@@ -12548,7 +13298,7 @@
         <v>144</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C114" s="4" t="n">
         <v>0.5937896</v>
@@ -12640,7 +13390,7 @@
         <v>148</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="C118" s="4" t="n">
         <v>0.6148816</v>
@@ -12709,7 +13459,7 @@
         <v>152</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C121" s="4" t="n">
         <v>0.5689302</v>
@@ -12824,7 +13574,7 @@
         <v>160</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="C126" s="4" t="n">
         <v>0.6197108</v>
@@ -12962,7 +13712,7 @@
         <v>169</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="C132" s="4" t="n">
         <v>0.3808622</v>
@@ -13077,7 +13827,7 @@
         <v>169</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="C137" s="4" t="n">
         <v>0.3914072</v>
@@ -13100,7 +13850,7 @@
         <v>169</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="C138" s="4" t="n">
         <v>0.3957292</v>
@@ -13215,7 +13965,7 @@
         <v>182</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="C143" s="4" t="n">
         <v>1.1999426</v>
@@ -13340,7 +14090,7 @@
         <v>184</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="C148" s="4" t="n">
         <v>1.2852092</v>
@@ -13415,7 +14165,7 @@
         <v>189</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="C151" s="4" t="n">
         <v>0.341044</v>
@@ -13490,7 +14240,7 @@
         <v>192</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="C154" s="4" t="n">
         <v>0.330861</v>
@@ -13615,7 +14365,7 @@
         <v>196</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="C159" s="4" t="n">
         <v>0.295909</v>
@@ -13685,7 +14435,7 @@
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
     </row>
-    <row r="162" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
         <v>200</v>
       </c>
@@ -13710,7 +14460,7 @@
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
         <v>203</v>
       </c>
@@ -13735,7 +14485,7 @@
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
         <v>203</v>
       </c>
@@ -13760,7 +14510,7 @@
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
         <v>203</v>
       </c>
@@ -13785,7 +14535,7 @@
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
         <v>207</v>
       </c>
@@ -13810,12 +14560,12 @@
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
         <v>207</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="C167" s="4" t="n">
         <v>0.4000132</v>
@@ -13835,7 +14585,7 @@
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
         <v>207</v>
       </c>
@@ -13859,6 +14609,306 @@
       </c>
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
+    </row>
+    <row r="169" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A169" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C169" s="4" t="n">
+        <v>0.4121864</v>
+      </c>
+      <c r="D169" s="4" t="n">
+        <v>0.3759884</v>
+      </c>
+      <c r="E169" s="4" t="n">
+        <v>0.4385392</v>
+      </c>
+      <c r="F169" s="4" t="n">
+        <v>1.1787736</v>
+      </c>
+      <c r="G169" s="4" t="n">
+        <v>0.41203</v>
+      </c>
+      <c r="H169" s="4"/>
+      <c r="I169" s="4"/>
+    </row>
+    <row r="170" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A170" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C170" s="4" t="n">
+        <v>0.898749</v>
+      </c>
+      <c r="D170" s="4" t="n">
+        <v>0.8987618</v>
+      </c>
+      <c r="E170" s="4" t="n">
+        <v>0.9598652</v>
+      </c>
+      <c r="F170" s="4" t="n">
+        <v>1.5188104</v>
+      </c>
+      <c r="G170" s="4" t="n">
+        <v>0.7639906</v>
+      </c>
+      <c r="H170" s="4"/>
+      <c r="I170" s="4"/>
+    </row>
+    <row r="171" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A171" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C171" s="4" t="n">
+        <v>0.7074952</v>
+      </c>
+      <c r="D171" s="4" t="n">
+        <v>0.8157378</v>
+      </c>
+      <c r="E171" s="4" t="n">
+        <v>0.9217552</v>
+      </c>
+      <c r="F171" s="4" t="n">
+        <v>2.2715404</v>
+      </c>
+      <c r="G171" s="4" t="n">
+        <v>1.028059</v>
+      </c>
+      <c r="H171" s="4"/>
+      <c r="I171" s="4"/>
+    </row>
+    <row r="172" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A172" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C172" s="4" t="n">
+        <v>0.3234768</v>
+      </c>
+      <c r="D172" s="4" t="n">
+        <v>0.417059</v>
+      </c>
+      <c r="E172" s="4" t="n">
+        <v>0.4604854</v>
+      </c>
+      <c r="F172" s="4" t="n">
+        <v>1.141037</v>
+      </c>
+      <c r="G172" s="4" t="n">
+        <v>0.5127828</v>
+      </c>
+      <c r="H172" s="4"/>
+      <c r="I172" s="4"/>
+    </row>
+    <row r="173" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A173" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C173" s="4" t="n">
+        <v>0.3826978</v>
+      </c>
+      <c r="D173" s="4" t="n">
+        <v>0.41345</v>
+      </c>
+      <c r="E173" s="4" t="n">
+        <v>0.4150896</v>
+      </c>
+      <c r="F173" s="4" t="n">
+        <v>1.10073</v>
+      </c>
+      <c r="G173" s="4" t="n">
+        <v>0.5701882</v>
+      </c>
+      <c r="H173" s="4"/>
+      <c r="I173" s="4"/>
+    </row>
+    <row r="174" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A174" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C174" s="4" t="n">
+        <v>0.3151176</v>
+      </c>
+      <c r="D174" s="4" t="n">
+        <v>0.3902366</v>
+      </c>
+      <c r="E174" s="4" t="n">
+        <v>0.4048928</v>
+      </c>
+      <c r="F174" s="4" t="n">
+        <v>1.0881796</v>
+      </c>
+      <c r="G174" s="4" t="n">
+        <v>0.4276116</v>
+      </c>
+      <c r="H174" s="4"/>
+      <c r="I174" s="4"/>
+    </row>
+    <row r="175" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A175" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C175" s="4" t="n">
+        <v>0.3166722</v>
+      </c>
+      <c r="D175" s="4" t="n">
+        <v>0.3774476</v>
+      </c>
+      <c r="E175" s="4" t="n">
+        <v>0.3556832</v>
+      </c>
+      <c r="F175" s="4" t="n">
+        <v>1.1302306</v>
+      </c>
+      <c r="G175" s="4" t="n">
+        <v>0.4634032</v>
+      </c>
+      <c r="H175" s="4"/>
+      <c r="I175" s="4"/>
+    </row>
+    <row r="176" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A176" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C176" s="4" t="n">
+        <v>0.4688078</v>
+      </c>
+      <c r="D176" s="4" t="n">
+        <v>0.4535022</v>
+      </c>
+      <c r="E176" s="4" t="n">
+        <v>0.3912784</v>
+      </c>
+      <c r="F176" s="4" t="n">
+        <v>1.0716768</v>
+      </c>
+      <c r="G176" s="4" t="n">
+        <v>0.4083036</v>
+      </c>
+      <c r="H176" s="4"/>
+      <c r="I176" s="4"/>
+    </row>
+    <row r="177" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A177" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C177" s="4" t="n">
+        <v>0.3405566</v>
+      </c>
+      <c r="D177" s="4" t="n">
+        <v>0.4146598</v>
+      </c>
+      <c r="E177" s="4" t="n">
+        <v>0.41823</v>
+      </c>
+      <c r="F177" s="4" t="n">
+        <v>1.040247</v>
+      </c>
+      <c r="G177" s="4" t="n">
+        <v>0.4970366</v>
+      </c>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+    </row>
+    <row r="178" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A178" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C178" s="4" t="n">
+        <v>0.3949252</v>
+      </c>
+      <c r="D178" s="4" t="n">
+        <v>0.3823582</v>
+      </c>
+      <c r="E178" s="4" t="n">
+        <v>0.4447452</v>
+      </c>
+      <c r="F178" s="4" t="n">
+        <v>1.2471894</v>
+      </c>
+      <c r="G178" s="4" t="n">
+        <v>0.4368736</v>
+      </c>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+    </row>
+    <row r="179" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A179" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C179" s="4" t="n">
+        <v>0.4043766</v>
+      </c>
+      <c r="D179" s="4" t="n">
+        <v>0.4442056</v>
+      </c>
+      <c r="E179" s="4" t="n">
+        <v>0.4380336</v>
+      </c>
+      <c r="F179" s="4" t="n">
+        <v>1.0671104</v>
+      </c>
+      <c r="G179" s="4" t="n">
+        <v>0.4808172</v>
+      </c>
+      <c r="H179" s="4"/>
+      <c r="I179" s="4"/>
+    </row>
+    <row r="180" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A180" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C180" s="4" t="n">
+        <v>0.3432752</v>
+      </c>
+      <c r="D180" s="4" t="n">
+        <v>0.4025714</v>
+      </c>
+      <c r="E180" s="4" t="n">
+        <v>0.4243366</v>
+      </c>
+      <c r="F180" s="4" t="n">
+        <v>1.1215862</v>
+      </c>
+      <c r="G180" s="4" t="n">
+        <v>0.4852742</v>
+      </c>
+      <c r="H180" s="4"/>
+      <c r="I180" s="4"/>
     </row>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -13888,8 +14938,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A162" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D165" activeCellId="0" sqref="D165"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A168" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D180" activeCellId="0" sqref="D180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13935,7 +14985,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>3.4656902</v>
@@ -13958,7 +15008,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>4.0852622</v>
@@ -13981,7 +15031,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>2.9817282</v>
@@ -14004,7 +15054,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>3.2355116</v>
@@ -14073,7 +15123,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>3.7434734</v>
@@ -14096,7 +15146,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>3.5561424</v>
@@ -14119,7 +15169,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>3.2355472</v>
@@ -14142,7 +15192,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>3.8741284</v>
@@ -14165,7 +15215,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>3.5923944</v>
@@ -14234,7 +15284,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>3.0850886</v>
@@ -14257,7 +15307,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>4.2818632</v>
@@ -14303,7 +15353,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>3.5907182</v>
@@ -14326,7 +15376,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>2.8087598</v>
@@ -14349,7 +15399,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>3.0989676</v>
@@ -14372,7 +15422,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="C21" s="4" t="n">
         <v>2.9089418</v>
@@ -14441,7 +15491,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>3.6907394</v>
@@ -14487,7 +15537,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>3.822524</v>
@@ -14510,7 +15560,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>3.2866498</v>
@@ -14533,7 +15583,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>3.8178666</v>
@@ -14579,7 +15629,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>3.0702744</v>
@@ -14648,7 +15698,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>3.6235082</v>
@@ -14671,7 +15721,7 @@
         <v>50</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>2.9263998</v>
@@ -14717,7 +15767,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>3.2355116</v>
@@ -14763,7 +15813,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>4.4183598</v>
@@ -14786,7 +15836,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>4.2271066</v>
@@ -14809,7 +15859,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>4.3486802</v>
@@ -14855,7 +15905,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>3.6324914</v>
@@ -14901,7 +15951,7 @@
         <v>64</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>3.8775138</v>
@@ -14947,7 +15997,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="C46" s="4" t="n">
         <v>3.8538836</v>
@@ -15062,7 +16112,7 @@
         <v>72</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="C51" s="4" t="n">
         <v>4.7661336</v>
@@ -15085,7 +16135,7 @@
         <v>72</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="C52" s="4" t="n">
         <v>4.1553188</v>
@@ -15108,7 +16158,7 @@
         <v>76</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="C53" s="4" t="n">
         <v>4.4161086</v>
@@ -15131,7 +16181,7 @@
         <v>76</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="C54" s="4" t="n">
         <v>3.9109934</v>
@@ -15154,7 +16204,7 @@
         <v>76</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="C55" s="4" t="n">
         <v>3.9109934</v>
@@ -15177,7 +16227,7 @@
         <v>80</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="C56" s="4" t="n">
         <v>3.4861618</v>
@@ -15223,7 +16273,7 @@
         <v>80</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="C58" s="4" t="n">
         <v>3.52287</v>
@@ -15407,7 +16457,7 @@
         <v>91</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="C66" s="4" t="n">
         <v>4.0686228</v>
@@ -15430,7 +16480,7 @@
         <v>91</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="C67" s="4" t="n">
         <v>3.0381616</v>
@@ -15453,7 +16503,7 @@
         <v>95</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="C68" s="4" t="n">
         <v>3.9888114</v>
@@ -15476,7 +16526,7 @@
         <v>95</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="C69" s="4" t="n">
         <v>4.1137066</v>
@@ -15499,7 +16549,7 @@
         <v>95</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="C70" s="4" t="n">
         <v>4.983335</v>
@@ -15637,7 +16687,7 @@
         <v>103</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="C76" s="4" t="n">
         <v>4.5492628</v>
@@ -15706,7 +16756,7 @@
         <v>107</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="C79" s="4" t="n">
         <v>4.5622134</v>
@@ -16028,7 +17078,7 @@
         <v>126</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="C93" s="4" t="n">
         <v>4.559301</v>
@@ -16120,7 +17170,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="C97" s="4" t="n">
         <v>3.7013772</v>
@@ -16189,7 +17239,7 @@
         <v>131</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="C100" s="4" t="n">
         <v>4.1470936</v>
@@ -16212,7 +17262,7 @@
         <v>134</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="C101" s="4" t="n">
         <v>4.5941812</v>
@@ -16258,7 +17308,7 @@
         <v>134</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="C103" s="4" t="n">
         <v>4.2355866</v>
@@ -16350,7 +17400,7 @@
         <v>139</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="C107" s="4" t="n">
         <v>3.9397008</v>
@@ -16373,7 +17423,7 @@
         <v>139</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="C108" s="4" t="n">
         <v>3.8446282</v>
@@ -16396,7 +17446,7 @@
         <v>139</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="C109" s="4" t="n">
         <v>3.6811188</v>
@@ -16419,7 +17469,7 @@
         <v>142</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="C110" s="4" t="n">
         <v>4.0021732</v>
@@ -16580,7 +17630,7 @@
         <v>148</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="C117" s="4" t="n">
         <v>3.9349018</v>
@@ -16672,7 +17722,7 @@
         <v>152</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="C121" s="4" t="n">
         <v>3.7466574</v>
@@ -16741,7 +17791,7 @@
         <v>156</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="C124" s="4" t="n">
         <v>3.986907</v>
@@ -16787,7 +17837,7 @@
         <v>160</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="C126" s="4" t="n">
         <v>3.6994948</v>
@@ -16879,7 +17929,7 @@
         <v>164</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="C130" s="4" t="n">
         <v>4.1747286</v>
@@ -16902,7 +17952,7 @@
         <v>167</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="C131" s="4" t="n">
         <v>3.529065</v>
@@ -17040,7 +18090,7 @@
         <v>169</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="C137" s="4" t="n">
         <v>3.1387814</v>
@@ -17178,7 +18228,7 @@
         <v>182</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="C143" s="4" t="n">
         <v>3.6613182</v>
@@ -17278,7 +18328,7 @@
         <v>184</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="C147" s="4" t="n">
         <v>4.9899384</v>
@@ -17303,7 +18353,7 @@
         <v>184</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="C148" s="4" t="n">
         <v>4.6078064</v>
@@ -17428,7 +18478,7 @@
         <v>189</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="C153" s="4" t="n">
         <v>3.3410662</v>
@@ -17503,7 +18553,7 @@
         <v>192</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="C156" s="4" t="n">
         <v>3.6757588</v>
@@ -17578,7 +18628,7 @@
         <v>196</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="C159" s="4" t="n">
         <v>3.1456856</v>
@@ -17648,7 +18698,7 @@
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
     </row>
-    <row r="162" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
         <v>200</v>
       </c>
@@ -17673,12 +18723,12 @@
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
         <v>203</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="C163" s="4" t="n">
         <v>3.365378</v>
@@ -17698,7 +18748,7 @@
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
         <v>203</v>
       </c>
@@ -17723,7 +18773,7 @@
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
         <v>203</v>
       </c>
@@ -17748,7 +18798,7 @@
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
         <v>207</v>
       </c>
@@ -17773,12 +18823,12 @@
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
         <v>207</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="C167" s="4" t="n">
         <v>3.7039678</v>
@@ -17798,12 +18848,12 @@
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
         <v>207</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="C168" s="4" t="n">
         <v>3.7096014</v>
@@ -17822,6 +18872,331 @@
       </c>
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
+    </row>
+    <row r="169" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A169" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C169" s="4" t="n">
+        <v>5.4967574</v>
+      </c>
+      <c r="D169" s="4" t="n">
+        <v>2.9669744</v>
+      </c>
+      <c r="E169" s="4" t="n">
+        <v>1.613153</v>
+      </c>
+      <c r="F169" s="4" t="n">
+        <v>2.3278236</v>
+      </c>
+      <c r="G169" s="4" t="n">
+        <v>1.1525834</v>
+      </c>
+      <c r="H169" s="4"/>
+      <c r="I169" s="4"/>
+    </row>
+    <row r="170" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A170" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C170" s="4" t="n">
+        <v>3.777915</v>
+      </c>
+      <c r="D170" s="4" t="n">
+        <v>1.6785774</v>
+      </c>
+      <c r="E170" s="4" t="n">
+        <v>1.4178596</v>
+      </c>
+      <c r="F170" s="4" t="n">
+        <v>2.8642304</v>
+      </c>
+      <c r="G170" s="4" t="n">
+        <v>1.41006</v>
+      </c>
+      <c r="H170" s="4"/>
+      <c r="I170" s="4"/>
+    </row>
+    <row r="171" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A171" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C171" s="4" t="n">
+        <v>4.669323</v>
+      </c>
+      <c r="D171" s="4" t="n">
+        <v>2.6768006</v>
+      </c>
+      <c r="E171" s="4" t="n">
+        <v>1.8010994</v>
+      </c>
+      <c r="F171" s="4" t="n">
+        <v>2.588558</v>
+      </c>
+      <c r="G171" s="4" t="n">
+        <v>1.5023306</v>
+      </c>
+      <c r="H171" s="4"/>
+      <c r="I171" s="4"/>
+    </row>
+    <row r="172" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A172" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C172" s="4" t="n">
+        <v>3.3072694</v>
+      </c>
+      <c r="D172" s="4" t="n">
+        <v>1.9006078</v>
+      </c>
+      <c r="E172" s="4" t="n">
+        <v>1.1850164</v>
+      </c>
+      <c r="F172" s="4" t="n">
+        <v>2.6602388</v>
+      </c>
+      <c r="G172" s="4" t="n">
+        <v>0.9476772</v>
+      </c>
+      <c r="H172" s="4"/>
+      <c r="I172" s="4"/>
+    </row>
+    <row r="173" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A173" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C173" s="4" t="n">
+        <v>2.8846846</v>
+      </c>
+      <c r="D173" s="4" t="n">
+        <v>1.3024432</v>
+      </c>
+      <c r="E173" s="4" t="n">
+        <v>1.2235786</v>
+      </c>
+      <c r="F173" s="4" t="n">
+        <v>2.0758566</v>
+      </c>
+      <c r="G173" s="4" t="n">
+        <v>1.044621</v>
+      </c>
+      <c r="H173" s="4"/>
+      <c r="I173" s="4"/>
+    </row>
+    <row r="174" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A174" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C174" s="4" t="n">
+        <v>3.1142618</v>
+      </c>
+      <c r="D174" s="4" t="n">
+        <v>1.0677274</v>
+      </c>
+      <c r="E174" s="4" t="n">
+        <v>0.87897</v>
+      </c>
+      <c r="F174" s="4" t="n">
+        <v>2.1044836</v>
+      </c>
+      <c r="G174" s="4" t="n">
+        <v>1.0777108</v>
+      </c>
+      <c r="H174" s="4"/>
+      <c r="I174" s="4"/>
+    </row>
+    <row r="175" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A175" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C175" s="4" t="n">
+        <v>4.0107472</v>
+      </c>
+      <c r="D175" s="4" t="n">
+        <v>1.2319864</v>
+      </c>
+      <c r="E175" s="4" t="n">
+        <v>1.3148566</v>
+      </c>
+      <c r="F175" s="4" t="n">
+        <v>2.3331034</v>
+      </c>
+      <c r="G175" s="4" t="n">
+        <v>0.9706266</v>
+      </c>
+      <c r="H175" s="4"/>
+      <c r="I175" s="4"/>
+    </row>
+    <row r="176" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A176" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C176" s="4" t="n">
+        <v>3.5906696</v>
+      </c>
+      <c r="D176" s="4" t="n">
+        <v>1.1616654</v>
+      </c>
+      <c r="E176" s="4" t="n">
+        <v>0.8514104</v>
+      </c>
+      <c r="F176" s="4" t="n">
+        <v>2.3141506</v>
+      </c>
+      <c r="G176" s="4" t="n">
+        <v>1.0083712</v>
+      </c>
+      <c r="H176" s="4"/>
+      <c r="I176" s="4"/>
+    </row>
+    <row r="177" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A177" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C177" s="4" t="n">
+        <v>3.6453918</v>
+      </c>
+      <c r="D177" s="4" t="n">
+        <v>1.0535136</v>
+      </c>
+      <c r="E177" s="4" t="n">
+        <v>1.2287252</v>
+      </c>
+      <c r="F177" s="4" t="n">
+        <v>2.3464962</v>
+      </c>
+      <c r="G177" s="4" t="n">
+        <v>0.9529058</v>
+      </c>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+    </row>
+    <row r="178" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A178" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C178" s="4" t="n">
+        <v>3.0646552</v>
+      </c>
+      <c r="D178" s="4" t="n">
+        <v>1.3052728</v>
+      </c>
+      <c r="E178" s="4" t="n">
+        <v>1.208871</v>
+      </c>
+      <c r="F178" s="4" t="n">
+        <v>2.1763898</v>
+      </c>
+      <c r="G178" s="4" t="n">
+        <v>1.0785698</v>
+      </c>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+    </row>
+    <row r="179" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A179" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C179" s="4" t="n">
+        <v>3.828837</v>
+      </c>
+      <c r="D179" s="4" t="n">
+        <v>2.250791</v>
+      </c>
+      <c r="E179" s="4" t="n">
+        <v>1.0752212</v>
+      </c>
+      <c r="F179" s="4" t="n">
+        <v>2.5408678</v>
+      </c>
+      <c r="G179" s="4" t="n">
+        <v>1.0408466</v>
+      </c>
+      <c r="H179" s="4"/>
+      <c r="I179" s="4"/>
+    </row>
+    <row r="180" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A180" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C180" s="4" t="n">
+        <v>3.6186178</v>
+      </c>
+      <c r="D180" s="4" t="n">
+        <v>1.1495222</v>
+      </c>
+      <c r="E180" s="4" t="n">
+        <v>0.7760448</v>
+      </c>
+      <c r="F180" s="4" t="n">
+        <v>2.1896554</v>
+      </c>
+      <c r="G180" s="4" t="n">
+        <v>0.9280454</v>
+      </c>
+      <c r="H180" s="4"/>
+      <c r="I180" s="4"/>
+    </row>
+    <row r="181" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A181" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C181" s="4" t="n">
+        <v>3.3664146</v>
+      </c>
+      <c r="D181" s="4" t="n">
+        <v>1.2025386</v>
+      </c>
+      <c r="E181" s="4" t="n">
+        <v>0.825262</v>
+      </c>
+      <c r="F181" s="4" t="n">
+        <v>2.1805336</v>
+      </c>
+      <c r="G181" s="4" t="n">
+        <v>1.0091106</v>
+      </c>
+      <c r="H181" s="4"/>
+      <c r="I181" s="4"/>
     </row>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Output Data/Crpo/Common_folder/API_Performance_Chart_Report.xlsx
+++ b/Output Data/Crpo/Common_folder/API_Performance_Chart_Report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="399">
   <si>
     <t xml:space="preserve">get_tenant_details</t>
   </si>
@@ -704,6 +704,102 @@
     <t xml:space="preserve">11:58:AM</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-05-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:06:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:08:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:18:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:21:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:23:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:41:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:46:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:48:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:20:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:22:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:56:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:02:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:03:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:14:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:15:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:52:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:23:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:24:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:25:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:35:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:37:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:39:AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:41:PM</t>
   </si>
   <si>
@@ -713,9 +809,6 @@
     <t xml:space="preserve">08:37:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">10:37:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">11:21:AM</t>
   </si>
   <si>
@@ -797,9 +890,6 @@
     <t xml:space="preserve">11:19:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">03:52:PM</t>
-  </si>
-  <si>
     <t xml:space="preserve">07:22:AM</t>
   </si>
   <si>
@@ -824,9 +914,6 @@
     <t xml:space="preserve">11:25:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">05:48:PM</t>
-  </si>
-  <si>
     <t xml:space="preserve">05:09:PM</t>
   </si>
   <si>
@@ -845,7 +932,43 @@
     <t xml:space="preserve">05:30:PM</t>
   </si>
   <si>
-    <t xml:space="preserve">12:00:PM</t>
+    <t xml:space="preserve">01:48:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:05:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:22:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:24:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:44:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:47:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:26:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:00:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:08:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:12:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:55:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:58:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:42:AM</t>
   </si>
   <si>
     <t xml:space="preserve">07:43:PM</t>
@@ -893,9 +1016,6 @@
     <t xml:space="preserve">07:47:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">10:39:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">12:13:PM</t>
   </si>
   <si>
@@ -974,9 +1094,6 @@
     <t xml:space="preserve">09:19:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">09:08:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">09:48:AM</t>
   </si>
   <si>
@@ -986,9 +1103,6 @@
     <t xml:space="preserve">04:17:PM</t>
   </si>
   <si>
-    <t xml:space="preserve">01:14:PM</t>
-  </si>
-  <si>
     <t xml:space="preserve">07:05:AM</t>
   </si>
   <si>
@@ -1001,6 +1115,24 @@
     <t xml:space="preserve">05:16:PM</t>
   </si>
   <si>
+    <t xml:space="preserve">10:19:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:42:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:45:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:57:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:58:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:09:PM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:44:PM</t>
   </si>
   <si>
@@ -1055,18 +1187,12 @@
     <t xml:space="preserve">07:32:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">03:55:PM</t>
-  </si>
-  <si>
     <t xml:space="preserve">02:25:PM</t>
   </si>
   <si>
     <t xml:space="preserve">04:19:PM</t>
   </si>
   <si>
-    <t xml:space="preserve">09:05:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">10:42:PM</t>
   </si>
   <si>
@@ -1091,7 +1217,10 @@
     <t xml:space="preserve">05:24:PM</t>
   </si>
   <si>
-    <t xml:space="preserve">11:59:AM</t>
+    <t xml:space="preserve">05:43:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:28:AM</t>
   </si>
 </sst>
 </file>
@@ -1265,12 +1394,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1297,7 +1426,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFF200"/>
@@ -1340,6 +1469,7 @@
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1372,11 +1502,23 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
@@ -1406,16 +1548,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.02920023687151</c:v>
+                  <c:v>0.944011120772946</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.38901973259668</c:v>
+                  <c:v>2.61523479806763</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.915364274860335</c:v>
+                  <c:v>0.841700277294686</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.81263425111111</c:v>
+                  <c:v>3.57438547439613</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1448,11 +1590,23 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
@@ -1482,16 +1636,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.853480106145252</c:v>
+                  <c:v>0.786973766183575</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.28727468066298</c:v>
+                  <c:v>2.51628923478261</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.14078570167598</c:v>
+                  <c:v>1.04406197004831</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.99645761222222</c:v>
+                  <c:v>1.92416174396135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1524,11 +1678,23 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
@@ -1558,16 +1724,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.877927574301676</c:v>
+                  <c:v>0.809206358454106</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.75045849060774</c:v>
+                  <c:v>2.08579090241546</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.17334780782123</c:v>
+                  <c:v>1.07101369855073</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.84160820777778</c:v>
+                  <c:v>1.73146514492754</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1600,11 +1766,23 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
@@ -1634,16 +1812,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.52986577988827</c:v>
+                  <c:v>1.50094495845411</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.45745003756906</c:v>
+                  <c:v>2.80490846280193</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.76383223463687</c:v>
+                  <c:v>1.63476405217391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.71625712777778</c:v>
+                  <c:v>2.69424295748792</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1676,11 +1854,23 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
@@ -1710,16 +1900,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.817053955307263</c:v>
+                  <c:v>0.770880211594203</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.68919568839779</c:v>
+                  <c:v>1.90378575265701</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.06898891396648</c:v>
+                  <c:v>0.991741144927537</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.59409121444444</c:v>
+                  <c:v>1.52394755942029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1727,11 +1917,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="-10"/>
-        <c:axId val="25917763"/>
-        <c:axId val="70168716"/>
+        <c:axId val="16426483"/>
+        <c:axId val="19142728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="25917763"/>
+        <c:axId val="16426483"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1744,7 +1934,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1752,7 +1942,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1797,14 +1987,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70168716"/>
+        <c:crossAx val="19142728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70168716"/>
+        <c:axId val="19142728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1817,7 +2008,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1825,7 +2016,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1870,8 +2061,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25917763"/>
+        <c:crossAx val="16426483"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -1913,8 +2105,11 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
-      <a:noFill/>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
@@ -1956,17 +2151,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.49"/>
@@ -1974,7 +2169,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="32.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.19"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1999,19 +2194,19 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.02920023687151</v>
+        <v>0.944011120772946</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.853480106145252</v>
+        <v>0.786973766183575</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.877927574301676</v>
+        <v>0.809206358454106</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1.52986577988827</v>
+        <v>1.50094495845411</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.817053955307263</v>
+        <v>0.770880211594203</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2019,19 +2214,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>2.38901973259668</v>
+        <v>2.61523479806763</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>2.28727468066298</v>
+        <v>2.51628923478261</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1.75045849060774</v>
+        <v>2.08579090241546</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>2.45745003756906</v>
+        <v>2.80490846280193</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1.68919568839779</v>
+        <v>1.90378575265701</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2039,19 +2234,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>0.915364274860335</v>
+        <v>0.841700277294686</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>1.14078570167598</v>
+        <v>1.04406197004831</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>1.17334780782123</v>
+        <v>1.07101369855073</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>1.76383223463687</v>
+        <v>1.63476405217391</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1.06898891396648</v>
+        <v>0.991741144927537</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2059,19 +2254,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>3.81263425111111</v>
+        <v>3.57438547439613</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>1.99645761222222</v>
+        <v>1.92416174396135</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>1.84160820777778</v>
+        <v>1.73146514492754</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>2.71625712777778</v>
+        <v>2.69424295748792</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1.59409121444444</v>
+        <v>1.52394755942029</v>
       </c>
     </row>
   </sheetData>
@@ -2087,17 +2282,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A170" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A180" activeCellId="0" sqref="A180"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A194" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A200" activeCellId="0" sqref="A200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.99"/>
@@ -2107,7 +2302,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="23.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="8" style="3" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="4" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1023" style="4" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6326,6 +6521,709 @@
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
     </row>
+    <row r="181" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A181" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C181" s="4" t="n">
+        <v>0.4606268</v>
+      </c>
+      <c r="D181" s="4" t="n">
+        <v>0.4427514</v>
+      </c>
+      <c r="E181" s="4" t="n">
+        <v>0.7619402</v>
+      </c>
+      <c r="F181" s="4" t="n">
+        <v>1.5349886</v>
+      </c>
+      <c r="G181" s="4" t="n">
+        <v>0.6058012</v>
+      </c>
+      <c r="H181" s="4"/>
+      <c r="I181" s="4"/>
+    </row>
+    <row r="182" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A182" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C182" s="4" t="n">
+        <v>0.3841518</v>
+      </c>
+      <c r="D182" s="4" t="n">
+        <v>0.3751074</v>
+      </c>
+      <c r="E182" s="4" t="n">
+        <v>0.3212482</v>
+      </c>
+      <c r="F182" s="4" t="n">
+        <v>1.681001</v>
+      </c>
+      <c r="G182" s="4" t="n">
+        <v>0.5630386</v>
+      </c>
+      <c r="H182" s="4"/>
+      <c r="I182" s="4"/>
+    </row>
+    <row r="183" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A183" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C183" s="4" t="n">
+        <v>0.378924</v>
+      </c>
+      <c r="D183" s="4" t="n">
+        <v>0.3145932</v>
+      </c>
+      <c r="E183" s="4" t="n">
+        <v>0.3738546</v>
+      </c>
+      <c r="F183" s="4" t="n">
+        <v>1.2721522</v>
+      </c>
+      <c r="G183" s="4" t="n">
+        <v>0.4170246</v>
+      </c>
+      <c r="H183" s="4"/>
+      <c r="I183" s="4"/>
+    </row>
+    <row r="184" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A184" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C184" s="4" t="n">
+        <v>0.4606312</v>
+      </c>
+      <c r="D184" s="4" t="n">
+        <v>0.3485236</v>
+      </c>
+      <c r="E184" s="4" t="n">
+        <v>0.4477178</v>
+      </c>
+      <c r="F184" s="4" t="n">
+        <v>1.33027</v>
+      </c>
+      <c r="G184" s="4" t="n">
+        <v>0.5215288</v>
+      </c>
+      <c r="H184" s="4"/>
+      <c r="I184" s="4"/>
+    </row>
+    <row r="185" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A185" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C185" s="4" t="n">
+        <v>0.4608616</v>
+      </c>
+      <c r="D185" s="4" t="n">
+        <v>0.3830874</v>
+      </c>
+      <c r="E185" s="4" t="n">
+        <v>0.4387024</v>
+      </c>
+      <c r="F185" s="4" t="n">
+        <v>1.4551908</v>
+      </c>
+      <c r="G185" s="4" t="n">
+        <v>0.4819688</v>
+      </c>
+      <c r="H185" s="4"/>
+      <c r="I185" s="4"/>
+    </row>
+    <row r="186" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A186" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C186" s="4" t="n">
+        <v>0.4065114</v>
+      </c>
+      <c r="D186" s="4" t="n">
+        <v>0.3734676</v>
+      </c>
+      <c r="E186" s="4" t="n">
+        <v>0.3601824</v>
+      </c>
+      <c r="F186" s="4" t="n">
+        <v>1.370198</v>
+      </c>
+      <c r="G186" s="4" t="n">
+        <v>0.6653712</v>
+      </c>
+      <c r="H186" s="4"/>
+      <c r="I186" s="4"/>
+    </row>
+    <row r="187" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A187" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C187" s="4" t="n">
+        <v>0.4964742</v>
+      </c>
+      <c r="D187" s="4" t="n">
+        <v>0.4017644</v>
+      </c>
+      <c r="E187" s="4" t="n">
+        <v>0.378432</v>
+      </c>
+      <c r="F187" s="4" t="n">
+        <v>1.220295</v>
+      </c>
+      <c r="G187" s="4" t="n">
+        <v>0.451178</v>
+      </c>
+      <c r="H187" s="4"/>
+      <c r="I187" s="4"/>
+    </row>
+    <row r="188" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A188" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C188" s="4" t="n">
+        <v>0.3621632</v>
+      </c>
+      <c r="D188" s="4" t="n">
+        <v>0.428853</v>
+      </c>
+      <c r="E188" s="4" t="n">
+        <v>0.3654752</v>
+      </c>
+      <c r="F188" s="4" t="n">
+        <v>1.3431194</v>
+      </c>
+      <c r="G188" s="4" t="n">
+        <v>0.781941</v>
+      </c>
+      <c r="H188" s="4"/>
+      <c r="I188" s="4"/>
+    </row>
+    <row r="189" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A189" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C189" s="4" t="n">
+        <v>0.3530572</v>
+      </c>
+      <c r="D189" s="4" t="n">
+        <v>0.3157462</v>
+      </c>
+      <c r="E189" s="4" t="n">
+        <v>0.290443</v>
+      </c>
+      <c r="F189" s="4" t="n">
+        <v>1.1029194</v>
+      </c>
+      <c r="G189" s="4" t="n">
+        <v>0.4203516</v>
+      </c>
+      <c r="H189" s="4"/>
+      <c r="I189" s="4"/>
+    </row>
+    <row r="190" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A190" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C190" s="4" t="n">
+        <v>0.3486354</v>
+      </c>
+      <c r="D190" s="4" t="n">
+        <v>0.4251744</v>
+      </c>
+      <c r="E190" s="4" t="n">
+        <v>0.3126052</v>
+      </c>
+      <c r="F190" s="4" t="n">
+        <v>1.154434</v>
+      </c>
+      <c r="G190" s="4" t="n">
+        <v>0.4121954</v>
+      </c>
+      <c r="H190" s="4"/>
+      <c r="I190" s="4"/>
+    </row>
+    <row r="191" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A191" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C191" s="4" t="n">
+        <v>0.3342168</v>
+      </c>
+      <c r="D191" s="4" t="n">
+        <v>0.4097422</v>
+      </c>
+      <c r="E191" s="4" t="n">
+        <v>0.3636792</v>
+      </c>
+      <c r="F191" s="4" t="n">
+        <v>1.1221434</v>
+      </c>
+      <c r="G191" s="4" t="n">
+        <v>0.4050316</v>
+      </c>
+      <c r="H191" s="4"/>
+      <c r="I191" s="4"/>
+    </row>
+    <row r="192" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A192" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C192" s="4" t="n">
+        <v>0.3678634</v>
+      </c>
+      <c r="D192" s="4" t="n">
+        <v>0.2877342</v>
+      </c>
+      <c r="E192" s="4" t="n">
+        <v>0.3058262</v>
+      </c>
+      <c r="F192" s="4" t="n">
+        <v>1.0856368</v>
+      </c>
+      <c r="G192" s="4" t="n">
+        <v>0.4573972</v>
+      </c>
+      <c r="H192" s="4"/>
+      <c r="I192" s="4"/>
+    </row>
+    <row r="193" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A193" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C193" s="4" t="n">
+        <v>0.311867</v>
+      </c>
+      <c r="D193" s="4" t="n">
+        <v>0.2928232</v>
+      </c>
+      <c r="E193" s="4" t="n">
+        <v>0.5401592</v>
+      </c>
+      <c r="F193" s="4" t="n">
+        <v>1.3358926</v>
+      </c>
+      <c r="G193" s="4" t="n">
+        <v>0.7124902</v>
+      </c>
+      <c r="H193" s="4"/>
+      <c r="I193" s="4"/>
+    </row>
+    <row r="194" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A194" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C194" s="4" t="n">
+        <v>0.3710362</v>
+      </c>
+      <c r="D194" s="4" t="n">
+        <v>0.409813</v>
+      </c>
+      <c r="E194" s="4" t="n">
+        <v>0.3428232</v>
+      </c>
+      <c r="F194" s="4" t="n">
+        <v>1.1924954</v>
+      </c>
+      <c r="G194" s="4" t="n">
+        <v>0.4045056</v>
+      </c>
+      <c r="H194" s="4"/>
+      <c r="I194" s="4"/>
+    </row>
+    <row r="195" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A195" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C195" s="4" t="n">
+        <v>0.4254882</v>
+      </c>
+      <c r="D195" s="4" t="n">
+        <v>0.4094948</v>
+      </c>
+      <c r="E195" s="4" t="n">
+        <v>0.3177432</v>
+      </c>
+      <c r="F195" s="4" t="n">
+        <v>1.1804844</v>
+      </c>
+      <c r="G195" s="4" t="n">
+        <v>0.3809878</v>
+      </c>
+      <c r="H195" s="4"/>
+      <c r="I195" s="4"/>
+    </row>
+    <row r="196" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A196" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C196" s="4" t="n">
+        <v>0.4285402</v>
+      </c>
+      <c r="D196" s="4" t="n">
+        <v>0.3335534</v>
+      </c>
+      <c r="E196" s="4" t="n">
+        <v>0.3846522</v>
+      </c>
+      <c r="F196" s="4" t="n">
+        <v>1.2334716</v>
+      </c>
+      <c r="G196" s="4" t="n">
+        <v>0.4143878</v>
+      </c>
+      <c r="H196" s="4"/>
+      <c r="I196" s="4"/>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A197" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C197" s="4" t="n">
+        <v>0.4543068</v>
+      </c>
+      <c r="D197" s="4" t="n">
+        <v>0.3425156</v>
+      </c>
+      <c r="E197" s="4" t="n">
+        <v>0.392135</v>
+      </c>
+      <c r="F197" s="4" t="n">
+        <v>1.6406054</v>
+      </c>
+      <c r="G197" s="4" t="n">
+        <v>0.5183302</v>
+      </c>
+      <c r="H197" s="4"/>
+      <c r="I197" s="4"/>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A198" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C198" s="4" t="n">
+        <v>0.3671476</v>
+      </c>
+      <c r="D198" s="4" t="n">
+        <v>0.35239</v>
+      </c>
+      <c r="E198" s="4" t="n">
+        <v>0.3574442</v>
+      </c>
+      <c r="F198" s="4" t="n">
+        <v>1.2051362</v>
+      </c>
+      <c r="G198" s="4" t="n">
+        <v>0.4502246</v>
+      </c>
+      <c r="H198" s="4"/>
+      <c r="I198" s="4"/>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A199" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C199" s="4" t="n">
+        <v>0.5262376</v>
+      </c>
+      <c r="D199" s="4" t="n">
+        <v>0.3610124</v>
+      </c>
+      <c r="E199" s="4" t="n">
+        <v>0.3558804</v>
+      </c>
+      <c r="F199" s="4" t="n">
+        <v>1.3296784</v>
+      </c>
+      <c r="G199" s="4" t="n">
+        <v>0.4980544</v>
+      </c>
+      <c r="H199" s="4"/>
+      <c r="I199" s="4"/>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A200" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C200" s="4" t="n">
+        <v>0.3510022</v>
+      </c>
+      <c r="D200" s="4" t="n">
+        <v>0.28951</v>
+      </c>
+      <c r="E200" s="4" t="n">
+        <v>0.2968596</v>
+      </c>
+      <c r="F200" s="4" t="n">
+        <v>1.4789736</v>
+      </c>
+      <c r="G200" s="4" t="n">
+        <v>0.3888046</v>
+      </c>
+      <c r="H200" s="4"/>
+      <c r="I200" s="4"/>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A201" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C201" s="4" t="n">
+        <v>0.3127652</v>
+      </c>
+      <c r="D201" s="4" t="n">
+        <v>0.2992046</v>
+      </c>
+      <c r="E201" s="4" t="n">
+        <v>0.3160032</v>
+      </c>
+      <c r="F201" s="4" t="n">
+        <v>1.1583476</v>
+      </c>
+      <c r="G201" s="4" t="n">
+        <v>0.3761724</v>
+      </c>
+      <c r="H201" s="4"/>
+      <c r="I201" s="4"/>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A202" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C202" s="4" t="n">
+        <v>0.3380654</v>
+      </c>
+      <c r="D202" s="4" t="n">
+        <v>0.2769224</v>
+      </c>
+      <c r="E202" s="4" t="n">
+        <v>0.2760822</v>
+      </c>
+      <c r="F202" s="4" t="n">
+        <v>1.358963</v>
+      </c>
+      <c r="G202" s="4" t="n">
+        <v>0.3777748</v>
+      </c>
+      <c r="H202" s="4"/>
+      <c r="I202" s="4"/>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A203" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C203" s="4" t="n">
+        <v>0.3928478</v>
+      </c>
+      <c r="D203" s="4" t="n">
+        <v>0.3675538</v>
+      </c>
+      <c r="E203" s="4" t="n">
+        <v>0.3023272</v>
+      </c>
+      <c r="F203" s="4" t="n">
+        <v>1.4780758</v>
+      </c>
+      <c r="G203" s="4" t="n">
+        <v>0.4064008</v>
+      </c>
+      <c r="H203" s="4"/>
+      <c r="I203" s="4"/>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A204" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C204" s="4" t="n">
+        <v>0.416779</v>
+      </c>
+      <c r="D204" s="4" t="n">
+        <v>0.3578978</v>
+      </c>
+      <c r="E204" s="4" t="n">
+        <v>0.319235</v>
+      </c>
+      <c r="F204" s="4" t="n">
+        <v>1.2563312</v>
+      </c>
+      <c r="G204" s="4" t="n">
+        <v>0.4317528</v>
+      </c>
+      <c r="H204" s="4"/>
+      <c r="I204" s="4"/>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A205" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C205" s="4" t="n">
+        <v>0.3837098</v>
+      </c>
+      <c r="D205" s="4" t="n">
+        <v>0.3756062</v>
+      </c>
+      <c r="E205" s="4" t="n">
+        <v>0.3518024</v>
+      </c>
+      <c r="F205" s="4" t="n">
+        <v>1.294606</v>
+      </c>
+      <c r="G205" s="4" t="n">
+        <v>0.433484</v>
+      </c>
+      <c r="H205" s="4"/>
+      <c r="I205" s="4"/>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C206" s="4" t="n">
+        <v>0.4874604</v>
+      </c>
+      <c r="D206" s="4" t="n">
+        <v>0.3764694</v>
+      </c>
+      <c r="E206" s="4" t="n">
+        <v>0.3066802</v>
+      </c>
+      <c r="F206" s="4" t="n">
+        <v>1.5550316</v>
+      </c>
+      <c r="G206" s="4" t="n">
+        <v>0.414117</v>
+      </c>
+      <c r="H206" s="4"/>
+      <c r="I206" s="4"/>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C207" s="4" t="n">
+        <v>0.418957</v>
+      </c>
+      <c r="D207" s="4" t="n">
+        <v>0.4217392</v>
+      </c>
+      <c r="E207" s="4" t="n">
+        <v>0.3969808</v>
+      </c>
+      <c r="F207" s="4" t="n">
+        <v>1.2483224</v>
+      </c>
+      <c r="G207" s="4" t="n">
+        <v>0.4271058</v>
+      </c>
+      <c r="H207" s="4"/>
+      <c r="I207" s="4"/>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C208" s="4" t="n">
+        <v>0.3831322</v>
+      </c>
+      <c r="D208" s="4" t="n">
+        <v>0.3575798</v>
+      </c>
+      <c r="E208" s="4" t="n">
+        <v>0.379766</v>
+      </c>
+      <c r="F208" s="4" t="n">
+        <v>1.230868</v>
+      </c>
+      <c r="G208" s="4" t="n">
+        <v>0.502125</v>
+      </c>
+      <c r="H208" s="4"/>
+      <c r="I208" s="4"/>
+    </row>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6355,17 +7253,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D184" activeCellId="0" sqref="D184"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A187" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C206" activeCellId="0" sqref="C206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.99"/>
@@ -6375,7 +7273,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="23.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="8" style="3" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="4" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1023" style="4" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6406,7 +7304,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>2.0220664</v>
@@ -6429,7 +7327,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>2.4586498</v>
@@ -6475,7 +7373,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>2.1296676</v>
@@ -6544,7 +7442,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>2.1709282</v>
@@ -6567,7 +7465,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>2.1589454</v>
@@ -6590,7 +7488,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>2.0390428</v>
@@ -6636,7 +7534,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>1.9875636</v>
@@ -6705,7 +7603,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>2.1964826</v>
@@ -6912,7 +7810,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>2.6861386</v>
@@ -6958,7 +7856,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>2.330873</v>
@@ -6981,7 +7879,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>2.4523078</v>
@@ -7004,7 +7902,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>2.3690538</v>
@@ -7050,7 +7948,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>2.3269536</v>
@@ -7096,7 +7994,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>1.9277496</v>
@@ -7188,7 +8086,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>2.1296676</v>
@@ -7234,7 +8132,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>2.138844</v>
@@ -7257,7 +8155,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>2.569399</v>
@@ -7280,7 +8178,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>2.2719068</v>
@@ -7303,7 +8201,7 @@
         <v>60</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>2.4505342</v>
@@ -7326,7 +8224,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>2.5803136</v>
@@ -7372,7 +8270,7 @@
         <v>64</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>2.4560934</v>
@@ -7395,7 +8293,7 @@
         <v>64</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="C45" s="4" t="n">
         <v>2.0923624</v>
@@ -7418,7 +8316,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="C46" s="4" t="n">
         <v>2.7843442</v>
@@ -7671,7 +8569,7 @@
         <v>80</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="C57" s="4" t="n">
         <v>2.9062288</v>
@@ -7878,7 +8776,7 @@
         <v>91</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="C66" s="4" t="n">
         <v>3.3981744</v>
@@ -7901,7 +8799,7 @@
         <v>91</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="C67" s="4" t="n">
         <v>2.0062282</v>
@@ -7924,7 +8822,7 @@
         <v>95</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="C68" s="4" t="n">
         <v>5.4740242</v>
@@ -7947,7 +8845,7 @@
         <v>95</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="C69" s="4" t="n">
         <v>5.0492016</v>
@@ -8085,7 +8983,7 @@
         <v>103</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="C75" s="4" t="n">
         <v>2.7314032</v>
@@ -8108,7 +9006,7 @@
         <v>103</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="C76" s="4" t="n">
         <v>2.7375454</v>
@@ -8177,7 +9075,7 @@
         <v>107</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="C79" s="4" t="n">
         <v>2.5848074</v>
@@ -8384,7 +9282,7 @@
         <v>118</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="C88" s="4" t="n">
         <v>1.9251046</v>
@@ -8407,7 +9305,7 @@
         <v>122</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="C89" s="4" t="n">
         <v>2.1296676</v>
@@ -8476,7 +9374,7 @@
         <v>126</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C92" s="4" t="n">
         <v>2.543308</v>
@@ -8499,7 +9397,7 @@
         <v>126</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="C93" s="4" t="n">
         <v>2.6339666</v>
@@ -8522,7 +9420,7 @@
         <v>126</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="C94" s="4" t="n">
         <v>2.4568346</v>
@@ -8660,7 +9558,7 @@
         <v>131</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="C100" s="4" t="n">
         <v>2.403287</v>
@@ -8706,7 +9604,7 @@
         <v>134</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C102" s="4" t="n">
         <v>3.021798</v>
@@ -8821,7 +9719,7 @@
         <v>139</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="C107" s="4" t="n">
         <v>2.208845</v>
@@ -9005,7 +9903,7 @@
         <v>144</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="C115" s="4" t="n">
         <v>2.1219888</v>
@@ -9097,7 +9995,7 @@
         <v>152</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="C119" s="4" t="n">
         <v>2.5949094</v>
@@ -9143,7 +10041,7 @@
         <v>152</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="C121" s="4" t="n">
         <v>1.9941926</v>
@@ -9166,7 +10064,7 @@
         <v>156</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="C122" s="4" t="n">
         <v>2.4594108</v>
@@ -9350,7 +10248,7 @@
         <v>164</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="C130" s="4" t="n">
         <v>1.9619838</v>
@@ -9419,7 +10317,7 @@
         <v>169</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="C133" s="4" t="n">
         <v>1.8671148</v>
@@ -9749,7 +10647,7 @@
         <v>184</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="C147" s="4" t="n">
         <v>3.166509</v>
@@ -9774,7 +10672,7 @@
         <v>184</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="C148" s="4" t="n">
         <v>3.119118</v>
@@ -9799,7 +10697,7 @@
         <v>184</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="C149" s="4" t="n">
         <v>2.901321</v>
@@ -10149,7 +11047,7 @@
         <v>203</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="C163" s="4" t="n">
         <v>2.0239208</v>
@@ -10249,7 +11147,7 @@
         <v>207</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="C167" s="4" t="n">
         <v>1.8280256</v>
@@ -10349,7 +11247,7 @@
         <v>211</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="C171" s="4" t="n">
         <v>3.5371194</v>
@@ -10424,7 +11322,7 @@
         <v>215</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="C174" s="4" t="n">
         <v>1.8331202</v>
@@ -10474,7 +11372,7 @@
         <v>215</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="C176" s="4" t="n">
         <v>1.8676058</v>
@@ -10499,7 +11397,7 @@
         <v>215</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="C177" s="4" t="n">
         <v>1.8565564</v>
@@ -10524,7 +11422,7 @@
         <v>215</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="C178" s="4" t="n">
         <v>1.971548</v>
@@ -10549,7 +11447,7 @@
         <v>215</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="C179" s="4" t="n">
         <v>1.8706844</v>
@@ -10596,54 +11494,707 @@
     </row>
     <row r="181" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>59</v>
+        <v>302</v>
       </c>
       <c r="C181" s="4" t="n">
-        <v>2.240086</v>
+        <v>5.40063</v>
       </c>
       <c r="D181" s="4" t="n">
-        <v>3.9737116</v>
+        <v>4.7370806</v>
       </c>
       <c r="E181" s="4" t="n">
-        <v>4.3489156</v>
+        <v>5.728674</v>
       </c>
       <c r="F181" s="4" t="n">
-        <v>5.0343732</v>
+        <v>5.178796</v>
       </c>
       <c r="G181" s="4" t="n">
-        <v>3.8793686</v>
+        <v>3.5181648</v>
       </c>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
     </row>
     <row r="182" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="4" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="C182" s="4" t="n">
-        <v>2.0147578</v>
+        <v>5.4141288</v>
       </c>
       <c r="D182" s="4" t="n">
-        <v>4.0021432</v>
+        <v>4.6530964</v>
       </c>
       <c r="E182" s="4" t="n">
-        <v>4.3717046</v>
+        <v>4.5150124</v>
       </c>
       <c r="F182" s="4" t="n">
-        <v>4.9437112</v>
+        <v>5.3927222</v>
       </c>
       <c r="G182" s="4" t="n">
-        <v>3.551135</v>
+        <v>3.3693164</v>
       </c>
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
     </row>
+    <row r="183" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A183" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C183" s="4" t="n">
+        <v>3.5907054</v>
+      </c>
+      <c r="D183" s="4" t="n">
+        <v>3.9902242</v>
+      </c>
+      <c r="E183" s="4" t="n">
+        <v>4.3791776</v>
+      </c>
+      <c r="F183" s="4" t="n">
+        <v>4.992355</v>
+      </c>
+      <c r="G183" s="4" t="n">
+        <v>3.4390512</v>
+      </c>
+      <c r="H183" s="4"/>
+      <c r="I183" s="4"/>
+    </row>
+    <row r="184" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A184" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C184" s="4" t="n">
+        <v>5.850038</v>
+      </c>
+      <c r="D184" s="4" t="n">
+        <v>4.2344458</v>
+      </c>
+      <c r="E184" s="4" t="n">
+        <v>4.6229906</v>
+      </c>
+      <c r="F184" s="4" t="n">
+        <v>5.1788256</v>
+      </c>
+      <c r="G184" s="4" t="n">
+        <v>3.430209</v>
+      </c>
+      <c r="H184" s="4"/>
+      <c r="I184" s="4"/>
+    </row>
+    <row r="185" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A185" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C185" s="4" t="n">
+        <v>5.5985462</v>
+      </c>
+      <c r="D185" s="4" t="n">
+        <v>4.8023124</v>
+      </c>
+      <c r="E185" s="4" t="n">
+        <v>4.5825986</v>
+      </c>
+      <c r="F185" s="4" t="n">
+        <v>5.3467232</v>
+      </c>
+      <c r="G185" s="4" t="n">
+        <v>3.5212398</v>
+      </c>
+      <c r="H185" s="4"/>
+      <c r="I185" s="4"/>
+    </row>
+    <row r="186" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A186" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C186" s="4" t="n">
+        <v>3.5126788</v>
+      </c>
+      <c r="D186" s="4" t="n">
+        <v>3.8403618</v>
+      </c>
+      <c r="E186" s="4" t="n">
+        <v>4.3383268</v>
+      </c>
+      <c r="F186" s="4" t="n">
+        <v>5.1414658</v>
+      </c>
+      <c r="G186" s="4" t="n">
+        <v>3.3321696</v>
+      </c>
+      <c r="H186" s="4"/>
+      <c r="I186" s="4"/>
+    </row>
+    <row r="187" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A187" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C187" s="4" t="n">
+        <v>3.470258</v>
+      </c>
+      <c r="D187" s="4" t="n">
+        <v>4.0079418</v>
+      </c>
+      <c r="E187" s="4" t="n">
+        <v>4.7248256</v>
+      </c>
+      <c r="F187" s="4" t="n">
+        <v>5.1385812</v>
+      </c>
+      <c r="G187" s="4" t="n">
+        <v>3.389178</v>
+      </c>
+      <c r="H187" s="4"/>
+      <c r="I187" s="4"/>
+    </row>
+    <row r="188" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A188" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C188" s="4" t="n">
+        <v>3.9997904</v>
+      </c>
+      <c r="D188" s="4" t="n">
+        <v>2.073673</v>
+      </c>
+      <c r="E188" s="4" t="n">
+        <v>2.9594344</v>
+      </c>
+      <c r="F188" s="4" t="n">
+        <v>5.9539818</v>
+      </c>
+      <c r="G188" s="4" t="n">
+        <v>3.2802834</v>
+      </c>
+      <c r="H188" s="4"/>
+      <c r="I188" s="4"/>
+    </row>
+    <row r="189" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A189" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C189" s="4" t="n">
+        <v>3.4026254</v>
+      </c>
+      <c r="D189" s="4" t="n">
+        <v>4.1636546</v>
+      </c>
+      <c r="E189" s="4" t="n">
+        <v>4.6998778</v>
+      </c>
+      <c r="F189" s="4" t="n">
+        <v>5.1890646</v>
+      </c>
+      <c r="G189" s="4" t="n">
+        <v>3.5077066</v>
+      </c>
+      <c r="H189" s="4"/>
+      <c r="I189" s="4"/>
+    </row>
+    <row r="190" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A190" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C190" s="4" t="n">
+        <v>4.1027616</v>
+      </c>
+      <c r="D190" s="4" t="n">
+        <v>4.2109356</v>
+      </c>
+      <c r="E190" s="4" t="n">
+        <v>4.400056</v>
+      </c>
+      <c r="F190" s="4" t="n">
+        <v>5.064908</v>
+      </c>
+      <c r="G190" s="4" t="n">
+        <v>3.39804</v>
+      </c>
+      <c r="H190" s="4"/>
+      <c r="I190" s="4"/>
+    </row>
+    <row r="191" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A191" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C191" s="4" t="n">
+        <v>5.2542572</v>
+      </c>
+      <c r="D191" s="4" t="n">
+        <v>4.7489126</v>
+      </c>
+      <c r="E191" s="4" t="n">
+        <v>4.5603776</v>
+      </c>
+      <c r="F191" s="4" t="n">
+        <v>5.2147582</v>
+      </c>
+      <c r="G191" s="4" t="n">
+        <v>3.4058044</v>
+      </c>
+      <c r="H191" s="4"/>
+      <c r="I191" s="4"/>
+    </row>
+    <row r="192" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A192" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C192" s="4" t="n">
+        <v>3.4910894</v>
+      </c>
+      <c r="D192" s="4" t="n">
+        <v>4.001135</v>
+      </c>
+      <c r="E192" s="4" t="n">
+        <v>4.3985564</v>
+      </c>
+      <c r="F192" s="4" t="n">
+        <v>5.0672706</v>
+      </c>
+      <c r="G192" s="4" t="n">
+        <v>3.374619</v>
+      </c>
+      <c r="H192" s="4"/>
+      <c r="I192" s="4"/>
+    </row>
+    <row r="193" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A193" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C193" s="4" t="n">
+        <v>3.3968766</v>
+      </c>
+      <c r="D193" s="4" t="n">
+        <v>4.06043</v>
+      </c>
+      <c r="E193" s="4" t="n">
+        <v>4.2886738</v>
+      </c>
+      <c r="F193" s="4" t="n">
+        <v>5.1676234</v>
+      </c>
+      <c r="G193" s="4" t="n">
+        <v>3.3490188</v>
+      </c>
+      <c r="H193" s="4"/>
+      <c r="I193" s="4"/>
+    </row>
+    <row r="194" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A194" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C194" s="4" t="n">
+        <v>5.2740862</v>
+      </c>
+      <c r="D194" s="4" t="n">
+        <v>4.7312594</v>
+      </c>
+      <c r="E194" s="4" t="n">
+        <v>4.546714</v>
+      </c>
+      <c r="F194" s="4" t="n">
+        <v>5.3496186</v>
+      </c>
+      <c r="G194" s="4" t="n">
+        <v>3.3197116</v>
+      </c>
+      <c r="H194" s="4"/>
+      <c r="I194" s="4"/>
+    </row>
+    <row r="195" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A195" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C195" s="4" t="n">
+        <v>3.509683</v>
+      </c>
+      <c r="D195" s="4" t="n">
+        <v>4.0193166</v>
+      </c>
+      <c r="E195" s="4" t="n">
+        <v>4.3820216</v>
+      </c>
+      <c r="F195" s="4" t="n">
+        <v>5.0383826</v>
+      </c>
+      <c r="G195" s="4" t="n">
+        <v>3.3787894</v>
+      </c>
+      <c r="H195" s="4"/>
+      <c r="I195" s="4"/>
+    </row>
+    <row r="196" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A196" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C196" s="4" t="n">
+        <v>3.3512666</v>
+      </c>
+      <c r="D196" s="4" t="n">
+        <v>3.9750954</v>
+      </c>
+      <c r="E196" s="4" t="n">
+        <v>4.4229014</v>
+      </c>
+      <c r="F196" s="4" t="n">
+        <v>5.0633602</v>
+      </c>
+      <c r="G196" s="4" t="n">
+        <v>3.262061</v>
+      </c>
+      <c r="H196" s="4"/>
+      <c r="I196" s="4"/>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A197" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C197" s="4" t="n">
+        <v>2.5360378</v>
+      </c>
+      <c r="D197" s="4" t="n">
+        <v>2.607884</v>
+      </c>
+      <c r="E197" s="4" t="n">
+        <v>3.2686062</v>
+      </c>
+      <c r="F197" s="4" t="n">
+        <v>5.0571306</v>
+      </c>
+      <c r="G197" s="4" t="n">
+        <v>4.7681412</v>
+      </c>
+      <c r="H197" s="4"/>
+      <c r="I197" s="4"/>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A198" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C198" s="4" t="n">
+        <v>3.464471</v>
+      </c>
+      <c r="D198" s="4" t="n">
+        <v>3.9406982</v>
+      </c>
+      <c r="E198" s="4" t="n">
+        <v>4.5084208</v>
+      </c>
+      <c r="F198" s="4" t="n">
+        <v>5.1697756</v>
+      </c>
+      <c r="G198" s="4" t="n">
+        <v>3.4189266</v>
+      </c>
+      <c r="H198" s="4"/>
+      <c r="I198" s="4"/>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A199" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C199" s="4" t="n">
+        <v>3.445977</v>
+      </c>
+      <c r="D199" s="4" t="n">
+        <v>3.9847828</v>
+      </c>
+      <c r="E199" s="4" t="n">
+        <v>4.442164</v>
+      </c>
+      <c r="F199" s="4" t="n">
+        <v>5.160077</v>
+      </c>
+      <c r="G199" s="4" t="n">
+        <v>3.297964</v>
+      </c>
+      <c r="H199" s="4"/>
+      <c r="I199" s="4"/>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A200" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C200" s="4" t="n">
+        <v>5.3271168</v>
+      </c>
+      <c r="D200" s="4" t="n">
+        <v>4.7100594</v>
+      </c>
+      <c r="E200" s="4" t="n">
+        <v>4.5622796</v>
+      </c>
+      <c r="F200" s="4" t="n">
+        <v>5.3467396</v>
+      </c>
+      <c r="G200" s="4" t="n">
+        <v>3.3252846</v>
+      </c>
+      <c r="H200" s="4"/>
+      <c r="I200" s="4"/>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A201" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C201" s="4" t="n">
+        <v>3.7638234</v>
+      </c>
+      <c r="D201" s="4" t="n">
+        <v>3.9521022</v>
+      </c>
+      <c r="E201" s="4" t="n">
+        <v>4.3889446</v>
+      </c>
+      <c r="F201" s="4" t="n">
+        <v>4.9919264</v>
+      </c>
+      <c r="G201" s="4" t="n">
+        <v>3.2226844</v>
+      </c>
+      <c r="H201" s="4"/>
+      <c r="I201" s="4"/>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A202" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C202" s="4" t="n">
+        <v>3.3836568</v>
+      </c>
+      <c r="D202" s="4" t="n">
+        <v>4.0111286</v>
+      </c>
+      <c r="E202" s="4" t="n">
+        <v>4.2826946</v>
+      </c>
+      <c r="F202" s="4" t="n">
+        <v>5.132398</v>
+      </c>
+      <c r="G202" s="4" t="n">
+        <v>3.33232</v>
+      </c>
+      <c r="H202" s="4"/>
+      <c r="I202" s="4"/>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A203" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C203" s="4" t="n">
+        <v>5.1730226</v>
+      </c>
+      <c r="D203" s="4" t="n">
+        <v>4.779182</v>
+      </c>
+      <c r="E203" s="4" t="n">
+        <v>4.471969</v>
+      </c>
+      <c r="F203" s="4" t="n">
+        <v>5.3759254</v>
+      </c>
+      <c r="G203" s="4" t="n">
+        <v>3.2882554</v>
+      </c>
+      <c r="H203" s="4"/>
+      <c r="I203" s="4"/>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A204" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C204" s="4" t="n">
+        <v>3.7624634</v>
+      </c>
+      <c r="D204" s="4" t="n">
+        <v>3.9523142</v>
+      </c>
+      <c r="E204" s="4" t="n">
+        <v>4.2645832</v>
+      </c>
+      <c r="F204" s="4" t="n">
+        <v>5.1377478</v>
+      </c>
+      <c r="G204" s="4" t="n">
+        <v>3.3964548</v>
+      </c>
+      <c r="H204" s="4"/>
+      <c r="I204" s="4"/>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A205" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C205" s="4" t="n">
+        <v>3.4108414</v>
+      </c>
+      <c r="D205" s="4" t="n">
+        <v>3.966033</v>
+      </c>
+      <c r="E205" s="4" t="n">
+        <v>4.3875088</v>
+      </c>
+      <c r="F205" s="4" t="n">
+        <v>5.3717216</v>
+      </c>
+      <c r="G205" s="4" t="n">
+        <v>3.3135152</v>
+      </c>
+      <c r="H205" s="4"/>
+      <c r="I205" s="4"/>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C206" s="4" t="n">
+        <v>3.4237186</v>
+      </c>
+      <c r="D206" s="4" t="n">
+        <v>4.7291534</v>
+      </c>
+      <c r="E206" s="4" t="n">
+        <v>4.4755634</v>
+      </c>
+      <c r="F206" s="4" t="n">
+        <v>5.3865492</v>
+      </c>
+      <c r="G206" s="4" t="n">
+        <v>3.3974184</v>
+      </c>
+      <c r="H206" s="4"/>
+      <c r="I206" s="4"/>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C207" s="4" t="n">
+        <v>3.39575</v>
+      </c>
+      <c r="D207" s="4" t="n">
+        <v>3.956102</v>
+      </c>
+      <c r="E207" s="4" t="n">
+        <v>4.3987152</v>
+      </c>
+      <c r="F207" s="4" t="n">
+        <v>5.060907</v>
+      </c>
+      <c r="G207" s="4" t="n">
+        <v>3.4285558</v>
+      </c>
+      <c r="H207" s="4"/>
+      <c r="I207" s="4"/>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C208" s="4" t="n">
+        <v>3.489575</v>
+      </c>
+      <c r="D208" s="4" t="n">
+        <v>4.0116942</v>
+      </c>
+      <c r="E208" s="4" t="n">
+        <v>4.6446822</v>
+      </c>
+      <c r="F208" s="4" t="n">
+        <v>5.1263442</v>
+      </c>
+      <c r="G208" s="4" t="n">
+        <v>3.3048514</v>
+      </c>
+      <c r="H208" s="4"/>
+      <c r="I208" s="4"/>
+    </row>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -10671,17 +12222,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A166" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D177" activeCellId="0" sqref="D177"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A189" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C200" activeCellId="0" sqref="C200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.99"/>
@@ -10691,7 +12242,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="23.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="8" style="3" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="4" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1023" style="4" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10722,7 +12273,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>0.7804054</v>
@@ -10745,7 +12296,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>0.7779802</v>
@@ -10768,7 +12319,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>0.7043458</v>
@@ -10791,7 +12342,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>0.7145706</v>
@@ -10860,7 +12411,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>0.6280168</v>
@@ -10906,7 +12457,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>0.7373706</v>
@@ -10952,7 +12503,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>0.7234852</v>
@@ -11044,7 +12595,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>0.3510038</v>
@@ -11113,7 +12664,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>0.5551518</v>
@@ -11205,7 +12756,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>0.9795414</v>
@@ -11228,7 +12779,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>3.7305486</v>
@@ -11251,7 +12802,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="C25" s="4" t="n">
         <v>2.3842444</v>
@@ -11274,7 +12825,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>2.139728</v>
@@ -11297,7 +12848,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>0.7112716</v>
@@ -11320,7 +12871,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>0.67812</v>
@@ -11366,7 +12917,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>0.712753</v>
@@ -11389,7 +12940,7 @@
         <v>46</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="C31" s="4" t="n">
         <v>0.630812</v>
@@ -11435,7 +12986,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>0.7013216</v>
@@ -11504,7 +13055,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>0.7043458</v>
@@ -11527,7 +13078,7 @@
         <v>53</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>0.7145706</v>
@@ -11550,7 +13101,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>1.2584274</v>
@@ -11573,7 +13124,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>1.3856258</v>
@@ -11596,7 +13147,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>1.1413118</v>
@@ -11619,7 +13170,7 @@
         <v>60</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>2.0516946</v>
@@ -11688,7 +13239,7 @@
         <v>64</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>0.7883284</v>
@@ -11734,7 +13285,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="C46" s="4" t="n">
         <v>0.6814198</v>
@@ -11849,7 +13400,7 @@
         <v>72</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="C51" s="4" t="n">
         <v>1.4049502</v>
@@ -11895,7 +13446,7 @@
         <v>76</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="C53" s="4" t="n">
         <v>0.9897652</v>
@@ -11964,7 +13515,7 @@
         <v>80</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="C56" s="4" t="n">
         <v>1.2353042</v>
@@ -12010,7 +13561,7 @@
         <v>80</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="C58" s="4" t="n">
         <v>1.2364662</v>
@@ -12056,7 +13607,7 @@
         <v>84</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="C60" s="4" t="n">
         <v>1.1438926</v>
@@ -12171,7 +13722,7 @@
         <v>91</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="C65" s="4" t="n">
         <v>1.8978822</v>
@@ -12194,7 +13745,7 @@
         <v>91</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="C66" s="4" t="n">
         <v>1.1060998</v>
@@ -12217,7 +13768,7 @@
         <v>91</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="C67" s="4" t="n">
         <v>1.6069744</v>
@@ -12240,7 +13791,7 @@
         <v>95</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="C68" s="4" t="n">
         <v>1.6301784</v>
@@ -12263,7 +13814,7 @@
         <v>95</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="C69" s="4" t="n">
         <v>1.5682082</v>
@@ -12286,7 +13837,7 @@
         <v>95</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="C70" s="4" t="n">
         <v>1.4442308</v>
@@ -12424,7 +13975,7 @@
         <v>103</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="C76" s="4" t="n">
         <v>1.1822766</v>
@@ -12493,7 +14044,7 @@
         <v>107</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="C79" s="4" t="n">
         <v>1.573159</v>
@@ -12792,7 +14343,7 @@
         <v>126</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="C92" s="4" t="n">
         <v>1.5482428</v>
@@ -12815,7 +14366,7 @@
         <v>126</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="C93" s="4" t="n">
         <v>1.8137892</v>
@@ -12838,7 +14389,7 @@
         <v>126</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="C94" s="4" t="n">
         <v>1.6058992</v>
@@ -12907,7 +14458,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="C97" s="4" t="n">
         <v>1.4182292</v>
@@ -12999,7 +14550,7 @@
         <v>134</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="C101" s="4" t="n">
         <v>1.2684794</v>
@@ -13137,7 +14688,7 @@
         <v>139</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="C107" s="4" t="n">
         <v>1.295247</v>
@@ -13160,7 +14711,7 @@
         <v>139</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="C108" s="4" t="n">
         <v>1.22489</v>
@@ -13183,7 +14734,7 @@
         <v>139</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="C109" s="4" t="n">
         <v>1.1823422</v>
@@ -13206,7 +14757,7 @@
         <v>142</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="C110" s="4" t="n">
         <v>1.1176918</v>
@@ -13298,7 +14849,7 @@
         <v>144</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="C114" s="4" t="n">
         <v>0.5937896</v>
@@ -13390,7 +14941,7 @@
         <v>148</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="C118" s="4" t="n">
         <v>0.6148816</v>
@@ -13459,7 +15010,7 @@
         <v>152</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="C121" s="4" t="n">
         <v>0.5689302</v>
@@ -13574,7 +15125,7 @@
         <v>160</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="C126" s="4" t="n">
         <v>0.6197108</v>
@@ -13712,7 +15263,7 @@
         <v>169</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>316</v>
+        <v>229</v>
       </c>
       <c r="C132" s="4" t="n">
         <v>0.3808622</v>
@@ -13827,7 +15378,7 @@
         <v>169</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="C137" s="4" t="n">
         <v>0.3914072</v>
@@ -13850,7 +15401,7 @@
         <v>169</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="C138" s="4" t="n">
         <v>0.3957292</v>
@@ -13965,7 +15516,7 @@
         <v>182</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="C143" s="4" t="n">
         <v>1.1999426</v>
@@ -14090,7 +15641,7 @@
         <v>184</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="C148" s="4" t="n">
         <v>1.2852092</v>
@@ -14165,7 +15716,7 @@
         <v>189</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="C151" s="4" t="n">
         <v>0.341044</v>
@@ -14240,7 +15791,7 @@
         <v>192</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>320</v>
+        <v>246</v>
       </c>
       <c r="C154" s="4" t="n">
         <v>0.330861</v>
@@ -14365,7 +15916,7 @@
         <v>196</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="C159" s="4" t="n">
         <v>0.295909</v>
@@ -14565,7 +16116,7 @@
         <v>207</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="C167" s="4" t="n">
         <v>0.4000132</v>
@@ -14690,7 +16241,7 @@
         <v>215</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="C172" s="4" t="n">
         <v>0.3234768</v>
@@ -14765,7 +16316,7 @@
         <v>215</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="C175" s="4" t="n">
         <v>0.3166722</v>
@@ -14815,7 +16366,7 @@
         <v>215</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="C177" s="4" t="n">
         <v>0.3405566</v>
@@ -14910,6 +16461,707 @@
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
     </row>
+    <row r="181" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A181" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C181" s="4" t="n">
+        <v>0.358663</v>
+      </c>
+      <c r="D181" s="4" t="n">
+        <v>0.4631606</v>
+      </c>
+      <c r="E181" s="4" t="n">
+        <v>0.4757526</v>
+      </c>
+      <c r="F181" s="4" t="n">
+        <v>1.1153274</v>
+      </c>
+      <c r="G181" s="4" t="n">
+        <v>0.4770692</v>
+      </c>
+      <c r="H181" s="4"/>
+      <c r="I181" s="4"/>
+    </row>
+    <row r="182" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A182" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C182" s="4" t="n">
+        <v>0.3673794</v>
+      </c>
+      <c r="D182" s="4" t="n">
+        <v>0.4452746</v>
+      </c>
+      <c r="E182" s="4" t="n">
+        <v>0.3706408</v>
+      </c>
+      <c r="F182" s="4" t="n">
+        <v>1.0757652</v>
+      </c>
+      <c r="G182" s="4" t="n">
+        <v>0.5178468</v>
+      </c>
+      <c r="H182" s="4"/>
+      <c r="I182" s="4"/>
+    </row>
+    <row r="183" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A183" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C183" s="4" t="n">
+        <v>0.3166388</v>
+      </c>
+      <c r="D183" s="4" t="n">
+        <v>0.4104278</v>
+      </c>
+      <c r="E183" s="4" t="n">
+        <v>0.432993</v>
+      </c>
+      <c r="F183" s="4" t="n">
+        <v>1.065057</v>
+      </c>
+      <c r="G183" s="4" t="n">
+        <v>0.4391014</v>
+      </c>
+      <c r="H183" s="4"/>
+      <c r="I183" s="4"/>
+    </row>
+    <row r="184" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A184" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C184" s="4" t="n">
+        <v>0.4261214</v>
+      </c>
+      <c r="D184" s="4" t="n">
+        <v>0.3911128</v>
+      </c>
+      <c r="E184" s="4" t="n">
+        <v>0.498543</v>
+      </c>
+      <c r="F184" s="4" t="n">
+        <v>1.1394892</v>
+      </c>
+      <c r="G184" s="4" t="n">
+        <v>0.5083822</v>
+      </c>
+      <c r="H184" s="4"/>
+      <c r="I184" s="4"/>
+    </row>
+    <row r="185" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A185" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C185" s="4" t="n">
+        <v>0.3895084</v>
+      </c>
+      <c r="D185" s="4" t="n">
+        <v>0.4003692</v>
+      </c>
+      <c r="E185" s="4" t="n">
+        <v>0.3966124</v>
+      </c>
+      <c r="F185" s="4" t="n">
+        <v>0.5187084</v>
+      </c>
+      <c r="G185" s="4" t="n">
+        <v>0.4838028</v>
+      </c>
+      <c r="H185" s="4"/>
+      <c r="I185" s="4"/>
+    </row>
+    <row r="186" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A186" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C186" s="4" t="n">
+        <v>0.4035144</v>
+      </c>
+      <c r="D186" s="4" t="n">
+        <v>0.4559018</v>
+      </c>
+      <c r="E186" s="4" t="n">
+        <v>0.4155056</v>
+      </c>
+      <c r="F186" s="4" t="n">
+        <v>0.7306564</v>
+      </c>
+      <c r="G186" s="4" t="n">
+        <v>0.4250686</v>
+      </c>
+      <c r="H186" s="4"/>
+      <c r="I186" s="4"/>
+    </row>
+    <row r="187" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A187" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C187" s="4" t="n">
+        <v>0.4073594</v>
+      </c>
+      <c r="D187" s="4" t="n">
+        <v>0.4285762</v>
+      </c>
+      <c r="E187" s="4" t="n">
+        <v>0.4435418</v>
+      </c>
+      <c r="F187" s="4" t="n">
+        <v>0.4897672</v>
+      </c>
+      <c r="G187" s="4" t="n">
+        <v>0.6007384</v>
+      </c>
+      <c r="H187" s="4"/>
+      <c r="I187" s="4"/>
+    </row>
+    <row r="188" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A188" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C188" s="4" t="n">
+        <v>0.295778</v>
+      </c>
+      <c r="D188" s="4" t="n">
+        <v>0.4585402</v>
+      </c>
+      <c r="E188" s="4" t="n">
+        <v>0.328781</v>
+      </c>
+      <c r="F188" s="4" t="n">
+        <v>1.0791364</v>
+      </c>
+      <c r="G188" s="4" t="n">
+        <v>0.4732776</v>
+      </c>
+      <c r="H188" s="4"/>
+      <c r="I188" s="4"/>
+    </row>
+    <row r="189" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A189" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C189" s="4" t="n">
+        <v>0.3548348</v>
+      </c>
+      <c r="D189" s="4" t="n">
+        <v>0.3499874</v>
+      </c>
+      <c r="E189" s="4" t="n">
+        <v>0.3568286</v>
+      </c>
+      <c r="F189" s="4" t="n">
+        <v>1.1292216</v>
+      </c>
+      <c r="G189" s="4" t="n">
+        <v>0.3668658</v>
+      </c>
+      <c r="H189" s="4"/>
+      <c r="I189" s="4"/>
+    </row>
+    <row r="190" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A190" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C190" s="4" t="n">
+        <v>0.313661</v>
+      </c>
+      <c r="D190" s="4" t="n">
+        <v>0.3703522</v>
+      </c>
+      <c r="E190" s="4" t="n">
+        <v>0.4216148</v>
+      </c>
+      <c r="F190" s="4" t="n">
+        <v>1.1041154</v>
+      </c>
+      <c r="G190" s="4" t="n">
+        <v>0.4039464</v>
+      </c>
+      <c r="H190" s="4"/>
+      <c r="I190" s="4"/>
+    </row>
+    <row r="191" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A191" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C191" s="4" t="n">
+        <v>0.3237906</v>
+      </c>
+      <c r="D191" s="4" t="n">
+        <v>0.381146</v>
+      </c>
+      <c r="E191" s="4" t="n">
+        <v>0.398395</v>
+      </c>
+      <c r="F191" s="4" t="n">
+        <v>1.072422</v>
+      </c>
+      <c r="G191" s="4" t="n">
+        <v>0.4320602</v>
+      </c>
+      <c r="H191" s="4"/>
+      <c r="I191" s="4"/>
+    </row>
+    <row r="192" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A192" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C192" s="4" t="n">
+        <v>0.406227</v>
+      </c>
+      <c r="D192" s="4" t="n">
+        <v>0.4054982</v>
+      </c>
+      <c r="E192" s="4" t="n">
+        <v>0.4212978</v>
+      </c>
+      <c r="F192" s="4" t="n">
+        <v>1.0464936</v>
+      </c>
+      <c r="G192" s="4" t="n">
+        <v>0.4270982</v>
+      </c>
+      <c r="H192" s="4"/>
+      <c r="I192" s="4"/>
+    </row>
+    <row r="193" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A193" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C193" s="4" t="n">
+        <v>0.3582108</v>
+      </c>
+      <c r="D193" s="4" t="n">
+        <v>0.4738578</v>
+      </c>
+      <c r="E193" s="4" t="n">
+        <v>0.3725456</v>
+      </c>
+      <c r="F193" s="4" t="n">
+        <v>1.1180032</v>
+      </c>
+      <c r="G193" s="4" t="n">
+        <v>0.4520712</v>
+      </c>
+      <c r="H193" s="4"/>
+      <c r="I193" s="4"/>
+    </row>
+    <row r="194" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A194" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C194" s="4" t="n">
+        <v>0.3890278</v>
+      </c>
+      <c r="D194" s="4" t="n">
+        <v>0.4796796</v>
+      </c>
+      <c r="E194" s="4" t="n">
+        <v>0.3914936</v>
+      </c>
+      <c r="F194" s="4" t="n">
+        <v>1.0937804</v>
+      </c>
+      <c r="G194" s="4" t="n">
+        <v>0.574869</v>
+      </c>
+      <c r="H194" s="4"/>
+      <c r="I194" s="4"/>
+    </row>
+    <row r="195" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A195" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C195" s="4" t="n">
+        <v>0.374767</v>
+      </c>
+      <c r="D195" s="4" t="n">
+        <v>0.4949454</v>
+      </c>
+      <c r="E195" s="4" t="n">
+        <v>0.4655136</v>
+      </c>
+      <c r="F195" s="4" t="n">
+        <v>1.1489476</v>
+      </c>
+      <c r="G195" s="4" t="n">
+        <v>0.4230692</v>
+      </c>
+      <c r="H195" s="4"/>
+      <c r="I195" s="4"/>
+    </row>
+    <row r="196" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A196" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C196" s="4" t="n">
+        <v>0.4295846</v>
+      </c>
+      <c r="D196" s="4" t="n">
+        <v>0.4729042</v>
+      </c>
+      <c r="E196" s="4" t="n">
+        <v>0.4070432</v>
+      </c>
+      <c r="F196" s="4" t="n">
+        <v>1.1548228</v>
+      </c>
+      <c r="G196" s="4" t="n">
+        <v>1.302669</v>
+      </c>
+      <c r="H196" s="4"/>
+      <c r="I196" s="4"/>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A197" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C197" s="4" t="n">
+        <v>0.3186188</v>
+      </c>
+      <c r="D197" s="4" t="n">
+        <v>0.4656846</v>
+      </c>
+      <c r="E197" s="4" t="n">
+        <v>0.411731</v>
+      </c>
+      <c r="F197" s="4" t="n">
+        <v>0.5408398</v>
+      </c>
+      <c r="G197" s="4" t="n">
+        <v>0.5988774</v>
+      </c>
+      <c r="H197" s="4"/>
+      <c r="I197" s="4"/>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A198" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C198" s="4" t="n">
+        <v>0.389133</v>
+      </c>
+      <c r="D198" s="4" t="n">
+        <v>0.4162394</v>
+      </c>
+      <c r="E198" s="4" t="n">
+        <v>0.4694912</v>
+      </c>
+      <c r="F198" s="4" t="n">
+        <v>0.5658284</v>
+      </c>
+      <c r="G198" s="4" t="n">
+        <v>0.4029454</v>
+      </c>
+      <c r="H198" s="4"/>
+      <c r="I198" s="4"/>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A199" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C199" s="4" t="n">
+        <v>0.397058</v>
+      </c>
+      <c r="D199" s="4" t="n">
+        <v>0.4485512</v>
+      </c>
+      <c r="E199" s="4" t="n">
+        <v>0.410144</v>
+      </c>
+      <c r="F199" s="4" t="n">
+        <v>0.5306188</v>
+      </c>
+      <c r="G199" s="4" t="n">
+        <v>0.5330308</v>
+      </c>
+      <c r="H199" s="4"/>
+      <c r="I199" s="4"/>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A200" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C200" s="4" t="n">
+        <v>0.315014</v>
+      </c>
+      <c r="D200" s="4" t="n">
+        <v>0.4528322</v>
+      </c>
+      <c r="E200" s="4" t="n">
+        <v>0.4153126</v>
+      </c>
+      <c r="F200" s="4" t="n">
+        <v>0.5050296</v>
+      </c>
+      <c r="G200" s="4" t="n">
+        <v>0.489012</v>
+      </c>
+      <c r="H200" s="4"/>
+      <c r="I200" s="4"/>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A201" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C201" s="4" t="n">
+        <v>0.359044</v>
+      </c>
+      <c r="D201" s="4" t="n">
+        <v>0.3776858</v>
+      </c>
+      <c r="E201" s="4" t="n">
+        <v>0.3512506</v>
+      </c>
+      <c r="F201" s="4" t="n">
+        <v>0.4871252</v>
+      </c>
+      <c r="G201" s="4" t="n">
+        <v>0.401672</v>
+      </c>
+      <c r="H201" s="4"/>
+      <c r="I201" s="4"/>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A202" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C202" s="4" t="n">
+        <v>0.313982</v>
+      </c>
+      <c r="D202" s="4" t="n">
+        <v>0.436835</v>
+      </c>
+      <c r="E202" s="4" t="n">
+        <v>0.4164968</v>
+      </c>
+      <c r="F202" s="4" t="n">
+        <v>0.5122326</v>
+      </c>
+      <c r="G202" s="4" t="n">
+        <v>0.4058176</v>
+      </c>
+      <c r="H202" s="4"/>
+      <c r="I202" s="4"/>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A203" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C203" s="4" t="n">
+        <v>0.4265546</v>
+      </c>
+      <c r="D203" s="4" t="n">
+        <v>0.4570178</v>
+      </c>
+      <c r="E203" s="4" t="n">
+        <v>0.3578842</v>
+      </c>
+      <c r="F203" s="4" t="n">
+        <v>0.5214828</v>
+      </c>
+      <c r="G203" s="4" t="n">
+        <v>0.463886</v>
+      </c>
+      <c r="H203" s="4"/>
+      <c r="I203" s="4"/>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A204" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C204" s="4" t="n">
+        <v>0.3943034</v>
+      </c>
+      <c r="D204" s="4" t="n">
+        <v>0.3839568</v>
+      </c>
+      <c r="E204" s="4" t="n">
+        <v>0.5586396</v>
+      </c>
+      <c r="F204" s="4" t="n">
+        <v>0.5598454</v>
+      </c>
+      <c r="G204" s="4" t="n">
+        <v>0.523789</v>
+      </c>
+      <c r="H204" s="4"/>
+      <c r="I204" s="4"/>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A205" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C205" s="4" t="n">
+        <v>0.3671952</v>
+      </c>
+      <c r="D205" s="4" t="n">
+        <v>0.3928194</v>
+      </c>
+      <c r="E205" s="4" t="n">
+        <v>0.395568</v>
+      </c>
+      <c r="F205" s="4" t="n">
+        <v>0.5485812</v>
+      </c>
+      <c r="G205" s="4" t="n">
+        <v>0.4309202</v>
+      </c>
+      <c r="H205" s="4"/>
+      <c r="I205" s="4"/>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C206" s="4" t="n">
+        <v>0.3729378</v>
+      </c>
+      <c r="D206" s="4" t="n">
+        <v>0.4006752</v>
+      </c>
+      <c r="E206" s="4" t="n">
+        <v>0.423428</v>
+      </c>
+      <c r="F206" s="4" t="n">
+        <v>0.5544086</v>
+      </c>
+      <c r="G206" s="4" t="n">
+        <v>0.5017644</v>
+      </c>
+      <c r="H206" s="4"/>
+      <c r="I206" s="4"/>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C207" s="4" t="n">
+        <v>0.3657804</v>
+      </c>
+      <c r="D207" s="4" t="n">
+        <v>0.3798634</v>
+      </c>
+      <c r="E207" s="4" t="n">
+        <v>0.4170704</v>
+      </c>
+      <c r="F207" s="4" t="n">
+        <v>0.5182024</v>
+      </c>
+      <c r="G207" s="4" t="n">
+        <v>0.4240286</v>
+      </c>
+      <c r="H207" s="4"/>
+      <c r="I207" s="4"/>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C208" s="4" t="n">
+        <v>0.4470646</v>
+      </c>
+      <c r="D208" s="4" t="n">
+        <v>0.4262924</v>
+      </c>
+      <c r="E208" s="4" t="n">
+        <v>0.4464592</v>
+      </c>
+      <c r="F208" s="4" t="n">
+        <v>0.7442802</v>
+      </c>
+      <c r="G208" s="4" t="n">
+        <v>0.457722</v>
+      </c>
+      <c r="H208" s="4"/>
+      <c r="I208" s="4"/>
+    </row>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -14932,17 +17184,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A168" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D180" activeCellId="0" sqref="D180"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A188" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D206" activeCellId="0" sqref="D206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.99"/>
@@ -14952,7 +17204,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="23.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="8" style="3" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="4" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1023" style="4" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14985,7 +17237,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>3.4656902</v>
@@ -15008,7 +17260,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>4.0852622</v>
@@ -15031,7 +17283,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>2.9817282</v>
@@ -15054,7 +17306,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>3.2355116</v>
@@ -15123,7 +17375,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>3.7434734</v>
@@ -15146,7 +17398,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>3.5561424</v>
@@ -15169,7 +17421,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>3.2355472</v>
@@ -15192,7 +17444,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>3.8741284</v>
@@ -15215,7 +17467,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>3.5923944</v>
@@ -15284,7 +17536,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>3.0850886</v>
@@ -15307,7 +17559,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>4.2818632</v>
@@ -15376,7 +17628,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>2.8087598</v>
@@ -15399,7 +17651,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>3.0989676</v>
@@ -15422,7 +17674,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="C21" s="4" t="n">
         <v>2.9089418</v>
@@ -15491,7 +17743,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>3.6907394</v>
@@ -15537,7 +17789,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="C26" s="4" t="n">
         <v>3.822524</v>
@@ -15560,7 +17812,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>3.2866498</v>
@@ -15583,7 +17835,7 @@
         <v>39</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>3.8178666</v>
@@ -15629,7 +17881,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>3.0702744</v>
@@ -15698,7 +17950,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>3.6235082</v>
@@ -15721,7 +17973,7 @@
         <v>50</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>2.9263998</v>
@@ -15767,7 +18019,7 @@
         <v>53</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>3.2355116</v>
@@ -15813,7 +18065,7 @@
         <v>56</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>4.4183598</v>
@@ -15836,7 +18088,7 @@
         <v>56</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>4.2271066</v>
@@ -15859,7 +18111,7 @@
         <v>56</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>4.3486802</v>
@@ -15905,7 +18157,7 @@
         <v>60</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>3.6324914</v>
@@ -15951,7 +18203,7 @@
         <v>64</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>3.8775138</v>
@@ -15997,7 +18249,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="C46" s="4" t="n">
         <v>3.8538836</v>
@@ -16112,7 +18364,7 @@
         <v>72</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="C51" s="4" t="n">
         <v>4.7661336</v>
@@ -16135,7 +18387,7 @@
         <v>72</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
       <c r="C52" s="4" t="n">
         <v>4.1553188</v>
@@ -16158,7 +18410,7 @@
         <v>76</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="C53" s="4" t="n">
         <v>4.4161086</v>
@@ -16181,7 +18433,7 @@
         <v>76</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="C54" s="4" t="n">
         <v>3.9109934</v>
@@ -16204,7 +18456,7 @@
         <v>76</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="C55" s="4" t="n">
         <v>3.9109934</v>
@@ -16227,7 +18479,7 @@
         <v>80</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="C56" s="4" t="n">
         <v>3.4861618</v>
@@ -16273,7 +18525,7 @@
         <v>80</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>340</v>
+        <v>384</v>
       </c>
       <c r="C58" s="4" t="n">
         <v>3.52287</v>
@@ -16457,7 +18709,7 @@
         <v>91</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="C66" s="4" t="n">
         <v>4.0686228</v>
@@ -16480,7 +18732,7 @@
         <v>91</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="C67" s="4" t="n">
         <v>3.0381616</v>
@@ -16503,7 +18755,7 @@
         <v>95</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="C68" s="4" t="n">
         <v>3.9888114</v>
@@ -16526,7 +18778,7 @@
         <v>95</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="C69" s="4" t="n">
         <v>4.1137066</v>
@@ -16549,7 +18801,7 @@
         <v>95</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="C70" s="4" t="n">
         <v>4.983335</v>
@@ -16687,7 +18939,7 @@
         <v>103</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="C76" s="4" t="n">
         <v>4.5492628</v>
@@ -16756,7 +19008,7 @@
         <v>107</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="C79" s="4" t="n">
         <v>4.5622134</v>
@@ -17078,7 +19330,7 @@
         <v>126</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="C93" s="4" t="n">
         <v>4.559301</v>
@@ -17170,7 +19422,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="C97" s="4" t="n">
         <v>3.7013772</v>
@@ -17239,7 +19491,7 @@
         <v>131</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="C100" s="4" t="n">
         <v>4.1470936</v>
@@ -17262,7 +19514,7 @@
         <v>134</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="C101" s="4" t="n">
         <v>4.5941812</v>
@@ -17308,7 +19560,7 @@
         <v>134</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="C103" s="4" t="n">
         <v>4.2355866</v>
@@ -17400,7 +19652,7 @@
         <v>139</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="C107" s="4" t="n">
         <v>3.9397008</v>
@@ -17423,7 +19675,7 @@
         <v>139</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="C108" s="4" t="n">
         <v>3.8446282</v>
@@ -17446,7 +19698,7 @@
         <v>139</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="C109" s="4" t="n">
         <v>3.6811188</v>
@@ -17469,7 +19721,7 @@
         <v>142</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="C110" s="4" t="n">
         <v>4.0021732</v>
@@ -17630,7 +19882,7 @@
         <v>148</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="C117" s="4" t="n">
         <v>3.9349018</v>
@@ -17722,7 +19974,7 @@
         <v>152</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="C121" s="4" t="n">
         <v>3.7466574</v>
@@ -17791,7 +20043,7 @@
         <v>156</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="C124" s="4" t="n">
         <v>3.986907</v>
@@ -17837,7 +20089,7 @@
         <v>160</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="C126" s="4" t="n">
         <v>3.6994948</v>
@@ -17929,7 +20181,7 @@
         <v>164</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="C130" s="4" t="n">
         <v>4.1747286</v>
@@ -17952,7 +20204,7 @@
         <v>167</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="C131" s="4" t="n">
         <v>3.529065</v>
@@ -18090,7 +20342,7 @@
         <v>169</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="C137" s="4" t="n">
         <v>3.1387814</v>
@@ -18228,7 +20480,7 @@
         <v>182</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="C143" s="4" t="n">
         <v>3.6613182</v>
@@ -18328,7 +20580,7 @@
         <v>184</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="C147" s="4" t="n">
         <v>4.9899384</v>
@@ -18353,7 +20605,7 @@
         <v>184</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="C148" s="4" t="n">
         <v>4.6078064</v>
@@ -18478,7 +20730,7 @@
         <v>189</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="C153" s="4" t="n">
         <v>3.3410662</v>
@@ -18553,7 +20805,7 @@
         <v>192</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="C156" s="4" t="n">
         <v>3.6757588</v>
@@ -18628,7 +20880,7 @@
         <v>196</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="C159" s="4" t="n">
         <v>3.1456856</v>
@@ -18728,7 +20980,7 @@
         <v>203</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="C163" s="4" t="n">
         <v>3.365378</v>
@@ -18828,7 +21080,7 @@
         <v>207</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="C167" s="4" t="n">
         <v>3.7039678</v>
@@ -18853,7 +21105,7 @@
         <v>207</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="C168" s="4" t="n">
         <v>3.7096014</v>
@@ -18878,7 +21130,7 @@
         <v>211</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="C169" s="4" t="n">
         <v>5.4967574</v>
@@ -18928,7 +21180,7 @@
         <v>211</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="C171" s="4" t="n">
         <v>4.669323</v>
@@ -19078,7 +21330,7 @@
         <v>215</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="C177" s="4" t="n">
         <v>3.6453918</v>
@@ -19103,7 +21355,7 @@
         <v>215</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="C178" s="4" t="n">
         <v>3.0646552</v>
@@ -19173,31 +21425,708 @@
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
     </row>
-    <row r="181" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
       <c r="C181" s="4" t="n">
-        <v>3.3664146</v>
+        <v>0.9643054</v>
       </c>
       <c r="D181" s="4" t="n">
-        <v>1.2025386</v>
+        <v>1.566944</v>
       </c>
       <c r="E181" s="4" t="n">
-        <v>0.825262</v>
+        <v>1.1384034</v>
       </c>
       <c r="F181" s="4" t="n">
-        <v>2.1805336</v>
+        <v>5.4659658</v>
       </c>
       <c r="G181" s="4" t="n">
-        <v>1.0091106</v>
+        <v>1.0202098</v>
       </c>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
     </row>
+    <row r="182" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A182" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C182" s="4" t="n">
+        <v>0.8963294</v>
+      </c>
+      <c r="D182" s="4" t="n">
+        <v>1.9565714</v>
+      </c>
+      <c r="E182" s="4" t="n">
+        <v>0.9564154</v>
+      </c>
+      <c r="F182" s="4" t="n">
+        <v>2.6243132</v>
+      </c>
+      <c r="G182" s="4" t="n">
+        <v>1.0517234</v>
+      </c>
+      <c r="H182" s="4"/>
+      <c r="I182" s="4"/>
+    </row>
+    <row r="183" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A183" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C183" s="4" t="n">
+        <v>0.915316</v>
+      </c>
+      <c r="D183" s="4" t="n">
+        <v>1.305624</v>
+      </c>
+      <c r="E183" s="4" t="n">
+        <v>0.8707186</v>
+      </c>
+      <c r="F183" s="4" t="n">
+        <v>2.2892438</v>
+      </c>
+      <c r="G183" s="4" t="n">
+        <v>0.9493496</v>
+      </c>
+      <c r="H183" s="4"/>
+      <c r="I183" s="4"/>
+    </row>
+    <row r="184" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A184" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C184" s="4" t="n">
+        <v>1.0040066</v>
+      </c>
+      <c r="D184" s="4" t="n">
+        <v>1.3512946</v>
+      </c>
+      <c r="E184" s="4" t="n">
+        <v>1.202766</v>
+      </c>
+      <c r="F184" s="4" t="n">
+        <v>2.2459128</v>
+      </c>
+      <c r="G184" s="4" t="n">
+        <v>1.0430714</v>
+      </c>
+      <c r="H184" s="4"/>
+      <c r="I184" s="4"/>
+    </row>
+    <row r="185" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A185" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C185" s="4" t="n">
+        <v>0.7832132</v>
+      </c>
+      <c r="D185" s="4" t="n">
+        <v>2.1675962</v>
+      </c>
+      <c r="E185" s="4" t="n">
+        <v>1.1900402</v>
+      </c>
+      <c r="F185" s="4" t="n">
+        <v>2.6047864</v>
+      </c>
+      <c r="G185" s="4" t="n">
+        <v>1.1089712</v>
+      </c>
+      <c r="H185" s="4"/>
+      <c r="I185" s="4"/>
+    </row>
+    <row r="186" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A186" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C186" s="4" t="n">
+        <v>0.8988952</v>
+      </c>
+      <c r="D186" s="4" t="n">
+        <v>1.1838984</v>
+      </c>
+      <c r="E186" s="4" t="n">
+        <v>0.9791334</v>
+      </c>
+      <c r="F186" s="4" t="n">
+        <v>2.2222952</v>
+      </c>
+      <c r="G186" s="4" t="n">
+        <v>1.0593938</v>
+      </c>
+      <c r="H186" s="4"/>
+      <c r="I186" s="4"/>
+    </row>
+    <row r="187" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A187" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C187" s="4" t="n">
+        <v>0.8445822</v>
+      </c>
+      <c r="D187" s="4" t="n">
+        <v>1.0537002</v>
+      </c>
+      <c r="E187" s="4" t="n">
+        <v>0.7791348</v>
+      </c>
+      <c r="F187" s="4" t="n">
+        <v>2.312343</v>
+      </c>
+      <c r="G187" s="4" t="n">
+        <v>1.0578196</v>
+      </c>
+      <c r="H187" s="4"/>
+      <c r="I187" s="4"/>
+    </row>
+    <row r="188" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A188" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C188" s="4" t="n">
+        <v>0.9354166</v>
+      </c>
+      <c r="D188" s="4" t="n">
+        <v>1.7471622</v>
+      </c>
+      <c r="E188" s="4" t="n">
+        <v>1.1290284</v>
+      </c>
+      <c r="F188" s="4" t="n">
+        <v>2.5062838</v>
+      </c>
+      <c r="G188" s="4" t="n">
+        <v>1.1100044</v>
+      </c>
+      <c r="H188" s="4"/>
+      <c r="I188" s="4"/>
+    </row>
+    <row r="189" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A189" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C189" s="4" t="n">
+        <v>0.7432314</v>
+      </c>
+      <c r="D189" s="4" t="n">
+        <v>1.3298678</v>
+      </c>
+      <c r="E189" s="4" t="n">
+        <v>0.7927416</v>
+      </c>
+      <c r="F189" s="4" t="n">
+        <v>2.0812544</v>
+      </c>
+      <c r="G189" s="4" t="n">
+        <v>0.9805874</v>
+      </c>
+      <c r="H189" s="4"/>
+      <c r="I189" s="4"/>
+    </row>
+    <row r="190" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A190" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C190" s="4" t="n">
+        <v>0.7282506</v>
+      </c>
+      <c r="D190" s="4" t="n">
+        <v>1.1272034</v>
+      </c>
+      <c r="E190" s="4" t="n">
+        <v>0.8820994</v>
+      </c>
+      <c r="F190" s="4" t="n">
+        <v>1.9891154</v>
+      </c>
+      <c r="G190" s="4" t="n">
+        <v>0.8532016</v>
+      </c>
+      <c r="H190" s="4"/>
+      <c r="I190" s="4"/>
+    </row>
+    <row r="191" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A191" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C191" s="4" t="n">
+        <v>0.6630334</v>
+      </c>
+      <c r="D191" s="4" t="n">
+        <v>1.870199</v>
+      </c>
+      <c r="E191" s="4" t="n">
+        <v>1.1319206</v>
+      </c>
+      <c r="F191" s="4" t="n">
+        <v>2.3485154</v>
+      </c>
+      <c r="G191" s="4" t="n">
+        <v>0.9012828</v>
+      </c>
+      <c r="H191" s="4"/>
+      <c r="I191" s="4"/>
+    </row>
+    <row r="192" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A192" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C192" s="4" t="n">
+        <v>0.6039482</v>
+      </c>
+      <c r="D192" s="4" t="n">
+        <v>1.0337114</v>
+      </c>
+      <c r="E192" s="4" t="n">
+        <v>0.9816028</v>
+      </c>
+      <c r="F192" s="4" t="n">
+        <v>1.9603558</v>
+      </c>
+      <c r="G192" s="4" t="n">
+        <v>0.8427924</v>
+      </c>
+      <c r="H192" s="4"/>
+      <c r="I192" s="4"/>
+    </row>
+    <row r="193" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A193" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C193" s="4" t="n">
+        <v>0.8607154</v>
+      </c>
+      <c r="D193" s="4" t="n">
+        <v>1.3104322</v>
+      </c>
+      <c r="E193" s="4" t="n">
+        <v>0.8246146</v>
+      </c>
+      <c r="F193" s="4" t="n">
+        <v>2.0506528</v>
+      </c>
+      <c r="G193" s="4" t="n">
+        <v>0.9316308</v>
+      </c>
+      <c r="H193" s="4"/>
+      <c r="I193" s="4"/>
+    </row>
+    <row r="194" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A194" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C194" s="4" t="n">
+        <v>0.769896</v>
+      </c>
+      <c r="D194" s="4" t="n">
+        <v>1.7158764</v>
+      </c>
+      <c r="E194" s="4" t="n">
+        <v>1.176396</v>
+      </c>
+      <c r="F194" s="4" t="n">
+        <v>2.444721</v>
+      </c>
+      <c r="G194" s="4" t="n">
+        <v>1.1806014</v>
+      </c>
+      <c r="H194" s="4"/>
+      <c r="I194" s="4"/>
+    </row>
+    <row r="195" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A195" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C195" s="4" t="n">
+        <v>0.8169218</v>
+      </c>
+      <c r="D195" s="4" t="n">
+        <v>1.2328112</v>
+      </c>
+      <c r="E195" s="4" t="n">
+        <v>1.0999276</v>
+      </c>
+      <c r="F195" s="4" t="n">
+        <v>2.4655018</v>
+      </c>
+      <c r="G195" s="4" t="n">
+        <v>0.9748356</v>
+      </c>
+      <c r="H195" s="4"/>
+      <c r="I195" s="4"/>
+    </row>
+    <row r="196" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A196" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C196" s="4" t="n">
+        <v>1.073331</v>
+      </c>
+      <c r="D196" s="4" t="n">
+        <v>1.1251356</v>
+      </c>
+      <c r="E196" s="4" t="n">
+        <v>0.91577</v>
+      </c>
+      <c r="F196" s="4" t="n">
+        <v>1.9328728</v>
+      </c>
+      <c r="G196" s="4" t="n">
+        <v>1.0571212</v>
+      </c>
+      <c r="H196" s="4"/>
+      <c r="I196" s="4"/>
+    </row>
+    <row r="197" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A197" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C197" s="4" t="n">
+        <v>3.6745186</v>
+      </c>
+      <c r="D197" s="4" t="n">
+        <v>2.217488</v>
+      </c>
+      <c r="E197" s="4" t="n">
+        <v>1.2612794</v>
+      </c>
+      <c r="F197" s="4" t="n">
+        <v>2.6941646</v>
+      </c>
+      <c r="G197" s="4" t="n">
+        <v>1.2827268</v>
+      </c>
+      <c r="H197" s="4"/>
+      <c r="I197" s="4"/>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A198" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C198" s="4" t="n">
+        <v>3.6868922</v>
+      </c>
+      <c r="D198" s="4" t="n">
+        <v>1.2060804</v>
+      </c>
+      <c r="E198" s="4" t="n">
+        <v>0.9471082</v>
+      </c>
+      <c r="F198" s="4" t="n">
+        <v>2.234064</v>
+      </c>
+      <c r="G198" s="4" t="n">
+        <v>1.0723996</v>
+      </c>
+      <c r="H198" s="4"/>
+      <c r="I198" s="4"/>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A199" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C199" s="4" t="n">
+        <v>3.5323438</v>
+      </c>
+      <c r="D199" s="4" t="n">
+        <v>1.351849</v>
+      </c>
+      <c r="E199" s="4" t="n">
+        <v>0.9225802</v>
+      </c>
+      <c r="F199" s="4" t="n">
+        <v>2.140524</v>
+      </c>
+      <c r="G199" s="4" t="n">
+        <v>1.339267</v>
+      </c>
+      <c r="H199" s="4"/>
+      <c r="I199" s="4"/>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A200" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C200" s="4" t="n">
+        <v>3.6543238</v>
+      </c>
+      <c r="D200" s="4" t="n">
+        <v>1.2445662</v>
+      </c>
+      <c r="E200" s="4" t="n">
+        <v>1.2871242</v>
+      </c>
+      <c r="F200" s="4" t="n">
+        <v>2.361412</v>
+      </c>
+      <c r="G200" s="4" t="n">
+        <v>1.0360774</v>
+      </c>
+      <c r="H200" s="4"/>
+      <c r="I200" s="4"/>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A201" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C201" s="4" t="n">
+        <v>3.7509906</v>
+      </c>
+      <c r="D201" s="4" t="n">
+        <v>1.1414358</v>
+      </c>
+      <c r="E201" s="4" t="n">
+        <v>0.8490628</v>
+      </c>
+      <c r="F201" s="4" t="n">
+        <v>2.3871524</v>
+      </c>
+      <c r="G201" s="4" t="n">
+        <v>1.0467074</v>
+      </c>
+      <c r="H201" s="4"/>
+      <c r="I201" s="4"/>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A202" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C202" s="4" t="n">
+        <v>3.6990118</v>
+      </c>
+      <c r="D202" s="4" t="n">
+        <v>1.4165178</v>
+      </c>
+      <c r="E202" s="4" t="n">
+        <v>1.2211732</v>
+      </c>
+      <c r="F202" s="4" t="n">
+        <v>2.4671938</v>
+      </c>
+      <c r="G202" s="4" t="n">
+        <v>1.019369</v>
+      </c>
+      <c r="H202" s="4"/>
+      <c r="I202" s="4"/>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A203" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C203" s="4" t="n">
+        <v>3.6825898</v>
+      </c>
+      <c r="D203" s="4" t="n">
+        <v>2.1793698</v>
+      </c>
+      <c r="E203" s="4" t="n">
+        <v>0.871107</v>
+      </c>
+      <c r="F203" s="4" t="n">
+        <v>2.8245394</v>
+      </c>
+      <c r="G203" s="4" t="n">
+        <v>0.9454976</v>
+      </c>
+      <c r="H203" s="4"/>
+      <c r="I203" s="4"/>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A204" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C204" s="4" t="n">
+        <v>3.5967416</v>
+      </c>
+      <c r="D204" s="4" t="n">
+        <v>1.3758424</v>
+      </c>
+      <c r="E204" s="4" t="n">
+        <v>1.004097</v>
+      </c>
+      <c r="F204" s="4" t="n">
+        <v>2.2949732</v>
+      </c>
+      <c r="G204" s="4" t="n">
+        <v>1.1449282</v>
+      </c>
+      <c r="H204" s="4"/>
+      <c r="I204" s="4"/>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A205" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C205" s="4" t="n">
+        <v>3.5056148</v>
+      </c>
+      <c r="D205" s="4" t="n">
+        <v>1.1419618</v>
+      </c>
+      <c r="E205" s="4" t="n">
+        <v>0.9040698</v>
+      </c>
+      <c r="F205" s="4" t="n">
+        <v>1.949812</v>
+      </c>
+      <c r="G205" s="4" t="n">
+        <v>1.4171064</v>
+      </c>
+      <c r="H205" s="4"/>
+      <c r="I205" s="4"/>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C206" s="4" t="n">
+        <v>3.5190232</v>
+      </c>
+      <c r="D206" s="4" t="n">
+        <v>1.1509352</v>
+      </c>
+      <c r="E206" s="4" t="n">
+        <v>0.7636338</v>
+      </c>
+      <c r="F206" s="4" t="n">
+        <v>3.3722754</v>
+      </c>
+      <c r="G206" s="4" t="n">
+        <v>0.9221314</v>
+      </c>
+      <c r="H206" s="4"/>
+      <c r="I206" s="4"/>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C207" s="4" t="n">
+        <v>3.577771</v>
+      </c>
+      <c r="D207" s="4" t="n">
+        <v>1.1258054</v>
+      </c>
+      <c r="E207" s="4" t="n">
+        <v>0.8595952</v>
+      </c>
+      <c r="F207" s="4" t="n">
+        <v>3.316499</v>
+      </c>
+      <c r="G207" s="4" t="n">
+        <v>1.109803</v>
+      </c>
+      <c r="H207" s="4"/>
+      <c r="I207" s="4"/>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C208" s="4" t="n">
+        <v>3.608829</v>
+      </c>
+      <c r="D208" s="4" t="n">
+        <v>1.5117696</v>
+      </c>
+      <c r="E208" s="4" t="n">
+        <v>0.807526</v>
+      </c>
+      <c r="F208" s="4" t="n">
+        <v>3.3757996</v>
+      </c>
+      <c r="G208" s="4" t="n">
+        <v>1.0712266</v>
+      </c>
+      <c r="H208" s="4"/>
+      <c r="I208" s="4"/>
+    </row>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Output Data/Crpo/Common_folder/API_Performance_Chart_Report.xlsx
+++ b/Output Data/Crpo/Common_folder/API_Performance_Chart_Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2929" uniqueCount="619">
   <si>
     <t xml:space="preserve">get_tenant_details</t>
   </si>
@@ -1238,6 +1238,21 @@
     <t xml:space="preserve">10:15:AM</t>
   </si>
   <si>
+    <t xml:space="preserve">2022-04-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:15:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:17:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:23:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-29</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:41:PM</t>
   </si>
   <si>
@@ -1502,6 +1517,9 @@
     <t xml:space="preserve">10:10:AM</t>
   </si>
   <si>
+    <t xml:space="preserve">03:21:PM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:43:PM</t>
   </si>
   <si>
@@ -1724,6 +1742,12 @@
     <t xml:space="preserve">04:37:PM</t>
   </si>
   <si>
+    <t xml:space="preserve">03:11:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:12:PM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:44:PM</t>
   </si>
   <si>
@@ -1823,12 +1847,6 @@
     <t xml:space="preserve">12:53:PM</t>
   </si>
   <si>
-    <t xml:space="preserve">03:15:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03:21:PM</t>
-  </si>
-  <si>
     <t xml:space="preserve">09:44:AM</t>
   </si>
   <si>
@@ -1854,6 +1872,15 @@
   </si>
   <si>
     <t xml:space="preserve">03:42:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:10:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:13:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:14:PM</t>
   </si>
 </sst>
 </file>
@@ -2177,16 +2204,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.838854197183098</c:v>
+                  <c:v>0.834333683102492</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.10266106929577</c:v>
+                  <c:v>2.08450020554016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.802288255211268</c:v>
+                  <c:v>0.796623384487534</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.68478393408451</c:v>
+                  <c:v>2.66100855235457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2265,16 +2292,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.743696766760564</c:v>
+                  <c:v>0.742531327423823</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.22303966197183</c:v>
+                  <c:v>2.21085742382271</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.00088637915493</c:v>
+                  <c:v>0.995872843213297</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.94315399380282</c:v>
+                  <c:v>1.93717522714681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2353,16 +2380,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.753466139154929</c:v>
+                  <c:v>0.75009527036011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.83863587042254</c:v>
+                  <c:v>1.82577642437673</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.02539301915493</c:v>
+                  <c:v>1.02046679556787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.66298963267606</c:v>
+                  <c:v>1.65758936398892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2441,16 +2468,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.57754148338028</c:v>
+                  <c:v>1.57954004155125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.50985648197183</c:v>
+                  <c:v>2.49630372105263</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.40551052225352</c:v>
+                  <c:v>1.39477786925208</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.62763130535211</c:v>
+                  <c:v>2.62056360775623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2529,16 +2556,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.742597686760563</c:v>
+                  <c:v>0.739174371745152</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.81151878816901</c:v>
+                  <c:v>1.80285213407202</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.959794177464789</c:v>
+                  <c:v>0.95574816398892</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.59782934816901</c:v>
+                  <c:v>1.59543794570637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2546,11 +2573,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="-10"/>
-        <c:axId val="90022133"/>
-        <c:axId val="19103901"/>
+        <c:axId val="84477008"/>
+        <c:axId val="78225679"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90022133"/>
+        <c:axId val="84477008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2616,7 +2643,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19103901"/>
+        <c:crossAx val="78225679"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2624,7 +2651,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="19103901"/>
+        <c:axId val="78225679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2690,7 +2717,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90022133"/>
+        <c:crossAx val="84477008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2787,7 +2814,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2822,19 +2849,19 @@
         <v>5</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.838854197183098</v>
+        <v>0.834333683102492</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.743696766760564</v>
+        <v>0.742531327423823</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.753466139154929</v>
+        <v>0.75009527036011</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1.57754148338028</v>
+        <v>1.57954004155125</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0.742597686760563</v>
+        <v>0.739174371745152</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2842,19 +2869,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2.10266106929577</v>
+        <v>2.08450020554016</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2.22303966197183</v>
+        <v>2.21085742382271</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1.83863587042254</v>
+        <v>1.82577642437673</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2.50985648197183</v>
+        <v>2.49630372105263</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>1.81151878816901</v>
+        <v>1.80285213407202</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2862,19 +2889,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.802288255211268</v>
+        <v>0.796623384487534</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1.00088637915493</v>
+        <v>0.995872843213297</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1.02539301915493</v>
+        <v>1.02046679556787</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1.40551052225352</v>
+        <v>1.39477786925208</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0.959794177464789</v>
+        <v>0.95574816398892</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2882,19 +2909,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2.68478393408451</v>
+        <v>2.66100855235457</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>1.94315399380282</v>
+        <v>1.93717522714681</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1.66298963267606</v>
+        <v>1.65758936398892</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>2.62763130535211</v>
+        <v>2.62056360775623</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>1.59782934816901</v>
+        <v>1.59543794570637</v>
       </c>
     </row>
   </sheetData>
@@ -2916,8 +2943,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A334" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H359" activeCellId="0" sqref="H359"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A338" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H358" activeCellId="0" sqref="H358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12613,6 +12640,174 @@
       </c>
       <c r="I356" s="2"/>
       <c r="J356" s="2"/>
+    </row>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A357" s="2" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D357" s="2" t="n">
+        <v>0.8296352</v>
+      </c>
+      <c r="E357" s="2" t="n">
+        <v>0.992754</v>
+      </c>
+      <c r="F357" s="2" t="n">
+        <v>0.746177</v>
+      </c>
+      <c r="G357" s="2" t="n">
+        <v>1.4789752</v>
+      </c>
+      <c r="H357" s="2" t="n">
+        <v>0.5034448</v>
+      </c>
+      <c r="I357" s="2"/>
+      <c r="J357" s="2"/>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A358" s="2" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D358" s="2" t="n">
+        <v>0.491412</v>
+      </c>
+      <c r="E358" s="2" t="n">
+        <v>0.9986618</v>
+      </c>
+      <c r="F358" s="2" t="n">
+        <v>0.6214802</v>
+      </c>
+      <c r="G358" s="2" t="n">
+        <v>1.7749256</v>
+      </c>
+      <c r="H358" s="2" t="n">
+        <v>0.5310662</v>
+      </c>
+      <c r="I358" s="2"/>
+      <c r="J358" s="2"/>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A359" s="2" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D359" s="2" t="n">
+        <v>0.7487442</v>
+      </c>
+      <c r="E359" s="2" t="n">
+        <v>0.6511594</v>
+      </c>
+      <c r="F359" s="2" t="n">
+        <v>0.581889</v>
+      </c>
+      <c r="G359" s="2" t="n">
+        <v>1.6104856</v>
+      </c>
+      <c r="H359" s="2" t="n">
+        <v>0.7568466</v>
+      </c>
+      <c r="I359" s="2"/>
+      <c r="J359" s="2"/>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="2" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D360" s="2" t="n">
+        <v>0.4385838</v>
+      </c>
+      <c r="E360" s="2" t="n">
+        <v>0.4040462</v>
+      </c>
+      <c r="F360" s="2" t="n">
+        <v>0.3881864</v>
+      </c>
+      <c r="G360" s="2" t="n">
+        <v>1.8563688</v>
+      </c>
+      <c r="H360" s="2" t="n">
+        <v>0.4606374</v>
+      </c>
+      <c r="I360" s="2"/>
+      <c r="J360" s="2"/>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="2" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D361" s="2" t="n">
+        <v>0.452218</v>
+      </c>
+      <c r="E361" s="2" t="n">
+        <v>0.4851798</v>
+      </c>
+      <c r="F361" s="2" t="n">
+        <v>0.4092462</v>
+      </c>
+      <c r="G361" s="2" t="n">
+        <v>1.5060068</v>
+      </c>
+      <c r="H361" s="2" t="n">
+        <v>0.4519288</v>
+      </c>
+      <c r="I361" s="2"/>
+      <c r="J361" s="2"/>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D362" s="2" t="n">
+        <v>0.4406264</v>
+      </c>
+      <c r="E362" s="2" t="n">
+        <v>0.5096558</v>
+      </c>
+      <c r="F362" s="2" t="n">
+        <v>0.5569344</v>
+      </c>
+      <c r="G362" s="2" t="n">
+        <v>1.9599664</v>
+      </c>
+      <c r="H362" s="2" t="n">
+        <v>0.5158456</v>
+      </c>
+      <c r="I362" s="2"/>
+      <c r="J362" s="2"/>
     </row>
     <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -12653,8 +12848,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A331" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E354" activeCellId="0" sqref="E354"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A339" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E363" activeCellId="0" sqref="E363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12705,7 +12900,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>2.0220664</v>
@@ -12731,7 +12926,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>2.4586498</v>
@@ -12887,7 +13082,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>2.1589454</v>
@@ -12913,7 +13108,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>2.0390428</v>
@@ -12965,7 +13160,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>1.9875636</v>
@@ -13043,7 +13238,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>2.1964826</v>
@@ -13277,7 +13472,7 @@
         <v>40</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>2.6861386</v>
@@ -13329,7 +13524,7 @@
         <v>40</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>2.330873</v>
@@ -13355,7 +13550,7 @@
         <v>40</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>2.4523078</v>
@@ -13381,7 +13576,7 @@
         <v>40</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>2.3690538</v>
@@ -13433,7 +13628,7 @@
         <v>47</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>2.3269536</v>
@@ -13667,7 +13862,7 @@
         <v>57</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>2.569399</v>
@@ -13693,7 +13888,7 @@
         <v>57</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>2.2719068</v>
@@ -13745,7 +13940,7 @@
         <v>61</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D42" s="2" t="n">
         <v>2.5803136</v>
@@ -13797,7 +13992,7 @@
         <v>65</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>2.4560934</v>
@@ -13849,7 +14044,7 @@
         <v>65</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>2.7843442</v>
@@ -14135,7 +14330,7 @@
         <v>81</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="D57" s="2" t="n">
         <v>2.9062288</v>
@@ -14421,7 +14616,7 @@
         <v>96</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>5.4740242</v>
@@ -14447,7 +14642,7 @@
         <v>96</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D69" s="2" t="n">
         <v>5.0492016</v>
@@ -14603,7 +14798,7 @@
         <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>2.7314032</v>
@@ -14629,7 +14824,7 @@
         <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>2.7375454</v>
@@ -14941,7 +15136,7 @@
         <v>119</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="D88" s="2" t="n">
         <v>1.9251046</v>
@@ -15071,7 +15266,7 @@
         <v>127</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D93" s="2" t="n">
         <v>2.6339666</v>
@@ -15097,7 +15292,7 @@
         <v>127</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="D94" s="2" t="n">
         <v>2.4568346</v>
@@ -15253,7 +15448,7 @@
         <v>132</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="D100" s="2" t="n">
         <v>2.403287</v>
@@ -15435,7 +15630,7 @@
         <v>140</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D107" s="2" t="n">
         <v>2.208845</v>
@@ -15643,7 +15838,7 @@
         <v>145</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="D115" s="2" t="n">
         <v>2.1219888</v>
@@ -15747,7 +15942,7 @@
         <v>153</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D119" s="2" t="n">
         <v>2.5949094</v>
@@ -15799,7 +15994,7 @@
         <v>153</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="D121" s="2" t="n">
         <v>1.9941926</v>
@@ -15825,7 +16020,7 @@
         <v>157</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="D122" s="2" t="n">
         <v>2.4594108</v>
@@ -16033,7 +16228,7 @@
         <v>165</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="D130" s="2" t="n">
         <v>1.9619838</v>
@@ -16111,7 +16306,7 @@
         <v>170</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D133" s="2" t="n">
         <v>1.8671148</v>
@@ -16483,7 +16678,7 @@
         <v>185</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D147" s="2" t="n">
         <v>3.166509</v>
@@ -16511,7 +16706,7 @@
         <v>185</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="D148" s="2" t="n">
         <v>3.119118</v>
@@ -16539,7 +16734,7 @@
         <v>185</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D149" s="2" t="n">
         <v>2.901321</v>
@@ -17043,7 +17238,7 @@
         <v>208</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D167" s="2" t="n">
         <v>1.8280256</v>
@@ -17155,7 +17350,7 @@
         <v>212</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D171" s="2" t="n">
         <v>3.5371194</v>
@@ -17239,7 +17434,7 @@
         <v>216</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D174" s="2" t="n">
         <v>1.8331202</v>
@@ -17295,7 +17490,7 @@
         <v>216</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D176" s="2" t="n">
         <v>1.8676058</v>
@@ -17323,7 +17518,7 @@
         <v>216</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="D177" s="2" t="n">
         <v>1.8565564</v>
@@ -17351,7 +17546,7 @@
         <v>216</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="D178" s="2" t="n">
         <v>1.971548</v>
@@ -17379,7 +17574,7 @@
         <v>216</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D179" s="2" t="n">
         <v>1.8706844</v>
@@ -17435,7 +17630,7 @@
         <v>227</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D181" s="2" t="n">
         <v>5.40063</v>
@@ -17463,7 +17658,7 @@
         <v>228</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="D182" s="2" t="n">
         <v>5.4141288</v>
@@ -17491,7 +17686,7 @@
         <v>228</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D183" s="2" t="n">
         <v>3.5907054</v>
@@ -17519,7 +17714,7 @@
         <v>228</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="D184" s="2" t="n">
         <v>5.850038</v>
@@ -17659,7 +17854,7 @@
         <v>235</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="D189" s="2" t="n">
         <v>3.4026254</v>
@@ -17687,7 +17882,7 @@
         <v>235</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="D190" s="2" t="n">
         <v>4.1027616</v>
@@ -17771,7 +17966,7 @@
         <v>239</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D193" s="2" t="n">
         <v>3.3968766</v>
@@ -17827,7 +18022,7 @@
         <v>242</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="D195" s="2" t="n">
         <v>3.509683</v>
@@ -17883,7 +18078,7 @@
         <v>246</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D197" s="2" t="n">
         <v>2.5360378</v>
@@ -17911,7 +18106,7 @@
         <v>246</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D198" s="2" t="n">
         <v>3.464471</v>
@@ -17995,7 +18190,7 @@
         <v>249</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="D201" s="2" t="n">
         <v>3.7638234</v>
@@ -18023,7 +18218,7 @@
         <v>249</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="D202" s="2" t="n">
         <v>3.3836568</v>
@@ -18219,7 +18414,7 @@
         <v>263</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D209" s="2" t="n">
         <v>3.5728318</v>
@@ -18409,7 +18604,7 @@
         <v>267</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D216" s="2" t="n">
         <v>4.0429436</v>
@@ -18521,7 +18716,7 @@
         <v>271</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="D220" s="2" t="n">
         <v>0.8299536</v>
@@ -18605,7 +18800,7 @@
         <v>275</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D223" s="2" t="n">
         <v>1.1506692</v>
@@ -18773,7 +18968,7 @@
         <v>282</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D229" s="2" t="n">
         <v>1.5232918</v>
@@ -18801,7 +18996,7 @@
         <v>282</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D230" s="2" t="n">
         <v>0.994806</v>
@@ -18829,7 +19024,7 @@
         <v>285</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="D231" s="2" t="n">
         <v>1.552873</v>
@@ -18857,7 +19052,7 @@
         <v>285</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="D232" s="2" t="n">
         <v>1.2558504</v>
@@ -18885,7 +19080,7 @@
         <v>285</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D233" s="2" t="n">
         <v>1.0213794</v>
@@ -18913,7 +19108,7 @@
         <v>288</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D234" s="2" t="n">
         <v>1.6652852</v>
@@ -18941,7 +19136,7 @@
         <v>288</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D235" s="2" t="n">
         <v>1.243835</v>
@@ -18969,7 +19164,7 @@
         <v>288</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="D236" s="2" t="n">
         <v>1.3231242</v>
@@ -18997,7 +19192,7 @@
         <v>291</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="D237" s="2" t="n">
         <v>2.7850712</v>
@@ -19025,7 +19220,7 @@
         <v>291</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D238" s="2" t="n">
         <v>1.16294</v>
@@ -19137,7 +19332,7 @@
         <v>294</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="D242" s="2" t="n">
         <v>1.1442586</v>
@@ -19221,7 +19416,7 @@
         <v>297</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="D245" s="2" t="n">
         <v>1.0933622</v>
@@ -19249,7 +19444,7 @@
         <v>301</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D246" s="2" t="n">
         <v>1.237047</v>
@@ -19277,7 +19472,7 @@
         <v>301</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D247" s="2" t="n">
         <v>1.0054706</v>
@@ -19333,7 +19528,7 @@
         <v>305</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="D249" s="2" t="n">
         <v>1.1073458</v>
@@ -19389,7 +19584,7 @@
         <v>305</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="D251" s="2" t="n">
         <v>1.222255</v>
@@ -19445,7 +19640,7 @@
         <v>309</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D253" s="2" t="n">
         <v>1.2915912</v>
@@ -19473,7 +19668,7 @@
         <v>309</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D254" s="2" t="n">
         <v>1.4755444</v>
@@ -19557,7 +19752,7 @@
         <v>313</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D257" s="2" t="n">
         <v>1.6525032</v>
@@ -19585,7 +19780,7 @@
         <v>317</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="D258" s="2" t="n">
         <v>1.4030888</v>
@@ -19613,7 +19808,7 @@
         <v>317</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D259" s="2" t="n">
         <v>1.7073458</v>
@@ -19669,7 +19864,7 @@
         <v>319</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D261" s="2" t="n">
         <v>1.2533678</v>
@@ -19697,7 +19892,7 @@
         <v>319</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D262" s="2" t="n">
         <v>1.0722906</v>
@@ -19725,7 +19920,7 @@
         <v>319</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D263" s="2" t="n">
         <v>1.609837</v>
@@ -19781,7 +19976,7 @@
         <v>323</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D265" s="2" t="n">
         <v>0.77692</v>
@@ -19949,7 +20144,7 @@
         <v>329</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D271" s="2" t="n">
         <v>1.0228846</v>
@@ -20061,7 +20256,7 @@
         <v>331</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D275" s="2" t="n">
         <v>1.1446152</v>
@@ -20145,7 +20340,7 @@
         <v>332</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="D278" s="2" t="n">
         <v>1.5527048</v>
@@ -20173,7 +20368,7 @@
         <v>333</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D279" s="2" t="n">
         <v>1.4303816</v>
@@ -20257,7 +20452,7 @@
         <v>336</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="D282" s="2" t="n">
         <v>2.0393262</v>
@@ -20509,7 +20704,7 @@
         <v>347</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="D291" s="2" t="n">
         <v>1.0106018</v>
@@ -20817,7 +21012,7 @@
         <v>353</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="D302" s="2" t="n">
         <v>1.0508514</v>
@@ -21013,7 +21208,7 @@
         <v>363</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D309" s="2" t="n">
         <v>0.9645174</v>
@@ -21153,7 +21348,7 @@
         <v>365</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="D314" s="2" t="n">
         <v>1.0889602</v>
@@ -21181,7 +21376,7 @@
         <v>367</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="D315" s="2" t="n">
         <v>1.0836156</v>
@@ -21207,7 +21402,7 @@
         <v>367</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="D316" s="2" t="n">
         <v>1.1278328</v>
@@ -21233,7 +21428,7 @@
         <v>367</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="D317" s="2" t="n">
         <v>1.0575332</v>
@@ -21259,7 +21454,7 @@
         <v>371</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="D318" s="2" t="n">
         <v>1.1442586</v>
@@ -21285,7 +21480,7 @@
         <v>371</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D319" s="2" t="n">
         <v>2.9026132</v>
@@ -21311,7 +21506,7 @@
         <v>371</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D320" s="2" t="n">
         <v>1.8269942</v>
@@ -21505,7 +21700,7 @@
         <v>378</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="D327" s="2" t="n">
         <v>1.0938576</v>
@@ -21533,7 +21728,7 @@
         <v>378</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="D328" s="2" t="n">
         <v>1.1224288</v>
@@ -21561,7 +21756,7 @@
         <v>378</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D329" s="2" t="n">
         <v>0.9831546</v>
@@ -21645,7 +21840,7 @@
         <v>382</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="D332" s="2" t="n">
         <v>0.9578956</v>
@@ -21785,7 +21980,7 @@
         <v>388</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="D337" s="2" t="n">
         <v>0.8906878</v>
@@ -21813,7 +22008,7 @@
         <v>388</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="D338" s="2" t="n">
         <v>0.9432826</v>
@@ -21841,7 +22036,7 @@
         <v>392</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D339" s="2" t="n">
         <v>0.8824616</v>
@@ -21869,7 +22064,7 @@
         <v>392</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D340" s="2" t="n">
         <v>0.9309194</v>
@@ -21897,7 +22092,7 @@
         <v>392</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="D341" s="2" t="n">
         <v>0.9131502</v>
@@ -21981,7 +22176,7 @@
         <v>393</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D344" s="2" t="n">
         <v>0.8480704</v>
@@ -22037,7 +22232,7 @@
         <v>394</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="D346" s="2" t="n">
         <v>0.8884836</v>
@@ -22149,7 +22344,7 @@
         <v>396</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="D350" s="2" t="n">
         <v>0.867561</v>
@@ -22261,7 +22456,7 @@
         <v>401</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="D354" s="2" t="n">
         <v>0.8549158</v>
@@ -22317,7 +22512,7 @@
         <v>401</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="D356" s="2" t="n">
         <v>0.9937986</v>
@@ -22336,6 +22531,174 @@
       </c>
       <c r="I356" s="2"/>
       <c r="J356" s="2"/>
+    </row>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A357" s="2" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D357" s="2" t="n">
+        <v>1.2915544</v>
+      </c>
+      <c r="E357" s="2" t="n">
+        <v>1.6553674</v>
+      </c>
+      <c r="F357" s="2" t="n">
+        <v>1.1542118</v>
+      </c>
+      <c r="G357" s="2" t="n">
+        <v>1.6488046</v>
+      </c>
+      <c r="H357" s="2" t="n">
+        <v>1.302843</v>
+      </c>
+      <c r="I357" s="2"/>
+      <c r="J357" s="2"/>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A358" s="2" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D358" s="2" t="n">
+        <v>1.1687012</v>
+      </c>
+      <c r="E358" s="2" t="n">
+        <v>1.5172426</v>
+      </c>
+      <c r="F358" s="2" t="n">
+        <v>1.1567002</v>
+      </c>
+      <c r="G358" s="2" t="n">
+        <v>1.8107024</v>
+      </c>
+      <c r="H358" s="2" t="n">
+        <v>1.3341242</v>
+      </c>
+      <c r="I358" s="2"/>
+      <c r="J358" s="2"/>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A359" s="2" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D359" s="2" t="n">
+        <v>1.0685288</v>
+      </c>
+      <c r="E359" s="2" t="n">
+        <v>1.5274722</v>
+      </c>
+      <c r="F359" s="2" t="n">
+        <v>1.226856</v>
+      </c>
+      <c r="G359" s="2" t="n">
+        <v>1.8349886</v>
+      </c>
+      <c r="H359" s="2" t="n">
+        <v>1.4964836</v>
+      </c>
+      <c r="I359" s="2"/>
+      <c r="J359" s="2"/>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="2" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D360" s="2" t="n">
+        <v>0.796018</v>
+      </c>
+      <c r="E360" s="2" t="n">
+        <v>1.6636928</v>
+      </c>
+      <c r="F360" s="2" t="n">
+        <v>0.8818228</v>
+      </c>
+      <c r="G360" s="2" t="n">
+        <v>1.6841862</v>
+      </c>
+      <c r="H360" s="2" t="n">
+        <v>1.186601</v>
+      </c>
+      <c r="I360" s="2"/>
+      <c r="J360" s="2"/>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="2" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D361" s="2" t="n">
+        <v>0.8918954</v>
+      </c>
+      <c r="E361" s="2" t="n">
+        <v>1.1385352</v>
+      </c>
+      <c r="F361" s="2" t="n">
+        <v>1.0038076</v>
+      </c>
+      <c r="G361" s="2" t="n">
+        <v>1.5706536</v>
+      </c>
+      <c r="H361" s="2" t="n">
+        <v>1.2369308</v>
+      </c>
+      <c r="I361" s="2"/>
+      <c r="J361" s="2"/>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D362" s="2" t="n">
+        <v>0.8431968</v>
+      </c>
+      <c r="E362" s="2" t="n">
+        <v>1.4381398</v>
+      </c>
+      <c r="F362" s="2" t="n">
+        <v>0.9661568</v>
+      </c>
+      <c r="G362" s="2" t="n">
+        <v>1.6172568</v>
+      </c>
+      <c r="H362" s="2" t="n">
+        <v>1.183468</v>
+      </c>
+      <c r="I362" s="2"/>
+      <c r="J362" s="2"/>
     </row>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -22374,7 +22737,7 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A333" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A338" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D357" activeCellId="0" sqref="D357"/>
     </sheetView>
   </sheetViews>
@@ -22426,7 +22789,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0.7804054</v>
@@ -22452,7 +22815,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0.7779802</v>
@@ -22478,7 +22841,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0.7043458</v>
@@ -22504,7 +22867,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0.7145706</v>
@@ -22634,7 +22997,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0.7373706</v>
@@ -22686,7 +23049,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0.7234852</v>
@@ -22790,7 +23153,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0.3510038</v>
@@ -22972,7 +23335,7 @@
         <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>0.9795414</v>
@@ -23024,7 +23387,7 @@
         <v>40</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>2.3842444</v>
@@ -23050,7 +23413,7 @@
         <v>40</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>2.139728</v>
@@ -23076,7 +23439,7 @@
         <v>40</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>0.7112716</v>
@@ -23102,7 +23465,7 @@
         <v>40</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>0.67812</v>
@@ -23180,7 +23543,7 @@
         <v>47</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>0.630812</v>
@@ -23310,7 +23673,7 @@
         <v>54</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>0.7043458</v>
@@ -23336,7 +23699,7 @@
         <v>54</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>0.7145706</v>
@@ -23362,7 +23725,7 @@
         <v>57</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>1.2584274</v>
@@ -23388,7 +23751,7 @@
         <v>57</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>1.3856258</v>
@@ -23518,7 +23881,7 @@
         <v>65</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>0.7883284</v>
@@ -23570,7 +23933,7 @@
         <v>65</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>0.6814198</v>
@@ -23700,7 +24063,7 @@
         <v>73</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>1.4049502</v>
@@ -23752,7 +24115,7 @@
         <v>77</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="D53" s="2" t="n">
         <v>0.9897652</v>
@@ -23830,7 +24193,7 @@
         <v>81</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="D56" s="2" t="n">
         <v>1.2353042</v>
@@ -23882,7 +24245,7 @@
         <v>81</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="D58" s="2" t="n">
         <v>1.2364662</v>
@@ -23934,7 +24297,7 @@
         <v>85</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D60" s="2" t="n">
         <v>1.1438926</v>
@@ -24142,7 +24505,7 @@
         <v>96</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>1.6301784</v>
@@ -24194,7 +24557,7 @@
         <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="D70" s="2" t="n">
         <v>1.4442308</v>
@@ -24350,7 +24713,7 @@
         <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>1.1822766</v>
@@ -24428,7 +24791,7 @@
         <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D79" s="2" t="n">
         <v>1.573159</v>
@@ -24766,7 +25129,7 @@
         <v>127</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D92" s="2" t="n">
         <v>1.5482428</v>
@@ -24792,7 +25155,7 @@
         <v>127</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D93" s="2" t="n">
         <v>1.8137892</v>
@@ -24896,7 +25259,7 @@
         <v>128</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="D97" s="2" t="n">
         <v>1.4182292</v>
@@ -25000,7 +25363,7 @@
         <v>135</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D101" s="2" t="n">
         <v>1.2684794</v>
@@ -25156,7 +25519,7 @@
         <v>140</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="D107" s="2" t="n">
         <v>1.295247</v>
@@ -25182,7 +25545,7 @@
         <v>140</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="D108" s="2" t="n">
         <v>1.22489</v>
@@ -25208,7 +25571,7 @@
         <v>140</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D109" s="2" t="n">
         <v>1.1823422</v>
@@ -25234,7 +25597,7 @@
         <v>143</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="D110" s="2" t="n">
         <v>1.1176918</v>
@@ -25338,7 +25701,7 @@
         <v>145</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="D114" s="2" t="n">
         <v>0.5937896</v>
@@ -25520,7 +25883,7 @@
         <v>153</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="D121" s="2" t="n">
         <v>0.5689302</v>
@@ -25650,7 +26013,7 @@
         <v>161</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D126" s="2" t="n">
         <v>0.6197108</v>
@@ -25962,7 +26325,7 @@
         <v>170</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="D138" s="2" t="n">
         <v>0.3957292</v>
@@ -26092,7 +26455,7 @@
         <v>183</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D143" s="2" t="n">
         <v>1.1999426</v>
@@ -26540,7 +26903,7 @@
         <v>197</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="D159" s="2" t="n">
         <v>0.295909</v>
@@ -26764,7 +27127,7 @@
         <v>208</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="D167" s="2" t="n">
         <v>0.4000132</v>
@@ -26904,7 +27267,7 @@
         <v>216</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="D172" s="2" t="n">
         <v>0.3234768</v>
@@ -26988,7 +27351,7 @@
         <v>216</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D175" s="2" t="n">
         <v>0.3166722</v>
@@ -27044,7 +27407,7 @@
         <v>216</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D177" s="2" t="n">
         <v>0.3405566</v>
@@ -27156,7 +27519,7 @@
         <v>227</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D181" s="2" t="n">
         <v>0.358663</v>
@@ -27240,7 +27603,7 @@
         <v>228</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D184" s="2" t="n">
         <v>0.4261214</v>
@@ -27268,7 +27631,7 @@
         <v>231</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="D185" s="2" t="n">
         <v>0.3895084</v>
@@ -27352,7 +27715,7 @@
         <v>235</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="D188" s="2" t="n">
         <v>0.295778</v>
@@ -27380,7 +27743,7 @@
         <v>235</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="D189" s="2" t="n">
         <v>0.3548348</v>
@@ -27408,7 +27771,7 @@
         <v>235</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="D190" s="2" t="n">
         <v>0.313661</v>
@@ -27520,7 +27883,7 @@
         <v>242</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D194" s="2" t="n">
         <v>0.3890278</v>
@@ -27548,7 +27911,7 @@
         <v>242</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D195" s="2" t="n">
         <v>0.374767</v>
@@ -27576,7 +27939,7 @@
         <v>242</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D196" s="2" t="n">
         <v>0.4295846</v>
@@ -27604,7 +27967,7 @@
         <v>246</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="D197" s="2" t="n">
         <v>0.3186188</v>
@@ -27632,7 +27995,7 @@
         <v>246</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D198" s="2" t="n">
         <v>0.389133</v>
@@ -27744,7 +28107,7 @@
         <v>249</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="D202" s="2" t="n">
         <v>0.313982</v>
@@ -28024,7 +28387,7 @@
         <v>263</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="D212" s="2" t="n">
         <v>0.302686</v>
@@ -28080,7 +28443,7 @@
         <v>263</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D214" s="2" t="n">
         <v>0.3648386</v>
@@ -28164,7 +28527,7 @@
         <v>267</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D217" s="2" t="n">
         <v>0.4100988</v>
@@ -28220,7 +28583,7 @@
         <v>271</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="D219" s="2" t="n">
         <v>0.4394846</v>
@@ -28248,7 +28611,7 @@
         <v>271</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="D220" s="2" t="n">
         <v>0.406968</v>
@@ -28388,7 +28751,7 @@
         <v>276</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="D225" s="2" t="n">
         <v>0.9309204</v>
@@ -28472,7 +28835,7 @@
         <v>282</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="D228" s="2" t="n">
         <v>1.3197092</v>
@@ -28556,7 +28919,7 @@
         <v>285</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="D231" s="2" t="n">
         <v>1.4583628</v>
@@ -28584,7 +28947,7 @@
         <v>285</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="D232" s="2" t="n">
         <v>1.2032768</v>
@@ -28612,7 +28975,7 @@
         <v>285</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="D233" s="2" t="n">
         <v>1.93539</v>
@@ -28640,7 +29003,7 @@
         <v>288</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="D234" s="2" t="n">
         <v>1.2197114</v>
@@ -28668,7 +29031,7 @@
         <v>288</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="D235" s="2" t="n">
         <v>0.718877</v>
@@ -28696,7 +29059,7 @@
         <v>288</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="D236" s="2" t="n">
         <v>0.677923</v>
@@ -28724,7 +29087,7 @@
         <v>291</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D237" s="2" t="n">
         <v>0.6190238</v>
@@ -28752,7 +29115,7 @@
         <v>291</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="D238" s="2" t="n">
         <v>0.72822</v>
@@ -28836,7 +29199,7 @@
         <v>294</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="D241" s="2" t="n">
         <v>1.2253808</v>
@@ -28892,7 +29255,7 @@
         <v>297</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="D243" s="2" t="n">
         <v>1.3338492</v>
@@ -28920,7 +29283,7 @@
         <v>297</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="D244" s="2" t="n">
         <v>1.139152</v>
@@ -28948,7 +29311,7 @@
         <v>297</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="D245" s="2" t="n">
         <v>1.3185088</v>
@@ -29144,7 +29507,7 @@
         <v>309</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="D252" s="2" t="n">
         <v>1.5462522</v>
@@ -29172,7 +29535,7 @@
         <v>309</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="D253" s="2" t="n">
         <v>1.1359782</v>
@@ -29200,7 +29563,7 @@
         <v>309</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D254" s="2" t="n">
         <v>1.9068204</v>
@@ -29228,7 +29591,7 @@
         <v>313</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="D255" s="2" t="n">
         <v>0.7759672</v>
@@ -29256,7 +29619,7 @@
         <v>313</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="D256" s="2" t="n">
         <v>0.796901</v>
@@ -29284,7 +29647,7 @@
         <v>313</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D257" s="2" t="n">
         <v>0.886213</v>
@@ -29312,7 +29675,7 @@
         <v>317</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="D258" s="2" t="n">
         <v>1.2621764</v>
@@ -29340,7 +29703,7 @@
         <v>317</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="D259" s="2" t="n">
         <v>1.2655732</v>
@@ -29368,7 +29731,7 @@
         <v>317</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D260" s="2" t="n">
         <v>1.418487</v>
@@ -29424,7 +29787,7 @@
         <v>319</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="D262" s="2" t="n">
         <v>0.7384096</v>
@@ -29564,7 +29927,7 @@
         <v>327</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D267" s="2" t="n">
         <v>0.682399</v>
@@ -29732,7 +30095,7 @@
         <v>331</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="D273" s="2" t="n">
         <v>0.5630494</v>
@@ -29760,7 +30123,7 @@
         <v>331</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="D274" s="2" t="n">
         <v>0.6325376</v>
@@ -29788,7 +30151,7 @@
         <v>331</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="D275" s="2" t="n">
         <v>0.7121288</v>
@@ -29928,7 +30291,7 @@
         <v>333</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="D280" s="2" t="n">
         <v>0.6527698</v>
@@ -29956,7 +30319,7 @@
         <v>333</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="D281" s="2" t="n">
         <v>0.7653444</v>
@@ -29984,7 +30347,7 @@
         <v>336</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="D282" s="2" t="n">
         <v>0.585329</v>
@@ -30040,7 +30403,7 @@
         <v>336</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="D284" s="2" t="n">
         <v>0.8150382</v>
@@ -30068,7 +30431,7 @@
         <v>340</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="D285" s="2" t="n">
         <v>0.971585</v>
@@ -30096,7 +30459,7 @@
         <v>340</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="D286" s="2" t="n">
         <v>0.7461152</v>
@@ -30124,7 +30487,7 @@
         <v>340</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="D287" s="2" t="n">
         <v>0.650945</v>
@@ -30264,7 +30627,7 @@
         <v>347</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="D292" s="2" t="n">
         <v>0.6690088</v>
@@ -30320,7 +30683,7 @@
         <v>350</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="D294" s="2" t="n">
         <v>0.5851698</v>
@@ -30376,7 +30739,7 @@
         <v>350</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="D296" s="2" t="n">
         <v>0.6530738</v>
@@ -30460,7 +30823,7 @@
         <v>351</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D299" s="2" t="n">
         <v>0.755497</v>
@@ -30488,7 +30851,7 @@
         <v>353</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="D300" s="2" t="n">
         <v>0.7284484</v>
@@ -30516,7 +30879,7 @@
         <v>353</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="D301" s="2" t="n">
         <v>0.8258526</v>
@@ -30572,7 +30935,7 @@
         <v>356</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="D303" s="2" t="n">
         <v>0.6179646</v>
@@ -30600,7 +30963,7 @@
         <v>356</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="D304" s="2" t="n">
         <v>0.6414728</v>
@@ -30684,7 +31047,7 @@
         <v>360</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="D307" s="2" t="n">
         <v>0.5738846</v>
@@ -30712,7 +31075,7 @@
         <v>360</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="D308" s="2" t="n">
         <v>0.7374152</v>
@@ -30824,7 +31187,7 @@
         <v>365</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="D312" s="2" t="n">
         <v>0.4729554</v>
@@ -30880,7 +31243,7 @@
         <v>365</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="D314" s="2" t="n">
         <v>0.4964624</v>
@@ -30908,7 +31271,7 @@
         <v>367</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="D315" s="2" t="n">
         <v>0.4964188</v>
@@ -31104,7 +31467,7 @@
         <v>375</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="D322" s="2" t="n">
         <v>0.442656</v>
@@ -31132,7 +31495,7 @@
         <v>375</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="D323" s="2" t="n">
         <v>0.566659</v>
@@ -31216,7 +31579,7 @@
         <v>376</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="D326" s="2" t="n">
         <v>0.5812864</v>
@@ -31328,7 +31691,7 @@
         <v>382</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="D330" s="2" t="n">
         <v>0.6586386</v>
@@ -31412,7 +31775,7 @@
         <v>384</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="D333" s="2" t="n">
         <v>0.5722014</v>
@@ -31440,7 +31803,7 @@
         <v>384</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="D334" s="2" t="n">
         <v>0.4633974</v>
@@ -31468,7 +31831,7 @@
         <v>384</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D335" s="2" t="n">
         <v>0.507814</v>
@@ -31496,7 +31859,7 @@
         <v>388</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="D336" s="2" t="n">
         <v>0.4888858</v>
@@ -31580,7 +31943,7 @@
         <v>392</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="D339" s="2" t="n">
         <v>0.6414728</v>
@@ -31608,7 +31971,7 @@
         <v>392</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="D340" s="2" t="n">
         <v>0.6574688</v>
@@ -31636,7 +31999,7 @@
         <v>392</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="D341" s="2" t="n">
         <v>0.677923</v>
@@ -31804,7 +32167,7 @@
         <v>394</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D347" s="2" t="n">
         <v>0.4808658</v>
@@ -31888,7 +32251,7 @@
         <v>396</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="D350" s="2" t="n">
         <v>0.4571946</v>
@@ -32000,7 +32363,7 @@
         <v>401</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="D354" s="2" t="n">
         <v>0.4574978</v>
@@ -32075,6 +32438,174 @@
       </c>
       <c r="I356" s="2"/>
       <c r="J356" s="2"/>
+    </row>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A357" s="2" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D357" s="2" t="n">
+        <v>0.487551</v>
+      </c>
+      <c r="E357" s="2" t="n">
+        <v>0.892254</v>
+      </c>
+      <c r="F357" s="2" t="n">
+        <v>0.9644022</v>
+      </c>
+      <c r="G357" s="2" t="n">
+        <v>0.986203</v>
+      </c>
+      <c r="H357" s="2" t="n">
+        <v>0.6120668</v>
+      </c>
+      <c r="I357" s="2"/>
+      <c r="J357" s="2"/>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A358" s="2" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D358" s="2" t="n">
+        <v>0.477248</v>
+      </c>
+      <c r="E358" s="2" t="n">
+        <v>1.092021</v>
+      </c>
+      <c r="F358" s="2" t="n">
+        <v>1.1854898</v>
+      </c>
+      <c r="G358" s="2" t="n">
+        <v>0.9021558</v>
+      </c>
+      <c r="H358" s="2" t="n">
+        <v>1.2470296</v>
+      </c>
+      <c r="I358" s="2"/>
+      <c r="J358" s="2"/>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A359" s="2" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D359" s="2" t="n">
+        <v>0.4545748</v>
+      </c>
+      <c r="E359" s="2" t="n">
+        <v>0.5479588</v>
+      </c>
+      <c r="F359" s="2" t="n">
+        <v>0.5852824</v>
+      </c>
+      <c r="G359" s="2" t="n">
+        <v>0.7248814</v>
+      </c>
+      <c r="H359" s="2" t="n">
+        <v>0.719125</v>
+      </c>
+      <c r="I359" s="2"/>
+      <c r="J359" s="2"/>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="2" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D360" s="2" t="n">
+        <v>0.5020976</v>
+      </c>
+      <c r="E360" s="2" t="n">
+        <v>0.504217</v>
+      </c>
+      <c r="F360" s="2" t="n">
+        <v>0.5115236</v>
+      </c>
+      <c r="G360" s="2" t="n">
+        <v>0.6357314</v>
+      </c>
+      <c r="H360" s="2" t="n">
+        <v>0.5686734</v>
+      </c>
+      <c r="I360" s="2"/>
+      <c r="J360" s="2"/>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="2" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D361" s="2" t="n">
+        <v>0.4031846</v>
+      </c>
+      <c r="E361" s="2" t="n">
+        <v>0.5975066</v>
+      </c>
+      <c r="F361" s="2" t="n">
+        <v>0.5525404</v>
+      </c>
+      <c r="G361" s="2" t="n">
+        <v>0.6352282</v>
+      </c>
+      <c r="H361" s="2" t="n">
+        <v>0.6024122</v>
+      </c>
+      <c r="I361" s="2"/>
+      <c r="J361" s="2"/>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D362" s="2" t="n">
+        <v>0.4440552</v>
+      </c>
+      <c r="E362" s="2" t="n">
+        <v>0.5614744</v>
+      </c>
+      <c r="F362" s="2" t="n">
+        <v>0.574753</v>
+      </c>
+      <c r="G362" s="2" t="n">
+        <v>0.6743756</v>
+      </c>
+      <c r="H362" s="2" t="n">
+        <v>0.5488472</v>
+      </c>
+      <c r="I362" s="2"/>
+      <c r="J362" s="2"/>
     </row>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -32112,8 +32643,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A334" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B358" activeCellId="0" sqref="B358"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A339" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C363" activeCellId="0" sqref="C363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32165,7 +32696,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>3.4656902</v>
@@ -32191,7 +32722,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>4.0852622</v>
@@ -32217,7 +32748,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>2.9817282</v>
@@ -32243,7 +32774,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>3.2355116</v>
@@ -32347,7 +32878,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>3.5561424</v>
@@ -32399,7 +32930,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>3.8741284</v>
@@ -32425,7 +32956,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>3.5923944</v>
@@ -32503,7 +33034,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>3.0850886</v>
@@ -32529,7 +33060,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>4.2818632</v>
@@ -32659,7 +33190,7 @@
         <v>36</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>2.9089418</v>
@@ -32789,7 +33320,7 @@
         <v>40</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>3.822524</v>
@@ -32815,7 +33346,7 @@
         <v>40</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>3.2866498</v>
@@ -32841,7 +33372,7 @@
         <v>40</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>3.8178666</v>
@@ -32893,7 +33424,7 @@
         <v>47</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>3.0702744</v>
@@ -32997,7 +33528,7 @@
         <v>51</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>2.9263998</v>
@@ -33049,7 +33580,7 @@
         <v>54</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>3.2355116</v>
@@ -33101,7 +33632,7 @@
         <v>57</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>4.4183598</v>
@@ -33127,7 +33658,7 @@
         <v>57</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>4.2271066</v>
@@ -33257,7 +33788,7 @@
         <v>65</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>3.8775138</v>
@@ -33309,7 +33840,7 @@
         <v>65</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>3.8538836</v>
@@ -33439,7 +33970,7 @@
         <v>73</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>4.7661336</v>
@@ -33465,7 +33996,7 @@
         <v>73</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="D52" s="2" t="n">
         <v>4.1553188</v>
@@ -33491,7 +34022,7 @@
         <v>77</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="D53" s="2" t="n">
         <v>4.4161086</v>
@@ -33517,7 +34048,7 @@
         <v>77</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="D54" s="2" t="n">
         <v>3.9109934</v>
@@ -33569,7 +34100,7 @@
         <v>81</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="D56" s="2" t="n">
         <v>3.4861618</v>
@@ -33621,7 +34152,7 @@
         <v>81</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="D58" s="2" t="n">
         <v>3.52287</v>
@@ -33881,7 +34412,7 @@
         <v>96</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>3.9888114</v>
@@ -33933,7 +34464,7 @@
         <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="D70" s="2" t="n">
         <v>4.983335</v>
@@ -34089,7 +34620,7 @@
         <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>4.5492628</v>
@@ -34531,7 +35062,7 @@
         <v>127</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D93" s="2" t="n">
         <v>4.559301</v>
@@ -34635,7 +35166,7 @@
         <v>128</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="D97" s="2" t="n">
         <v>3.7013772</v>
@@ -34713,7 +35244,7 @@
         <v>132</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="D100" s="2" t="n">
         <v>4.1470936</v>
@@ -34739,7 +35270,7 @@
         <v>135</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D101" s="2" t="n">
         <v>4.5941812</v>
@@ -34791,7 +35322,7 @@
         <v>135</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="D103" s="2" t="n">
         <v>4.2355866</v>
@@ -34895,7 +35426,7 @@
         <v>140</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="D107" s="2" t="n">
         <v>3.9397008</v>
@@ -34921,7 +35452,7 @@
         <v>140</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="D108" s="2" t="n">
         <v>3.8446282</v>
@@ -34947,7 +35478,7 @@
         <v>140</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D109" s="2" t="n">
         <v>3.6811188</v>
@@ -34973,7 +35504,7 @@
         <v>143</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="D110" s="2" t="n">
         <v>4.0021732</v>
@@ -35259,7 +35790,7 @@
         <v>153</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="D121" s="2" t="n">
         <v>3.7466574</v>
@@ -35389,7 +35920,7 @@
         <v>161</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D126" s="2" t="n">
         <v>3.6994948</v>
@@ -35493,7 +36024,7 @@
         <v>165</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="D130" s="2" t="n">
         <v>4.1747286</v>
@@ -35519,7 +36050,7 @@
         <v>168</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="D131" s="2" t="n">
         <v>3.529065</v>
@@ -35831,7 +36362,7 @@
         <v>183</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D143" s="2" t="n">
         <v>3.6613182</v>
@@ -35943,7 +36474,7 @@
         <v>185</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="D147" s="2" t="n">
         <v>4.9899384</v>
@@ -36195,7 +36726,7 @@
         <v>193</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="D156" s="2" t="n">
         <v>3.6757588</v>
@@ -36279,7 +36810,7 @@
         <v>197</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="D159" s="2" t="n">
         <v>3.1456856</v>
@@ -36391,7 +36922,7 @@
         <v>204</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="D163" s="2" t="n">
         <v>3.365378</v>
@@ -36503,7 +37034,7 @@
         <v>208</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="D167" s="2" t="n">
         <v>3.7039678</v>
@@ -36531,7 +37062,7 @@
         <v>208</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="D168" s="2" t="n">
         <v>3.7096014</v>
@@ -36559,7 +37090,7 @@
         <v>212</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="D169" s="2" t="n">
         <v>5.4967574</v>
@@ -36615,7 +37146,7 @@
         <v>212</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D171" s="2" t="n">
         <v>4.669323</v>
@@ -36811,7 +37342,7 @@
         <v>216</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D178" s="2" t="n">
         <v>3.0646552</v>
@@ -36895,7 +37426,7 @@
         <v>227</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D181" s="2" t="n">
         <v>0.9643054</v>
@@ -36951,7 +37482,7 @@
         <v>228</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D183" s="2" t="n">
         <v>0.915316</v>
@@ -36979,7 +37510,7 @@
         <v>228</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="D184" s="2" t="n">
         <v>1.0040066</v>
@@ -37119,7 +37650,7 @@
         <v>235</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="D189" s="2" t="n">
         <v>0.7432314</v>
@@ -37147,7 +37678,7 @@
         <v>235</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="D190" s="2" t="n">
         <v>0.7282506</v>
@@ -37259,7 +37790,7 @@
         <v>242</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D194" s="2" t="n">
         <v>0.769896</v>
@@ -37287,7 +37818,7 @@
         <v>242</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D195" s="2" t="n">
         <v>0.8169218</v>
@@ -37315,7 +37846,7 @@
         <v>242</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="D196" s="2" t="n">
         <v>1.073331</v>
@@ -37343,7 +37874,7 @@
         <v>246</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="D197" s="2" t="n">
         <v>3.6745186</v>
@@ -37371,7 +37902,7 @@
         <v>246</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D198" s="2" t="n">
         <v>3.6868922</v>
@@ -37455,7 +37986,7 @@
         <v>249</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="D201" s="2" t="n">
         <v>3.7509906</v>
@@ -37483,7 +38014,7 @@
         <v>249</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="D202" s="2" t="n">
         <v>3.6990118</v>
@@ -37567,7 +38098,7 @@
         <v>251</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="D205" s="2" t="n">
         <v>3.5056148</v>
@@ -37763,7 +38294,7 @@
         <v>263</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="D212" s="2" t="n">
         <v>0.6447578</v>
@@ -37819,7 +38350,7 @@
         <v>263</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D214" s="2" t="n">
         <v>0.9167192</v>
@@ -37987,7 +38518,7 @@
         <v>271</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="D220" s="2" t="n">
         <v>0.9251752</v>
@@ -38071,7 +38602,7 @@
         <v>275</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D223" s="2" t="n">
         <v>1.3433578</v>
@@ -38155,7 +38686,7 @@
         <v>278</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="D226" s="2" t="n">
         <v>2.6990146</v>
@@ -38183,7 +38714,7 @@
         <v>278</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="D227" s="2" t="n">
         <v>2.7866846</v>
@@ -38239,7 +38770,7 @@
         <v>282</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="D229" s="2" t="n">
         <v>1.9206712</v>
@@ -38295,7 +38826,7 @@
         <v>285</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="D231" s="2" t="n">
         <v>2.5458692</v>
@@ -38407,7 +38938,7 @@
         <v>288</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="D235" s="2" t="n">
         <v>1.8179748</v>
@@ -38435,7 +38966,7 @@
         <v>288</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="D236" s="2" t="n">
         <v>1.8229778</v>
@@ -38491,7 +39022,7 @@
         <v>291</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="D238" s="2" t="n">
         <v>0.9822748</v>
@@ -38519,7 +39050,7 @@
         <v>291</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="D239" s="2" t="n">
         <v>1.2047334</v>
@@ -38603,7 +39134,7 @@
         <v>294</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="D242" s="2" t="n">
         <v>1.595638</v>
@@ -38631,7 +39162,7 @@
         <v>297</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="D243" s="2" t="n">
         <v>1.550705</v>
@@ -38659,7 +39190,7 @@
         <v>297</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D244" s="2" t="n">
         <v>1.733405</v>
@@ -38687,7 +39218,7 @@
         <v>297</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D245" s="2" t="n">
         <v>1.762443</v>
@@ -38743,7 +39274,7 @@
         <v>301</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="D247" s="2" t="n">
         <v>1.9096182</v>
@@ -38771,7 +39302,7 @@
         <v>301</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D248" s="2" t="n">
         <v>1.5183776</v>
@@ -38799,7 +39330,7 @@
         <v>305</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D249" s="2" t="n">
         <v>1.9230312</v>
@@ -38827,7 +39358,7 @@
         <v>305</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D250" s="2" t="n">
         <v>1.9616156</v>
@@ -38883,7 +39414,7 @@
         <v>309</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="D252" s="2" t="n">
         <v>1.6314788</v>
@@ -38911,7 +39442,7 @@
         <v>309</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="D253" s="2" t="n">
         <v>1.4673412</v>
@@ -38939,7 +39470,7 @@
         <v>309</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="D254" s="2" t="n">
         <v>1.6703708</v>
@@ -38967,7 +39498,7 @@
         <v>313</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D255" s="2" t="n">
         <v>1.491883</v>
@@ -38995,7 +39526,7 @@
         <v>313</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="D256" s="2" t="n">
         <v>1.4376204</v>
@@ -39023,7 +39554,7 @@
         <v>313</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="D257" s="2" t="n">
         <v>1.3038182</v>
@@ -39051,7 +39582,7 @@
         <v>317</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="D258" s="2" t="n">
         <v>1.44942</v>
@@ -39079,7 +39610,7 @@
         <v>317</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="D259" s="2" t="n">
         <v>1.7961676</v>
@@ -39107,7 +39638,7 @@
         <v>317</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="D260" s="2" t="n">
         <v>1.76271</v>
@@ -39135,7 +39666,7 @@
         <v>319</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="D261" s="2" t="n">
         <v>1.7891326</v>
@@ -39163,7 +39694,7 @@
         <v>319</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="D262" s="2" t="n">
         <v>1.669088</v>
@@ -39191,7 +39722,7 @@
         <v>319</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="D263" s="2" t="n">
         <v>1.4909798</v>
@@ -39275,7 +39806,7 @@
         <v>323</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="D266" s="2" t="n">
         <v>1.4312818</v>
@@ -39415,7 +39946,7 @@
         <v>329</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="D271" s="2" t="n">
         <v>1.5375802</v>
@@ -39471,7 +40002,7 @@
         <v>331</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D273" s="2" t="n">
         <v>1.3638702</v>
@@ -39499,7 +40030,7 @@
         <v>331</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="D274" s="2" t="n">
         <v>1.263996</v>
@@ -39527,7 +40058,7 @@
         <v>331</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="D275" s="2" t="n">
         <v>1.2279214</v>
@@ -39667,7 +40198,7 @@
         <v>333</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="D280" s="2" t="n">
         <v>1.124852</v>
@@ -39723,7 +40254,7 @@
         <v>336</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="D282" s="2" t="n">
         <v>1.6275754</v>
@@ -39751,7 +40282,7 @@
         <v>336</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="D283" s="2" t="n">
         <v>1.5708768</v>
@@ -39779,7 +40310,7 @@
         <v>336</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="D284" s="2" t="n">
         <v>1.6431544</v>
@@ -39807,7 +40338,7 @@
         <v>340</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>599</v>
+        <v>405</v>
       </c>
       <c r="D285" s="2" t="n">
         <v>1.326389</v>
@@ -39835,7 +40366,7 @@
         <v>340</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="D286" s="2" t="n">
         <v>1.4122034</v>
@@ -39863,7 +40394,7 @@
         <v>340</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>600</v>
+        <v>497</v>
       </c>
       <c r="D287" s="2" t="n">
         <v>1.4755902</v>
@@ -39947,7 +40478,7 @@
         <v>344</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D290" s="2" t="n">
         <v>1.3500846</v>
@@ -39975,7 +40506,7 @@
         <v>347</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="D291" s="2" t="n">
         <v>1.4293406</v>
@@ -40003,7 +40534,7 @@
         <v>347</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="D292" s="2" t="n">
         <v>1.4329594</v>
@@ -40031,7 +40562,7 @@
         <v>347</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="D293" s="2" t="n">
         <v>1.450452</v>
@@ -40087,7 +40618,7 @@
         <v>350</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="D295" s="2" t="n">
         <v>1.3541134</v>
@@ -40115,7 +40646,7 @@
         <v>350</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="D296" s="2" t="n">
         <v>1.6232472</v>
@@ -40283,7 +40814,7 @@
         <v>353</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="D302" s="2" t="n">
         <v>1.4532946</v>
@@ -40339,7 +40870,7 @@
         <v>356</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="D304" s="2" t="n">
         <v>1.7953464</v>
@@ -40395,7 +40926,7 @@
         <v>360</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="D306" s="2" t="n">
         <v>1.389861</v>
@@ -40423,7 +40954,7 @@
         <v>360</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="D307" s="2" t="n">
         <v>1.2307954</v>
@@ -40451,7 +40982,7 @@
         <v>360</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="D308" s="2" t="n">
         <v>1.254881</v>
@@ -40731,7 +41262,7 @@
         <v>371</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="D318" s="2" t="n">
         <v>1.2248766</v>
@@ -40759,7 +41290,7 @@
         <v>371</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="D319" s="2" t="n">
         <v>1.2212258</v>
@@ -40787,7 +41318,7 @@
         <v>371</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="D320" s="2" t="n">
         <v>1.1989604</v>
@@ -40927,7 +41458,7 @@
         <v>376</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="D325" s="2" t="n">
         <v>1.0624674</v>
@@ -40955,7 +41486,7 @@
         <v>376</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D326" s="2" t="n">
         <v>1.0858874</v>
@@ -40983,7 +41514,7 @@
         <v>378</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="D327" s="2" t="n">
         <v>1.3795824</v>
@@ -41011,7 +41542,7 @@
         <v>378</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="D328" s="2" t="n">
         <v>1.2367146</v>
@@ -41039,7 +41570,7 @@
         <v>378</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="D329" s="2" t="n">
         <v>1.2427274</v>
@@ -41095,7 +41626,7 @@
         <v>382</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="D331" s="2" t="n">
         <v>1.5469018</v>
@@ -41151,7 +41682,7 @@
         <v>384</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="D333" s="2" t="n">
         <v>1.1511158</v>
@@ -41179,7 +41710,7 @@
         <v>384</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="D334" s="2" t="n">
         <v>1.7489588</v>
@@ -41207,7 +41738,7 @@
         <v>384</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D335" s="2" t="n">
         <v>1.3266318</v>
@@ -41235,7 +41766,7 @@
         <v>388</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="D336" s="2" t="n">
         <v>1.2621662</v>
@@ -41263,7 +41794,7 @@
         <v>388</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="D337" s="2" t="n">
         <v>1.2015852</v>
@@ -41291,7 +41822,7 @@
         <v>388</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="D338" s="2" t="n">
         <v>1.2845608</v>
@@ -41347,7 +41878,7 @@
         <v>392</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="D340" s="2" t="n">
         <v>1.8179748</v>
@@ -41375,7 +41906,7 @@
         <v>392</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="D341" s="2" t="n">
         <v>1.8229778</v>
@@ -41515,7 +42046,7 @@
         <v>394</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D346" s="2" t="n">
         <v>1.094811</v>
@@ -41543,7 +42074,7 @@
         <v>394</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="D347" s="2" t="n">
         <v>1.433895</v>
@@ -41599,7 +42130,7 @@
         <v>396</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="D349" s="2" t="n">
         <v>1.9025118</v>
@@ -41627,7 +42158,7 @@
         <v>396</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="D350" s="2" t="n">
         <v>1.8527084</v>
@@ -41795,7 +42326,7 @@
         <v>401</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="D356" s="2" t="n">
         <v>1.2738502</v>
@@ -41814,6 +42345,174 @@
       </c>
       <c r="I356" s="2"/>
       <c r="J356" s="2"/>
+    </row>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A357" s="2" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D357" s="2" t="n">
+        <v>1.5006246</v>
+      </c>
+      <c r="E357" s="2" t="n">
+        <v>1.4870642</v>
+      </c>
+      <c r="F357" s="2" t="n">
+        <v>1.5232542</v>
+      </c>
+      <c r="G357" s="2" t="n">
+        <v>2.071796</v>
+      </c>
+      <c r="H357" s="2" t="n">
+        <v>1.4993744</v>
+      </c>
+      <c r="I357" s="2"/>
+      <c r="J357" s="2"/>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A358" s="2" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D358" s="2" t="n">
+        <v>1.6885894</v>
+      </c>
+      <c r="E358" s="2" t="n">
+        <v>1.5923456</v>
+      </c>
+      <c r="F358" s="2" t="n">
+        <v>1.231418</v>
+      </c>
+      <c r="G358" s="2" t="n">
+        <v>2.0804818</v>
+      </c>
+      <c r="H358" s="2" t="n">
+        <v>1.3673504</v>
+      </c>
+      <c r="I358" s="2"/>
+      <c r="J358" s="2"/>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A359" s="2" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="D359" s="2" t="n">
+        <v>1.1057422</v>
+      </c>
+      <c r="E359" s="2" t="n">
+        <v>1.7349136</v>
+      </c>
+      <c r="F359" s="2" t="n">
+        <v>1.8326376</v>
+      </c>
+      <c r="G359" s="2" t="n">
+        <v>2.8170214</v>
+      </c>
+      <c r="H359" s="2" t="n">
+        <v>1.7550628</v>
+      </c>
+      <c r="I359" s="2"/>
+      <c r="J359" s="2"/>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="2" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D360" s="2" t="n">
+        <v>1.1650418</v>
+      </c>
+      <c r="E360" s="2" t="n">
+        <v>1.6112942</v>
+      </c>
+      <c r="F360" s="2" t="n">
+        <v>1.0797694</v>
+      </c>
+      <c r="G360" s="2" t="n">
+        <v>2.1441518</v>
+      </c>
+      <c r="H360" s="2" t="n">
+        <v>1.4206424</v>
+      </c>
+      <c r="I360" s="2"/>
+      <c r="J360" s="2"/>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="2" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D361" s="2" t="n">
+        <v>1.0287834</v>
+      </c>
+      <c r="E361" s="2" t="n">
+        <v>1.5015312</v>
+      </c>
+      <c r="F361" s="2" t="n">
+        <v>1.2023444</v>
+      </c>
+      <c r="G361" s="2" t="n">
+        <v>2.0189708</v>
+      </c>
+      <c r="H361" s="2" t="n">
+        <v>1.4659106</v>
+      </c>
+      <c r="I361" s="2"/>
+      <c r="J361" s="2"/>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="2" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D362" s="2" t="n">
+        <v>1.0370094</v>
+      </c>
+      <c r="E362" s="2" t="n">
+        <v>1.5734404</v>
+      </c>
+      <c r="F362" s="2" t="n">
+        <v>1.1590172</v>
+      </c>
+      <c r="G362" s="2" t="n">
+        <v>2.0819272</v>
+      </c>
+      <c r="H362" s="2" t="n">
+        <v>1.2153392</v>
+      </c>
+      <c r="I362" s="2"/>
+      <c r="J362" s="2"/>
     </row>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Output Data/Crpo/Common_folder/API_Performance_Chart_Report.xlsx
+++ b/Output Data/Crpo/Common_folder/API_Performance_Chart_Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2929" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="621">
   <si>
     <t xml:space="preserve">get_tenant_details</t>
   </si>
@@ -1253,6 +1253,18 @@
     <t xml:space="preserve">2022-04-29</t>
   </si>
   <si>
+    <t xml:space="preserve">2022-05-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:57:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:59:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:01:AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:41:PM</t>
   </si>
   <si>
@@ -1334,9 +1346,6 @@
     <t xml:space="preserve">09:09:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">10:59:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">11:25:AM</t>
   </si>
   <si>
@@ -1613,9 +1622,6 @@
     <t xml:space="preserve">05:45:PM</t>
   </si>
   <si>
-    <t xml:space="preserve">10:57:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">01:09:PM</t>
   </si>
   <si>
@@ -1748,6 +1754,9 @@
     <t xml:space="preserve">03:12:PM</t>
   </si>
   <si>
+    <t xml:space="preserve">11:06:AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:44:PM</t>
   </si>
   <si>
@@ -1779,9 +1788,6 @@
   </si>
   <si>
     <t xml:space="preserve">10:42:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:06:AM</t>
   </si>
   <si>
     <t xml:space="preserve">01:21:PM</t>
@@ -2204,16 +2210,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.834333683102492</c:v>
+                  <c:v>0.83170874120879</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.08450020554016</c:v>
+                  <c:v>2.0747890032967</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.796623384487534</c:v>
+                  <c:v>0.795029175824176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.66100855235457</c:v>
+                  <c:v>2.64863540934066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2292,16 +2298,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.742531327423823</c:v>
+                  <c:v>0.740329817032967</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.21085742382271</c:v>
+                  <c:v>2.20433037692307</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.995872843213297</c:v>
+                  <c:v>0.993480687362638</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.93717522714681</c:v>
+                  <c:v>1.93424770164835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2380,16 +2386,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.75009527036011</c:v>
+                  <c:v>0.747915593956043</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.82577642437673</c:v>
+                  <c:v>1.81877895879121</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.02046679556787</c:v>
+                  <c:v>1.01845433076923</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.65758936398892</c:v>
+                  <c:v>1.65391498461538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2468,16 +2474,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.57954004155125</c:v>
+                  <c:v>1.58165241758242</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.49630372105263</c:v>
+                  <c:v>2.48936687554945</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.39477786925208</c:v>
+                  <c:v>1.39054293021978</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.62056360775623</c:v>
+                  <c:v>2.61738577197802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2556,16 +2562,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.739174371745152</c:v>
+                  <c:v>0.738559249450549</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.80285213407202</c:v>
+                  <c:v>1.79826006263736</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95574816398892</c:v>
+                  <c:v>0.953988256593407</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.59543794570637</c:v>
+                  <c:v>1.59425728351648</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2573,11 +2579,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="-10"/>
-        <c:axId val="84477008"/>
-        <c:axId val="78225679"/>
+        <c:axId val="46848952"/>
+        <c:axId val="66202376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84477008"/>
+        <c:axId val="46848952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2643,7 +2649,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78225679"/>
+        <c:crossAx val="66202376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2651,7 +2657,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78225679"/>
+        <c:axId val="66202376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2717,7 +2723,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84477008"/>
+        <c:crossAx val="46848952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2814,7 +2820,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2849,19 +2855,19 @@
         <v>5</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.834333683102492</v>
+        <v>0.83170874120879</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.742531327423823</v>
+        <v>0.740329817032967</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.75009527036011</v>
+        <v>0.747915593956043</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1.57954004155125</v>
+        <v>1.58165241758242</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0.739174371745152</v>
+        <v>0.738559249450549</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2869,19 +2875,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2.08450020554016</v>
+        <v>2.0747890032967</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2.21085742382271</v>
+        <v>2.20433037692307</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1.82577642437673</v>
+        <v>1.81877895879121</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2.49630372105263</v>
+        <v>2.48936687554945</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>1.80285213407202</v>
+        <v>1.79826006263736</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2889,19 +2895,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.796623384487534</v>
+        <v>0.795029175824176</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.995872843213297</v>
+        <v>0.993480687362638</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1.02046679556787</v>
+        <v>1.01845433076923</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1.39477786925208</v>
+        <v>1.39054293021978</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0.95574816398892</v>
+        <v>0.953988256593407</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2909,19 +2915,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2.66100855235457</v>
+        <v>2.64863540934066</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>1.93717522714681</v>
+        <v>1.93424770164835</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1.65758936398892</v>
+        <v>1.65391498461538</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>2.62056360775623</v>
+        <v>2.61738577197802</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>1.59543794570637</v>
+        <v>1.59425728351648</v>
       </c>
     </row>
   </sheetData>
@@ -2943,8 +2949,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A338" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H358" activeCellId="0" sqref="H358"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A340" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E362" activeCellId="0" sqref="E362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12725,7 +12731,7 @@
       <c r="I359" s="2"/>
       <c r="J359" s="2"/>
     </row>
-    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="2" t="n">
         <v>358</v>
       </c>
@@ -12753,7 +12759,7 @@
       <c r="I360" s="2"/>
       <c r="J360" s="2"/>
     </row>
-    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="2" t="n">
         <v>359</v>
       </c>
@@ -12781,7 +12787,7 @@
       <c r="I361" s="2"/>
       <c r="J361" s="2"/>
     </row>
-    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="2" t="n">
         <v>360</v>
       </c>
@@ -12808,6 +12814,90 @@
       </c>
       <c r="I362" s="2"/>
       <c r="J362" s="2"/>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D363" s="2" t="n">
+        <v>0.4417958</v>
+      </c>
+      <c r="E363" s="2" t="n">
+        <v>0.508114</v>
+      </c>
+      <c r="F363" s="2" t="n">
+        <v>0.3866802</v>
+      </c>
+      <c r="G363" s="2" t="n">
+        <v>1.7645258</v>
+      </c>
+      <c r="H363" s="2" t="n">
+        <v>0.5099618</v>
+      </c>
+      <c r="I363" s="2"/>
+      <c r="J363" s="2"/>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="2" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D364" s="2" t="n">
+        <v>0.5993294</v>
+      </c>
+      <c r="E364" s="2" t="n">
+        <v>0.5038074</v>
+      </c>
+      <c r="F364" s="2" t="n">
+        <v>0.6473142</v>
+      </c>
+      <c r="G364" s="2" t="n">
+        <v>2.012457</v>
+      </c>
+      <c r="H364" s="2" t="n">
+        <v>0.7920638</v>
+      </c>
+      <c r="I364" s="2"/>
+      <c r="J364" s="2"/>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="2" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D365" s="2" t="n">
+        <v>0.506397</v>
+      </c>
+      <c r="E365" s="2" t="n">
+        <v>0.4143228</v>
+      </c>
+      <c r="F365" s="2" t="n">
+        <v>0.4228892</v>
+      </c>
+      <c r="G365" s="2" t="n">
+        <v>1.7305422</v>
+      </c>
+      <c r="H365" s="2" t="n">
+        <v>0.691593</v>
+      </c>
+      <c r="I365" s="2"/>
+      <c r="J365" s="2"/>
     </row>
     <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -12848,8 +12938,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A339" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E363" activeCellId="0" sqref="E363"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A341" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E364" activeCellId="0" sqref="E364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12900,7 +12990,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>2.0220664</v>
@@ -12926,7 +13016,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>2.4586498</v>
@@ -13082,7 +13172,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>2.1589454</v>
@@ -13108,7 +13198,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>2.0390428</v>
@@ -13160,7 +13250,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>1.9875636</v>
@@ -13238,7 +13328,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>2.1964826</v>
@@ -13472,7 +13562,7 @@
         <v>40</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>2.6861386</v>
@@ -13524,7 +13614,7 @@
         <v>40</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>2.330873</v>
@@ -13550,7 +13640,7 @@
         <v>40</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>2.4523078</v>
@@ -13576,7 +13666,7 @@
         <v>40</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>2.3690538</v>
@@ -13628,7 +13718,7 @@
         <v>47</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>2.3269536</v>
@@ -13862,7 +13952,7 @@
         <v>57</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>2.569399</v>
@@ -13888,7 +13978,7 @@
         <v>57</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>2.2719068</v>
@@ -13940,7 +14030,7 @@
         <v>61</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D42" s="2" t="n">
         <v>2.5803136</v>
@@ -13992,7 +14082,7 @@
         <v>65</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>2.4560934</v>
@@ -14044,7 +14134,7 @@
         <v>65</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>2.7843442</v>
@@ -14330,7 +14420,7 @@
         <v>81</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D57" s="2" t="n">
         <v>2.9062288</v>
@@ -14616,7 +14706,7 @@
         <v>96</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>5.4740242</v>
@@ -14642,7 +14732,7 @@
         <v>96</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D69" s="2" t="n">
         <v>5.0492016</v>
@@ -14798,7 +14888,7 @@
         <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>2.7314032</v>
@@ -14824,7 +14914,7 @@
         <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>2.7375454</v>
@@ -15136,7 +15226,7 @@
         <v>119</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D88" s="2" t="n">
         <v>1.9251046</v>
@@ -15266,7 +15356,7 @@
         <v>127</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D93" s="2" t="n">
         <v>2.6339666</v>
@@ -15292,7 +15382,7 @@
         <v>127</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D94" s="2" t="n">
         <v>2.4568346</v>
@@ -15448,7 +15538,7 @@
         <v>132</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D100" s="2" t="n">
         <v>2.403287</v>
@@ -15630,7 +15720,7 @@
         <v>140</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D107" s="2" t="n">
         <v>2.208845</v>
@@ -15838,7 +15928,7 @@
         <v>145</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D115" s="2" t="n">
         <v>2.1219888</v>
@@ -15942,7 +16032,7 @@
         <v>153</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D119" s="2" t="n">
         <v>2.5949094</v>
@@ -15994,7 +16084,7 @@
         <v>153</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D121" s="2" t="n">
         <v>1.9941926</v>
@@ -16020,7 +16110,7 @@
         <v>157</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D122" s="2" t="n">
         <v>2.4594108</v>
@@ -16228,7 +16318,7 @@
         <v>165</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D130" s="2" t="n">
         <v>1.9619838</v>
@@ -16306,7 +16396,7 @@
         <v>170</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D133" s="2" t="n">
         <v>1.8671148</v>
@@ -16678,7 +16768,7 @@
         <v>185</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="D147" s="2" t="n">
         <v>3.166509</v>
@@ -16706,7 +16796,7 @@
         <v>185</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D148" s="2" t="n">
         <v>3.119118</v>
@@ -16734,7 +16824,7 @@
         <v>185</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D149" s="2" t="n">
         <v>2.901321</v>
@@ -17238,7 +17328,7 @@
         <v>208</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D167" s="2" t="n">
         <v>1.8280256</v>
@@ -17350,7 +17440,7 @@
         <v>212</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D171" s="2" t="n">
         <v>3.5371194</v>
@@ -17434,7 +17524,7 @@
         <v>216</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D174" s="2" t="n">
         <v>1.8331202</v>
@@ -17490,7 +17580,7 @@
         <v>216</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D176" s="2" t="n">
         <v>1.8676058</v>
@@ -17518,7 +17608,7 @@
         <v>216</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D177" s="2" t="n">
         <v>1.8565564</v>
@@ -17546,7 +17636,7 @@
         <v>216</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D178" s="2" t="n">
         <v>1.971548</v>
@@ -17574,7 +17664,7 @@
         <v>216</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D179" s="2" t="n">
         <v>1.8706844</v>
@@ -17630,7 +17720,7 @@
         <v>227</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D181" s="2" t="n">
         <v>5.40063</v>
@@ -17658,7 +17748,7 @@
         <v>228</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D182" s="2" t="n">
         <v>5.4141288</v>
@@ -17686,7 +17776,7 @@
         <v>228</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D183" s="2" t="n">
         <v>3.5907054</v>
@@ -17714,7 +17804,7 @@
         <v>228</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D184" s="2" t="n">
         <v>5.850038</v>
@@ -17854,7 +17944,7 @@
         <v>235</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D189" s="2" t="n">
         <v>3.4026254</v>
@@ -17882,7 +17972,7 @@
         <v>235</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D190" s="2" t="n">
         <v>4.1027616</v>
@@ -17966,7 +18056,7 @@
         <v>239</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D193" s="2" t="n">
         <v>3.3968766</v>
@@ -18022,7 +18112,7 @@
         <v>242</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D195" s="2" t="n">
         <v>3.509683</v>
@@ -18078,7 +18168,7 @@
         <v>246</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D197" s="2" t="n">
         <v>2.5360378</v>
@@ -18106,7 +18196,7 @@
         <v>246</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D198" s="2" t="n">
         <v>3.464471</v>
@@ -18190,7 +18280,7 @@
         <v>249</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D201" s="2" t="n">
         <v>3.7638234</v>
@@ -18218,7 +18308,7 @@
         <v>249</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D202" s="2" t="n">
         <v>3.3836568</v>
@@ -18414,7 +18504,7 @@
         <v>263</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D209" s="2" t="n">
         <v>3.5728318</v>
@@ -18604,7 +18694,7 @@
         <v>267</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D216" s="2" t="n">
         <v>4.0429436</v>
@@ -18716,7 +18806,7 @@
         <v>271</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D220" s="2" t="n">
         <v>0.8299536</v>
@@ -18800,7 +18890,7 @@
         <v>275</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D223" s="2" t="n">
         <v>1.1506692</v>
@@ -18968,7 +19058,7 @@
         <v>282</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D229" s="2" t="n">
         <v>1.5232918</v>
@@ -18996,7 +19086,7 @@
         <v>282</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D230" s="2" t="n">
         <v>0.994806</v>
@@ -19024,7 +19114,7 @@
         <v>285</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D231" s="2" t="n">
         <v>1.552873</v>
@@ -19052,7 +19142,7 @@
         <v>285</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D232" s="2" t="n">
         <v>1.2558504</v>
@@ -19080,7 +19170,7 @@
         <v>285</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D233" s="2" t="n">
         <v>1.0213794</v>
@@ -19108,7 +19198,7 @@
         <v>288</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D234" s="2" t="n">
         <v>1.6652852</v>
@@ -19136,7 +19226,7 @@
         <v>288</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D235" s="2" t="n">
         <v>1.243835</v>
@@ -19164,7 +19254,7 @@
         <v>288</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D236" s="2" t="n">
         <v>1.3231242</v>
@@ -19192,7 +19282,7 @@
         <v>291</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D237" s="2" t="n">
         <v>2.7850712</v>
@@ -19220,7 +19310,7 @@
         <v>291</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D238" s="2" t="n">
         <v>1.16294</v>
@@ -19332,7 +19422,7 @@
         <v>294</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D242" s="2" t="n">
         <v>1.1442586</v>
@@ -19416,7 +19506,7 @@
         <v>297</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D245" s="2" t="n">
         <v>1.0933622</v>
@@ -19444,7 +19534,7 @@
         <v>301</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D246" s="2" t="n">
         <v>1.237047</v>
@@ -19472,7 +19562,7 @@
         <v>301</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D247" s="2" t="n">
         <v>1.0054706</v>
@@ -19528,7 +19618,7 @@
         <v>305</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D249" s="2" t="n">
         <v>1.1073458</v>
@@ -19584,7 +19674,7 @@
         <v>305</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D251" s="2" t="n">
         <v>1.222255</v>
@@ -19640,7 +19730,7 @@
         <v>309</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D253" s="2" t="n">
         <v>1.2915912</v>
@@ -19668,7 +19758,7 @@
         <v>309</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D254" s="2" t="n">
         <v>1.4755444</v>
@@ -19752,7 +19842,7 @@
         <v>313</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D257" s="2" t="n">
         <v>1.6525032</v>
@@ -19780,7 +19870,7 @@
         <v>317</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D258" s="2" t="n">
         <v>1.4030888</v>
@@ -19808,7 +19898,7 @@
         <v>317</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D259" s="2" t="n">
         <v>1.7073458</v>
@@ -19864,7 +19954,7 @@
         <v>319</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D261" s="2" t="n">
         <v>1.2533678</v>
@@ -19892,7 +19982,7 @@
         <v>319</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D262" s="2" t="n">
         <v>1.0722906</v>
@@ -19920,7 +20010,7 @@
         <v>319</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D263" s="2" t="n">
         <v>1.609837</v>
@@ -19976,7 +20066,7 @@
         <v>323</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D265" s="2" t="n">
         <v>0.77692</v>
@@ -20144,7 +20234,7 @@
         <v>329</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D271" s="2" t="n">
         <v>1.0228846</v>
@@ -20256,7 +20346,7 @@
         <v>331</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D275" s="2" t="n">
         <v>1.1446152</v>
@@ -20340,7 +20430,7 @@
         <v>332</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D278" s="2" t="n">
         <v>1.5527048</v>
@@ -20368,7 +20458,7 @@
         <v>333</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D279" s="2" t="n">
         <v>1.4303816</v>
@@ -20452,7 +20542,7 @@
         <v>336</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D282" s="2" t="n">
         <v>2.0393262</v>
@@ -20704,7 +20794,7 @@
         <v>347</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D291" s="2" t="n">
         <v>1.0106018</v>
@@ -21012,7 +21102,7 @@
         <v>353</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D302" s="2" t="n">
         <v>1.0508514</v>
@@ -21208,7 +21298,7 @@
         <v>363</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D309" s="2" t="n">
         <v>0.9645174</v>
@@ -21348,7 +21438,7 @@
         <v>365</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D314" s="2" t="n">
         <v>1.0889602</v>
@@ -21376,7 +21466,7 @@
         <v>367</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D315" s="2" t="n">
         <v>1.0836156</v>
@@ -21402,7 +21492,7 @@
         <v>367</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D316" s="2" t="n">
         <v>1.1278328</v>
@@ -21428,7 +21518,7 @@
         <v>367</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D317" s="2" t="n">
         <v>1.0575332</v>
@@ -21454,7 +21544,7 @@
         <v>371</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D318" s="2" t="n">
         <v>1.1442586</v>
@@ -21480,7 +21570,7 @@
         <v>371</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D319" s="2" t="n">
         <v>2.9026132</v>
@@ -21506,7 +21596,7 @@
         <v>371</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D320" s="2" t="n">
         <v>1.8269942</v>
@@ -21700,7 +21790,7 @@
         <v>378</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D327" s="2" t="n">
         <v>1.0938576</v>
@@ -21728,7 +21818,7 @@
         <v>378</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D328" s="2" t="n">
         <v>1.1224288</v>
@@ -21756,7 +21846,7 @@
         <v>378</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D329" s="2" t="n">
         <v>0.9831546</v>
@@ -21840,7 +21930,7 @@
         <v>382</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D332" s="2" t="n">
         <v>0.9578956</v>
@@ -21980,7 +22070,7 @@
         <v>388</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D337" s="2" t="n">
         <v>0.8906878</v>
@@ -22008,7 +22098,7 @@
         <v>388</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D338" s="2" t="n">
         <v>0.9432826</v>
@@ -22036,7 +22126,7 @@
         <v>392</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D339" s="2" t="n">
         <v>0.8824616</v>
@@ -22064,7 +22154,7 @@
         <v>392</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D340" s="2" t="n">
         <v>0.9309194</v>
@@ -22092,7 +22182,7 @@
         <v>392</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D341" s="2" t="n">
         <v>0.9131502</v>
@@ -22176,7 +22266,7 @@
         <v>393</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D344" s="2" t="n">
         <v>0.8480704</v>
@@ -22232,7 +22322,7 @@
         <v>394</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D346" s="2" t="n">
         <v>0.8884836</v>
@@ -22344,7 +22434,7 @@
         <v>396</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D350" s="2" t="n">
         <v>0.867561</v>
@@ -22456,7 +22546,7 @@
         <v>401</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D354" s="2" t="n">
         <v>0.8549158</v>
@@ -22512,7 +22602,7 @@
         <v>401</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D356" s="2" t="n">
         <v>0.9937986</v>
@@ -22568,7 +22658,7 @@
         <v>404</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D358" s="2" t="n">
         <v>1.1687012</v>
@@ -22616,7 +22706,7 @@
       <c r="I359" s="2"/>
       <c r="J359" s="2"/>
     </row>
-    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="2" t="n">
         <v>358</v>
       </c>
@@ -22644,7 +22734,7 @@
       <c r="I360" s="2"/>
       <c r="J360" s="2"/>
     </row>
-    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="2" t="n">
         <v>359</v>
       </c>
@@ -22672,7 +22762,7 @@
       <c r="I361" s="2"/>
       <c r="J361" s="2"/>
     </row>
-    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="2" t="n">
         <v>360</v>
       </c>
@@ -22699,6 +22789,90 @@
       </c>
       <c r="I362" s="2"/>
       <c r="J362" s="2"/>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D363" s="2" t="n">
+        <v>0.8727218</v>
+      </c>
+      <c r="E363" s="2" t="n">
+        <v>1.6835556</v>
+      </c>
+      <c r="F363" s="2" t="n">
+        <v>1.030967</v>
+      </c>
+      <c r="G363" s="2" t="n">
+        <v>1.712541</v>
+      </c>
+      <c r="H363" s="2" t="n">
+        <v>1.2722202</v>
+      </c>
+      <c r="I363" s="2"/>
+      <c r="J363" s="2"/>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="2" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D364" s="2" t="n">
+        <v>0.9332144</v>
+      </c>
+      <c r="E364" s="2" t="n">
+        <v>1.2540606</v>
+      </c>
+      <c r="F364" s="2" t="n">
+        <v>0.9355352</v>
+      </c>
+      <c r="G364" s="2" t="n">
+        <v>1.5424928</v>
+      </c>
+      <c r="H364" s="2" t="n">
+        <v>1.2246438</v>
+      </c>
+      <c r="I364" s="2"/>
+      <c r="J364" s="2"/>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="2" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D365" s="2" t="n">
+        <v>0.9126868</v>
+      </c>
+      <c r="E365" s="2" t="n">
+        <v>1.319111</v>
+      </c>
+      <c r="F365" s="2" t="n">
+        <v>0.9637496</v>
+      </c>
+      <c r="G365" s="2" t="n">
+        <v>1.7088656</v>
+      </c>
+      <c r="H365" s="2" t="n">
+        <v>1.2401784</v>
+      </c>
+      <c r="I365" s="2"/>
+      <c r="J365" s="2"/>
     </row>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -22737,7 +22911,7 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A338" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A342" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D357" activeCellId="0" sqref="D357"/>
     </sheetView>
   </sheetViews>
@@ -22789,7 +22963,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0.7804054</v>
@@ -22815,7 +22989,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0.7779802</v>
@@ -22841,7 +23015,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0.7043458</v>
@@ -22867,7 +23041,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0.7145706</v>
@@ -22997,7 +23171,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0.7373706</v>
@@ -23049,7 +23223,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0.7234852</v>
@@ -23153,7 +23327,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0.3510038</v>
@@ -23335,7 +23509,7 @@
         <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>0.9795414</v>
@@ -23387,7 +23561,7 @@
         <v>40</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>2.3842444</v>
@@ -23413,7 +23587,7 @@
         <v>40</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>2.139728</v>
@@ -23439,7 +23613,7 @@
         <v>40</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>0.7112716</v>
@@ -23465,7 +23639,7 @@
         <v>40</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>0.67812</v>
@@ -23543,7 +23717,7 @@
         <v>47</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>0.630812</v>
@@ -23673,7 +23847,7 @@
         <v>54</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>0.7043458</v>
@@ -23699,7 +23873,7 @@
         <v>54</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>0.7145706</v>
@@ -23725,7 +23899,7 @@
         <v>57</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>1.2584274</v>
@@ -23751,7 +23925,7 @@
         <v>57</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>1.3856258</v>
@@ -23881,7 +24055,7 @@
         <v>65</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>0.7883284</v>
@@ -23933,7 +24107,7 @@
         <v>65</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>0.6814198</v>
@@ -24063,7 +24237,7 @@
         <v>73</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>1.4049502</v>
@@ -24115,7 +24289,7 @@
         <v>77</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D53" s="2" t="n">
         <v>0.9897652</v>
@@ -24193,7 +24367,7 @@
         <v>81</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D56" s="2" t="n">
         <v>1.2353042</v>
@@ -24245,7 +24419,7 @@
         <v>81</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D58" s="2" t="n">
         <v>1.2364662</v>
@@ -24297,7 +24471,7 @@
         <v>85</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D60" s="2" t="n">
         <v>1.1438926</v>
@@ -24505,7 +24679,7 @@
         <v>96</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>1.6301784</v>
@@ -24557,7 +24731,7 @@
         <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D70" s="2" t="n">
         <v>1.4442308</v>
@@ -24713,7 +24887,7 @@
         <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>1.1822766</v>
@@ -24791,7 +24965,7 @@
         <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D79" s="2" t="n">
         <v>1.573159</v>
@@ -25129,7 +25303,7 @@
         <v>127</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D92" s="2" t="n">
         <v>1.5482428</v>
@@ -25155,7 +25329,7 @@
         <v>127</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D93" s="2" t="n">
         <v>1.8137892</v>
@@ -25259,7 +25433,7 @@
         <v>128</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D97" s="2" t="n">
         <v>1.4182292</v>
@@ -25363,7 +25537,7 @@
         <v>135</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D101" s="2" t="n">
         <v>1.2684794</v>
@@ -25519,7 +25693,7 @@
         <v>140</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D107" s="2" t="n">
         <v>1.295247</v>
@@ -25545,7 +25719,7 @@
         <v>140</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D108" s="2" t="n">
         <v>1.22489</v>
@@ -25571,7 +25745,7 @@
         <v>140</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D109" s="2" t="n">
         <v>1.1823422</v>
@@ -25597,7 +25771,7 @@
         <v>143</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D110" s="2" t="n">
         <v>1.1176918</v>
@@ -25701,7 +25875,7 @@
         <v>145</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D114" s="2" t="n">
         <v>0.5937896</v>
@@ -25883,7 +26057,7 @@
         <v>153</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D121" s="2" t="n">
         <v>0.5689302</v>
@@ -26013,7 +26187,7 @@
         <v>161</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D126" s="2" t="n">
         <v>0.6197108</v>
@@ -26325,7 +26499,7 @@
         <v>170</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D138" s="2" t="n">
         <v>0.3957292</v>
@@ -26455,7 +26629,7 @@
         <v>183</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D143" s="2" t="n">
         <v>1.1999426</v>
@@ -26903,7 +27077,7 @@
         <v>197</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D159" s="2" t="n">
         <v>0.295909</v>
@@ -27127,7 +27301,7 @@
         <v>208</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D167" s="2" t="n">
         <v>0.4000132</v>
@@ -27267,7 +27441,7 @@
         <v>216</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D172" s="2" t="n">
         <v>0.3234768</v>
@@ -27351,7 +27525,7 @@
         <v>216</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D175" s="2" t="n">
         <v>0.3166722</v>
@@ -27407,7 +27581,7 @@
         <v>216</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D177" s="2" t="n">
         <v>0.3405566</v>
@@ -27519,7 +27693,7 @@
         <v>227</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D181" s="2" t="n">
         <v>0.358663</v>
@@ -27603,7 +27777,7 @@
         <v>228</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D184" s="2" t="n">
         <v>0.4261214</v>
@@ -27631,7 +27805,7 @@
         <v>231</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D185" s="2" t="n">
         <v>0.3895084</v>
@@ -27715,7 +27889,7 @@
         <v>235</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="D188" s="2" t="n">
         <v>0.295778</v>
@@ -27743,7 +27917,7 @@
         <v>235</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D189" s="2" t="n">
         <v>0.3548348</v>
@@ -27771,7 +27945,7 @@
         <v>235</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D190" s="2" t="n">
         <v>0.313661</v>
@@ -27883,7 +28057,7 @@
         <v>242</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>529</v>
+        <v>410</v>
       </c>
       <c r="D194" s="2" t="n">
         <v>0.3890278</v>
@@ -27911,7 +28085,7 @@
         <v>242</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D195" s="2" t="n">
         <v>0.374767</v>
@@ -27939,7 +28113,7 @@
         <v>242</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="D196" s="2" t="n">
         <v>0.4295846</v>
@@ -27967,7 +28141,7 @@
         <v>246</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D197" s="2" t="n">
         <v>0.3186188</v>
@@ -27995,7 +28169,7 @@
         <v>246</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D198" s="2" t="n">
         <v>0.389133</v>
@@ -28107,7 +28281,7 @@
         <v>249</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D202" s="2" t="n">
         <v>0.313982</v>
@@ -28387,7 +28561,7 @@
         <v>263</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D212" s="2" t="n">
         <v>0.302686</v>
@@ -28443,7 +28617,7 @@
         <v>263</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D214" s="2" t="n">
         <v>0.3648386</v>
@@ -28527,7 +28701,7 @@
         <v>267</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D217" s="2" t="n">
         <v>0.4100988</v>
@@ -28583,7 +28757,7 @@
         <v>271</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D219" s="2" t="n">
         <v>0.4394846</v>
@@ -28611,7 +28785,7 @@
         <v>271</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D220" s="2" t="n">
         <v>0.406968</v>
@@ -28751,7 +28925,7 @@
         <v>276</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D225" s="2" t="n">
         <v>0.9309204</v>
@@ -28835,7 +29009,7 @@
         <v>282</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D228" s="2" t="n">
         <v>1.3197092</v>
@@ -28919,7 +29093,7 @@
         <v>285</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D231" s="2" t="n">
         <v>1.4583628</v>
@@ -28947,7 +29121,7 @@
         <v>285</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D232" s="2" t="n">
         <v>1.2032768</v>
@@ -28975,7 +29149,7 @@
         <v>285</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D233" s="2" t="n">
         <v>1.93539</v>
@@ -29003,7 +29177,7 @@
         <v>288</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D234" s="2" t="n">
         <v>1.2197114</v>
@@ -29031,7 +29205,7 @@
         <v>288</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D235" s="2" t="n">
         <v>0.718877</v>
@@ -29059,7 +29233,7 @@
         <v>288</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D236" s="2" t="n">
         <v>0.677923</v>
@@ -29087,7 +29261,7 @@
         <v>291</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D237" s="2" t="n">
         <v>0.6190238</v>
@@ -29115,7 +29289,7 @@
         <v>291</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D238" s="2" t="n">
         <v>0.72822</v>
@@ -29199,7 +29373,7 @@
         <v>294</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D241" s="2" t="n">
         <v>1.2253808</v>
@@ -29255,7 +29429,7 @@
         <v>297</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D243" s="2" t="n">
         <v>1.3338492</v>
@@ -29283,7 +29457,7 @@
         <v>297</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D244" s="2" t="n">
         <v>1.139152</v>
@@ -29311,7 +29485,7 @@
         <v>297</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D245" s="2" t="n">
         <v>1.3185088</v>
@@ -29507,7 +29681,7 @@
         <v>309</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D252" s="2" t="n">
         <v>1.5462522</v>
@@ -29535,7 +29709,7 @@
         <v>309</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D253" s="2" t="n">
         <v>1.1359782</v>
@@ -29563,7 +29737,7 @@
         <v>309</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D254" s="2" t="n">
         <v>1.9068204</v>
@@ -29591,7 +29765,7 @@
         <v>313</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D255" s="2" t="n">
         <v>0.7759672</v>
@@ -29619,7 +29793,7 @@
         <v>313</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D256" s="2" t="n">
         <v>0.796901</v>
@@ -29647,7 +29821,7 @@
         <v>313</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D257" s="2" t="n">
         <v>0.886213</v>
@@ -29675,7 +29849,7 @@
         <v>317</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D258" s="2" t="n">
         <v>1.2621764</v>
@@ -29703,7 +29877,7 @@
         <v>317</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D259" s="2" t="n">
         <v>1.2655732</v>
@@ -29731,7 +29905,7 @@
         <v>317</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D260" s="2" t="n">
         <v>1.418487</v>
@@ -29787,7 +29961,7 @@
         <v>319</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D262" s="2" t="n">
         <v>0.7384096</v>
@@ -29927,7 +30101,7 @@
         <v>327</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D267" s="2" t="n">
         <v>0.682399</v>
@@ -30095,7 +30269,7 @@
         <v>331</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D273" s="2" t="n">
         <v>0.5630494</v>
@@ -30123,7 +30297,7 @@
         <v>331</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D274" s="2" t="n">
         <v>0.6325376</v>
@@ -30151,7 +30325,7 @@
         <v>331</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D275" s="2" t="n">
         <v>0.7121288</v>
@@ -30291,7 +30465,7 @@
         <v>333</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D280" s="2" t="n">
         <v>0.6527698</v>
@@ -30319,7 +30493,7 @@
         <v>333</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D281" s="2" t="n">
         <v>0.7653444</v>
@@ -30347,7 +30521,7 @@
         <v>336</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D282" s="2" t="n">
         <v>0.585329</v>
@@ -30403,7 +30577,7 @@
         <v>336</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D284" s="2" t="n">
         <v>0.8150382</v>
@@ -30431,7 +30605,7 @@
         <v>340</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D285" s="2" t="n">
         <v>0.971585</v>
@@ -30459,7 +30633,7 @@
         <v>340</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D286" s="2" t="n">
         <v>0.7461152</v>
@@ -30487,7 +30661,7 @@
         <v>340</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D287" s="2" t="n">
         <v>0.650945</v>
@@ -30627,7 +30801,7 @@
         <v>347</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D292" s="2" t="n">
         <v>0.6690088</v>
@@ -30683,7 +30857,7 @@
         <v>350</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D294" s="2" t="n">
         <v>0.5851698</v>
@@ -30739,7 +30913,7 @@
         <v>350</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D296" s="2" t="n">
         <v>0.6530738</v>
@@ -30823,7 +30997,7 @@
         <v>351</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D299" s="2" t="n">
         <v>0.755497</v>
@@ -30851,7 +31025,7 @@
         <v>353</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D300" s="2" t="n">
         <v>0.7284484</v>
@@ -30879,7 +31053,7 @@
         <v>353</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D301" s="2" t="n">
         <v>0.8258526</v>
@@ -30935,7 +31109,7 @@
         <v>356</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D303" s="2" t="n">
         <v>0.6179646</v>
@@ -30963,7 +31137,7 @@
         <v>356</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D304" s="2" t="n">
         <v>0.6414728</v>
@@ -31047,7 +31221,7 @@
         <v>360</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D307" s="2" t="n">
         <v>0.5738846</v>
@@ -31075,7 +31249,7 @@
         <v>360</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D308" s="2" t="n">
         <v>0.7374152</v>
@@ -31187,7 +31361,7 @@
         <v>365</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D312" s="2" t="n">
         <v>0.4729554</v>
@@ -31243,7 +31417,7 @@
         <v>365</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D314" s="2" t="n">
         <v>0.4964624</v>
@@ -31271,7 +31445,7 @@
         <v>367</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D315" s="2" t="n">
         <v>0.4964188</v>
@@ -31467,7 +31641,7 @@
         <v>375</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D322" s="2" t="n">
         <v>0.442656</v>
@@ -31495,7 +31669,7 @@
         <v>375</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D323" s="2" t="n">
         <v>0.566659</v>
@@ -31579,7 +31753,7 @@
         <v>376</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D326" s="2" t="n">
         <v>0.5812864</v>
@@ -31691,7 +31865,7 @@
         <v>382</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D330" s="2" t="n">
         <v>0.6586386</v>
@@ -31775,7 +31949,7 @@
         <v>384</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D333" s="2" t="n">
         <v>0.5722014</v>
@@ -31803,7 +31977,7 @@
         <v>384</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D334" s="2" t="n">
         <v>0.4633974</v>
@@ -31831,7 +32005,7 @@
         <v>384</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D335" s="2" t="n">
         <v>0.507814</v>
@@ -31859,7 +32033,7 @@
         <v>388</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D336" s="2" t="n">
         <v>0.4888858</v>
@@ -31943,7 +32117,7 @@
         <v>392</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D339" s="2" t="n">
         <v>0.6414728</v>
@@ -31971,7 +32145,7 @@
         <v>392</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D340" s="2" t="n">
         <v>0.6574688</v>
@@ -31999,7 +32173,7 @@
         <v>392</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D341" s="2" t="n">
         <v>0.677923</v>
@@ -32167,7 +32341,7 @@
         <v>394</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D347" s="2" t="n">
         <v>0.4808658</v>
@@ -32251,7 +32425,7 @@
         <v>396</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D350" s="2" t="n">
         <v>0.4571946</v>
@@ -32363,7 +32537,7 @@
         <v>401</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D354" s="2" t="n">
         <v>0.4574978</v>
@@ -32447,7 +32621,7 @@
         <v>404</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D357" s="2" t="n">
         <v>0.487551</v>
@@ -32475,7 +32649,7 @@
         <v>404</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D358" s="2" t="n">
         <v>0.477248</v>
@@ -32523,7 +32697,7 @@
       <c r="I359" s="2"/>
       <c r="J359" s="2"/>
     </row>
-    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="2" t="n">
         <v>358</v>
       </c>
@@ -32551,7 +32725,7 @@
       <c r="I360" s="2"/>
       <c r="J360" s="2"/>
     </row>
-    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="2" t="n">
         <v>359</v>
       </c>
@@ -32579,7 +32753,7 @@
       <c r="I361" s="2"/>
       <c r="J361" s="2"/>
     </row>
-    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="2" t="n">
         <v>360</v>
       </c>
@@ -32606,6 +32780,90 @@
       </c>
       <c r="I362" s="2"/>
       <c r="J362" s="2"/>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D363" s="2" t="n">
+        <v>0.4914418</v>
+      </c>
+      <c r="E363" s="2" t="n">
+        <v>0.6429878</v>
+      </c>
+      <c r="F363" s="2" t="n">
+        <v>0.5979278</v>
+      </c>
+      <c r="G363" s="2" t="n">
+        <v>0.8602882</v>
+      </c>
+      <c r="H363" s="2" t="n">
+        <v>0.6793966</v>
+      </c>
+      <c r="I363" s="2"/>
+      <c r="J363" s="2"/>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="2" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D364" s="2" t="n">
+        <v>0.6655096</v>
+      </c>
+      <c r="E364" s="2" t="n">
+        <v>0.7296622</v>
+      </c>
+      <c r="F364" s="2" t="n">
+        <v>0.831748</v>
+      </c>
+      <c r="G364" s="2" t="n">
+        <v>0.9320078</v>
+      </c>
+      <c r="H364" s="2" t="n">
+        <v>0.7326598</v>
+      </c>
+      <c r="I364" s="2"/>
+      <c r="J364" s="2"/>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="2" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D365" s="2" t="n">
+        <v>0.6526268</v>
+      </c>
+      <c r="E365" s="2" t="n">
+        <v>0.7442238</v>
+      </c>
+      <c r="F365" s="2" t="n">
+        <v>0.8991874</v>
+      </c>
+      <c r="G365" s="2" t="n">
+        <v>0.8505198</v>
+      </c>
+      <c r="H365" s="2" t="n">
+        <v>0.8145818</v>
+      </c>
+      <c r="I365" s="2"/>
+      <c r="J365" s="2"/>
     </row>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -32643,8 +32901,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A339" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C363" activeCellId="0" sqref="C363"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A342" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F361" activeCellId="0" sqref="F361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32696,7 +32954,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>3.4656902</v>
@@ -32722,7 +32980,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>4.0852622</v>
@@ -32748,7 +33006,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>2.9817282</v>
@@ -32774,7 +33032,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>3.2355116</v>
@@ -32878,7 +33136,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>3.5561424</v>
@@ -32930,7 +33188,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>3.8741284</v>
@@ -32956,7 +33214,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>3.5923944</v>
@@ -33034,7 +33292,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>3.0850886</v>
@@ -33060,7 +33318,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>4.2818632</v>
@@ -33190,7 +33448,7 @@
         <v>36</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>2.9089418</v>
@@ -33320,7 +33578,7 @@
         <v>40</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>3.822524</v>
@@ -33346,7 +33604,7 @@
         <v>40</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>3.2866498</v>
@@ -33372,7 +33630,7 @@
         <v>40</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>3.8178666</v>
@@ -33424,7 +33682,7 @@
         <v>47</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>3.0702744</v>
@@ -33528,7 +33786,7 @@
         <v>51</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>2.9263998</v>
@@ -33580,7 +33838,7 @@
         <v>54</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>3.2355116</v>
@@ -33632,7 +33890,7 @@
         <v>57</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>4.4183598</v>
@@ -33658,7 +33916,7 @@
         <v>57</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>4.2271066</v>
@@ -33788,7 +34046,7 @@
         <v>65</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>3.8775138</v>
@@ -33840,7 +34098,7 @@
         <v>65</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>3.8538836</v>
@@ -33970,7 +34228,7 @@
         <v>73</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>4.7661336</v>
@@ -33996,7 +34254,7 @@
         <v>73</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D52" s="2" t="n">
         <v>4.1553188</v>
@@ -34022,7 +34280,7 @@
         <v>77</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D53" s="2" t="n">
         <v>4.4161086</v>
@@ -34048,7 +34306,7 @@
         <v>77</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D54" s="2" t="n">
         <v>3.9109934</v>
@@ -34100,7 +34358,7 @@
         <v>81</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D56" s="2" t="n">
         <v>3.4861618</v>
@@ -34152,7 +34410,7 @@
         <v>81</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="D58" s="2" t="n">
         <v>3.52287</v>
@@ -34412,7 +34670,7 @@
         <v>96</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>3.9888114</v>
@@ -34464,7 +34722,7 @@
         <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D70" s="2" t="n">
         <v>4.983335</v>
@@ -34620,7 +34878,7 @@
         <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>4.5492628</v>
@@ -35062,7 +35320,7 @@
         <v>127</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D93" s="2" t="n">
         <v>4.559301</v>
@@ -35166,7 +35424,7 @@
         <v>128</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D97" s="2" t="n">
         <v>3.7013772</v>
@@ -35244,7 +35502,7 @@
         <v>132</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D100" s="2" t="n">
         <v>4.1470936</v>
@@ -35270,7 +35528,7 @@
         <v>135</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D101" s="2" t="n">
         <v>4.5941812</v>
@@ -35322,7 +35580,7 @@
         <v>135</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D103" s="2" t="n">
         <v>4.2355866</v>
@@ -35426,7 +35684,7 @@
         <v>140</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D107" s="2" t="n">
         <v>3.9397008</v>
@@ -35452,7 +35710,7 @@
         <v>140</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D108" s="2" t="n">
         <v>3.8446282</v>
@@ -35478,7 +35736,7 @@
         <v>140</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D109" s="2" t="n">
         <v>3.6811188</v>
@@ -35504,7 +35762,7 @@
         <v>143</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D110" s="2" t="n">
         <v>4.0021732</v>
@@ -35790,7 +36048,7 @@
         <v>153</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="D121" s="2" t="n">
         <v>3.7466574</v>
@@ -35920,7 +36178,7 @@
         <v>161</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D126" s="2" t="n">
         <v>3.6994948</v>
@@ -36024,7 +36282,7 @@
         <v>165</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D130" s="2" t="n">
         <v>4.1747286</v>
@@ -36050,7 +36308,7 @@
         <v>168</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="D131" s="2" t="n">
         <v>3.529065</v>
@@ -36362,7 +36620,7 @@
         <v>183</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D143" s="2" t="n">
         <v>3.6613182</v>
@@ -36474,7 +36732,7 @@
         <v>185</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="D147" s="2" t="n">
         <v>4.9899384</v>
@@ -36726,7 +36984,7 @@
         <v>193</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D156" s="2" t="n">
         <v>3.6757588</v>
@@ -36810,7 +37068,7 @@
         <v>197</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D159" s="2" t="n">
         <v>3.1456856</v>
@@ -36922,7 +37180,7 @@
         <v>204</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D163" s="2" t="n">
         <v>3.365378</v>
@@ -37034,7 +37292,7 @@
         <v>208</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D167" s="2" t="n">
         <v>3.7039678</v>
@@ -37062,7 +37320,7 @@
         <v>208</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D168" s="2" t="n">
         <v>3.7096014</v>
@@ -37090,7 +37348,7 @@
         <v>212</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D169" s="2" t="n">
         <v>5.4967574</v>
@@ -37146,7 +37404,7 @@
         <v>212</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D171" s="2" t="n">
         <v>4.669323</v>
@@ -37342,7 +37600,7 @@
         <v>216</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D178" s="2" t="n">
         <v>3.0646552</v>
@@ -37426,7 +37684,7 @@
         <v>227</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D181" s="2" t="n">
         <v>0.9643054</v>
@@ -37482,7 +37740,7 @@
         <v>228</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D183" s="2" t="n">
         <v>0.915316</v>
@@ -37510,7 +37768,7 @@
         <v>228</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D184" s="2" t="n">
         <v>1.0040066</v>
@@ -37650,7 +37908,7 @@
         <v>235</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D189" s="2" t="n">
         <v>0.7432314</v>
@@ -37678,7 +37936,7 @@
         <v>235</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D190" s="2" t="n">
         <v>0.7282506</v>
@@ -37790,7 +38048,7 @@
         <v>242</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>529</v>
+        <v>410</v>
       </c>
       <c r="D194" s="2" t="n">
         <v>0.769896</v>
@@ -37818,7 +38076,7 @@
         <v>242</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D195" s="2" t="n">
         <v>0.8169218</v>
@@ -37846,7 +38104,7 @@
         <v>242</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D196" s="2" t="n">
         <v>1.073331</v>
@@ -37874,7 +38132,7 @@
         <v>246</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D197" s="2" t="n">
         <v>3.6745186</v>
@@ -37902,7 +38160,7 @@
         <v>246</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D198" s="2" t="n">
         <v>3.6868922</v>
@@ -37986,7 +38244,7 @@
         <v>249</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D201" s="2" t="n">
         <v>3.7509906</v>
@@ -38014,7 +38272,7 @@
         <v>249</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D202" s="2" t="n">
         <v>3.6990118</v>
@@ -38098,7 +38356,7 @@
         <v>251</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D205" s="2" t="n">
         <v>3.5056148</v>
@@ -38294,7 +38552,7 @@
         <v>263</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D212" s="2" t="n">
         <v>0.6447578</v>
@@ -38350,7 +38608,7 @@
         <v>263</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D214" s="2" t="n">
         <v>0.9167192</v>
@@ -38518,7 +38776,7 @@
         <v>271</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D220" s="2" t="n">
         <v>0.9251752</v>
@@ -38602,7 +38860,7 @@
         <v>275</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D223" s="2" t="n">
         <v>1.3433578</v>
@@ -38686,7 +38944,7 @@
         <v>278</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D226" s="2" t="n">
         <v>2.6990146</v>
@@ -38714,7 +38972,7 @@
         <v>278</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D227" s="2" t="n">
         <v>2.7866846</v>
@@ -38770,7 +39028,7 @@
         <v>282</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D229" s="2" t="n">
         <v>1.9206712</v>
@@ -38826,7 +39084,7 @@
         <v>285</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="D231" s="2" t="n">
         <v>2.5458692</v>
@@ -38938,7 +39196,7 @@
         <v>288</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D235" s="2" t="n">
         <v>1.8179748</v>
@@ -38966,7 +39224,7 @@
         <v>288</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="D236" s="2" t="n">
         <v>1.8229778</v>
@@ -39022,7 +39280,7 @@
         <v>291</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D238" s="2" t="n">
         <v>0.9822748</v>
@@ -39050,7 +39308,7 @@
         <v>291</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D239" s="2" t="n">
         <v>1.2047334</v>
@@ -39134,7 +39392,7 @@
         <v>294</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D242" s="2" t="n">
         <v>1.595638</v>
@@ -39162,7 +39420,7 @@
         <v>297</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D243" s="2" t="n">
         <v>1.550705</v>
@@ -39190,7 +39448,7 @@
         <v>297</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D244" s="2" t="n">
         <v>1.733405</v>
@@ -39218,7 +39476,7 @@
         <v>297</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D245" s="2" t="n">
         <v>1.762443</v>
@@ -39274,7 +39532,7 @@
         <v>301</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D247" s="2" t="n">
         <v>1.9096182</v>
@@ -39302,7 +39560,7 @@
         <v>301</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D248" s="2" t="n">
         <v>1.5183776</v>
@@ -39330,7 +39588,7 @@
         <v>305</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D249" s="2" t="n">
         <v>1.9230312</v>
@@ -39358,7 +39616,7 @@
         <v>305</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D250" s="2" t="n">
         <v>1.9616156</v>
@@ -39414,7 +39672,7 @@
         <v>309</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D252" s="2" t="n">
         <v>1.6314788</v>
@@ -39442,7 +39700,7 @@
         <v>309</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D253" s="2" t="n">
         <v>1.4673412</v>
@@ -39470,7 +39728,7 @@
         <v>309</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D254" s="2" t="n">
         <v>1.6703708</v>
@@ -39498,7 +39756,7 @@
         <v>313</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D255" s="2" t="n">
         <v>1.491883</v>
@@ -39526,7 +39784,7 @@
         <v>313</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D256" s="2" t="n">
         <v>1.4376204</v>
@@ -39554,7 +39812,7 @@
         <v>313</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D257" s="2" t="n">
         <v>1.3038182</v>
@@ -39582,7 +39840,7 @@
         <v>317</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D258" s="2" t="n">
         <v>1.44942</v>
@@ -39610,7 +39868,7 @@
         <v>317</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D259" s="2" t="n">
         <v>1.7961676</v>
@@ -39638,7 +39896,7 @@
         <v>317</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D260" s="2" t="n">
         <v>1.76271</v>
@@ -39666,7 +39924,7 @@
         <v>319</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D261" s="2" t="n">
         <v>1.7891326</v>
@@ -39694,7 +39952,7 @@
         <v>319</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D262" s="2" t="n">
         <v>1.669088</v>
@@ -39722,7 +39980,7 @@
         <v>319</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D263" s="2" t="n">
         <v>1.4909798</v>
@@ -39806,7 +40064,7 @@
         <v>323</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="D266" s="2" t="n">
         <v>1.4312818</v>
@@ -39946,7 +40204,7 @@
         <v>329</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D271" s="2" t="n">
         <v>1.5375802</v>
@@ -40002,7 +40260,7 @@
         <v>331</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D273" s="2" t="n">
         <v>1.3638702</v>
@@ -40030,7 +40288,7 @@
         <v>331</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D274" s="2" t="n">
         <v>1.263996</v>
@@ -40058,7 +40316,7 @@
         <v>331</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D275" s="2" t="n">
         <v>1.2279214</v>
@@ -40198,7 +40456,7 @@
         <v>333</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D280" s="2" t="n">
         <v>1.124852</v>
@@ -40254,7 +40512,7 @@
         <v>336</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D282" s="2" t="n">
         <v>1.6275754</v>
@@ -40282,7 +40540,7 @@
         <v>336</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D283" s="2" t="n">
         <v>1.5708768</v>
@@ -40310,7 +40568,7 @@
         <v>336</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D284" s="2" t="n">
         <v>1.6431544</v>
@@ -40366,7 +40624,7 @@
         <v>340</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D286" s="2" t="n">
         <v>1.4122034</v>
@@ -40394,7 +40652,7 @@
         <v>340</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D287" s="2" t="n">
         <v>1.4755902</v>
@@ -40478,7 +40736,7 @@
         <v>344</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D290" s="2" t="n">
         <v>1.3500846</v>
@@ -40506,7 +40764,7 @@
         <v>347</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D291" s="2" t="n">
         <v>1.4293406</v>
@@ -40534,7 +40792,7 @@
         <v>347</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D292" s="2" t="n">
         <v>1.4329594</v>
@@ -40562,7 +40820,7 @@
         <v>347</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D293" s="2" t="n">
         <v>1.450452</v>
@@ -40618,7 +40876,7 @@
         <v>350</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D295" s="2" t="n">
         <v>1.3541134</v>
@@ -40646,7 +40904,7 @@
         <v>350</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D296" s="2" t="n">
         <v>1.6232472</v>
@@ -40814,7 +41072,7 @@
         <v>353</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D302" s="2" t="n">
         <v>1.4532946</v>
@@ -40870,7 +41128,7 @@
         <v>356</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D304" s="2" t="n">
         <v>1.7953464</v>
@@ -40926,7 +41184,7 @@
         <v>360</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D306" s="2" t="n">
         <v>1.389861</v>
@@ -40954,7 +41212,7 @@
         <v>360</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D307" s="2" t="n">
         <v>1.2307954</v>
@@ -40982,7 +41240,7 @@
         <v>360</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D308" s="2" t="n">
         <v>1.254881</v>
@@ -41262,7 +41520,7 @@
         <v>371</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D318" s="2" t="n">
         <v>1.2248766</v>
@@ -41290,7 +41548,7 @@
         <v>371</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D319" s="2" t="n">
         <v>1.2212258</v>
@@ -41318,7 +41576,7 @@
         <v>371</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D320" s="2" t="n">
         <v>1.1989604</v>
@@ -41458,7 +41716,7 @@
         <v>376</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D325" s="2" t="n">
         <v>1.0624674</v>
@@ -41486,7 +41744,7 @@
         <v>376</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D326" s="2" t="n">
         <v>1.0858874</v>
@@ -41514,7 +41772,7 @@
         <v>378</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D327" s="2" t="n">
         <v>1.3795824</v>
@@ -41542,7 +41800,7 @@
         <v>378</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D328" s="2" t="n">
         <v>1.2367146</v>
@@ -41570,7 +41828,7 @@
         <v>378</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D329" s="2" t="n">
         <v>1.2427274</v>
@@ -41626,7 +41884,7 @@
         <v>382</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D331" s="2" t="n">
         <v>1.5469018</v>
@@ -41682,7 +41940,7 @@
         <v>384</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D333" s="2" t="n">
         <v>1.1511158</v>
@@ -41710,7 +41968,7 @@
         <v>384</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D334" s="2" t="n">
         <v>1.7489588</v>
@@ -41738,7 +41996,7 @@
         <v>384</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D335" s="2" t="n">
         <v>1.3266318</v>
@@ -41766,7 +42024,7 @@
         <v>388</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="D336" s="2" t="n">
         <v>1.2621662</v>
@@ -41794,7 +42052,7 @@
         <v>388</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D337" s="2" t="n">
         <v>1.2015852</v>
@@ -41822,7 +42080,7 @@
         <v>388</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D338" s="2" t="n">
         <v>1.2845608</v>
@@ -41878,7 +42136,7 @@
         <v>392</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D340" s="2" t="n">
         <v>1.8179748</v>
@@ -41906,7 +42164,7 @@
         <v>392</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="D341" s="2" t="n">
         <v>1.8229778</v>
@@ -42046,7 +42304,7 @@
         <v>394</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D346" s="2" t="n">
         <v>1.094811</v>
@@ -42074,7 +42332,7 @@
         <v>394</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D347" s="2" t="n">
         <v>1.433895</v>
@@ -42130,7 +42388,7 @@
         <v>396</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D349" s="2" t="n">
         <v>1.9025118</v>
@@ -42158,7 +42416,7 @@
         <v>396</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D350" s="2" t="n">
         <v>1.8527084</v>
@@ -42326,7 +42584,7 @@
         <v>401</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D356" s="2" t="n">
         <v>1.2738502</v>
@@ -42354,7 +42612,7 @@
         <v>404</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D357" s="2" t="n">
         <v>1.5006246</v>
@@ -42382,7 +42640,7 @@
         <v>404</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D358" s="2" t="n">
         <v>1.6885894</v>
@@ -42410,7 +42668,7 @@
         <v>404</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D359" s="2" t="n">
         <v>1.1057422</v>
@@ -42430,7 +42688,7 @@
       <c r="I359" s="2"/>
       <c r="J359" s="2"/>
     </row>
-    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="2" t="n">
         <v>358</v>
       </c>
@@ -42458,7 +42716,7 @@
       <c r="I360" s="2"/>
       <c r="J360" s="2"/>
     </row>
-    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="2" t="n">
         <v>359</v>
       </c>
@@ -42486,7 +42744,7 @@
       <c r="I361" s="2"/>
       <c r="J361" s="2"/>
     </row>
-    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="2" t="n">
         <v>360</v>
       </c>
@@ -42513,6 +42771,90 @@
       </c>
       <c r="I362" s="2"/>
       <c r="J362" s="2"/>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D363" s="2" t="n">
+        <v>1.1619302</v>
+      </c>
+      <c r="E363" s="2" t="n">
+        <v>1.3973718</v>
+      </c>
+      <c r="F363" s="2" t="n">
+        <v>1.3232884</v>
+      </c>
+      <c r="G363" s="2" t="n">
+        <v>2.5072664</v>
+      </c>
+      <c r="H363" s="2" t="n">
+        <v>1.5031604</v>
+      </c>
+      <c r="I363" s="2"/>
+      <c r="J363" s="2"/>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="2" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D364" s="2" t="n">
+        <v>1.120924</v>
+      </c>
+      <c r="E364" s="2" t="n">
+        <v>1.7307776</v>
+      </c>
+      <c r="F364" s="2" t="n">
+        <v>1.1832768</v>
+      </c>
+      <c r="G364" s="2" t="n">
+        <v>2.1819386</v>
+      </c>
+      <c r="H364" s="2" t="n">
+        <v>1.550745</v>
+      </c>
+      <c r="I364" s="2"/>
+      <c r="J364" s="2"/>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="2" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D365" s="2" t="n">
+        <v>1.1963474</v>
+      </c>
+      <c r="E365" s="2" t="n">
+        <v>1.617757</v>
+      </c>
+      <c r="F365" s="2" t="n">
+        <v>1.1287288</v>
+      </c>
+      <c r="G365" s="2" t="n">
+        <v>2.0157536</v>
+      </c>
+      <c r="H365" s="2" t="n">
+        <v>1.3026474</v>
+      </c>
+      <c r="I365" s="2"/>
+      <c r="J365" s="2"/>
     </row>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Output Data/Crpo/Common_folder/API_Performance_Chart_Report.xlsx
+++ b/Output Data/Crpo/Common_folder/API_Performance_Chart_Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3369" uniqueCount="679">
   <si>
     <t xml:space="preserve">get_tenant_details</t>
   </si>
@@ -1397,6 +1397,27 @@
     <t xml:space="preserve">02:33:PM</t>
   </si>
   <si>
+    <t xml:space="preserve">2022-09-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:39:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:40:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:42:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:12:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-20</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:41:PM</t>
   </si>
   <si>
@@ -1514,9 +1535,6 @@
     <t xml:space="preserve">01:08:PM</t>
   </si>
   <si>
-    <t xml:space="preserve">01:12:PM</t>
-  </si>
-  <si>
     <t xml:space="preserve">03:55:PM</t>
   </si>
   <si>
@@ -1634,9 +1652,6 @@
     <t xml:space="preserve">11:17:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">03:39:PM</t>
-  </si>
-  <si>
     <t xml:space="preserve">10:10:AM</t>
   </si>
   <si>
@@ -1673,6 +1688,12 @@
     <t xml:space="preserve">02:43:PM</t>
   </si>
   <si>
+    <t xml:space="preserve">03:44:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:59:AM</t>
+  </si>
+  <si>
     <t xml:space="preserve">07:43:PM</t>
   </si>
   <si>
@@ -1862,9 +1883,6 @@
     <t xml:space="preserve">09:25:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">09:59:AM</t>
-  </si>
-  <si>
     <t xml:space="preserve">04:37:PM</t>
   </si>
   <si>
@@ -1889,12 +1907,6 @@
     <t xml:space="preserve">11:38:AM</t>
   </si>
   <si>
-    <t xml:space="preserve">03:42:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03:44:PM</t>
-  </si>
-  <si>
     <t xml:space="preserve">05:00:PM</t>
   </si>
   <si>
@@ -2037,6 +2049,18 @@
   </si>
   <si>
     <t xml:space="preserve">04:47:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:47:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:59:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:24:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:28:PM</t>
   </si>
 </sst>
 </file>
@@ -2365,16 +2389,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.799240438820637</c:v>
+                  <c:v>0.79263823653846</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.95040995479115</c:v>
+                  <c:v>1.9284726389423</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.763776363144963</c:v>
+                  <c:v>0.757975272115385</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.49143926191646</c:v>
+                  <c:v>2.46433480240384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2458,16 +2482,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.710392994103195</c:v>
+                  <c:v>0.705740642307693</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1150302058968</c:v>
+                  <c:v>2.10059417019231</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.952427243734644</c:v>
+                  <c:v>0.944916849519231</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.90367138329238</c:v>
+                  <c:v>1.89996633653846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2551,16 +2575,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.718719936117935</c:v>
+                  <c:v>0.712899117307692</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.73021941474201</c:v>
+                  <c:v>1.71772703605769</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.974999793611793</c:v>
+                  <c:v>0.968579029326923</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.61300626977887</c:v>
+                  <c:v>1.60733424038462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2644,16 +2668,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.52764750859951</c:v>
+                  <c:v>1.51125994326923</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.40190348624079</c:v>
+                  <c:v>2.385732178125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.32163671793612</c:v>
+                  <c:v>1.31037147980769</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.63512005405405</c:v>
+                  <c:v>2.64654805576923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2737,16 +2761,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.720186246683046</c:v>
+                  <c:v>0.718945095673076</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.73808053316953</c:v>
+                  <c:v>1.72731451586538</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.919545234398035</c:v>
+                  <c:v>0.91395635625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.57896332628993</c:v>
+                  <c:v>1.5772245375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2754,11 +2778,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="-10"/>
-        <c:axId val="85959914"/>
-        <c:axId val="55645454"/>
+        <c:axId val="27134499"/>
+        <c:axId val="176750"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85959914"/>
+        <c:axId val="27134499"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2824,7 +2848,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55645454"/>
+        <c:crossAx val="176750"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2832,7 +2856,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55645454"/>
+        <c:axId val="176750"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2898,7 +2922,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85959914"/>
+        <c:crossAx val="27134499"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2992,8 +3016,8 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3028,19 +3052,19 @@
         <v>5</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.799240438820637</v>
+        <v>0.79263823653846</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.710392994103195</v>
+        <v>0.705740642307693</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.718719936117935</v>
+        <v>0.712899117307692</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1.52764750859951</v>
+        <v>1.51125994326923</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0.720186246683046</v>
+        <v>0.718945095673076</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3048,19 +3072,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1.95040995479115</v>
+        <v>1.9284726389423</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2.1150302058968</v>
+        <v>2.10059417019231</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1.73021941474201</v>
+        <v>1.71772703605769</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2.40190348624079</v>
+        <v>2.385732178125</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>1.73808053316953</v>
+        <v>1.72731451586538</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3068,19 +3092,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.763776363144963</v>
+        <v>0.757975272115385</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.952427243734644</v>
+        <v>0.944916849519231</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.974999793611793</v>
+        <v>0.968579029326923</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1.32163671793612</v>
+        <v>1.31037147980769</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0.919545234398035</v>
+        <v>0.91395635625</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3088,19 +3112,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2.49143926191646</v>
+        <v>2.46433480240384</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>1.90367138329238</v>
+        <v>1.89996633653846</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1.61300626977887</v>
+        <v>1.60733424038462</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>2.63512005405405</v>
+        <v>2.64654805576923</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>1.57896332628993</v>
+        <v>1.5772245375</v>
       </c>
     </row>
   </sheetData>
@@ -3122,8 +3146,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A388" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H410" activeCellId="0" sqref="H410"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A405" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A417" activeCellId="0" sqref="A417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14275,6 +14299,258 @@
       </c>
       <c r="I408" s="2"/>
       <c r="J408" s="2"/>
+    </row>
+    <row r="409" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A409" s="2" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D409" s="2" t="n">
+        <v>0.4698984</v>
+      </c>
+      <c r="E409" s="2" t="n">
+        <v>0.475091</v>
+      </c>
+      <c r="F409" s="2" t="n">
+        <v>0.4652842</v>
+      </c>
+      <c r="G409" s="2" t="n">
+        <v>0.7921054</v>
+      </c>
+      <c r="H409" s="2" t="n">
+        <v>0.651031</v>
+      </c>
+      <c r="I409" s="2"/>
+      <c r="J409" s="2"/>
+    </row>
+    <row r="410" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A410" s="2" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D410" s="2" t="n">
+        <v>0.450493</v>
+      </c>
+      <c r="E410" s="2" t="n">
+        <v>0.5465308</v>
+      </c>
+      <c r="F410" s="2" t="n">
+        <v>0.467787</v>
+      </c>
+      <c r="G410" s="2" t="n">
+        <v>0.7584102</v>
+      </c>
+      <c r="H410" s="2" t="n">
+        <v>0.5386426</v>
+      </c>
+      <c r="I410" s="2"/>
+      <c r="J410" s="2"/>
+    </row>
+    <row r="411" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A411" s="2" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D411" s="2" t="n">
+        <v>0.5327428</v>
+      </c>
+      <c r="E411" s="2" t="n">
+        <v>0.4466418</v>
+      </c>
+      <c r="F411" s="2" t="n">
+        <v>0.4312312</v>
+      </c>
+      <c r="G411" s="2" t="n">
+        <v>0.746337</v>
+      </c>
+      <c r="H411" s="2" t="n">
+        <v>0.486408</v>
+      </c>
+      <c r="I411" s="2"/>
+      <c r="J411" s="2"/>
+    </row>
+    <row r="412" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A412" s="2" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D412" s="2" t="n">
+        <v>0.398583</v>
+      </c>
+      <c r="E412" s="2" t="n">
+        <v>0.4246356</v>
+      </c>
+      <c r="F412" s="2" t="n">
+        <v>0.4359708</v>
+      </c>
+      <c r="G412" s="2" t="n">
+        <v>0.7996916</v>
+      </c>
+      <c r="H412" s="2" t="n">
+        <v>1.6279912</v>
+      </c>
+      <c r="I412" s="2"/>
+      <c r="J412" s="2"/>
+    </row>
+    <row r="413" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A413" s="2" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D413" s="2" t="n">
+        <v>0.6322946</v>
+      </c>
+      <c r="E413" s="2" t="n">
+        <v>0.509265</v>
+      </c>
+      <c r="F413" s="2" t="n">
+        <v>0.3970706</v>
+      </c>
+      <c r="G413" s="2" t="n">
+        <v>0.765313</v>
+      </c>
+      <c r="H413" s="2" t="n">
+        <v>0.5084678</v>
+      </c>
+      <c r="I413" s="2"/>
+      <c r="J413" s="2"/>
+    </row>
+    <row r="414" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A414" s="2" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D414" s="2" t="n">
+        <v>0.5386544</v>
+      </c>
+      <c r="E414" s="2" t="n">
+        <v>0.5637284</v>
+      </c>
+      <c r="F414" s="2" t="n">
+        <v>0.4862506</v>
+      </c>
+      <c r="G414" s="2" t="n">
+        <v>0.7276268</v>
+      </c>
+      <c r="H414" s="2" t="n">
+        <v>0.55144</v>
+      </c>
+      <c r="I414" s="2"/>
+      <c r="J414" s="2"/>
+    </row>
+    <row r="415" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="2" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D415" s="2" t="n">
+        <v>0.4193808</v>
+      </c>
+      <c r="E415" s="2" t="n">
+        <v>0.5007356</v>
+      </c>
+      <c r="F415" s="2" t="n">
+        <v>0.450102</v>
+      </c>
+      <c r="G415" s="2" t="n">
+        <v>0.7837262</v>
+      </c>
+      <c r="H415" s="2" t="n">
+        <v>0.5883984</v>
+      </c>
+      <c r="I415" s="2"/>
+      <c r="J415" s="2"/>
+    </row>
+    <row r="416" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="2" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D416" s="2" t="n">
+        <v>0.5044008</v>
+      </c>
+      <c r="E416" s="2" t="n">
+        <v>0.4726578</v>
+      </c>
+      <c r="F416" s="2" t="n">
+        <v>0.4594928</v>
+      </c>
+      <c r="G416" s="2" t="n">
+        <v>0.7441302</v>
+      </c>
+      <c r="H416" s="2" t="n">
+        <v>0.4875538</v>
+      </c>
+      <c r="I416" s="2"/>
+      <c r="J416" s="2"/>
+    </row>
+    <row r="417" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="2" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D417" s="2" t="n">
+        <v>0.5002</v>
+      </c>
+      <c r="E417" s="2" t="n">
+        <v>0.5188726</v>
+      </c>
+      <c r="F417" s="2" t="n">
+        <v>0.4538296</v>
+      </c>
+      <c r="G417" s="2" t="n">
+        <v>0.81426</v>
+      </c>
+      <c r="H417" s="2" t="n">
+        <v>0.5254246</v>
+      </c>
+      <c r="I417" s="2"/>
+      <c r="J417" s="2"/>
     </row>
     <row r="1048556" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048557" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -14315,8 +14591,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A386" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H408" activeCellId="0" sqref="H408"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A397" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A417" activeCellId="0" sqref="A417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14367,7 +14643,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>2.0220664</v>
@@ -14393,7 +14669,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>2.4586498</v>
@@ -14549,7 +14825,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>2.1589454</v>
@@ -14627,7 +14903,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>1.9875636</v>
@@ -14939,7 +15215,7 @@
         <v>40</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>2.6861386</v>
@@ -14991,7 +15267,7 @@
         <v>40</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>2.330873</v>
@@ -15017,7 +15293,7 @@
         <v>40</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>2.4523078</v>
@@ -15043,7 +15319,7 @@
         <v>40</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>2.3690538</v>
@@ -15095,7 +15371,7 @@
         <v>47</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>2.3269536</v>
@@ -15329,7 +15605,7 @@
         <v>57</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>2.569399</v>
@@ -15355,7 +15631,7 @@
         <v>57</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>2.2719068</v>
@@ -15407,7 +15683,7 @@
         <v>61</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="D42" s="2" t="n">
         <v>2.5803136</v>
@@ -15459,7 +15735,7 @@
         <v>65</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>2.4560934</v>
@@ -15511,7 +15787,7 @@
         <v>65</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>2.7843442</v>
@@ -15797,7 +16073,7 @@
         <v>81</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="D57" s="2" t="n">
         <v>2.9062288</v>
@@ -16083,7 +16359,7 @@
         <v>96</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>5.4740242</v>
@@ -16109,7 +16385,7 @@
         <v>96</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D69" s="2" t="n">
         <v>5.0492016</v>
@@ -16265,7 +16541,7 @@
         <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>2.7314032</v>
@@ -16291,7 +16567,7 @@
         <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>2.7375454</v>
@@ -16603,7 +16879,7 @@
         <v>119</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="D88" s="2" t="n">
         <v>1.9251046</v>
@@ -16733,7 +17009,7 @@
         <v>127</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="D93" s="2" t="n">
         <v>2.6339666</v>
@@ -16759,7 +17035,7 @@
         <v>127</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="D94" s="2" t="n">
         <v>2.4568346</v>
@@ -16915,7 +17191,7 @@
         <v>132</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="D100" s="2" t="n">
         <v>2.403287</v>
@@ -17097,7 +17373,7 @@
         <v>140</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="D107" s="2" t="n">
         <v>2.208845</v>
@@ -17305,7 +17581,7 @@
         <v>145</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D115" s="2" t="n">
         <v>2.1219888</v>
@@ -17409,7 +17685,7 @@
         <v>153</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="D119" s="2" t="n">
         <v>2.5949094</v>
@@ -17461,7 +17737,7 @@
         <v>153</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="D121" s="2" t="n">
         <v>1.9941926</v>
@@ -17487,7 +17763,7 @@
         <v>157</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="D122" s="2" t="n">
         <v>2.4594108</v>
@@ -17695,7 +17971,7 @@
         <v>165</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D130" s="2" t="n">
         <v>1.9619838</v>
@@ -17773,7 +18049,7 @@
         <v>170</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="D133" s="2" t="n">
         <v>1.8671148</v>
@@ -18173,7 +18449,7 @@
         <v>185</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="D148" s="2" t="n">
         <v>3.119118</v>
@@ -18705,7 +18981,7 @@
         <v>208</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="D167" s="2" t="n">
         <v>1.8280256</v>
@@ -18817,7 +19093,7 @@
         <v>212</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="D171" s="2" t="n">
         <v>3.5371194</v>
@@ -18901,7 +19177,7 @@
         <v>216</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="D174" s="2" t="n">
         <v>1.8331202</v>
@@ -18957,7 +19233,7 @@
         <v>216</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="D176" s="2" t="n">
         <v>1.8676058</v>
@@ -18985,7 +19261,7 @@
         <v>216</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="D177" s="2" t="n">
         <v>1.8565564</v>
@@ -19013,7 +19289,7 @@
         <v>216</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="D178" s="2" t="n">
         <v>1.971548</v>
@@ -19041,7 +19317,7 @@
         <v>216</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="D179" s="2" t="n">
         <v>1.8706844</v>
@@ -19097,7 +19373,7 @@
         <v>227</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="D181" s="2" t="n">
         <v>5.40063</v>
@@ -19125,7 +19401,7 @@
         <v>228</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="D182" s="2" t="n">
         <v>5.4141288</v>
@@ -19153,7 +19429,7 @@
         <v>228</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="D183" s="2" t="n">
         <v>3.5907054</v>
@@ -19181,7 +19457,7 @@
         <v>228</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="D184" s="2" t="n">
         <v>5.850038</v>
@@ -19321,7 +19597,7 @@
         <v>235</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="D189" s="2" t="n">
         <v>3.4026254</v>
@@ -19349,7 +19625,7 @@
         <v>235</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="D190" s="2" t="n">
         <v>4.1027616</v>
@@ -19433,7 +19709,7 @@
         <v>239</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="D193" s="2" t="n">
         <v>3.3968766</v>
@@ -19489,7 +19765,7 @@
         <v>242</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="D195" s="2" t="n">
         <v>3.509683</v>
@@ -19545,7 +19821,7 @@
         <v>246</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="D197" s="2" t="n">
         <v>2.5360378</v>
@@ -19573,7 +19849,7 @@
         <v>246</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="D198" s="2" t="n">
         <v>3.464471</v>
@@ -19657,7 +19933,7 @@
         <v>249</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="D201" s="2" t="n">
         <v>3.7638234</v>
@@ -19685,7 +19961,7 @@
         <v>249</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="D202" s="2" t="n">
         <v>3.3836568</v>
@@ -19881,7 +20157,7 @@
         <v>263</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="D209" s="2" t="n">
         <v>3.5728318</v>
@@ -20071,7 +20347,7 @@
         <v>267</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="D216" s="2" t="n">
         <v>4.0429436</v>
@@ -20183,7 +20459,7 @@
         <v>271</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="D220" s="2" t="n">
         <v>0.8299536</v>
@@ -20267,7 +20543,7 @@
         <v>275</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="D223" s="2" t="n">
         <v>1.1506692</v>
@@ -20435,7 +20711,7 @@
         <v>282</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D229" s="2" t="n">
         <v>1.5232918</v>
@@ -20463,7 +20739,7 @@
         <v>282</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="D230" s="2" t="n">
         <v>0.994806</v>
@@ -20491,7 +20767,7 @@
         <v>285</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D231" s="2" t="n">
         <v>1.552873</v>
@@ -20519,7 +20795,7 @@
         <v>285</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="D232" s="2" t="n">
         <v>1.2558504</v>
@@ -20547,7 +20823,7 @@
         <v>285</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="D233" s="2" t="n">
         <v>1.0213794</v>
@@ -20575,7 +20851,7 @@
         <v>288</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="D234" s="2" t="n">
         <v>1.6652852</v>
@@ -20603,7 +20879,7 @@
         <v>288</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D235" s="2" t="n">
         <v>1.243835</v>
@@ -20631,7 +20907,7 @@
         <v>288</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="D236" s="2" t="n">
         <v>1.3231242</v>
@@ -20659,7 +20935,7 @@
         <v>291</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="D237" s="2" t="n">
         <v>2.7850712</v>
@@ -20687,7 +20963,7 @@
         <v>291</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D238" s="2" t="n">
         <v>1.16294</v>
@@ -20799,7 +21075,7 @@
         <v>294</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="D242" s="2" t="n">
         <v>1.1442586</v>
@@ -20883,7 +21159,7 @@
         <v>297</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="D245" s="2" t="n">
         <v>1.0933622</v>
@@ -20911,7 +21187,7 @@
         <v>301</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D246" s="2" t="n">
         <v>1.237047</v>
@@ -20939,7 +21215,7 @@
         <v>301</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="D247" s="2" t="n">
         <v>1.0054706</v>
@@ -20995,7 +21271,7 @@
         <v>305</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="D249" s="2" t="n">
         <v>1.1073458</v>
@@ -21051,7 +21327,7 @@
         <v>305</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="D251" s="2" t="n">
         <v>1.222255</v>
@@ -21107,7 +21383,7 @@
         <v>309</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="D253" s="2" t="n">
         <v>1.2915912</v>
@@ -21135,7 +21411,7 @@
         <v>309</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="D254" s="2" t="n">
         <v>1.4755444</v>
@@ -21219,7 +21495,7 @@
         <v>313</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="D257" s="2" t="n">
         <v>1.6525032</v>
@@ -21247,7 +21523,7 @@
         <v>317</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="D258" s="2" t="n">
         <v>1.4030888</v>
@@ -21331,7 +21607,7 @@
         <v>319</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D261" s="2" t="n">
         <v>1.2533678</v>
@@ -21359,7 +21635,7 @@
         <v>319</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="D262" s="2" t="n">
         <v>1.0722906</v>
@@ -21387,7 +21663,7 @@
         <v>319</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="D263" s="2" t="n">
         <v>1.609837</v>
@@ -21443,7 +21719,7 @@
         <v>323</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="D265" s="2" t="n">
         <v>0.77692</v>
@@ -21611,7 +21887,7 @@
         <v>329</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="D271" s="2" t="n">
         <v>1.0228846</v>
@@ -21723,7 +21999,7 @@
         <v>331</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D275" s="2" t="n">
         <v>1.1446152</v>
@@ -21807,7 +22083,7 @@
         <v>332</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="D278" s="2" t="n">
         <v>1.5527048</v>
@@ -21919,7 +22195,7 @@
         <v>336</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="D282" s="2" t="n">
         <v>2.0393262</v>
@@ -22171,7 +22447,7 @@
         <v>347</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="D291" s="2" t="n">
         <v>1.0106018</v>
@@ -22479,7 +22755,7 @@
         <v>353</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="D302" s="2" t="n">
         <v>1.0508514</v>
@@ -22843,7 +23119,7 @@
         <v>367</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="D315" s="2" t="n">
         <v>1.0836156</v>
@@ -22869,7 +23145,7 @@
         <v>367</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="D316" s="2" t="n">
         <v>1.1278328</v>
@@ -22895,7 +23171,7 @@
         <v>367</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="D317" s="2" t="n">
         <v>1.0575332</v>
@@ -22921,7 +23197,7 @@
         <v>371</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="D318" s="2" t="n">
         <v>1.1442586</v>
@@ -22947,7 +23223,7 @@
         <v>371</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="D319" s="2" t="n">
         <v>2.9026132</v>
@@ -22973,7 +23249,7 @@
         <v>371</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="D320" s="2" t="n">
         <v>1.8269942</v>
@@ -23167,7 +23443,7 @@
         <v>378</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="D327" s="2" t="n">
         <v>1.0938576</v>
@@ -23195,7 +23471,7 @@
         <v>378</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="D328" s="2" t="n">
         <v>1.1224288</v>
@@ -23223,7 +23499,7 @@
         <v>378</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="D329" s="2" t="n">
         <v>0.9831546</v>
@@ -23307,7 +23583,7 @@
         <v>382</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="D332" s="2" t="n">
         <v>0.9578956</v>
@@ -23447,7 +23723,7 @@
         <v>388</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D337" s="2" t="n">
         <v>0.8906878</v>
@@ -23503,7 +23779,7 @@
         <v>392</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="D339" s="2" t="n">
         <v>0.8824616</v>
@@ -23531,7 +23807,7 @@
         <v>392</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D340" s="2" t="n">
         <v>0.9309194</v>
@@ -23587,7 +23863,7 @@
         <v>393</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="D342" s="2" t="n">
         <v>0.8480704</v>
@@ -23643,7 +23919,7 @@
         <v>394</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="D344" s="2" t="n">
         <v>0.8884836</v>
@@ -23755,7 +24031,7 @@
         <v>396</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>536</v>
+        <v>458</v>
       </c>
       <c r="D348" s="2" t="n">
         <v>0.867561</v>
@@ -23867,7 +24143,7 @@
         <v>401</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="D352" s="2" t="n">
         <v>0.8549158</v>
@@ -23923,7 +24199,7 @@
         <v>401</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="D354" s="2" t="n">
         <v>0.9937986</v>
@@ -23979,7 +24255,7 @@
         <v>404</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="D356" s="2" t="n">
         <v>1.1687012</v>
@@ -24287,7 +24563,7 @@
         <v>417</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D367" s="2" t="n">
         <v>0.7802448</v>
@@ -24315,7 +24591,7 @@
         <v>417</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="D368" s="2" t="n">
         <v>0.856432</v>
@@ -24343,7 +24619,7 @@
         <v>417</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="D369" s="2" t="n">
         <v>0.742178</v>
@@ -24371,7 +24647,7 @@
         <v>420</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="D370" s="2" t="n">
         <v>0.8480704</v>
@@ -24399,7 +24675,7 @@
         <v>420</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D371" s="2" t="n">
         <v>0.8902724</v>
@@ -24483,7 +24759,7 @@
         <v>423</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="D374" s="2" t="n">
         <v>0.8859908</v>
@@ -24511,7 +24787,7 @@
         <v>423</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="D375" s="2" t="n">
         <v>0.7859908</v>
@@ -24567,7 +24843,7 @@
         <v>425</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="D377" s="2" t="n">
         <v>0.9712706</v>
@@ -24651,7 +24927,7 @@
         <v>428</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="D380" s="2" t="n">
         <v>0.9298226</v>
@@ -24847,7 +25123,7 @@
         <v>431</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D387" s="2" t="n">
         <v>1.0997634</v>
@@ -24931,7 +25207,7 @@
         <v>434</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="D390" s="2" t="n">
         <v>0.8397898</v>
@@ -25099,7 +25375,7 @@
         <v>440</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="D396" s="2" t="n">
         <v>0.8838868</v>
@@ -25239,7 +25515,7 @@
         <v>447</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D401" s="2" t="n">
         <v>1.1740952</v>
@@ -25351,7 +25627,7 @@
         <v>451</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D405" s="2" t="n">
         <v>0.8564124</v>
@@ -25407,7 +25683,7 @@
         <v>453</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="D407" s="2" t="n">
         <v>1.019362</v>
@@ -25435,7 +25711,7 @@
         <v>453</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="D408" s="2" t="n">
         <v>0.9369246</v>
@@ -25454,6 +25730,258 @@
       </c>
       <c r="I408" s="2"/>
       <c r="J408" s="2"/>
+    </row>
+    <row r="409" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A409" s="2" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D409" s="2" t="n">
+        <v>0.9135412</v>
+      </c>
+      <c r="E409" s="2" t="n">
+        <v>1.6103846</v>
+      </c>
+      <c r="F409" s="2" t="n">
+        <v>1.1613294</v>
+      </c>
+      <c r="G409" s="2" t="n">
+        <v>1.8155954</v>
+      </c>
+      <c r="H409" s="2" t="n">
+        <v>1.2663712</v>
+      </c>
+      <c r="I409" s="2"/>
+      <c r="J409" s="2"/>
+    </row>
+    <row r="410" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A410" s="2" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D410" s="2" t="n">
+        <v>0.9403712</v>
+      </c>
+      <c r="E410" s="2" t="n">
+        <v>1.2680926</v>
+      </c>
+      <c r="F410" s="2" t="n">
+        <v>1.2099844</v>
+      </c>
+      <c r="G410" s="2" t="n">
+        <v>1.6367048</v>
+      </c>
+      <c r="H410" s="2" t="n">
+        <v>1.331764</v>
+      </c>
+      <c r="I410" s="2"/>
+      <c r="J410" s="2"/>
+    </row>
+    <row r="411" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A411" s="2" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D411" s="2" t="n">
+        <v>0.909365</v>
+      </c>
+      <c r="E411" s="2" t="n">
+        <v>1.0652534</v>
+      </c>
+      <c r="F411" s="2" t="n">
+        <v>0.9477462</v>
+      </c>
+      <c r="G411" s="2" t="n">
+        <v>1.5496674</v>
+      </c>
+      <c r="H411" s="2" t="n">
+        <v>1.1105866</v>
+      </c>
+      <c r="I411" s="2"/>
+      <c r="J411" s="2"/>
+    </row>
+    <row r="412" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A412" s="2" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D412" s="2" t="n">
+        <v>0.8692952</v>
+      </c>
+      <c r="E412" s="2" t="n">
+        <v>1.6664998</v>
+      </c>
+      <c r="F412" s="2" t="n">
+        <v>2.3406304</v>
+      </c>
+      <c r="G412" s="2" t="n">
+        <v>1.713585</v>
+      </c>
+      <c r="H412" s="2" t="n">
+        <v>1.174505</v>
+      </c>
+      <c r="I412" s="2"/>
+      <c r="J412" s="2"/>
+    </row>
+    <row r="413" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A413" s="2" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D413" s="2" t="n">
+        <v>0.953074</v>
+      </c>
+      <c r="E413" s="2" t="n">
+        <v>1.303205</v>
+      </c>
+      <c r="F413" s="2" t="n">
+        <v>0.9496896</v>
+      </c>
+      <c r="G413" s="2" t="n">
+        <v>1.842264</v>
+      </c>
+      <c r="H413" s="2" t="n">
+        <v>1.1831776</v>
+      </c>
+      <c r="I413" s="2"/>
+      <c r="J413" s="2"/>
+    </row>
+    <row r="414" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A414" s="2" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D414" s="2" t="n">
+        <v>1.077193</v>
+      </c>
+      <c r="E414" s="2" t="n">
+        <v>1.5643314</v>
+      </c>
+      <c r="F414" s="2" t="n">
+        <v>0.8710194</v>
+      </c>
+      <c r="G414" s="2" t="n">
+        <v>1.6136948</v>
+      </c>
+      <c r="H414" s="2" t="n">
+        <v>1.1428652</v>
+      </c>
+      <c r="I414" s="2"/>
+      <c r="J414" s="2"/>
+    </row>
+    <row r="415" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="2" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D415" s="2" t="n">
+        <v>0.892325</v>
+      </c>
+      <c r="E415" s="2" t="n">
+        <v>1.7490972</v>
+      </c>
+      <c r="F415" s="2" t="n">
+        <v>0.9523358</v>
+      </c>
+      <c r="G415" s="2" t="n">
+        <v>1.6682952</v>
+      </c>
+      <c r="H415" s="2" t="n">
+        <v>1.1753534</v>
+      </c>
+      <c r="I415" s="2"/>
+      <c r="J415" s="2"/>
+    </row>
+    <row r="416" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="2" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D416" s="2" t="n">
+        <v>0.9743262</v>
+      </c>
+      <c r="E416" s="2" t="n">
+        <v>1.2787844</v>
+      </c>
+      <c r="F416" s="2" t="n">
+        <v>0.8215872</v>
+      </c>
+      <c r="G416" s="2" t="n">
+        <v>1.39143</v>
+      </c>
+      <c r="H416" s="2" t="n">
+        <v>1.5711204</v>
+      </c>
+      <c r="I416" s="2"/>
+      <c r="J416" s="2"/>
+    </row>
+    <row r="417" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="2" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D417" s="2" t="n">
+        <v>0.8982754</v>
+      </c>
+      <c r="E417" s="2" t="n">
+        <v>1.5242326</v>
+      </c>
+      <c r="F417" s="2" t="n">
+        <v>1.1208228</v>
+      </c>
+      <c r="G417" s="2" t="n">
+        <v>1.6586306</v>
+      </c>
+      <c r="H417" s="2" t="n">
+        <v>1.2083182</v>
+      </c>
+      <c r="I417" s="2"/>
+      <c r="J417" s="2"/>
     </row>
     <row r="1048555" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048556" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -25495,8 +26023,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A385" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G404" activeCellId="0" sqref="G404"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A398" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A417" activeCellId="0" sqref="A417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25547,7 +26075,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0.7804054</v>
@@ -25573,7 +26101,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0.7779802</v>
@@ -25599,7 +26127,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0.7043458</v>
@@ -25625,7 +26153,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0.7145706</v>
@@ -25755,7 +26283,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0.7373706</v>
@@ -25807,7 +26335,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0.7234852</v>
@@ -25911,7 +26439,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0.3510038</v>
@@ -26093,7 +26621,7 @@
         <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>0.9795414</v>
@@ -26145,7 +26673,7 @@
         <v>40</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>2.3842444</v>
@@ -26171,7 +26699,7 @@
         <v>40</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>2.139728</v>
@@ -26301,7 +26829,7 @@
         <v>47</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>0.630812</v>
@@ -26431,7 +26959,7 @@
         <v>54</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>0.7043458</v>
@@ -26457,7 +26985,7 @@
         <v>54</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>0.7145706</v>
@@ -26483,7 +27011,7 @@
         <v>57</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>1.2584274</v>
@@ -26509,7 +27037,7 @@
         <v>57</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>1.3856258</v>
@@ -26639,7 +27167,7 @@
         <v>65</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>0.7883284</v>
@@ -26691,7 +27219,7 @@
         <v>65</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>0.6814198</v>
@@ -26821,7 +27349,7 @@
         <v>73</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>1.4049502</v>
@@ -26873,7 +27401,7 @@
         <v>77</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="D53" s="2" t="n">
         <v>0.9897652</v>
@@ -26951,7 +27479,7 @@
         <v>81</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="D56" s="2" t="n">
         <v>1.2353042</v>
@@ -27003,7 +27531,7 @@
         <v>81</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="D58" s="2" t="n">
         <v>1.2364662</v>
@@ -27055,7 +27583,7 @@
         <v>85</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="D60" s="2" t="n">
         <v>1.1438926</v>
@@ -27263,7 +27791,7 @@
         <v>96</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>1.6301784</v>
@@ -27315,7 +27843,7 @@
         <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="D70" s="2" t="n">
         <v>1.4442308</v>
@@ -27471,7 +27999,7 @@
         <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>1.1822766</v>
@@ -27549,7 +28077,7 @@
         <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="D79" s="2" t="n">
         <v>1.573159</v>
@@ -27887,7 +28415,7 @@
         <v>127</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D92" s="2" t="n">
         <v>1.5482428</v>
@@ -27913,7 +28441,7 @@
         <v>127</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="D93" s="2" t="n">
         <v>1.8137892</v>
@@ -28017,7 +28545,7 @@
         <v>128</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="D97" s="2" t="n">
         <v>1.4182292</v>
@@ -28121,7 +28649,7 @@
         <v>135</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="D101" s="2" t="n">
         <v>1.2684794</v>
@@ -28277,7 +28805,7 @@
         <v>140</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="D107" s="2" t="n">
         <v>1.295247</v>
@@ -28303,7 +28831,7 @@
         <v>140</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="D108" s="2" t="n">
         <v>1.22489</v>
@@ -28329,7 +28857,7 @@
         <v>140</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="D109" s="2" t="n">
         <v>1.1823422</v>
@@ -28355,7 +28883,7 @@
         <v>143</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="D110" s="2" t="n">
         <v>1.1176918</v>
@@ -28459,7 +28987,7 @@
         <v>145</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D114" s="2" t="n">
         <v>0.5937896</v>
@@ -28641,7 +29169,7 @@
         <v>153</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="D121" s="2" t="n">
         <v>0.5689302</v>
@@ -28771,7 +29299,7 @@
         <v>161</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="D126" s="2" t="n">
         <v>0.6197108</v>
@@ -29083,7 +29611,7 @@
         <v>170</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="D138" s="2" t="n">
         <v>0.3957292</v>
@@ -29213,7 +29741,7 @@
         <v>183</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="D143" s="2" t="n">
         <v>1.1999426</v>
@@ -29661,7 +30189,7 @@
         <v>197</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="D159" s="2" t="n">
         <v>0.295909</v>
@@ -29885,7 +30413,7 @@
         <v>208</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="D167" s="2" t="n">
         <v>0.4000132</v>
@@ -30025,7 +30553,7 @@
         <v>216</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="D172" s="2" t="n">
         <v>0.3234768</v>
@@ -30109,7 +30637,7 @@
         <v>216</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="D175" s="2" t="n">
         <v>0.3166722</v>
@@ -30165,7 +30693,7 @@
         <v>216</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="D177" s="2" t="n">
         <v>0.3405566</v>
@@ -30277,7 +30805,7 @@
         <v>227</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="D181" s="2" t="n">
         <v>0.358663</v>
@@ -30361,7 +30889,7 @@
         <v>228</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="D184" s="2" t="n">
         <v>0.4261214</v>
@@ -30389,7 +30917,7 @@
         <v>231</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D185" s="2" t="n">
         <v>0.3895084</v>
@@ -30473,7 +31001,7 @@
         <v>235</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="D188" s="2" t="n">
         <v>0.295778</v>
@@ -30501,7 +31029,7 @@
         <v>235</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="D189" s="2" t="n">
         <v>0.3548348</v>
@@ -30529,7 +31057,7 @@
         <v>235</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="D190" s="2" t="n">
         <v>0.313661</v>
@@ -30669,7 +31197,7 @@
         <v>242</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D195" s="2" t="n">
         <v>0.374767</v>
@@ -30725,7 +31253,7 @@
         <v>246</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="D197" s="2" t="n">
         <v>0.3186188</v>
@@ -30753,7 +31281,7 @@
         <v>246</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="D198" s="2" t="n">
         <v>0.389133</v>
@@ -30865,7 +31393,7 @@
         <v>249</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="D202" s="2" t="n">
         <v>0.313982</v>
@@ -31145,7 +31673,7 @@
         <v>263</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="D212" s="2" t="n">
         <v>0.302686</v>
@@ -31201,7 +31729,7 @@
         <v>263</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="D214" s="2" t="n">
         <v>0.3648386</v>
@@ -31285,7 +31813,7 @@
         <v>267</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="D217" s="2" t="n">
         <v>0.4100988</v>
@@ -31341,7 +31869,7 @@
         <v>271</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="D219" s="2" t="n">
         <v>0.4394846</v>
@@ -31369,7 +31897,7 @@
         <v>271</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="D220" s="2" t="n">
         <v>0.406968</v>
@@ -31509,7 +32037,7 @@
         <v>276</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="D225" s="2" t="n">
         <v>0.9309204</v>
@@ -31593,7 +32121,7 @@
         <v>282</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="D228" s="2" t="n">
         <v>1.3197092</v>
@@ -31733,7 +32261,7 @@
         <v>285</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="D233" s="2" t="n">
         <v>1.93539</v>
@@ -31761,7 +32289,7 @@
         <v>288</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="D234" s="2" t="n">
         <v>1.2197114</v>
@@ -31789,7 +32317,7 @@
         <v>288</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="D235" s="2" t="n">
         <v>0.718877</v>
@@ -31817,7 +32345,7 @@
         <v>288</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D236" s="2" t="n">
         <v>0.677923</v>
@@ -31845,7 +32373,7 @@
         <v>291</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="D237" s="2" t="n">
         <v>0.6190238</v>
@@ -31873,7 +32401,7 @@
         <v>291</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="D238" s="2" t="n">
         <v>0.72822</v>
@@ -31957,7 +32485,7 @@
         <v>294</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="D241" s="2" t="n">
         <v>1.2253808</v>
@@ -32013,7 +32541,7 @@
         <v>297</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="D243" s="2" t="n">
         <v>1.3338492</v>
@@ -32041,7 +32569,7 @@
         <v>297</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="D244" s="2" t="n">
         <v>1.139152</v>
@@ -32069,7 +32597,7 @@
         <v>297</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="D245" s="2" t="n">
         <v>1.3185088</v>
@@ -32265,7 +32793,7 @@
         <v>309</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="D252" s="2" t="n">
         <v>1.5462522</v>
@@ -32293,7 +32821,7 @@
         <v>309</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="D253" s="2" t="n">
         <v>1.1359782</v>
@@ -32321,7 +32849,7 @@
         <v>309</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="D254" s="2" t="n">
         <v>1.9068204</v>
@@ -32349,7 +32877,7 @@
         <v>313</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="D255" s="2" t="n">
         <v>0.7759672</v>
@@ -32377,7 +32905,7 @@
         <v>313</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="D256" s="2" t="n">
         <v>0.796901</v>
@@ -32405,7 +32933,7 @@
         <v>313</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="D257" s="2" t="n">
         <v>0.886213</v>
@@ -32461,7 +32989,7 @@
         <v>317</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="D259" s="2" t="n">
         <v>1.2655732</v>
@@ -32489,7 +33017,7 @@
         <v>317</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="D260" s="2" t="n">
         <v>1.418487</v>
@@ -32545,7 +33073,7 @@
         <v>319</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="D262" s="2" t="n">
         <v>0.7384096</v>
@@ -32685,7 +33213,7 @@
         <v>327</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="D267" s="2" t="n">
         <v>0.682399</v>
@@ -32881,7 +33409,7 @@
         <v>331</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="D274" s="2" t="n">
         <v>0.6325376</v>
@@ -32909,7 +33437,7 @@
         <v>331</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="D275" s="2" t="n">
         <v>0.7121288</v>
@@ -33049,7 +33577,7 @@
         <v>333</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="D280" s="2" t="n">
         <v>0.6527698</v>
@@ -33077,7 +33605,7 @@
         <v>333</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="D281" s="2" t="n">
         <v>0.7653444</v>
@@ -33105,7 +33633,7 @@
         <v>336</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="D282" s="2" t="n">
         <v>0.585329</v>
@@ -33161,7 +33689,7 @@
         <v>336</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="D284" s="2" t="n">
         <v>0.8150382</v>
@@ -33189,7 +33717,7 @@
         <v>340</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="D285" s="2" t="n">
         <v>0.971585</v>
@@ -33217,7 +33745,7 @@
         <v>340</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="D286" s="2" t="n">
         <v>0.7461152</v>
@@ -33245,7 +33773,7 @@
         <v>340</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="D287" s="2" t="n">
         <v>0.650945</v>
@@ -33385,7 +33913,7 @@
         <v>347</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="D292" s="2" t="n">
         <v>0.6690088</v>
@@ -33441,7 +33969,7 @@
         <v>350</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="D294" s="2" t="n">
         <v>0.5851698</v>
@@ -33497,7 +34025,7 @@
         <v>350</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="D296" s="2" t="n">
         <v>0.6530738</v>
@@ -33609,7 +34137,7 @@
         <v>353</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="D300" s="2" t="n">
         <v>0.7284484</v>
@@ -33637,7 +34165,7 @@
         <v>353</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="D301" s="2" t="n">
         <v>0.8258526</v>
@@ -33693,7 +34221,7 @@
         <v>356</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="D303" s="2" t="n">
         <v>0.6179646</v>
@@ -33721,7 +34249,7 @@
         <v>356</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="D304" s="2" t="n">
         <v>0.6414728</v>
@@ -33805,7 +34333,7 @@
         <v>360</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="D307" s="2" t="n">
         <v>0.5738846</v>
@@ -33833,7 +34361,7 @@
         <v>360</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="D308" s="2" t="n">
         <v>0.7374152</v>
@@ -33945,7 +34473,7 @@
         <v>365</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="D312" s="2" t="n">
         <v>0.4729554</v>
@@ -34001,7 +34529,7 @@
         <v>365</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="D314" s="2" t="n">
         <v>0.4964624</v>
@@ -34029,7 +34557,7 @@
         <v>367</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="D315" s="2" t="n">
         <v>0.4964188</v>
@@ -34225,7 +34753,7 @@
         <v>375</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="D322" s="2" t="n">
         <v>0.442656</v>
@@ -34253,7 +34781,7 @@
         <v>375</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="D323" s="2" t="n">
         <v>0.566659</v>
@@ -34337,7 +34865,7 @@
         <v>376</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="D326" s="2" t="n">
         <v>0.5812864</v>
@@ -34449,7 +34977,7 @@
         <v>382</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="D330" s="2" t="n">
         <v>0.6586386</v>
@@ -34533,7 +35061,7 @@
         <v>384</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>612</v>
+        <v>555</v>
       </c>
       <c r="D333" s="2" t="n">
         <v>0.5722014</v>
@@ -34617,7 +35145,7 @@
         <v>388</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="D336" s="2" t="n">
         <v>0.4888858</v>
@@ -34701,7 +35229,7 @@
         <v>392</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="D339" s="2" t="n">
         <v>0.6414728</v>
@@ -34729,7 +35257,7 @@
         <v>392</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="D340" s="2" t="n">
         <v>0.6574688</v>
@@ -34757,7 +35285,7 @@
         <v>392</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D341" s="2" t="n">
         <v>0.677923</v>
@@ -34953,7 +35481,7 @@
         <v>396</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>536</v>
+        <v>458</v>
       </c>
       <c r="D348" s="2" t="n">
         <v>0.4571946</v>
@@ -35065,7 +35593,7 @@
         <v>401</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D352" s="2" t="n">
         <v>0.4574978</v>
@@ -35149,7 +35677,7 @@
         <v>404</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="D355" s="2" t="n">
         <v>0.487551</v>
@@ -35177,7 +35705,7 @@
         <v>404</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="D356" s="2" t="n">
         <v>0.477248</v>
@@ -35345,7 +35873,7 @@
         <v>409</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="D362" s="2" t="n">
         <v>0.6655096</v>
@@ -35401,7 +35929,7 @@
         <v>413</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="D364" s="2" t="n">
         <v>0.4052278</v>
@@ -35429,7 +35957,7 @@
         <v>413</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="D365" s="2" t="n">
         <v>0.5533558</v>
@@ -35457,7 +35985,7 @@
         <v>413</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="D366" s="2" t="n">
         <v>0.4890346</v>
@@ -35541,7 +36069,7 @@
         <v>417</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D369" s="2" t="n">
         <v>0.3139382</v>
@@ -35569,7 +36097,7 @@
         <v>420</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="D370" s="2" t="n">
         <v>0.390865</v>
@@ -35597,7 +36125,7 @@
         <v>420</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="D371" s="2" t="n">
         <v>0.4438434</v>
@@ -35653,7 +36181,7 @@
         <v>423</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>621</v>
+        <v>460</v>
       </c>
       <c r="D373" s="2" t="n">
         <v>0.5090138</v>
@@ -35709,7 +36237,7 @@
         <v>423</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>622</v>
+        <v>554</v>
       </c>
       <c r="D375" s="2" t="n">
         <v>0.4660964</v>
@@ -35765,7 +36293,7 @@
         <v>425</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="D377" s="2" t="n">
         <v>0.516373</v>
@@ -35933,7 +36461,7 @@
         <v>429</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="D383" s="2" t="n">
         <v>0.491538</v>
@@ -36017,7 +36545,7 @@
         <v>431</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="D386" s="2" t="n">
         <v>0.8864982</v>
@@ -36045,7 +36573,7 @@
         <v>431</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="D387" s="2" t="n">
         <v>0.3870754</v>
@@ -36213,7 +36741,7 @@
         <v>438</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="D393" s="2" t="n">
         <v>0.5330274</v>
@@ -36325,7 +36853,7 @@
         <v>443</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="D397" s="2" t="n">
         <v>0.5570532</v>
@@ -36409,7 +36937,7 @@
         <v>447</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="D400" s="2" t="n">
         <v>0.4808822</v>
@@ -36437,7 +36965,7 @@
         <v>447</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="D401" s="2" t="n">
         <v>0.516833</v>
@@ -36465,7 +36993,7 @@
         <v>447</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="D402" s="2" t="n">
         <v>0.4596934</v>
@@ -36605,7 +37133,7 @@
         <v>453</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="D407" s="2" t="n">
         <v>0.4115694</v>
@@ -36633,7 +37161,7 @@
         <v>453</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D408" s="2" t="n">
         <v>0.44833</v>
@@ -36652,6 +37180,258 @@
       </c>
       <c r="I408" s="2"/>
       <c r="J408" s="2"/>
+    </row>
+    <row r="409" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A409" s="2" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D409" s="2" t="n">
+        <v>0.5214524</v>
+      </c>
+      <c r="E409" s="2" t="n">
+        <v>0.6416462</v>
+      </c>
+      <c r="F409" s="2" t="n">
+        <v>0.6258464</v>
+      </c>
+      <c r="G409" s="2" t="n">
+        <v>0.7633418</v>
+      </c>
+      <c r="H409" s="2" t="n">
+        <v>0.6971102</v>
+      </c>
+      <c r="I409" s="2"/>
+      <c r="J409" s="2"/>
+    </row>
+    <row r="410" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A410" s="2" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D410" s="2" t="n">
+        <v>0.5503418</v>
+      </c>
+      <c r="E410" s="2" t="n">
+        <v>0.622711</v>
+      </c>
+      <c r="F410" s="2" t="n">
+        <v>0.6406598</v>
+      </c>
+      <c r="G410" s="2" t="n">
+        <v>0.7155998</v>
+      </c>
+      <c r="H410" s="2" t="n">
+        <v>0.635638</v>
+      </c>
+      <c r="I410" s="2"/>
+      <c r="J410" s="2"/>
+    </row>
+    <row r="411" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A411" s="2" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D411" s="2" t="n">
+        <v>0.4710798</v>
+      </c>
+      <c r="E411" s="2" t="n">
+        <v>0.6054352</v>
+      </c>
+      <c r="F411" s="2" t="n">
+        <v>0.6141848</v>
+      </c>
+      <c r="G411" s="2" t="n">
+        <v>0.8173382</v>
+      </c>
+      <c r="H411" s="2" t="n">
+        <v>0.6443164</v>
+      </c>
+      <c r="I411" s="2"/>
+      <c r="J411" s="2"/>
+    </row>
+    <row r="412" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A412" s="2" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D412" s="2" t="n">
+        <v>0.4369076</v>
+      </c>
+      <c r="E412" s="2" t="n">
+        <v>0.5582468</v>
+      </c>
+      <c r="F412" s="2" t="n">
+        <v>0.6995192</v>
+      </c>
+      <c r="G412" s="2" t="n">
+        <v>1.2514612</v>
+      </c>
+      <c r="H412" s="2" t="n">
+        <v>0.8655922</v>
+      </c>
+      <c r="I412" s="2"/>
+      <c r="J412" s="2"/>
+    </row>
+    <row r="413" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A413" s="2" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D413" s="2" t="n">
+        <v>0.5227878</v>
+      </c>
+      <c r="E413" s="2" t="n">
+        <v>0.6726744</v>
+      </c>
+      <c r="F413" s="2" t="n">
+        <v>0.8321382</v>
+      </c>
+      <c r="G413" s="2" t="n">
+        <v>0.7422866</v>
+      </c>
+      <c r="H413" s="2" t="n">
+        <v>0.6481352</v>
+      </c>
+      <c r="I413" s="2"/>
+      <c r="J413" s="2"/>
+    </row>
+    <row r="414" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A414" s="2" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D414" s="2" t="n">
+        <v>0.5091398</v>
+      </c>
+      <c r="E414" s="2" t="n">
+        <v>0.5933734</v>
+      </c>
+      <c r="F414" s="2" t="n">
+        <v>0.967002</v>
+      </c>
+      <c r="G414" s="2" t="n">
+        <v>0.7627396</v>
+      </c>
+      <c r="H414" s="2" t="n">
+        <v>0.6832042</v>
+      </c>
+      <c r="I414" s="2"/>
+      <c r="J414" s="2"/>
+    </row>
+    <row r="415" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="2" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D415" s="2" t="n">
+        <v>0.5566836</v>
+      </c>
+      <c r="E415" s="2" t="n">
+        <v>0.6977118</v>
+      </c>
+      <c r="F415" s="2" t="n">
+        <v>0.6281754</v>
+      </c>
+      <c r="G415" s="2" t="n">
+        <v>0.7791234</v>
+      </c>
+      <c r="H415" s="2" t="n">
+        <v>0.6408932</v>
+      </c>
+      <c r="I415" s="2"/>
+      <c r="J415" s="2"/>
+    </row>
+    <row r="416" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="2" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D416" s="2" t="n">
+        <v>0.4935468</v>
+      </c>
+      <c r="E416" s="2" t="n">
+        <v>0.5450634</v>
+      </c>
+      <c r="F416" s="2" t="n">
+        <v>0.5549618</v>
+      </c>
+      <c r="G416" s="2" t="n">
+        <v>0.7172992</v>
+      </c>
+      <c r="H416" s="2" t="n">
+        <v>0.5827236</v>
+      </c>
+      <c r="I416" s="2"/>
+      <c r="J416" s="2"/>
+    </row>
+    <row r="417" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="2" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D417" s="2" t="n">
+        <v>0.3987938</v>
+      </c>
+      <c r="E417" s="2" t="n">
+        <v>0.510659</v>
+      </c>
+      <c r="F417" s="2" t="n">
+        <v>0.5414726</v>
+      </c>
+      <c r="G417" s="2" t="n">
+        <v>0.6592016</v>
+      </c>
+      <c r="H417" s="2" t="n">
+        <v>0.5533208</v>
+      </c>
+      <c r="I417" s="2"/>
+      <c r="J417" s="2"/>
     </row>
     <row r="1048556" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048557" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -36692,8 +37472,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A387" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D410" activeCellId="0" sqref="D410"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A401" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A417" activeCellId="0" sqref="A417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36745,7 +37525,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>3.4656902</v>
@@ -36771,7 +37551,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>4.0852622</v>
@@ -36797,7 +37577,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>2.9817282</v>
@@ -36823,7 +37603,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>3.2355116</v>
@@ -36927,7 +37707,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>3.5561424</v>
@@ -36979,7 +37759,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>3.8741284</v>
@@ -37005,7 +37785,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>3.5923944</v>
@@ -37109,7 +37889,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>4.2818632</v>
@@ -37239,7 +38019,7 @@
         <v>36</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>2.9089418</v>
@@ -37369,7 +38149,7 @@
         <v>40</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>3.822524</v>
@@ -37395,7 +38175,7 @@
         <v>40</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>3.2866498</v>
@@ -37421,7 +38201,7 @@
         <v>40</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>3.8178666</v>
@@ -37473,7 +38253,7 @@
         <v>47</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>3.0702744</v>
@@ -37629,7 +38409,7 @@
         <v>54</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>3.2355116</v>
@@ -37681,7 +38461,7 @@
         <v>57</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>4.4183598</v>
@@ -37837,7 +38617,7 @@
         <v>65</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>3.8775138</v>
@@ -37889,7 +38669,7 @@
         <v>65</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>3.8538836</v>
@@ -38019,7 +38799,7 @@
         <v>73</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>4.7661336</v>
@@ -38045,7 +38825,7 @@
         <v>73</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="D52" s="2" t="n">
         <v>4.1553188</v>
@@ -38071,7 +38851,7 @@
         <v>77</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="D53" s="2" t="n">
         <v>4.4161086</v>
@@ -38097,7 +38877,7 @@
         <v>77</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="D54" s="2" t="n">
         <v>3.9109934</v>
@@ -38149,7 +38929,7 @@
         <v>81</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="D56" s="2" t="n">
         <v>3.4861618</v>
@@ -38201,7 +38981,7 @@
         <v>81</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="D58" s="2" t="n">
         <v>3.52287</v>
@@ -38461,7 +39241,7 @@
         <v>96</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>3.9888114</v>
@@ -38669,7 +39449,7 @@
         <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>4.5492628</v>
@@ -39111,7 +39891,7 @@
         <v>127</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="D93" s="2" t="n">
         <v>4.559301</v>
@@ -39215,7 +39995,7 @@
         <v>128</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="D97" s="2" t="n">
         <v>3.7013772</v>
@@ -39293,7 +40073,7 @@
         <v>132</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="D100" s="2" t="n">
         <v>4.1470936</v>
@@ -39319,7 +40099,7 @@
         <v>135</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="D101" s="2" t="n">
         <v>4.5941812</v>
@@ -39371,7 +40151,7 @@
         <v>135</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="D103" s="2" t="n">
         <v>4.2355866</v>
@@ -39475,7 +40255,7 @@
         <v>140</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="D107" s="2" t="n">
         <v>3.9397008</v>
@@ -39501,7 +40281,7 @@
         <v>140</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="D108" s="2" t="n">
         <v>3.8446282</v>
@@ -39527,7 +40307,7 @@
         <v>140</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="D109" s="2" t="n">
         <v>3.6811188</v>
@@ -39553,7 +40333,7 @@
         <v>143</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="D110" s="2" t="n">
         <v>4.0021732</v>
@@ -39969,7 +40749,7 @@
         <v>161</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="D126" s="2" t="n">
         <v>3.6994948</v>
@@ -40073,7 +40853,7 @@
         <v>165</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="D130" s="2" t="n">
         <v>4.1747286</v>
@@ -40099,7 +40879,7 @@
         <v>168</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D131" s="2" t="n">
         <v>3.529065</v>
@@ -40411,7 +41191,7 @@
         <v>183</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="D143" s="2" t="n">
         <v>3.6613182</v>
@@ -40523,7 +41303,7 @@
         <v>185</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="D147" s="2" t="n">
         <v>4.9899384</v>
@@ -40775,7 +41555,7 @@
         <v>193</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="D156" s="2" t="n">
         <v>3.6757588</v>
@@ -40859,7 +41639,7 @@
         <v>197</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="D159" s="2" t="n">
         <v>3.1456856</v>
@@ -40971,7 +41751,7 @@
         <v>204</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D163" s="2" t="n">
         <v>3.365378</v>
@@ -41083,7 +41863,7 @@
         <v>208</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="D167" s="2" t="n">
         <v>3.7039678</v>
@@ -41111,7 +41891,7 @@
         <v>208</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="D168" s="2" t="n">
         <v>3.7096014</v>
@@ -41139,7 +41919,7 @@
         <v>212</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D169" s="2" t="n">
         <v>5.4967574</v>
@@ -41195,7 +41975,7 @@
         <v>212</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="D171" s="2" t="n">
         <v>4.669323</v>
@@ -41391,7 +42171,7 @@
         <v>216</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="D178" s="2" t="n">
         <v>3.0646552</v>
@@ -41475,7 +42255,7 @@
         <v>227</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="D181" s="2" t="n">
         <v>0.9643054</v>
@@ -41531,7 +42311,7 @@
         <v>228</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="D183" s="2" t="n">
         <v>0.915316</v>
@@ -41559,7 +42339,7 @@
         <v>228</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="D184" s="2" t="n">
         <v>1.0040066</v>
@@ -41699,7 +42479,7 @@
         <v>235</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="D189" s="2" t="n">
         <v>0.7432314</v>
@@ -41727,7 +42507,7 @@
         <v>235</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="D190" s="2" t="n">
         <v>0.7282506</v>
@@ -41867,7 +42647,7 @@
         <v>242</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D195" s="2" t="n">
         <v>0.8169218</v>
@@ -41895,7 +42675,7 @@
         <v>242</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="D196" s="2" t="n">
         <v>1.073331</v>
@@ -41923,7 +42703,7 @@
         <v>246</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="D197" s="2" t="n">
         <v>3.6745186</v>
@@ -41951,7 +42731,7 @@
         <v>246</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="D198" s="2" t="n">
         <v>3.6868922</v>
@@ -42035,7 +42815,7 @@
         <v>249</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="D201" s="2" t="n">
         <v>3.7509906</v>
@@ -42063,7 +42843,7 @@
         <v>249</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="D202" s="2" t="n">
         <v>3.6990118</v>
@@ -42147,7 +42927,7 @@
         <v>251</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="D205" s="2" t="n">
         <v>3.5056148</v>
@@ -42343,7 +43123,7 @@
         <v>263</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="D212" s="2" t="n">
         <v>0.6447578</v>
@@ -42399,7 +43179,7 @@
         <v>263</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="D214" s="2" t="n">
         <v>0.9167192</v>
@@ -42567,7 +43347,7 @@
         <v>271</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="D220" s="2" t="n">
         <v>0.9251752</v>
@@ -42735,7 +43515,7 @@
         <v>278</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D226" s="2" t="n">
         <v>2.6990146</v>
@@ -42763,7 +43543,7 @@
         <v>278</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="D227" s="2" t="n">
         <v>2.7866846</v>
@@ -42819,7 +43599,7 @@
         <v>282</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="D229" s="2" t="n">
         <v>1.9206712</v>
@@ -42987,7 +43767,7 @@
         <v>288</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D235" s="2" t="n">
         <v>1.8179748</v>
@@ -43015,7 +43795,7 @@
         <v>288</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="D236" s="2" t="n">
         <v>1.8229778</v>
@@ -43071,7 +43851,7 @@
         <v>291</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="D238" s="2" t="n">
         <v>0.9822748</v>
@@ -43099,7 +43879,7 @@
         <v>291</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="D239" s="2" t="n">
         <v>1.2047334</v>
@@ -43183,7 +43963,7 @@
         <v>294</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D242" s="2" t="n">
         <v>1.595638</v>
@@ -43211,7 +43991,7 @@
         <v>297</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="D243" s="2" t="n">
         <v>1.550705</v>
@@ -43239,7 +44019,7 @@
         <v>297</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D244" s="2" t="n">
         <v>1.733405</v>
@@ -43267,7 +44047,7 @@
         <v>297</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D245" s="2" t="n">
         <v>1.762443</v>
@@ -43323,7 +44103,7 @@
         <v>301</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="D247" s="2" t="n">
         <v>1.9096182</v>
@@ -43351,7 +44131,7 @@
         <v>301</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="D248" s="2" t="n">
         <v>1.5183776</v>
@@ -43379,7 +44159,7 @@
         <v>305</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D249" s="2" t="n">
         <v>1.9230312</v>
@@ -43407,7 +44187,7 @@
         <v>305</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D250" s="2" t="n">
         <v>1.9616156</v>
@@ -43463,7 +44243,7 @@
         <v>309</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="D252" s="2" t="n">
         <v>1.6314788</v>
@@ -43491,7 +44271,7 @@
         <v>309</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="D253" s="2" t="n">
         <v>1.4673412</v>
@@ -43519,7 +44299,7 @@
         <v>309</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D254" s="2" t="n">
         <v>1.6703708</v>
@@ -43547,7 +44327,7 @@
         <v>313</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="D255" s="2" t="n">
         <v>1.491883</v>
@@ -43575,7 +44355,7 @@
         <v>313</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="D256" s="2" t="n">
         <v>1.4376204</v>
@@ -43603,7 +44383,7 @@
         <v>313</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="D257" s="2" t="n">
         <v>1.3038182</v>
@@ -43631,7 +44411,7 @@
         <v>317</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D258" s="2" t="n">
         <v>1.44942</v>
@@ -43659,7 +44439,7 @@
         <v>317</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="D259" s="2" t="n">
         <v>1.7961676</v>
@@ -43687,7 +44467,7 @@
         <v>317</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="D260" s="2" t="n">
         <v>1.76271</v>
@@ -43715,7 +44495,7 @@
         <v>319</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D261" s="2" t="n">
         <v>1.7891326</v>
@@ -43743,7 +44523,7 @@
         <v>319</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="D262" s="2" t="n">
         <v>1.669088</v>
@@ -43771,7 +44551,7 @@
         <v>319</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="D263" s="2" t="n">
         <v>1.4909798</v>
@@ -43995,7 +44775,7 @@
         <v>329</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="D271" s="2" t="n">
         <v>1.5375802</v>
@@ -44051,7 +44831,7 @@
         <v>331</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D273" s="2" t="n">
         <v>1.3638702</v>
@@ -44079,7 +44859,7 @@
         <v>331</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="D274" s="2" t="n">
         <v>1.263996</v>
@@ -44107,7 +44887,7 @@
         <v>331</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="D275" s="2" t="n">
         <v>1.2279214</v>
@@ -44247,7 +45027,7 @@
         <v>333</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="D280" s="2" t="n">
         <v>1.124852</v>
@@ -44303,7 +45083,7 @@
         <v>336</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="D282" s="2" t="n">
         <v>1.6275754</v>
@@ -44331,7 +45111,7 @@
         <v>336</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="D283" s="2" t="n">
         <v>1.5708768</v>
@@ -44359,7 +45139,7 @@
         <v>336</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="D284" s="2" t="n">
         <v>1.6431544</v>
@@ -44415,7 +45195,7 @@
         <v>340</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="D286" s="2" t="n">
         <v>1.4122034</v>
@@ -44443,7 +45223,7 @@
         <v>340</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="D287" s="2" t="n">
         <v>1.4755902</v>
@@ -44527,7 +45307,7 @@
         <v>344</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="D290" s="2" t="n">
         <v>1.3500846</v>
@@ -44555,7 +45335,7 @@
         <v>347</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="D291" s="2" t="n">
         <v>1.4293406</v>
@@ -44583,7 +45363,7 @@
         <v>347</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="D292" s="2" t="n">
         <v>1.4329594</v>
@@ -44611,7 +45391,7 @@
         <v>347</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>612</v>
+        <v>555</v>
       </c>
       <c r="D293" s="2" t="n">
         <v>1.450452</v>
@@ -44667,7 +45447,7 @@
         <v>350</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="D295" s="2" t="n">
         <v>1.3541134</v>
@@ -44695,7 +45475,7 @@
         <v>350</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="D296" s="2" t="n">
         <v>1.6232472</v>
@@ -44863,7 +45643,7 @@
         <v>353</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="D302" s="2" t="n">
         <v>1.4532946</v>
@@ -44919,7 +45699,7 @@
         <v>356</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="D304" s="2" t="n">
         <v>1.7953464</v>
@@ -44975,7 +45755,7 @@
         <v>360</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="D306" s="2" t="n">
         <v>1.389861</v>
@@ -45003,7 +45783,7 @@
         <v>360</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="D307" s="2" t="n">
         <v>1.2307954</v>
@@ -45031,7 +45811,7 @@
         <v>360</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="D308" s="2" t="n">
         <v>1.254881</v>
@@ -45311,7 +46091,7 @@
         <v>371</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="D318" s="2" t="n">
         <v>1.2248766</v>
@@ -45339,7 +46119,7 @@
         <v>371</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="D319" s="2" t="n">
         <v>1.2212258</v>
@@ -45367,7 +46147,7 @@
         <v>371</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="D320" s="2" t="n">
         <v>1.1989604</v>
@@ -45507,7 +46287,7 @@
         <v>376</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="D325" s="2" t="n">
         <v>1.0624674</v>
@@ -45535,7 +46315,7 @@
         <v>376</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="D326" s="2" t="n">
         <v>1.0858874</v>
@@ -45563,7 +46343,7 @@
         <v>378</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="D327" s="2" t="n">
         <v>1.3795824</v>
@@ -45591,7 +46371,7 @@
         <v>378</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="D328" s="2" t="n">
         <v>1.2367146</v>
@@ -45619,7 +46399,7 @@
         <v>378</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D329" s="2" t="n">
         <v>1.2427274</v>
@@ -45675,7 +46455,7 @@
         <v>382</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="D331" s="2" t="n">
         <v>1.5469018</v>
@@ -45731,7 +46511,7 @@
         <v>384</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>612</v>
+        <v>555</v>
       </c>
       <c r="D333" s="2" t="n">
         <v>1.1511158</v>
@@ -45815,7 +46595,7 @@
         <v>388</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="D336" s="2" t="n">
         <v>1.2621662</v>
@@ -45871,7 +46651,7 @@
         <v>388</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="D338" s="2" t="n">
         <v>1.2845608</v>
@@ -45927,7 +46707,7 @@
         <v>392</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D340" s="2" t="n">
         <v>1.8179748</v>
@@ -45955,7 +46735,7 @@
         <v>392</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="D341" s="2" t="n">
         <v>1.8229778</v>
@@ -46039,22 +46819,22 @@
         <v>394</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D344" s="2" t="n">
-        <v>1.094811</v>
+        <v>1.433895</v>
       </c>
       <c r="E344" s="2" t="n">
-        <v>1.5690192</v>
+        <v>1.7777638</v>
       </c>
       <c r="F344" s="2" t="n">
-        <v>0.9708546</v>
+        <v>1.4044314</v>
       </c>
       <c r="G344" s="2" t="n">
-        <v>2.2128324</v>
+        <v>2.734795</v>
       </c>
       <c r="H344" s="2" t="n">
-        <v>1.3228134</v>
+        <v>1.5413656</v>
       </c>
       <c r="I344" s="2"/>
       <c r="J344" s="2"/>
@@ -46064,25 +46844,25 @@
         <v>343</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="D345" s="2" t="n">
-        <v>1.433895</v>
+        <v>1.2189028</v>
       </c>
       <c r="E345" s="2" t="n">
-        <v>1.7777638</v>
+        <v>2.4113682</v>
       </c>
       <c r="F345" s="2" t="n">
-        <v>1.4044314</v>
+        <v>2.4869526</v>
       </c>
       <c r="G345" s="2" t="n">
-        <v>2.734795</v>
+        <v>2.720744</v>
       </c>
       <c r="H345" s="2" t="n">
-        <v>1.5413656</v>
+        <v>1.4514522</v>
       </c>
       <c r="I345" s="2"/>
       <c r="J345" s="2"/>
@@ -46095,22 +46875,22 @@
         <v>396</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>398</v>
+        <v>458</v>
       </c>
       <c r="D346" s="2" t="n">
-        <v>1.2189028</v>
+        <v>1.9025118</v>
       </c>
       <c r="E346" s="2" t="n">
-        <v>2.4113682</v>
+        <v>1.7694342</v>
       </c>
       <c r="F346" s="2" t="n">
-        <v>2.4869526</v>
+        <v>1.4979214</v>
       </c>
       <c r="G346" s="2" t="n">
-        <v>2.720744</v>
+        <v>2.1941674</v>
       </c>
       <c r="H346" s="2" t="n">
-        <v>1.4514522</v>
+        <v>1.764758</v>
       </c>
       <c r="I346" s="2"/>
       <c r="J346" s="2"/>
@@ -46123,22 +46903,22 @@
         <v>396</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>536</v>
+        <v>460</v>
       </c>
       <c r="D347" s="2" t="n">
-        <v>1.9025118</v>
+        <v>1.8527084</v>
       </c>
       <c r="E347" s="2" t="n">
-        <v>1.7694342</v>
+        <v>1.8604678</v>
       </c>
       <c r="F347" s="2" t="n">
-        <v>1.4979214</v>
+        <v>1.4656094</v>
       </c>
       <c r="G347" s="2" t="n">
-        <v>2.1941674</v>
+        <v>2.2043024</v>
       </c>
       <c r="H347" s="2" t="n">
-        <v>1.764758</v>
+        <v>1.474152</v>
       </c>
       <c r="I347" s="2"/>
       <c r="J347" s="2"/>
@@ -46148,25 +46928,25 @@
         <v>346</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>621</v>
+        <v>229</v>
       </c>
       <c r="D348" s="2" t="n">
-        <v>1.8527084</v>
+        <v>1.1074566</v>
       </c>
       <c r="E348" s="2" t="n">
-        <v>1.8604678</v>
+        <v>1.8943826</v>
       </c>
       <c r="F348" s="2" t="n">
-        <v>1.4656094</v>
+        <v>1.1167294</v>
       </c>
       <c r="G348" s="2" t="n">
-        <v>2.2043024</v>
+        <v>2.4294608</v>
       </c>
       <c r="H348" s="2" t="n">
-        <v>1.474152</v>
+        <v>1.382104</v>
       </c>
       <c r="I348" s="2"/>
       <c r="J348" s="2"/>
@@ -46179,22 +46959,22 @@
         <v>400</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="D349" s="2" t="n">
-        <v>1.1074566</v>
+        <v>1.0803504</v>
       </c>
       <c r="E349" s="2" t="n">
-        <v>1.8943826</v>
+        <v>1.4264342</v>
       </c>
       <c r="F349" s="2" t="n">
-        <v>1.1167294</v>
+        <v>1.1985182</v>
       </c>
       <c r="G349" s="2" t="n">
-        <v>2.4294608</v>
+        <v>2.153699</v>
       </c>
       <c r="H349" s="2" t="n">
-        <v>1.382104</v>
+        <v>1.2604338</v>
       </c>
       <c r="I349" s="2"/>
       <c r="J349" s="2"/>
@@ -46207,22 +46987,22 @@
         <v>400</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="D350" s="2" t="n">
-        <v>1.0803504</v>
+        <v>0.9352112</v>
       </c>
       <c r="E350" s="2" t="n">
-        <v>1.4264342</v>
+        <v>1.5018344</v>
       </c>
       <c r="F350" s="2" t="n">
-        <v>1.1985182</v>
+        <v>1.1170254</v>
       </c>
       <c r="G350" s="2" t="n">
-        <v>2.153699</v>
+        <v>1.8819306</v>
       </c>
       <c r="H350" s="2" t="n">
-        <v>1.2604338</v>
+        <v>1.7298044</v>
       </c>
       <c r="I350" s="2"/>
       <c r="J350" s="2"/>
@@ -46232,25 +47012,25 @@
         <v>349</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>202</v>
+        <v>403</v>
       </c>
       <c r="D351" s="2" t="n">
-        <v>0.9352112</v>
+        <v>1.1386732</v>
       </c>
       <c r="E351" s="2" t="n">
-        <v>1.5018344</v>
+        <v>1.5746814</v>
       </c>
       <c r="F351" s="2" t="n">
-        <v>1.1170254</v>
+        <v>1.317308</v>
       </c>
       <c r="G351" s="2" t="n">
-        <v>1.8819306</v>
+        <v>1.946071</v>
       </c>
       <c r="H351" s="2" t="n">
-        <v>1.7298044</v>
+        <v>1.4484598</v>
       </c>
       <c r="I351" s="2"/>
       <c r="J351" s="2"/>
@@ -46263,22 +47043,22 @@
         <v>401</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>403</v>
+        <v>232</v>
       </c>
       <c r="D352" s="2" t="n">
-        <v>1.1386732</v>
+        <v>1.1992254</v>
       </c>
       <c r="E352" s="2" t="n">
-        <v>1.5746814</v>
+        <v>1.3468708</v>
       </c>
       <c r="F352" s="2" t="n">
-        <v>1.317308</v>
+        <v>1.4428082</v>
       </c>
       <c r="G352" s="2" t="n">
-        <v>1.946071</v>
+        <v>2.049923</v>
       </c>
       <c r="H352" s="2" t="n">
-        <v>1.4484598</v>
+        <v>1.428557</v>
       </c>
       <c r="I352" s="2"/>
       <c r="J352" s="2"/>
@@ -46291,22 +47071,22 @@
         <v>401</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>232</v>
+        <v>593</v>
       </c>
       <c r="D353" s="2" t="n">
-        <v>1.1992254</v>
+        <v>1.2738502</v>
       </c>
       <c r="E353" s="2" t="n">
-        <v>1.3468708</v>
+        <v>1.5886482</v>
       </c>
       <c r="F353" s="2" t="n">
-        <v>1.4428082</v>
+        <v>1.2576196</v>
       </c>
       <c r="G353" s="2" t="n">
-        <v>2.049923</v>
+        <v>2.120958</v>
       </c>
       <c r="H353" s="2" t="n">
-        <v>1.428557</v>
+        <v>1.341523</v>
       </c>
       <c r="I353" s="2"/>
       <c r="J353" s="2"/>
@@ -46316,25 +47096,25 @@
         <v>352</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>586</v>
+        <v>668</v>
       </c>
       <c r="D354" s="2" t="n">
-        <v>1.2738502</v>
+        <v>1.5006246</v>
       </c>
       <c r="E354" s="2" t="n">
-        <v>1.5886482</v>
+        <v>1.4870642</v>
       </c>
       <c r="F354" s="2" t="n">
-        <v>1.2576196</v>
+        <v>1.5232542</v>
       </c>
       <c r="G354" s="2" t="n">
-        <v>2.120958</v>
+        <v>2.071796</v>
       </c>
       <c r="H354" s="2" t="n">
-        <v>1.341523</v>
+        <v>1.4993744</v>
       </c>
       <c r="I354" s="2"/>
       <c r="J354" s="2"/>
@@ -46347,22 +47127,22 @@
         <v>404</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="D355" s="2" t="n">
-        <v>1.5006246</v>
+        <v>1.6885894</v>
       </c>
       <c r="E355" s="2" t="n">
-        <v>1.4870642</v>
+        <v>1.5923456</v>
       </c>
       <c r="F355" s="2" t="n">
-        <v>1.5232542</v>
+        <v>1.231418</v>
       </c>
       <c r="G355" s="2" t="n">
-        <v>2.071796</v>
+        <v>2.0804818</v>
       </c>
       <c r="H355" s="2" t="n">
-        <v>1.4993744</v>
+        <v>1.3673504</v>
       </c>
       <c r="I355" s="2"/>
       <c r="J355" s="2"/>
@@ -46375,22 +47155,22 @@
         <v>404</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="D356" s="2" t="n">
-        <v>1.6885894</v>
+        <v>1.1057422</v>
       </c>
       <c r="E356" s="2" t="n">
-        <v>1.5923456</v>
+        <v>1.7349136</v>
       </c>
       <c r="F356" s="2" t="n">
-        <v>1.231418</v>
+        <v>1.8326376</v>
       </c>
       <c r="G356" s="2" t="n">
-        <v>2.0804818</v>
+        <v>2.8170214</v>
       </c>
       <c r="H356" s="2" t="n">
-        <v>1.3673504</v>
+        <v>1.7550628</v>
       </c>
       <c r="I356" s="2"/>
       <c r="J356" s="2"/>
@@ -46400,25 +47180,25 @@
         <v>355</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>666</v>
+        <v>352</v>
       </c>
       <c r="D357" s="2" t="n">
-        <v>1.1057422</v>
+        <v>1.1650418</v>
       </c>
       <c r="E357" s="2" t="n">
-        <v>1.7349136</v>
+        <v>1.6112942</v>
       </c>
       <c r="F357" s="2" t="n">
-        <v>1.8326376</v>
+        <v>1.0797694</v>
       </c>
       <c r="G357" s="2" t="n">
-        <v>2.8170214</v>
+        <v>2.1441518</v>
       </c>
       <c r="H357" s="2" t="n">
-        <v>1.7550628</v>
+        <v>1.4206424</v>
       </c>
       <c r="I357" s="2"/>
       <c r="J357" s="2"/>
@@ -46431,22 +47211,22 @@
         <v>408</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>352</v>
+        <v>252</v>
       </c>
       <c r="D358" s="2" t="n">
-        <v>1.1650418</v>
+        <v>1.0287834</v>
       </c>
       <c r="E358" s="2" t="n">
-        <v>1.6112942</v>
+        <v>1.5015312</v>
       </c>
       <c r="F358" s="2" t="n">
-        <v>1.0797694</v>
+        <v>1.2023444</v>
       </c>
       <c r="G358" s="2" t="n">
-        <v>2.1441518</v>
+        <v>2.0189708</v>
       </c>
       <c r="H358" s="2" t="n">
-        <v>1.4206424</v>
+        <v>1.4659106</v>
       </c>
       <c r="I358" s="2"/>
       <c r="J358" s="2"/>
@@ -46459,22 +47239,22 @@
         <v>408</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D359" s="2" t="n">
-        <v>1.0287834</v>
+        <v>1.0370094</v>
       </c>
       <c r="E359" s="2" t="n">
-        <v>1.5015312</v>
+        <v>1.5734404</v>
       </c>
       <c r="F359" s="2" t="n">
-        <v>1.2023444</v>
+        <v>1.1590172</v>
       </c>
       <c r="G359" s="2" t="n">
-        <v>2.0189708</v>
+        <v>2.0819272</v>
       </c>
       <c r="H359" s="2" t="n">
-        <v>1.4659106</v>
+        <v>1.2153392</v>
       </c>
       <c r="I359" s="2"/>
       <c r="J359" s="2"/>
@@ -46484,25 +47264,25 @@
         <v>358</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D360" s="2" t="n">
-        <v>1.0370094</v>
+        <v>1.1619302</v>
       </c>
       <c r="E360" s="2" t="n">
-        <v>1.5734404</v>
+        <v>1.3973718</v>
       </c>
       <c r="F360" s="2" t="n">
-        <v>1.1590172</v>
+        <v>1.3232884</v>
       </c>
       <c r="G360" s="2" t="n">
-        <v>2.0819272</v>
+        <v>2.5072664</v>
       </c>
       <c r="H360" s="2" t="n">
-        <v>1.2153392</v>
+        <v>1.5031604</v>
       </c>
       <c r="I360" s="2"/>
       <c r="J360" s="2"/>
@@ -46515,22 +47295,22 @@
         <v>409</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>245</v>
+        <v>622</v>
       </c>
       <c r="D361" s="2" t="n">
-        <v>1.1619302</v>
+        <v>1.120924</v>
       </c>
       <c r="E361" s="2" t="n">
-        <v>1.3973718</v>
+        <v>1.7307776</v>
       </c>
       <c r="F361" s="2" t="n">
-        <v>1.3232884</v>
+        <v>1.1832768</v>
       </c>
       <c r="G361" s="2" t="n">
-        <v>2.5072664</v>
+        <v>2.1819386</v>
       </c>
       <c r="H361" s="2" t="n">
-        <v>1.5031604</v>
+        <v>1.550745</v>
       </c>
       <c r="I361" s="2"/>
       <c r="J361" s="2"/>
@@ -46543,22 +47323,22 @@
         <v>409</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>616</v>
+        <v>320</v>
       </c>
       <c r="D362" s="2" t="n">
-        <v>1.120924</v>
+        <v>1.1963474</v>
       </c>
       <c r="E362" s="2" t="n">
-        <v>1.7307776</v>
+        <v>1.617757</v>
       </c>
       <c r="F362" s="2" t="n">
-        <v>1.1832768</v>
+        <v>1.1287288</v>
       </c>
       <c r="G362" s="2" t="n">
-        <v>2.1819386</v>
+        <v>2.0157536</v>
       </c>
       <c r="H362" s="2" t="n">
-        <v>1.550745</v>
+        <v>1.3026474</v>
       </c>
       <c r="I362" s="2"/>
       <c r="J362" s="2"/>
@@ -46568,25 +47348,25 @@
         <v>361</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>320</v>
+        <v>671</v>
       </c>
       <c r="D363" s="2" t="n">
-        <v>1.1963474</v>
+        <v>0.9027554</v>
       </c>
       <c r="E363" s="2" t="n">
-        <v>1.617757</v>
+        <v>1.7229768</v>
       </c>
       <c r="F363" s="2" t="n">
-        <v>1.1287288</v>
+        <v>1.055406</v>
       </c>
       <c r="G363" s="2" t="n">
-        <v>2.0157536</v>
+        <v>2.5961854</v>
       </c>
       <c r="H363" s="2" t="n">
-        <v>1.3026474</v>
+        <v>1.4096252</v>
       </c>
       <c r="I363" s="2"/>
       <c r="J363" s="2"/>
@@ -46599,22 +47379,22 @@
         <v>413</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>667</v>
+        <v>455</v>
       </c>
       <c r="D364" s="2" t="n">
-        <v>0.9027554</v>
+        <v>1.2770454</v>
       </c>
       <c r="E364" s="2" t="n">
-        <v>1.7229768</v>
+        <v>1.4561324</v>
       </c>
       <c r="F364" s="2" t="n">
-        <v>1.055406</v>
+        <v>1.5802622</v>
       </c>
       <c r="G364" s="2" t="n">
-        <v>2.5961854</v>
+        <v>2.5824766</v>
       </c>
       <c r="H364" s="2" t="n">
-        <v>1.4096252</v>
+        <v>1.3976158</v>
       </c>
       <c r="I364" s="2"/>
       <c r="J364" s="2"/>
@@ -46627,22 +47407,22 @@
         <v>413</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>455</v>
+        <v>552</v>
       </c>
       <c r="D365" s="2" t="n">
-        <v>1.2770454</v>
+        <v>1.1653586</v>
       </c>
       <c r="E365" s="2" t="n">
-        <v>1.4561324</v>
+        <v>1.3981698</v>
       </c>
       <c r="F365" s="2" t="n">
-        <v>1.5802622</v>
+        <v>1.2663126</v>
       </c>
       <c r="G365" s="2" t="n">
-        <v>2.5824766</v>
+        <v>2.1669184</v>
       </c>
       <c r="H365" s="2" t="n">
-        <v>1.3976158</v>
+        <v>1.2597338</v>
       </c>
       <c r="I365" s="2"/>
       <c r="J365" s="2"/>
@@ -46652,25 +47432,25 @@
         <v>364</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>547</v>
+        <v>71</v>
       </c>
       <c r="D366" s="2" t="n">
-        <v>1.1653586</v>
+        <v>1.107224</v>
       </c>
       <c r="E366" s="2" t="n">
-        <v>1.3981698</v>
+        <v>1.8594324</v>
       </c>
       <c r="F366" s="2" t="n">
-        <v>1.2663126</v>
+        <v>0.9810058</v>
       </c>
       <c r="G366" s="2" t="n">
-        <v>2.1669184</v>
+        <v>2.186584</v>
       </c>
       <c r="H366" s="2" t="n">
-        <v>1.2597338</v>
+        <v>1.2754528</v>
       </c>
       <c r="I366" s="2"/>
       <c r="J366" s="2"/>
@@ -46683,22 +47463,22 @@
         <v>417</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="D367" s="2" t="n">
-        <v>1.107224</v>
+        <v>1.06549</v>
       </c>
       <c r="E367" s="2" t="n">
-        <v>1.8594324</v>
+        <v>1.945039</v>
       </c>
       <c r="F367" s="2" t="n">
-        <v>0.9810058</v>
+        <v>1.1114584</v>
       </c>
       <c r="G367" s="2" t="n">
-        <v>2.186584</v>
+        <v>2.650027</v>
       </c>
       <c r="H367" s="2" t="n">
-        <v>1.2754528</v>
+        <v>1.3832382</v>
       </c>
       <c r="I367" s="2"/>
       <c r="J367" s="2"/>
@@ -46711,22 +47491,22 @@
         <v>417</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D368" s="2" t="n">
-        <v>1.06549</v>
+        <v>1.1250786</v>
       </c>
       <c r="E368" s="2" t="n">
-        <v>1.945039</v>
+        <v>1.9979272</v>
       </c>
       <c r="F368" s="2" t="n">
-        <v>1.1114584</v>
+        <v>1.004082</v>
       </c>
       <c r="G368" s="2" t="n">
-        <v>2.650027</v>
+        <v>2.744407</v>
       </c>
       <c r="H368" s="2" t="n">
-        <v>1.3832382</v>
+        <v>1.7333974</v>
       </c>
       <c r="I368" s="2"/>
       <c r="J368" s="2"/>
@@ -46736,25 +47516,25 @@
         <v>367</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>107</v>
+        <v>560</v>
       </c>
       <c r="D369" s="2" t="n">
-        <v>1.1250786</v>
+        <v>1.1774286</v>
       </c>
       <c r="E369" s="2" t="n">
-        <v>1.9979272</v>
+        <v>1.8115246</v>
       </c>
       <c r="F369" s="2" t="n">
-        <v>1.004082</v>
+        <v>1.1128654</v>
       </c>
       <c r="G369" s="2" t="n">
-        <v>2.744407</v>
+        <v>2.6176236</v>
       </c>
       <c r="H369" s="2" t="n">
-        <v>1.7333974</v>
+        <v>1.2618136</v>
       </c>
       <c r="I369" s="2"/>
       <c r="J369" s="2"/>
@@ -46767,22 +47547,22 @@
         <v>420</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>553</v>
+        <v>335</v>
       </c>
       <c r="D370" s="2" t="n">
-        <v>1.1774286</v>
+        <v>1.1295986</v>
       </c>
       <c r="E370" s="2" t="n">
-        <v>1.8115246</v>
+        <v>1.3550044</v>
       </c>
       <c r="F370" s="2" t="n">
-        <v>1.1128654</v>
+        <v>1.087876</v>
       </c>
       <c r="G370" s="2" t="n">
-        <v>2.6176236</v>
+        <v>2.8833854</v>
       </c>
       <c r="H370" s="2" t="n">
-        <v>1.2618136</v>
+        <v>1.196089</v>
       </c>
       <c r="I370" s="2"/>
       <c r="J370" s="2"/>
@@ -46795,22 +47575,22 @@
         <v>420</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>335</v>
+        <v>265</v>
       </c>
       <c r="D371" s="2" t="n">
-        <v>1.1295986</v>
+        <v>0.8930508</v>
       </c>
       <c r="E371" s="2" t="n">
-        <v>1.3550044</v>
+        <v>1.7306274</v>
       </c>
       <c r="F371" s="2" t="n">
-        <v>1.087876</v>
+        <v>1.331603</v>
       </c>
       <c r="G371" s="2" t="n">
-        <v>2.8833854</v>
+        <v>2.3647696</v>
       </c>
       <c r="H371" s="2" t="n">
-        <v>1.196089</v>
+        <v>1.3611754</v>
       </c>
       <c r="I371" s="2"/>
       <c r="J371" s="2"/>
@@ -46820,25 +47600,25 @@
         <v>370</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>265</v>
+        <v>672</v>
       </c>
       <c r="D372" s="2" t="n">
-        <v>0.8930508</v>
+        <v>1.1326118</v>
       </c>
       <c r="E372" s="2" t="n">
-        <v>1.7306274</v>
+        <v>1.7466014</v>
       </c>
       <c r="F372" s="2" t="n">
-        <v>1.331603</v>
+        <v>1.2887674</v>
       </c>
       <c r="G372" s="2" t="n">
-        <v>2.3647696</v>
+        <v>2.7674424</v>
       </c>
       <c r="H372" s="2" t="n">
-        <v>1.3611754</v>
+        <v>1.4180374</v>
       </c>
       <c r="I372" s="2"/>
       <c r="J372" s="2"/>
@@ -46851,22 +47631,22 @@
         <v>423</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="D373" s="2" t="n">
-        <v>1.1326118</v>
+        <v>1.1076196</v>
       </c>
       <c r="E373" s="2" t="n">
-        <v>1.7466014</v>
+        <v>1.6037068</v>
       </c>
       <c r="F373" s="2" t="n">
-        <v>1.2887674</v>
+        <v>1.3258406</v>
       </c>
       <c r="G373" s="2" t="n">
-        <v>2.7674424</v>
+        <v>2.356455</v>
       </c>
       <c r="H373" s="2" t="n">
-        <v>1.4180374</v>
+        <v>1.4982868</v>
       </c>
       <c r="I373" s="2"/>
       <c r="J373" s="2"/>
@@ -46879,22 +47659,22 @@
         <v>423</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>669</v>
+        <v>136</v>
       </c>
       <c r="D374" s="2" t="n">
-        <v>1.1076196</v>
+        <v>1.0795946</v>
       </c>
       <c r="E374" s="2" t="n">
-        <v>1.6037068</v>
+        <v>1.9478976</v>
       </c>
       <c r="F374" s="2" t="n">
-        <v>1.3258406</v>
+        <v>1.3156308</v>
       </c>
       <c r="G374" s="2" t="n">
-        <v>2.356455</v>
+        <v>2.5165262</v>
       </c>
       <c r="H374" s="2" t="n">
-        <v>1.4982868</v>
+        <v>1.4698868</v>
       </c>
       <c r="I374" s="2"/>
       <c r="J374" s="2"/>
@@ -46904,25 +47684,25 @@
         <v>373</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>136</v>
+        <v>286</v>
       </c>
       <c r="D375" s="2" t="n">
-        <v>1.0795946</v>
+        <v>0.9044052</v>
       </c>
       <c r="E375" s="2" t="n">
-        <v>1.9478976</v>
+        <v>1.7040214</v>
       </c>
       <c r="F375" s="2" t="n">
-        <v>1.3156308</v>
+        <v>1.3444732</v>
       </c>
       <c r="G375" s="2" t="n">
-        <v>2.5165262</v>
+        <v>2.269014</v>
       </c>
       <c r="H375" s="2" t="n">
-        <v>1.4698868</v>
+        <v>1.8269946</v>
       </c>
       <c r="I375" s="2"/>
       <c r="J375" s="2"/>
@@ -46935,22 +47715,22 @@
         <v>425</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>286</v>
+        <v>97</v>
       </c>
       <c r="D376" s="2" t="n">
-        <v>0.9044052</v>
+        <v>1.0871724</v>
       </c>
       <c r="E376" s="2" t="n">
-        <v>1.7040214</v>
+        <v>1.7133956</v>
       </c>
       <c r="F376" s="2" t="n">
-        <v>1.3444732</v>
+        <v>2.3992794</v>
       </c>
       <c r="G376" s="2" t="n">
-        <v>2.269014</v>
+        <v>2.964509</v>
       </c>
       <c r="H376" s="2" t="n">
-        <v>1.8269946</v>
+        <v>1.496318</v>
       </c>
       <c r="I376" s="2"/>
       <c r="J376" s="2"/>
@@ -46963,22 +47743,22 @@
         <v>425</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>97</v>
+        <v>479</v>
       </c>
       <c r="D377" s="2" t="n">
-        <v>1.0871724</v>
+        <v>1.6755382</v>
       </c>
       <c r="E377" s="2" t="n">
-        <v>1.7133956</v>
+        <v>1.6281452</v>
       </c>
       <c r="F377" s="2" t="n">
-        <v>2.3992794</v>
+        <v>1.4018252</v>
       </c>
       <c r="G377" s="2" t="n">
-        <v>2.964509</v>
+        <v>2.7508194</v>
       </c>
       <c r="H377" s="2" t="n">
-        <v>1.496318</v>
+        <v>1.4798124</v>
       </c>
       <c r="I377" s="2"/>
       <c r="J377" s="2"/>
@@ -46988,25 +47768,25 @@
         <v>376</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>472</v>
+        <v>29</v>
       </c>
       <c r="D378" s="2" t="n">
-        <v>1.6755382</v>
+        <v>1.242645</v>
       </c>
       <c r="E378" s="2" t="n">
-        <v>1.6281452</v>
+        <v>1.8738312</v>
       </c>
       <c r="F378" s="2" t="n">
-        <v>1.4018252</v>
+        <v>1.2802552</v>
       </c>
       <c r="G378" s="2" t="n">
-        <v>2.7508194</v>
+        <v>2.2643498</v>
       </c>
       <c r="H378" s="2" t="n">
-        <v>1.4798124</v>
+        <v>1.4024508</v>
       </c>
       <c r="I378" s="2"/>
       <c r="J378" s="2"/>
@@ -47019,22 +47799,22 @@
         <v>428</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D379" s="2" t="n">
-        <v>1.242645</v>
+        <v>1.2141256</v>
       </c>
       <c r="E379" s="2" t="n">
-        <v>1.8738312</v>
+        <v>1.485455</v>
       </c>
       <c r="F379" s="2" t="n">
-        <v>1.2802552</v>
+        <v>1.1472068</v>
       </c>
       <c r="G379" s="2" t="n">
-        <v>2.2643498</v>
+        <v>2.7642598</v>
       </c>
       <c r="H379" s="2" t="n">
-        <v>1.4024508</v>
+        <v>1.4647164</v>
       </c>
       <c r="I379" s="2"/>
       <c r="J379" s="2"/>
@@ -47047,22 +47827,22 @@
         <v>428</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>21</v>
+        <v>517</v>
       </c>
       <c r="D380" s="2" t="n">
-        <v>1.2141256</v>
+        <v>1.036822</v>
       </c>
       <c r="E380" s="2" t="n">
-        <v>1.485455</v>
+        <v>1.3574266</v>
       </c>
       <c r="F380" s="2" t="n">
-        <v>1.1472068</v>
+        <v>1.2251732</v>
       </c>
       <c r="G380" s="2" t="n">
-        <v>2.7642598</v>
+        <v>2.5466718</v>
       </c>
       <c r="H380" s="2" t="n">
-        <v>1.4647164</v>
+        <v>1.2600178</v>
       </c>
       <c r="I380" s="2"/>
       <c r="J380" s="2"/>
@@ -47072,25 +47852,25 @@
         <v>379</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>511</v>
+        <v>53</v>
       </c>
       <c r="D381" s="2" t="n">
-        <v>1.036822</v>
+        <v>1.0065634</v>
       </c>
       <c r="E381" s="2" t="n">
-        <v>1.3574266</v>
+        <v>1.9598886</v>
       </c>
       <c r="F381" s="2" t="n">
-        <v>1.2251732</v>
+        <v>1.318347</v>
       </c>
       <c r="G381" s="2" t="n">
-        <v>2.5466718</v>
+        <v>2.2835612</v>
       </c>
       <c r="H381" s="2" t="n">
-        <v>1.2600178</v>
+        <v>1.5257388</v>
       </c>
       <c r="I381" s="2"/>
       <c r="J381" s="2"/>
@@ -47103,22 +47883,22 @@
         <v>429</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D382" s="2" t="n">
-        <v>1.0065634</v>
+        <v>1.0451614</v>
       </c>
       <c r="E382" s="2" t="n">
-        <v>1.9598886</v>
+        <v>1.7330596</v>
       </c>
       <c r="F382" s="2" t="n">
-        <v>1.318347</v>
+        <v>1.3430998</v>
       </c>
       <c r="G382" s="2" t="n">
-        <v>2.2835612</v>
+        <v>2.9201406</v>
       </c>
       <c r="H382" s="2" t="n">
-        <v>1.5257388</v>
+        <v>1.4238176</v>
       </c>
       <c r="I382" s="2"/>
       <c r="J382" s="2"/>
@@ -47131,22 +47911,22 @@
         <v>429</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="D383" s="2" t="n">
-        <v>1.0451614</v>
+        <v>0.9828564</v>
       </c>
       <c r="E383" s="2" t="n">
-        <v>1.7330596</v>
+        <v>1.624923</v>
       </c>
       <c r="F383" s="2" t="n">
-        <v>1.3430998</v>
+        <v>1.2839048</v>
       </c>
       <c r="G383" s="2" t="n">
-        <v>2.9201406</v>
+        <v>2.3016146</v>
       </c>
       <c r="H383" s="2" t="n">
-        <v>1.4238176</v>
+        <v>1.4023974</v>
       </c>
       <c r="I383" s="2"/>
       <c r="J383" s="2"/>
@@ -47156,25 +47936,25 @@
         <v>382</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="D384" s="2" t="n">
-        <v>0.9828564</v>
+        <v>1.097061</v>
       </c>
       <c r="E384" s="2" t="n">
-        <v>1.624923</v>
+        <v>1.4032806</v>
       </c>
       <c r="F384" s="2" t="n">
-        <v>1.2839048</v>
+        <v>1.1813984</v>
       </c>
       <c r="G384" s="2" t="n">
-        <v>2.3016146</v>
+        <v>3.7375416</v>
       </c>
       <c r="H384" s="2" t="n">
-        <v>1.4023974</v>
+        <v>1.526577</v>
       </c>
       <c r="I384" s="2"/>
       <c r="J384" s="2"/>
@@ -47187,22 +47967,22 @@
         <v>431</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D385" s="2" t="n">
-        <v>1.097061</v>
+        <v>1.1941074</v>
       </c>
       <c r="E385" s="2" t="n">
-        <v>1.4032806</v>
+        <v>1.4975884</v>
       </c>
       <c r="F385" s="2" t="n">
-        <v>1.1813984</v>
+        <v>1.222577</v>
       </c>
       <c r="G385" s="2" t="n">
-        <v>3.7375416</v>
+        <v>2.9212306</v>
       </c>
       <c r="H385" s="2" t="n">
-        <v>1.526577</v>
+        <v>1.468363</v>
       </c>
       <c r="I385" s="2"/>
       <c r="J385" s="2"/>
@@ -47215,22 +47995,22 @@
         <v>431</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>281</v>
+        <v>628</v>
       </c>
       <c r="D386" s="2" t="n">
-        <v>1.1941074</v>
+        <v>1.1872258</v>
       </c>
       <c r="E386" s="2" t="n">
-        <v>1.4975884</v>
+        <v>1.491185</v>
       </c>
       <c r="F386" s="2" t="n">
-        <v>1.222577</v>
+        <v>1.5740596</v>
       </c>
       <c r="G386" s="2" t="n">
-        <v>2.9212306</v>
+        <v>2.907558</v>
       </c>
       <c r="H386" s="2" t="n">
-        <v>1.468363</v>
+        <v>1.4582796</v>
       </c>
       <c r="I386" s="2"/>
       <c r="J386" s="2"/>
@@ -47240,25 +48020,25 @@
         <v>385</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>624</v>
+        <v>435</v>
       </c>
       <c r="D387" s="2" t="n">
-        <v>1.1872258</v>
+        <v>0.988808</v>
       </c>
       <c r="E387" s="2" t="n">
-        <v>1.491185</v>
+        <v>1.649168</v>
       </c>
       <c r="F387" s="2" t="n">
-        <v>1.5740596</v>
+        <v>1.0308436</v>
       </c>
       <c r="G387" s="2" t="n">
-        <v>2.907558</v>
+        <v>2.7539918</v>
       </c>
       <c r="H387" s="2" t="n">
-        <v>1.4582796</v>
+        <v>1.4880292</v>
       </c>
       <c r="I387" s="2"/>
       <c r="J387" s="2"/>
@@ -47271,22 +48051,22 @@
         <v>434</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D388" s="2" t="n">
-        <v>0.988808</v>
+        <v>0.9754994</v>
       </c>
       <c r="E388" s="2" t="n">
-        <v>1.649168</v>
+        <v>1.6338788</v>
       </c>
       <c r="F388" s="2" t="n">
-        <v>1.0308436</v>
+        <v>1.1981058</v>
       </c>
       <c r="G388" s="2" t="n">
-        <v>2.7539918</v>
+        <v>2.8563094</v>
       </c>
       <c r="H388" s="2" t="n">
-        <v>1.4880292</v>
+        <v>1.3638856</v>
       </c>
       <c r="I388" s="2"/>
       <c r="J388" s="2"/>
@@ -47299,22 +48079,22 @@
         <v>434</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>436</v>
+        <v>550</v>
       </c>
       <c r="D389" s="2" t="n">
-        <v>0.9754994</v>
+        <v>1.1161838</v>
       </c>
       <c r="E389" s="2" t="n">
-        <v>1.6338788</v>
+        <v>1.349455</v>
       </c>
       <c r="F389" s="2" t="n">
-        <v>1.1981058</v>
+        <v>0.9241092</v>
       </c>
       <c r="G389" s="2" t="n">
-        <v>2.8563094</v>
+        <v>2.7923588</v>
       </c>
       <c r="H389" s="2" t="n">
-        <v>1.3638856</v>
+        <v>1.3538136</v>
       </c>
       <c r="I389" s="2"/>
       <c r="J389" s="2"/>
@@ -47324,25 +48104,25 @@
         <v>388</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>545</v>
+        <v>254</v>
       </c>
       <c r="D390" s="2" t="n">
-        <v>1.1161838</v>
+        <v>1.5664812</v>
       </c>
       <c r="E390" s="2" t="n">
-        <v>1.349455</v>
+        <v>1.1155286</v>
       </c>
       <c r="F390" s="2" t="n">
-        <v>0.9241092</v>
+        <v>1.0075878</v>
       </c>
       <c r="G390" s="2" t="n">
-        <v>2.7923588</v>
+        <v>2.839229</v>
       </c>
       <c r="H390" s="2" t="n">
-        <v>1.3538136</v>
+        <v>1.2334138</v>
       </c>
       <c r="I390" s="2"/>
       <c r="J390" s="2"/>
@@ -47355,22 +48135,22 @@
         <v>438</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>254</v>
+        <v>629</v>
       </c>
       <c r="D391" s="2" t="n">
-        <v>1.5664812</v>
+        <v>1.7090838</v>
       </c>
       <c r="E391" s="2" t="n">
-        <v>1.1155286</v>
+        <v>1.7044022</v>
       </c>
       <c r="F391" s="2" t="n">
-        <v>1.0075878</v>
+        <v>1.0161268</v>
       </c>
       <c r="G391" s="2" t="n">
-        <v>2.839229</v>
+        <v>2.8992628</v>
       </c>
       <c r="H391" s="2" t="n">
-        <v>1.2334138</v>
+        <v>1.4269714</v>
       </c>
       <c r="I391" s="2"/>
       <c r="J391" s="2"/>
@@ -47383,22 +48163,22 @@
         <v>438</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>625</v>
+        <v>270</v>
       </c>
       <c r="D392" s="2" t="n">
-        <v>1.7090838</v>
+        <v>1.13573</v>
       </c>
       <c r="E392" s="2" t="n">
-        <v>1.7044022</v>
+        <v>1.5866328</v>
       </c>
       <c r="F392" s="2" t="n">
-        <v>1.0161268</v>
+        <v>0.2751574</v>
       </c>
       <c r="G392" s="2" t="n">
-        <v>2.8992628</v>
+        <v>2.9215016</v>
       </c>
       <c r="H392" s="2" t="n">
-        <v>1.4269714</v>
+        <v>1.6537046</v>
       </c>
       <c r="I392" s="2"/>
       <c r="J392" s="2"/>
@@ -47408,25 +48188,25 @@
         <v>391</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>270</v>
+        <v>21</v>
       </c>
       <c r="D393" s="2" t="n">
-        <v>1.13573</v>
+        <v>1.2125058</v>
       </c>
       <c r="E393" s="2" t="n">
-        <v>1.5866328</v>
+        <v>1.8431638</v>
       </c>
       <c r="F393" s="2" t="n">
-        <v>0.2751574</v>
+        <v>1.3417624</v>
       </c>
       <c r="G393" s="2" t="n">
-        <v>2.9215016</v>
+        <v>2.6247426</v>
       </c>
       <c r="H393" s="2" t="n">
-        <v>1.6537046</v>
+        <v>1.5724384</v>
       </c>
       <c r="I393" s="2"/>
       <c r="J393" s="2"/>
@@ -47439,22 +48219,22 @@
         <v>440</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>21</v>
+        <v>430</v>
       </c>
       <c r="D394" s="2" t="n">
-        <v>1.2125058</v>
+        <v>1.690293</v>
       </c>
       <c r="E394" s="2" t="n">
-        <v>1.8431638</v>
+        <v>1.606819</v>
       </c>
       <c r="F394" s="2" t="n">
-        <v>1.3417624</v>
+        <v>1.4056926</v>
       </c>
       <c r="G394" s="2" t="n">
-        <v>2.6247426</v>
+        <v>2.4618664</v>
       </c>
       <c r="H394" s="2" t="n">
-        <v>1.5724384</v>
+        <v>1.59343</v>
       </c>
       <c r="I394" s="2"/>
       <c r="J394" s="2"/>
@@ -47467,22 +48247,22 @@
         <v>440</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>430</v>
+        <v>616</v>
       </c>
       <c r="D395" s="2" t="n">
-        <v>1.690293</v>
+        <v>1.7735518</v>
       </c>
       <c r="E395" s="2" t="n">
-        <v>1.606819</v>
+        <v>1.4687324</v>
       </c>
       <c r="F395" s="2" t="n">
-        <v>1.4056926</v>
+        <v>1.3072296</v>
       </c>
       <c r="G395" s="2" t="n">
-        <v>2.4618664</v>
+        <v>2.8045032</v>
       </c>
       <c r="H395" s="2" t="n">
-        <v>1.59343</v>
+        <v>1.2705534</v>
       </c>
       <c r="I395" s="2"/>
       <c r="J395" s="2"/>
@@ -47492,25 +48272,25 @@
         <v>394</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>609</v>
+        <v>445</v>
       </c>
       <c r="D396" s="2" t="n">
-        <v>1.7735518</v>
+        <v>1.2968398</v>
       </c>
       <c r="E396" s="2" t="n">
-        <v>1.4687324</v>
+        <v>1.881476</v>
       </c>
       <c r="F396" s="2" t="n">
-        <v>1.3072296</v>
+        <v>2.2255802</v>
       </c>
       <c r="G396" s="2" t="n">
-        <v>2.8045032</v>
+        <v>3.286525</v>
       </c>
       <c r="H396" s="2" t="n">
-        <v>1.2705534</v>
+        <v>1.508021</v>
       </c>
       <c r="I396" s="2"/>
       <c r="J396" s="2"/>
@@ -47523,22 +48303,22 @@
         <v>443</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>445</v>
+        <v>591</v>
       </c>
       <c r="D397" s="2" t="n">
-        <v>1.2968398</v>
+        <v>0.9638318</v>
       </c>
       <c r="E397" s="2" t="n">
-        <v>1.881476</v>
+        <v>1.5474558</v>
       </c>
       <c r="F397" s="2" t="n">
-        <v>2.2255802</v>
+        <v>1.3772944</v>
       </c>
       <c r="G397" s="2" t="n">
-        <v>3.286525</v>
+        <v>3.0290086</v>
       </c>
       <c r="H397" s="2" t="n">
-        <v>1.508021</v>
+        <v>1.4997124</v>
       </c>
       <c r="I397" s="2"/>
       <c r="J397" s="2"/>
@@ -47551,22 +48331,22 @@
         <v>443</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>584</v>
+        <v>674</v>
       </c>
       <c r="D398" s="2" t="n">
-        <v>0.9638318</v>
+        <v>1.1675278</v>
       </c>
       <c r="E398" s="2" t="n">
-        <v>1.5474558</v>
+        <v>1.501242</v>
       </c>
       <c r="F398" s="2" t="n">
-        <v>1.3772944</v>
+        <v>1.3273706</v>
       </c>
       <c r="G398" s="2" t="n">
-        <v>3.0290086</v>
+        <v>3.0452364</v>
       </c>
       <c r="H398" s="2" t="n">
-        <v>1.4997124</v>
+        <v>1.4477418</v>
       </c>
       <c r="I398" s="2"/>
       <c r="J398" s="2"/>
@@ -47576,25 +48356,25 @@
         <v>397</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>670</v>
+        <v>502</v>
       </c>
       <c r="D399" s="2" t="n">
-        <v>1.1675278</v>
+        <v>1.1484848</v>
       </c>
       <c r="E399" s="2" t="n">
-        <v>1.501242</v>
+        <v>1.5151128</v>
       </c>
       <c r="F399" s="2" t="n">
-        <v>1.3273706</v>
+        <v>1.2983368</v>
       </c>
       <c r="G399" s="2" t="n">
-        <v>3.0452364</v>
+        <v>2.9277676</v>
       </c>
       <c r="H399" s="2" t="n">
-        <v>1.4477418</v>
+        <v>1.287226</v>
       </c>
       <c r="I399" s="2"/>
       <c r="J399" s="2"/>
@@ -47607,22 +48387,22 @@
         <v>447</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>495</v>
+        <v>631</v>
       </c>
       <c r="D400" s="2" t="n">
-        <v>1.1484848</v>
+        <v>1.0874262</v>
       </c>
       <c r="E400" s="2" t="n">
-        <v>1.5151128</v>
+        <v>1.5503876</v>
       </c>
       <c r="F400" s="2" t="n">
-        <v>1.2983368</v>
+        <v>1.2340908</v>
       </c>
       <c r="G400" s="2" t="n">
-        <v>2.9277676</v>
+        <v>2.8991968</v>
       </c>
       <c r="H400" s="2" t="n">
-        <v>1.287226</v>
+        <v>1.4183052</v>
       </c>
       <c r="I400" s="2"/>
       <c r="J400" s="2"/>
@@ -47635,22 +48415,22 @@
         <v>447</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>627</v>
+        <v>247</v>
       </c>
       <c r="D401" s="2" t="n">
-        <v>1.0874262</v>
+        <v>0.9686292</v>
       </c>
       <c r="E401" s="2" t="n">
-        <v>1.5503876</v>
+        <v>1.6968406</v>
       </c>
       <c r="F401" s="2" t="n">
-        <v>1.2340908</v>
+        <v>1.1835304</v>
       </c>
       <c r="G401" s="2" t="n">
-        <v>2.8991968</v>
+        <v>2.8380308</v>
       </c>
       <c r="H401" s="2" t="n">
-        <v>1.4183052</v>
+        <v>1.4185692</v>
       </c>
       <c r="I401" s="2"/>
       <c r="J401" s="2"/>
@@ -47660,25 +48440,25 @@
         <v>400</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>247</v>
+        <v>452</v>
       </c>
       <c r="D402" s="2" t="n">
-        <v>0.9686292</v>
+        <v>1.0448616</v>
       </c>
       <c r="E402" s="2" t="n">
-        <v>1.6968406</v>
+        <v>1.5609278</v>
       </c>
       <c r="F402" s="2" t="n">
-        <v>1.1835304</v>
+        <v>1.4526032</v>
       </c>
       <c r="G402" s="2" t="n">
-        <v>2.8380308</v>
+        <v>3.1750274</v>
       </c>
       <c r="H402" s="2" t="n">
-        <v>1.4185692</v>
+        <v>1.5206372</v>
       </c>
       <c r="I402" s="2"/>
       <c r="J402" s="2"/>
@@ -47691,22 +48471,22 @@
         <v>451</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>452</v>
+        <v>410</v>
       </c>
       <c r="D403" s="2" t="n">
-        <v>1.0448616</v>
+        <v>1.0431852</v>
       </c>
       <c r="E403" s="2" t="n">
-        <v>1.5609278</v>
+        <v>1.559216</v>
       </c>
       <c r="F403" s="2" t="n">
-        <v>1.4526032</v>
+        <v>1.4458456</v>
       </c>
       <c r="G403" s="2" t="n">
-        <v>3.1750274</v>
+        <v>2.376431</v>
       </c>
       <c r="H403" s="2" t="n">
-        <v>1.5206372</v>
+        <v>1.361697</v>
       </c>
       <c r="I403" s="2"/>
       <c r="J403" s="2"/>
@@ -47719,22 +48499,22 @@
         <v>451</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>410</v>
+        <v>520</v>
       </c>
       <c r="D404" s="2" t="n">
-        <v>1.0431852</v>
+        <v>0.9799074</v>
       </c>
       <c r="E404" s="2" t="n">
-        <v>1.559216</v>
+        <v>1.5304962</v>
       </c>
       <c r="F404" s="2" t="n">
-        <v>1.4458456</v>
+        <v>1.2052272</v>
       </c>
       <c r="G404" s="2" t="n">
-        <v>2.376431</v>
+        <v>2.8483996</v>
       </c>
       <c r="H404" s="2" t="n">
-        <v>1.361697</v>
+        <v>1.3819668</v>
       </c>
       <c r="I404" s="2"/>
       <c r="J404" s="2"/>
@@ -47747,7 +48527,7 @@
         <v>451</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="D405" s="2" t="n">
         <v>0.9799074</v>
@@ -47775,7 +48555,7 @@
         <v>453</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="D406" s="2" t="n">
         <v>1.1093122</v>
@@ -47803,7 +48583,7 @@
         <v>453</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D407" s="2" t="n">
         <v>1.2642522</v>
@@ -47851,6 +48631,259 @@
       <c r="I408" s="2"/>
       <c r="J408" s="2"/>
     </row>
+    <row r="409" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A409" s="2" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D409" s="2" t="n">
+        <v>1.2282218</v>
+      </c>
+      <c r="E409" s="2" t="n">
+        <v>1.952449</v>
+      </c>
+      <c r="F409" s="2" t="n">
+        <v>1.3078728</v>
+      </c>
+      <c r="G409" s="2" t="n">
+        <v>3.4089498</v>
+      </c>
+      <c r="H409" s="2" t="n">
+        <v>1.3413826</v>
+      </c>
+      <c r="I409" s="2"/>
+      <c r="J409" s="2"/>
+    </row>
+    <row r="410" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A410" s="2" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D410" s="2" t="n">
+        <v>1.6267684</v>
+      </c>
+      <c r="E410" s="2" t="n">
+        <v>1.7663234</v>
+      </c>
+      <c r="F410" s="2" t="n">
+        <v>1.3747394</v>
+      </c>
+      <c r="G410" s="2" t="n">
+        <v>2.9435302</v>
+      </c>
+      <c r="H410" s="2" t="n">
+        <v>1.5594198</v>
+      </c>
+      <c r="I410" s="2"/>
+      <c r="J410" s="2"/>
+    </row>
+    <row r="411" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A411" s="2" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="D411" s="2" t="n">
+        <v>1.3559452</v>
+      </c>
+      <c r="E411" s="2" t="n">
+        <v>2.0575792</v>
+      </c>
+      <c r="F411" s="2" t="n">
+        <v>1.3860682</v>
+      </c>
+      <c r="G411" s="2" t="n">
+        <v>3.0266706</v>
+      </c>
+      <c r="H411" s="2" t="n">
+        <v>1.5317068</v>
+      </c>
+      <c r="I411" s="2"/>
+      <c r="J411" s="2"/>
+    </row>
+    <row r="412" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A412" s="2" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D412" s="2" t="n">
+        <v>1.1651596</v>
+      </c>
+      <c r="E412" s="2" t="n">
+        <v>1.6603018</v>
+      </c>
+      <c r="F412" s="2" t="n">
+        <v>1.2635648</v>
+      </c>
+      <c r="G412" s="2" t="n">
+        <v>3.0884194</v>
+      </c>
+      <c r="H412" s="2" t="n">
+        <v>1.5417028</v>
+      </c>
+      <c r="I412" s="2"/>
+      <c r="J412" s="2"/>
+    </row>
+    <row r="413" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A413" s="2" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="D413" s="2" t="n">
+        <v>1.3323756</v>
+      </c>
+      <c r="E413" s="2" t="n">
+        <v>1.6536264</v>
+      </c>
+      <c r="F413" s="2" t="n">
+        <v>1.377811</v>
+      </c>
+      <c r="G413" s="2" t="n">
+        <v>3.0638614</v>
+      </c>
+      <c r="H413" s="2" t="n">
+        <v>1.4800372</v>
+      </c>
+      <c r="I413" s="2"/>
+      <c r="J413" s="2"/>
+    </row>
+    <row r="414" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A414" s="2" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="D414" s="2" t="n">
+        <v>1.2757406</v>
+      </c>
+      <c r="E414" s="2" t="n">
+        <v>1.6270288</v>
+      </c>
+      <c r="F414" s="2" t="n">
+        <v>1.2549938</v>
+      </c>
+      <c r="G414" s="2" t="n">
+        <v>3.2537282</v>
+      </c>
+      <c r="H414" s="2" t="n">
+        <v>1.5202392</v>
+      </c>
+      <c r="I414" s="2"/>
+      <c r="J414" s="2"/>
+    </row>
+    <row r="415" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="2" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D415" s="2" t="n">
+        <v>0.9960956</v>
+      </c>
+      <c r="E415" s="2" t="n">
+        <v>1.9379924</v>
+      </c>
+      <c r="F415" s="2" t="n">
+        <v>1.2795522</v>
+      </c>
+      <c r="G415" s="2" t="n">
+        <v>3.015061</v>
+      </c>
+      <c r="H415" s="2" t="n">
+        <v>1.4368428</v>
+      </c>
+      <c r="I415" s="2"/>
+      <c r="J415" s="2"/>
+    </row>
+    <row r="416" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="2" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D416" s="2" t="n">
+        <v>1.1375304</v>
+      </c>
+      <c r="E416" s="2" t="n">
+        <v>1.4141774</v>
+      </c>
+      <c r="F416" s="2" t="n">
+        <v>1.3465676</v>
+      </c>
+      <c r="G416" s="2" t="n">
+        <v>3.1738732</v>
+      </c>
+      <c r="H416" s="2" t="n">
+        <v>1.5728696</v>
+      </c>
+      <c r="I416" s="2"/>
+      <c r="J416" s="2"/>
+    </row>
+    <row r="417" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="2" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D417" s="2" t="n">
+        <v>1.1445646</v>
+      </c>
+      <c r="E417" s="2" t="n">
+        <v>1.5607876</v>
+      </c>
+      <c r="F417" s="2" t="n">
+        <v>1.3319498</v>
+      </c>
+      <c r="G417" s="2" t="n">
+        <v>2.8604682</v>
+      </c>
+      <c r="H417" s="2" t="n">
+        <v>1.4439796</v>
+      </c>
+      <c r="I417" s="2"/>
+      <c r="J417" s="2"/>
+    </row>
+    <row r="1048557" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048558" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048559" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048560" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Output Data/Crpo/Common_folder/API_Performance_Chart_Report.xlsx
+++ b/Output Data/Crpo/Common_folder/API_Performance_Chart_Report.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4089" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4113" uniqueCount="731">
   <si>
     <t xml:space="preserve">get_tenant_details</t>
   </si>
@@ -1529,688 +1529,691 @@
     <t xml:space="preserve">09:33:AM</t>
   </si>
   <si>
+    <t xml:space="preserve">2023-04-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:02:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:45:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:13:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:47:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:09:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:41:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:45:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:21:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:00:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:38:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:32:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:44:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:53:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:33:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:01:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:04:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:34:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:45:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:04:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:06:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:54:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:57:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:41:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:19:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:22:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:19:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:24:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:12:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:04:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:09:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:18:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:18:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:22:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:25:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:30:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:48:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:05:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:22:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:44:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:47:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:26:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:00:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:08:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:55:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:58:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:52:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:28:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:12:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:14:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:30:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:32:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:35:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:04:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:08:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:11:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:13:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:38:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:00:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:58:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:04:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:53:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:55:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:57:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:31:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:20:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:22:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:23:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:52:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:04:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:31:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:23:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:36:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:40PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:53:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:00:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:00:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:02:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:05:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:48:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:17:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:10:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:21:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:10:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:12:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:13:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:16:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:56:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:58:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:56:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:05:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:34:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:43:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:44:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:59:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:28:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:07:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:46:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:11:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:19:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:28:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:51:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:21:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:43:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:46:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:49:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:40:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:31:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:24:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:43:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:16:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:16:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:05:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:46:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:59:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:58:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:53:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:51:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:02:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:04:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:06:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:48:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:05:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:10:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:11:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:16:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:19:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:42:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:45:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:09:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:44:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:51:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:33:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:07:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:45:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:31:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:31:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:05:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:07:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:09:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:33:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:35:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:36:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:38:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:40:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:34:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:36:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:51:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:45:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:48:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:16:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:19:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:20:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:54:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:57:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:23:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:46:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:48:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:22:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:25:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:37:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:11:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:12:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:06:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:40:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:42:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:36:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:38:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:00:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:05:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:28:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:40:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:10:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:11:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:45:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:32:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:21:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:06:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:29:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:11:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:44:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:25:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:13:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:32:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:42:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:21:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:50:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:12:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:02:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:43:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:02:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:26:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:27:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:28:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:27:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:22:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:24:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:26:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:56:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:26:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:29:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:31:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:25:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:54:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:53:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:44:AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:29:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:32:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05:34:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:47:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:50:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:56:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:10:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:14:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:29:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:45:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:48:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:47:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:47:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:59:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:24:PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:28:PM</t>
+  </si>
+  <si>
     <t xml:space="preserve">2023-04-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:23:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04:02:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:45:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03:13:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:47:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:41:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:45:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:21:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:00:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:38:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04:32:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04:44:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04:53:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:33:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:01:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:04:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:34:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:45:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03:04:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:06:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:54:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:57:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:41:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:19:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:22:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02:19:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02:24:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04:12:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09:04:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09:09:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:09:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:18:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:18:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:22:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:25:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:30:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:48:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09:05:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09:22:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:44:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:47:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:26:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:00:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:08:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03:55:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03:58:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:52:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09:28:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:12:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:14:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:30:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:32:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:35:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04:04:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04:08:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04:11:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:13:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:38:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:00:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:58:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:04:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:53:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:55:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:57:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:31:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:20:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:22:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:23:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:52:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:04:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09:31:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:23:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:36:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:40PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:53:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06:00:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:00:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:02:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:05:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04:48:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:17:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:10:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03:21:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:10:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:12:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:13:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:16:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03:56:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04:58:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02:56:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:05:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02:34:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02:43:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03:44:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09:59:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:28:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:07:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09:46:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06:11:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:19:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04:28:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:17:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:51:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:43:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:46:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:49:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:40:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:31:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:24:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:43:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:16:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02:16:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03:05:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:46:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:59:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:58:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:53:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03:51:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:02:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:04:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:06:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09:48:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:05:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:10:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:11:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:16:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:19:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:42:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:45:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:09:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:44:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:51:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:33:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:07:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04:45:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:31:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:31:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:05:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:07:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:09:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06:33:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06:35:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06:36:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:38:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:40:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:34:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:36:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:51:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:45:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:48:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03:16:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03:19:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03:20:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:54:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:57:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09:23:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:46:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:48:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04:22:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09:25:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04:37:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03:11:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03:12:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:06:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02:40:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02:42:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:36:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:38:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:00:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:05:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:28:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04:40:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:10:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:11:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02:45:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06:32:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:21:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:06:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04:29:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:11:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:44:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:25:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02:13:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:32:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:42:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:21:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:50:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:12:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02:02:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:43:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:02:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:26:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04:27:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:28:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:27:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06:22:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06:24:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06:26:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07:56:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:26:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:29:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:31:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:25:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:54:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:53:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09:44:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:29:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:32:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:34:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06:47:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06:50:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06:56:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03:10:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03:14:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02:29:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03:45:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03:48:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04:47:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03:47:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03:59:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:24:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:28:PM</t>
   </si>
   <si>
     <t xml:space="preserve">07:18:PM</t>
@@ -2472,7 +2475,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2511,7 +2514,7 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr wrap="none"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2527,12 +2530,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2561,16 +2559,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.746512337944662</c:v>
+                  <c:v>0.744813730058938</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.73753859328063</c:v>
+                  <c:v>1.7363213021611</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.716388326086957</c:v>
+                  <c:v>0.711306666797643</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.25050762134387</c:v>
+                  <c:v>2.25032511394892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2604,7 +2602,7 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr wrap="none"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2620,12 +2618,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2654,16 +2647,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.666777772134388</c:v>
+                  <c:v>0.665280045383105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.97283293833992</c:v>
+                  <c:v>1.96889059253438</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.899749286561265</c:v>
+                  <c:v>0.895500269155207</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.85643029505929</c:v>
+                  <c:v>1.85903920687623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2697,7 +2690,7 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr wrap="none"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2713,12 +2706,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2747,16 +2735,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.6733904486166</c:v>
+                  <c:v>0.671678862868369</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.59374781857707</c:v>
+                  <c:v>1.60246885108055</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.916752917588932</c:v>
+                  <c:v>0.915275712573673</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.55336592885375</c:v>
+                  <c:v>1.56333082946955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2790,7 +2778,7 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr wrap="none"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2806,12 +2794,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2840,16 +2823,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.38333447470356</c:v>
+                  <c:v>1.3790687367387</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.25400565790514</c:v>
+                  <c:v>2.32884015265226</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.21892875632411</c:v>
+                  <c:v>1.2162615848723</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.69442274980237</c:v>
+                  <c:v>2.74484029862475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2883,7 +2866,7 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr wrap="none"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2899,12 +2882,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2933,16 +2911,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.701543747035573</c:v>
+                  <c:v>0.698343200392927</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6283838312253</c:v>
+                  <c:v>1.66846753595285</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.868468000395257</c:v>
+                  <c:v>0.86667072416503</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.54755877272727</c:v>
+                  <c:v>1.57939754734774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2950,11 +2928,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="-10"/>
-        <c:axId val="77882585"/>
-        <c:axId val="50348385"/>
+        <c:axId val="47606536"/>
+        <c:axId val="17115145"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77882585"/>
+        <c:axId val="47606536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2989,12 +2967,12 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln w="0">
+            <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3020,7 +2998,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50348385"/>
+        <c:crossAx val="17115145"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3028,7 +3006,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50348385"/>
+        <c:axId val="17115145"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3063,7 +3041,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln w="0">
+            <a:ln>
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -3094,13 +3072,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77882585"/>
+        <c:crossAx val="47606536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -3110,7 +3090,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="0">
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -3157,7 +3137,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304920</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
@@ -3189,7 +3169,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3224,19 +3204,19 @@
         <v>5</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.746512337944662</v>
+        <v>0.744813730058938</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.666777772134388</v>
+        <v>0.665280045383105</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.6733904486166</v>
+        <v>0.671678862868369</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1.38333447470356</v>
+        <v>1.3790687367387</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0.701543747035573</v>
+        <v>0.698343200392927</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3244,19 +3224,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1.73753859328063</v>
+        <v>1.7363213021611</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1.97283293833992</v>
+        <v>1.96889059253438</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1.59374781857707</v>
+        <v>1.60246885108055</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>2.25400565790514</v>
+        <v>2.32884015265226</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>1.6283838312253</v>
+        <v>1.66846753595285</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3264,19 +3244,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.716388326086957</v>
+        <v>0.711306666797643</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.899749286561265</v>
+        <v>0.895500269155207</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.916752917588932</v>
+        <v>0.915275712573673</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1.21892875632411</v>
+        <v>1.2162615848723</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0.868468000395257</v>
+        <v>0.86667072416503</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3284,25 +3264,25 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2.25050762134387</v>
+        <v>2.25032511394892</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>1.85643029505929</v>
+        <v>1.85903920687623</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1.55336592885375</v>
+        <v>1.56333082946955</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>2.69442274980237</v>
+        <v>2.74484029862475</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>1.54755877272727</v>
+        <v>1.57939754734774</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3319,7 +3299,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A488" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H509" activeCellId="0" sqref="H509"/>
+      <selection pane="topLeft" activeCell="C508" activeCellId="0" sqref="C508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16751,19 +16731,19 @@
         <v>502</v>
       </c>
       <c r="D490" s="2" t="n">
-        <v>0.4334844</v>
+        <v>0.4228262</v>
       </c>
       <c r="E490" s="2" t="n">
-        <v>0.424687</v>
+        <v>0.375007</v>
       </c>
       <c r="F490" s="2" t="n">
-        <v>0.5667782</v>
+        <v>0.4591814</v>
       </c>
       <c r="G490" s="2" t="n">
-        <v>0.8116066</v>
+        <v>0.7267464</v>
       </c>
       <c r="H490" s="2" t="n">
-        <v>0.487862</v>
+        <v>0.5317684</v>
       </c>
       <c r="I490" s="2"/>
       <c r="J490" s="2"/>
@@ -16779,19 +16759,19 @@
         <v>502</v>
       </c>
       <c r="D491" s="2" t="n">
-        <v>0.4245512</v>
+        <v>0.4968954</v>
       </c>
       <c r="E491" s="2" t="n">
-        <v>0.361989</v>
+        <v>0.495064</v>
       </c>
       <c r="F491" s="2" t="n">
-        <v>0.4773338</v>
+        <v>0.4568474</v>
       </c>
       <c r="G491" s="2" t="n">
-        <v>0.7267172</v>
+        <v>0.7409182</v>
       </c>
       <c r="H491" s="2" t="n">
-        <v>0.4912266</v>
+        <v>0.2948852</v>
       </c>
       <c r="I491" s="2"/>
       <c r="J491" s="2"/>
@@ -16807,19 +16787,19 @@
         <v>502</v>
       </c>
       <c r="D492" s="2" t="n">
-        <v>0.3593524</v>
+        <v>0.4675368</v>
       </c>
       <c r="E492" s="2" t="n">
-        <v>0.408086</v>
+        <v>0.469723</v>
       </c>
       <c r="F492" s="2" t="n">
-        <v>0.4482828</v>
+        <v>0.2683514</v>
       </c>
       <c r="G492" s="2" t="n">
-        <v>0.9376432</v>
+        <v>0.7180094</v>
       </c>
       <c r="H492" s="2" t="n">
-        <v>0.9101838</v>
+        <v>0.5328252</v>
       </c>
       <c r="I492" s="2"/>
       <c r="J492" s="2"/>
@@ -16832,22 +16812,22 @@
         <v>503</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>504</v>
+        <v>55</v>
       </c>
       <c r="D493" s="2" t="n">
-        <v>0.4228262</v>
+        <v>0.4799104</v>
       </c>
       <c r="E493" s="2" t="n">
-        <v>0.375007</v>
+        <v>0.3949234</v>
       </c>
       <c r="F493" s="2" t="n">
-        <v>0.4591814</v>
+        <v>0.450634</v>
       </c>
       <c r="G493" s="2" t="n">
-        <v>0.7267464</v>
+        <v>0.7046052</v>
       </c>
       <c r="H493" s="2" t="n">
-        <v>0.5317684</v>
+        <v>0.495296</v>
       </c>
       <c r="I493" s="2"/>
       <c r="J493" s="2"/>
@@ -16860,22 +16840,22 @@
         <v>503</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>504</v>
+        <v>55</v>
       </c>
       <c r="D494" s="2" t="n">
-        <v>0.4968954</v>
+        <v>0.4186316</v>
       </c>
       <c r="E494" s="2" t="n">
-        <v>0.495064</v>
+        <v>0.4614032</v>
       </c>
       <c r="F494" s="2" t="n">
-        <v>0.4568474</v>
+        <v>0.5043588</v>
       </c>
       <c r="G494" s="2" t="n">
-        <v>0.7409182</v>
+        <v>0.7057186</v>
       </c>
       <c r="H494" s="2" t="n">
-        <v>0.2948852</v>
+        <v>0.447904</v>
       </c>
       <c r="I494" s="2"/>
       <c r="J494" s="2"/>
@@ -16888,22 +16868,22 @@
         <v>503</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>504</v>
+        <v>55</v>
       </c>
       <c r="D495" s="2" t="n">
-        <v>0.4675368</v>
+        <v>0.4822072</v>
       </c>
       <c r="E495" s="2" t="n">
-        <v>0.469723</v>
+        <v>0.4365002</v>
       </c>
       <c r="F495" s="2" t="n">
-        <v>0.2683514</v>
+        <v>0.4374762</v>
       </c>
       <c r="G495" s="2" t="n">
-        <v>0.7180094</v>
+        <v>0.6969984</v>
       </c>
       <c r="H495" s="2" t="n">
-        <v>0.5328252</v>
+        <v>0.4556504</v>
       </c>
       <c r="I495" s="2"/>
       <c r="J495" s="2"/>
@@ -16913,25 +16893,25 @@
         <v>494</v>
       </c>
       <c r="B496" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C496" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C496" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="D496" s="2" t="n">
-        <v>0.4799104</v>
+        <v>0.5675924</v>
       </c>
       <c r="E496" s="2" t="n">
-        <v>0.3949234</v>
+        <v>0.640099</v>
       </c>
       <c r="F496" s="2" t="n">
-        <v>0.450634</v>
+        <v>0.388855</v>
       </c>
       <c r="G496" s="2" t="n">
-        <v>0.7046052</v>
+        <v>0.7281834</v>
       </c>
       <c r="H496" s="2" t="n">
-        <v>0.495296</v>
+        <v>0.9936412</v>
       </c>
       <c r="I496" s="2"/>
       <c r="J496" s="2"/>
@@ -16941,25 +16921,25 @@
         <v>495</v>
       </c>
       <c r="B497" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C497" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C497" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="D497" s="2" t="n">
-        <v>0.4186316</v>
+        <v>0.9935154</v>
       </c>
       <c r="E497" s="2" t="n">
-        <v>0.4614032</v>
+        <v>0.3760404</v>
       </c>
       <c r="F497" s="2" t="n">
-        <v>0.5043588</v>
+        <v>0.2452292</v>
       </c>
       <c r="G497" s="2" t="n">
-        <v>0.7057186</v>
+        <v>0.7517642</v>
       </c>
       <c r="H497" s="2" t="n">
-        <v>0.447904</v>
+        <v>1.5853812</v>
       </c>
       <c r="I497" s="2"/>
       <c r="J497" s="2"/>
@@ -16969,30 +16949,30 @@
         <v>496</v>
       </c>
       <c r="B498" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C498" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C498" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="D498" s="2" t="n">
-        <v>0.4822072</v>
+        <v>0.4387896</v>
       </c>
       <c r="E498" s="2" t="n">
-        <v>0.4365002</v>
+        <v>0.4652262</v>
       </c>
       <c r="F498" s="2" t="n">
-        <v>0.4374762</v>
+        <v>0.5977282</v>
       </c>
       <c r="G498" s="2" t="n">
-        <v>0.6969984</v>
+        <v>1.6181212</v>
       </c>
       <c r="H498" s="2" t="n">
-        <v>0.4556504</v>
+        <v>0.8353254</v>
       </c>
       <c r="I498" s="2"/>
       <c r="J498" s="2"/>
     </row>
-    <row r="499" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A499" s="2" t="n">
         <v>497</v>
       </c>
@@ -17003,24 +16983,24 @@
         <v>507</v>
       </c>
       <c r="D499" s="2" t="n">
-        <v>0.5675924</v>
+        <v>0.3670964</v>
       </c>
       <c r="E499" s="2" t="n">
-        <v>0.640099</v>
+        <v>0.445229</v>
       </c>
       <c r="F499" s="2" t="n">
-        <v>0.388855</v>
+        <v>0.4178412</v>
       </c>
       <c r="G499" s="2" t="n">
-        <v>0.7281834</v>
+        <v>0.6692274</v>
       </c>
       <c r="H499" s="2" t="n">
-        <v>0.9936412</v>
+        <v>0.4825928</v>
       </c>
       <c r="I499" s="2"/>
       <c r="J499" s="2"/>
     </row>
-    <row r="500" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A500" s="2" t="n">
         <v>498</v>
       </c>
@@ -17031,24 +17011,24 @@
         <v>507</v>
       </c>
       <c r="D500" s="2" t="n">
-        <v>0.9935154</v>
+        <v>0.3576272</v>
       </c>
       <c r="E500" s="2" t="n">
-        <v>0.3760404</v>
+        <v>0.424516</v>
       </c>
       <c r="F500" s="2" t="n">
-        <v>0.2452292</v>
+        <v>0.3858524</v>
       </c>
       <c r="G500" s="2" t="n">
-        <v>0.7517642</v>
+        <v>0.6871204</v>
       </c>
       <c r="H500" s="2" t="n">
-        <v>1.5853812</v>
+        <v>0.4839256</v>
       </c>
       <c r="I500" s="2"/>
       <c r="J500" s="2"/>
     </row>
-    <row r="501" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A501" s="2" t="n">
         <v>499</v>
       </c>
@@ -17059,24 +17039,24 @@
         <v>507</v>
       </c>
       <c r="D501" s="2" t="n">
-        <v>0.4387896</v>
+        <v>0.415165</v>
       </c>
       <c r="E501" s="2" t="n">
-        <v>0.4652262</v>
+        <v>0.387758</v>
       </c>
       <c r="F501" s="2" t="n">
-        <v>0.5977282</v>
+        <v>0.3840642</v>
       </c>
       <c r="G501" s="2" t="n">
-        <v>1.6181212</v>
+        <v>0.7415862</v>
       </c>
       <c r="H501" s="2" t="n">
-        <v>0.8353254</v>
+        <v>0.4483376</v>
       </c>
       <c r="I501" s="2"/>
       <c r="J501" s="2"/>
     </row>
-    <row r="502" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A502" s="2" t="n">
         <v>500</v>
       </c>
@@ -17087,24 +17067,24 @@
         <v>509</v>
       </c>
       <c r="D502" s="2" t="n">
-        <v>0.3670964</v>
+        <v>0.398634</v>
       </c>
       <c r="E502" s="2" t="n">
-        <v>0.445229</v>
+        <v>0.4288998</v>
       </c>
       <c r="F502" s="2" t="n">
-        <v>0.4178412</v>
+        <v>0.3706328</v>
       </c>
       <c r="G502" s="2" t="n">
-        <v>0.6692274</v>
+        <v>0.6723984</v>
       </c>
       <c r="H502" s="2" t="n">
-        <v>0.4825928</v>
+        <v>0.4466976</v>
       </c>
       <c r="I502" s="2"/>
       <c r="J502" s="2"/>
     </row>
-    <row r="503" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A503" s="2" t="n">
         <v>501</v>
       </c>
@@ -17115,24 +17095,24 @@
         <v>509</v>
       </c>
       <c r="D503" s="2" t="n">
-        <v>0.3576272</v>
+        <v>0.3769074</v>
       </c>
       <c r="E503" s="2" t="n">
-        <v>0.424516</v>
+        <v>0.387348</v>
       </c>
       <c r="F503" s="2" t="n">
-        <v>0.3858524</v>
+        <v>0.5918526</v>
       </c>
       <c r="G503" s="2" t="n">
-        <v>0.6871204</v>
+        <v>0.6746904</v>
       </c>
       <c r="H503" s="2" t="n">
-        <v>0.4839256</v>
+        <v>1.5026522</v>
       </c>
       <c r="I503" s="2"/>
       <c r="J503" s="2"/>
     </row>
-    <row r="504" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A504" s="2" t="n">
         <v>502</v>
       </c>
@@ -17143,24 +17123,24 @@
         <v>509</v>
       </c>
       <c r="D504" s="2" t="n">
-        <v>0.415165</v>
+        <v>0.3889616</v>
       </c>
       <c r="E504" s="2" t="n">
-        <v>0.387758</v>
+        <v>0.4301888</v>
       </c>
       <c r="F504" s="2" t="n">
-        <v>0.3840642</v>
+        <v>0.3106946</v>
       </c>
       <c r="G504" s="2" t="n">
-        <v>0.7415862</v>
+        <v>0.675456</v>
       </c>
       <c r="H504" s="2" t="n">
-        <v>0.4483376</v>
+        <v>1.4776382</v>
       </c>
       <c r="I504" s="2"/>
       <c r="J504" s="2"/>
     </row>
-    <row r="505" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A505" s="2" t="n">
         <v>503</v>
       </c>
@@ -17171,24 +17151,24 @@
         <v>511</v>
       </c>
       <c r="D505" s="2" t="n">
-        <v>0.398634</v>
+        <v>0.467416</v>
       </c>
       <c r="E505" s="2" t="n">
-        <v>0.4288998</v>
+        <v>0.4056932</v>
       </c>
       <c r="F505" s="2" t="n">
-        <v>0.3706328</v>
+        <v>0.4328432</v>
       </c>
       <c r="G505" s="2" t="n">
-        <v>0.6723984</v>
+        <v>0.7618054</v>
       </c>
       <c r="H505" s="2" t="n">
-        <v>0.4466976</v>
+        <v>0.3515706</v>
       </c>
       <c r="I505" s="2"/>
       <c r="J505" s="2"/>
     </row>
-    <row r="506" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A506" s="2" t="n">
         <v>504</v>
       </c>
@@ -17199,24 +17179,24 @@
         <v>511</v>
       </c>
       <c r="D506" s="2" t="n">
-        <v>0.3769074</v>
+        <v>0.3919944</v>
       </c>
       <c r="E506" s="2" t="n">
-        <v>0.387348</v>
+        <v>0.3723</v>
       </c>
       <c r="F506" s="2" t="n">
-        <v>0.5918526</v>
+        <v>0.3924604</v>
       </c>
       <c r="G506" s="2" t="n">
-        <v>0.6746904</v>
+        <v>0.5876316</v>
       </c>
       <c r="H506" s="2" t="n">
-        <v>1.5026522</v>
+        <v>0.3930856</v>
       </c>
       <c r="I506" s="2"/>
       <c r="J506" s="2"/>
     </row>
-    <row r="507" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A507" s="2" t="n">
         <v>505</v>
       </c>
@@ -17227,23 +17207,109 @@
         <v>511</v>
       </c>
       <c r="D507" s="2" t="n">
-        <v>0.3889616</v>
+        <v>0.4101714</v>
       </c>
       <c r="E507" s="2" t="n">
-        <v>0.4301888</v>
+        <v>0.3850622</v>
       </c>
       <c r="F507" s="2" t="n">
-        <v>0.3106946</v>
+        <v>0.3960544</v>
       </c>
       <c r="G507" s="2" t="n">
-        <v>0.675456</v>
+        <v>0.7817106</v>
       </c>
       <c r="H507" s="2" t="n">
-        <v>1.4776382</v>
+        <v>0.3703084</v>
       </c>
       <c r="I507" s="2"/>
       <c r="J507" s="2"/>
     </row>
+    <row r="508" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="2" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C508" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D508" s="2" t="n">
+        <v>0.5060744</v>
+      </c>
+      <c r="E508" s="2" t="n">
+        <v>0.447507</v>
+      </c>
+      <c r="F508" s="2" t="n">
+        <v>0.4882076</v>
+      </c>
+      <c r="G508" s="2" t="n">
+        <v>0.7879378</v>
+      </c>
+      <c r="H508" s="2" t="n">
+        <v>0.4550192</v>
+      </c>
+      <c r="I508" s="2"/>
+      <c r="J508" s="2"/>
+    </row>
+    <row r="509" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="2" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C509" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D509" s="2" t="n">
+        <v>0.427898</v>
+      </c>
+      <c r="E509" s="2" t="n">
+        <v>0.4065774</v>
+      </c>
+      <c r="F509" s="2" t="n">
+        <v>0.488311</v>
+      </c>
+      <c r="G509" s="2" t="n">
+        <v>0.7731366</v>
+      </c>
+      <c r="H509" s="2" t="n">
+        <v>0.3756322</v>
+      </c>
+      <c r="I509" s="2"/>
+      <c r="J509" s="2"/>
+    </row>
+    <row r="510" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="2" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C510" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D510" s="3" t="n">
+        <v>0.3887794</v>
+      </c>
+      <c r="E510" s="3" t="n">
+        <v>0.4156126</v>
+      </c>
+      <c r="F510" s="3" t="n">
+        <v>0.4434924</v>
+      </c>
+      <c r="G510" s="3" t="n">
+        <v>0.7624878</v>
+      </c>
+      <c r="H510" s="3" t="n">
+        <v>0.4192094</v>
+      </c>
+    </row>
+    <row r="1048550" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048554" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048555" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048556" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -17263,14 +17329,14 @@
     <row r="1048570" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -17285,8 +17351,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A485" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H505" activeCellId="0" sqref="H505"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A490" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D504" activeCellId="0" sqref="D504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17337,7 +17403,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>2.0220664</v>
@@ -17363,7 +17429,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>2.4586498</v>
@@ -17519,7 +17585,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>2.1589454</v>
@@ -17597,7 +17663,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>1.9875636</v>
@@ -17909,7 +17975,7 @@
         <v>40</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>2.6861386</v>
@@ -17961,7 +18027,7 @@
         <v>40</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>2.330873</v>
@@ -17987,7 +18053,7 @@
         <v>40</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>2.4523078</v>
@@ -18013,7 +18079,7 @@
         <v>40</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>2.3690538</v>
@@ -18065,7 +18131,7 @@
         <v>47</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>2.3269536</v>
@@ -18299,7 +18365,7 @@
         <v>57</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>2.569399</v>
@@ -18325,7 +18391,7 @@
         <v>57</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>2.2719068</v>
@@ -18377,7 +18443,7 @@
         <v>61</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D42" s="2" t="n">
         <v>2.5803136</v>
@@ -18429,7 +18495,7 @@
         <v>65</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>2.4560934</v>
@@ -18481,7 +18547,7 @@
         <v>65</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>2.7843442</v>
@@ -18767,7 +18833,7 @@
         <v>81</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D57" s="2" t="n">
         <v>2.9062288</v>
@@ -19053,7 +19119,7 @@
         <v>96</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>5.4740242</v>
@@ -19079,7 +19145,7 @@
         <v>96</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D69" s="2" t="n">
         <v>5.0492016</v>
@@ -19235,7 +19301,7 @@
         <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>2.7314032</v>
@@ -19261,7 +19327,7 @@
         <v>104</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>2.7375454</v>
@@ -19573,7 +19639,7 @@
         <v>119</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D88" s="2" t="n">
         <v>1.9251046</v>
@@ -19703,7 +19769,7 @@
         <v>127</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D93" s="2" t="n">
         <v>2.6339666</v>
@@ -19729,7 +19795,7 @@
         <v>127</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D94" s="2" t="n">
         <v>2.4568346</v>
@@ -19885,7 +19951,7 @@
         <v>132</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D100" s="2" t="n">
         <v>2.403287</v>
@@ -20067,7 +20133,7 @@
         <v>140</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D107" s="2" t="n">
         <v>2.208845</v>
@@ -20275,7 +20341,7 @@
         <v>145</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D115" s="2" t="n">
         <v>2.1219888</v>
@@ -20379,7 +20445,7 @@
         <v>153</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D119" s="2" t="n">
         <v>2.5949094</v>
@@ -20431,7 +20497,7 @@
         <v>153</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D121" s="2" t="n">
         <v>1.9941926</v>
@@ -20457,7 +20523,7 @@
         <v>157</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D122" s="2" t="n">
         <v>2.4594108</v>
@@ -20665,7 +20731,7 @@
         <v>165</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D130" s="2" t="n">
         <v>1.9619838</v>
@@ -20743,7 +20809,7 @@
         <v>170</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D133" s="2" t="n">
         <v>1.8671148</v>
@@ -21143,7 +21209,7 @@
         <v>185</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D148" s="2" t="n">
         <v>3.119118</v>
@@ -21675,7 +21741,7 @@
         <v>208</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>537</v>
+        <v>511</v>
       </c>
       <c r="D167" s="2" t="n">
         <v>1.8280256</v>
@@ -21787,7 +21853,7 @@
         <v>212</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D171" s="2" t="n">
         <v>3.5371194</v>
@@ -22123,7 +22189,7 @@
         <v>228</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D183" s="2" t="n">
         <v>3.5907054</v>
@@ -23041,7 +23107,7 @@
         <v>267</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D216" s="2" t="n">
         <v>4.0429436</v>
@@ -23237,7 +23303,7 @@
         <v>275</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D223" s="2" t="n">
         <v>1.1506692</v>
@@ -24021,7 +24087,7 @@
         <v>305</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D251" s="2" t="n">
         <v>1.222255</v>
@@ -24889,7 +24955,7 @@
         <v>336</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D282" s="2" t="n">
         <v>2.0393262</v>
@@ -26837,7 +26903,7 @@
         <v>401</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D352" s="2" t="n">
         <v>0.8549158</v>
@@ -27537,7 +27603,7 @@
         <v>425</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D377" s="2" t="n">
         <v>0.9712706</v>
@@ -30029,7 +30095,7 @@
         <v>488</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D466" s="2" t="n">
         <v>0.6413476</v>
@@ -30057,7 +30123,7 @@
         <v>488</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D467" s="2" t="n">
         <v>0.867386</v>
@@ -30085,7 +30151,7 @@
         <v>488</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D468" s="2" t="n">
         <v>0.814792</v>
@@ -30701,22 +30767,22 @@
         <v>501</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>608</v>
+        <v>552</v>
       </c>
       <c r="D490" s="2" t="n">
-        <v>0.8904534</v>
+        <v>0.8680328</v>
       </c>
       <c r="E490" s="2" t="n">
-        <v>1.4322938</v>
+        <v>0.9601136</v>
       </c>
       <c r="F490" s="2" t="n">
-        <v>0.8043592</v>
+        <v>0.6507678</v>
       </c>
       <c r="G490" s="2" t="n">
-        <v>2.886186</v>
+        <v>1.599134</v>
       </c>
       <c r="H490" s="2" t="n">
-        <v>0.9408064</v>
+        <v>0.9767064</v>
       </c>
       <c r="I490" s="2"/>
       <c r="J490" s="2"/>
@@ -30729,22 +30795,22 @@
         <v>501</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>608</v>
+        <v>552</v>
       </c>
       <c r="D491" s="2" t="n">
-        <v>0.7714578</v>
+        <v>0.900227</v>
       </c>
       <c r="E491" s="2" t="n">
-        <v>1.2211054</v>
+        <v>1.2715634</v>
       </c>
       <c r="F491" s="2" t="n">
-        <v>0.8361186</v>
+        <v>0.63537</v>
       </c>
       <c r="G491" s="2" t="n">
-        <v>1.5690326</v>
+        <v>1.7584564</v>
       </c>
       <c r="H491" s="2" t="n">
-        <v>1.0174042</v>
+        <v>1.0597024</v>
       </c>
       <c r="I491" s="2"/>
       <c r="J491" s="2"/>
@@ -30757,22 +30823,22 @@
         <v>501</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>608</v>
+        <v>552</v>
       </c>
       <c r="D492" s="2" t="n">
-        <v>0.884826</v>
+        <v>0.8865392</v>
       </c>
       <c r="E492" s="2" t="n">
-        <v>1.0265138</v>
+        <v>1.2221014</v>
       </c>
       <c r="F492" s="2" t="n">
-        <v>0.8003172</v>
+        <v>0.8013898</v>
       </c>
       <c r="G492" s="2" t="n">
-        <v>1.6698026</v>
+        <v>1.7237576</v>
       </c>
       <c r="H492" s="2" t="n">
-        <v>1.045488</v>
+        <v>1.0588708</v>
       </c>
       <c r="I492" s="2"/>
       <c r="J492" s="2"/>
@@ -30785,22 +30851,22 @@
         <v>503</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>552</v>
+        <v>608</v>
       </c>
       <c r="D493" s="2" t="n">
-        <v>0.8680328</v>
+        <v>0.9076838</v>
       </c>
       <c r="E493" s="2" t="n">
-        <v>0.9601136</v>
+        <v>1.6404726</v>
       </c>
       <c r="F493" s="2" t="n">
-        <v>0.6507678</v>
+        <v>0.826484</v>
       </c>
       <c r="G493" s="2" t="n">
-        <v>1.599134</v>
+        <v>1.702356</v>
       </c>
       <c r="H493" s="2" t="n">
-        <v>0.9767064</v>
+        <v>0.9477652</v>
       </c>
       <c r="I493" s="2"/>
       <c r="J493" s="2"/>
@@ -30813,22 +30879,22 @@
         <v>503</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>552</v>
+        <v>608</v>
       </c>
       <c r="D494" s="2" t="n">
-        <v>0.900227</v>
+        <v>0.8098368</v>
       </c>
       <c r="E494" s="2" t="n">
-        <v>1.2715634</v>
+        <v>1.22058</v>
       </c>
       <c r="F494" s="2" t="n">
-        <v>0.63537</v>
+        <v>0.8597482</v>
       </c>
       <c r="G494" s="2" t="n">
-        <v>1.7584564</v>
+        <v>1.5360618</v>
       </c>
       <c r="H494" s="2" t="n">
-        <v>1.0597024</v>
+        <v>0.9804028</v>
       </c>
       <c r="I494" s="2"/>
       <c r="J494" s="2"/>
@@ -30841,22 +30907,22 @@
         <v>503</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>552</v>
+        <v>608</v>
       </c>
       <c r="D495" s="2" t="n">
-        <v>0.8865392</v>
+        <v>0.8344692</v>
       </c>
       <c r="E495" s="2" t="n">
-        <v>1.2221014</v>
+        <v>1.4479338</v>
       </c>
       <c r="F495" s="2" t="n">
-        <v>0.8013898</v>
+        <v>0.8217482</v>
       </c>
       <c r="G495" s="2" t="n">
-        <v>1.7237576</v>
+        <v>1.5456154</v>
       </c>
       <c r="H495" s="2" t="n">
-        <v>1.0588708</v>
+        <v>0.8974668</v>
       </c>
       <c r="I495" s="2"/>
       <c r="J495" s="2"/>
@@ -30866,25 +30932,25 @@
         <v>494</v>
       </c>
       <c r="B496" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C496" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C496" s="2" t="s">
-        <v>609</v>
-      </c>
       <c r="D496" s="2" t="n">
-        <v>0.9076838</v>
+        <v>0.902893</v>
       </c>
       <c r="E496" s="2" t="n">
-        <v>1.6404726</v>
+        <v>1.3820886</v>
       </c>
       <c r="F496" s="2" t="n">
-        <v>0.826484</v>
+        <v>1.4093968</v>
       </c>
       <c r="G496" s="2" t="n">
-        <v>1.702356</v>
+        <v>3.750273</v>
       </c>
       <c r="H496" s="2" t="n">
-        <v>0.9477652</v>
+        <v>4.566561</v>
       </c>
       <c r="I496" s="2"/>
       <c r="J496" s="2"/>
@@ -30894,25 +30960,25 @@
         <v>495</v>
       </c>
       <c r="B497" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C497" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C497" s="2" t="s">
-        <v>609</v>
-      </c>
       <c r="D497" s="2" t="n">
-        <v>0.8098368</v>
+        <v>0.9722864</v>
       </c>
       <c r="E497" s="2" t="n">
-        <v>1.22058</v>
+        <v>1.7583426</v>
       </c>
       <c r="F497" s="2" t="n">
-        <v>0.8597482</v>
+        <v>1.1252996</v>
       </c>
       <c r="G497" s="2" t="n">
-        <v>1.5360618</v>
+        <v>1.0125918</v>
       </c>
       <c r="H497" s="2" t="n">
-        <v>0.9804028</v>
+        <v>1.3929312</v>
       </c>
       <c r="I497" s="2"/>
       <c r="J497" s="2"/>
@@ -30922,30 +30988,30 @@
         <v>496</v>
       </c>
       <c r="B498" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C498" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C498" s="2" t="s">
-        <v>609</v>
-      </c>
       <c r="D498" s="2" t="n">
-        <v>0.8344692</v>
+        <v>0.962698</v>
       </c>
       <c r="E498" s="2" t="n">
-        <v>1.4479338</v>
+        <v>1.62837</v>
       </c>
       <c r="F498" s="2" t="n">
-        <v>0.8217482</v>
+        <v>1.5622396</v>
       </c>
       <c r="G498" s="2" t="n">
-        <v>1.5456154</v>
+        <v>0.7198378</v>
       </c>
       <c r="H498" s="2" t="n">
-        <v>0.8974668</v>
+        <v>1.3543272</v>
       </c>
       <c r="I498" s="2"/>
       <c r="J498" s="2"/>
     </row>
-    <row r="499" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A499" s="2" t="n">
         <v>497</v>
       </c>
@@ -30953,27 +31019,27 @@
         <v>506</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>507</v>
+        <v>405</v>
       </c>
       <c r="D499" s="2" t="n">
-        <v>0.902893</v>
+        <v>0.853737</v>
       </c>
       <c r="E499" s="2" t="n">
-        <v>1.3820886</v>
+        <v>1.6648068</v>
       </c>
       <c r="F499" s="2" t="n">
-        <v>1.4093968</v>
+        <v>0.8991646</v>
       </c>
       <c r="G499" s="2" t="n">
-        <v>3.750273</v>
+        <v>1.7603892</v>
       </c>
       <c r="H499" s="2" t="n">
-        <v>4.566561</v>
+        <v>1.119036</v>
       </c>
       <c r="I499" s="2"/>
       <c r="J499" s="2"/>
     </row>
-    <row r="500" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A500" s="2" t="n">
         <v>498</v>
       </c>
@@ -30981,27 +31047,27 @@
         <v>506</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>507</v>
+        <v>405</v>
       </c>
       <c r="D500" s="2" t="n">
-        <v>0.9722864</v>
+        <v>0.8872298</v>
       </c>
       <c r="E500" s="2" t="n">
-        <v>1.7583426</v>
+        <v>1.1535096</v>
       </c>
       <c r="F500" s="2" t="n">
-        <v>1.1252996</v>
+        <v>1.3024888</v>
       </c>
       <c r="G500" s="2" t="n">
-        <v>1.0125918</v>
+        <v>1.730784</v>
       </c>
       <c r="H500" s="2" t="n">
-        <v>1.3929312</v>
+        <v>1.0741262</v>
       </c>
       <c r="I500" s="2"/>
       <c r="J500" s="2"/>
     </row>
-    <row r="501" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A501" s="2" t="n">
         <v>499</v>
       </c>
@@ -31009,27 +31075,27 @@
         <v>506</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>507</v>
+        <v>405</v>
       </c>
       <c r="D501" s="2" t="n">
-        <v>0.962698</v>
+        <v>0.9172644</v>
       </c>
       <c r="E501" s="2" t="n">
-        <v>1.62837</v>
+        <v>1.365737</v>
       </c>
       <c r="F501" s="2" t="n">
-        <v>1.5622396</v>
+        <v>0.9352624</v>
       </c>
       <c r="G501" s="2" t="n">
-        <v>0.7198378</v>
+        <v>1.650674</v>
       </c>
       <c r="H501" s="2" t="n">
-        <v>1.3543272</v>
+        <v>1.722297</v>
       </c>
       <c r="I501" s="2"/>
       <c r="J501" s="2"/>
     </row>
-    <row r="502" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A502" s="2" t="n">
         <v>500</v>
       </c>
@@ -31037,27 +31103,27 @@
         <v>508</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>405</v>
+        <v>162</v>
       </c>
       <c r="D502" s="2" t="n">
-        <v>0.853737</v>
+        <v>0.6928036</v>
       </c>
       <c r="E502" s="2" t="n">
-        <v>1.6648068</v>
+        <v>1.660862</v>
       </c>
       <c r="F502" s="2" t="n">
-        <v>0.8991646</v>
+        <v>0.9608172</v>
       </c>
       <c r="G502" s="2" t="n">
-        <v>1.7603892</v>
+        <v>1.7671318</v>
       </c>
       <c r="H502" s="2" t="n">
-        <v>1.119036</v>
+        <v>1.04363</v>
       </c>
       <c r="I502" s="2"/>
       <c r="J502" s="2"/>
     </row>
-    <row r="503" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A503" s="2" t="n">
         <v>501</v>
       </c>
@@ -31065,27 +31131,27 @@
         <v>508</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>405</v>
+        <v>162</v>
       </c>
       <c r="D503" s="2" t="n">
-        <v>0.8872298</v>
+        <v>0.8496396</v>
       </c>
       <c r="E503" s="2" t="n">
-        <v>1.1535096</v>
+        <v>1.2290708</v>
       </c>
       <c r="F503" s="2" t="n">
-        <v>1.3024888</v>
+        <v>1.0859268</v>
       </c>
       <c r="G503" s="2" t="n">
-        <v>1.730784</v>
+        <v>1.6775256</v>
       </c>
       <c r="H503" s="2" t="n">
-        <v>1.0741262</v>
+        <v>1.0859382</v>
       </c>
       <c r="I503" s="2"/>
       <c r="J503" s="2"/>
     </row>
-    <row r="504" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A504" s="2" t="n">
         <v>502</v>
       </c>
@@ -31093,27 +31159,27 @@
         <v>508</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>405</v>
+        <v>162</v>
       </c>
       <c r="D504" s="2" t="n">
-        <v>0.9172644</v>
+        <v>0.8619582</v>
       </c>
       <c r="E504" s="2" t="n">
-        <v>1.365737</v>
+        <v>1.1731588</v>
       </c>
       <c r="F504" s="2" t="n">
-        <v>0.9352624</v>
+        <v>0.9213984</v>
       </c>
       <c r="G504" s="2" t="n">
-        <v>1.650674</v>
+        <v>1.7066866</v>
       </c>
       <c r="H504" s="2" t="n">
-        <v>1.722297</v>
+        <v>1.0340208</v>
       </c>
       <c r="I504" s="2"/>
       <c r="J504" s="2"/>
     </row>
-    <row r="505" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A505" s="2" t="n">
         <v>503</v>
       </c>
@@ -31121,27 +31187,27 @@
         <v>510</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="D505" s="2" t="n">
-        <v>0.6928036</v>
+        <v>1.1025752</v>
       </c>
       <c r="E505" s="2" t="n">
-        <v>1.660862</v>
+        <v>1.3753974</v>
       </c>
       <c r="F505" s="2" t="n">
-        <v>0.9608172</v>
+        <v>2.0741188</v>
       </c>
       <c r="G505" s="2" t="n">
-        <v>1.7671318</v>
+        <v>8.550659</v>
       </c>
       <c r="H505" s="2" t="n">
-        <v>1.04363</v>
+        <v>4.6251278</v>
       </c>
       <c r="I505" s="2"/>
       <c r="J505" s="2"/>
     </row>
-    <row r="506" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A506" s="2" t="n">
         <v>504</v>
       </c>
@@ -31149,27 +31215,27 @@
         <v>510</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="D506" s="2" t="n">
-        <v>0.8496396</v>
+        <v>1.051075</v>
       </c>
       <c r="E506" s="2" t="n">
-        <v>1.2290708</v>
+        <v>1.3497756</v>
       </c>
       <c r="F506" s="2" t="n">
-        <v>1.0859268</v>
+        <v>1.8506948</v>
       </c>
       <c r="G506" s="2" t="n">
-        <v>1.6775256</v>
+        <v>8.752596</v>
       </c>
       <c r="H506" s="2" t="n">
-        <v>1.0859382</v>
+        <v>4.7264494</v>
       </c>
       <c r="I506" s="2"/>
       <c r="J506" s="2"/>
     </row>
-    <row r="507" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A507" s="2" t="n">
         <v>505</v>
       </c>
@@ -31177,26 +31243,113 @@
         <v>510</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="D507" s="2" t="n">
-        <v>0.8619582</v>
+        <v>1.1888668</v>
       </c>
       <c r="E507" s="2" t="n">
-        <v>1.1731588</v>
+        <v>1.278988</v>
       </c>
       <c r="F507" s="2" t="n">
-        <v>0.9213984</v>
+        <v>1.8601974</v>
       </c>
       <c r="G507" s="2" t="n">
-        <v>1.7066866</v>
+        <v>8.55717</v>
       </c>
       <c r="H507" s="2" t="n">
-        <v>1.0340208</v>
+        <v>4.689786</v>
       </c>
       <c r="I507" s="2"/>
       <c r="J507" s="2"/>
     </row>
+    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A508" s="2" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C508" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D508" s="2" t="n">
+        <v>1.41028</v>
+      </c>
+      <c r="E508" s="2" t="n">
+        <v>1.1500758</v>
+      </c>
+      <c r="F508" s="2" t="n">
+        <v>1.8809402</v>
+      </c>
+      <c r="G508" s="2" t="n">
+        <v>8.4075642</v>
+      </c>
+      <c r="H508" s="2" t="n">
+        <v>4.7726042</v>
+      </c>
+      <c r="I508" s="2"/>
+      <c r="J508" s="2"/>
+    </row>
+    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A509" s="2" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C509" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D509" s="2" t="n">
+        <v>1.078082</v>
+      </c>
+      <c r="E509" s="2" t="n">
+        <v>1.2860596</v>
+      </c>
+      <c r="F509" s="2" t="n">
+        <v>2.0330874</v>
+      </c>
+      <c r="G509" s="2" t="n">
+        <v>8.3598518</v>
+      </c>
+      <c r="H509" s="2" t="n">
+        <v>4.748355</v>
+      </c>
+      <c r="I509" s="2"/>
+      <c r="J509" s="2"/>
+    </row>
+    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A510" s="2" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C510" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D510" s="2" t="n">
+        <v>1.3088728</v>
+      </c>
+      <c r="E510" s="2" t="n">
+        <v>1.1514614</v>
+      </c>
+      <c r="F510" s="2" t="n">
+        <v>1.9620054</v>
+      </c>
+      <c r="G510" s="2" t="n">
+        <v>8.349955</v>
+      </c>
+      <c r="H510" s="2" t="n">
+        <v>4.7291334</v>
+      </c>
+      <c r="I510" s="2"/>
+      <c r="J510" s="2"/>
+    </row>
+    <row r="1048550" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048553" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048554" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048555" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -31218,13 +31371,13 @@
     <row r="1048571" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -31240,7 +31393,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A480" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G509" activeCellId="0" sqref="G509"/>
+      <selection pane="topLeft" activeCell="A489" activeCellId="0" sqref="A489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31551,7 +31704,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D12" s="6" t="n">
         <v>0.7234852</v>
@@ -32045,7 +32198,7 @@
         <v>47</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D31" s="6" t="n">
         <v>0.630812</v>
@@ -33215,7 +33368,7 @@
         <v>104</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D76" s="6" t="n">
         <v>1.1822766</v>
@@ -33293,7 +33446,7 @@
         <v>108</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D79" s="6" t="n">
         <v>1.573159</v>
@@ -34099,7 +34252,7 @@
         <v>143</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D110" s="6" t="n">
         <v>1.1176918</v>
@@ -34203,7 +34356,7 @@
         <v>145</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D114" s="6" t="n">
         <v>0.5937896</v>
@@ -34385,7 +34538,7 @@
         <v>153</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D121" s="6" t="n">
         <v>0.5689302</v>
@@ -34515,7 +34668,7 @@
         <v>161</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D126" s="6" t="n">
         <v>0.6197108</v>
@@ -36105,7 +36258,7 @@
         <v>228</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D184" s="6" t="n">
         <v>0.4261214</v>
@@ -37023,7 +37176,7 @@
         <v>267</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D217" s="6" t="n">
         <v>0.4100988</v>
@@ -37499,7 +37652,7 @@
         <v>288</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D234" s="6" t="n">
         <v>1.2197114</v>
@@ -38143,7 +38296,7 @@
         <v>313</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D257" s="6" t="n">
         <v>0.886213</v>
@@ -40427,7 +40580,7 @@
         <v>392</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D339" s="6" t="n">
         <v>0.6414728</v>
@@ -41267,7 +41420,7 @@
         <v>417</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D369" s="6" t="n">
         <v>0.3139382</v>
@@ -44648,225 +44801,223 @@
       <c r="J489" s="6"/>
     </row>
     <row r="490" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A490" s="2" t="n">
+      <c r="A490" s="6" t="n">
         <v>488</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>501</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>606</v>
+        <v>158</v>
       </c>
       <c r="D490" s="2" t="n">
-        <v>1.5341708</v>
+        <v>0.4997572</v>
       </c>
       <c r="E490" s="2" t="n">
-        <v>1.4026132</v>
+        <v>0.6460042</v>
       </c>
       <c r="F490" s="2" t="n">
-        <v>0.6188246</v>
+        <v>0.6715078</v>
       </c>
       <c r="G490" s="2" t="n">
-        <v>0.7386876</v>
+        <v>0.763224</v>
       </c>
       <c r="H490" s="2" t="n">
-        <v>0.641491</v>
+        <v>0.6651402</v>
       </c>
       <c r="I490" s="2"/>
       <c r="J490" s="2"/>
     </row>
     <row r="491" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A491" s="2" t="n">
+      <c r="A491" s="6" t="n">
         <v>489</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>501</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>606</v>
+        <v>158</v>
       </c>
       <c r="D491" s="2" t="n">
-        <v>0.4853276</v>
+        <v>0.4994066</v>
       </c>
       <c r="E491" s="2" t="n">
-        <v>0.532265</v>
+        <v>0.5564818</v>
       </c>
       <c r="F491" s="2" t="n">
-        <v>0.6469696</v>
+        <v>0.6201876</v>
       </c>
       <c r="G491" s="2" t="n">
-        <v>0.7375988</v>
+        <v>0.7564108</v>
       </c>
       <c r="H491" s="2" t="n">
-        <v>0.6723608</v>
+        <v>0.66043</v>
       </c>
       <c r="I491" s="2"/>
       <c r="J491" s="2"/>
     </row>
     <row r="492" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A492" s="2" t="n">
+      <c r="A492" s="6" t="n">
         <v>490</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>501</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>606</v>
+        <v>158</v>
       </c>
       <c r="D492" s="2" t="n">
-        <v>1.1055186</v>
+        <v>0.4698166</v>
       </c>
       <c r="E492" s="2" t="n">
-        <v>0.5109848</v>
+        <v>0.595164</v>
       </c>
       <c r="F492" s="2" t="n">
-        <v>0.566197</v>
+        <v>0.6875434</v>
       </c>
       <c r="G492" s="2" t="n">
-        <v>0.7509684</v>
+        <v>0.7699682</v>
       </c>
       <c r="H492" s="2" t="n">
-        <v>0.6222966</v>
+        <v>0.742557</v>
       </c>
       <c r="I492" s="2"/>
       <c r="J492" s="2"/>
     </row>
     <row r="493" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A493" s="2" t="n">
+      <c r="A493" s="6" t="n">
         <v>491</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>503</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>158</v>
+        <v>536</v>
       </c>
       <c r="D493" s="2" t="n">
-        <v>0.4997572</v>
+        <v>0.6201398</v>
       </c>
       <c r="E493" s="2" t="n">
-        <v>0.6460042</v>
+        <v>0.7491792</v>
       </c>
       <c r="F493" s="2" t="n">
-        <v>0.6715078</v>
+        <v>0.7853822</v>
       </c>
       <c r="G493" s="2" t="n">
-        <v>0.763224</v>
+        <v>1.0770234</v>
       </c>
       <c r="H493" s="2" t="n">
-        <v>0.6651402</v>
+        <v>0.7864628</v>
       </c>
       <c r="I493" s="2"/>
       <c r="J493" s="2"/>
     </row>
     <row r="494" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A494" s="2" t="n">
+      <c r="A494" s="6" t="n">
         <v>492</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>503</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>158</v>
+        <v>536</v>
       </c>
       <c r="D494" s="2" t="n">
-        <v>0.4994066</v>
+        <v>0.6970964</v>
       </c>
       <c r="E494" s="2" t="n">
-        <v>0.5564818</v>
+        <v>0.7329094</v>
       </c>
       <c r="F494" s="2" t="n">
-        <v>0.6201876</v>
+        <v>0.5993306</v>
       </c>
       <c r="G494" s="2" t="n">
-        <v>0.7564108</v>
+        <v>0.729024</v>
       </c>
       <c r="H494" s="2" t="n">
-        <v>0.66043</v>
+        <v>0.6515556</v>
       </c>
       <c r="I494" s="2"/>
       <c r="J494" s="2"/>
     </row>
     <row r="495" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A495" s="2" t="n">
+      <c r="A495" s="6" t="n">
         <v>493</v>
       </c>
-      <c r="B495" s="2" t="s">
+      <c r="B495" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="C495" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D495" s="2" t="n">
-        <v>0.4698166</v>
-      </c>
-      <c r="E495" s="2" t="n">
-        <v>0.595164</v>
-      </c>
-      <c r="F495" s="2" t="n">
-        <v>0.6875434</v>
-      </c>
-      <c r="G495" s="2" t="n">
-        <v>0.7699682</v>
-      </c>
-      <c r="H495" s="2" t="n">
-        <v>0.742557</v>
-      </c>
-      <c r="I495" s="2"/>
-      <c r="J495" s="2"/>
+      <c r="C495" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D495" s="3" t="n">
+        <v>0.4302906</v>
+      </c>
+      <c r="E495" s="3" t="n">
+        <v>0.5974914</v>
+      </c>
+      <c r="F495" s="3" t="n">
+        <v>0.8178286</v>
+      </c>
+      <c r="G495" s="3" t="n">
+        <v>0.7490268</v>
+      </c>
+      <c r="H495" s="3" t="n">
+        <v>0.6368014</v>
+      </c>
     </row>
     <row r="496" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A496" s="2" t="n">
+      <c r="A496" s="6" t="n">
         <v>494</v>
       </c>
       <c r="B496" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C496" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C496" s="2" t="s">
-        <v>535</v>
-      </c>
       <c r="D496" s="2" t="n">
-        <v>0.6201398</v>
+        <v>0.4616658</v>
       </c>
       <c r="E496" s="2" t="n">
-        <v>0.7491792</v>
+        <v>0.6983416</v>
       </c>
       <c r="F496" s="2" t="n">
-        <v>0.7853822</v>
+        <v>0.6237926</v>
       </c>
       <c r="G496" s="2" t="n">
-        <v>1.0770234</v>
+        <v>0.8065948</v>
       </c>
       <c r="H496" s="2" t="n">
-        <v>0.7864628</v>
+        <v>0.6534992</v>
       </c>
       <c r="I496" s="2"/>
       <c r="J496" s="2"/>
     </row>
     <row r="497" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A497" s="2" t="n">
+      <c r="A497" s="6" t="n">
         <v>495</v>
       </c>
       <c r="B497" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C497" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C497" s="2" t="s">
-        <v>535</v>
-      </c>
       <c r="D497" s="2" t="n">
-        <v>0.6970964</v>
+        <v>0.4664916</v>
       </c>
       <c r="E497" s="2" t="n">
-        <v>0.7329094</v>
+        <v>3.3238104</v>
       </c>
       <c r="F497" s="2" t="n">
-        <v>0.5993306</v>
+        <v>0.6338494</v>
       </c>
       <c r="G497" s="2" t="n">
-        <v>0.729024</v>
+        <v>0.7437514</v>
       </c>
       <c r="H497" s="2" t="n">
-        <v>0.6515556</v>
+        <v>0.6140002</v>
       </c>
       <c r="I497" s="2"/>
       <c r="J497" s="2"/>
@@ -44875,30 +45026,32 @@
       <c r="A498" s="6" t="n">
         <v>496</v>
       </c>
-      <c r="B498" s="3" t="s">
+      <c r="B498" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C498" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C498" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="D498" s="3" t="n">
-        <v>0.4302906</v>
-      </c>
-      <c r="E498" s="3" t="n">
-        <v>0.5974914</v>
-      </c>
-      <c r="F498" s="3" t="n">
-        <v>0.8178286</v>
-      </c>
-      <c r="G498" s="3" t="n">
-        <v>0.7490268</v>
-      </c>
-      <c r="H498" s="3" t="n">
-        <v>0.6368014</v>
-      </c>
-    </row>
-    <row r="499" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="2" t="n">
+      <c r="D498" s="2" t="n">
+        <v>0.4912284</v>
+      </c>
+      <c r="E498" s="2" t="n">
+        <v>0.542007</v>
+      </c>
+      <c r="F498" s="2" t="n">
+        <v>0.6550364</v>
+      </c>
+      <c r="G498" s="2" t="n">
+        <v>0.7490678</v>
+      </c>
+      <c r="H498" s="2" t="n">
+        <v>0.7051598</v>
+      </c>
+      <c r="I498" s="2"/>
+      <c r="J498" s="2"/>
+    </row>
+    <row r="499" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A499" s="6" t="n">
         <v>497</v>
       </c>
       <c r="B499" s="2" t="s">
@@ -44908,25 +45061,25 @@
         <v>507</v>
       </c>
       <c r="D499" s="2" t="n">
-        <v>0.4616658</v>
+        <v>0.5381288</v>
       </c>
       <c r="E499" s="2" t="n">
-        <v>0.6983416</v>
+        <v>0.626351</v>
       </c>
       <c r="F499" s="2" t="n">
-        <v>0.6237926</v>
+        <v>0.636972</v>
       </c>
       <c r="G499" s="2" t="n">
-        <v>0.8065948</v>
+        <v>0.7923758</v>
       </c>
       <c r="H499" s="2" t="n">
-        <v>0.6534992</v>
+        <v>0.6919386</v>
       </c>
       <c r="I499" s="2"/>
       <c r="J499" s="2"/>
     </row>
-    <row r="500" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="2" t="n">
+    <row r="500" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A500" s="6" t="n">
         <v>498</v>
       </c>
       <c r="B500" s="2" t="s">
@@ -44936,25 +45089,25 @@
         <v>507</v>
       </c>
       <c r="D500" s="2" t="n">
-        <v>0.4664916</v>
+        <v>0.5448046</v>
       </c>
       <c r="E500" s="2" t="n">
-        <v>3.3238104</v>
+        <v>0.5582292</v>
       </c>
       <c r="F500" s="2" t="n">
-        <v>0.6338494</v>
+        <v>0.6491638</v>
       </c>
       <c r="G500" s="2" t="n">
-        <v>0.7437514</v>
+        <v>0.8454056</v>
       </c>
       <c r="H500" s="2" t="n">
-        <v>0.6140002</v>
+        <v>0.6408562</v>
       </c>
       <c r="I500" s="2"/>
       <c r="J500" s="2"/>
     </row>
-    <row r="501" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="2" t="n">
+    <row r="501" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A501" s="6" t="n">
         <v>499</v>
       </c>
       <c r="B501" s="2" t="s">
@@ -44964,191 +45117,278 @@
         <v>507</v>
       </c>
       <c r="D501" s="2" t="n">
-        <v>0.4912284</v>
+        <v>0.5146488</v>
       </c>
       <c r="E501" s="2" t="n">
-        <v>0.542007</v>
+        <v>0.6418102</v>
       </c>
       <c r="F501" s="2" t="n">
-        <v>0.6550364</v>
+        <v>0.6257912</v>
       </c>
       <c r="G501" s="2" t="n">
-        <v>0.7490678</v>
+        <v>0.8719402</v>
       </c>
       <c r="H501" s="2" t="n">
-        <v>0.7051598</v>
+        <v>0.639911</v>
       </c>
       <c r="I501" s="2"/>
       <c r="J501" s="2"/>
     </row>
-    <row r="502" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="2" t="n">
+    <row r="502" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A502" s="6" t="n">
         <v>500</v>
       </c>
       <c r="B502" s="2" t="s">
         <v>508</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>509</v>
+        <v>163</v>
       </c>
       <c r="D502" s="2" t="n">
-        <v>0.5381288</v>
+        <v>0.4512022</v>
       </c>
       <c r="E502" s="2" t="n">
-        <v>0.626351</v>
+        <v>0.5616344</v>
       </c>
       <c r="F502" s="2" t="n">
-        <v>0.636972</v>
+        <v>0.5910752</v>
       </c>
       <c r="G502" s="2" t="n">
-        <v>0.7923758</v>
+        <v>0.7405148</v>
       </c>
       <c r="H502" s="2" t="n">
-        <v>0.6919386</v>
+        <v>0.6300148</v>
       </c>
       <c r="I502" s="2"/>
       <c r="J502" s="2"/>
     </row>
-    <row r="503" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="2" t="n">
+    <row r="503" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A503" s="6" t="n">
         <v>501</v>
       </c>
       <c r="B503" s="2" t="s">
         <v>508</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>509</v>
+        <v>163</v>
       </c>
       <c r="D503" s="2" t="n">
-        <v>0.5448046</v>
+        <v>0.5575442</v>
       </c>
       <c r="E503" s="2" t="n">
-        <v>0.5582292</v>
+        <v>0.5710296</v>
       </c>
       <c r="F503" s="2" t="n">
-        <v>0.6491638</v>
+        <v>0.5833924</v>
       </c>
       <c r="G503" s="2" t="n">
-        <v>0.8454056</v>
+        <v>0.710665</v>
       </c>
       <c r="H503" s="2" t="n">
-        <v>0.6408562</v>
+        <v>0.5768722</v>
       </c>
       <c r="I503" s="2"/>
       <c r="J503" s="2"/>
     </row>
-    <row r="504" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="2" t="n">
+    <row r="504" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A504" s="6" t="n">
         <v>502</v>
       </c>
       <c r="B504" s="2" t="s">
         <v>508</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>509</v>
+        <v>163</v>
       </c>
       <c r="D504" s="2" t="n">
-        <v>0.5146488</v>
+        <v>0.4457766</v>
       </c>
       <c r="E504" s="2" t="n">
-        <v>0.6418102</v>
+        <v>0.5922374</v>
       </c>
       <c r="F504" s="2" t="n">
-        <v>0.6257912</v>
+        <v>0.6344526</v>
       </c>
       <c r="G504" s="2" t="n">
-        <v>0.8719402</v>
+        <v>0.615281</v>
       </c>
       <c r="H504" s="2" t="n">
-        <v>0.639911</v>
+        <v>0.5863066</v>
       </c>
       <c r="I504" s="2"/>
       <c r="J504" s="2"/>
     </row>
-    <row r="505" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="2" t="n">
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A505" s="6" t="n">
         <v>503</v>
       </c>
       <c r="B505" s="2" t="s">
         <v>510</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>163</v>
+        <v>630</v>
       </c>
       <c r="D505" s="2" t="n">
-        <v>0.4512022</v>
+        <v>0.4059978</v>
       </c>
       <c r="E505" s="2" t="n">
-        <v>0.5616344</v>
+        <v>0.4557694</v>
       </c>
       <c r="F505" s="2" t="n">
-        <v>0.5910752</v>
+        <v>0.5190718</v>
       </c>
       <c r="G505" s="2" t="n">
-        <v>0.7405148</v>
+        <v>0.7201964</v>
       </c>
       <c r="H505" s="2" t="n">
-        <v>0.6300148</v>
+        <v>0.6531232</v>
       </c>
       <c r="I505" s="2"/>
       <c r="J505" s="2"/>
     </row>
-    <row r="506" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="2" t="n">
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A506" s="6" t="n">
         <v>504</v>
       </c>
       <c r="B506" s="2" t="s">
         <v>510</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>163</v>
+        <v>630</v>
       </c>
       <c r="D506" s="2" t="n">
-        <v>0.5575442</v>
+        <v>0.3735444</v>
       </c>
       <c r="E506" s="2" t="n">
-        <v>0.5710296</v>
+        <v>0.490933</v>
       </c>
       <c r="F506" s="2" t="n">
-        <v>0.5833924</v>
+        <v>0.6268288</v>
       </c>
       <c r="G506" s="2" t="n">
-        <v>0.710665</v>
+        <v>0.6865318</v>
       </c>
       <c r="H506" s="2" t="n">
-        <v>0.5768722</v>
+        <v>0.4791436</v>
       </c>
       <c r="I506" s="2"/>
       <c r="J506" s="2"/>
     </row>
-    <row r="507" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="2" t="n">
+    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A507" s="6" t="n">
         <v>505</v>
       </c>
       <c r="B507" s="2" t="s">
         <v>510</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>163</v>
+        <v>630</v>
       </c>
       <c r="D507" s="2" t="n">
-        <v>0.4457766</v>
+        <v>0.4866296</v>
       </c>
       <c r="E507" s="2" t="n">
-        <v>0.5922374</v>
+        <v>0.439551</v>
       </c>
       <c r="F507" s="2" t="n">
-        <v>0.6344526</v>
+        <v>0.67202</v>
       </c>
       <c r="G507" s="2" t="n">
-        <v>0.615281</v>
+        <v>0.669964</v>
       </c>
       <c r="H507" s="2" t="n">
-        <v>0.5863066</v>
+        <v>0.5841988</v>
       </c>
       <c r="I507" s="2"/>
       <c r="J507" s="2"/>
     </row>
+    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A508" s="6" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C508" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D508" s="2" t="n">
+        <v>0.4783864</v>
+      </c>
+      <c r="E508" s="2" t="n">
+        <v>0.554795</v>
+      </c>
+      <c r="F508" s="2" t="n">
+        <v>0.6355536</v>
+      </c>
+      <c r="G508" s="2" t="n">
+        <v>0.76621</v>
+      </c>
+      <c r="H508" s="2" t="n">
+        <v>0.6551878</v>
+      </c>
+      <c r="I508" s="2"/>
+      <c r="J508" s="2"/>
+    </row>
+    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A509" s="6" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C509" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D509" s="2" t="n">
+        <v>0.4406528</v>
+      </c>
+      <c r="E509" s="2" t="n">
+        <v>0.5365264</v>
+      </c>
+      <c r="F509" s="2" t="n">
+        <v>0.7735058</v>
+      </c>
+      <c r="G509" s="2" t="n">
+        <v>0.7867458</v>
+      </c>
+      <c r="H509" s="2" t="n">
+        <v>0.5928286</v>
+      </c>
+      <c r="I509" s="2"/>
+      <c r="J509" s="2"/>
+    </row>
+    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A510" s="6" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C510" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D510" s="2" t="n">
+        <v>0.5024064</v>
+      </c>
+      <c r="E510" s="2" t="n">
+        <v>0.5047862</v>
+      </c>
+      <c r="F510" s="2" t="n">
+        <v>0.6033726</v>
+      </c>
+      <c r="G510" s="2" t="n">
+        <v>0.8968028</v>
+      </c>
+      <c r="H510" s="2" t="n">
+        <v>0.6622568</v>
+      </c>
+      <c r="I510" s="2"/>
+      <c r="J510" s="2"/>
+    </row>
+    <row r="1048550" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048553" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048554" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048555" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -45170,16 +45410,16 @@
     <row r="1048571" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;KffffffPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -47610,7 +47850,7 @@
         <v>127</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D93" s="2" t="n">
         <v>4.559301</v>
@@ -48052,7 +48292,7 @@
         <v>143</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D110" s="2" t="n">
         <v>4.0021732</v>
@@ -48468,7 +48708,7 @@
         <v>161</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D126" s="2" t="n">
         <v>3.6994948</v>
@@ -49694,7 +49934,7 @@
         <v>212</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D171" s="2" t="n">
         <v>4.669323</v>
@@ -50030,7 +50270,7 @@
         <v>228</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D183" s="2" t="n">
         <v>0.915316</v>
@@ -52046,7 +52286,7 @@
         <v>313</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D255" s="2" t="n">
         <v>1.491883</v>
@@ -53026,7 +53266,7 @@
         <v>344</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D290" s="2" t="n">
         <v>1.3500846</v>
@@ -54034,7 +54274,7 @@
         <v>376</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D326" s="2" t="n">
         <v>1.0858874</v>
@@ -54370,7 +54610,7 @@
         <v>388</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D338" s="2" t="n">
         <v>1.2845608</v>
@@ -54846,7 +55086,7 @@
         <v>404</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D355" s="2" t="n">
         <v>1.6885894</v>
@@ -55462,7 +55702,7 @@
         <v>425</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D377" s="2" t="n">
         <v>1.6755382</v>
@@ -58623,10 +58863,10 @@
         <v>488</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>501</v>
+        <v>729</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D490" s="2" t="n">
         <v>2.057122</v>
@@ -58651,10 +58891,10 @@
         <v>489</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>501</v>
+        <v>729</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D491" s="2" t="n">
         <v>1.9502374</v>
@@ -58679,10 +58919,10 @@
         <v>490</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>501</v>
+        <v>729</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D492" s="2" t="n">
         <v>1.1761782</v>
@@ -58707,10 +58947,10 @@
         <v>491</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D493" s="2" t="n">
         <v>1.1956456</v>
@@ -58735,10 +58975,10 @@
         <v>492</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D494" s="2" t="n">
         <v>1.4465664</v>
@@ -58763,10 +59003,10 @@
         <v>493</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D495" s="2" t="n">
         <v>1.1092868</v>
@@ -58791,7 +59031,7 @@
         <v>494</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>56</v>
@@ -58819,7 +59059,7 @@
         <v>495</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>56</v>
@@ -58847,7 +59087,7 @@
         <v>496</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>56</v>
@@ -58870,15 +59110,15 @@
       <c r="I498" s="2"/>
       <c r="J498" s="2"/>
     </row>
-    <row r="499" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A499" s="2" t="n">
         <v>497</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D499" s="2" t="n">
         <v>1.301174</v>
@@ -58898,15 +59138,15 @@
       <c r="I499" s="2"/>
       <c r="J499" s="2"/>
     </row>
-    <row r="500" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A500" s="2" t="n">
         <v>498</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D500" s="2" t="n">
         <v>0.9536202</v>
@@ -58926,15 +59166,15 @@
       <c r="I500" s="2"/>
       <c r="J500" s="2"/>
     </row>
-    <row r="501" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A501" s="2" t="n">
         <v>499</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D501" s="2" t="n">
         <v>1.5324538</v>
@@ -58954,12 +59194,12 @@
       <c r="I501" s="2"/>
       <c r="J501" s="2"/>
     </row>
-    <row r="502" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A502" s="2" t="n">
         <v>500</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>657</v>
@@ -58982,12 +59222,12 @@
       <c r="I502" s="2"/>
       <c r="J502" s="2"/>
     </row>
-    <row r="503" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A503" s="2" t="n">
         <v>501</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>657</v>
@@ -59010,12 +59250,12 @@
       <c r="I503" s="2"/>
       <c r="J503" s="2"/>
     </row>
-    <row r="504" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A504" s="2" t="n">
         <v>502</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>657</v>
@@ -59038,12 +59278,12 @@
       <c r="I504" s="2"/>
       <c r="J504" s="2"/>
     </row>
-    <row r="505" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A505" s="2" t="n">
         <v>503</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>162</v>
@@ -59066,12 +59306,12 @@
       <c r="I505" s="2"/>
       <c r="J505" s="2"/>
     </row>
-    <row r="506" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A506" s="2" t="n">
         <v>504</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>162</v>
@@ -59094,12 +59334,12 @@
       <c r="I506" s="2"/>
       <c r="J506" s="2"/>
     </row>
-    <row r="507" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A507" s="2" t="n">
         <v>505</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>162</v>
@@ -59121,6 +59361,90 @@
       </c>
       <c r="I507" s="2"/>
       <c r="J507" s="2"/>
+    </row>
+    <row r="508" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A508" s="2" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C508" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D508" s="2" t="n">
+        <v>2.2366376</v>
+      </c>
+      <c r="E508" s="2" t="n">
+        <v>2.292919</v>
+      </c>
+      <c r="F508" s="2" t="n">
+        <v>3.0344664</v>
+      </c>
+      <c r="G508" s="2" t="n">
+        <v>11.3777136</v>
+      </c>
+      <c r="H508" s="2" t="n">
+        <v>7.0082878</v>
+      </c>
+      <c r="I508" s="2"/>
+      <c r="J508" s="2"/>
+    </row>
+    <row r="509" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A509" s="2" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C509" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D509" s="2" t="n">
+        <v>2.2916616</v>
+      </c>
+      <c r="E509" s="2" t="n">
+        <v>2.3077892</v>
+      </c>
+      <c r="F509" s="2" t="n">
+        <v>3.5718046</v>
+      </c>
+      <c r="G509" s="2" t="n">
+        <v>11.1199506</v>
+      </c>
+      <c r="H509" s="2" t="n">
+        <v>7.0231906</v>
+      </c>
+      <c r="I509" s="2"/>
+      <c r="J509" s="2"/>
+    </row>
+    <row r="510" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A510" s="2" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C510" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D510" s="2" t="n">
+        <v>2.1303274</v>
+      </c>
+      <c r="E510" s="2" t="n">
+        <v>2.2965188</v>
+      </c>
+      <c r="F510" s="2" t="n">
+        <v>3.1259612</v>
+      </c>
+      <c r="G510" s="2" t="n">
+        <v>11.2481364</v>
+      </c>
+      <c r="H510" s="2" t="n">
+        <v>6.8171342</v>
+      </c>
+      <c r="I510" s="2"/>
+      <c r="J510" s="2"/>
     </row>
     <row r="1048557" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048558" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -59144,8 +59468,8 @@
     <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
